--- a/GPS_ChecklistForAutoTest.xlsx
+++ b/GPS_ChecklistForAutoTest.xlsx
@@ -518,7 +518,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M47"/>
+  <dimension ref="A1:M1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
@@ -959,11 +959,7 @@
         </is>
       </c>
       <c r="G14" s="2" t="n"/>
-      <c r="H14" s="1" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="H14" s="1" t="inlineStr"/>
       <c r="I14" s="1" t="inlineStr"/>
       <c r="J14" s="1" t="n"/>
       <c r="K14" s="1" t="n"/>
@@ -1330,11 +1326,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="H28" s="1" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="H28" s="1" t="inlineStr"/>
       <c r="I28" s="1" t="inlineStr"/>
       <c r="J28" s="1" t="n"/>
       <c r="K28" s="1" t="n"/>
@@ -1360,16 +1352,8 @@
         </is>
       </c>
       <c r="G29" s="2" t="n"/>
-      <c r="H29" s="1" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
-      <c r="I29" s="1" t="inlineStr">
-        <is>
-          <t>Login20_GhiNhoDangNhap_BoTichChon.png</t>
-        </is>
-      </c>
+      <c r="H29" s="1" t="inlineStr"/>
+      <c r="I29" s="1" t="inlineStr"/>
       <c r="J29" s="1" t="n"/>
       <c r="K29" s="1" t="n"/>
       <c r="L29" s="1" t="n"/>
@@ -1390,11 +1374,7 @@
       <c r="E30" s="2" t="n"/>
       <c r="F30" s="2" t="n"/>
       <c r="G30" s="2" t="n"/>
-      <c r="H30" s="1" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="H30" s="1" t="inlineStr"/>
       <c r="I30" s="1" t="inlineStr"/>
       <c r="J30" s="1" t="n"/>
       <c r="K30" s="1" t="n"/>
@@ -1651,6 +1631,3818 @@
       <c r="J47" s="1" t="n"/>
       <c r="K47" s="1" t="n"/>
       <c r="L47" s="1" t="n"/>
+    </row>
+    <row r="48">
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="H178" t="inlineStr"/>
+      <c r="I178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="H180" t="inlineStr"/>
+      <c r="I180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="H190" t="inlineStr"/>
+      <c r="I190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="H191" t="inlineStr"/>
+      <c r="I191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="H192" t="inlineStr"/>
+      <c r="I192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="H193" t="inlineStr"/>
+      <c r="I193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="H194" t="inlineStr"/>
+      <c r="I194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="H195" t="inlineStr"/>
+      <c r="I195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="H196" t="inlineStr"/>
+      <c r="I196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="H197" t="inlineStr"/>
+      <c r="I197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="H198" t="inlineStr"/>
+      <c r="I198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="H199" t="inlineStr"/>
+      <c r="I199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="H200" t="inlineStr"/>
+      <c r="I200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="H201" t="inlineStr"/>
+      <c r="I201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="H202" t="inlineStr"/>
+      <c r="I202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="H203" t="inlineStr"/>
+      <c r="I203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="H204" t="inlineStr"/>
+      <c r="I204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="H205" t="inlineStr"/>
+      <c r="I205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="H206" t="inlineStr"/>
+      <c r="I206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="H207" t="inlineStr"/>
+      <c r="I207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="H208" t="inlineStr"/>
+      <c r="I208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="H209" t="inlineStr"/>
+      <c r="I209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="H210" t="inlineStr"/>
+      <c r="I210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="H211" t="inlineStr"/>
+      <c r="I211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="H212" t="inlineStr"/>
+      <c r="I212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="H213" t="inlineStr"/>
+      <c r="I213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="H214" t="inlineStr"/>
+      <c r="I214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="H215" t="inlineStr"/>
+      <c r="I215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="H216" t="inlineStr"/>
+      <c r="I216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="H217" t="inlineStr"/>
+      <c r="I217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="H218" t="inlineStr"/>
+      <c r="I218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="H219" t="inlineStr"/>
+      <c r="I219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="H220" t="inlineStr"/>
+      <c r="I220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="H221" t="inlineStr"/>
+      <c r="I221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="H222" t="inlineStr"/>
+      <c r="I222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="H223" t="inlineStr"/>
+      <c r="I223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="H224" t="inlineStr"/>
+      <c r="I224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="H225" t="inlineStr"/>
+      <c r="I225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="H226" t="inlineStr"/>
+      <c r="I226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="H227" t="inlineStr"/>
+      <c r="I227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="H228" t="inlineStr"/>
+      <c r="I228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="H229" t="inlineStr"/>
+      <c r="I229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="H230" t="inlineStr"/>
+      <c r="I230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="H231" t="inlineStr"/>
+      <c r="I231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="H232" t="inlineStr"/>
+      <c r="I232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="H233" t="inlineStr"/>
+      <c r="I233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="H234" t="inlineStr"/>
+      <c r="I234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="H235" t="inlineStr"/>
+      <c r="I235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="H236" t="inlineStr"/>
+      <c r="I236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="H237" t="inlineStr"/>
+      <c r="I237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="H238" t="inlineStr"/>
+      <c r="I238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="H239" t="inlineStr"/>
+      <c r="I239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="H240" t="inlineStr"/>
+      <c r="I240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="H241" t="inlineStr"/>
+      <c r="I241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="H242" t="inlineStr"/>
+      <c r="I242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="H243" t="inlineStr"/>
+      <c r="I243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="H244" t="inlineStr"/>
+      <c r="I244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="H245" t="inlineStr"/>
+      <c r="I245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="H246" t="inlineStr"/>
+      <c r="I246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="H247" t="inlineStr"/>
+      <c r="I247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="H248" t="inlineStr"/>
+      <c r="I248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="H249" t="inlineStr"/>
+      <c r="I249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="H250" t="inlineStr"/>
+      <c r="I250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="H251" t="inlineStr"/>
+      <c r="I251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="H252" t="inlineStr"/>
+      <c r="I252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="H253" t="inlineStr"/>
+      <c r="I253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="H254" t="inlineStr"/>
+      <c r="I254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="H255" t="inlineStr"/>
+      <c r="I255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="H256" t="inlineStr"/>
+      <c r="I256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="H257" t="inlineStr"/>
+      <c r="I257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="H258" t="inlineStr"/>
+      <c r="I258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="H259" t="inlineStr"/>
+      <c r="I259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="H260" t="inlineStr"/>
+      <c r="I260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="H261" t="inlineStr"/>
+      <c r="I261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="H262" t="inlineStr"/>
+      <c r="I262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="H263" t="inlineStr"/>
+      <c r="I263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="H264" t="inlineStr"/>
+      <c r="I264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="H265" t="inlineStr"/>
+      <c r="I265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="H266" t="inlineStr"/>
+      <c r="I266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="H267" t="inlineStr"/>
+      <c r="I267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="H268" t="inlineStr"/>
+      <c r="I268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="H269" t="inlineStr"/>
+      <c r="I269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="H270" t="inlineStr"/>
+      <c r="I270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="H271" t="inlineStr"/>
+      <c r="I271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="H272" t="inlineStr"/>
+      <c r="I272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="H273" t="inlineStr"/>
+      <c r="I273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="H274" t="inlineStr"/>
+      <c r="I274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="H275" t="inlineStr"/>
+      <c r="I275" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="H276" t="inlineStr"/>
+      <c r="I276" t="inlineStr"/>
+    </row>
+    <row r="277">
+      <c r="H277" t="inlineStr"/>
+      <c r="I277" t="inlineStr"/>
+    </row>
+    <row r="278">
+      <c r="H278" t="inlineStr"/>
+      <c r="I278" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="H279" t="inlineStr"/>
+      <c r="I279" t="inlineStr"/>
+    </row>
+    <row r="280">
+      <c r="H280" t="inlineStr"/>
+      <c r="I280" t="inlineStr"/>
+    </row>
+    <row r="281">
+      <c r="H281" t="inlineStr"/>
+      <c r="I281" t="inlineStr"/>
+    </row>
+    <row r="282">
+      <c r="H282" t="inlineStr"/>
+      <c r="I282" t="inlineStr"/>
+    </row>
+    <row r="283">
+      <c r="H283" t="inlineStr"/>
+      <c r="I283" t="inlineStr"/>
+    </row>
+    <row r="284">
+      <c r="H284" t="inlineStr"/>
+      <c r="I284" t="inlineStr"/>
+    </row>
+    <row r="285">
+      <c r="H285" t="inlineStr"/>
+      <c r="I285" t="inlineStr"/>
+    </row>
+    <row r="286">
+      <c r="H286" t="inlineStr"/>
+      <c r="I286" t="inlineStr"/>
+    </row>
+    <row r="287">
+      <c r="H287" t="inlineStr"/>
+      <c r="I287" t="inlineStr"/>
+    </row>
+    <row r="288">
+      <c r="H288" t="inlineStr"/>
+      <c r="I288" t="inlineStr"/>
+    </row>
+    <row r="289">
+      <c r="H289" t="inlineStr"/>
+      <c r="I289" t="inlineStr"/>
+    </row>
+    <row r="290">
+      <c r="H290" t="inlineStr"/>
+      <c r="I290" t="inlineStr"/>
+    </row>
+    <row r="291">
+      <c r="H291" t="inlineStr"/>
+      <c r="I291" t="inlineStr"/>
+    </row>
+    <row r="292">
+      <c r="H292" t="inlineStr"/>
+      <c r="I292" t="inlineStr"/>
+    </row>
+    <row r="293">
+      <c r="H293" t="inlineStr"/>
+      <c r="I293" t="inlineStr"/>
+    </row>
+    <row r="294">
+      <c r="H294" t="inlineStr"/>
+      <c r="I294" t="inlineStr"/>
+    </row>
+    <row r="295">
+      <c r="H295" t="inlineStr"/>
+      <c r="I295" t="inlineStr"/>
+    </row>
+    <row r="296">
+      <c r="H296" t="inlineStr"/>
+      <c r="I296" t="inlineStr"/>
+    </row>
+    <row r="297">
+      <c r="H297" t="inlineStr"/>
+      <c r="I297" t="inlineStr"/>
+    </row>
+    <row r="298">
+      <c r="H298" t="inlineStr"/>
+      <c r="I298" t="inlineStr"/>
+    </row>
+    <row r="299">
+      <c r="H299" t="inlineStr"/>
+      <c r="I299" t="inlineStr"/>
+    </row>
+    <row r="300">
+      <c r="H300" t="inlineStr"/>
+      <c r="I300" t="inlineStr"/>
+    </row>
+    <row r="301">
+      <c r="H301" t="inlineStr"/>
+      <c r="I301" t="inlineStr"/>
+    </row>
+    <row r="302">
+      <c r="H302" t="inlineStr"/>
+      <c r="I302" t="inlineStr"/>
+    </row>
+    <row r="303">
+      <c r="H303" t="inlineStr"/>
+      <c r="I303" t="inlineStr"/>
+    </row>
+    <row r="304">
+      <c r="H304" t="inlineStr"/>
+      <c r="I304" t="inlineStr"/>
+    </row>
+    <row r="305">
+      <c r="H305" t="inlineStr"/>
+      <c r="I305" t="inlineStr"/>
+    </row>
+    <row r="306">
+      <c r="H306" t="inlineStr"/>
+      <c r="I306" t="inlineStr"/>
+    </row>
+    <row r="307">
+      <c r="H307" t="inlineStr"/>
+      <c r="I307" t="inlineStr"/>
+    </row>
+    <row r="308">
+      <c r="H308" t="inlineStr"/>
+      <c r="I308" t="inlineStr"/>
+    </row>
+    <row r="309">
+      <c r="H309" t="inlineStr"/>
+      <c r="I309" t="inlineStr"/>
+    </row>
+    <row r="310">
+      <c r="H310" t="inlineStr"/>
+      <c r="I310" t="inlineStr"/>
+    </row>
+    <row r="311">
+      <c r="H311" t="inlineStr"/>
+      <c r="I311" t="inlineStr"/>
+    </row>
+    <row r="312">
+      <c r="H312" t="inlineStr"/>
+      <c r="I312" t="inlineStr"/>
+    </row>
+    <row r="313">
+      <c r="H313" t="inlineStr"/>
+      <c r="I313" t="inlineStr"/>
+    </row>
+    <row r="314">
+      <c r="H314" t="inlineStr"/>
+      <c r="I314" t="inlineStr"/>
+    </row>
+    <row r="315">
+      <c r="H315" t="inlineStr"/>
+      <c r="I315" t="inlineStr"/>
+    </row>
+    <row r="316">
+      <c r="H316" t="inlineStr"/>
+      <c r="I316" t="inlineStr"/>
+    </row>
+    <row r="317">
+      <c r="H317" t="inlineStr"/>
+      <c r="I317" t="inlineStr"/>
+    </row>
+    <row r="318">
+      <c r="H318" t="inlineStr"/>
+      <c r="I318" t="inlineStr"/>
+    </row>
+    <row r="319">
+      <c r="H319" t="inlineStr"/>
+      <c r="I319" t="inlineStr"/>
+    </row>
+    <row r="320">
+      <c r="H320" t="inlineStr"/>
+      <c r="I320" t="inlineStr"/>
+    </row>
+    <row r="321">
+      <c r="H321" t="inlineStr"/>
+      <c r="I321" t="inlineStr"/>
+    </row>
+    <row r="322">
+      <c r="H322" t="inlineStr"/>
+      <c r="I322" t="inlineStr"/>
+    </row>
+    <row r="323">
+      <c r="H323" t="inlineStr"/>
+      <c r="I323" t="inlineStr"/>
+    </row>
+    <row r="324">
+      <c r="H324" t="inlineStr"/>
+      <c r="I324" t="inlineStr"/>
+    </row>
+    <row r="325">
+      <c r="H325" t="inlineStr"/>
+      <c r="I325" t="inlineStr"/>
+    </row>
+    <row r="326">
+      <c r="H326" t="inlineStr"/>
+      <c r="I326" t="inlineStr"/>
+    </row>
+    <row r="327">
+      <c r="H327" t="inlineStr"/>
+      <c r="I327" t="inlineStr"/>
+    </row>
+    <row r="328">
+      <c r="H328" t="inlineStr"/>
+      <c r="I328" t="inlineStr"/>
+    </row>
+    <row r="329">
+      <c r="H329" t="inlineStr"/>
+      <c r="I329" t="inlineStr"/>
+    </row>
+    <row r="330">
+      <c r="H330" t="inlineStr"/>
+      <c r="I330" t="inlineStr"/>
+    </row>
+    <row r="331">
+      <c r="H331" t="inlineStr"/>
+      <c r="I331" t="inlineStr"/>
+    </row>
+    <row r="332">
+      <c r="H332" t="inlineStr"/>
+      <c r="I332" t="inlineStr"/>
+    </row>
+    <row r="333">
+      <c r="H333" t="inlineStr"/>
+      <c r="I333" t="inlineStr"/>
+    </row>
+    <row r="334">
+      <c r="H334" t="inlineStr"/>
+      <c r="I334" t="inlineStr"/>
+    </row>
+    <row r="335">
+      <c r="H335" t="inlineStr"/>
+      <c r="I335" t="inlineStr"/>
+    </row>
+    <row r="336">
+      <c r="H336" t="inlineStr"/>
+      <c r="I336" t="inlineStr"/>
+    </row>
+    <row r="337">
+      <c r="H337" t="inlineStr"/>
+      <c r="I337" t="inlineStr"/>
+    </row>
+    <row r="338">
+      <c r="H338" t="inlineStr"/>
+      <c r="I338" t="inlineStr"/>
+    </row>
+    <row r="339">
+      <c r="H339" t="inlineStr"/>
+      <c r="I339" t="inlineStr"/>
+    </row>
+    <row r="340">
+      <c r="H340" t="inlineStr"/>
+      <c r="I340" t="inlineStr"/>
+    </row>
+    <row r="341">
+      <c r="H341" t="inlineStr"/>
+      <c r="I341" t="inlineStr"/>
+    </row>
+    <row r="342">
+      <c r="H342" t="inlineStr"/>
+      <c r="I342" t="inlineStr"/>
+    </row>
+    <row r="343">
+      <c r="H343" t="inlineStr"/>
+      <c r="I343" t="inlineStr"/>
+    </row>
+    <row r="344">
+      <c r="H344" t="inlineStr"/>
+      <c r="I344" t="inlineStr"/>
+    </row>
+    <row r="345">
+      <c r="H345" t="inlineStr"/>
+      <c r="I345" t="inlineStr"/>
+    </row>
+    <row r="346">
+      <c r="H346" t="inlineStr"/>
+      <c r="I346" t="inlineStr"/>
+    </row>
+    <row r="347">
+      <c r="H347" t="inlineStr"/>
+      <c r="I347" t="inlineStr"/>
+    </row>
+    <row r="348">
+      <c r="H348" t="inlineStr"/>
+      <c r="I348" t="inlineStr"/>
+    </row>
+    <row r="349">
+      <c r="H349" t="inlineStr"/>
+      <c r="I349" t="inlineStr"/>
+    </row>
+    <row r="350">
+      <c r="H350" t="inlineStr"/>
+      <c r="I350" t="inlineStr"/>
+    </row>
+    <row r="351">
+      <c r="H351" t="inlineStr"/>
+      <c r="I351" t="inlineStr"/>
+    </row>
+    <row r="352">
+      <c r="H352" t="inlineStr"/>
+      <c r="I352" t="inlineStr"/>
+    </row>
+    <row r="353">
+      <c r="H353" t="inlineStr"/>
+      <c r="I353" t="inlineStr"/>
+    </row>
+    <row r="354">
+      <c r="H354" t="inlineStr"/>
+      <c r="I354" t="inlineStr"/>
+    </row>
+    <row r="355">
+      <c r="H355" t="inlineStr"/>
+      <c r="I355" t="inlineStr"/>
+    </row>
+    <row r="356">
+      <c r="H356" t="inlineStr"/>
+      <c r="I356" t="inlineStr"/>
+    </row>
+    <row r="357">
+      <c r="H357" t="inlineStr"/>
+      <c r="I357" t="inlineStr"/>
+    </row>
+    <row r="358">
+      <c r="H358" t="inlineStr"/>
+      <c r="I358" t="inlineStr"/>
+    </row>
+    <row r="359">
+      <c r="H359" t="inlineStr"/>
+      <c r="I359" t="inlineStr"/>
+    </row>
+    <row r="360">
+      <c r="H360" t="inlineStr"/>
+      <c r="I360" t="inlineStr"/>
+    </row>
+    <row r="361">
+      <c r="H361" t="inlineStr"/>
+      <c r="I361" t="inlineStr"/>
+    </row>
+    <row r="362">
+      <c r="H362" t="inlineStr"/>
+      <c r="I362" t="inlineStr"/>
+    </row>
+    <row r="363">
+      <c r="H363" t="inlineStr"/>
+      <c r="I363" t="inlineStr"/>
+    </row>
+    <row r="364">
+      <c r="H364" t="inlineStr"/>
+      <c r="I364" t="inlineStr"/>
+    </row>
+    <row r="365">
+      <c r="H365" t="inlineStr"/>
+      <c r="I365" t="inlineStr"/>
+    </row>
+    <row r="366">
+      <c r="H366" t="inlineStr"/>
+      <c r="I366" t="inlineStr"/>
+    </row>
+    <row r="367">
+      <c r="H367" t="inlineStr"/>
+      <c r="I367" t="inlineStr"/>
+    </row>
+    <row r="368">
+      <c r="H368" t="inlineStr"/>
+      <c r="I368" t="inlineStr"/>
+    </row>
+    <row r="369">
+      <c r="H369" t="inlineStr"/>
+      <c r="I369" t="inlineStr"/>
+    </row>
+    <row r="370">
+      <c r="H370" t="inlineStr"/>
+      <c r="I370" t="inlineStr"/>
+    </row>
+    <row r="371">
+      <c r="H371" t="inlineStr"/>
+      <c r="I371" t="inlineStr"/>
+    </row>
+    <row r="372">
+      <c r="H372" t="inlineStr"/>
+      <c r="I372" t="inlineStr"/>
+    </row>
+    <row r="373">
+      <c r="H373" t="inlineStr"/>
+      <c r="I373" t="inlineStr"/>
+    </row>
+    <row r="374">
+      <c r="H374" t="inlineStr"/>
+      <c r="I374" t="inlineStr"/>
+    </row>
+    <row r="375">
+      <c r="H375" t="inlineStr"/>
+      <c r="I375" t="inlineStr"/>
+    </row>
+    <row r="376">
+      <c r="H376" t="inlineStr"/>
+      <c r="I376" t="inlineStr"/>
+    </row>
+    <row r="377">
+      <c r="H377" t="inlineStr"/>
+      <c r="I377" t="inlineStr"/>
+    </row>
+    <row r="378">
+      <c r="H378" t="inlineStr"/>
+      <c r="I378" t="inlineStr"/>
+    </row>
+    <row r="379">
+      <c r="H379" t="inlineStr"/>
+      <c r="I379" t="inlineStr"/>
+    </row>
+    <row r="380">
+      <c r="H380" t="inlineStr"/>
+      <c r="I380" t="inlineStr"/>
+    </row>
+    <row r="381">
+      <c r="H381" t="inlineStr"/>
+      <c r="I381" t="inlineStr"/>
+    </row>
+    <row r="382">
+      <c r="H382" t="inlineStr"/>
+      <c r="I382" t="inlineStr"/>
+    </row>
+    <row r="383">
+      <c r="H383" t="inlineStr"/>
+      <c r="I383" t="inlineStr"/>
+    </row>
+    <row r="384">
+      <c r="H384" t="inlineStr"/>
+      <c r="I384" t="inlineStr"/>
+    </row>
+    <row r="385">
+      <c r="H385" t="inlineStr"/>
+      <c r="I385" t="inlineStr"/>
+    </row>
+    <row r="386">
+      <c r="H386" t="inlineStr"/>
+      <c r="I386" t="inlineStr"/>
+    </row>
+    <row r="387">
+      <c r="H387" t="inlineStr"/>
+      <c r="I387" t="inlineStr"/>
+    </row>
+    <row r="388">
+      <c r="H388" t="inlineStr"/>
+      <c r="I388" t="inlineStr"/>
+    </row>
+    <row r="389">
+      <c r="H389" t="inlineStr"/>
+      <c r="I389" t="inlineStr"/>
+    </row>
+    <row r="390">
+      <c r="H390" t="inlineStr"/>
+      <c r="I390" t="inlineStr"/>
+    </row>
+    <row r="391">
+      <c r="H391" t="inlineStr"/>
+      <c r="I391" t="inlineStr"/>
+    </row>
+    <row r="392">
+      <c r="H392" t="inlineStr"/>
+      <c r="I392" t="inlineStr"/>
+    </row>
+    <row r="393">
+      <c r="H393" t="inlineStr"/>
+      <c r="I393" t="inlineStr"/>
+    </row>
+    <row r="394">
+      <c r="H394" t="inlineStr"/>
+      <c r="I394" t="inlineStr"/>
+    </row>
+    <row r="395">
+      <c r="H395" t="inlineStr"/>
+      <c r="I395" t="inlineStr"/>
+    </row>
+    <row r="396">
+      <c r="H396" t="inlineStr"/>
+      <c r="I396" t="inlineStr"/>
+    </row>
+    <row r="397">
+      <c r="H397" t="inlineStr"/>
+      <c r="I397" t="inlineStr"/>
+    </row>
+    <row r="398">
+      <c r="H398" t="inlineStr"/>
+      <c r="I398" t="inlineStr"/>
+    </row>
+    <row r="399">
+      <c r="H399" t="inlineStr"/>
+      <c r="I399" t="inlineStr"/>
+    </row>
+    <row r="400">
+      <c r="H400" t="inlineStr"/>
+      <c r="I400" t="inlineStr"/>
+    </row>
+    <row r="401">
+      <c r="H401" t="inlineStr"/>
+      <c r="I401" t="inlineStr"/>
+    </row>
+    <row r="402">
+      <c r="H402" t="inlineStr"/>
+      <c r="I402" t="inlineStr"/>
+    </row>
+    <row r="403">
+      <c r="H403" t="inlineStr"/>
+      <c r="I403" t="inlineStr"/>
+    </row>
+    <row r="404">
+      <c r="H404" t="inlineStr"/>
+      <c r="I404" t="inlineStr"/>
+    </row>
+    <row r="405">
+      <c r="H405" t="inlineStr"/>
+      <c r="I405" t="inlineStr"/>
+    </row>
+    <row r="406">
+      <c r="H406" t="inlineStr"/>
+      <c r="I406" t="inlineStr"/>
+    </row>
+    <row r="407">
+      <c r="H407" t="inlineStr"/>
+      <c r="I407" t="inlineStr"/>
+    </row>
+    <row r="408">
+      <c r="H408" t="inlineStr"/>
+      <c r="I408" t="inlineStr"/>
+    </row>
+    <row r="409">
+      <c r="H409" t="inlineStr"/>
+      <c r="I409" t="inlineStr"/>
+    </row>
+    <row r="410">
+      <c r="H410" t="inlineStr"/>
+      <c r="I410" t="inlineStr"/>
+    </row>
+    <row r="411">
+      <c r="H411" t="inlineStr"/>
+      <c r="I411" t="inlineStr"/>
+    </row>
+    <row r="412">
+      <c r="H412" t="inlineStr"/>
+      <c r="I412" t="inlineStr"/>
+    </row>
+    <row r="413">
+      <c r="H413" t="inlineStr"/>
+      <c r="I413" t="inlineStr"/>
+    </row>
+    <row r="414">
+      <c r="H414" t="inlineStr"/>
+      <c r="I414" t="inlineStr"/>
+    </row>
+    <row r="415">
+      <c r="H415" t="inlineStr"/>
+      <c r="I415" t="inlineStr"/>
+    </row>
+    <row r="416">
+      <c r="H416" t="inlineStr"/>
+      <c r="I416" t="inlineStr"/>
+    </row>
+    <row r="417">
+      <c r="H417" t="inlineStr"/>
+      <c r="I417" t="inlineStr"/>
+    </row>
+    <row r="418">
+      <c r="H418" t="inlineStr"/>
+      <c r="I418" t="inlineStr"/>
+    </row>
+    <row r="419">
+      <c r="H419" t="inlineStr"/>
+      <c r="I419" t="inlineStr"/>
+    </row>
+    <row r="420">
+      <c r="H420" t="inlineStr"/>
+      <c r="I420" t="inlineStr"/>
+    </row>
+    <row r="421">
+      <c r="H421" t="inlineStr"/>
+      <c r="I421" t="inlineStr"/>
+    </row>
+    <row r="422">
+      <c r="H422" t="inlineStr"/>
+      <c r="I422" t="inlineStr"/>
+    </row>
+    <row r="423">
+      <c r="H423" t="inlineStr"/>
+      <c r="I423" t="inlineStr"/>
+    </row>
+    <row r="424">
+      <c r="H424" t="inlineStr"/>
+      <c r="I424" t="inlineStr"/>
+    </row>
+    <row r="425">
+      <c r="H425" t="inlineStr"/>
+      <c r="I425" t="inlineStr"/>
+    </row>
+    <row r="426">
+      <c r="H426" t="inlineStr"/>
+      <c r="I426" t="inlineStr"/>
+    </row>
+    <row r="427">
+      <c r="H427" t="inlineStr"/>
+      <c r="I427" t="inlineStr"/>
+    </row>
+    <row r="428">
+      <c r="H428" t="inlineStr"/>
+      <c r="I428" t="inlineStr"/>
+    </row>
+    <row r="429">
+      <c r="H429" t="inlineStr"/>
+      <c r="I429" t="inlineStr"/>
+    </row>
+    <row r="430">
+      <c r="H430" t="inlineStr"/>
+      <c r="I430" t="inlineStr"/>
+    </row>
+    <row r="431">
+      <c r="H431" t="inlineStr"/>
+      <c r="I431" t="inlineStr"/>
+    </row>
+    <row r="432">
+      <c r="H432" t="inlineStr"/>
+      <c r="I432" t="inlineStr"/>
+    </row>
+    <row r="433">
+      <c r="H433" t="inlineStr"/>
+      <c r="I433" t="inlineStr"/>
+    </row>
+    <row r="434">
+      <c r="H434" t="inlineStr"/>
+      <c r="I434" t="inlineStr"/>
+    </row>
+    <row r="435">
+      <c r="H435" t="inlineStr"/>
+      <c r="I435" t="inlineStr"/>
+    </row>
+    <row r="436">
+      <c r="H436" t="inlineStr"/>
+      <c r="I436" t="inlineStr"/>
+    </row>
+    <row r="437">
+      <c r="H437" t="inlineStr"/>
+      <c r="I437" t="inlineStr"/>
+    </row>
+    <row r="438">
+      <c r="H438" t="inlineStr"/>
+      <c r="I438" t="inlineStr"/>
+    </row>
+    <row r="439">
+      <c r="H439" t="inlineStr"/>
+      <c r="I439" t="inlineStr"/>
+    </row>
+    <row r="440">
+      <c r="H440" t="inlineStr"/>
+      <c r="I440" t="inlineStr"/>
+    </row>
+    <row r="441">
+      <c r="H441" t="inlineStr"/>
+      <c r="I441" t="inlineStr"/>
+    </row>
+    <row r="442">
+      <c r="H442" t="inlineStr"/>
+      <c r="I442" t="inlineStr"/>
+    </row>
+    <row r="443">
+      <c r="H443" t="inlineStr"/>
+      <c r="I443" t="inlineStr"/>
+    </row>
+    <row r="444">
+      <c r="H444" t="inlineStr"/>
+      <c r="I444" t="inlineStr"/>
+    </row>
+    <row r="445">
+      <c r="H445" t="inlineStr"/>
+      <c r="I445" t="inlineStr"/>
+    </row>
+    <row r="446">
+      <c r="H446" t="inlineStr"/>
+      <c r="I446" t="inlineStr"/>
+    </row>
+    <row r="447">
+      <c r="H447" t="inlineStr"/>
+      <c r="I447" t="inlineStr"/>
+    </row>
+    <row r="448">
+      <c r="H448" t="inlineStr"/>
+      <c r="I448" t="inlineStr"/>
+    </row>
+    <row r="449">
+      <c r="H449" t="inlineStr"/>
+      <c r="I449" t="inlineStr"/>
+    </row>
+    <row r="450">
+      <c r="H450" t="inlineStr"/>
+      <c r="I450" t="inlineStr"/>
+    </row>
+    <row r="451">
+      <c r="H451" t="inlineStr"/>
+      <c r="I451" t="inlineStr"/>
+    </row>
+    <row r="452">
+      <c r="H452" t="inlineStr"/>
+      <c r="I452" t="inlineStr"/>
+    </row>
+    <row r="453">
+      <c r="H453" t="inlineStr"/>
+      <c r="I453" t="inlineStr"/>
+    </row>
+    <row r="454">
+      <c r="H454" t="inlineStr"/>
+      <c r="I454" t="inlineStr"/>
+    </row>
+    <row r="455">
+      <c r="H455" t="inlineStr"/>
+      <c r="I455" t="inlineStr"/>
+    </row>
+    <row r="456">
+      <c r="H456" t="inlineStr"/>
+      <c r="I456" t="inlineStr"/>
+    </row>
+    <row r="457">
+      <c r="H457" t="inlineStr"/>
+      <c r="I457" t="inlineStr"/>
+    </row>
+    <row r="458">
+      <c r="H458" t="inlineStr"/>
+      <c r="I458" t="inlineStr"/>
+    </row>
+    <row r="459">
+      <c r="H459" t="inlineStr"/>
+      <c r="I459" t="inlineStr"/>
+    </row>
+    <row r="460">
+      <c r="H460" t="inlineStr"/>
+      <c r="I460" t="inlineStr"/>
+    </row>
+    <row r="461">
+      <c r="H461" t="inlineStr"/>
+      <c r="I461" t="inlineStr"/>
+    </row>
+    <row r="462">
+      <c r="H462" t="inlineStr"/>
+      <c r="I462" t="inlineStr"/>
+    </row>
+    <row r="463">
+      <c r="H463" t="inlineStr"/>
+      <c r="I463" t="inlineStr"/>
+    </row>
+    <row r="464">
+      <c r="H464" t="inlineStr"/>
+      <c r="I464" t="inlineStr"/>
+    </row>
+    <row r="465">
+      <c r="H465" t="inlineStr"/>
+      <c r="I465" t="inlineStr"/>
+    </row>
+    <row r="466">
+      <c r="H466" t="inlineStr"/>
+      <c r="I466" t="inlineStr"/>
+    </row>
+    <row r="467">
+      <c r="H467" t="inlineStr"/>
+      <c r="I467" t="inlineStr"/>
+    </row>
+    <row r="468">
+      <c r="H468" t="inlineStr"/>
+      <c r="I468" t="inlineStr"/>
+    </row>
+    <row r="469">
+      <c r="H469" t="inlineStr"/>
+      <c r="I469" t="inlineStr"/>
+    </row>
+    <row r="470">
+      <c r="H470" t="inlineStr"/>
+      <c r="I470" t="inlineStr"/>
+    </row>
+    <row r="471">
+      <c r="H471" t="inlineStr"/>
+      <c r="I471" t="inlineStr"/>
+    </row>
+    <row r="472">
+      <c r="H472" t="inlineStr"/>
+      <c r="I472" t="inlineStr"/>
+    </row>
+    <row r="473">
+      <c r="H473" t="inlineStr"/>
+      <c r="I473" t="inlineStr"/>
+    </row>
+    <row r="474">
+      <c r="H474" t="inlineStr"/>
+      <c r="I474" t="inlineStr"/>
+    </row>
+    <row r="475">
+      <c r="H475" t="inlineStr"/>
+      <c r="I475" t="inlineStr"/>
+    </row>
+    <row r="476">
+      <c r="H476" t="inlineStr"/>
+      <c r="I476" t="inlineStr"/>
+    </row>
+    <row r="477">
+      <c r="H477" t="inlineStr"/>
+      <c r="I477" t="inlineStr"/>
+    </row>
+    <row r="478">
+      <c r="H478" t="inlineStr"/>
+      <c r="I478" t="inlineStr"/>
+    </row>
+    <row r="479">
+      <c r="H479" t="inlineStr"/>
+      <c r="I479" t="inlineStr"/>
+    </row>
+    <row r="480">
+      <c r="H480" t="inlineStr"/>
+      <c r="I480" t="inlineStr"/>
+    </row>
+    <row r="481">
+      <c r="H481" t="inlineStr"/>
+      <c r="I481" t="inlineStr"/>
+    </row>
+    <row r="482">
+      <c r="H482" t="inlineStr"/>
+      <c r="I482" t="inlineStr"/>
+    </row>
+    <row r="483">
+      <c r="H483" t="inlineStr"/>
+      <c r="I483" t="inlineStr"/>
+    </row>
+    <row r="484">
+      <c r="H484" t="inlineStr"/>
+      <c r="I484" t="inlineStr"/>
+    </row>
+    <row r="485">
+      <c r="H485" t="inlineStr"/>
+      <c r="I485" t="inlineStr"/>
+    </row>
+    <row r="486">
+      <c r="H486" t="inlineStr"/>
+      <c r="I486" t="inlineStr"/>
+    </row>
+    <row r="487">
+      <c r="H487" t="inlineStr"/>
+      <c r="I487" t="inlineStr"/>
+    </row>
+    <row r="488">
+      <c r="H488" t="inlineStr"/>
+      <c r="I488" t="inlineStr"/>
+    </row>
+    <row r="489">
+      <c r="H489" t="inlineStr"/>
+      <c r="I489" t="inlineStr"/>
+    </row>
+    <row r="490">
+      <c r="H490" t="inlineStr"/>
+      <c r="I490" t="inlineStr"/>
+    </row>
+    <row r="491">
+      <c r="H491" t="inlineStr"/>
+      <c r="I491" t="inlineStr"/>
+    </row>
+    <row r="492">
+      <c r="H492" t="inlineStr"/>
+      <c r="I492" t="inlineStr"/>
+    </row>
+    <row r="493">
+      <c r="H493" t="inlineStr"/>
+      <c r="I493" t="inlineStr"/>
+    </row>
+    <row r="494">
+      <c r="H494" t="inlineStr"/>
+      <c r="I494" t="inlineStr"/>
+    </row>
+    <row r="495">
+      <c r="H495" t="inlineStr"/>
+      <c r="I495" t="inlineStr"/>
+    </row>
+    <row r="496">
+      <c r="H496" t="inlineStr"/>
+      <c r="I496" t="inlineStr"/>
+    </row>
+    <row r="497">
+      <c r="H497" t="inlineStr"/>
+      <c r="I497" t="inlineStr"/>
+    </row>
+    <row r="498">
+      <c r="H498" t="inlineStr"/>
+      <c r="I498" t="inlineStr"/>
+    </row>
+    <row r="499">
+      <c r="H499" t="inlineStr"/>
+      <c r="I499" t="inlineStr"/>
+    </row>
+    <row r="500">
+      <c r="H500" t="inlineStr"/>
+      <c r="I500" t="inlineStr"/>
+    </row>
+    <row r="501">
+      <c r="H501" t="inlineStr"/>
+      <c r="I501" t="inlineStr"/>
+    </row>
+    <row r="502">
+      <c r="H502" t="inlineStr"/>
+      <c r="I502" t="inlineStr"/>
+    </row>
+    <row r="503">
+      <c r="H503" t="inlineStr"/>
+      <c r="I503" t="inlineStr"/>
+    </row>
+    <row r="504">
+      <c r="H504" t="inlineStr"/>
+      <c r="I504" t="inlineStr"/>
+    </row>
+    <row r="505">
+      <c r="H505" t="inlineStr"/>
+      <c r="I505" t="inlineStr"/>
+    </row>
+    <row r="506">
+      <c r="H506" t="inlineStr"/>
+      <c r="I506" t="inlineStr"/>
+    </row>
+    <row r="507">
+      <c r="H507" t="inlineStr"/>
+      <c r="I507" t="inlineStr"/>
+    </row>
+    <row r="508">
+      <c r="H508" t="inlineStr"/>
+      <c r="I508" t="inlineStr"/>
+    </row>
+    <row r="509">
+      <c r="H509" t="inlineStr"/>
+      <c r="I509" t="inlineStr"/>
+    </row>
+    <row r="510">
+      <c r="H510" t="inlineStr"/>
+      <c r="I510" t="inlineStr"/>
+    </row>
+    <row r="511">
+      <c r="H511" t="inlineStr"/>
+      <c r="I511" t="inlineStr"/>
+    </row>
+    <row r="512">
+      <c r="H512" t="inlineStr"/>
+      <c r="I512" t="inlineStr"/>
+    </row>
+    <row r="513">
+      <c r="H513" t="inlineStr"/>
+      <c r="I513" t="inlineStr"/>
+    </row>
+    <row r="514">
+      <c r="H514" t="inlineStr"/>
+      <c r="I514" t="inlineStr"/>
+    </row>
+    <row r="515">
+      <c r="H515" t="inlineStr"/>
+      <c r="I515" t="inlineStr"/>
+    </row>
+    <row r="516">
+      <c r="H516" t="inlineStr"/>
+      <c r="I516" t="inlineStr"/>
+    </row>
+    <row r="517">
+      <c r="H517" t="inlineStr"/>
+      <c r="I517" t="inlineStr"/>
+    </row>
+    <row r="518">
+      <c r="H518" t="inlineStr"/>
+      <c r="I518" t="inlineStr"/>
+    </row>
+    <row r="519">
+      <c r="H519" t="inlineStr"/>
+      <c r="I519" t="inlineStr"/>
+    </row>
+    <row r="520">
+      <c r="H520" t="inlineStr"/>
+      <c r="I520" t="inlineStr"/>
+    </row>
+    <row r="521">
+      <c r="H521" t="inlineStr"/>
+      <c r="I521" t="inlineStr"/>
+    </row>
+    <row r="522">
+      <c r="H522" t="inlineStr"/>
+      <c r="I522" t="inlineStr"/>
+    </row>
+    <row r="523">
+      <c r="H523" t="inlineStr"/>
+      <c r="I523" t="inlineStr"/>
+    </row>
+    <row r="524">
+      <c r="H524" t="inlineStr"/>
+      <c r="I524" t="inlineStr"/>
+    </row>
+    <row r="525">
+      <c r="H525" t="inlineStr"/>
+      <c r="I525" t="inlineStr"/>
+    </row>
+    <row r="526">
+      <c r="H526" t="inlineStr"/>
+      <c r="I526" t="inlineStr"/>
+    </row>
+    <row r="527">
+      <c r="H527" t="inlineStr"/>
+      <c r="I527" t="inlineStr"/>
+    </row>
+    <row r="528">
+      <c r="H528" t="inlineStr"/>
+      <c r="I528" t="inlineStr"/>
+    </row>
+    <row r="529">
+      <c r="H529" t="inlineStr"/>
+      <c r="I529" t="inlineStr"/>
+    </row>
+    <row r="530">
+      <c r="H530" t="inlineStr"/>
+      <c r="I530" t="inlineStr"/>
+    </row>
+    <row r="531">
+      <c r="H531" t="inlineStr"/>
+      <c r="I531" t="inlineStr"/>
+    </row>
+    <row r="532">
+      <c r="H532" t="inlineStr"/>
+      <c r="I532" t="inlineStr"/>
+    </row>
+    <row r="533">
+      <c r="H533" t="inlineStr"/>
+      <c r="I533" t="inlineStr"/>
+    </row>
+    <row r="534">
+      <c r="H534" t="inlineStr"/>
+      <c r="I534" t="inlineStr"/>
+    </row>
+    <row r="535">
+      <c r="H535" t="inlineStr"/>
+      <c r="I535" t="inlineStr"/>
+    </row>
+    <row r="536">
+      <c r="H536" t="inlineStr"/>
+      <c r="I536" t="inlineStr"/>
+    </row>
+    <row r="537">
+      <c r="H537" t="inlineStr"/>
+      <c r="I537" t="inlineStr"/>
+    </row>
+    <row r="538">
+      <c r="H538" t="inlineStr"/>
+      <c r="I538" t="inlineStr"/>
+    </row>
+    <row r="539">
+      <c r="H539" t="inlineStr"/>
+      <c r="I539" t="inlineStr"/>
+    </row>
+    <row r="540">
+      <c r="H540" t="inlineStr"/>
+      <c r="I540" t="inlineStr"/>
+    </row>
+    <row r="541">
+      <c r="H541" t="inlineStr"/>
+      <c r="I541" t="inlineStr"/>
+    </row>
+    <row r="542">
+      <c r="H542" t="inlineStr"/>
+      <c r="I542" t="inlineStr"/>
+    </row>
+    <row r="543">
+      <c r="H543" t="inlineStr"/>
+      <c r="I543" t="inlineStr"/>
+    </row>
+    <row r="544">
+      <c r="H544" t="inlineStr"/>
+      <c r="I544" t="inlineStr"/>
+    </row>
+    <row r="545">
+      <c r="H545" t="inlineStr"/>
+      <c r="I545" t="inlineStr"/>
+    </row>
+    <row r="546">
+      <c r="H546" t="inlineStr"/>
+      <c r="I546" t="inlineStr"/>
+    </row>
+    <row r="547">
+      <c r="H547" t="inlineStr"/>
+      <c r="I547" t="inlineStr"/>
+    </row>
+    <row r="548">
+      <c r="H548" t="inlineStr"/>
+      <c r="I548" t="inlineStr"/>
+    </row>
+    <row r="549">
+      <c r="H549" t="inlineStr"/>
+      <c r="I549" t="inlineStr"/>
+    </row>
+    <row r="550">
+      <c r="H550" t="inlineStr"/>
+      <c r="I550" t="inlineStr"/>
+    </row>
+    <row r="551">
+      <c r="H551" t="inlineStr"/>
+      <c r="I551" t="inlineStr"/>
+    </row>
+    <row r="552">
+      <c r="H552" t="inlineStr"/>
+      <c r="I552" t="inlineStr"/>
+    </row>
+    <row r="553">
+      <c r="H553" t="inlineStr"/>
+      <c r="I553" t="inlineStr"/>
+    </row>
+    <row r="554">
+      <c r="H554" t="inlineStr"/>
+      <c r="I554" t="inlineStr"/>
+    </row>
+    <row r="555">
+      <c r="H555" t="inlineStr"/>
+      <c r="I555" t="inlineStr"/>
+    </row>
+    <row r="556">
+      <c r="H556" t="inlineStr"/>
+      <c r="I556" t="inlineStr"/>
+    </row>
+    <row r="557">
+      <c r="H557" t="inlineStr"/>
+      <c r="I557" t="inlineStr"/>
+    </row>
+    <row r="558">
+      <c r="H558" t="inlineStr"/>
+      <c r="I558" t="inlineStr"/>
+    </row>
+    <row r="559">
+      <c r="H559" t="inlineStr"/>
+      <c r="I559" t="inlineStr"/>
+    </row>
+    <row r="560">
+      <c r="H560" t="inlineStr"/>
+      <c r="I560" t="inlineStr"/>
+    </row>
+    <row r="561">
+      <c r="H561" t="inlineStr"/>
+      <c r="I561" t="inlineStr"/>
+    </row>
+    <row r="562">
+      <c r="H562" t="inlineStr"/>
+      <c r="I562" t="inlineStr"/>
+    </row>
+    <row r="563">
+      <c r="H563" t="inlineStr"/>
+      <c r="I563" t="inlineStr"/>
+    </row>
+    <row r="564">
+      <c r="H564" t="inlineStr"/>
+      <c r="I564" t="inlineStr"/>
+    </row>
+    <row r="565">
+      <c r="H565" t="inlineStr"/>
+      <c r="I565" t="inlineStr"/>
+    </row>
+    <row r="566">
+      <c r="H566" t="inlineStr"/>
+      <c r="I566" t="inlineStr"/>
+    </row>
+    <row r="567">
+      <c r="H567" t="inlineStr"/>
+      <c r="I567" t="inlineStr"/>
+    </row>
+    <row r="568">
+      <c r="H568" t="inlineStr"/>
+      <c r="I568" t="inlineStr"/>
+    </row>
+    <row r="569">
+      <c r="H569" t="inlineStr"/>
+      <c r="I569" t="inlineStr"/>
+    </row>
+    <row r="570">
+      <c r="H570" t="inlineStr"/>
+      <c r="I570" t="inlineStr"/>
+    </row>
+    <row r="571">
+      <c r="H571" t="inlineStr"/>
+      <c r="I571" t="inlineStr"/>
+    </row>
+    <row r="572">
+      <c r="H572" t="inlineStr"/>
+      <c r="I572" t="inlineStr"/>
+    </row>
+    <row r="573">
+      <c r="H573" t="inlineStr"/>
+      <c r="I573" t="inlineStr"/>
+    </row>
+    <row r="574">
+      <c r="H574" t="inlineStr"/>
+      <c r="I574" t="inlineStr"/>
+    </row>
+    <row r="575">
+      <c r="H575" t="inlineStr"/>
+      <c r="I575" t="inlineStr"/>
+    </row>
+    <row r="576">
+      <c r="H576" t="inlineStr"/>
+      <c r="I576" t="inlineStr"/>
+    </row>
+    <row r="577">
+      <c r="H577" t="inlineStr"/>
+      <c r="I577" t="inlineStr"/>
+    </row>
+    <row r="578">
+      <c r="H578" t="inlineStr"/>
+      <c r="I578" t="inlineStr"/>
+    </row>
+    <row r="579">
+      <c r="H579" t="inlineStr"/>
+      <c r="I579" t="inlineStr"/>
+    </row>
+    <row r="580">
+      <c r="H580" t="inlineStr"/>
+      <c r="I580" t="inlineStr"/>
+    </row>
+    <row r="581">
+      <c r="H581" t="inlineStr"/>
+      <c r="I581" t="inlineStr"/>
+    </row>
+    <row r="582">
+      <c r="H582" t="inlineStr"/>
+      <c r="I582" t="inlineStr"/>
+    </row>
+    <row r="583">
+      <c r="H583" t="inlineStr"/>
+      <c r="I583" t="inlineStr"/>
+    </row>
+    <row r="584">
+      <c r="H584" t="inlineStr"/>
+      <c r="I584" t="inlineStr"/>
+    </row>
+    <row r="585">
+      <c r="H585" t="inlineStr"/>
+      <c r="I585" t="inlineStr"/>
+    </row>
+    <row r="586">
+      <c r="H586" t="inlineStr"/>
+      <c r="I586" t="inlineStr"/>
+    </row>
+    <row r="587">
+      <c r="H587" t="inlineStr"/>
+      <c r="I587" t="inlineStr"/>
+    </row>
+    <row r="588">
+      <c r="H588" t="inlineStr"/>
+      <c r="I588" t="inlineStr"/>
+    </row>
+    <row r="589">
+      <c r="H589" t="inlineStr"/>
+      <c r="I589" t="inlineStr"/>
+    </row>
+    <row r="590">
+      <c r="H590" t="inlineStr"/>
+      <c r="I590" t="inlineStr"/>
+    </row>
+    <row r="591">
+      <c r="H591" t="inlineStr"/>
+      <c r="I591" t="inlineStr"/>
+    </row>
+    <row r="592">
+      <c r="H592" t="inlineStr"/>
+      <c r="I592" t="inlineStr"/>
+    </row>
+    <row r="593">
+      <c r="H593" t="inlineStr"/>
+      <c r="I593" t="inlineStr"/>
+    </row>
+    <row r="594">
+      <c r="H594" t="inlineStr"/>
+      <c r="I594" t="inlineStr"/>
+    </row>
+    <row r="595">
+      <c r="H595" t="inlineStr"/>
+      <c r="I595" t="inlineStr"/>
+    </row>
+    <row r="596">
+      <c r="H596" t="inlineStr"/>
+      <c r="I596" t="inlineStr"/>
+    </row>
+    <row r="597">
+      <c r="H597" t="inlineStr"/>
+      <c r="I597" t="inlineStr"/>
+    </row>
+    <row r="598">
+      <c r="H598" t="inlineStr"/>
+      <c r="I598" t="inlineStr"/>
+    </row>
+    <row r="599">
+      <c r="H599" t="inlineStr"/>
+      <c r="I599" t="inlineStr"/>
+    </row>
+    <row r="600">
+      <c r="H600" t="inlineStr"/>
+      <c r="I600" t="inlineStr"/>
+    </row>
+    <row r="601">
+      <c r="H601" t="inlineStr"/>
+      <c r="I601" t="inlineStr"/>
+    </row>
+    <row r="602">
+      <c r="H602" t="inlineStr"/>
+      <c r="I602" t="inlineStr"/>
+    </row>
+    <row r="603">
+      <c r="H603" t="inlineStr"/>
+      <c r="I603" t="inlineStr"/>
+    </row>
+    <row r="604">
+      <c r="H604" t="inlineStr"/>
+      <c r="I604" t="inlineStr"/>
+    </row>
+    <row r="605">
+      <c r="H605" t="inlineStr"/>
+      <c r="I605" t="inlineStr"/>
+    </row>
+    <row r="606">
+      <c r="H606" t="inlineStr"/>
+      <c r="I606" t="inlineStr"/>
+    </row>
+    <row r="607">
+      <c r="H607" t="inlineStr"/>
+      <c r="I607" t="inlineStr"/>
+    </row>
+    <row r="608">
+      <c r="H608" t="inlineStr"/>
+      <c r="I608" t="inlineStr"/>
+    </row>
+    <row r="609">
+      <c r="H609" t="inlineStr"/>
+      <c r="I609" t="inlineStr"/>
+    </row>
+    <row r="610">
+      <c r="H610" t="inlineStr"/>
+      <c r="I610" t="inlineStr"/>
+    </row>
+    <row r="611">
+      <c r="H611" t="inlineStr"/>
+      <c r="I611" t="inlineStr"/>
+    </row>
+    <row r="612">
+      <c r="H612" t="inlineStr"/>
+      <c r="I612" t="inlineStr"/>
+    </row>
+    <row r="613">
+      <c r="H613" t="inlineStr"/>
+      <c r="I613" t="inlineStr"/>
+    </row>
+    <row r="614">
+      <c r="H614" t="inlineStr"/>
+      <c r="I614" t="inlineStr"/>
+    </row>
+    <row r="615">
+      <c r="H615" t="inlineStr"/>
+      <c r="I615" t="inlineStr"/>
+    </row>
+    <row r="616">
+      <c r="H616" t="inlineStr"/>
+      <c r="I616" t="inlineStr"/>
+    </row>
+    <row r="617">
+      <c r="H617" t="inlineStr"/>
+      <c r="I617" t="inlineStr"/>
+    </row>
+    <row r="618">
+      <c r="H618" t="inlineStr"/>
+      <c r="I618" t="inlineStr"/>
+    </row>
+    <row r="619">
+      <c r="H619" t="inlineStr"/>
+      <c r="I619" t="inlineStr"/>
+    </row>
+    <row r="620">
+      <c r="H620" t="inlineStr"/>
+      <c r="I620" t="inlineStr"/>
+    </row>
+    <row r="621">
+      <c r="H621" t="inlineStr"/>
+      <c r="I621" t="inlineStr"/>
+    </row>
+    <row r="622">
+      <c r="H622" t="inlineStr"/>
+      <c r="I622" t="inlineStr"/>
+    </row>
+    <row r="623">
+      <c r="H623" t="inlineStr"/>
+      <c r="I623" t="inlineStr"/>
+    </row>
+    <row r="624">
+      <c r="H624" t="inlineStr"/>
+      <c r="I624" t="inlineStr"/>
+    </row>
+    <row r="625">
+      <c r="H625" t="inlineStr"/>
+      <c r="I625" t="inlineStr"/>
+    </row>
+    <row r="626">
+      <c r="H626" t="inlineStr"/>
+      <c r="I626" t="inlineStr"/>
+    </row>
+    <row r="627">
+      <c r="H627" t="inlineStr"/>
+      <c r="I627" t="inlineStr"/>
+    </row>
+    <row r="628">
+      <c r="H628" t="inlineStr"/>
+      <c r="I628" t="inlineStr"/>
+    </row>
+    <row r="629">
+      <c r="H629" t="inlineStr"/>
+      <c r="I629" t="inlineStr"/>
+    </row>
+    <row r="630">
+      <c r="H630" t="inlineStr"/>
+      <c r="I630" t="inlineStr"/>
+    </row>
+    <row r="631">
+      <c r="H631" t="inlineStr"/>
+      <c r="I631" t="inlineStr"/>
+    </row>
+    <row r="632">
+      <c r="H632" t="inlineStr"/>
+      <c r="I632" t="inlineStr"/>
+    </row>
+    <row r="633">
+      <c r="H633" t="inlineStr"/>
+      <c r="I633" t="inlineStr"/>
+    </row>
+    <row r="634">
+      <c r="H634" t="inlineStr"/>
+      <c r="I634" t="inlineStr"/>
+    </row>
+    <row r="635">
+      <c r="H635" t="inlineStr"/>
+      <c r="I635" t="inlineStr"/>
+    </row>
+    <row r="636">
+      <c r="H636" t="inlineStr"/>
+      <c r="I636" t="inlineStr"/>
+    </row>
+    <row r="637">
+      <c r="H637" t="inlineStr"/>
+      <c r="I637" t="inlineStr"/>
+    </row>
+    <row r="638">
+      <c r="H638" t="inlineStr"/>
+      <c r="I638" t="inlineStr"/>
+    </row>
+    <row r="639">
+      <c r="H639" t="inlineStr"/>
+      <c r="I639" t="inlineStr"/>
+    </row>
+    <row r="640">
+      <c r="H640" t="inlineStr"/>
+      <c r="I640" t="inlineStr"/>
+    </row>
+    <row r="641">
+      <c r="H641" t="inlineStr"/>
+      <c r="I641" t="inlineStr"/>
+    </row>
+    <row r="642">
+      <c r="H642" t="inlineStr"/>
+      <c r="I642" t="inlineStr"/>
+    </row>
+    <row r="643">
+      <c r="H643" t="inlineStr"/>
+      <c r="I643" t="inlineStr"/>
+    </row>
+    <row r="644">
+      <c r="H644" t="inlineStr"/>
+      <c r="I644" t="inlineStr"/>
+    </row>
+    <row r="645">
+      <c r="H645" t="inlineStr"/>
+      <c r="I645" t="inlineStr"/>
+    </row>
+    <row r="646">
+      <c r="H646" t="inlineStr"/>
+      <c r="I646" t="inlineStr"/>
+    </row>
+    <row r="647">
+      <c r="H647" t="inlineStr"/>
+      <c r="I647" t="inlineStr"/>
+    </row>
+    <row r="648">
+      <c r="H648" t="inlineStr"/>
+      <c r="I648" t="inlineStr"/>
+    </row>
+    <row r="649">
+      <c r="H649" t="inlineStr"/>
+      <c r="I649" t="inlineStr"/>
+    </row>
+    <row r="650">
+      <c r="H650" t="inlineStr"/>
+      <c r="I650" t="inlineStr"/>
+    </row>
+    <row r="651">
+      <c r="H651" t="inlineStr"/>
+      <c r="I651" t="inlineStr"/>
+    </row>
+    <row r="652">
+      <c r="H652" t="inlineStr"/>
+      <c r="I652" t="inlineStr"/>
+    </row>
+    <row r="653">
+      <c r="H653" t="inlineStr"/>
+      <c r="I653" t="inlineStr"/>
+    </row>
+    <row r="654">
+      <c r="H654" t="inlineStr"/>
+      <c r="I654" t="inlineStr"/>
+    </row>
+    <row r="655">
+      <c r="H655" t="inlineStr"/>
+      <c r="I655" t="inlineStr"/>
+    </row>
+    <row r="656">
+      <c r="H656" t="inlineStr"/>
+      <c r="I656" t="inlineStr"/>
+    </row>
+    <row r="657">
+      <c r="H657" t="inlineStr"/>
+      <c r="I657" t="inlineStr"/>
+    </row>
+    <row r="658">
+      <c r="H658" t="inlineStr"/>
+      <c r="I658" t="inlineStr"/>
+    </row>
+    <row r="659">
+      <c r="H659" t="inlineStr"/>
+      <c r="I659" t="inlineStr"/>
+    </row>
+    <row r="660">
+      <c r="H660" t="inlineStr"/>
+      <c r="I660" t="inlineStr"/>
+    </row>
+    <row r="661">
+      <c r="H661" t="inlineStr"/>
+      <c r="I661" t="inlineStr"/>
+    </row>
+    <row r="662">
+      <c r="H662" t="inlineStr"/>
+      <c r="I662" t="inlineStr"/>
+    </row>
+    <row r="663">
+      <c r="H663" t="inlineStr"/>
+      <c r="I663" t="inlineStr"/>
+    </row>
+    <row r="664">
+      <c r="H664" t="inlineStr"/>
+      <c r="I664" t="inlineStr"/>
+    </row>
+    <row r="665">
+      <c r="H665" t="inlineStr"/>
+      <c r="I665" t="inlineStr"/>
+    </row>
+    <row r="666">
+      <c r="H666" t="inlineStr"/>
+      <c r="I666" t="inlineStr"/>
+    </row>
+    <row r="667">
+      <c r="H667" t="inlineStr"/>
+      <c r="I667" t="inlineStr"/>
+    </row>
+    <row r="668">
+      <c r="H668" t="inlineStr"/>
+      <c r="I668" t="inlineStr"/>
+    </row>
+    <row r="669">
+      <c r="H669" t="inlineStr"/>
+      <c r="I669" t="inlineStr"/>
+    </row>
+    <row r="670">
+      <c r="H670" t="inlineStr"/>
+      <c r="I670" t="inlineStr"/>
+    </row>
+    <row r="671">
+      <c r="H671" t="inlineStr"/>
+      <c r="I671" t="inlineStr"/>
+    </row>
+    <row r="672">
+      <c r="H672" t="inlineStr"/>
+      <c r="I672" t="inlineStr"/>
+    </row>
+    <row r="673">
+      <c r="H673" t="inlineStr"/>
+      <c r="I673" t="inlineStr"/>
+    </row>
+    <row r="674">
+      <c r="H674" t="inlineStr"/>
+      <c r="I674" t="inlineStr"/>
+    </row>
+    <row r="675">
+      <c r="H675" t="inlineStr"/>
+      <c r="I675" t="inlineStr"/>
+    </row>
+    <row r="676">
+      <c r="H676" t="inlineStr"/>
+      <c r="I676" t="inlineStr"/>
+    </row>
+    <row r="677">
+      <c r="H677" t="inlineStr"/>
+      <c r="I677" t="inlineStr"/>
+    </row>
+    <row r="678">
+      <c r="H678" t="inlineStr"/>
+      <c r="I678" t="inlineStr"/>
+    </row>
+    <row r="679">
+      <c r="H679" t="inlineStr"/>
+      <c r="I679" t="inlineStr"/>
+    </row>
+    <row r="680">
+      <c r="H680" t="inlineStr"/>
+      <c r="I680" t="inlineStr"/>
+    </row>
+    <row r="681">
+      <c r="H681" t="inlineStr"/>
+      <c r="I681" t="inlineStr"/>
+    </row>
+    <row r="682">
+      <c r="H682" t="inlineStr"/>
+      <c r="I682" t="inlineStr"/>
+    </row>
+    <row r="683">
+      <c r="H683" t="inlineStr"/>
+      <c r="I683" t="inlineStr"/>
+    </row>
+    <row r="684">
+      <c r="H684" t="inlineStr"/>
+      <c r="I684" t="inlineStr"/>
+    </row>
+    <row r="685">
+      <c r="H685" t="inlineStr"/>
+      <c r="I685" t="inlineStr"/>
+    </row>
+    <row r="686">
+      <c r="H686" t="inlineStr"/>
+      <c r="I686" t="inlineStr"/>
+    </row>
+    <row r="687">
+      <c r="H687" t="inlineStr"/>
+      <c r="I687" t="inlineStr"/>
+    </row>
+    <row r="688">
+      <c r="H688" t="inlineStr"/>
+      <c r="I688" t="inlineStr"/>
+    </row>
+    <row r="689">
+      <c r="H689" t="inlineStr"/>
+      <c r="I689" t="inlineStr"/>
+    </row>
+    <row r="690">
+      <c r="H690" t="inlineStr"/>
+      <c r="I690" t="inlineStr"/>
+    </row>
+    <row r="691">
+      <c r="H691" t="inlineStr"/>
+      <c r="I691" t="inlineStr"/>
+    </row>
+    <row r="692">
+      <c r="H692" t="inlineStr"/>
+      <c r="I692" t="inlineStr"/>
+    </row>
+    <row r="693">
+      <c r="H693" t="inlineStr"/>
+      <c r="I693" t="inlineStr"/>
+    </row>
+    <row r="694">
+      <c r="H694" t="inlineStr"/>
+      <c r="I694" t="inlineStr"/>
+    </row>
+    <row r="695">
+      <c r="H695" t="inlineStr"/>
+      <c r="I695" t="inlineStr"/>
+    </row>
+    <row r="696">
+      <c r="H696" t="inlineStr"/>
+      <c r="I696" t="inlineStr"/>
+    </row>
+    <row r="697">
+      <c r="H697" t="inlineStr"/>
+      <c r="I697" t="inlineStr"/>
+    </row>
+    <row r="698">
+      <c r="H698" t="inlineStr"/>
+      <c r="I698" t="inlineStr"/>
+    </row>
+    <row r="699">
+      <c r="H699" t="inlineStr"/>
+      <c r="I699" t="inlineStr"/>
+    </row>
+    <row r="700">
+      <c r="H700" t="inlineStr"/>
+      <c r="I700" t="inlineStr"/>
+    </row>
+    <row r="701">
+      <c r="H701" t="inlineStr"/>
+      <c r="I701" t="inlineStr"/>
+    </row>
+    <row r="702">
+      <c r="H702" t="inlineStr"/>
+      <c r="I702" t="inlineStr"/>
+    </row>
+    <row r="703">
+      <c r="H703" t="inlineStr"/>
+      <c r="I703" t="inlineStr"/>
+    </row>
+    <row r="704">
+      <c r="H704" t="inlineStr"/>
+      <c r="I704" t="inlineStr"/>
+    </row>
+    <row r="705">
+      <c r="H705" t="inlineStr"/>
+      <c r="I705" t="inlineStr"/>
+    </row>
+    <row r="706">
+      <c r="H706" t="inlineStr"/>
+      <c r="I706" t="inlineStr"/>
+    </row>
+    <row r="707">
+      <c r="H707" t="inlineStr"/>
+      <c r="I707" t="inlineStr"/>
+    </row>
+    <row r="708">
+      <c r="H708" t="inlineStr"/>
+      <c r="I708" t="inlineStr"/>
+    </row>
+    <row r="709">
+      <c r="H709" t="inlineStr"/>
+      <c r="I709" t="inlineStr"/>
+    </row>
+    <row r="710">
+      <c r="H710" t="inlineStr"/>
+      <c r="I710" t="inlineStr"/>
+    </row>
+    <row r="711">
+      <c r="H711" t="inlineStr"/>
+      <c r="I711" t="inlineStr"/>
+    </row>
+    <row r="712">
+      <c r="H712" t="inlineStr"/>
+      <c r="I712" t="inlineStr"/>
+    </row>
+    <row r="713">
+      <c r="H713" t="inlineStr"/>
+      <c r="I713" t="inlineStr"/>
+    </row>
+    <row r="714">
+      <c r="H714" t="inlineStr"/>
+      <c r="I714" t="inlineStr"/>
+    </row>
+    <row r="715">
+      <c r="H715" t="inlineStr"/>
+      <c r="I715" t="inlineStr"/>
+    </row>
+    <row r="716">
+      <c r="H716" t="inlineStr"/>
+      <c r="I716" t="inlineStr"/>
+    </row>
+    <row r="717">
+      <c r="H717" t="inlineStr"/>
+      <c r="I717" t="inlineStr"/>
+    </row>
+    <row r="718">
+      <c r="H718" t="inlineStr"/>
+      <c r="I718" t="inlineStr"/>
+    </row>
+    <row r="719">
+      <c r="H719" t="inlineStr"/>
+      <c r="I719" t="inlineStr"/>
+    </row>
+    <row r="720">
+      <c r="H720" t="inlineStr"/>
+      <c r="I720" t="inlineStr"/>
+    </row>
+    <row r="721">
+      <c r="H721" t="inlineStr"/>
+      <c r="I721" t="inlineStr"/>
+    </row>
+    <row r="722">
+      <c r="H722" t="inlineStr"/>
+      <c r="I722" t="inlineStr"/>
+    </row>
+    <row r="723">
+      <c r="H723" t="inlineStr"/>
+      <c r="I723" t="inlineStr"/>
+    </row>
+    <row r="724">
+      <c r="H724" t="inlineStr"/>
+      <c r="I724" t="inlineStr"/>
+    </row>
+    <row r="725">
+      <c r="H725" t="inlineStr"/>
+      <c r="I725" t="inlineStr"/>
+    </row>
+    <row r="726">
+      <c r="H726" t="inlineStr"/>
+      <c r="I726" t="inlineStr"/>
+    </row>
+    <row r="727">
+      <c r="H727" t="inlineStr"/>
+      <c r="I727" t="inlineStr"/>
+    </row>
+    <row r="728">
+      <c r="H728" t="inlineStr"/>
+      <c r="I728" t="inlineStr"/>
+    </row>
+    <row r="729">
+      <c r="H729" t="inlineStr"/>
+      <c r="I729" t="inlineStr"/>
+    </row>
+    <row r="730">
+      <c r="H730" t="inlineStr"/>
+      <c r="I730" t="inlineStr"/>
+    </row>
+    <row r="731">
+      <c r="H731" t="inlineStr"/>
+      <c r="I731" t="inlineStr"/>
+    </row>
+    <row r="732">
+      <c r="H732" t="inlineStr"/>
+      <c r="I732" t="inlineStr"/>
+    </row>
+    <row r="733">
+      <c r="H733" t="inlineStr"/>
+      <c r="I733" t="inlineStr"/>
+    </row>
+    <row r="734">
+      <c r="H734" t="inlineStr"/>
+      <c r="I734" t="inlineStr"/>
+    </row>
+    <row r="735">
+      <c r="H735" t="inlineStr"/>
+      <c r="I735" t="inlineStr"/>
+    </row>
+    <row r="736">
+      <c r="H736" t="inlineStr"/>
+      <c r="I736" t="inlineStr"/>
+    </row>
+    <row r="737">
+      <c r="H737" t="inlineStr"/>
+      <c r="I737" t="inlineStr"/>
+    </row>
+    <row r="738">
+      <c r="H738" t="inlineStr"/>
+      <c r="I738" t="inlineStr"/>
+    </row>
+    <row r="739">
+      <c r="H739" t="inlineStr"/>
+      <c r="I739" t="inlineStr"/>
+    </row>
+    <row r="740">
+      <c r="H740" t="inlineStr"/>
+      <c r="I740" t="inlineStr"/>
+    </row>
+    <row r="741">
+      <c r="H741" t="inlineStr"/>
+      <c r="I741" t="inlineStr"/>
+    </row>
+    <row r="742">
+      <c r="H742" t="inlineStr"/>
+      <c r="I742" t="inlineStr"/>
+    </row>
+    <row r="743">
+      <c r="H743" t="inlineStr"/>
+      <c r="I743" t="inlineStr"/>
+    </row>
+    <row r="744">
+      <c r="H744" t="inlineStr"/>
+      <c r="I744" t="inlineStr"/>
+    </row>
+    <row r="745">
+      <c r="H745" t="inlineStr"/>
+      <c r="I745" t="inlineStr"/>
+    </row>
+    <row r="746">
+      <c r="H746" t="inlineStr"/>
+      <c r="I746" t="inlineStr"/>
+    </row>
+    <row r="747">
+      <c r="H747" t="inlineStr"/>
+      <c r="I747" t="inlineStr"/>
+    </row>
+    <row r="748">
+      <c r="H748" t="inlineStr"/>
+      <c r="I748" t="inlineStr"/>
+    </row>
+    <row r="749">
+      <c r="H749" t="inlineStr"/>
+      <c r="I749" t="inlineStr"/>
+    </row>
+    <row r="750">
+      <c r="H750" t="inlineStr"/>
+      <c r="I750" t="inlineStr"/>
+    </row>
+    <row r="751">
+      <c r="H751" t="inlineStr"/>
+      <c r="I751" t="inlineStr"/>
+    </row>
+    <row r="752">
+      <c r="H752" t="inlineStr"/>
+      <c r="I752" t="inlineStr"/>
+    </row>
+    <row r="753">
+      <c r="H753" t="inlineStr"/>
+      <c r="I753" t="inlineStr"/>
+    </row>
+    <row r="754">
+      <c r="H754" t="inlineStr"/>
+      <c r="I754" t="inlineStr"/>
+    </row>
+    <row r="755">
+      <c r="H755" t="inlineStr"/>
+      <c r="I755" t="inlineStr"/>
+    </row>
+    <row r="756">
+      <c r="H756" t="inlineStr"/>
+      <c r="I756" t="inlineStr"/>
+    </row>
+    <row r="757">
+      <c r="H757" t="inlineStr"/>
+      <c r="I757" t="inlineStr"/>
+    </row>
+    <row r="758">
+      <c r="H758" t="inlineStr"/>
+      <c r="I758" t="inlineStr"/>
+    </row>
+    <row r="759">
+      <c r="H759" t="inlineStr"/>
+      <c r="I759" t="inlineStr"/>
+    </row>
+    <row r="760">
+      <c r="H760" t="inlineStr"/>
+      <c r="I760" t="inlineStr"/>
+    </row>
+    <row r="761">
+      <c r="H761" t="inlineStr"/>
+      <c r="I761" t="inlineStr"/>
+    </row>
+    <row r="762">
+      <c r="H762" t="inlineStr"/>
+      <c r="I762" t="inlineStr"/>
+    </row>
+    <row r="763">
+      <c r="H763" t="inlineStr"/>
+      <c r="I763" t="inlineStr"/>
+    </row>
+    <row r="764">
+      <c r="H764" t="inlineStr"/>
+      <c r="I764" t="inlineStr"/>
+    </row>
+    <row r="765">
+      <c r="H765" t="inlineStr"/>
+      <c r="I765" t="inlineStr"/>
+    </row>
+    <row r="766">
+      <c r="H766" t="inlineStr"/>
+      <c r="I766" t="inlineStr"/>
+    </row>
+    <row r="767">
+      <c r="H767" t="inlineStr"/>
+      <c r="I767" t="inlineStr"/>
+    </row>
+    <row r="768">
+      <c r="H768" t="inlineStr"/>
+      <c r="I768" t="inlineStr"/>
+    </row>
+    <row r="769">
+      <c r="H769" t="inlineStr"/>
+      <c r="I769" t="inlineStr"/>
+    </row>
+    <row r="770">
+      <c r="H770" t="inlineStr"/>
+      <c r="I770" t="inlineStr"/>
+    </row>
+    <row r="771">
+      <c r="H771" t="inlineStr"/>
+      <c r="I771" t="inlineStr"/>
+    </row>
+    <row r="772">
+      <c r="H772" t="inlineStr"/>
+      <c r="I772" t="inlineStr"/>
+    </row>
+    <row r="773">
+      <c r="H773" t="inlineStr"/>
+      <c r="I773" t="inlineStr"/>
+    </row>
+    <row r="774">
+      <c r="H774" t="inlineStr"/>
+      <c r="I774" t="inlineStr"/>
+    </row>
+    <row r="775">
+      <c r="H775" t="inlineStr"/>
+      <c r="I775" t="inlineStr"/>
+    </row>
+    <row r="776">
+      <c r="H776" t="inlineStr"/>
+      <c r="I776" t="inlineStr"/>
+    </row>
+    <row r="777">
+      <c r="H777" t="inlineStr"/>
+      <c r="I777" t="inlineStr"/>
+    </row>
+    <row r="778">
+      <c r="H778" t="inlineStr"/>
+      <c r="I778" t="inlineStr"/>
+    </row>
+    <row r="779">
+      <c r="H779" t="inlineStr"/>
+      <c r="I779" t="inlineStr"/>
+    </row>
+    <row r="780">
+      <c r="H780" t="inlineStr"/>
+      <c r="I780" t="inlineStr"/>
+    </row>
+    <row r="781">
+      <c r="H781" t="inlineStr"/>
+      <c r="I781" t="inlineStr"/>
+    </row>
+    <row r="782">
+      <c r="H782" t="inlineStr"/>
+      <c r="I782" t="inlineStr"/>
+    </row>
+    <row r="783">
+      <c r="H783" t="inlineStr"/>
+      <c r="I783" t="inlineStr"/>
+    </row>
+    <row r="784">
+      <c r="H784" t="inlineStr"/>
+      <c r="I784" t="inlineStr"/>
+    </row>
+    <row r="785">
+      <c r="H785" t="inlineStr"/>
+      <c r="I785" t="inlineStr"/>
+    </row>
+    <row r="786">
+      <c r="H786" t="inlineStr"/>
+      <c r="I786" t="inlineStr"/>
+    </row>
+    <row r="787">
+      <c r="H787" t="inlineStr"/>
+      <c r="I787" t="inlineStr"/>
+    </row>
+    <row r="788">
+      <c r="H788" t="inlineStr"/>
+      <c r="I788" t="inlineStr"/>
+    </row>
+    <row r="789">
+      <c r="H789" t="inlineStr"/>
+      <c r="I789" t="inlineStr"/>
+    </row>
+    <row r="790">
+      <c r="H790" t="inlineStr"/>
+      <c r="I790" t="inlineStr"/>
+    </row>
+    <row r="791">
+      <c r="H791" t="inlineStr"/>
+      <c r="I791" t="inlineStr"/>
+    </row>
+    <row r="792">
+      <c r="H792" t="inlineStr"/>
+      <c r="I792" t="inlineStr"/>
+    </row>
+    <row r="793">
+      <c r="H793" t="inlineStr"/>
+      <c r="I793" t="inlineStr"/>
+    </row>
+    <row r="794">
+      <c r="H794" t="inlineStr"/>
+      <c r="I794" t="inlineStr"/>
+    </row>
+    <row r="795">
+      <c r="H795" t="inlineStr"/>
+      <c r="I795" t="inlineStr"/>
+    </row>
+    <row r="796">
+      <c r="H796" t="inlineStr"/>
+      <c r="I796" t="inlineStr"/>
+    </row>
+    <row r="797">
+      <c r="H797" t="inlineStr"/>
+      <c r="I797" t="inlineStr"/>
+    </row>
+    <row r="798">
+      <c r="H798" t="inlineStr"/>
+      <c r="I798" t="inlineStr"/>
+    </row>
+    <row r="799">
+      <c r="H799" t="inlineStr"/>
+      <c r="I799" t="inlineStr"/>
+    </row>
+    <row r="800">
+      <c r="H800" t="inlineStr"/>
+      <c r="I800" t="inlineStr"/>
+    </row>
+    <row r="801">
+      <c r="H801" t="inlineStr"/>
+      <c r="I801" t="inlineStr"/>
+    </row>
+    <row r="802">
+      <c r="H802" t="inlineStr"/>
+      <c r="I802" t="inlineStr"/>
+    </row>
+    <row r="803">
+      <c r="H803" t="inlineStr"/>
+      <c r="I803" t="inlineStr"/>
+    </row>
+    <row r="804">
+      <c r="H804" t="inlineStr"/>
+      <c r="I804" t="inlineStr"/>
+    </row>
+    <row r="805">
+      <c r="H805" t="inlineStr"/>
+      <c r="I805" t="inlineStr"/>
+    </row>
+    <row r="806">
+      <c r="H806" t="inlineStr"/>
+      <c r="I806" t="inlineStr"/>
+    </row>
+    <row r="807">
+      <c r="H807" t="inlineStr"/>
+      <c r="I807" t="inlineStr"/>
+    </row>
+    <row r="808">
+      <c r="H808" t="inlineStr"/>
+      <c r="I808" t="inlineStr"/>
+    </row>
+    <row r="809">
+      <c r="H809" t="inlineStr"/>
+      <c r="I809" t="inlineStr"/>
+    </row>
+    <row r="810">
+      <c r="H810" t="inlineStr"/>
+      <c r="I810" t="inlineStr"/>
+    </row>
+    <row r="811">
+      <c r="H811" t="inlineStr"/>
+      <c r="I811" t="inlineStr"/>
+    </row>
+    <row r="812">
+      <c r="H812" t="inlineStr"/>
+      <c r="I812" t="inlineStr"/>
+    </row>
+    <row r="813">
+      <c r="H813" t="inlineStr"/>
+      <c r="I813" t="inlineStr"/>
+    </row>
+    <row r="814">
+      <c r="H814" t="inlineStr"/>
+      <c r="I814" t="inlineStr"/>
+    </row>
+    <row r="815">
+      <c r="H815" t="inlineStr"/>
+      <c r="I815" t="inlineStr"/>
+    </row>
+    <row r="816">
+      <c r="H816" t="inlineStr"/>
+      <c r="I816" t="inlineStr"/>
+    </row>
+    <row r="817">
+      <c r="H817" t="inlineStr"/>
+      <c r="I817" t="inlineStr"/>
+    </row>
+    <row r="818">
+      <c r="H818" t="inlineStr"/>
+      <c r="I818" t="inlineStr"/>
+    </row>
+    <row r="819">
+      <c r="H819" t="inlineStr"/>
+      <c r="I819" t="inlineStr"/>
+    </row>
+    <row r="820">
+      <c r="H820" t="inlineStr"/>
+      <c r="I820" t="inlineStr"/>
+    </row>
+    <row r="821">
+      <c r="H821" t="inlineStr"/>
+      <c r="I821" t="inlineStr"/>
+    </row>
+    <row r="822">
+      <c r="H822" t="inlineStr"/>
+      <c r="I822" t="inlineStr"/>
+    </row>
+    <row r="823">
+      <c r="H823" t="inlineStr"/>
+      <c r="I823" t="inlineStr"/>
+    </row>
+    <row r="824">
+      <c r="H824" t="inlineStr"/>
+      <c r="I824" t="inlineStr"/>
+    </row>
+    <row r="825">
+      <c r="H825" t="inlineStr"/>
+      <c r="I825" t="inlineStr"/>
+    </row>
+    <row r="826">
+      <c r="H826" t="inlineStr"/>
+      <c r="I826" t="inlineStr"/>
+    </row>
+    <row r="827">
+      <c r="H827" t="inlineStr"/>
+      <c r="I827" t="inlineStr"/>
+    </row>
+    <row r="828">
+      <c r="H828" t="inlineStr"/>
+      <c r="I828" t="inlineStr"/>
+    </row>
+    <row r="829">
+      <c r="H829" t="inlineStr"/>
+      <c r="I829" t="inlineStr"/>
+    </row>
+    <row r="830">
+      <c r="H830" t="inlineStr"/>
+      <c r="I830" t="inlineStr"/>
+    </row>
+    <row r="831">
+      <c r="H831" t="inlineStr"/>
+      <c r="I831" t="inlineStr"/>
+    </row>
+    <row r="832">
+      <c r="H832" t="inlineStr"/>
+      <c r="I832" t="inlineStr"/>
+    </row>
+    <row r="833">
+      <c r="H833" t="inlineStr"/>
+      <c r="I833" t="inlineStr"/>
+    </row>
+    <row r="834">
+      <c r="H834" t="inlineStr"/>
+      <c r="I834" t="inlineStr"/>
+    </row>
+    <row r="835">
+      <c r="H835" t="inlineStr"/>
+      <c r="I835" t="inlineStr"/>
+    </row>
+    <row r="836">
+      <c r="H836" t="inlineStr"/>
+      <c r="I836" t="inlineStr"/>
+    </row>
+    <row r="837">
+      <c r="H837" t="inlineStr"/>
+      <c r="I837" t="inlineStr"/>
+    </row>
+    <row r="838">
+      <c r="H838" t="inlineStr"/>
+      <c r="I838" t="inlineStr"/>
+    </row>
+    <row r="839">
+      <c r="H839" t="inlineStr"/>
+      <c r="I839" t="inlineStr"/>
+    </row>
+    <row r="840">
+      <c r="H840" t="inlineStr"/>
+      <c r="I840" t="inlineStr"/>
+    </row>
+    <row r="841">
+      <c r="H841" t="inlineStr"/>
+      <c r="I841" t="inlineStr"/>
+    </row>
+    <row r="842">
+      <c r="H842" t="inlineStr"/>
+      <c r="I842" t="inlineStr"/>
+    </row>
+    <row r="843">
+      <c r="H843" t="inlineStr"/>
+      <c r="I843" t="inlineStr"/>
+    </row>
+    <row r="844">
+      <c r="H844" t="inlineStr"/>
+      <c r="I844" t="inlineStr"/>
+    </row>
+    <row r="845">
+      <c r="H845" t="inlineStr"/>
+      <c r="I845" t="inlineStr"/>
+    </row>
+    <row r="846">
+      <c r="H846" t="inlineStr"/>
+      <c r="I846" t="inlineStr"/>
+    </row>
+    <row r="847">
+      <c r="H847" t="inlineStr"/>
+      <c r="I847" t="inlineStr"/>
+    </row>
+    <row r="848">
+      <c r="H848" t="inlineStr"/>
+      <c r="I848" t="inlineStr"/>
+    </row>
+    <row r="849">
+      <c r="H849" t="inlineStr"/>
+      <c r="I849" t="inlineStr"/>
+    </row>
+    <row r="850">
+      <c r="H850" t="inlineStr"/>
+      <c r="I850" t="inlineStr"/>
+    </row>
+    <row r="851">
+      <c r="H851" t="inlineStr"/>
+      <c r="I851" t="inlineStr"/>
+    </row>
+    <row r="852">
+      <c r="H852" t="inlineStr"/>
+      <c r="I852" t="inlineStr"/>
+    </row>
+    <row r="853">
+      <c r="H853" t="inlineStr"/>
+      <c r="I853" t="inlineStr"/>
+    </row>
+    <row r="854">
+      <c r="H854" t="inlineStr"/>
+      <c r="I854" t="inlineStr"/>
+    </row>
+    <row r="855">
+      <c r="H855" t="inlineStr"/>
+      <c r="I855" t="inlineStr"/>
+    </row>
+    <row r="856">
+      <c r="H856" t="inlineStr"/>
+      <c r="I856" t="inlineStr"/>
+    </row>
+    <row r="857">
+      <c r="H857" t="inlineStr"/>
+      <c r="I857" t="inlineStr"/>
+    </row>
+    <row r="858">
+      <c r="H858" t="inlineStr"/>
+      <c r="I858" t="inlineStr"/>
+    </row>
+    <row r="859">
+      <c r="H859" t="inlineStr"/>
+      <c r="I859" t="inlineStr"/>
+    </row>
+    <row r="860">
+      <c r="H860" t="inlineStr"/>
+      <c r="I860" t="inlineStr"/>
+    </row>
+    <row r="861">
+      <c r="H861" t="inlineStr"/>
+      <c r="I861" t="inlineStr"/>
+    </row>
+    <row r="862">
+      <c r="H862" t="inlineStr"/>
+      <c r="I862" t="inlineStr"/>
+    </row>
+    <row r="863">
+      <c r="H863" t="inlineStr"/>
+      <c r="I863" t="inlineStr"/>
+    </row>
+    <row r="864">
+      <c r="H864" t="inlineStr"/>
+      <c r="I864" t="inlineStr"/>
+    </row>
+    <row r="865">
+      <c r="H865" t="inlineStr"/>
+      <c r="I865" t="inlineStr"/>
+    </row>
+    <row r="866">
+      <c r="H866" t="inlineStr"/>
+      <c r="I866" t="inlineStr"/>
+    </row>
+    <row r="867">
+      <c r="H867" t="inlineStr"/>
+      <c r="I867" t="inlineStr"/>
+    </row>
+    <row r="868">
+      <c r="H868" t="inlineStr"/>
+      <c r="I868" t="inlineStr"/>
+    </row>
+    <row r="869">
+      <c r="H869" t="inlineStr"/>
+      <c r="I869" t="inlineStr"/>
+    </row>
+    <row r="870">
+      <c r="H870" t="inlineStr"/>
+      <c r="I870" t="inlineStr"/>
+    </row>
+    <row r="871">
+      <c r="H871" t="inlineStr"/>
+      <c r="I871" t="inlineStr"/>
+    </row>
+    <row r="872">
+      <c r="H872" t="inlineStr"/>
+      <c r="I872" t="inlineStr"/>
+    </row>
+    <row r="873">
+      <c r="H873" t="inlineStr"/>
+      <c r="I873" t="inlineStr"/>
+    </row>
+    <row r="874">
+      <c r="H874" t="inlineStr"/>
+      <c r="I874" t="inlineStr"/>
+    </row>
+    <row r="875">
+      <c r="H875" t="inlineStr"/>
+      <c r="I875" t="inlineStr"/>
+    </row>
+    <row r="876">
+      <c r="H876" t="inlineStr"/>
+      <c r="I876" t="inlineStr"/>
+    </row>
+    <row r="877">
+      <c r="H877" t="inlineStr"/>
+      <c r="I877" t="inlineStr"/>
+    </row>
+    <row r="878">
+      <c r="H878" t="inlineStr"/>
+      <c r="I878" t="inlineStr"/>
+    </row>
+    <row r="879">
+      <c r="H879" t="inlineStr"/>
+      <c r="I879" t="inlineStr"/>
+    </row>
+    <row r="880">
+      <c r="H880" t="inlineStr"/>
+      <c r="I880" t="inlineStr"/>
+    </row>
+    <row r="881">
+      <c r="H881" t="inlineStr"/>
+      <c r="I881" t="inlineStr"/>
+    </row>
+    <row r="882">
+      <c r="H882" t="inlineStr"/>
+      <c r="I882" t="inlineStr"/>
+    </row>
+    <row r="883">
+      <c r="H883" t="inlineStr"/>
+      <c r="I883" t="inlineStr"/>
+    </row>
+    <row r="884">
+      <c r="H884" t="inlineStr"/>
+      <c r="I884" t="inlineStr"/>
+    </row>
+    <row r="885">
+      <c r="H885" t="inlineStr"/>
+      <c r="I885" t="inlineStr"/>
+    </row>
+    <row r="886">
+      <c r="H886" t="inlineStr"/>
+      <c r="I886" t="inlineStr"/>
+    </row>
+    <row r="887">
+      <c r="H887" t="inlineStr"/>
+      <c r="I887" t="inlineStr"/>
+    </row>
+    <row r="888">
+      <c r="H888" t="inlineStr"/>
+      <c r="I888" t="inlineStr"/>
+    </row>
+    <row r="889">
+      <c r="H889" t="inlineStr"/>
+      <c r="I889" t="inlineStr"/>
+    </row>
+    <row r="890">
+      <c r="H890" t="inlineStr"/>
+      <c r="I890" t="inlineStr"/>
+    </row>
+    <row r="891">
+      <c r="H891" t="inlineStr"/>
+      <c r="I891" t="inlineStr"/>
+    </row>
+    <row r="892">
+      <c r="H892" t="inlineStr"/>
+      <c r="I892" t="inlineStr"/>
+    </row>
+    <row r="893">
+      <c r="H893" t="inlineStr"/>
+      <c r="I893" t="inlineStr"/>
+    </row>
+    <row r="894">
+      <c r="H894" t="inlineStr"/>
+      <c r="I894" t="inlineStr"/>
+    </row>
+    <row r="895">
+      <c r="H895" t="inlineStr"/>
+      <c r="I895" t="inlineStr"/>
+    </row>
+    <row r="896">
+      <c r="H896" t="inlineStr"/>
+      <c r="I896" t="inlineStr"/>
+    </row>
+    <row r="897">
+      <c r="H897" t="inlineStr"/>
+      <c r="I897" t="inlineStr"/>
+    </row>
+    <row r="898">
+      <c r="H898" t="inlineStr"/>
+      <c r="I898" t="inlineStr"/>
+    </row>
+    <row r="899">
+      <c r="H899" t="inlineStr"/>
+      <c r="I899" t="inlineStr"/>
+    </row>
+    <row r="900">
+      <c r="H900" t="inlineStr"/>
+      <c r="I900" t="inlineStr"/>
+    </row>
+    <row r="901">
+      <c r="H901" t="inlineStr"/>
+      <c r="I901" t="inlineStr"/>
+    </row>
+    <row r="902">
+      <c r="H902" t="inlineStr"/>
+      <c r="I902" t="inlineStr"/>
+    </row>
+    <row r="903">
+      <c r="H903" t="inlineStr"/>
+      <c r="I903" t="inlineStr"/>
+    </row>
+    <row r="904">
+      <c r="H904" t="inlineStr"/>
+      <c r="I904" t="inlineStr"/>
+    </row>
+    <row r="905">
+      <c r="H905" t="inlineStr"/>
+      <c r="I905" t="inlineStr"/>
+    </row>
+    <row r="906">
+      <c r="H906" t="inlineStr"/>
+      <c r="I906" t="inlineStr"/>
+    </row>
+    <row r="907">
+      <c r="H907" t="inlineStr"/>
+      <c r="I907" t="inlineStr"/>
+    </row>
+    <row r="908">
+      <c r="H908" t="inlineStr"/>
+      <c r="I908" t="inlineStr"/>
+    </row>
+    <row r="909">
+      <c r="H909" t="inlineStr"/>
+      <c r="I909" t="inlineStr"/>
+    </row>
+    <row r="910">
+      <c r="H910" t="inlineStr"/>
+      <c r="I910" t="inlineStr"/>
+    </row>
+    <row r="911">
+      <c r="H911" t="inlineStr"/>
+      <c r="I911" t="inlineStr"/>
+    </row>
+    <row r="912">
+      <c r="H912" t="inlineStr"/>
+      <c r="I912" t="inlineStr"/>
+    </row>
+    <row r="913">
+      <c r="H913" t="inlineStr"/>
+      <c r="I913" t="inlineStr"/>
+    </row>
+    <row r="914">
+      <c r="H914" t="inlineStr"/>
+      <c r="I914" t="inlineStr"/>
+    </row>
+    <row r="915">
+      <c r="H915" t="inlineStr"/>
+      <c r="I915" t="inlineStr"/>
+    </row>
+    <row r="916">
+      <c r="H916" t="inlineStr"/>
+      <c r="I916" t="inlineStr"/>
+    </row>
+    <row r="917">
+      <c r="H917" t="inlineStr"/>
+      <c r="I917" t="inlineStr"/>
+    </row>
+    <row r="918">
+      <c r="H918" t="inlineStr"/>
+      <c r="I918" t="inlineStr"/>
+    </row>
+    <row r="919">
+      <c r="H919" t="inlineStr"/>
+      <c r="I919" t="inlineStr"/>
+    </row>
+    <row r="920">
+      <c r="H920" t="inlineStr"/>
+      <c r="I920" t="inlineStr"/>
+    </row>
+    <row r="921">
+      <c r="H921" t="inlineStr"/>
+      <c r="I921" t="inlineStr"/>
+    </row>
+    <row r="922">
+      <c r="H922" t="inlineStr"/>
+      <c r="I922" t="inlineStr"/>
+    </row>
+    <row r="923">
+      <c r="H923" t="inlineStr"/>
+      <c r="I923" t="inlineStr"/>
+    </row>
+    <row r="924">
+      <c r="H924" t="inlineStr"/>
+      <c r="I924" t="inlineStr"/>
+    </row>
+    <row r="925">
+      <c r="H925" t="inlineStr"/>
+      <c r="I925" t="inlineStr"/>
+    </row>
+    <row r="926">
+      <c r="H926" t="inlineStr"/>
+      <c r="I926" t="inlineStr"/>
+    </row>
+    <row r="927">
+      <c r="H927" t="inlineStr"/>
+      <c r="I927" t="inlineStr"/>
+    </row>
+    <row r="928">
+      <c r="H928" t="inlineStr"/>
+      <c r="I928" t="inlineStr"/>
+    </row>
+    <row r="929">
+      <c r="H929" t="inlineStr"/>
+      <c r="I929" t="inlineStr"/>
+    </row>
+    <row r="930">
+      <c r="H930" t="inlineStr"/>
+      <c r="I930" t="inlineStr"/>
+    </row>
+    <row r="931">
+      <c r="H931" t="inlineStr"/>
+      <c r="I931" t="inlineStr"/>
+    </row>
+    <row r="932">
+      <c r="H932" t="inlineStr"/>
+      <c r="I932" t="inlineStr"/>
+    </row>
+    <row r="933">
+      <c r="H933" t="inlineStr"/>
+      <c r="I933" t="inlineStr"/>
+    </row>
+    <row r="934">
+      <c r="H934" t="inlineStr"/>
+      <c r="I934" t="inlineStr"/>
+    </row>
+    <row r="935">
+      <c r="H935" t="inlineStr"/>
+      <c r="I935" t="inlineStr"/>
+    </row>
+    <row r="936">
+      <c r="H936" t="inlineStr"/>
+      <c r="I936" t="inlineStr"/>
+    </row>
+    <row r="937">
+      <c r="H937" t="inlineStr"/>
+      <c r="I937" t="inlineStr"/>
+    </row>
+    <row r="938">
+      <c r="H938" t="inlineStr"/>
+      <c r="I938" t="inlineStr"/>
+    </row>
+    <row r="939">
+      <c r="H939" t="inlineStr"/>
+      <c r="I939" t="inlineStr"/>
+    </row>
+    <row r="940">
+      <c r="H940" t="inlineStr"/>
+      <c r="I940" t="inlineStr"/>
+    </row>
+    <row r="941">
+      <c r="H941" t="inlineStr"/>
+      <c r="I941" t="inlineStr"/>
+    </row>
+    <row r="942">
+      <c r="H942" t="inlineStr"/>
+      <c r="I942" t="inlineStr"/>
+    </row>
+    <row r="943">
+      <c r="H943" t="inlineStr"/>
+      <c r="I943" t="inlineStr"/>
+    </row>
+    <row r="944">
+      <c r="H944" t="inlineStr"/>
+      <c r="I944" t="inlineStr"/>
+    </row>
+    <row r="945">
+      <c r="H945" t="inlineStr"/>
+      <c r="I945" t="inlineStr"/>
+    </row>
+    <row r="946">
+      <c r="H946" t="inlineStr"/>
+      <c r="I946" t="inlineStr"/>
+    </row>
+    <row r="947">
+      <c r="H947" t="inlineStr"/>
+      <c r="I947" t="inlineStr"/>
+    </row>
+    <row r="948">
+      <c r="H948" t="inlineStr"/>
+      <c r="I948" t="inlineStr"/>
+    </row>
+    <row r="949">
+      <c r="H949" t="inlineStr"/>
+      <c r="I949" t="inlineStr"/>
+    </row>
+    <row r="950">
+      <c r="H950" t="inlineStr"/>
+      <c r="I950" t="inlineStr"/>
+    </row>
+    <row r="951">
+      <c r="H951" t="inlineStr"/>
+      <c r="I951" t="inlineStr"/>
+    </row>
+    <row r="952">
+      <c r="H952" t="inlineStr"/>
+      <c r="I952" t="inlineStr"/>
+    </row>
+    <row r="953">
+      <c r="H953" t="inlineStr"/>
+      <c r="I953" t="inlineStr"/>
+    </row>
+    <row r="954">
+      <c r="H954" t="inlineStr"/>
+      <c r="I954" t="inlineStr"/>
+    </row>
+    <row r="955">
+      <c r="H955" t="inlineStr"/>
+      <c r="I955" t="inlineStr"/>
+    </row>
+    <row r="956">
+      <c r="H956" t="inlineStr"/>
+      <c r="I956" t="inlineStr"/>
+    </row>
+    <row r="957">
+      <c r="H957" t="inlineStr"/>
+      <c r="I957" t="inlineStr"/>
+    </row>
+    <row r="958">
+      <c r="H958" t="inlineStr"/>
+      <c r="I958" t="inlineStr"/>
+    </row>
+    <row r="959">
+      <c r="H959" t="inlineStr"/>
+      <c r="I959" t="inlineStr"/>
+    </row>
+    <row r="960">
+      <c r="H960" t="inlineStr"/>
+      <c r="I960" t="inlineStr"/>
+    </row>
+    <row r="961">
+      <c r="H961" t="inlineStr"/>
+      <c r="I961" t="inlineStr"/>
+    </row>
+    <row r="962">
+      <c r="H962" t="inlineStr"/>
+      <c r="I962" t="inlineStr"/>
+    </row>
+    <row r="963">
+      <c r="H963" t="inlineStr"/>
+      <c r="I963" t="inlineStr"/>
+    </row>
+    <row r="964">
+      <c r="H964" t="inlineStr"/>
+      <c r="I964" t="inlineStr"/>
+    </row>
+    <row r="965">
+      <c r="H965" t="inlineStr"/>
+      <c r="I965" t="inlineStr"/>
+    </row>
+    <row r="966">
+      <c r="H966" t="inlineStr"/>
+      <c r="I966" t="inlineStr"/>
+    </row>
+    <row r="967">
+      <c r="H967" t="inlineStr"/>
+      <c r="I967" t="inlineStr"/>
+    </row>
+    <row r="968">
+      <c r="H968" t="inlineStr"/>
+      <c r="I968" t="inlineStr"/>
+    </row>
+    <row r="969">
+      <c r="H969" t="inlineStr"/>
+      <c r="I969" t="inlineStr"/>
+    </row>
+    <row r="970">
+      <c r="H970" t="inlineStr"/>
+      <c r="I970" t="inlineStr"/>
+    </row>
+    <row r="971">
+      <c r="H971" t="inlineStr"/>
+      <c r="I971" t="inlineStr"/>
+    </row>
+    <row r="972">
+      <c r="H972" t="inlineStr"/>
+      <c r="I972" t="inlineStr"/>
+    </row>
+    <row r="973">
+      <c r="H973" t="inlineStr"/>
+      <c r="I973" t="inlineStr"/>
+    </row>
+    <row r="974">
+      <c r="H974" t="inlineStr"/>
+      <c r="I974" t="inlineStr"/>
+    </row>
+    <row r="975">
+      <c r="H975" t="inlineStr"/>
+      <c r="I975" t="inlineStr"/>
+    </row>
+    <row r="976">
+      <c r="H976" t="inlineStr"/>
+      <c r="I976" t="inlineStr"/>
+    </row>
+    <row r="977">
+      <c r="H977" t="inlineStr"/>
+      <c r="I977" t="inlineStr"/>
+    </row>
+    <row r="978">
+      <c r="H978" t="inlineStr"/>
+      <c r="I978" t="inlineStr"/>
+    </row>
+    <row r="979">
+      <c r="H979" t="inlineStr"/>
+      <c r="I979" t="inlineStr"/>
+    </row>
+    <row r="980">
+      <c r="H980" t="inlineStr"/>
+      <c r="I980" t="inlineStr"/>
+    </row>
+    <row r="981">
+      <c r="H981" t="inlineStr"/>
+      <c r="I981" t="inlineStr"/>
+    </row>
+    <row r="982">
+      <c r="H982" t="inlineStr"/>
+      <c r="I982" t="inlineStr"/>
+    </row>
+    <row r="983">
+      <c r="H983" t="inlineStr"/>
+      <c r="I983" t="inlineStr"/>
+    </row>
+    <row r="984">
+      <c r="H984" t="inlineStr"/>
+      <c r="I984" t="inlineStr"/>
+    </row>
+    <row r="985">
+      <c r="H985" t="inlineStr"/>
+      <c r="I985" t="inlineStr"/>
+    </row>
+    <row r="986">
+      <c r="H986" t="inlineStr"/>
+      <c r="I986" t="inlineStr"/>
+    </row>
+    <row r="987">
+      <c r="H987" t="inlineStr"/>
+      <c r="I987" t="inlineStr"/>
+    </row>
+    <row r="988">
+      <c r="H988" t="inlineStr"/>
+      <c r="I988" t="inlineStr"/>
+    </row>
+    <row r="989">
+      <c r="H989" t="inlineStr"/>
+      <c r="I989" t="inlineStr"/>
+    </row>
+    <row r="990">
+      <c r="H990" t="inlineStr"/>
+      <c r="I990" t="inlineStr"/>
+    </row>
+    <row r="991">
+      <c r="H991" t="inlineStr"/>
+      <c r="I991" t="inlineStr"/>
+    </row>
+    <row r="992">
+      <c r="H992" t="inlineStr"/>
+      <c r="I992" t="inlineStr"/>
+    </row>
+    <row r="993">
+      <c r="H993" t="inlineStr"/>
+      <c r="I993" t="inlineStr"/>
+    </row>
+    <row r="994">
+      <c r="H994" t="inlineStr"/>
+      <c r="I994" t="inlineStr"/>
+    </row>
+    <row r="995">
+      <c r="H995" t="inlineStr"/>
+      <c r="I995" t="inlineStr"/>
+    </row>
+    <row r="996">
+      <c r="H996" t="inlineStr"/>
+      <c r="I996" t="inlineStr"/>
+    </row>
+    <row r="997">
+      <c r="H997" t="inlineStr"/>
+      <c r="I997" t="inlineStr"/>
+    </row>
+    <row r="998">
+      <c r="H998" t="inlineStr"/>
+      <c r="I998" t="inlineStr"/>
+    </row>
+    <row r="999">
+      <c r="H999" t="inlineStr"/>
+      <c r="I999" t="inlineStr"/>
+    </row>
+    <row r="1000">
+      <c r="H1000" t="inlineStr"/>
+      <c r="I1000" t="inlineStr"/>
     </row>
   </sheetData>
   <autoFilter ref="A8:J8"/>

--- a/GPS_ChecklistForAutoTest.xlsx
+++ b/GPS_ChecklistForAutoTest.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="899">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="937">
   <si>
     <t>WEBGPS SYSTEM - CHECKLIST AUTOMATION TEST</t>
   </si>
@@ -2531,6 +2531,9 @@
     <t>Gán 1 nhóm xe</t>
   </si>
   <si>
+    <t>case này hay lỗi</t>
+  </si>
+  <si>
     <t>Admin35</t>
   </si>
   <si>
@@ -2540,7 +2543,10 @@
     <t>2.Quản trị công ty</t>
   </si>
   <si>
-    <t>2.Quản trị hệ thống</t>
+    <t>3.Quản trị hệ thống</t>
+  </si>
+  <si>
+    <t>3.1 Danh sách người dùng</t>
   </si>
   <si>
     <t>User01</t>
@@ -2580,6 +2586,9 @@
     <t>Bấm Icon PDF --&gt; Xuât được file PDF</t>
   </si>
   <si>
+    <t>Chưa viết</t>
+  </si>
+  <si>
     <t>User05</t>
   </si>
   <si>
@@ -2652,16 +2661,121 @@
     <t>Kich vào Icon đăng xuất tài khoản --&gt; Mở lên popup thông báo</t>
   </si>
   <si>
-    <t>3. Cấu hình xe</t>
-  </si>
-  <si>
-    <t>Cấu hình xe</t>
-  </si>
-  <si>
-    <t>Yêu cầu cung cấp dữ liệu</t>
-  </si>
-  <si>
-    <t>Báo cáo dừng đỗ</t>
+    <t>3.Quản lý lái xe</t>
+  </si>
+  <si>
+    <t>4.Quản trị thông báo</t>
+  </si>
+  <si>
+    <t>III. BÁO CÁO</t>
+  </si>
+  <si>
+    <t>1.Báo cáo tổng hợp hoạt động</t>
+  </si>
+  <si>
+    <t>Report01</t>
+  </si>
+  <si>
+    <t>Mở báo cáo hoạt động</t>
+  </si>
+  <si>
+    <t>Menu Báo cáo --&gt; Mở báo cáo --&gt; Đúng giao diện báo cáo</t>
+  </si>
+  <si>
+    <t>Report02</t>
+  </si>
+  <si>
+    <t>Bấm nút tìm kiểm</t>
+  </si>
+  <si>
+    <t>Bấm nút tìm kiếm --&gt; Hiển thị dữ liệu trên lưới
+TH1: Không có dữ liệu
+TH2: Có dữ liệu</t>
+  </si>
+  <si>
+    <t>Report03</t>
+  </si>
+  <si>
+    <t>Xuất Excel</t>
+  </si>
+  <si>
+    <t>Xuất excel : Các cột trên lưới = các cột excel
+Định dạng cột Km giống nhau</t>
+  </si>
+  <si>
+    <t>2.Báo cáo Chi tiết hoạt động</t>
+  </si>
+  <si>
+    <t>Report04</t>
+  </si>
+  <si>
+    <t>Mở báo cáo</t>
+  </si>
+  <si>
+    <t>Report05</t>
+  </si>
+  <si>
+    <t>Chọn Gộp số phút hoạt động</t>
+  </si>
+  <si>
+    <t>Hiển thị ra ô nhập Số phút giới hạn</t>
+  </si>
+  <si>
+    <t>Report06</t>
+  </si>
+  <si>
+    <t>Chọn Khung giờ</t>
+  </si>
+  <si>
+    <t>Hiển thị ra ô nhập khung giờ xuất báo cáo</t>
+  </si>
+  <si>
+    <t>Report07</t>
+  </si>
+  <si>
+    <t>Bấm nút Tìm kiểm</t>
+  </si>
+  <si>
+    <t>Report08</t>
+  </si>
+  <si>
+    <t>3.Báo cáo tổng hợp km xe hoạt động</t>
+  </si>
+  <si>
+    <t>Report09</t>
+  </si>
+  <si>
+    <t>Report10</t>
+  </si>
+  <si>
+    <t>Tìm kiếm Chọn "Chi tiết kích xung"</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách "Chi tiết kích xung" 15 tháng gần nhất</t>
+  </si>
+  <si>
+    <t>Report11</t>
+  </si>
+  <si>
+    <t>Xuất excel "Chi tiết kích xung"</t>
+  </si>
+  <si>
+    <t>Report12</t>
+  </si>
+  <si>
+    <t>Tìm kiếm Chọn "Tổng hợp"</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách "Tổng hợp" 15 tháng gần nhất</t>
+  </si>
+  <si>
+    <t>Report13</t>
+  </si>
+  <si>
+    <t>Xuất excel "Tổng hợp"</t>
+  </si>
+  <si>
+    <t>File Báo cáo tổng hợp hoạt động sai ô G5</t>
   </si>
   <si>
     <t>Báo cáo chuyến kinh doanh</t>
@@ -2679,15 +2793,6 @@
     <t>BC Đăng nhập đăng xuất lái xe - Tổng hợp</t>
   </si>
   <si>
-    <t>Báo cáo tổng hợp km xe hoạt động</t>
-  </si>
-  <si>
-    <t>Báo cáo chi tiết hoạt động</t>
-  </si>
-  <si>
-    <t>Báo cáo tổng hợp hoạt động</t>
-  </si>
-  <si>
     <t>Báo cáo BGT quá vận tốc</t>
   </si>
   <si>
@@ -2731,13 +2836,25 @@
   </si>
   <si>
     <t>Giám sát xe trực tuyến bằng hình ảnh</t>
+  </si>
+  <si>
+    <t>3.Báo cáo dừng đỗ</t>
+  </si>
+  <si>
+    <t>Report14</t>
+  </si>
+  <si>
+    <t>Report15</t>
+  </si>
+  <si>
+    <t>Report16</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2820,8 +2937,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2859,8 +2982,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA9D08E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -2939,21 +3074,6 @@
         <color rgb="FF000000"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFCCCCCC"/>
-      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -3075,11 +3195,99 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3168,41 +3376,41 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3214,41 +3422,59 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3257,43 +3483,25 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3302,31 +3510,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3338,25 +3543,22 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3377,56 +3579,78 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3733,23 +3957,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T536"/>
+  <dimension ref="A1:T1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A424" workbookViewId="0">
-      <selection activeCell="J443" sqref="J443"/>
+    <sheetView tabSelected="1" topLeftCell="A466" workbookViewId="0">
+      <selection activeCell="H488" sqref="H488"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" style="113" customWidth="1"/>
-    <col min="2" max="2" width="39.42578125" style="113" customWidth="1"/>
-    <col min="3" max="3" width="41.5703125" style="113" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" style="113" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="113" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" style="113" customWidth="1"/>
-    <col min="11" max="11" width="17" style="113" customWidth="1"/>
-    <col min="12" max="12" width="31.28515625" style="113" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="113" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" style="115" customWidth="1"/>
+    <col min="2" max="2" width="39.42578125" style="115" customWidth="1"/>
+    <col min="3" max="3" width="41.5703125" style="115" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" style="115" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="115" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" style="115" customWidth="1"/>
+    <col min="11" max="11" width="17" style="115" customWidth="1"/>
+    <col min="12" max="12" width="31.28515625" style="115" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="115" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3767,15 +3991,15 @@
       <c r="J1" s="1"/>
       <c r="K1" s="75"/>
       <c r="L1" s="75"/>
-      <c r="M1" s="118" t="s">
+      <c r="M1" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="119"/>
-      <c r="O1" s="119"/>
-      <c r="P1" s="119"/>
-      <c r="Q1" s="119"/>
-      <c r="R1" s="119"/>
-      <c r="S1" s="119"/>
+      <c r="N1" s="121"/>
+      <c r="O1" s="121"/>
+      <c r="P1" s="121"/>
+      <c r="Q1" s="121"/>
+      <c r="R1" s="121"/>
+      <c r="S1" s="121"/>
     </row>
     <row r="2" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="25"/>
@@ -3792,16 +4016,16 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="31"/>
-      <c r="M2" s="120" t="s">
+      <c r="M2" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="119"/>
-      <c r="O2" s="119"/>
-      <c r="P2" s="119"/>
-      <c r="Q2" s="119"/>
-      <c r="R2" s="119"/>
-      <c r="S2" s="119"/>
-      <c r="T2" s="119"/>
+      <c r="N2" s="121"/>
+      <c r="O2" s="121"/>
+      <c r="P2" s="121"/>
+      <c r="Q2" s="121"/>
+      <c r="R2" s="121"/>
+      <c r="S2" s="121"/>
+      <c r="T2" s="121"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24"/>
@@ -3824,16 +4048,16 @@
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="32"/>
-      <c r="M3" s="120" t="s">
+      <c r="M3" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="119"/>
-      <c r="O3" s="119"/>
-      <c r="P3" s="119"/>
-      <c r="Q3" s="119"/>
-      <c r="R3" s="119"/>
-      <c r="S3" s="119"/>
-      <c r="T3" s="119"/>
+      <c r="N3" s="121"/>
+      <c r="O3" s="121"/>
+      <c r="P3" s="121"/>
+      <c r="Q3" s="121"/>
+      <c r="R3" s="121"/>
+      <c r="S3" s="121"/>
+      <c r="T3" s="121"/>
     </row>
     <row r="4" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="24"/>
@@ -3842,11 +4066,11 @@
       </c>
       <c r="C4" s="18">
         <f>COUNTIF(D:D,"x")</f>
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="D4" s="4">
         <f>COUNTIFS(H:H,"Pass",D:D,"x")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E4" s="4">
         <f>COUNTIFS(H:H,"Fail",D:D,"x")</f>
@@ -3859,16 +4083,16 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="32"/>
-      <c r="M4" s="120" t="s">
+      <c r="M4" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="119"/>
-      <c r="O4" s="119"/>
-      <c r="P4" s="119"/>
-      <c r="Q4" s="119"/>
-      <c r="R4" s="119"/>
-      <c r="S4" s="119"/>
-      <c r="T4" s="119"/>
+      <c r="N4" s="121"/>
+      <c r="O4" s="121"/>
+      <c r="P4" s="121"/>
+      <c r="Q4" s="121"/>
+      <c r="R4" s="121"/>
+      <c r="S4" s="121"/>
+      <c r="T4" s="121"/>
     </row>
     <row r="5" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="24"/>
@@ -3894,16 +4118,16 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="32"/>
-      <c r="M5" s="120" t="s">
+      <c r="M5" s="124" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="119"/>
-      <c r="O5" s="119"/>
-      <c r="P5" s="119"/>
-      <c r="Q5" s="119"/>
-      <c r="R5" s="119"/>
-      <c r="S5" s="119"/>
-      <c r="T5" s="119"/>
+      <c r="N5" s="121"/>
+      <c r="O5" s="121"/>
+      <c r="P5" s="121"/>
+      <c r="Q5" s="121"/>
+      <c r="R5" s="121"/>
+      <c r="S5" s="121"/>
+      <c r="T5" s="121"/>
     </row>
     <row r="6" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="24"/>
@@ -3938,11 +4162,11 @@
       </c>
       <c r="C7" s="18">
         <f>COUNTIF(G:G,"x")</f>
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D7" s="4">
         <f>COUNTIFS(H:H,"Pass",G:G,"x")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E7" s="4">
         <f>COUNTIFS(H:H,"Fail",G:G,"x")</f>
@@ -11204,641 +11428,641 @@
       <c r="M374" s="75"/>
     </row>
     <row r="375" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A375" s="77" t="s">
+      <c r="A375" s="76" t="s">
         <v>684</v>
       </c>
-      <c r="B375" s="77"/>
-      <c r="C375" s="77"/>
-      <c r="D375" s="78"/>
-      <c r="E375" s="78"/>
-      <c r="F375" s="78"/>
-      <c r="G375" s="78"/>
-      <c r="H375" s="78"/>
-      <c r="I375" s="78"/>
-      <c r="J375" s="78"/>
-      <c r="K375" s="78"/>
-      <c r="L375" s="78"/>
+      <c r="B375" s="76"/>
+      <c r="C375" s="76"/>
+      <c r="D375" s="77"/>
+      <c r="E375" s="77"/>
+      <c r="F375" s="77"/>
+      <c r="G375" s="77"/>
+      <c r="H375" s="77"/>
+      <c r="I375" s="77"/>
+      <c r="J375" s="77"/>
+      <c r="K375" s="77"/>
+      <c r="L375" s="77"/>
       <c r="M375" s="75"/>
     </row>
     <row r="376" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A376" s="79" t="s">
+      <c r="A376" s="78" t="s">
         <v>685</v>
       </c>
-      <c r="B376" s="80" t="s">
+      <c r="B376" s="79" t="s">
         <v>686</v>
       </c>
       <c r="C376" s="67" t="s">
         <v>687</v>
       </c>
-      <c r="D376" s="81" t="s">
-        <v>32</v>
-      </c>
-      <c r="E376" s="81"/>
-      <c r="F376" s="81"/>
-      <c r="G376" s="81"/>
-      <c r="H376" s="81"/>
-      <c r="I376" s="81"/>
-      <c r="J376" s="81"/>
-      <c r="K376" s="81"/>
-      <c r="L376" s="81"/>
+      <c r="D376" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="E376" s="80"/>
+      <c r="F376" s="80"/>
+      <c r="G376" s="80"/>
+      <c r="H376" s="80"/>
+      <c r="I376" s="80"/>
+      <c r="J376" s="80"/>
+      <c r="K376" s="80"/>
+      <c r="L376" s="80"/>
       <c r="M376" s="75"/>
     </row>
     <row r="377" spans="1:13" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A377" s="79" t="s">
+      <c r="A377" s="78" t="s">
         <v>688</v>
       </c>
-      <c r="B377" s="80" t="s">
+      <c r="B377" s="79" t="s">
         <v>689</v>
       </c>
       <c r="C377" s="67" t="s">
         <v>690</v>
       </c>
-      <c r="D377" s="81" t="s">
-        <v>32</v>
-      </c>
-      <c r="E377" s="81"/>
-      <c r="F377" s="81"/>
-      <c r="G377" s="81"/>
-      <c r="H377" s="81"/>
-      <c r="I377" s="81"/>
-      <c r="J377" s="81"/>
-      <c r="K377" s="81"/>
-      <c r="L377" s="81"/>
+      <c r="D377" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="E377" s="80"/>
+      <c r="F377" s="80"/>
+      <c r="G377" s="80"/>
+      <c r="H377" s="80"/>
+      <c r="I377" s="80"/>
+      <c r="J377" s="80"/>
+      <c r="K377" s="80"/>
+      <c r="L377" s="80"/>
       <c r="M377" s="75"/>
     </row>
     <row r="378" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A378" s="79" t="s">
+      <c r="A378" s="78" t="s">
         <v>691</v>
       </c>
-      <c r="B378" s="80" t="s">
+      <c r="B378" s="79" t="s">
         <v>692</v>
       </c>
       <c r="C378" s="67" t="s">
         <v>693</v>
       </c>
-      <c r="D378" s="81" t="s">
-        <v>32</v>
-      </c>
-      <c r="E378" s="81"/>
-      <c r="F378" s="81"/>
-      <c r="G378" s="81"/>
-      <c r="H378" s="81"/>
-      <c r="I378" s="81"/>
-      <c r="J378" s="81"/>
-      <c r="K378" s="81"/>
-      <c r="L378" s="81"/>
+      <c r="D378" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="E378" s="80"/>
+      <c r="F378" s="80"/>
+      <c r="G378" s="80"/>
+      <c r="H378" s="80"/>
+      <c r="I378" s="80"/>
+      <c r="J378" s="80"/>
+      <c r="K378" s="80"/>
+      <c r="L378" s="80"/>
       <c r="M378" s="75"/>
     </row>
     <row r="379" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A379" s="79" t="s">
+      <c r="A379" s="78" t="s">
         <v>694</v>
       </c>
-      <c r="B379" s="80" t="s">
+      <c r="B379" s="79" t="s">
         <v>695</v>
       </c>
       <c r="C379" s="67" t="s">
         <v>696</v>
       </c>
-      <c r="D379" s="81" t="s">
-        <v>32</v>
-      </c>
-      <c r="E379" s="81"/>
-      <c r="F379" s="81"/>
-      <c r="G379" s="81"/>
-      <c r="H379" s="81"/>
-      <c r="I379" s="81"/>
-      <c r="J379" s="81"/>
-      <c r="K379" s="81"/>
-      <c r="L379" s="81"/>
+      <c r="D379" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="E379" s="80"/>
+      <c r="F379" s="80"/>
+      <c r="G379" s="80"/>
+      <c r="H379" s="80"/>
+      <c r="I379" s="80"/>
+      <c r="J379" s="80"/>
+      <c r="K379" s="80"/>
+      <c r="L379" s="80"/>
       <c r="M379" s="75"/>
     </row>
     <row r="380" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A380" s="79" t="s">
+      <c r="A380" s="78" t="s">
         <v>697</v>
       </c>
-      <c r="B380" s="80" t="s">
+      <c r="B380" s="79" t="s">
         <v>698</v>
       </c>
       <c r="C380" s="67" t="s">
         <v>699</v>
       </c>
-      <c r="D380" s="81" t="s">
-        <v>32</v>
-      </c>
-      <c r="E380" s="81"/>
-      <c r="F380" s="81"/>
-      <c r="G380" s="81"/>
-      <c r="H380" s="81"/>
-      <c r="I380" s="81"/>
-      <c r="J380" s="81"/>
-      <c r="K380" s="81"/>
-      <c r="L380" s="81"/>
+      <c r="D380" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="E380" s="80"/>
+      <c r="F380" s="80"/>
+      <c r="G380" s="80"/>
+      <c r="H380" s="80"/>
+      <c r="I380" s="80"/>
+      <c r="J380" s="80"/>
+      <c r="K380" s="80"/>
+      <c r="L380" s="80"/>
       <c r="M380" s="75"/>
     </row>
     <row r="381" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A381" s="82"/>
-      <c r="B381" s="80"/>
+      <c r="A381" s="81"/>
+      <c r="B381" s="79"/>
       <c r="C381" s="67"/>
-      <c r="D381" s="81"/>
-      <c r="E381" s="81"/>
-      <c r="F381" s="81"/>
-      <c r="G381" s="81"/>
-      <c r="H381" s="81"/>
-      <c r="I381" s="81"/>
-      <c r="J381" s="81"/>
-      <c r="K381" s="81"/>
-      <c r="L381" s="81"/>
+      <c r="D381" s="80"/>
+      <c r="E381" s="80"/>
+      <c r="F381" s="80"/>
+      <c r="G381" s="80"/>
+      <c r="H381" s="80"/>
+      <c r="I381" s="80"/>
+      <c r="J381" s="80"/>
+      <c r="K381" s="80"/>
+      <c r="L381" s="80"/>
       <c r="M381" s="75"/>
     </row>
     <row r="382" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A382" s="83" t="s">
+      <c r="A382" s="82" t="s">
         <v>700</v>
       </c>
-      <c r="B382" s="83"/>
-      <c r="C382" s="83"/>
-      <c r="D382" s="84"/>
-      <c r="E382" s="84"/>
-      <c r="F382" s="84"/>
-      <c r="G382" s="84"/>
-      <c r="H382" s="84"/>
-      <c r="I382" s="84"/>
-      <c r="J382" s="84"/>
-      <c r="K382" s="84"/>
-      <c r="L382" s="84"/>
+      <c r="B382" s="82"/>
+      <c r="C382" s="82"/>
+      <c r="D382" s="83"/>
+      <c r="E382" s="83"/>
+      <c r="F382" s="83"/>
+      <c r="G382" s="83"/>
+      <c r="H382" s="83"/>
+      <c r="I382" s="83"/>
+      <c r="J382" s="83"/>
+      <c r="K382" s="83"/>
+      <c r="L382" s="83"/>
       <c r="M382" s="75"/>
     </row>
     <row r="383" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A383" s="91" t="s">
+      <c r="A383" s="89" t="s">
         <v>701</v>
       </c>
-      <c r="B383" s="92" t="s">
+      <c r="B383" s="90" t="s">
         <v>702</v>
       </c>
-      <c r="C383" s="93" t="s">
+      <c r="C383" s="91" t="s">
         <v>703</v>
       </c>
-      <c r="D383" s="105"/>
-      <c r="E383" s="105"/>
-      <c r="F383" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="G383" s="89"/>
-      <c r="H383" s="89"/>
-      <c r="I383" s="88"/>
-      <c r="J383" s="88"/>
-      <c r="K383" s="88"/>
-      <c r="L383" s="88"/>
+      <c r="D383" s="99"/>
+      <c r="E383" s="99"/>
+      <c r="F383" s="88" t="s">
+        <v>32</v>
+      </c>
+      <c r="G383" s="88"/>
+      <c r="H383" s="88"/>
+      <c r="I383" s="87"/>
+      <c r="J383" s="87"/>
+      <c r="K383" s="87"/>
+      <c r="L383" s="87"/>
       <c r="M383" s="75"/>
     </row>
     <row r="384" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A384" s="91" t="s">
+      <c r="A384" s="89" t="s">
         <v>704</v>
       </c>
-      <c r="B384" s="92" t="s">
+      <c r="B384" s="90" t="s">
         <v>705</v>
       </c>
-      <c r="C384" s="93" t="s">
+      <c r="C384" s="91" t="s">
         <v>706</v>
       </c>
-      <c r="D384" s="81"/>
-      <c r="E384" s="105"/>
-      <c r="F384" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="G384" s="81"/>
-      <c r="H384" s="81"/>
-      <c r="I384" s="81"/>
-      <c r="J384" s="81"/>
-      <c r="K384" s="81"/>
-      <c r="L384" s="81"/>
+      <c r="D384" s="80"/>
+      <c r="E384" s="99"/>
+      <c r="F384" s="88" t="s">
+        <v>32</v>
+      </c>
+      <c r="G384" s="80"/>
+      <c r="H384" s="80"/>
+      <c r="I384" s="80"/>
+      <c r="J384" s="80"/>
+      <c r="K384" s="80"/>
+      <c r="L384" s="80"/>
       <c r="M384" s="75"/>
     </row>
     <row r="385" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A385" s="91" t="s">
+      <c r="A385" s="89" t="s">
         <v>707</v>
       </c>
-      <c r="B385" s="92" t="s">
+      <c r="B385" s="90" t="s">
         <v>708</v>
       </c>
-      <c r="C385" s="93" t="s">
+      <c r="C385" s="91" t="s">
         <v>709</v>
       </c>
-      <c r="D385" s="81"/>
-      <c r="E385" s="105"/>
-      <c r="F385" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="G385" s="81"/>
-      <c r="H385" s="81"/>
-      <c r="I385" s="81"/>
-      <c r="J385" s="81"/>
-      <c r="K385" s="81"/>
-      <c r="L385" s="81"/>
+      <c r="D385" s="80"/>
+      <c r="E385" s="99"/>
+      <c r="F385" s="88" t="s">
+        <v>32</v>
+      </c>
+      <c r="G385" s="80"/>
+      <c r="H385" s="80"/>
+      <c r="I385" s="80"/>
+      <c r="J385" s="80"/>
+      <c r="K385" s="80"/>
+      <c r="L385" s="80"/>
       <c r="M385" s="75"/>
     </row>
     <row r="386" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A386" s="91" t="s">
+      <c r="A386" s="89" t="s">
         <v>710</v>
       </c>
-      <c r="B386" s="92" t="s">
+      <c r="B386" s="90" t="s">
         <v>711</v>
       </c>
-      <c r="C386" s="93" t="s">
+      <c r="C386" s="91" t="s">
         <v>712</v>
       </c>
-      <c r="D386" s="81"/>
-      <c r="E386" s="105"/>
-      <c r="F386" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="G386" s="81"/>
-      <c r="H386" s="81"/>
-      <c r="I386" s="81"/>
-      <c r="J386" s="81"/>
-      <c r="K386" s="81"/>
-      <c r="L386" s="81"/>
+      <c r="D386" s="80"/>
+      <c r="E386" s="99"/>
+      <c r="F386" s="88" t="s">
+        <v>32</v>
+      </c>
+      <c r="G386" s="80"/>
+      <c r="H386" s="80"/>
+      <c r="I386" s="80"/>
+      <c r="J386" s="80"/>
+      <c r="K386" s="80"/>
+      <c r="L386" s="80"/>
       <c r="M386" s="75"/>
     </row>
     <row r="387" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A387" s="91" t="s">
+      <c r="A387" s="89" t="s">
         <v>713</v>
       </c>
-      <c r="B387" s="92" t="s">
+      <c r="B387" s="90" t="s">
         <v>714</v>
       </c>
-      <c r="C387" s="93" t="s">
+      <c r="C387" s="91" t="s">
         <v>715</v>
       </c>
-      <c r="D387" s="81"/>
-      <c r="E387" s="105"/>
-      <c r="F387" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="G387" s="81"/>
-      <c r="H387" s="81"/>
-      <c r="I387" s="81"/>
-      <c r="J387" s="81"/>
-      <c r="K387" s="81"/>
-      <c r="L387" s="81"/>
+      <c r="D387" s="80"/>
+      <c r="E387" s="99"/>
+      <c r="F387" s="88" t="s">
+        <v>32</v>
+      </c>
+      <c r="G387" s="80"/>
+      <c r="H387" s="80"/>
+      <c r="I387" s="80"/>
+      <c r="J387" s="80"/>
+      <c r="K387" s="80"/>
+      <c r="L387" s="80"/>
       <c r="M387" s="75"/>
     </row>
     <row r="388" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A388" s="91" t="s">
+      <c r="A388" s="89" t="s">
         <v>716</v>
       </c>
-      <c r="B388" s="92" t="s">
+      <c r="B388" s="90" t="s">
         <v>717</v>
       </c>
-      <c r="C388" s="93" t="s">
+      <c r="C388" s="91" t="s">
         <v>718</v>
       </c>
-      <c r="D388" s="81"/>
-      <c r="E388" s="105"/>
-      <c r="F388" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="G388" s="81"/>
-      <c r="H388" s="81"/>
-      <c r="I388" s="81"/>
-      <c r="J388" s="81"/>
-      <c r="K388" s="81"/>
-      <c r="L388" s="81"/>
+      <c r="D388" s="80"/>
+      <c r="E388" s="99"/>
+      <c r="F388" s="88" t="s">
+        <v>32</v>
+      </c>
+      <c r="G388" s="80"/>
+      <c r="H388" s="80"/>
+      <c r="I388" s="80"/>
+      <c r="J388" s="80"/>
+      <c r="K388" s="80"/>
+      <c r="L388" s="80"/>
       <c r="M388" s="75"/>
     </row>
     <row r="389" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A389" s="91" t="s">
+      <c r="A389" s="89" t="s">
         <v>719</v>
       </c>
-      <c r="B389" s="92" t="s">
+      <c r="B389" s="90" t="s">
         <v>720</v>
       </c>
-      <c r="C389" s="93" t="s">
+      <c r="C389" s="91" t="s">
         <v>721</v>
       </c>
-      <c r="D389" s="81"/>
-      <c r="E389" s="105"/>
-      <c r="F389" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="G389" s="81"/>
-      <c r="H389" s="81"/>
-      <c r="I389" s="81"/>
-      <c r="J389" s="81"/>
-      <c r="K389" s="81"/>
-      <c r="L389" s="81"/>
+      <c r="D389" s="80"/>
+      <c r="E389" s="99"/>
+      <c r="F389" s="88" t="s">
+        <v>32</v>
+      </c>
+      <c r="G389" s="80"/>
+      <c r="H389" s="80"/>
+      <c r="I389" s="80"/>
+      <c r="J389" s="80"/>
+      <c r="K389" s="80"/>
+      <c r="L389" s="80"/>
       <c r="M389" s="75"/>
     </row>
     <row r="390" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A390" s="91" t="s">
+      <c r="A390" s="89" t="s">
         <v>722</v>
       </c>
-      <c r="B390" s="92" t="s">
+      <c r="B390" s="90" t="s">
         <v>723</v>
       </c>
-      <c r="C390" s="93" t="s">
+      <c r="C390" s="91" t="s">
         <v>724</v>
       </c>
-      <c r="D390" s="81"/>
-      <c r="E390" s="105"/>
-      <c r="F390" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="G390" s="81"/>
-      <c r="H390" s="81"/>
-      <c r="I390" s="81"/>
-      <c r="J390" s="81"/>
-      <c r="K390" s="81"/>
-      <c r="L390" s="81"/>
+      <c r="D390" s="80"/>
+      <c r="E390" s="99"/>
+      <c r="F390" s="88" t="s">
+        <v>32</v>
+      </c>
+      <c r="G390" s="80"/>
+      <c r="H390" s="80"/>
+      <c r="I390" s="80"/>
+      <c r="J390" s="80"/>
+      <c r="K390" s="80"/>
+      <c r="L390" s="80"/>
       <c r="M390" s="75"/>
     </row>
     <row r="391" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A391" s="91" t="s">
+      <c r="A391" s="89" t="s">
         <v>725</v>
       </c>
-      <c r="B391" s="92" t="s">
+      <c r="B391" s="90" t="s">
         <v>726</v>
       </c>
-      <c r="C391" s="93" t="s">
+      <c r="C391" s="91" t="s">
         <v>727</v>
       </c>
-      <c r="D391" s="81"/>
-      <c r="E391" s="105"/>
-      <c r="F391" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="G391" s="81"/>
-      <c r="H391" s="81"/>
-      <c r="I391" s="81"/>
-      <c r="J391" s="81"/>
-      <c r="K391" s="81"/>
-      <c r="L391" s="81"/>
+      <c r="D391" s="80"/>
+      <c r="E391" s="99"/>
+      <c r="F391" s="88" t="s">
+        <v>32</v>
+      </c>
+      <c r="G391" s="80"/>
+      <c r="H391" s="80"/>
+      <c r="I391" s="80"/>
+      <c r="J391" s="80"/>
+      <c r="K391" s="80"/>
+      <c r="L391" s="80"/>
       <c r="M391" s="75"/>
     </row>
     <row r="392" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A392" s="91" t="s">
+      <c r="A392" s="89" t="s">
         <v>728</v>
       </c>
-      <c r="B392" s="92" t="s">
+      <c r="B392" s="90" t="s">
         <v>729</v>
       </c>
-      <c r="C392" s="93" t="s">
+      <c r="C392" s="91" t="s">
         <v>730</v>
       </c>
-      <c r="D392" s="81"/>
-      <c r="E392" s="105"/>
-      <c r="F392" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="G392" s="81"/>
-      <c r="H392" s="81"/>
-      <c r="I392" s="81"/>
-      <c r="J392" s="81"/>
-      <c r="K392" s="81"/>
-      <c r="L392" s="81"/>
+      <c r="D392" s="80"/>
+      <c r="E392" s="99"/>
+      <c r="F392" s="88" t="s">
+        <v>32</v>
+      </c>
+      <c r="G392" s="80"/>
+      <c r="H392" s="80"/>
+      <c r="I392" s="80"/>
+      <c r="J392" s="80"/>
+      <c r="K392" s="80"/>
+      <c r="L392" s="80"/>
       <c r="M392" s="75"/>
     </row>
     <row r="393" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A393" s="91" t="s">
+      <c r="A393" s="89" t="s">
         <v>731</v>
       </c>
-      <c r="B393" s="92" t="s">
+      <c r="B393" s="90" t="s">
         <v>732</v>
       </c>
-      <c r="C393" s="93" t="s">
+      <c r="C393" s="91" t="s">
         <v>733</v>
       </c>
-      <c r="D393" s="81"/>
-      <c r="E393" s="105"/>
-      <c r="F393" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="G393" s="81"/>
-      <c r="H393" s="81"/>
-      <c r="I393" s="81"/>
-      <c r="J393" s="81"/>
-      <c r="K393" s="81"/>
-      <c r="L393" s="81"/>
+      <c r="D393" s="80"/>
+      <c r="E393" s="99"/>
+      <c r="F393" s="88" t="s">
+        <v>32</v>
+      </c>
+      <c r="G393" s="80"/>
+      <c r="H393" s="80"/>
+      <c r="I393" s="80"/>
+      <c r="J393" s="80"/>
+      <c r="K393" s="80"/>
+      <c r="L393" s="80"/>
       <c r="M393" s="75"/>
     </row>
     <row r="394" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A394" s="94"/>
-      <c r="B394" s="92"/>
-      <c r="C394" s="93"/>
-      <c r="D394" s="81"/>
-      <c r="E394" s="81"/>
-      <c r="F394" s="81"/>
-      <c r="G394" s="81"/>
-      <c r="H394" s="81"/>
-      <c r="I394" s="81"/>
-      <c r="J394" s="81"/>
-      <c r="K394" s="81"/>
-      <c r="L394" s="81"/>
+      <c r="A394" s="92"/>
+      <c r="B394" s="90"/>
+      <c r="C394" s="91"/>
+      <c r="D394" s="80"/>
+      <c r="E394" s="80"/>
+      <c r="F394" s="80"/>
+      <c r="G394" s="80"/>
+      <c r="H394" s="80"/>
+      <c r="I394" s="80"/>
+      <c r="J394" s="80"/>
+      <c r="K394" s="80"/>
+      <c r="L394" s="80"/>
       <c r="M394" s="75"/>
     </row>
     <row r="395" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A395" s="114" t="s">
+      <c r="A395" s="118" t="s">
         <v>734</v>
       </c>
-      <c r="B395" s="115"/>
-      <c r="C395" s="111"/>
-      <c r="D395" s="84"/>
-      <c r="E395" s="84"/>
-      <c r="F395" s="84"/>
-      <c r="G395" s="84"/>
-      <c r="H395" s="84"/>
-      <c r="I395" s="84"/>
-      <c r="J395" s="84"/>
-      <c r="K395" s="84"/>
-      <c r="L395" s="84"/>
+      <c r="B395" s="119"/>
+      <c r="C395" s="117"/>
+      <c r="D395" s="83"/>
+      <c r="E395" s="83"/>
+      <c r="F395" s="83"/>
+      <c r="G395" s="83"/>
+      <c r="H395" s="83"/>
+      <c r="I395" s="83"/>
+      <c r="J395" s="83"/>
+      <c r="K395" s="83"/>
+      <c r="L395" s="83"/>
       <c r="M395" s="75"/>
     </row>
     <row r="396" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A396" s="91" t="s">
+      <c r="A396" s="89" t="s">
         <v>735</v>
       </c>
-      <c r="B396" s="92" t="s">
+      <c r="B396" s="90" t="s">
         <v>736</v>
       </c>
-      <c r="C396" s="93" t="s">
+      <c r="C396" s="91" t="s">
         <v>737</v>
       </c>
-      <c r="D396" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="E396" s="81"/>
-      <c r="F396" s="81" t="s">
-        <v>32</v>
-      </c>
-      <c r="G396" s="81"/>
-      <c r="H396" s="81"/>
-      <c r="I396" s="81"/>
-      <c r="J396" s="81"/>
-      <c r="K396" s="81"/>
-      <c r="L396" s="81"/>
+      <c r="D396" s="88" t="s">
+        <v>32</v>
+      </c>
+      <c r="E396" s="80"/>
+      <c r="F396" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="G396" s="80"/>
+      <c r="H396" s="80"/>
+      <c r="I396" s="80"/>
+      <c r="J396" s="80"/>
+      <c r="K396" s="80"/>
+      <c r="L396" s="80"/>
       <c r="M396" s="75"/>
     </row>
     <row r="397" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A397" s="91" t="s">
+      <c r="A397" s="89" t="s">
         <v>738</v>
       </c>
-      <c r="B397" s="92" t="s">
+      <c r="B397" s="90" t="s">
         <v>234</v>
       </c>
       <c r="C397" s="37" t="s">
         <v>301</v>
       </c>
-      <c r="D397" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="E397" s="81"/>
-      <c r="F397" s="81"/>
-      <c r="G397" s="81"/>
-      <c r="H397" s="81"/>
-      <c r="I397" s="81"/>
-      <c r="J397" s="81"/>
-      <c r="K397" s="81"/>
-      <c r="L397" s="81"/>
+      <c r="D397" s="88" t="s">
+        <v>32</v>
+      </c>
+      <c r="E397" s="80"/>
+      <c r="F397" s="80"/>
+      <c r="G397" s="80"/>
+      <c r="H397" s="80"/>
+      <c r="I397" s="80"/>
+      <c r="J397" s="80"/>
+      <c r="K397" s="80"/>
+      <c r="L397" s="80"/>
       <c r="M397" s="75"/>
     </row>
     <row r="398" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A398" s="91" t="s">
+      <c r="A398" s="89" t="s">
         <v>739</v>
       </c>
-      <c r="B398" s="92" t="s">
+      <c r="B398" s="90" t="s">
         <v>740</v>
       </c>
-      <c r="C398" s="93" t="s">
+      <c r="C398" s="91" t="s">
         <v>741</v>
       </c>
-      <c r="D398" s="81"/>
-      <c r="E398" s="81"/>
-      <c r="F398" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="G398" s="81"/>
-      <c r="H398" s="81"/>
-      <c r="I398" s="81"/>
-      <c r="J398" s="81"/>
-      <c r="K398" s="81"/>
-      <c r="L398" s="81"/>
+      <c r="D398" s="80"/>
+      <c r="E398" s="80"/>
+      <c r="F398" s="88" t="s">
+        <v>32</v>
+      </c>
+      <c r="G398" s="80"/>
+      <c r="H398" s="80"/>
+      <c r="I398" s="80"/>
+      <c r="J398" s="80"/>
+      <c r="K398" s="80"/>
+      <c r="L398" s="80"/>
       <c r="M398" s="75"/>
     </row>
     <row r="399" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A399" s="91" t="s">
+      <c r="A399" s="89" t="s">
         <v>742</v>
       </c>
-      <c r="B399" s="92" t="s">
+      <c r="B399" s="90" t="s">
         <v>743</v>
       </c>
-      <c r="C399" s="93" t="s">
+      <c r="C399" s="91" t="s">
         <v>744</v>
       </c>
-      <c r="D399" s="81"/>
-      <c r="E399" s="81"/>
-      <c r="F399" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="G399" s="81"/>
-      <c r="H399" s="81"/>
-      <c r="I399" s="81"/>
-      <c r="J399" s="81"/>
-      <c r="K399" s="81"/>
-      <c r="L399" s="81"/>
+      <c r="D399" s="80"/>
+      <c r="E399" s="80"/>
+      <c r="F399" s="88" t="s">
+        <v>32</v>
+      </c>
+      <c r="G399" s="80"/>
+      <c r="H399" s="80"/>
+      <c r="I399" s="80"/>
+      <c r="J399" s="80"/>
+      <c r="K399" s="80"/>
+      <c r="L399" s="80"/>
       <c r="M399" s="75"/>
     </row>
     <row r="400" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A400" s="91" t="s">
+      <c r="A400" s="89" t="s">
         <v>745</v>
       </c>
-      <c r="B400" s="92" t="s">
+      <c r="B400" s="90" t="s">
         <v>746</v>
       </c>
-      <c r="C400" s="93" t="s">
+      <c r="C400" s="91" t="s">
         <v>747</v>
       </c>
-      <c r="D400" s="81"/>
-      <c r="E400" s="81"/>
-      <c r="F400" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="G400" s="81"/>
-      <c r="H400" s="81"/>
-      <c r="I400" s="81"/>
-      <c r="J400" s="81"/>
-      <c r="K400" s="81"/>
-      <c r="L400" s="81"/>
+      <c r="D400" s="80"/>
+      <c r="E400" s="80"/>
+      <c r="F400" s="88" t="s">
+        <v>32</v>
+      </c>
+      <c r="G400" s="80"/>
+      <c r="H400" s="80"/>
+      <c r="I400" s="80"/>
+      <c r="J400" s="80"/>
+      <c r="K400" s="80"/>
+      <c r="L400" s="80"/>
       <c r="M400" s="75"/>
     </row>
     <row r="401" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A401" s="91" t="s">
+      <c r="A401" s="89" t="s">
         <v>748</v>
       </c>
-      <c r="B401" s="92" t="s">
+      <c r="B401" s="90" t="s">
         <v>271</v>
       </c>
-      <c r="C401" s="93" t="s">
+      <c r="C401" s="91" t="s">
         <v>749</v>
       </c>
-      <c r="D401" s="81"/>
-      <c r="E401" s="81"/>
-      <c r="F401" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="G401" s="81"/>
-      <c r="H401" s="81"/>
-      <c r="I401" s="81"/>
-      <c r="J401" s="81"/>
-      <c r="K401" s="81"/>
-      <c r="L401" s="81"/>
+      <c r="D401" s="80"/>
+      <c r="E401" s="80"/>
+      <c r="F401" s="88" t="s">
+        <v>32</v>
+      </c>
+      <c r="G401" s="80"/>
+      <c r="H401" s="80"/>
+      <c r="I401" s="80"/>
+      <c r="J401" s="80"/>
+      <c r="K401" s="80"/>
+      <c r="L401" s="80"/>
       <c r="M401" s="75"/>
     </row>
     <row r="402" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A402" s="94"/>
-      <c r="B402" s="94"/>
-      <c r="C402" s="94"/>
-      <c r="D402" s="89"/>
-      <c r="E402" s="89"/>
-      <c r="F402" s="89"/>
-      <c r="G402" s="89"/>
-      <c r="H402" s="88"/>
-      <c r="I402" s="81"/>
-      <c r="J402" s="81"/>
-      <c r="K402" s="81"/>
-      <c r="L402" s="81"/>
+      <c r="A402" s="92"/>
+      <c r="B402" s="92"/>
+      <c r="C402" s="92"/>
+      <c r="D402" s="88"/>
+      <c r="E402" s="88"/>
+      <c r="F402" s="88"/>
+      <c r="G402" s="88"/>
+      <c r="H402" s="87"/>
+      <c r="I402" s="80"/>
+      <c r="J402" s="80"/>
+      <c r="K402" s="80"/>
+      <c r="L402" s="80"/>
       <c r="M402" s="75"/>
     </row>
     <row r="403" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A403" s="95" t="s">
+      <c r="A403" s="93" t="s">
         <v>750</v>
       </c>
-      <c r="B403" s="95"/>
-      <c r="C403" s="95"/>
-      <c r="D403" s="85"/>
-      <c r="E403" s="85"/>
-      <c r="F403" s="85"/>
-      <c r="G403" s="85"/>
-      <c r="H403" s="85"/>
-      <c r="I403" s="85"/>
-      <c r="J403" s="85"/>
-      <c r="K403" s="85"/>
-      <c r="L403" s="85"/>
+      <c r="B403" s="93"/>
+      <c r="C403" s="93"/>
+      <c r="D403" s="84"/>
+      <c r="E403" s="84"/>
+      <c r="F403" s="84"/>
+      <c r="G403" s="84"/>
+      <c r="H403" s="84"/>
+      <c r="I403" s="84"/>
+      <c r="J403" s="84"/>
+      <c r="K403" s="84"/>
+      <c r="L403" s="84"/>
       <c r="M403" s="75"/>
     </row>
     <row r="404" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A404" s="116" t="s">
+      <c r="A404" s="125" t="s">
         <v>751</v>
       </c>
-      <c r="B404" s="117"/>
-      <c r="C404" s="96"/>
-      <c r="D404" s="86"/>
-      <c r="E404" s="86"/>
-      <c r="F404" s="86"/>
-      <c r="G404" s="86"/>
-      <c r="H404" s="86"/>
-      <c r="I404" s="86"/>
-      <c r="J404" s="86"/>
-      <c r="K404" s="86"/>
-      <c r="L404" s="86"/>
+      <c r="B404" s="126"/>
+      <c r="C404" s="94"/>
+      <c r="D404" s="85"/>
+      <c r="E404" s="85"/>
+      <c r="F404" s="85"/>
+      <c r="G404" s="85"/>
+      <c r="H404" s="85"/>
+      <c r="I404" s="85"/>
+      <c r="J404" s="85"/>
+      <c r="K404" s="85"/>
+      <c r="L404" s="85"/>
       <c r="M404" s="75"/>
     </row>
     <row r="405" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11859,187 +12083,187 @@
       <c r="M405" s="75"/>
     </row>
     <row r="406" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A406" s="97" t="s">
+      <c r="A406" s="95" t="s">
         <v>753</v>
       </c>
-      <c r="B406" s="98" t="s">
+      <c r="B406" s="96" t="s">
         <v>754</v>
       </c>
-      <c r="C406" s="99" t="s">
+      <c r="C406" s="97" t="s">
         <v>755</v>
       </c>
-      <c r="D406" s="87" t="s">
-        <v>32</v>
-      </c>
-      <c r="E406" s="87" t="s">
-        <v>32</v>
-      </c>
-      <c r="F406" s="87"/>
-      <c r="G406" s="87"/>
-      <c r="H406" s="87"/>
-      <c r="I406" s="87"/>
-      <c r="J406" s="87"/>
-      <c r="K406" s="87"/>
-      <c r="L406" s="87"/>
+      <c r="D406" s="86" t="s">
+        <v>32</v>
+      </c>
+      <c r="E406" s="86" t="s">
+        <v>32</v>
+      </c>
+      <c r="F406" s="86"/>
+      <c r="G406" s="86"/>
+      <c r="H406" s="86"/>
+      <c r="I406" s="86"/>
+      <c r="J406" s="86"/>
+      <c r="K406" s="86"/>
+      <c r="L406" s="86"/>
       <c r="M406" s="75"/>
     </row>
     <row r="407" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A407" s="97" t="s">
+      <c r="A407" s="95" t="s">
         <v>756</v>
       </c>
-      <c r="B407" s="98" t="s">
+      <c r="B407" s="96" t="s">
         <v>757</v>
       </c>
-      <c r="C407" s="99"/>
-      <c r="D407" s="87" t="s">
-        <v>32</v>
-      </c>
-      <c r="E407" s="87"/>
-      <c r="F407" s="87"/>
-      <c r="G407" s="87"/>
-      <c r="H407" s="87"/>
-      <c r="I407" s="87"/>
-      <c r="J407" s="87"/>
-      <c r="K407" s="87"/>
-      <c r="L407" s="87"/>
+      <c r="C407" s="97"/>
+      <c r="D407" s="86" t="s">
+        <v>32</v>
+      </c>
+      <c r="E407" s="86"/>
+      <c r="F407" s="86"/>
+      <c r="G407" s="86"/>
+      <c r="H407" s="86"/>
+      <c r="I407" s="86"/>
+      <c r="J407" s="86"/>
+      <c r="K407" s="86"/>
+      <c r="L407" s="86"/>
       <c r="M407" s="75"/>
     </row>
     <row r="408" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A408" s="97" t="s">
+      <c r="A408" s="95" t="s">
         <v>758</v>
       </c>
-      <c r="B408" s="98" t="s">
+      <c r="B408" s="96" t="s">
         <v>759</v>
       </c>
-      <c r="C408" s="99"/>
-      <c r="D408" s="87"/>
-      <c r="E408" s="87" t="s">
-        <v>32</v>
-      </c>
-      <c r="F408" s="87"/>
-      <c r="G408" s="87"/>
-      <c r="H408" s="87"/>
-      <c r="I408" s="87"/>
-      <c r="J408" s="87"/>
-      <c r="K408" s="87"/>
-      <c r="L408" s="87"/>
+      <c r="C408" s="97"/>
+      <c r="D408" s="86"/>
+      <c r="E408" s="86" t="s">
+        <v>32</v>
+      </c>
+      <c r="F408" s="86"/>
+      <c r="G408" s="86"/>
+      <c r="H408" s="86"/>
+      <c r="I408" s="86"/>
+      <c r="J408" s="86"/>
+      <c r="K408" s="86"/>
+      <c r="L408" s="86"/>
       <c r="M408" s="75"/>
     </row>
     <row r="409" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A409" s="97" t="s">
+      <c r="A409" s="95" t="s">
         <v>760</v>
       </c>
-      <c r="B409" s="98" t="s">
+      <c r="B409" s="96" t="s">
         <v>761</v>
       </c>
-      <c r="D409" s="87"/>
-      <c r="E409" s="87" t="s">
-        <v>32</v>
-      </c>
-      <c r="F409" s="87"/>
-      <c r="G409" s="87"/>
-      <c r="H409" s="87"/>
-      <c r="I409" s="87"/>
-      <c r="J409" s="87"/>
-      <c r="K409" s="87"/>
-      <c r="L409" s="87"/>
+      <c r="D409" s="86"/>
+      <c r="E409" s="86" t="s">
+        <v>32</v>
+      </c>
+      <c r="F409" s="86"/>
+      <c r="G409" s="86"/>
+      <c r="H409" s="86"/>
+      <c r="I409" s="86"/>
+      <c r="J409" s="86"/>
+      <c r="K409" s="86"/>
+      <c r="L409" s="86"/>
       <c r="M409" s="75"/>
     </row>
     <row r="410" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A410" s="97" t="s">
+      <c r="A410" s="95" t="s">
         <v>762</v>
       </c>
-      <c r="B410" s="98" t="s">
+      <c r="B410" s="96" t="s">
         <v>763</v>
       </c>
-      <c r="C410" s="99"/>
-      <c r="D410" s="87"/>
-      <c r="E410" s="87" t="s">
-        <v>32</v>
-      </c>
-      <c r="F410" s="87"/>
-      <c r="G410" s="87"/>
-      <c r="H410" s="87"/>
-      <c r="I410" s="87"/>
-      <c r="J410" s="87"/>
-      <c r="K410" s="87"/>
-      <c r="L410" s="87"/>
+      <c r="C410" s="97"/>
+      <c r="D410" s="86"/>
+      <c r="E410" s="86" t="s">
+        <v>32</v>
+      </c>
+      <c r="F410" s="86"/>
+      <c r="G410" s="86"/>
+      <c r="H410" s="86"/>
+      <c r="I410" s="86"/>
+      <c r="J410" s="86"/>
+      <c r="K410" s="86"/>
+      <c r="L410" s="86"/>
       <c r="M410" s="75"/>
     </row>
     <row r="411" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A411" s="97" t="s">
+      <c r="A411" s="95" t="s">
         <v>764</v>
       </c>
-      <c r="B411" s="98" t="s">
+      <c r="B411" s="96" t="s">
         <v>765</v>
       </c>
-      <c r="D411" s="87"/>
-      <c r="E411" s="87" t="s">
-        <v>32</v>
-      </c>
-      <c r="F411" s="87"/>
-      <c r="G411" s="87"/>
-      <c r="H411" s="107"/>
-      <c r="I411" s="87"/>
-      <c r="J411" s="87"/>
-      <c r="K411" s="87"/>
-      <c r="L411" s="87"/>
+      <c r="D411" s="86"/>
+      <c r="E411" s="86" t="s">
+        <v>32</v>
+      </c>
+      <c r="F411" s="86"/>
+      <c r="G411" s="86"/>
+      <c r="H411" s="100"/>
+      <c r="I411" s="86"/>
+      <c r="J411" s="86"/>
+      <c r="K411" s="86"/>
+      <c r="L411" s="86"/>
       <c r="M411" s="75"/>
     </row>
     <row r="412" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A412" s="97" t="s">
+      <c r="A412" s="95" t="s">
         <v>766</v>
       </c>
-      <c r="B412" s="98" t="s">
+      <c r="B412" s="96" t="s">
         <v>182</v>
       </c>
-      <c r="C412" s="99"/>
-      <c r="D412" s="87"/>
-      <c r="E412" s="87" t="s">
-        <v>32</v>
-      </c>
-      <c r="F412" s="87"/>
-      <c r="G412" s="87"/>
-      <c r="H412" s="107"/>
-      <c r="I412" s="87"/>
-      <c r="J412" s="87"/>
-      <c r="K412" s="87"/>
-      <c r="L412" s="87"/>
+      <c r="C412" s="97"/>
+      <c r="D412" s="86"/>
+      <c r="E412" s="86" t="s">
+        <v>32</v>
+      </c>
+      <c r="F412" s="86"/>
+      <c r="G412" s="86"/>
+      <c r="H412" s="100"/>
+      <c r="I412" s="86"/>
+      <c r="J412" s="86"/>
+      <c r="K412" s="86"/>
+      <c r="L412" s="86"/>
       <c r="M412" s="75"/>
     </row>
     <row r="413" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A413" s="97" t="s">
+      <c r="A413" s="95" t="s">
         <v>767</v>
       </c>
-      <c r="B413" s="98" t="s">
+      <c r="B413" s="96" t="s">
         <v>768</v>
       </c>
-      <c r="C413" s="99"/>
-      <c r="D413" s="87"/>
-      <c r="E413" s="87" t="s">
-        <v>32</v>
-      </c>
-      <c r="F413" s="87"/>
-      <c r="G413" s="87"/>
-      <c r="H413" s="87"/>
-      <c r="I413" s="87"/>
-      <c r="J413" s="87"/>
-      <c r="K413" s="87"/>
-      <c r="L413" s="87"/>
+      <c r="C413" s="97"/>
+      <c r="D413" s="86"/>
+      <c r="E413" s="86" t="s">
+        <v>32</v>
+      </c>
+      <c r="F413" s="86"/>
+      <c r="G413" s="86"/>
+      <c r="H413" s="86"/>
+      <c r="I413" s="86"/>
+      <c r="J413" s="86"/>
+      <c r="K413" s="86"/>
+      <c r="L413" s="86"/>
       <c r="M413" s="75"/>
     </row>
     <row r="414" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B414" s="98"/>
-      <c r="C414" s="99"/>
-      <c r="D414" s="87"/>
-      <c r="E414" s="87"/>
-      <c r="F414" s="87"/>
-      <c r="G414" s="87"/>
-      <c r="H414" s="87"/>
-      <c r="I414" s="87"/>
-      <c r="J414" s="87"/>
-      <c r="K414" s="87"/>
-      <c r="L414" s="87"/>
+      <c r="B414" s="96"/>
+      <c r="C414" s="97"/>
+      <c r="D414" s="86"/>
+      <c r="E414" s="86"/>
+      <c r="F414" s="86"/>
+      <c r="G414" s="86"/>
+      <c r="H414" s="86"/>
+      <c r="I414" s="86"/>
+      <c r="J414" s="86"/>
+      <c r="K414" s="86"/>
+      <c r="L414" s="86"/>
       <c r="M414" s="75"/>
     </row>
     <row r="415" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12060,315 +12284,315 @@
       <c r="M415" s="75"/>
     </row>
     <row r="416" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A416" s="91" t="s">
+      <c r="A416" s="89" t="s">
         <v>770</v>
       </c>
-      <c r="B416" s="92" t="s">
+      <c r="B416" s="90" t="s">
         <v>771</v>
       </c>
-      <c r="C416" s="93" t="s">
+      <c r="C416" s="91" t="s">
         <v>772</v>
       </c>
-      <c r="D416" s="81" t="s">
-        <v>32</v>
-      </c>
-      <c r="E416" s="81"/>
-      <c r="F416" s="81"/>
-      <c r="G416" s="81" t="s">
-        <v>32</v>
-      </c>
-      <c r="H416" s="81"/>
-      <c r="I416" s="81"/>
-      <c r="J416" s="81"/>
-      <c r="K416" s="81"/>
-      <c r="L416" s="81"/>
+      <c r="D416" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="E416" s="80"/>
+      <c r="F416" s="80"/>
+      <c r="G416" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="H416" s="80"/>
+      <c r="I416" s="80"/>
+      <c r="J416" s="80"/>
+      <c r="K416" s="80"/>
+      <c r="L416" s="80"/>
       <c r="M416" s="75"/>
     </row>
     <row r="417" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A417" s="91" t="s">
+      <c r="A417" s="89" t="s">
         <v>773</v>
       </c>
-      <c r="B417" s="92" t="s">
+      <c r="B417" s="90" t="s">
         <v>774</v>
       </c>
-      <c r="C417" s="94" t="s">
+      <c r="C417" s="92" t="s">
         <v>775</v>
       </c>
-      <c r="D417" s="81" t="s">
-        <v>32</v>
-      </c>
-      <c r="E417" s="88"/>
-      <c r="F417" s="81"/>
-      <c r="G417" s="81"/>
-      <c r="H417" s="81"/>
-      <c r="I417" s="81"/>
-      <c r="J417" s="81"/>
-      <c r="K417" s="81"/>
-      <c r="L417" s="81"/>
+      <c r="D417" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="E417" s="87"/>
+      <c r="F417" s="80"/>
+      <c r="G417" s="80"/>
+      <c r="H417" s="80"/>
+      <c r="I417" s="80"/>
+      <c r="J417" s="80"/>
+      <c r="K417" s="80"/>
+      <c r="L417" s="80"/>
       <c r="M417" s="75"/>
     </row>
     <row r="418" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A418" s="91" t="s">
+      <c r="A418" s="89" t="s">
         <v>776</v>
       </c>
-      <c r="B418" s="92" t="s">
+      <c r="B418" s="90" t="s">
         <v>777</v>
       </c>
-      <c r="C418" s="93" t="s">
+      <c r="C418" s="91" t="s">
         <v>778</v>
       </c>
-      <c r="D418" s="81" t="s">
-        <v>32</v>
-      </c>
-      <c r="E418" s="81"/>
-      <c r="F418" s="81"/>
-      <c r="G418" s="81"/>
-      <c r="H418" s="81"/>
-      <c r="I418" s="81"/>
-      <c r="J418" s="81"/>
-      <c r="K418" s="81"/>
-      <c r="L418" s="81"/>
+      <c r="D418" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="E418" s="80"/>
+      <c r="F418" s="80"/>
+      <c r="G418" s="80"/>
+      <c r="H418" s="80"/>
+      <c r="I418" s="80"/>
+      <c r="J418" s="80"/>
+      <c r="K418" s="80"/>
+      <c r="L418" s="80"/>
       <c r="M418" s="75"/>
     </row>
     <row r="419" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A419" s="91" t="s">
+      <c r="A419" s="89" t="s">
         <v>779</v>
       </c>
-      <c r="B419" s="92" t="s">
+      <c r="B419" s="90" t="s">
         <v>780</v>
       </c>
-      <c r="C419" s="94" t="s">
+      <c r="C419" s="92" t="s">
         <v>781</v>
       </c>
-      <c r="D419" s="81" t="s">
-        <v>32</v>
-      </c>
-      <c r="E419" s="81"/>
-      <c r="F419" s="81"/>
-      <c r="G419" s="81"/>
-      <c r="H419" s="81"/>
-      <c r="I419" s="81"/>
-      <c r="J419" s="81"/>
-      <c r="K419" s="81"/>
-      <c r="L419" s="81"/>
+      <c r="D419" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="E419" s="80"/>
+      <c r="F419" s="80"/>
+      <c r="G419" s="80"/>
+      <c r="H419" s="80"/>
+      <c r="I419" s="80"/>
+      <c r="J419" s="80"/>
+      <c r="K419" s="80"/>
+      <c r="L419" s="80"/>
       <c r="M419" s="75"/>
     </row>
     <row r="420" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A420" s="91" t="s">
+      <c r="A420" s="89" t="s">
         <v>782</v>
       </c>
-      <c r="B420" s="92" t="s">
+      <c r="B420" s="90" t="s">
         <v>783</v>
       </c>
-      <c r="C420" s="94" t="s">
+      <c r="C420" s="92" t="s">
         <v>784</v>
       </c>
-      <c r="D420" s="81" t="s">
-        <v>32</v>
-      </c>
-      <c r="E420" s="81"/>
-      <c r="F420" s="81"/>
-      <c r="G420" s="81"/>
-      <c r="H420" s="81"/>
-      <c r="I420" s="81"/>
-      <c r="J420" s="81"/>
-      <c r="K420" s="81"/>
-      <c r="L420" s="81"/>
+      <c r="D420" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="E420" s="80"/>
+      <c r="F420" s="80"/>
+      <c r="G420" s="80"/>
+      <c r="H420" s="80"/>
+      <c r="I420" s="80"/>
+      <c r="J420" s="80"/>
+      <c r="K420" s="80"/>
+      <c r="L420" s="80"/>
       <c r="M420" s="75"/>
     </row>
     <row r="421" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A421" s="91" t="s">
+      <c r="A421" s="89" t="s">
         <v>785</v>
       </c>
-      <c r="B421" s="92" t="s">
+      <c r="B421" s="90" t="s">
         <v>786</v>
       </c>
-      <c r="C421" s="93" t="s">
+      <c r="C421" s="91" t="s">
         <v>787</v>
       </c>
-      <c r="D421" s="81" t="s">
-        <v>32</v>
-      </c>
-      <c r="E421" s="81"/>
-      <c r="F421" s="81"/>
-      <c r="G421" s="81"/>
-      <c r="H421" s="81"/>
-      <c r="I421" s="81"/>
-      <c r="J421" s="81"/>
-      <c r="K421" s="81"/>
-      <c r="L421" s="81"/>
+      <c r="D421" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="E421" s="80"/>
+      <c r="F421" s="80"/>
+      <c r="G421" s="80"/>
+      <c r="H421" s="80"/>
+      <c r="I421" s="80"/>
+      <c r="J421" s="80"/>
+      <c r="K421" s="80"/>
+      <c r="L421" s="80"/>
       <c r="M421" s="75"/>
     </row>
     <row r="422" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A422" s="91" t="s">
+      <c r="A422" s="89" t="s">
         <v>788</v>
       </c>
-      <c r="B422" s="92" t="s">
+      <c r="B422" s="90" t="s">
         <v>789</v>
       </c>
       <c r="C422" s="39" t="s">
         <v>790</v>
       </c>
       <c r="D422" s="39"/>
-      <c r="E422" s="81"/>
-      <c r="F422" s="81"/>
-      <c r="G422" s="81" t="s">
-        <v>32</v>
-      </c>
-      <c r="H422" s="81"/>
-      <c r="I422" s="81"/>
+      <c r="E422" s="80"/>
+      <c r="F422" s="80"/>
+      <c r="G422" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="H422" s="80"/>
+      <c r="I422" s="80"/>
       <c r="J422" s="39"/>
-      <c r="K422" s="81"/>
-      <c r="L422" s="81"/>
+      <c r="K422" s="80"/>
+      <c r="L422" s="80"/>
       <c r="M422" s="75"/>
     </row>
     <row r="423" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A423" s="91" t="s">
+      <c r="A423" s="89" t="s">
         <v>791</v>
       </c>
-      <c r="B423" s="92" t="s">
+      <c r="B423" s="90" t="s">
         <v>792</v>
       </c>
-      <c r="C423" s="92" t="s">
+      <c r="C423" s="90" t="s">
         <v>792</v>
       </c>
       <c r="D423" s="39"/>
-      <c r="E423" s="81"/>
-      <c r="F423" s="81"/>
-      <c r="G423" s="81" t="s">
-        <v>32</v>
-      </c>
-      <c r="H423" s="81"/>
-      <c r="I423" s="81"/>
+      <c r="E423" s="80"/>
+      <c r="F423" s="80"/>
+      <c r="G423" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="H423" s="80"/>
+      <c r="I423" s="80"/>
       <c r="J423" s="39"/>
-      <c r="K423" s="81"/>
-      <c r="L423" s="81"/>
+      <c r="K423" s="80"/>
+      <c r="L423" s="80"/>
       <c r="M423" s="75"/>
     </row>
     <row r="424" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A424" s="91" t="s">
+      <c r="A424" s="89" t="s">
         <v>793</v>
       </c>
-      <c r="B424" s="92" t="s">
+      <c r="B424" s="90" t="s">
         <v>794</v>
       </c>
-      <c r="C424" s="92" t="s">
+      <c r="C424" s="90" t="s">
         <v>794</v>
       </c>
-      <c r="D424" s="81"/>
-      <c r="E424" s="81"/>
-      <c r="F424" s="81"/>
-      <c r="G424" s="81" t="s">
-        <v>32</v>
-      </c>
-      <c r="H424" s="81"/>
-      <c r="I424" s="81"/>
-      <c r="J424" s="81"/>
-      <c r="K424" s="81"/>
-      <c r="L424" s="81"/>
+      <c r="D424" s="80"/>
+      <c r="E424" s="80"/>
+      <c r="F424" s="80"/>
+      <c r="G424" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="H424" s="80"/>
+      <c r="I424" s="80"/>
+      <c r="J424" s="80"/>
+      <c r="K424" s="80"/>
+      <c r="L424" s="80"/>
       <c r="M424" s="75"/>
     </row>
     <row r="425" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A425" s="91" t="s">
+      <c r="A425" s="89" t="s">
         <v>795</v>
       </c>
-      <c r="B425" s="92" t="s">
+      <c r="B425" s="90" t="s">
         <v>796</v>
       </c>
-      <c r="C425" s="92" t="s">
+      <c r="C425" s="90" t="s">
         <v>796</v>
       </c>
-      <c r="D425" s="81"/>
-      <c r="E425" s="81"/>
-      <c r="F425" s="81"/>
-      <c r="G425" s="81" t="s">
-        <v>32</v>
-      </c>
-      <c r="H425" s="81"/>
-      <c r="I425" s="81"/>
-      <c r="J425" s="81"/>
-      <c r="K425" s="81"/>
-      <c r="L425" s="81"/>
+      <c r="D425" s="80"/>
+      <c r="E425" s="80"/>
+      <c r="F425" s="80"/>
+      <c r="G425" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="H425" s="80"/>
+      <c r="I425" s="80"/>
+      <c r="J425" s="80"/>
+      <c r="K425" s="80"/>
+      <c r="L425" s="80"/>
       <c r="M425" s="75"/>
     </row>
     <row r="426" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A426" s="91" t="s">
+      <c r="A426" s="89" t="s">
         <v>797</v>
       </c>
-      <c r="B426" s="92" t="s">
+      <c r="B426" s="90" t="s">
         <v>798</v>
       </c>
-      <c r="C426" s="93" t="s">
+      <c r="C426" s="91" t="s">
         <v>799</v>
       </c>
-      <c r="D426" s="81"/>
-      <c r="E426" s="81"/>
-      <c r="F426" s="81"/>
-      <c r="G426" s="81" t="s">
-        <v>32</v>
-      </c>
-      <c r="H426" s="81"/>
-      <c r="I426" s="81"/>
-      <c r="J426" s="81"/>
-      <c r="K426" s="81"/>
-      <c r="L426" s="81"/>
+      <c r="D426" s="80"/>
+      <c r="E426" s="80"/>
+      <c r="F426" s="80"/>
+      <c r="G426" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="H426" s="80"/>
+      <c r="I426" s="80"/>
+      <c r="J426" s="80"/>
+      <c r="K426" s="80"/>
+      <c r="L426" s="80"/>
       <c r="M426" s="75"/>
     </row>
     <row r="427" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A427" s="91" t="s">
+      <c r="A427" s="89" t="s">
         <v>800</v>
       </c>
-      <c r="B427" s="92" t="s">
+      <c r="B427" s="90" t="s">
         <v>801</v>
       </c>
-      <c r="C427" s="93"/>
-      <c r="D427" s="81"/>
-      <c r="E427" s="81"/>
-      <c r="F427" s="81"/>
-      <c r="G427" s="81" t="s">
-        <v>32</v>
-      </c>
-      <c r="H427" s="81"/>
-      <c r="I427" s="81"/>
-      <c r="J427" s="81"/>
-      <c r="K427" s="81"/>
-      <c r="L427" s="81"/>
+      <c r="C427" s="91"/>
+      <c r="D427" s="80"/>
+      <c r="E427" s="80"/>
+      <c r="F427" s="80"/>
+      <c r="G427" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="H427" s="80"/>
+      <c r="I427" s="80"/>
+      <c r="J427" s="80"/>
+      <c r="K427" s="80"/>
+      <c r="L427" s="80"/>
       <c r="M427" s="75"/>
     </row>
     <row r="428" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A428" s="91" t="s">
+      <c r="A428" s="89" t="s">
         <v>802</v>
       </c>
-      <c r="B428" s="94" t="s">
+      <c r="B428" s="92" t="s">
         <v>803</v>
       </c>
-      <c r="C428" s="93"/>
-      <c r="D428" s="81"/>
-      <c r="E428" s="81"/>
-      <c r="F428" s="81"/>
-      <c r="G428" s="81" t="s">
-        <v>32</v>
-      </c>
-      <c r="H428" s="81"/>
-      <c r="I428" s="81"/>
-      <c r="J428" s="81"/>
-      <c r="K428" s="81"/>
-      <c r="L428" s="81"/>
+      <c r="C428" s="91"/>
+      <c r="D428" s="80"/>
+      <c r="E428" s="80"/>
+      <c r="F428" s="80"/>
+      <c r="G428" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="H428" s="80"/>
+      <c r="I428" s="80"/>
+      <c r="J428" s="80"/>
+      <c r="K428" s="80"/>
+      <c r="L428" s="80"/>
       <c r="M428" s="75"/>
     </row>
     <row r="429" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A429" s="91"/>
-      <c r="B429" s="92"/>
-      <c r="C429" s="93"/>
-      <c r="D429" s="81"/>
-      <c r="E429" s="81"/>
-      <c r="F429" s="81"/>
-      <c r="G429" s="81"/>
-      <c r="H429" s="81"/>
-      <c r="I429" s="81"/>
-      <c r="J429" s="81"/>
-      <c r="K429" s="81"/>
-      <c r="L429" s="81"/>
+      <c r="A429" s="89"/>
+      <c r="B429" s="90"/>
+      <c r="C429" s="91"/>
+      <c r="D429" s="80"/>
+      <c r="E429" s="80"/>
+      <c r="F429" s="80"/>
+      <c r="G429" s="80"/>
+      <c r="H429" s="80"/>
+      <c r="I429" s="80"/>
+      <c r="J429" s="80"/>
+      <c r="K429" s="80"/>
+      <c r="L429" s="80"/>
       <c r="M429" s="75"/>
     </row>
     <row r="430" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12389,234 +12613,234 @@
       <c r="M430" s="75"/>
     </row>
     <row r="431" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A431" s="91" t="s">
+      <c r="A431" s="89" t="s">
         <v>805</v>
       </c>
-      <c r="B431" s="92" t="s">
+      <c r="B431" s="90" t="s">
         <v>806</v>
       </c>
       <c r="C431" s="39" t="s">
         <v>807</v>
       </c>
-      <c r="D431" s="81" t="s">
-        <v>32</v>
-      </c>
-      <c r="E431" s="81"/>
-      <c r="F431" s="81"/>
-      <c r="G431" s="81" t="s">
-        <v>32</v>
-      </c>
-      <c r="H431" s="81"/>
-      <c r="I431" s="81"/>
-      <c r="J431" s="81"/>
-      <c r="K431" s="81"/>
-      <c r="L431" s="81"/>
+      <c r="D431" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="E431" s="80"/>
+      <c r="F431" s="80"/>
+      <c r="G431" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="H431" s="80"/>
+      <c r="I431" s="80"/>
+      <c r="J431" s="80"/>
+      <c r="K431" s="80"/>
+      <c r="L431" s="80"/>
       <c r="M431" s="75"/>
     </row>
     <row r="432" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A432" s="91" t="s">
+      <c r="A432" s="89" t="s">
         <v>808</v>
       </c>
-      <c r="B432" s="92" t="s">
+      <c r="B432" s="90" t="s">
         <v>757</v>
       </c>
-      <c r="C432" s="93" t="s">
+      <c r="C432" s="91" t="s">
         <v>809</v>
       </c>
-      <c r="D432" s="81"/>
+      <c r="D432" s="80"/>
       <c r="E432" s="39"/>
       <c r="F432" s="39"/>
-      <c r="G432" s="81" t="s">
-        <v>32</v>
-      </c>
-      <c r="H432" s="81"/>
-      <c r="I432" s="81"/>
-      <c r="J432" s="81"/>
-      <c r="K432" s="81"/>
-      <c r="L432" s="81"/>
+      <c r="G432" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="H432" s="80"/>
+      <c r="I432" s="80"/>
+      <c r="J432" s="80"/>
+      <c r="K432" s="80"/>
+      <c r="L432" s="80"/>
       <c r="M432" s="75"/>
     </row>
     <row r="433" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A433" s="91" t="s">
+      <c r="A433" s="89" t="s">
         <v>810</v>
       </c>
-      <c r="B433" s="92" t="s">
+      <c r="B433" s="90" t="s">
         <v>811</v>
       </c>
-      <c r="C433" s="93"/>
-      <c r="D433" s="81" t="s">
-        <v>32</v>
-      </c>
-      <c r="E433" s="81"/>
-      <c r="F433" s="81"/>
-      <c r="G433" s="81"/>
-      <c r="H433" s="81"/>
-      <c r="I433" s="81"/>
-      <c r="J433" s="81"/>
-      <c r="K433" s="81"/>
-      <c r="L433" s="81"/>
+      <c r="C433" s="91"/>
+      <c r="D433" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="E433" s="80"/>
+      <c r="F433" s="80"/>
+      <c r="G433" s="80"/>
+      <c r="H433" s="80"/>
+      <c r="I433" s="80"/>
+      <c r="J433" s="80"/>
+      <c r="K433" s="80"/>
+      <c r="L433" s="80"/>
       <c r="M433" s="75"/>
     </row>
     <row r="434" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A434" s="91" t="s">
+      <c r="A434" s="89" t="s">
         <v>812</v>
       </c>
-      <c r="B434" s="92" t="s">
+      <c r="B434" s="90" t="s">
         <v>813</v>
       </c>
-      <c r="C434" s="93"/>
-      <c r="D434" s="81" t="s">
-        <v>32</v>
-      </c>
-      <c r="E434" s="81"/>
-      <c r="F434" s="81"/>
-      <c r="G434" s="81"/>
-      <c r="H434" s="81"/>
-      <c r="I434" s="81"/>
-      <c r="J434" s="81"/>
-      <c r="K434" s="81"/>
-      <c r="L434" s="81"/>
+      <c r="C434" s="91"/>
+      <c r="D434" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="E434" s="80"/>
+      <c r="F434" s="80"/>
+      <c r="G434" s="80"/>
+      <c r="H434" s="80"/>
+      <c r="I434" s="80"/>
+      <c r="J434" s="80"/>
+      <c r="K434" s="80"/>
+      <c r="L434" s="80"/>
       <c r="M434" s="75"/>
     </row>
     <row r="435" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A435" s="91" t="s">
+      <c r="A435" s="89" t="s">
         <v>814</v>
       </c>
-      <c r="B435" s="92" t="s">
+      <c r="B435" s="90" t="s">
         <v>815</v>
       </c>
-      <c r="C435" s="93"/>
-      <c r="D435" s="81" t="s">
-        <v>32</v>
-      </c>
-      <c r="E435" s="81"/>
-      <c r="F435" s="81"/>
-      <c r="G435" s="81"/>
-      <c r="H435" s="81"/>
-      <c r="I435" s="81"/>
-      <c r="J435" s="81"/>
-      <c r="K435" s="81"/>
-      <c r="L435" s="81"/>
+      <c r="C435" s="91"/>
+      <c r="D435" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="E435" s="80"/>
+      <c r="F435" s="80"/>
+      <c r="G435" s="80"/>
+      <c r="H435" s="80"/>
+      <c r="I435" s="80"/>
+      <c r="J435" s="80"/>
+      <c r="K435" s="80"/>
+      <c r="L435" s="80"/>
       <c r="M435" s="75"/>
     </row>
     <row r="436" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A436" s="91" t="s">
+      <c r="A436" s="89" t="s">
         <v>816</v>
       </c>
-      <c r="B436" s="92" t="s">
+      <c r="B436" s="90" t="s">
         <v>817</v>
       </c>
-      <c r="C436" s="93"/>
-      <c r="D436" s="81" t="s">
-        <v>32</v>
-      </c>
-      <c r="E436" s="81"/>
-      <c r="F436" s="81"/>
-      <c r="G436" s="81"/>
-      <c r="H436" s="81"/>
-      <c r="I436" s="81"/>
-      <c r="J436" s="81"/>
-      <c r="K436" s="81"/>
-      <c r="L436" s="81"/>
+      <c r="C436" s="91"/>
+      <c r="D436" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="E436" s="80"/>
+      <c r="F436" s="80"/>
+      <c r="G436" s="80"/>
+      <c r="H436" s="80"/>
+      <c r="I436" s="80"/>
+      <c r="J436" s="80"/>
+      <c r="K436" s="80"/>
+      <c r="L436" s="80"/>
       <c r="M436" s="75"/>
     </row>
     <row r="437" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A437" s="91" t="s">
+      <c r="A437" s="89" t="s">
         <v>818</v>
       </c>
-      <c r="B437" s="92" t="s">
+      <c r="B437" s="90" t="s">
         <v>819</v>
       </c>
-      <c r="C437" s="93"/>
-      <c r="D437" s="81"/>
-      <c r="E437" s="81"/>
-      <c r="F437" s="81"/>
-      <c r="G437" s="81" t="s">
-        <v>32</v>
-      </c>
-      <c r="H437" s="81"/>
-      <c r="I437" s="81"/>
-      <c r="J437" s="81"/>
-      <c r="K437" s="81"/>
-      <c r="L437" s="81"/>
+      <c r="C437" s="91"/>
+      <c r="D437" s="80"/>
+      <c r="E437" s="80"/>
+      <c r="F437" s="80"/>
+      <c r="G437" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="H437" s="80"/>
+      <c r="I437" s="80"/>
+      <c r="J437" s="80"/>
+      <c r="K437" s="80"/>
+      <c r="L437" s="80"/>
       <c r="M437" s="75"/>
     </row>
     <row r="438" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A438" s="91" t="s">
+      <c r="A438" s="89" t="s">
         <v>820</v>
       </c>
-      <c r="B438" s="92" t="s">
+      <c r="B438" s="90" t="s">
         <v>821</v>
       </c>
-      <c r="C438" s="93"/>
+      <c r="C438" s="91"/>
       <c r="D438" s="39"/>
-      <c r="E438" s="81"/>
-      <c r="F438" s="81"/>
-      <c r="G438" s="81" t="s">
-        <v>32</v>
-      </c>
-      <c r="H438" s="81"/>
-      <c r="I438" s="81"/>
-      <c r="J438" s="81"/>
-      <c r="K438" s="81"/>
-      <c r="L438" s="81"/>
+      <c r="E438" s="80"/>
+      <c r="F438" s="80"/>
+      <c r="G438" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="H438" s="80"/>
+      <c r="I438" s="80"/>
+      <c r="J438" s="80"/>
+      <c r="K438" s="80"/>
+      <c r="L438" s="80"/>
       <c r="M438" s="75"/>
     </row>
     <row r="439" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A439" s="91" t="s">
+      <c r="A439" s="89" t="s">
         <v>822</v>
       </c>
-      <c r="B439" s="92" t="s">
+      <c r="B439" s="90" t="s">
         <v>823</v>
       </c>
-      <c r="C439" s="93"/>
-      <c r="D439" s="81" t="s">
-        <v>32</v>
-      </c>
-      <c r="E439" s="81"/>
-      <c r="F439" s="81"/>
+      <c r="C439" s="91"/>
+      <c r="D439" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="E439" s="80"/>
+      <c r="F439" s="80"/>
       <c r="G439" s="39"/>
-      <c r="H439" s="81"/>
-      <c r="I439" s="81"/>
-      <c r="J439" s="81"/>
-      <c r="K439" s="81"/>
-      <c r="L439" s="81"/>
+      <c r="H439" s="80"/>
+      <c r="I439" s="80"/>
+      <c r="J439" s="80"/>
+      <c r="K439" s="80"/>
+      <c r="L439" s="80"/>
       <c r="M439" s="75"/>
     </row>
     <row r="440" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A440" s="91" t="s">
+      <c r="A440" s="89" t="s">
         <v>824</v>
       </c>
-      <c r="B440" s="92" t="s">
+      <c r="B440" s="90" t="s">
         <v>825</v>
       </c>
-      <c r="C440" s="93"/>
-      <c r="D440" s="81" t="s">
-        <v>32</v>
-      </c>
-      <c r="E440" s="81"/>
-      <c r="F440" s="81"/>
-      <c r="G440" s="81"/>
-      <c r="H440" s="81"/>
-      <c r="I440" s="81"/>
-      <c r="J440" s="81"/>
-      <c r="K440" s="81"/>
-      <c r="L440" s="81"/>
+      <c r="C440" s="91"/>
+      <c r="D440" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="E440" s="80"/>
+      <c r="F440" s="80"/>
+      <c r="G440" s="80"/>
+      <c r="H440" s="80"/>
+      <c r="I440" s="80"/>
+      <c r="J440" s="80"/>
+      <c r="K440" s="80"/>
+      <c r="L440" s="80"/>
       <c r="M440" s="75"/>
     </row>
     <row r="441" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="39"/>
-      <c r="B441" s="92"/>
-      <c r="C441" s="93"/>
-      <c r="D441" s="81"/>
-      <c r="E441" s="81"/>
-      <c r="F441" s="81"/>
-      <c r="G441" s="81"/>
-      <c r="H441" s="81"/>
-      <c r="I441" s="81"/>
-      <c r="J441" s="81"/>
-      <c r="K441" s="81"/>
-      <c r="L441" s="81"/>
+      <c r="B441" s="90"/>
+      <c r="C441" s="91"/>
+      <c r="D441" s="80"/>
+      <c r="E441" s="80"/>
+      <c r="F441" s="80"/>
+      <c r="G441" s="80"/>
+      <c r="H441" s="80"/>
+      <c r="I441" s="80"/>
+      <c r="J441" s="80"/>
+      <c r="K441" s="80"/>
+      <c r="L441" s="80"/>
       <c r="M441" s="75"/>
     </row>
     <row r="442" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12637,1581 +12861,3337 @@
       <c r="M442" s="75"/>
     </row>
     <row r="443" spans="1:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A443" s="91" t="s">
+      <c r="A443" s="89" t="s">
         <v>827</v>
       </c>
-      <c r="B443" s="92" t="s">
+      <c r="B443" s="90" t="s">
         <v>806</v>
       </c>
-      <c r="C443" s="82" t="s">
+      <c r="C443" s="81" t="s">
         <v>828</v>
       </c>
-      <c r="D443" s="81" t="s">
-        <v>32</v>
-      </c>
-      <c r="E443" s="81"/>
-      <c r="F443" s="81"/>
-      <c r="G443" s="81" t="s">
-        <v>32</v>
-      </c>
-      <c r="H443" s="81" t="s">
-        <v>6</v>
-      </c>
-      <c r="I443" s="81"/>
-      <c r="J443" s="81"/>
-      <c r="K443" s="81"/>
-      <c r="L443" s="81"/>
+      <c r="D443" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="E443" s="80"/>
+      <c r="F443" s="80"/>
+      <c r="G443" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="H443" s="80"/>
+      <c r="I443" s="80"/>
+      <c r="J443" s="80"/>
+      <c r="K443" s="80"/>
+      <c r="L443" s="80"/>
       <c r="M443" s="75"/>
     </row>
     <row r="444" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A444" s="91" t="s">
+      <c r="A444" s="89" t="s">
         <v>829</v>
       </c>
-      <c r="B444" s="92" t="s">
+      <c r="B444" s="90" t="s">
         <v>757</v>
       </c>
       <c r="C444" s="39"/>
-      <c r="D444" s="81" t="s">
-        <v>32</v>
-      </c>
-      <c r="E444" s="81"/>
-      <c r="F444" s="81"/>
-      <c r="G444" s="81" t="s">
-        <v>32</v>
-      </c>
-      <c r="H444" s="81" t="s">
-        <v>6</v>
-      </c>
-      <c r="I444" s="81"/>
-      <c r="J444" s="81"/>
-      <c r="K444" s="81"/>
-      <c r="L444" s="81"/>
+      <c r="D444" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="E444" s="80"/>
+      <c r="F444" s="80"/>
+      <c r="G444" s="80"/>
+      <c r="H444" s="80"/>
+      <c r="I444" s="80"/>
+      <c r="J444" s="80"/>
+      <c r="K444" s="80"/>
+      <c r="L444" s="80"/>
       <c r="M444" s="75"/>
     </row>
     <row r="445" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A445" s="91" t="s">
+      <c r="A445" s="89" t="s">
         <v>830</v>
       </c>
-      <c r="B445" s="92" t="s">
+      <c r="B445" s="90" t="s">
         <v>831</v>
       </c>
       <c r="C445" s="39"/>
-      <c r="D445" s="81" t="s">
-        <v>32</v>
-      </c>
-      <c r="E445" s="81"/>
-      <c r="F445" s="81"/>
-      <c r="G445" s="81"/>
-      <c r="H445" s="81"/>
-      <c r="I445" s="81"/>
-      <c r="J445" s="81"/>
-      <c r="K445" s="81"/>
-      <c r="L445" s="81"/>
+      <c r="E445" s="80"/>
+      <c r="F445" s="80"/>
+      <c r="G445" s="80"/>
+      <c r="H445" s="80"/>
+      <c r="I445" s="80"/>
+      <c r="J445" s="80"/>
+      <c r="K445" s="80"/>
+      <c r="L445" s="80" t="s">
+        <v>832</v>
+      </c>
       <c r="M445" s="75"/>
     </row>
     <row r="446" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A446" s="91" t="s">
+      <c r="A446" s="89" t="s">
+        <v>833</v>
+      </c>
+      <c r="B446" s="90" t="s">
+        <v>834</v>
+      </c>
+      <c r="C446" s="39"/>
+      <c r="E446" s="80"/>
+      <c r="F446" s="80"/>
+      <c r="G446" s="80"/>
+      <c r="H446" s="80"/>
+      <c r="I446" s="80"/>
+      <c r="J446" s="80"/>
+      <c r="K446" s="80"/>
+      <c r="L446" s="80" t="s">
         <v>832</v>
       </c>
-      <c r="B446" s="92" t="s">
-        <v>833</v>
-      </c>
-      <c r="C446" s="39"/>
-      <c r="D446" s="81" t="s">
-        <v>32</v>
-      </c>
-      <c r="E446" s="81"/>
-      <c r="F446" s="81"/>
-      <c r="G446" s="81"/>
-      <c r="H446" s="81"/>
-      <c r="I446" s="81"/>
-      <c r="J446" s="81"/>
-      <c r="K446" s="81"/>
-      <c r="L446" s="81"/>
       <c r="M446" s="75"/>
     </row>
     <row r="447" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A447" s="91"/>
-      <c r="B447" s="92"/>
+      <c r="A447" s="89"/>
+      <c r="B447" s="90"/>
       <c r="C447" s="39"/>
-      <c r="D447" s="81"/>
-      <c r="E447" s="81"/>
-      <c r="F447" s="81"/>
-      <c r="G447" s="81"/>
-      <c r="H447" s="81"/>
-      <c r="I447" s="81"/>
-      <c r="J447" s="81"/>
-      <c r="K447" s="81"/>
-      <c r="L447" s="81"/>
+      <c r="D447" s="80"/>
+      <c r="E447" s="80"/>
+      <c r="F447" s="80"/>
+      <c r="G447" s="80"/>
+      <c r="H447" s="80"/>
+      <c r="I447" s="80"/>
+      <c r="J447" s="80"/>
+      <c r="K447" s="80"/>
+      <c r="L447" s="80"/>
       <c r="M447" s="75"/>
     </row>
     <row r="448" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A448" s="121" t="s">
-        <v>834</v>
-      </c>
-      <c r="B448" s="122"/>
-      <c r="C448" s="96"/>
-      <c r="D448" s="86"/>
-      <c r="E448" s="86"/>
-      <c r="F448" s="86"/>
-      <c r="G448" s="86"/>
-      <c r="H448" s="86"/>
-      <c r="I448" s="86"/>
-      <c r="J448" s="86"/>
-      <c r="K448" s="86"/>
-      <c r="L448" s="86"/>
+      <c r="A448" s="127" t="s">
+        <v>835</v>
+      </c>
+      <c r="B448" s="128"/>
+      <c r="C448" s="94"/>
+      <c r="D448" s="85"/>
+      <c r="E448" s="85"/>
+      <c r="F448" s="85"/>
+      <c r="G448" s="85"/>
+      <c r="H448" s="85"/>
+      <c r="I448" s="85"/>
+      <c r="J448" s="85"/>
+      <c r="K448" s="85"/>
+      <c r="L448" s="85"/>
       <c r="M448" s="75"/>
     </row>
     <row r="449" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A449" s="97"/>
-      <c r="E449" s="110"/>
-      <c r="F449" s="110"/>
-      <c r="G449" s="110"/>
-      <c r="H449" s="110"/>
-      <c r="I449" s="110"/>
-      <c r="J449" s="110"/>
-      <c r="K449" s="110"/>
-      <c r="L449" s="110"/>
+      <c r="A449" s="125" t="s">
+        <v>836</v>
+      </c>
+      <c r="B449" s="126"/>
+      <c r="C449" s="94"/>
+      <c r="D449" s="85"/>
+      <c r="E449" s="85"/>
+      <c r="F449" s="85"/>
+      <c r="G449" s="85"/>
+      <c r="H449" s="85"/>
+      <c r="I449" s="85"/>
+      <c r="J449" s="85"/>
+      <c r="K449" s="85"/>
+      <c r="L449" s="85"/>
       <c r="M449" s="75"/>
     </row>
     <row r="450" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A450" s="97"/>
-      <c r="B450" s="108"/>
-      <c r="C450" s="109"/>
-      <c r="D450" s="110"/>
-      <c r="E450" s="110"/>
-      <c r="F450" s="110"/>
-      <c r="G450" s="110"/>
-      <c r="H450" s="110"/>
-      <c r="I450" s="110"/>
-      <c r="J450" s="110"/>
-      <c r="K450" s="110"/>
-      <c r="L450" s="110"/>
+      <c r="A450" s="45" t="s">
+        <v>837</v>
+      </c>
+      <c r="B450" s="34"/>
+      <c r="C450" s="34"/>
+      <c r="D450" s="35"/>
+      <c r="E450" s="35"/>
+      <c r="F450" s="35"/>
+      <c r="G450" s="35"/>
+      <c r="H450" s="35"/>
+      <c r="I450" s="35"/>
+      <c r="J450" s="35"/>
+      <c r="K450" s="35"/>
+      <c r="L450" s="35"/>
       <c r="M450" s="75"/>
     </row>
-    <row r="451" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A451" s="97"/>
-      <c r="B451" s="108"/>
-      <c r="C451" s="109"/>
-      <c r="D451" s="110"/>
-      <c r="E451" s="110"/>
-      <c r="F451" s="110"/>
-      <c r="G451" s="110"/>
-      <c r="H451" s="110"/>
-      <c r="I451" s="110"/>
-      <c r="J451" s="110"/>
-      <c r="K451" s="110"/>
-      <c r="L451" s="110"/>
+    <row r="451" spans="1:13" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A451" s="95" t="s">
+        <v>838</v>
+      </c>
+      <c r="B451" s="96" t="s">
+        <v>839</v>
+      </c>
+      <c r="C451" s="97" t="s">
+        <v>840</v>
+      </c>
+      <c r="D451" s="86" t="s">
+        <v>32</v>
+      </c>
+      <c r="E451" s="86"/>
+      <c r="F451" s="86"/>
+      <c r="G451" s="86"/>
+      <c r="H451" s="86"/>
+      <c r="I451" s="86"/>
+      <c r="J451" s="86"/>
+      <c r="K451" s="86"/>
+      <c r="L451" s="86"/>
       <c r="M451" s="75"/>
     </row>
-    <row r="452" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A452" s="97"/>
-      <c r="B452" s="108"/>
-      <c r="C452" s="109"/>
-      <c r="D452" s="110"/>
-      <c r="E452" s="110"/>
-      <c r="F452" s="110"/>
-      <c r="G452" s="110"/>
-      <c r="H452" s="110"/>
-      <c r="I452" s="110"/>
-      <c r="J452" s="110"/>
-      <c r="K452" s="110"/>
-      <c r="L452" s="110"/>
+    <row r="452" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A452" s="95" t="s">
+        <v>841</v>
+      </c>
+      <c r="B452" s="96" t="s">
+        <v>842</v>
+      </c>
+      <c r="C452" s="97" t="s">
+        <v>843</v>
+      </c>
+      <c r="D452" s="86" t="s">
+        <v>32</v>
+      </c>
+      <c r="E452" s="86"/>
+      <c r="F452" s="86"/>
+      <c r="G452" s="86"/>
+      <c r="H452" s="86"/>
+      <c r="I452" s="86"/>
+      <c r="J452" s="86"/>
+      <c r="K452" s="86"/>
+      <c r="L452" s="86"/>
       <c r="M452" s="75"/>
     </row>
-    <row r="453" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A453" s="97"/>
-      <c r="B453" s="108"/>
-      <c r="C453" s="109"/>
-      <c r="D453" s="110"/>
-      <c r="E453" s="110"/>
-      <c r="F453" s="110"/>
-      <c r="G453" s="110"/>
-      <c r="H453" s="110"/>
-      <c r="I453" s="110"/>
-      <c r="J453" s="110"/>
-      <c r="K453" s="110"/>
-      <c r="L453" s="110"/>
+    <row r="453" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A453" s="95" t="s">
+        <v>844</v>
+      </c>
+      <c r="B453" s="96" t="s">
+        <v>845</v>
+      </c>
+      <c r="C453" s="97" t="s">
+        <v>846</v>
+      </c>
+      <c r="D453" s="86" t="s">
+        <v>32</v>
+      </c>
+      <c r="E453" s="86"/>
+      <c r="F453" s="86"/>
+      <c r="G453" s="86"/>
+      <c r="H453" s="86"/>
+      <c r="I453" s="86"/>
+      <c r="J453" s="86"/>
+      <c r="K453" s="86"/>
+      <c r="L453" s="86"/>
       <c r="M453" s="75"/>
     </row>
-    <row r="454" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A454" s="97"/>
-      <c r="B454" s="108"/>
-      <c r="C454" s="109"/>
-      <c r="D454" s="110"/>
-      <c r="E454" s="110"/>
-      <c r="F454" s="110"/>
-      <c r="G454" s="110"/>
-      <c r="H454" s="110"/>
-      <c r="I454" s="110"/>
-      <c r="J454" s="110"/>
-      <c r="K454" s="110"/>
-      <c r="L454" s="110"/>
+    <row r="454" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A454" s="95" t="s">
+        <v>847</v>
+      </c>
+      <c r="B454" s="96" t="s">
+        <v>848</v>
+      </c>
+      <c r="C454" s="97" t="s">
+        <v>849</v>
+      </c>
+      <c r="D454" s="86"/>
+      <c r="E454" s="86" t="s">
+        <v>32</v>
+      </c>
+      <c r="F454" s="86"/>
+      <c r="G454" s="86"/>
+      <c r="H454" s="86"/>
+      <c r="I454" s="86"/>
+      <c r="J454" s="86"/>
+      <c r="K454" s="86"/>
+      <c r="L454" s="86" t="s">
+        <v>850</v>
+      </c>
       <c r="M454" s="75"/>
     </row>
-    <row r="455" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A455" s="97"/>
-      <c r="B455" s="108"/>
-      <c r="C455" s="109"/>
-      <c r="D455" s="110"/>
-      <c r="E455" s="110"/>
-      <c r="F455" s="110"/>
-      <c r="G455" s="110"/>
-      <c r="H455" s="110"/>
-      <c r="I455" s="110"/>
-      <c r="J455" s="110"/>
-      <c r="K455" s="110"/>
-      <c r="L455" s="110"/>
+    <row r="455" spans="1:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A455" s="95" t="s">
+        <v>851</v>
+      </c>
+      <c r="B455" s="96" t="s">
+        <v>852</v>
+      </c>
+      <c r="C455" s="97" t="s">
+        <v>853</v>
+      </c>
+      <c r="D455" s="86"/>
+      <c r="E455" s="86" t="s">
+        <v>32</v>
+      </c>
+      <c r="F455" s="86"/>
+      <c r="G455" s="86"/>
+      <c r="H455" s="86"/>
+      <c r="I455" s="86"/>
+      <c r="J455" s="86"/>
+      <c r="K455" s="86"/>
+      <c r="L455" s="86" t="s">
+        <v>850</v>
+      </c>
       <c r="M455" s="75"/>
     </row>
-    <row r="456" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A456" s="116" t="s">
-        <v>835</v>
-      </c>
-      <c r="B456" s="117"/>
-      <c r="C456" s="96"/>
+    <row r="456" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A456" s="95" t="s">
+        <v>854</v>
+      </c>
+      <c r="B456" s="96" t="s">
+        <v>855</v>
+      </c>
+      <c r="C456" s="97" t="s">
+        <v>856</v>
+      </c>
       <c r="D456" s="86"/>
-      <c r="E456" s="86"/>
+      <c r="E456" s="86" t="s">
+        <v>32</v>
+      </c>
       <c r="F456" s="86"/>
       <c r="G456" s="86"/>
       <c r="H456" s="86"/>
       <c r="I456" s="86"/>
       <c r="J456" s="86"/>
       <c r="K456" s="86"/>
-      <c r="L456" s="86"/>
+      <c r="L456" s="86" t="s">
+        <v>850</v>
+      </c>
       <c r="M456" s="75"/>
     </row>
-    <row r="457" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A457" s="33" t="s">
-        <v>752</v>
-      </c>
-      <c r="B457" s="34"/>
-      <c r="C457" s="34"/>
-      <c r="D457" s="35"/>
-      <c r="E457" s="35"/>
-      <c r="F457" s="35"/>
-      <c r="G457" s="35"/>
-      <c r="H457" s="35"/>
-      <c r="I457" s="35"/>
-      <c r="J457" s="35"/>
-      <c r="K457" s="35"/>
-      <c r="L457" s="35"/>
+    <row r="457" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A457" s="95" t="s">
+        <v>857</v>
+      </c>
+      <c r="B457" s="96" t="s">
+        <v>858</v>
+      </c>
+      <c r="C457" s="97" t="s">
+        <v>859</v>
+      </c>
+      <c r="D457" s="86"/>
+      <c r="E457" s="86" t="s">
+        <v>32</v>
+      </c>
+      <c r="F457" s="86"/>
+      <c r="G457" s="86"/>
+      <c r="H457" s="86"/>
+      <c r="I457" s="86"/>
+      <c r="J457" s="86"/>
+      <c r="K457" s="86"/>
+      <c r="L457" s="86" t="s">
+        <v>850</v>
+      </c>
       <c r="M457" s="75"/>
     </row>
-    <row r="458" spans="1:13" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A458" s="97" t="s">
-        <v>836</v>
-      </c>
-      <c r="B458" s="98" t="s">
-        <v>837</v>
-      </c>
-      <c r="C458" s="99" t="s">
-        <v>838</v>
-      </c>
-      <c r="D458" s="87" t="s">
-        <v>32</v>
-      </c>
-      <c r="E458" s="87"/>
-      <c r="F458" s="87"/>
-      <c r="G458" s="87"/>
-      <c r="H458" s="87"/>
-      <c r="I458" s="87"/>
-      <c r="J458" s="87"/>
-      <c r="K458" s="87"/>
-      <c r="L458" s="87"/>
+    <row r="458" spans="1:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A458" s="95" t="s">
+        <v>860</v>
+      </c>
+      <c r="B458" s="96" t="s">
+        <v>861</v>
+      </c>
+      <c r="C458" s="97" t="s">
+        <v>862</v>
+      </c>
+      <c r="D458" s="86"/>
+      <c r="E458" s="86" t="s">
+        <v>32</v>
+      </c>
+      <c r="F458" s="86"/>
+      <c r="G458" s="86"/>
+      <c r="H458" s="86"/>
+      <c r="I458" s="86"/>
+      <c r="J458" s="86"/>
+      <c r="K458" s="86"/>
+      <c r="L458" s="86" t="s">
+        <v>850</v>
+      </c>
       <c r="M458" s="75"/>
     </row>
     <row r="459" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A459" s="97" t="s">
-        <v>839</v>
-      </c>
-      <c r="B459" s="98" t="s">
-        <v>840</v>
-      </c>
-      <c r="C459" s="99" t="s">
-        <v>841</v>
-      </c>
-      <c r="D459" s="87" t="s">
-        <v>32</v>
-      </c>
-      <c r="E459" s="87"/>
-      <c r="F459" s="87"/>
-      <c r="G459" s="87"/>
-      <c r="H459" s="87"/>
-      <c r="I459" s="87"/>
-      <c r="J459" s="87"/>
-      <c r="K459" s="87"/>
-      <c r="L459" s="87"/>
+      <c r="A459" s="95" t="s">
+        <v>863</v>
+      </c>
+      <c r="B459" s="96" t="s">
+        <v>864</v>
+      </c>
+      <c r="C459" s="97" t="s">
+        <v>865</v>
+      </c>
+      <c r="D459" s="86"/>
+      <c r="E459" s="86" t="s">
+        <v>32</v>
+      </c>
+      <c r="F459" s="86"/>
+      <c r="G459" s="86"/>
+      <c r="H459" s="86"/>
+      <c r="I459" s="86"/>
+      <c r="J459" s="86"/>
+      <c r="K459" s="86"/>
+      <c r="L459" s="86" t="s">
+        <v>850</v>
+      </c>
       <c r="M459" s="75"/>
     </row>
-    <row r="460" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A460" s="97" t="s">
-        <v>842</v>
-      </c>
-      <c r="B460" s="98" t="s">
-        <v>843</v>
-      </c>
-      <c r="C460" s="99" t="s">
-        <v>844</v>
-      </c>
-      <c r="D460" s="87" t="s">
-        <v>32</v>
-      </c>
-      <c r="E460" s="87"/>
-      <c r="F460" s="87"/>
-      <c r="G460" s="87"/>
-      <c r="H460" s="87"/>
-      <c r="I460" s="87"/>
-      <c r="J460" s="87"/>
-      <c r="K460" s="87"/>
-      <c r="L460" s="87"/>
+    <row r="460" spans="1:13" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A460" s="95" t="s">
+        <v>866</v>
+      </c>
+      <c r="B460" s="96" t="s">
+        <v>867</v>
+      </c>
+      <c r="C460" s="97" t="s">
+        <v>868</v>
+      </c>
+      <c r="D460" s="86"/>
+      <c r="E460" s="86" t="s">
+        <v>32</v>
+      </c>
+      <c r="F460" s="86"/>
+      <c r="G460" s="86"/>
+      <c r="H460" s="86"/>
+      <c r="I460" s="86"/>
+      <c r="J460" s="86"/>
+      <c r="K460" s="86"/>
+      <c r="L460" s="86" t="s">
+        <v>850</v>
+      </c>
       <c r="M460" s="75"/>
     </row>
     <row r="461" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A461" s="97" t="s">
-        <v>845</v>
-      </c>
-      <c r="B461" s="98" t="s">
-        <v>846</v>
-      </c>
-      <c r="C461" s="99" t="s">
-        <v>847</v>
-      </c>
-      <c r="D461" s="87"/>
-      <c r="E461" s="87" t="s">
-        <v>32</v>
-      </c>
-      <c r="F461" s="87"/>
-      <c r="G461" s="87"/>
-      <c r="H461" s="87"/>
-      <c r="I461" s="87"/>
-      <c r="J461" s="87"/>
-      <c r="K461" s="87"/>
-      <c r="L461" s="87"/>
+      <c r="A461" s="98" t="s">
+        <v>869</v>
+      </c>
+      <c r="B461" s="96" t="s">
+        <v>870</v>
+      </c>
+      <c r="C461" s="97" t="s">
+        <v>871</v>
+      </c>
+      <c r="D461" s="86"/>
+      <c r="E461" s="86" t="s">
+        <v>32</v>
+      </c>
+      <c r="F461" s="86"/>
+      <c r="G461" s="86"/>
+      <c r="H461" s="86"/>
+      <c r="I461" s="86"/>
+      <c r="J461" s="86"/>
+      <c r="K461" s="86"/>
+      <c r="L461" s="86" t="s">
+        <v>850</v>
+      </c>
       <c r="M461" s="75"/>
     </row>
-    <row r="462" spans="1:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A462" s="97" t="s">
-        <v>848</v>
-      </c>
-      <c r="B462" s="98" t="s">
-        <v>849</v>
-      </c>
-      <c r="C462" s="99" t="s">
+    <row r="462" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A462" s="98" t="s">
+        <v>872</v>
+      </c>
+      <c r="B462" s="96" t="s">
+        <v>873</v>
+      </c>
+      <c r="C462" s="97" t="s">
+        <v>874</v>
+      </c>
+      <c r="D462" s="86"/>
+      <c r="E462" s="86" t="s">
+        <v>32</v>
+      </c>
+      <c r="F462" s="86"/>
+      <c r="G462" s="86"/>
+      <c r="H462" s="86"/>
+      <c r="I462" s="86"/>
+      <c r="J462" s="86"/>
+      <c r="K462" s="86"/>
+      <c r="L462" s="86" t="s">
         <v>850</v>
       </c>
-      <c r="D462" s="87"/>
-      <c r="E462" s="87" t="s">
-        <v>32</v>
-      </c>
-      <c r="F462" s="87"/>
-      <c r="G462" s="87"/>
-      <c r="H462" s="87"/>
-      <c r="I462" s="87"/>
-      <c r="J462" s="87"/>
-      <c r="K462" s="87"/>
-      <c r="L462" s="87"/>
       <c r="M462" s="75"/>
     </row>
-    <row r="463" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A463" s="97" t="s">
-        <v>851</v>
-      </c>
-      <c r="B463" s="98" t="s">
-        <v>852</v>
-      </c>
-      <c r="C463" s="99" t="s">
-        <v>853</v>
-      </c>
-      <c r="D463" s="87"/>
-      <c r="E463" s="87" t="s">
-        <v>32</v>
-      </c>
-      <c r="F463" s="87"/>
-      <c r="G463" s="87"/>
-      <c r="H463" s="87"/>
-      <c r="I463" s="87"/>
-      <c r="J463" s="87"/>
-      <c r="K463" s="87"/>
-      <c r="L463" s="87"/>
+    <row r="463" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A463" s="116" t="s">
+        <v>875</v>
+      </c>
+      <c r="B463" s="94"/>
+      <c r="C463" s="94"/>
+      <c r="D463" s="85"/>
+      <c r="E463" s="85"/>
+      <c r="F463" s="85"/>
+      <c r="G463" s="85"/>
+      <c r="H463" s="85"/>
+      <c r="I463" s="85"/>
+      <c r="J463" s="85"/>
+      <c r="K463" s="85"/>
+      <c r="L463" s="85"/>
       <c r="M463" s="75"/>
     </row>
-    <row r="464" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A464" s="97" t="s">
-        <v>854</v>
-      </c>
-      <c r="B464" s="98" t="s">
-        <v>855</v>
-      </c>
-      <c r="C464" s="99" t="s">
-        <v>856</v>
-      </c>
-      <c r="D464" s="87"/>
-      <c r="E464" s="87" t="s">
-        <v>32</v>
-      </c>
-      <c r="F464" s="87"/>
-      <c r="G464" s="87"/>
-      <c r="H464" s="87"/>
-      <c r="I464" s="87"/>
-      <c r="J464" s="87"/>
-      <c r="K464" s="87"/>
-      <c r="L464" s="87"/>
+    <row r="464" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A464" s="125" t="s">
+        <v>876</v>
+      </c>
+      <c r="B464" s="126"/>
+      <c r="C464" s="94"/>
+      <c r="D464" s="85"/>
+      <c r="E464" s="85"/>
+      <c r="F464" s="85"/>
+      <c r="G464" s="85"/>
+      <c r="H464" s="85"/>
+      <c r="I464" s="85"/>
+      <c r="J464" s="85"/>
+      <c r="K464" s="85"/>
+      <c r="L464" s="85"/>
       <c r="M464" s="75"/>
     </row>
-    <row r="465" spans="1:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A465" s="97" t="s">
-        <v>857</v>
-      </c>
-      <c r="B465" s="98" t="s">
-        <v>858</v>
-      </c>
-      <c r="C465" s="99" t="s">
-        <v>859</v>
-      </c>
-      <c r="D465" s="87"/>
-      <c r="E465" s="87" t="s">
-        <v>32</v>
-      </c>
-      <c r="F465" s="87"/>
-      <c r="G465" s="87"/>
-      <c r="H465" s="87"/>
-      <c r="I465" s="87"/>
-      <c r="J465" s="87"/>
-      <c r="K465" s="87"/>
-      <c r="L465" s="87"/>
-      <c r="M465" s="75"/>
-    </row>
-    <row r="466" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A466" s="97" t="s">
-        <v>860</v>
-      </c>
-      <c r="B466" s="98" t="s">
-        <v>861</v>
-      </c>
-      <c r="C466" s="99" t="s">
-        <v>862</v>
-      </c>
-      <c r="D466" s="87"/>
-      <c r="E466" s="87" t="s">
-        <v>32</v>
-      </c>
-      <c r="F466" s="87"/>
-      <c r="G466" s="87"/>
-      <c r="H466" s="87"/>
-      <c r="I466" s="87"/>
-      <c r="J466" s="87"/>
-      <c r="K466" s="87"/>
-      <c r="L466" s="87"/>
-      <c r="M466" s="75"/>
-    </row>
-    <row r="467" spans="1:13" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A467" s="97" t="s">
-        <v>863</v>
-      </c>
-      <c r="B467" s="98" t="s">
-        <v>864</v>
-      </c>
-      <c r="C467" s="99" t="s">
-        <v>865</v>
-      </c>
-      <c r="D467" s="87"/>
-      <c r="E467" s="87" t="s">
-        <v>32</v>
-      </c>
-      <c r="F467" s="87"/>
-      <c r="G467" s="87"/>
-      <c r="H467" s="87"/>
-      <c r="I467" s="87"/>
-      <c r="J467" s="87"/>
-      <c r="K467" s="87"/>
-      <c r="L467" s="87"/>
-      <c r="M467" s="75"/>
-    </row>
-    <row r="468" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A468" s="100" t="s">
-        <v>866</v>
-      </c>
-      <c r="B468" s="98" t="s">
-        <v>867</v>
-      </c>
-      <c r="C468" s="99" t="s">
-        <v>868</v>
-      </c>
-      <c r="D468" s="87"/>
-      <c r="E468" s="87" t="s">
-        <v>32</v>
-      </c>
-      <c r="F468" s="87"/>
-      <c r="G468" s="87"/>
-      <c r="H468" s="87"/>
-      <c r="I468" s="87"/>
-      <c r="J468" s="87"/>
-      <c r="K468" s="87"/>
-      <c r="L468" s="87"/>
-      <c r="M468" s="75"/>
-    </row>
-    <row r="469" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A469" s="100" t="s">
-        <v>869</v>
-      </c>
-      <c r="B469" s="98" t="s">
-        <v>870</v>
-      </c>
-      <c r="C469" s="99" t="s">
-        <v>871</v>
-      </c>
-      <c r="D469" s="87"/>
-      <c r="E469" s="87" t="s">
-        <v>32</v>
-      </c>
-      <c r="F469" s="87"/>
-      <c r="G469" s="87"/>
-      <c r="H469" s="87"/>
-      <c r="I469" s="87"/>
-      <c r="J469" s="87"/>
-      <c r="K469" s="87"/>
-      <c r="L469" s="87"/>
-      <c r="M469" s="75"/>
-    </row>
-    <row r="470" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A470" s="112" t="s">
-        <v>872</v>
-      </c>
-      <c r="B470" s="96"/>
-      <c r="C470" s="96"/>
-      <c r="D470" s="86"/>
-      <c r="E470" s="86"/>
-      <c r="F470" s="86"/>
-      <c r="G470" s="86"/>
-      <c r="H470" s="86"/>
-      <c r="I470" s="86"/>
-      <c r="J470" s="86"/>
-      <c r="K470" s="86"/>
-      <c r="L470" s="86"/>
-      <c r="M470" s="75"/>
-    </row>
-    <row r="471" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A471" s="99"/>
-      <c r="B471" s="98" t="s">
-        <v>873</v>
-      </c>
-      <c r="C471" s="99"/>
-      <c r="D471" s="87"/>
-      <c r="E471" s="87"/>
-      <c r="F471" s="87"/>
-      <c r="G471" s="87"/>
-      <c r="H471" s="87"/>
-      <c r="I471" s="87"/>
-      <c r="J471" s="87"/>
-      <c r="K471" s="87"/>
-      <c r="L471" s="87"/>
-      <c r="M471" s="75"/>
-    </row>
-    <row r="472" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A472" s="99"/>
-      <c r="B472" s="98"/>
-      <c r="C472" s="99"/>
-      <c r="D472" s="87"/>
-      <c r="E472" s="87"/>
-      <c r="F472" s="87"/>
-      <c r="G472" s="87"/>
-      <c r="H472" s="87"/>
-      <c r="I472" s="87"/>
-      <c r="J472" s="87"/>
-      <c r="K472" s="87"/>
-      <c r="L472" s="87"/>
-      <c r="M472" s="75"/>
-    </row>
-    <row r="473" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A473" s="99"/>
-      <c r="B473" s="98" t="s">
-        <v>874</v>
-      </c>
-      <c r="C473" s="99"/>
-      <c r="D473" s="87"/>
-      <c r="E473" s="87"/>
-      <c r="F473" s="87"/>
-      <c r="G473" s="87"/>
-      <c r="H473" s="87"/>
-      <c r="I473" s="87"/>
-      <c r="J473" s="87"/>
-      <c r="K473" s="87"/>
-      <c r="L473" s="87"/>
-      <c r="M473" s="75"/>
-    </row>
-    <row r="474" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A474" s="99"/>
-      <c r="B474" s="98" t="s">
-        <v>875</v>
-      </c>
-      <c r="C474" s="99"/>
-      <c r="D474" s="87"/>
-      <c r="E474" s="87"/>
-      <c r="F474" s="87"/>
-      <c r="G474" s="87"/>
-      <c r="H474" s="87"/>
-      <c r="I474" s="87"/>
-      <c r="J474" s="87"/>
-      <c r="K474" s="87"/>
-      <c r="L474" s="87"/>
-      <c r="M474" s="75"/>
-    </row>
-    <row r="475" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A475" s="99"/>
-      <c r="B475" s="98" t="s">
-        <v>876</v>
-      </c>
-      <c r="C475" s="99"/>
-      <c r="D475" s="87"/>
-      <c r="E475" s="87"/>
-      <c r="F475" s="87"/>
-      <c r="G475" s="87"/>
-      <c r="H475" s="87"/>
-      <c r="I475" s="87"/>
-      <c r="J475" s="87"/>
-      <c r="K475" s="87"/>
-      <c r="L475" s="87"/>
-      <c r="M475" s="75"/>
-    </row>
-    <row r="476" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A476" s="99"/>
-      <c r="B476" s="98"/>
-      <c r="C476" s="99"/>
-      <c r="D476" s="87"/>
-      <c r="E476" s="87"/>
-      <c r="F476" s="87"/>
-      <c r="G476" s="87"/>
-      <c r="H476" s="87"/>
-      <c r="I476" s="87"/>
-      <c r="J476" s="87"/>
-      <c r="K476" s="87"/>
-      <c r="L476" s="87"/>
-      <c r="M476" s="75"/>
-    </row>
-    <row r="477" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A477" s="99"/>
-      <c r="B477" s="98" t="s">
+    <row r="465" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A465" s="101" t="s">
         <v>877</v>
       </c>
-      <c r="C477" s="99"/>
-      <c r="D477" s="87"/>
-      <c r="E477" s="87"/>
-      <c r="F477" s="87"/>
-      <c r="G477" s="87"/>
-      <c r="H477" s="87"/>
-      <c r="I477" s="87"/>
-      <c r="J477" s="87"/>
-      <c r="K477" s="87"/>
-      <c r="L477" s="87"/>
-      <c r="M477" s="75"/>
-    </row>
-    <row r="478" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A478" s="99"/>
-      <c r="B478" s="98" t="s">
+      <c r="B465" s="102"/>
+      <c r="C465" s="102"/>
+      <c r="D465" s="103"/>
+      <c r="E465" s="103"/>
+      <c r="F465" s="103"/>
+      <c r="G465" s="103"/>
+      <c r="H465" s="103"/>
+      <c r="I465" s="103"/>
+      <c r="J465" s="103"/>
+      <c r="K465" s="103"/>
+      <c r="L465" s="103"/>
+    </row>
+    <row r="466" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A466" s="122" t="s">
         <v>878</v>
       </c>
-      <c r="C478" s="99"/>
-      <c r="D478" s="87"/>
-      <c r="E478" s="87"/>
-      <c r="F478" s="87"/>
-      <c r="G478" s="87"/>
-      <c r="H478" s="87"/>
-      <c r="I478" s="87"/>
-      <c r="J478" s="87"/>
-      <c r="K478" s="87"/>
-      <c r="L478" s="87"/>
-      <c r="M478" s="75"/>
-    </row>
-    <row r="479" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A479" s="99"/>
-      <c r="B479" s="98" t="s">
+      <c r="B466" s="123"/>
+      <c r="C466" s="104"/>
+      <c r="D466" s="105"/>
+      <c r="E466" s="105"/>
+      <c r="F466" s="105"/>
+      <c r="G466" s="105"/>
+      <c r="H466" s="105"/>
+      <c r="I466" s="105"/>
+      <c r="J466" s="105"/>
+      <c r="K466" s="105"/>
+      <c r="L466" s="105"/>
+    </row>
+    <row r="467" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A467" s="106" t="s">
         <v>879</v>
       </c>
-      <c r="C479" s="99"/>
-      <c r="D479" s="87"/>
-      <c r="E479" s="87"/>
-      <c r="F479" s="87"/>
-      <c r="G479" s="87"/>
-      <c r="H479" s="87"/>
-      <c r="I479" s="87"/>
-      <c r="J479" s="87"/>
-      <c r="K479" s="87"/>
-      <c r="L479" s="87"/>
-      <c r="M479" s="75"/>
-    </row>
-    <row r="480" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A480" s="99"/>
-      <c r="B480" s="98" t="s">
+      <c r="B467" s="107" t="s">
         <v>880</v>
       </c>
-      <c r="C480" s="99"/>
-      <c r="D480" s="87"/>
-      <c r="E480" s="87"/>
-      <c r="F480" s="87"/>
-      <c r="G480" s="87"/>
-      <c r="H480" s="87"/>
-      <c r="I480" s="87"/>
-      <c r="J480" s="87"/>
-      <c r="K480" s="87"/>
-      <c r="L480" s="87"/>
-      <c r="M480" s="75"/>
-    </row>
-    <row r="481" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A481" s="99"/>
-      <c r="B481" s="98" t="s">
+      <c r="C467" s="108" t="s">
         <v>881</v>
       </c>
-      <c r="C481" s="99"/>
-      <c r="D481" s="87"/>
-      <c r="E481" s="87"/>
-      <c r="F481" s="87"/>
-      <c r="G481" s="87"/>
-      <c r="H481" s="87"/>
-      <c r="I481" s="87"/>
-      <c r="J481" s="87"/>
-      <c r="K481" s="87"/>
-      <c r="L481" s="87"/>
-      <c r="M481" s="75"/>
-    </row>
-    <row r="482" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A482" s="99"/>
-      <c r="B482" s="98" t="s">
+      <c r="D467" s="109" t="s">
+        <v>32</v>
+      </c>
+      <c r="E467" s="109"/>
+      <c r="F467" s="109"/>
+      <c r="G467" s="109"/>
+      <c r="H467" s="109"/>
+      <c r="I467" s="109"/>
+      <c r="J467" s="109"/>
+      <c r="K467" s="109"/>
+      <c r="L467" s="109"/>
+    </row>
+    <row r="468" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A468" s="106" t="s">
         <v>882</v>
       </c>
-      <c r="C482" s="99"/>
-      <c r="D482" s="87"/>
-      <c r="E482" s="87"/>
-      <c r="F482" s="87"/>
-      <c r="G482" s="87"/>
-      <c r="H482" s="87"/>
-      <c r="I482" s="87"/>
-      <c r="J482" s="87"/>
-      <c r="K482" s="87"/>
-      <c r="L482" s="87"/>
-      <c r="M482" s="75"/>
-    </row>
-    <row r="483" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A483" s="99"/>
-      <c r="B483" s="98" t="s">
+      <c r="B468" s="107" t="s">
         <v>883</v>
       </c>
-      <c r="C483" s="99"/>
-      <c r="D483" s="87"/>
-      <c r="E483" s="87"/>
-      <c r="F483" s="87"/>
-      <c r="G483" s="87"/>
-      <c r="H483" s="87"/>
-      <c r="I483" s="87"/>
-      <c r="J483" s="87"/>
-      <c r="K483" s="87"/>
-      <c r="L483" s="87"/>
-      <c r="M483" s="75"/>
-    </row>
-    <row r="484" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A484" s="99"/>
-      <c r="B484" s="98" t="s">
-        <v>875</v>
-      </c>
-      <c r="C484" s="99"/>
-      <c r="D484" s="87"/>
-      <c r="E484" s="87"/>
-      <c r="F484" s="87"/>
-      <c r="G484" s="87"/>
-      <c r="H484" s="87"/>
-      <c r="I484" s="87"/>
-      <c r="J484" s="87"/>
-      <c r="K484" s="87"/>
-      <c r="L484" s="87"/>
-      <c r="M484" s="75"/>
-    </row>
-    <row r="485" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A485" s="99"/>
-      <c r="B485" s="98" t="s">
+      <c r="C468" s="108" t="s">
         <v>884</v>
       </c>
-      <c r="C485" s="99"/>
-      <c r="D485" s="87"/>
-      <c r="E485" s="87"/>
-      <c r="F485" s="87"/>
-      <c r="G485" s="87"/>
-      <c r="H485" s="87"/>
-      <c r="I485" s="87"/>
-      <c r="J485" s="87"/>
-      <c r="K485" s="87"/>
-      <c r="L485" s="87"/>
-      <c r="M485" s="75"/>
-    </row>
-    <row r="486" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A486" s="99"/>
-      <c r="B486" s="98" t="s">
+      <c r="D468" s="109" t="s">
+        <v>32</v>
+      </c>
+      <c r="E468" s="109"/>
+      <c r="F468" s="109"/>
+      <c r="G468" s="109"/>
+      <c r="H468" s="109"/>
+      <c r="I468" s="109"/>
+      <c r="J468" s="109"/>
+      <c r="K468" s="109"/>
+      <c r="L468" s="109"/>
+    </row>
+    <row r="469" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A469" s="106" t="s">
         <v>885</v>
       </c>
-      <c r="C486" s="99"/>
-      <c r="D486" s="87"/>
-      <c r="E486" s="87"/>
-      <c r="F486" s="87"/>
-      <c r="G486" s="87"/>
-      <c r="H486" s="87"/>
-      <c r="I486" s="87"/>
-      <c r="J486" s="87"/>
-      <c r="K486" s="87"/>
-      <c r="L486" s="87"/>
-      <c r="M486" s="75"/>
-    </row>
-    <row r="487" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A487" s="99"/>
-      <c r="B487" s="98" t="s">
+      <c r="B469" s="107" t="s">
         <v>886</v>
       </c>
-      <c r="C487" s="99"/>
-      <c r="D487" s="87"/>
-      <c r="E487" s="87"/>
-      <c r="F487" s="87"/>
-      <c r="G487" s="87"/>
-      <c r="H487" s="87"/>
-      <c r="I487" s="87"/>
-      <c r="J487" s="87"/>
-      <c r="K487" s="87"/>
-      <c r="L487" s="87"/>
-      <c r="M487" s="75"/>
-    </row>
-    <row r="488" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A488" s="99"/>
-      <c r="B488" s="98" t="s">
+      <c r="C469" s="108" t="s">
         <v>887</v>
       </c>
-      <c r="C488" s="99"/>
-      <c r="D488" s="87"/>
-      <c r="E488" s="87"/>
-      <c r="F488" s="87"/>
-      <c r="G488" s="87"/>
-      <c r="H488" s="87"/>
-      <c r="I488" s="87"/>
-      <c r="J488" s="87"/>
-      <c r="K488" s="87"/>
-      <c r="L488" s="87"/>
-      <c r="M488" s="75"/>
-    </row>
-    <row r="489" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A489" s="99"/>
-      <c r="B489" s="98" t="s">
+      <c r="D469" s="109" t="s">
+        <v>32</v>
+      </c>
+      <c r="E469" s="109"/>
+      <c r="F469" s="109"/>
+      <c r="G469" s="109"/>
+      <c r="H469" s="109"/>
+      <c r="I469" s="109"/>
+      <c r="J469" s="109"/>
+      <c r="K469" s="109"/>
+      <c r="L469" s="109"/>
+    </row>
+    <row r="470" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A470" s="122" t="s">
         <v>888</v>
       </c>
-      <c r="C489" s="99"/>
-      <c r="D489" s="87"/>
-      <c r="E489" s="87"/>
-      <c r="F489" s="87"/>
-      <c r="G489" s="87"/>
-      <c r="H489" s="87"/>
-      <c r="I489" s="87"/>
-      <c r="J489" s="87"/>
-      <c r="K489" s="87"/>
-      <c r="L489" s="87"/>
-      <c r="M489" s="75"/>
-    </row>
-    <row r="490" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A490" s="99"/>
-      <c r="B490" s="98" t="s">
+      <c r="B470" s="123"/>
+      <c r="C470" s="104"/>
+      <c r="D470" s="105"/>
+      <c r="E470" s="105"/>
+      <c r="F470" s="105"/>
+      <c r="G470" s="105"/>
+      <c r="H470" s="105"/>
+      <c r="I470" s="105"/>
+      <c r="J470" s="105"/>
+      <c r="K470" s="105"/>
+      <c r="L470" s="105"/>
+    </row>
+    <row r="471" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A471" s="106" t="s">
         <v>889</v>
       </c>
-      <c r="C490" s="99"/>
-      <c r="D490" s="87"/>
-      <c r="E490" s="87"/>
-      <c r="F490" s="87"/>
-      <c r="G490" s="87"/>
-      <c r="H490" s="87"/>
-      <c r="I490" s="87"/>
-      <c r="J490" s="87"/>
-      <c r="K490" s="87"/>
-      <c r="L490" s="87"/>
-      <c r="M490" s="75"/>
-    </row>
-    <row r="491" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A491" s="99"/>
-      <c r="B491" s="98" t="s">
+      <c r="B471" s="107" t="s">
         <v>890</v>
       </c>
-      <c r="C491" s="99"/>
-      <c r="D491" s="87"/>
-      <c r="E491" s="87"/>
-      <c r="F491" s="87"/>
-      <c r="G491" s="87"/>
-      <c r="H491" s="87"/>
-      <c r="I491" s="87"/>
-      <c r="J491" s="87"/>
-      <c r="K491" s="87"/>
-      <c r="L491" s="87"/>
-      <c r="M491" s="75"/>
-    </row>
-    <row r="492" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A492" s="99"/>
-      <c r="B492" s="98" t="s">
+      <c r="C471" s="108" t="s">
+        <v>881</v>
+      </c>
+      <c r="D471" s="109" t="s">
+        <v>32</v>
+      </c>
+      <c r="E471" s="109"/>
+      <c r="F471" s="109"/>
+      <c r="G471" s="109"/>
+      <c r="H471" s="109"/>
+      <c r="I471" s="109"/>
+      <c r="J471" s="109"/>
+      <c r="K471" s="109"/>
+      <c r="L471" s="109"/>
+    </row>
+    <row r="472" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A472" s="106" t="s">
         <v>891</v>
       </c>
-      <c r="C492" s="99"/>
-      <c r="D492" s="87"/>
-      <c r="E492" s="87"/>
-      <c r="F492" s="87"/>
-      <c r="G492" s="87"/>
-      <c r="H492" s="87"/>
-      <c r="I492" s="87"/>
-      <c r="J492" s="87"/>
-      <c r="K492" s="87"/>
-      <c r="L492" s="87"/>
-      <c r="M492" s="75"/>
-    </row>
-    <row r="493" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A493" s="99"/>
-      <c r="B493" s="98" t="s">
+      <c r="B472" s="107" t="s">
         <v>892</v>
       </c>
-      <c r="C493" s="99"/>
-      <c r="D493" s="87"/>
-      <c r="E493" s="87"/>
-      <c r="F493" s="87"/>
-      <c r="G493" s="87"/>
-      <c r="H493" s="87"/>
-      <c r="I493" s="87"/>
-      <c r="J493" s="87"/>
-      <c r="K493" s="87"/>
-      <c r="L493" s="87"/>
-      <c r="M493" s="75"/>
-    </row>
-    <row r="494" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A494" s="99"/>
-      <c r="B494" s="98" t="s">
-        <v>892</v>
-      </c>
-      <c r="C494" s="99"/>
-      <c r="D494" s="87"/>
-      <c r="E494" s="87"/>
-      <c r="F494" s="87"/>
-      <c r="G494" s="87"/>
-      <c r="H494" s="87"/>
-      <c r="I494" s="87"/>
-      <c r="J494" s="87"/>
-      <c r="K494" s="87"/>
-      <c r="L494" s="87"/>
-      <c r="M494" s="75"/>
-    </row>
-    <row r="495" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A495" s="99"/>
-      <c r="B495" s="98" t="s">
+      <c r="C472" s="108" t="s">
         <v>893</v>
       </c>
-      <c r="C495" s="99"/>
-      <c r="D495" s="87"/>
-      <c r="E495" s="87"/>
-      <c r="F495" s="87"/>
-      <c r="G495" s="87"/>
-      <c r="H495" s="87"/>
-      <c r="I495" s="87"/>
-      <c r="J495" s="87"/>
-      <c r="K495" s="87"/>
-      <c r="L495" s="87"/>
-      <c r="M495" s="75"/>
-    </row>
-    <row r="496" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A496" s="99"/>
-      <c r="B496" s="98" t="s">
+      <c r="D472" s="109" t="s">
+        <v>32</v>
+      </c>
+      <c r="E472" s="109"/>
+      <c r="F472" s="109"/>
+      <c r="G472" s="109"/>
+      <c r="H472" s="109"/>
+      <c r="I472" s="109"/>
+      <c r="J472" s="109"/>
+      <c r="K472" s="109"/>
+      <c r="L472" s="109"/>
+    </row>
+    <row r="473" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A473" s="106" t="s">
         <v>894</v>
       </c>
-      <c r="C496" s="99"/>
-      <c r="D496" s="87"/>
-      <c r="E496" s="87"/>
-      <c r="F496" s="87"/>
-      <c r="G496" s="87"/>
-      <c r="H496" s="87"/>
-      <c r="I496" s="87"/>
-      <c r="J496" s="87"/>
-      <c r="K496" s="87"/>
-      <c r="L496" s="87"/>
-      <c r="M496" s="75"/>
-    </row>
-    <row r="497" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A497" s="99"/>
-      <c r="B497" s="98" t="s">
+      <c r="B473" s="107" t="s">
         <v>895</v>
       </c>
-      <c r="C497" s="99"/>
-      <c r="D497" s="87"/>
-      <c r="E497" s="87"/>
-      <c r="F497" s="87"/>
-      <c r="G497" s="87"/>
-      <c r="H497" s="87"/>
-      <c r="I497" s="87"/>
-      <c r="J497" s="87"/>
-      <c r="K497" s="87"/>
-      <c r="L497" s="87"/>
-      <c r="M497" s="75"/>
-    </row>
-    <row r="498" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A498" s="101"/>
-      <c r="B498" s="102" t="s">
+      <c r="C473" s="108" t="s">
         <v>896</v>
       </c>
-      <c r="C498" s="101"/>
-      <c r="D498" s="76"/>
-      <c r="E498" s="76"/>
-      <c r="F498" s="76"/>
-      <c r="G498" s="76"/>
-      <c r="H498" s="106"/>
-      <c r="I498" s="76"/>
-      <c r="J498" s="76"/>
-      <c r="K498" s="76"/>
-      <c r="L498" s="76"/>
-      <c r="M498" s="75"/>
-    </row>
-    <row r="499" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A499" s="101"/>
-      <c r="B499" s="103" t="s">
+      <c r="D473" s="109" t="s">
+        <v>32</v>
+      </c>
+      <c r="E473" s="109"/>
+      <c r="F473" s="109"/>
+      <c r="G473" s="109"/>
+      <c r="H473" s="109"/>
+      <c r="I473" s="109"/>
+      <c r="J473" s="109"/>
+      <c r="K473" s="109"/>
+      <c r="L473" s="109"/>
+    </row>
+    <row r="474" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A474" s="106" t="s">
         <v>897</v>
       </c>
-      <c r="C499" s="101"/>
-      <c r="D499" s="76"/>
-      <c r="E499" s="76"/>
-      <c r="F499" s="76"/>
-      <c r="G499" s="76"/>
-      <c r="H499" s="106"/>
-      <c r="I499" s="76"/>
-      <c r="J499" s="76"/>
-      <c r="K499" s="76"/>
-      <c r="L499" s="76"/>
-      <c r="M499" s="75"/>
-    </row>
-    <row r="500" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A500" s="101"/>
-      <c r="B500" s="103" t="s">
+      <c r="B474" s="107" t="s">
         <v>898</v>
       </c>
-      <c r="C500" s="101"/>
-      <c r="D500" s="76"/>
-      <c r="E500" s="76"/>
-      <c r="F500" s="76"/>
-      <c r="G500" s="76"/>
-      <c r="H500" s="106"/>
-      <c r="I500" s="76"/>
-      <c r="J500" s="76"/>
-      <c r="K500" s="76"/>
-      <c r="L500" s="76"/>
-      <c r="M500" s="75"/>
-    </row>
-    <row r="501" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A501" s="104"/>
-      <c r="B501" s="104"/>
-      <c r="C501" s="104"/>
-      <c r="D501" s="90"/>
-      <c r="E501" s="90"/>
-      <c r="F501" s="90"/>
-      <c r="G501" s="90"/>
-      <c r="H501" s="107"/>
-      <c r="I501" s="90"/>
-      <c r="J501" s="90"/>
-      <c r="K501" s="90"/>
-      <c r="L501" s="90"/>
-    </row>
-    <row r="502" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A502" s="104"/>
-      <c r="B502" s="104"/>
-      <c r="C502" s="104"/>
-      <c r="D502" s="90"/>
-      <c r="E502" s="90"/>
-      <c r="F502" s="90"/>
-      <c r="G502" s="90"/>
-      <c r="H502" s="107"/>
-      <c r="I502" s="90"/>
-      <c r="J502" s="90"/>
-      <c r="K502" s="90"/>
-      <c r="L502" s="90"/>
-    </row>
-    <row r="503" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A503" s="104"/>
-      <c r="B503" s="104"/>
-      <c r="C503" s="104"/>
-      <c r="D503" s="90"/>
-      <c r="E503" s="90"/>
-      <c r="F503" s="90"/>
-      <c r="G503" s="90"/>
-      <c r="H503" s="107"/>
-      <c r="I503" s="90"/>
-      <c r="J503" s="90"/>
-      <c r="K503" s="90"/>
-      <c r="L503" s="90"/>
-    </row>
-    <row r="504" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A504" s="104"/>
-      <c r="B504" s="104"/>
-      <c r="C504" s="104"/>
-      <c r="D504" s="90"/>
-      <c r="E504" s="90"/>
-      <c r="F504" s="90"/>
-      <c r="G504" s="90"/>
-      <c r="H504" s="107"/>
-      <c r="I504" s="90"/>
-      <c r="J504" s="90"/>
-      <c r="K504" s="90"/>
-      <c r="L504" s="90"/>
-    </row>
-    <row r="505" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A505" s="104"/>
-      <c r="B505" s="104"/>
-      <c r="C505" s="104"/>
-      <c r="D505" s="90"/>
-      <c r="E505" s="90"/>
-      <c r="F505" s="90"/>
-      <c r="G505" s="90"/>
-      <c r="H505" s="107"/>
-      <c r="I505" s="90"/>
-      <c r="J505" s="90"/>
-      <c r="K505" s="90"/>
-      <c r="L505" s="90"/>
-    </row>
-    <row r="506" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A506" s="104"/>
-      <c r="B506" s="104"/>
-      <c r="C506" s="104"/>
-      <c r="D506" s="90"/>
-      <c r="E506" s="90"/>
-      <c r="F506" s="90"/>
-      <c r="G506" s="90"/>
-      <c r="H506" s="107"/>
-      <c r="I506" s="90"/>
-      <c r="J506" s="90"/>
-      <c r="K506" s="90"/>
-      <c r="L506" s="90"/>
-    </row>
-    <row r="507" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A507" s="104"/>
-      <c r="B507" s="104"/>
-      <c r="C507" s="104"/>
-      <c r="D507" s="90"/>
-      <c r="E507" s="90"/>
-      <c r="F507" s="90"/>
-      <c r="G507" s="90"/>
-      <c r="H507" s="107"/>
-      <c r="I507" s="90"/>
-      <c r="J507" s="90"/>
-      <c r="K507" s="90"/>
-      <c r="L507" s="90"/>
-    </row>
-    <row r="508" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A508" s="104"/>
-      <c r="B508" s="104"/>
-      <c r="C508" s="104"/>
-      <c r="D508" s="90"/>
-      <c r="E508" s="90"/>
-      <c r="F508" s="90"/>
-      <c r="G508" s="90"/>
-      <c r="H508" s="107"/>
-      <c r="I508" s="90"/>
-      <c r="J508" s="90"/>
-      <c r="K508" s="90"/>
-      <c r="L508" s="90"/>
-    </row>
-    <row r="509" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A509" s="104"/>
-      <c r="B509" s="104"/>
-      <c r="C509" s="104"/>
-      <c r="D509" s="90"/>
-      <c r="E509" s="90"/>
-      <c r="F509" s="90"/>
-      <c r="G509" s="90"/>
-      <c r="H509" s="107"/>
-      <c r="I509" s="90"/>
-      <c r="J509" s="90"/>
-      <c r="K509" s="90"/>
-      <c r="L509" s="90"/>
-    </row>
-    <row r="510" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A510" s="104"/>
-      <c r="B510" s="104"/>
-      <c r="C510" s="104"/>
-      <c r="D510" s="90"/>
-      <c r="E510" s="90"/>
-      <c r="F510" s="90"/>
-      <c r="G510" s="90"/>
-      <c r="H510" s="107"/>
-      <c r="I510" s="90"/>
-      <c r="J510" s="90"/>
-      <c r="K510" s="90"/>
-      <c r="L510" s="90"/>
-    </row>
-    <row r="511" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A511" s="104"/>
-      <c r="B511" s="104"/>
-      <c r="C511" s="104"/>
-      <c r="D511" s="90"/>
-      <c r="E511" s="90"/>
-      <c r="F511" s="90"/>
-      <c r="G511" s="90"/>
-      <c r="H511" s="107"/>
-      <c r="I511" s="90"/>
-      <c r="J511" s="90"/>
-      <c r="K511" s="90"/>
-      <c r="L511" s="90"/>
-    </row>
-    <row r="512" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A512" s="104"/>
-      <c r="B512" s="104"/>
-      <c r="C512" s="104"/>
-      <c r="D512" s="90"/>
-      <c r="E512" s="90"/>
-      <c r="F512" s="90"/>
-      <c r="G512" s="90"/>
-      <c r="H512" s="107"/>
-      <c r="I512" s="90"/>
-      <c r="J512" s="90"/>
-      <c r="K512" s="90"/>
-      <c r="L512" s="90"/>
-    </row>
-    <row r="513" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A513" s="104"/>
-      <c r="B513" s="104"/>
-      <c r="C513" s="104"/>
-      <c r="D513" s="90"/>
-      <c r="E513" s="90"/>
-      <c r="F513" s="90"/>
-      <c r="G513" s="90"/>
-      <c r="H513" s="107"/>
-      <c r="I513" s="90"/>
-      <c r="J513" s="90"/>
-      <c r="K513" s="90"/>
-      <c r="L513" s="90"/>
-    </row>
-    <row r="514" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A514" s="104"/>
-      <c r="B514" s="104"/>
-      <c r="C514" s="104"/>
-      <c r="D514" s="90"/>
-      <c r="E514" s="90"/>
-      <c r="F514" s="90"/>
-      <c r="G514" s="90"/>
-      <c r="H514" s="107"/>
-      <c r="I514" s="90"/>
-      <c r="J514" s="90"/>
-      <c r="K514" s="90"/>
-      <c r="L514" s="90"/>
-    </row>
-    <row r="515" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A515" s="104"/>
-      <c r="B515" s="104"/>
-      <c r="C515" s="104"/>
-      <c r="D515" s="90"/>
-      <c r="E515" s="90"/>
-      <c r="F515" s="90"/>
-      <c r="G515" s="90"/>
-      <c r="H515" s="107"/>
-      <c r="I515" s="90"/>
-      <c r="J515" s="90"/>
-      <c r="K515" s="90"/>
-      <c r="L515" s="90"/>
-    </row>
-    <row r="516" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A516" s="104"/>
-      <c r="B516" s="104"/>
-      <c r="C516" s="104"/>
-      <c r="D516" s="90"/>
-      <c r="E516" s="90"/>
-      <c r="F516" s="90"/>
-      <c r="G516" s="90"/>
-      <c r="H516" s="107"/>
-      <c r="I516" s="90"/>
-      <c r="J516" s="90"/>
-      <c r="K516" s="90"/>
-      <c r="L516" s="90"/>
-    </row>
-    <row r="517" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A517" s="104"/>
-      <c r="B517" s="104"/>
-      <c r="C517" s="104"/>
-      <c r="D517" s="90"/>
-      <c r="E517" s="90"/>
-      <c r="F517" s="90"/>
-      <c r="G517" s="90"/>
-      <c r="H517" s="107"/>
-      <c r="I517" s="90"/>
-      <c r="J517" s="90"/>
-      <c r="K517" s="90"/>
-      <c r="L517" s="90"/>
-    </row>
-    <row r="518" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A518" s="104"/>
-      <c r="B518" s="104"/>
-      <c r="C518" s="104"/>
-      <c r="D518" s="90"/>
-      <c r="E518" s="90"/>
-      <c r="F518" s="90"/>
-      <c r="G518" s="90"/>
-      <c r="H518" s="107"/>
-      <c r="I518" s="90"/>
-      <c r="J518" s="90"/>
-      <c r="K518" s="90"/>
-      <c r="L518" s="90"/>
-    </row>
-    <row r="519" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A519" s="104"/>
-      <c r="B519" s="104"/>
-      <c r="C519" s="104"/>
-      <c r="D519" s="90"/>
-      <c r="E519" s="90"/>
-      <c r="F519" s="90"/>
-      <c r="G519" s="90"/>
-      <c r="H519" s="107"/>
-      <c r="I519" s="90"/>
-      <c r="J519" s="90"/>
-      <c r="K519" s="90"/>
-      <c r="L519" s="90"/>
-    </row>
-    <row r="520" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A520" s="104"/>
-      <c r="B520" s="104"/>
-      <c r="C520" s="104"/>
-      <c r="D520" s="90"/>
-      <c r="E520" s="90"/>
-      <c r="F520" s="90"/>
-      <c r="G520" s="90"/>
-      <c r="H520" s="107"/>
-      <c r="I520" s="90"/>
-      <c r="J520" s="90"/>
-      <c r="K520" s="90"/>
-      <c r="L520" s="90"/>
-    </row>
-    <row r="521" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A521" s="104"/>
-      <c r="B521" s="104"/>
-      <c r="C521" s="104"/>
-      <c r="D521" s="90"/>
-      <c r="E521" s="90"/>
-      <c r="F521" s="90"/>
-      <c r="G521" s="90"/>
-      <c r="H521" s="107"/>
-      <c r="I521" s="90"/>
-      <c r="J521" s="90"/>
-      <c r="K521" s="90"/>
-      <c r="L521" s="90"/>
-    </row>
-    <row r="522" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A522" s="90"/>
-      <c r="B522" s="90"/>
-      <c r="C522" s="90"/>
-      <c r="D522" s="90"/>
-      <c r="E522" s="90"/>
-      <c r="F522" s="90"/>
-      <c r="G522" s="90"/>
-      <c r="H522" s="107"/>
-      <c r="I522" s="90"/>
-      <c r="J522" s="90"/>
-      <c r="K522" s="90"/>
-      <c r="L522" s="90"/>
-    </row>
-    <row r="523" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A523" s="90"/>
-      <c r="B523" s="90"/>
-      <c r="C523" s="90"/>
-      <c r="D523" s="90"/>
-      <c r="E523" s="90"/>
-      <c r="F523" s="90"/>
-      <c r="G523" s="90"/>
-      <c r="H523" s="107"/>
-      <c r="I523" s="90"/>
-      <c r="J523" s="90"/>
-      <c r="K523" s="90"/>
-      <c r="L523" s="90"/>
-    </row>
-    <row r="524" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A524" s="90"/>
-      <c r="B524" s="90"/>
-      <c r="C524" s="90"/>
-      <c r="D524" s="90"/>
-      <c r="E524" s="90"/>
-      <c r="F524" s="90"/>
-      <c r="G524" s="90"/>
-      <c r="H524" s="107"/>
-      <c r="I524" s="90"/>
-      <c r="J524" s="90"/>
-      <c r="K524" s="90"/>
-      <c r="L524" s="90"/>
-    </row>
-    <row r="525" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A525" s="90"/>
-      <c r="B525" s="90"/>
-      <c r="C525" s="90"/>
-      <c r="D525" s="90"/>
-      <c r="E525" s="90"/>
-      <c r="F525" s="90"/>
-      <c r="G525" s="90"/>
-      <c r="H525" s="107"/>
-      <c r="I525" s="90"/>
-      <c r="J525" s="90"/>
-      <c r="K525" s="90"/>
-      <c r="L525" s="90"/>
-    </row>
-    <row r="526" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A526" s="90"/>
-      <c r="B526" s="90"/>
-      <c r="C526" s="90"/>
-      <c r="D526" s="90"/>
-      <c r="E526" s="90"/>
-      <c r="F526" s="90"/>
-      <c r="G526" s="90"/>
-      <c r="H526" s="107"/>
-      <c r="I526" s="90"/>
-      <c r="J526" s="90"/>
-      <c r="K526" s="90"/>
-      <c r="L526" s="90"/>
-    </row>
-    <row r="527" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A527" s="90"/>
-      <c r="B527" s="90"/>
-      <c r="C527" s="90"/>
-      <c r="D527" s="90"/>
-      <c r="E527" s="90"/>
-      <c r="F527" s="90"/>
-      <c r="G527" s="90"/>
-      <c r="H527" s="107"/>
-      <c r="I527" s="90"/>
-      <c r="J527" s="90"/>
-      <c r="K527" s="90"/>
-      <c r="L527" s="90"/>
-    </row>
-    <row r="528" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A528" s="90"/>
-      <c r="B528" s="90"/>
-      <c r="C528" s="90"/>
-      <c r="D528" s="90"/>
-      <c r="E528" s="90"/>
-      <c r="F528" s="90"/>
-      <c r="G528" s="90"/>
-      <c r="H528" s="107"/>
-      <c r="I528" s="90"/>
-      <c r="J528" s="90"/>
-      <c r="K528" s="90"/>
-      <c r="L528" s="90"/>
-    </row>
-    <row r="529" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A529" s="90"/>
-      <c r="B529" s="90"/>
-      <c r="C529" s="90"/>
-      <c r="D529" s="90"/>
-      <c r="E529" s="90"/>
-      <c r="F529" s="90"/>
-      <c r="G529" s="90"/>
-      <c r="H529" s="107"/>
-      <c r="I529" s="90"/>
-      <c r="J529" s="90"/>
-      <c r="K529" s="90"/>
-      <c r="L529" s="90"/>
-    </row>
-    <row r="530" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A530" s="90"/>
-      <c r="B530" s="90"/>
-      <c r="C530" s="90"/>
-      <c r="D530" s="90"/>
-      <c r="E530" s="90"/>
-      <c r="F530" s="90"/>
-      <c r="G530" s="90"/>
-      <c r="H530" s="107"/>
-      <c r="I530" s="90"/>
-      <c r="J530" s="90"/>
-      <c r="K530" s="90"/>
-      <c r="L530" s="90"/>
-    </row>
-    <row r="531" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A531" s="90"/>
-      <c r="B531" s="90"/>
-      <c r="C531" s="90"/>
-      <c r="D531" s="90"/>
-      <c r="E531" s="90"/>
-      <c r="F531" s="90"/>
-      <c r="G531" s="90"/>
-      <c r="H531" s="107"/>
-      <c r="I531" s="90"/>
-      <c r="J531" s="90"/>
-      <c r="K531" s="90"/>
-      <c r="L531" s="90"/>
-    </row>
-    <row r="532" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A532" s="90"/>
-      <c r="B532" s="90"/>
-      <c r="C532" s="90"/>
-      <c r="D532" s="90"/>
-      <c r="E532" s="90"/>
-      <c r="F532" s="90"/>
-      <c r="G532" s="90"/>
-      <c r="H532" s="107"/>
-      <c r="I532" s="90"/>
-      <c r="J532" s="90"/>
-      <c r="K532" s="90"/>
-      <c r="L532" s="90"/>
-    </row>
-    <row r="533" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A533" s="90"/>
-      <c r="B533" s="90"/>
-      <c r="C533" s="90"/>
-      <c r="D533" s="90"/>
-      <c r="E533" s="90"/>
-      <c r="F533" s="90"/>
-      <c r="G533" s="90"/>
-      <c r="H533" s="107"/>
-      <c r="I533" s="90"/>
-      <c r="J533" s="90"/>
-      <c r="K533" s="90"/>
-      <c r="L533" s="90"/>
-    </row>
-    <row r="534" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A534" s="90"/>
-      <c r="B534" s="90"/>
-      <c r="C534" s="90"/>
-      <c r="D534" s="90"/>
-      <c r="E534" s="90"/>
-      <c r="F534" s="90"/>
-      <c r="G534" s="90"/>
-      <c r="H534" s="107"/>
-      <c r="I534" s="90"/>
-      <c r="J534" s="90"/>
-      <c r="K534" s="90"/>
-      <c r="L534" s="90"/>
-    </row>
-    <row r="535" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A535" s="90"/>
-      <c r="B535" s="90"/>
-      <c r="C535" s="90"/>
-      <c r="D535" s="90"/>
-      <c r="E535" s="90"/>
-      <c r="F535" s="90"/>
-      <c r="G535" s="90"/>
-      <c r="H535" s="90"/>
-      <c r="I535" s="90"/>
-      <c r="J535" s="90"/>
-      <c r="K535" s="90"/>
-      <c r="L535" s="90"/>
-    </row>
-    <row r="536" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A536" s="90"/>
-      <c r="B536" s="90"/>
-      <c r="C536" s="90"/>
-      <c r="D536" s="90"/>
-      <c r="E536" s="90"/>
-      <c r="F536" s="90"/>
-      <c r="G536" s="90"/>
-      <c r="H536" s="90"/>
-      <c r="I536" s="90"/>
-      <c r="J536" s="90"/>
-      <c r="K536" s="90"/>
-      <c r="L536" s="90"/>
+      <c r="C474" s="108" t="s">
+        <v>884</v>
+      </c>
+      <c r="D474" s="109" t="s">
+        <v>32</v>
+      </c>
+      <c r="E474" s="109"/>
+      <c r="F474" s="109"/>
+      <c r="G474" s="109"/>
+      <c r="H474" s="109"/>
+      <c r="I474" s="109"/>
+      <c r="J474" s="109"/>
+      <c r="K474" s="109"/>
+      <c r="L474" s="109"/>
+    </row>
+    <row r="475" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A475" s="106" t="s">
+        <v>899</v>
+      </c>
+      <c r="B475" s="107" t="s">
+        <v>182</v>
+      </c>
+      <c r="C475" s="108" t="s">
+        <v>887</v>
+      </c>
+      <c r="D475" s="109" t="s">
+        <v>32</v>
+      </c>
+      <c r="E475" s="109"/>
+      <c r="F475" s="109"/>
+      <c r="G475" s="109"/>
+      <c r="H475" s="109"/>
+      <c r="I475" s="109"/>
+      <c r="J475" s="109"/>
+      <c r="K475" s="109"/>
+      <c r="L475" s="109"/>
+    </row>
+    <row r="476" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B476" s="107"/>
+      <c r="C476" s="108"/>
+      <c r="D476" s="109"/>
+      <c r="E476" s="109"/>
+      <c r="F476" s="109"/>
+      <c r="G476" s="109"/>
+      <c r="H476" s="109"/>
+      <c r="I476" s="109"/>
+      <c r="J476" s="109"/>
+      <c r="K476" s="109"/>
+      <c r="L476" s="109"/>
+    </row>
+    <row r="477" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A477" s="122" t="s">
+        <v>900</v>
+      </c>
+      <c r="B477" s="123"/>
+      <c r="C477" s="104"/>
+      <c r="D477" s="105"/>
+      <c r="E477" s="105"/>
+      <c r="F477" s="105"/>
+      <c r="G477" s="105"/>
+      <c r="H477" s="105"/>
+      <c r="I477" s="105"/>
+      <c r="J477" s="105"/>
+      <c r="K477" s="105"/>
+      <c r="L477" s="105"/>
+    </row>
+    <row r="478" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A478" s="106" t="s">
+        <v>901</v>
+      </c>
+      <c r="B478" s="107" t="s">
+        <v>890</v>
+      </c>
+      <c r="C478" s="108" t="s">
+        <v>881</v>
+      </c>
+      <c r="D478" s="109" t="s">
+        <v>32</v>
+      </c>
+      <c r="E478" s="109"/>
+      <c r="F478" s="109"/>
+      <c r="G478" s="109"/>
+      <c r="H478" s="109"/>
+      <c r="I478" s="109"/>
+      <c r="J478" s="109"/>
+      <c r="K478" s="109"/>
+      <c r="L478" s="109"/>
+    </row>
+    <row r="479" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A479" s="106" t="s">
+        <v>902</v>
+      </c>
+      <c r="B479" s="107" t="s">
+        <v>903</v>
+      </c>
+      <c r="C479" s="108" t="s">
+        <v>904</v>
+      </c>
+      <c r="D479" s="109" t="s">
+        <v>32</v>
+      </c>
+      <c r="E479" s="109"/>
+      <c r="F479" s="109"/>
+      <c r="G479" s="109"/>
+      <c r="H479" s="109"/>
+      <c r="I479" s="109"/>
+      <c r="J479" s="109"/>
+      <c r="K479" s="109"/>
+      <c r="L479" s="109"/>
+    </row>
+    <row r="480" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A480" s="106" t="s">
+        <v>905</v>
+      </c>
+      <c r="B480" s="107" t="s">
+        <v>906</v>
+      </c>
+      <c r="C480" s="108" t="s">
+        <v>887</v>
+      </c>
+      <c r="D480" s="109" t="s">
+        <v>32</v>
+      </c>
+      <c r="E480" s="109"/>
+      <c r="F480" s="109"/>
+      <c r="G480" s="109"/>
+      <c r="H480" s="109"/>
+      <c r="I480" s="109"/>
+      <c r="J480" s="109"/>
+      <c r="K480" s="109"/>
+      <c r="L480" s="109"/>
+    </row>
+    <row r="481" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A481" s="106" t="s">
+        <v>907</v>
+      </c>
+      <c r="B481" s="107" t="s">
+        <v>908</v>
+      </c>
+      <c r="C481" s="108" t="s">
+        <v>909</v>
+      </c>
+      <c r="D481" s="109" t="s">
+        <v>32</v>
+      </c>
+      <c r="E481" s="109"/>
+      <c r="F481" s="109"/>
+      <c r="G481" s="109"/>
+      <c r="H481" s="109"/>
+      <c r="I481" s="109"/>
+      <c r="J481" s="109"/>
+      <c r="K481" s="109"/>
+      <c r="L481" s="109"/>
+    </row>
+    <row r="482" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A482" s="106" t="s">
+        <v>910</v>
+      </c>
+      <c r="B482" s="107" t="s">
+        <v>911</v>
+      </c>
+      <c r="C482" s="108" t="s">
+        <v>887</v>
+      </c>
+      <c r="D482" s="109" t="s">
+        <v>32</v>
+      </c>
+      <c r="E482" s="109"/>
+      <c r="F482" s="109"/>
+      <c r="G482" s="109"/>
+      <c r="H482" s="109"/>
+      <c r="I482" s="109"/>
+      <c r="J482" s="109"/>
+      <c r="K482" s="109"/>
+      <c r="L482" s="109" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="483" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B483" s="107"/>
+      <c r="C483" s="108"/>
+      <c r="D483" s="109"/>
+      <c r="E483" s="109"/>
+      <c r="F483" s="109"/>
+      <c r="G483" s="109"/>
+      <c r="H483" s="109"/>
+      <c r="I483" s="109"/>
+      <c r="J483" s="109"/>
+      <c r="K483" s="109"/>
+      <c r="L483" s="109"/>
+    </row>
+    <row r="484" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A484" s="122" t="s">
+        <v>933</v>
+      </c>
+      <c r="B484" s="123"/>
+      <c r="C484" s="104"/>
+      <c r="D484" s="105"/>
+      <c r="E484" s="105"/>
+      <c r="F484" s="105"/>
+      <c r="G484" s="105"/>
+      <c r="H484" s="105"/>
+      <c r="I484" s="105"/>
+      <c r="J484" s="105"/>
+      <c r="K484" s="105"/>
+      <c r="L484" s="105"/>
+    </row>
+    <row r="485" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A485" s="106" t="s">
+        <v>934</v>
+      </c>
+      <c r="B485" s="107" t="s">
+        <v>890</v>
+      </c>
+      <c r="C485" s="108" t="s">
+        <v>881</v>
+      </c>
+      <c r="D485" s="109" t="s">
+        <v>32</v>
+      </c>
+      <c r="E485" s="109"/>
+      <c r="F485" s="109"/>
+      <c r="G485" s="109"/>
+      <c r="H485" s="109"/>
+      <c r="I485" s="109"/>
+      <c r="J485" s="109"/>
+      <c r="K485" s="109"/>
+      <c r="L485" s="109"/>
+    </row>
+    <row r="486" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A486" s="106" t="s">
+        <v>935</v>
+      </c>
+      <c r="B486" s="107" t="s">
+        <v>883</v>
+      </c>
+      <c r="C486" s="108" t="s">
+        <v>884</v>
+      </c>
+      <c r="D486" s="109" t="s">
+        <v>32</v>
+      </c>
+      <c r="E486" s="109"/>
+      <c r="F486" s="109"/>
+      <c r="G486" s="109"/>
+      <c r="H486" s="109"/>
+      <c r="I486" s="109"/>
+      <c r="J486" s="109"/>
+      <c r="K486" s="109"/>
+      <c r="L486" s="109"/>
+    </row>
+    <row r="487" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A487" s="106" t="s">
+        <v>936</v>
+      </c>
+      <c r="B487" s="107" t="s">
+        <v>886</v>
+      </c>
+      <c r="C487" s="108" t="s">
+        <v>887</v>
+      </c>
+      <c r="D487" s="109" t="s">
+        <v>32</v>
+      </c>
+      <c r="E487" s="109"/>
+      <c r="F487" s="109"/>
+      <c r="G487" s="109"/>
+      <c r="H487" s="109"/>
+      <c r="I487" s="109"/>
+      <c r="J487" s="109"/>
+      <c r="K487" s="109"/>
+      <c r="L487" s="109"/>
+    </row>
+    <row r="488" spans="1:12" s="115" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A488" s="106"/>
+      <c r="B488" s="107"/>
+      <c r="C488" s="108"/>
+      <c r="D488" s="109"/>
+      <c r="E488" s="109"/>
+      <c r="F488" s="109"/>
+      <c r="G488" s="109"/>
+      <c r="H488" s="109"/>
+      <c r="I488" s="109"/>
+      <c r="J488" s="109"/>
+      <c r="K488" s="109"/>
+      <c r="L488" s="109"/>
+    </row>
+    <row r="489" spans="1:12" s="115" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A489" s="106"/>
+      <c r="B489" s="107"/>
+      <c r="C489" s="108"/>
+      <c r="D489" s="109"/>
+      <c r="E489" s="109"/>
+      <c r="F489" s="109"/>
+      <c r="G489" s="109"/>
+      <c r="H489" s="109"/>
+      <c r="I489" s="109"/>
+      <c r="J489" s="109"/>
+      <c r="K489" s="109"/>
+      <c r="L489" s="109"/>
+    </row>
+    <row r="490" spans="1:12" s="115" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A490" s="106"/>
+      <c r="B490" s="107"/>
+      <c r="C490" s="108"/>
+      <c r="D490" s="109"/>
+      <c r="E490" s="109"/>
+      <c r="F490" s="109"/>
+      <c r="G490" s="109"/>
+      <c r="H490" s="109"/>
+      <c r="I490" s="109"/>
+      <c r="J490" s="109"/>
+      <c r="K490" s="109"/>
+      <c r="L490" s="109"/>
+    </row>
+    <row r="491" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A491" s="106"/>
+      <c r="B491" s="107"/>
+      <c r="C491" s="108"/>
+      <c r="D491" s="109"/>
+      <c r="E491" s="109"/>
+      <c r="F491" s="109"/>
+      <c r="G491" s="109"/>
+      <c r="H491" s="109"/>
+      <c r="I491" s="109"/>
+      <c r="J491" s="109"/>
+      <c r="K491" s="109"/>
+      <c r="L491" s="109"/>
+    </row>
+    <row r="492" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A492" s="106"/>
+      <c r="B492" s="107"/>
+      <c r="C492" s="108"/>
+      <c r="D492" s="109"/>
+      <c r="E492" s="109"/>
+      <c r="F492" s="109"/>
+      <c r="G492" s="109"/>
+      <c r="H492" s="109"/>
+      <c r="I492" s="109"/>
+      <c r="J492" s="109"/>
+      <c r="K492" s="109"/>
+      <c r="L492" s="109"/>
+    </row>
+    <row r="493" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A493" s="106"/>
+      <c r="B493" s="107"/>
+      <c r="C493" s="108"/>
+      <c r="D493" s="109"/>
+      <c r="E493" s="109"/>
+      <c r="F493" s="109"/>
+      <c r="G493" s="109"/>
+      <c r="H493" s="109"/>
+      <c r="I493" s="109"/>
+      <c r="J493" s="109"/>
+      <c r="K493" s="109"/>
+      <c r="L493" s="109"/>
+    </row>
+    <row r="494" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A494" s="106"/>
+      <c r="B494" s="107" t="s">
+        <v>913</v>
+      </c>
+      <c r="C494" s="108"/>
+      <c r="D494" s="109"/>
+      <c r="E494" s="109"/>
+      <c r="F494" s="109"/>
+      <c r="G494" s="109"/>
+      <c r="H494" s="109"/>
+      <c r="I494" s="109"/>
+      <c r="J494" s="109"/>
+      <c r="K494" s="109"/>
+      <c r="L494" s="109"/>
+    </row>
+    <row r="495" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A495" s="106"/>
+      <c r="B495" s="107" t="s">
+        <v>914</v>
+      </c>
+      <c r="C495" s="108"/>
+      <c r="D495" s="109"/>
+      <c r="E495" s="109"/>
+      <c r="F495" s="109"/>
+      <c r="G495" s="109"/>
+      <c r="H495" s="109"/>
+      <c r="I495" s="109"/>
+      <c r="J495" s="109"/>
+      <c r="K495" s="109"/>
+      <c r="L495" s="109"/>
+    </row>
+    <row r="496" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A496" s="106"/>
+      <c r="B496" s="107" t="s">
+        <v>915</v>
+      </c>
+      <c r="C496" s="108"/>
+      <c r="D496" s="109"/>
+      <c r="E496" s="109"/>
+      <c r="F496" s="109"/>
+      <c r="G496" s="109"/>
+      <c r="H496" s="109"/>
+      <c r="I496" s="109"/>
+      <c r="J496" s="109"/>
+      <c r="K496" s="109"/>
+      <c r="L496" s="109"/>
+    </row>
+    <row r="497" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A497" s="106"/>
+      <c r="B497" s="107" t="s">
+        <v>916</v>
+      </c>
+      <c r="C497" s="108"/>
+      <c r="D497" s="109"/>
+      <c r="E497" s="109"/>
+      <c r="F497" s="109"/>
+      <c r="G497" s="109"/>
+      <c r="H497" s="109"/>
+      <c r="I497" s="109"/>
+      <c r="J497" s="109"/>
+      <c r="K497" s="109"/>
+      <c r="L497" s="109"/>
+    </row>
+    <row r="498" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A498" s="106"/>
+      <c r="B498" s="107" t="s">
+        <v>917</v>
+      </c>
+      <c r="C498" s="108"/>
+      <c r="D498" s="109"/>
+      <c r="E498" s="109"/>
+      <c r="F498" s="109"/>
+      <c r="G498" s="109"/>
+      <c r="H498" s="109"/>
+      <c r="I498" s="109"/>
+      <c r="J498" s="109"/>
+      <c r="K498" s="109"/>
+      <c r="L498" s="109"/>
+    </row>
+    <row r="499" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A499" s="106"/>
+      <c r="B499" s="107" t="s">
+        <v>918</v>
+      </c>
+      <c r="C499" s="108"/>
+      <c r="D499" s="109"/>
+      <c r="E499" s="109"/>
+      <c r="F499" s="109"/>
+      <c r="G499" s="109"/>
+      <c r="H499" s="109"/>
+      <c r="I499" s="109"/>
+      <c r="J499" s="109"/>
+      <c r="K499" s="109"/>
+      <c r="L499" s="109"/>
+    </row>
+    <row r="500" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A500" s="106"/>
+      <c r="B500" s="107" t="s">
+        <v>919</v>
+      </c>
+      <c r="C500" s="108"/>
+      <c r="D500" s="109"/>
+      <c r="E500" s="109"/>
+      <c r="F500" s="109"/>
+      <c r="G500" s="109"/>
+      <c r="H500" s="109"/>
+      <c r="I500" s="109"/>
+      <c r="J500" s="109"/>
+      <c r="K500" s="109"/>
+      <c r="L500" s="109"/>
+    </row>
+    <row r="501" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A501" s="106"/>
+      <c r="B501" s="107" t="s">
+        <v>920</v>
+      </c>
+      <c r="C501" s="108"/>
+      <c r="D501" s="109"/>
+      <c r="E501" s="109"/>
+      <c r="F501" s="109"/>
+      <c r="G501" s="109"/>
+      <c r="H501" s="109"/>
+      <c r="I501" s="109"/>
+      <c r="J501" s="109"/>
+      <c r="K501" s="109"/>
+      <c r="L501" s="109"/>
+    </row>
+    <row r="502" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A502" s="106"/>
+      <c r="B502" s="107" t="s">
+        <v>921</v>
+      </c>
+      <c r="C502" s="108"/>
+      <c r="D502" s="109"/>
+      <c r="E502" s="109"/>
+      <c r="F502" s="109"/>
+      <c r="G502" s="109"/>
+      <c r="H502" s="109"/>
+      <c r="I502" s="109"/>
+      <c r="J502" s="109"/>
+      <c r="K502" s="109"/>
+      <c r="L502" s="109"/>
+    </row>
+    <row r="503" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A503" s="106"/>
+      <c r="B503" s="107" t="s">
+        <v>922</v>
+      </c>
+      <c r="C503" s="108"/>
+      <c r="D503" s="109"/>
+      <c r="E503" s="109"/>
+      <c r="F503" s="109"/>
+      <c r="G503" s="109"/>
+      <c r="H503" s="109"/>
+      <c r="I503" s="109"/>
+      <c r="J503" s="109"/>
+      <c r="K503" s="109"/>
+      <c r="L503" s="109"/>
+    </row>
+    <row r="504" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A504" s="106"/>
+      <c r="B504" s="107" t="s">
+        <v>923</v>
+      </c>
+      <c r="C504" s="108"/>
+      <c r="D504" s="109"/>
+      <c r="E504" s="109"/>
+      <c r="F504" s="109"/>
+      <c r="G504" s="109"/>
+      <c r="H504" s="109"/>
+      <c r="I504" s="109"/>
+      <c r="J504" s="109"/>
+      <c r="K504" s="109"/>
+      <c r="L504" s="109"/>
+    </row>
+    <row r="505" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A505" s="106"/>
+      <c r="B505" s="107" t="s">
+        <v>924</v>
+      </c>
+      <c r="C505" s="108"/>
+      <c r="D505" s="109"/>
+      <c r="E505" s="109"/>
+      <c r="F505" s="109"/>
+      <c r="G505" s="109"/>
+      <c r="H505" s="109"/>
+      <c r="I505" s="109"/>
+      <c r="J505" s="109"/>
+      <c r="K505" s="109"/>
+      <c r="L505" s="109"/>
+    </row>
+    <row r="506" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A506" s="106"/>
+      <c r="B506" s="107" t="s">
+        <v>925</v>
+      </c>
+      <c r="C506" s="108"/>
+      <c r="D506" s="109"/>
+      <c r="E506" s="109"/>
+      <c r="F506" s="109"/>
+      <c r="G506" s="109"/>
+      <c r="H506" s="109"/>
+      <c r="I506" s="109"/>
+      <c r="J506" s="109"/>
+      <c r="K506" s="109"/>
+      <c r="L506" s="109"/>
+    </row>
+    <row r="507" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A507" s="106"/>
+      <c r="B507" s="107" t="s">
+        <v>926</v>
+      </c>
+      <c r="C507" s="108"/>
+      <c r="D507" s="109"/>
+      <c r="E507" s="109"/>
+      <c r="F507" s="109"/>
+      <c r="G507" s="109"/>
+      <c r="H507" s="109"/>
+      <c r="I507" s="109"/>
+      <c r="J507" s="109"/>
+      <c r="K507" s="109"/>
+      <c r="L507" s="109"/>
+    </row>
+    <row r="508" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A508" s="106"/>
+      <c r="B508" s="107" t="s">
+        <v>926</v>
+      </c>
+      <c r="C508" s="108"/>
+      <c r="D508" s="109"/>
+      <c r="E508" s="109"/>
+      <c r="F508" s="109"/>
+      <c r="G508" s="109"/>
+      <c r="H508" s="109"/>
+      <c r="I508" s="109"/>
+      <c r="J508" s="109"/>
+      <c r="K508" s="109"/>
+      <c r="L508" s="109"/>
+    </row>
+    <row r="509" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A509" s="106"/>
+      <c r="B509" s="107" t="s">
+        <v>927</v>
+      </c>
+      <c r="C509" s="108"/>
+      <c r="D509" s="109"/>
+      <c r="E509" s="109"/>
+      <c r="F509" s="109"/>
+      <c r="G509" s="109"/>
+      <c r="H509" s="109"/>
+      <c r="I509" s="109"/>
+      <c r="J509" s="109"/>
+      <c r="K509" s="109"/>
+      <c r="L509" s="109"/>
+    </row>
+    <row r="510" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A510" s="106"/>
+      <c r="B510" s="107" t="s">
+        <v>928</v>
+      </c>
+      <c r="C510" s="108"/>
+      <c r="D510" s="109"/>
+      <c r="E510" s="109"/>
+      <c r="F510" s="109"/>
+      <c r="G510" s="109"/>
+      <c r="H510" s="109"/>
+      <c r="I510" s="109"/>
+      <c r="J510" s="109"/>
+      <c r="K510" s="109"/>
+      <c r="L510" s="109"/>
+    </row>
+    <row r="511" spans="1:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A511" s="106"/>
+      <c r="B511" s="107" t="s">
+        <v>929</v>
+      </c>
+      <c r="C511" s="108"/>
+      <c r="D511" s="109"/>
+      <c r="E511" s="109"/>
+      <c r="F511" s="109"/>
+      <c r="G511" s="109"/>
+      <c r="H511" s="109"/>
+      <c r="I511" s="109"/>
+      <c r="J511" s="109"/>
+      <c r="K511" s="109"/>
+      <c r="L511" s="109"/>
+    </row>
+    <row r="512" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A512" s="110"/>
+      <c r="B512" s="111" t="s">
+        <v>930</v>
+      </c>
+      <c r="C512" s="112"/>
+      <c r="D512" s="113"/>
+      <c r="E512" s="113"/>
+      <c r="F512" s="113"/>
+      <c r="G512" s="113"/>
+      <c r="H512" s="113"/>
+      <c r="I512" s="113"/>
+      <c r="J512" s="113"/>
+      <c r="K512" s="113"/>
+      <c r="L512" s="113"/>
+    </row>
+    <row r="513" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A513" s="110"/>
+      <c r="B513" s="111" t="s">
+        <v>931</v>
+      </c>
+      <c r="C513" s="112"/>
+      <c r="D513" s="113"/>
+      <c r="E513" s="113"/>
+      <c r="F513" s="113"/>
+      <c r="G513" s="113"/>
+      <c r="H513" s="113"/>
+      <c r="I513" s="113"/>
+      <c r="J513" s="113"/>
+      <c r="K513" s="113"/>
+      <c r="L513" s="113"/>
+    </row>
+    <row r="514" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A514" s="110"/>
+      <c r="B514" s="114" t="s">
+        <v>932</v>
+      </c>
+      <c r="C514" s="112"/>
+      <c r="D514" s="113"/>
+      <c r="E514" s="113"/>
+      <c r="F514" s="113"/>
+      <c r="G514" s="113"/>
+      <c r="H514" s="113"/>
+      <c r="I514" s="113"/>
+      <c r="J514" s="113"/>
+      <c r="K514" s="113"/>
+      <c r="L514" s="113"/>
+    </row>
+    <row r="515" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H515"/>
+      <c r="I515"/>
+    </row>
+    <row r="516" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H516"/>
+      <c r="I516"/>
+    </row>
+    <row r="517" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H517"/>
+      <c r="I517"/>
+    </row>
+    <row r="518" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H518"/>
+      <c r="I518"/>
+    </row>
+    <row r="519" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H519"/>
+      <c r="I519"/>
+    </row>
+    <row r="520" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H520"/>
+      <c r="I520"/>
+    </row>
+    <row r="521" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H521"/>
+      <c r="I521"/>
+    </row>
+    <row r="522" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H522"/>
+      <c r="I522"/>
+    </row>
+    <row r="523" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H523"/>
+      <c r="I523"/>
+    </row>
+    <row r="524" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H524"/>
+      <c r="I524"/>
+    </row>
+    <row r="525" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H525"/>
+      <c r="I525"/>
+    </row>
+    <row r="526" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H526"/>
+      <c r="I526"/>
+    </row>
+    <row r="527" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H527"/>
+      <c r="I527"/>
+    </row>
+    <row r="528" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H528"/>
+      <c r="I528"/>
+    </row>
+    <row r="529" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H529"/>
+      <c r="I529"/>
+    </row>
+    <row r="530" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H530"/>
+      <c r="I530"/>
+    </row>
+    <row r="531" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H531"/>
+      <c r="I531"/>
+    </row>
+    <row r="532" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H532"/>
+      <c r="I532"/>
+    </row>
+    <row r="533" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H533"/>
+      <c r="I533"/>
+    </row>
+    <row r="534" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H534"/>
+      <c r="I534"/>
+    </row>
+    <row r="535" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H535"/>
+      <c r="I535"/>
+    </row>
+    <row r="536" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H536"/>
+      <c r="I536"/>
+    </row>
+    <row r="537" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H537"/>
+      <c r="I537"/>
+    </row>
+    <row r="538" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H538"/>
+      <c r="I538"/>
+    </row>
+    <row r="539" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H539"/>
+      <c r="I539"/>
+    </row>
+    <row r="540" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H540"/>
+      <c r="I540"/>
+    </row>
+    <row r="541" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H541"/>
+      <c r="I541"/>
+    </row>
+    <row r="542" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H542"/>
+      <c r="I542"/>
+    </row>
+    <row r="543" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H543"/>
+      <c r="I543"/>
+    </row>
+    <row r="544" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H544"/>
+      <c r="I544"/>
+    </row>
+    <row r="545" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H545"/>
+      <c r="I545"/>
+    </row>
+    <row r="546" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H546"/>
+      <c r="I546"/>
+    </row>
+    <row r="547" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H547"/>
+      <c r="I547"/>
+    </row>
+    <row r="548" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H548"/>
+      <c r="I548"/>
+    </row>
+    <row r="549" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H549"/>
+      <c r="I549"/>
+    </row>
+    <row r="550" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H550"/>
+      <c r="I550"/>
+    </row>
+    <row r="551" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H551"/>
+      <c r="I551"/>
+    </row>
+    <row r="552" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H552"/>
+      <c r="I552"/>
+    </row>
+    <row r="553" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H553"/>
+      <c r="I553"/>
+    </row>
+    <row r="554" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H554"/>
+      <c r="I554"/>
+    </row>
+    <row r="555" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H555"/>
+      <c r="I555"/>
+    </row>
+    <row r="556" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H556"/>
+      <c r="I556"/>
+    </row>
+    <row r="557" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H557"/>
+      <c r="I557"/>
+    </row>
+    <row r="558" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H558"/>
+      <c r="I558"/>
+    </row>
+    <row r="559" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H559"/>
+      <c r="I559"/>
+    </row>
+    <row r="560" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H560"/>
+      <c r="I560"/>
+    </row>
+    <row r="561" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H561"/>
+      <c r="I561"/>
+    </row>
+    <row r="562" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H562"/>
+      <c r="I562"/>
+    </row>
+    <row r="563" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H563"/>
+      <c r="I563"/>
+    </row>
+    <row r="564" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H564"/>
+      <c r="I564"/>
+    </row>
+    <row r="565" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H565"/>
+      <c r="I565"/>
+    </row>
+    <row r="566" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H566"/>
+      <c r="I566"/>
+    </row>
+    <row r="567" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H567"/>
+      <c r="I567"/>
+    </row>
+    <row r="568" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H568"/>
+      <c r="I568"/>
+    </row>
+    <row r="569" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H569"/>
+      <c r="I569"/>
+    </row>
+    <row r="570" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H570"/>
+      <c r="I570"/>
+    </row>
+    <row r="571" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H571"/>
+      <c r="I571"/>
+    </row>
+    <row r="572" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H572"/>
+      <c r="I572"/>
+    </row>
+    <row r="573" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H573"/>
+      <c r="I573"/>
+    </row>
+    <row r="574" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H574"/>
+      <c r="I574"/>
+    </row>
+    <row r="575" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H575"/>
+      <c r="I575"/>
+    </row>
+    <row r="576" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H576"/>
+      <c r="I576"/>
+    </row>
+    <row r="577" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H577"/>
+      <c r="I577"/>
+    </row>
+    <row r="578" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H578"/>
+      <c r="I578"/>
+    </row>
+    <row r="579" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H579"/>
+      <c r="I579"/>
+    </row>
+    <row r="580" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H580"/>
+      <c r="I580"/>
+    </row>
+    <row r="581" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H581"/>
+      <c r="I581"/>
+    </row>
+    <row r="582" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H582"/>
+      <c r="I582"/>
+    </row>
+    <row r="583" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H583"/>
+      <c r="I583"/>
+    </row>
+    <row r="584" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H584"/>
+      <c r="I584"/>
+    </row>
+    <row r="585" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H585"/>
+      <c r="I585"/>
+    </row>
+    <row r="586" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H586"/>
+      <c r="I586"/>
+    </row>
+    <row r="587" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H587"/>
+      <c r="I587"/>
+    </row>
+    <row r="588" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H588"/>
+      <c r="I588"/>
+    </row>
+    <row r="589" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H589"/>
+      <c r="I589"/>
+    </row>
+    <row r="590" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H590"/>
+      <c r="I590"/>
+    </row>
+    <row r="591" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H591"/>
+      <c r="I591"/>
+    </row>
+    <row r="592" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H592"/>
+      <c r="I592"/>
+    </row>
+    <row r="593" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H593"/>
+      <c r="I593"/>
+    </row>
+    <row r="594" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H594"/>
+      <c r="I594"/>
+    </row>
+    <row r="595" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H595"/>
+      <c r="I595"/>
+    </row>
+    <row r="596" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H596"/>
+      <c r="I596"/>
+    </row>
+    <row r="597" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H597"/>
+      <c r="I597"/>
+    </row>
+    <row r="598" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H598"/>
+      <c r="I598"/>
+    </row>
+    <row r="599" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H599"/>
+      <c r="I599"/>
+    </row>
+    <row r="600" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H600"/>
+      <c r="I600"/>
+    </row>
+    <row r="601" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H601"/>
+      <c r="I601"/>
+    </row>
+    <row r="602" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H602"/>
+      <c r="I602"/>
+    </row>
+    <row r="603" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H603"/>
+      <c r="I603"/>
+    </row>
+    <row r="604" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H604"/>
+      <c r="I604"/>
+    </row>
+    <row r="605" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H605"/>
+      <c r="I605"/>
+    </row>
+    <row r="606" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H606"/>
+      <c r="I606"/>
+    </row>
+    <row r="607" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H607"/>
+      <c r="I607"/>
+    </row>
+    <row r="608" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H608"/>
+      <c r="I608"/>
+    </row>
+    <row r="609" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H609"/>
+      <c r="I609"/>
+    </row>
+    <row r="610" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H610"/>
+      <c r="I610"/>
+    </row>
+    <row r="611" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H611"/>
+      <c r="I611"/>
+    </row>
+    <row r="612" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H612"/>
+      <c r="I612"/>
+    </row>
+    <row r="613" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H613"/>
+      <c r="I613"/>
+    </row>
+    <row r="614" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H614"/>
+      <c r="I614"/>
+    </row>
+    <row r="615" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H615"/>
+      <c r="I615"/>
+    </row>
+    <row r="616" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H616"/>
+      <c r="I616"/>
+    </row>
+    <row r="617" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H617"/>
+      <c r="I617"/>
+    </row>
+    <row r="618" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H618"/>
+      <c r="I618"/>
+    </row>
+    <row r="619" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H619"/>
+      <c r="I619"/>
+    </row>
+    <row r="620" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H620"/>
+      <c r="I620"/>
+    </row>
+    <row r="621" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H621"/>
+      <c r="I621"/>
+    </row>
+    <row r="622" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H622"/>
+      <c r="I622"/>
+    </row>
+    <row r="623" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H623"/>
+      <c r="I623"/>
+    </row>
+    <row r="624" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H624"/>
+      <c r="I624"/>
+    </row>
+    <row r="625" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H625"/>
+      <c r="I625"/>
+    </row>
+    <row r="626" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H626"/>
+      <c r="I626"/>
+    </row>
+    <row r="627" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H627"/>
+      <c r="I627"/>
+    </row>
+    <row r="628" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H628"/>
+      <c r="I628"/>
+    </row>
+    <row r="629" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H629"/>
+      <c r="I629"/>
+    </row>
+    <row r="630" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H630"/>
+      <c r="I630"/>
+    </row>
+    <row r="631" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H631"/>
+      <c r="I631"/>
+    </row>
+    <row r="632" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H632"/>
+      <c r="I632"/>
+    </row>
+    <row r="633" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H633"/>
+      <c r="I633"/>
+    </row>
+    <row r="634" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H634"/>
+      <c r="I634"/>
+    </row>
+    <row r="635" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H635"/>
+      <c r="I635"/>
+    </row>
+    <row r="636" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H636"/>
+      <c r="I636"/>
+    </row>
+    <row r="637" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H637"/>
+      <c r="I637"/>
+    </row>
+    <row r="638" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H638"/>
+      <c r="I638"/>
+    </row>
+    <row r="639" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H639"/>
+      <c r="I639"/>
+    </row>
+    <row r="640" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H640"/>
+      <c r="I640"/>
+    </row>
+    <row r="641" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H641"/>
+      <c r="I641"/>
+    </row>
+    <row r="642" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H642"/>
+      <c r="I642"/>
+    </row>
+    <row r="643" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H643"/>
+      <c r="I643"/>
+    </row>
+    <row r="644" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H644"/>
+      <c r="I644"/>
+    </row>
+    <row r="645" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H645"/>
+      <c r="I645"/>
+    </row>
+    <row r="646" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H646"/>
+      <c r="I646"/>
+    </row>
+    <row r="647" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H647"/>
+      <c r="I647"/>
+    </row>
+    <row r="648" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H648"/>
+      <c r="I648"/>
+    </row>
+    <row r="649" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H649"/>
+      <c r="I649"/>
+    </row>
+    <row r="650" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H650"/>
+      <c r="I650"/>
+    </row>
+    <row r="651" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H651"/>
+      <c r="I651"/>
+    </row>
+    <row r="652" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H652"/>
+      <c r="I652"/>
+    </row>
+    <row r="653" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H653"/>
+      <c r="I653"/>
+    </row>
+    <row r="654" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H654"/>
+      <c r="I654"/>
+    </row>
+    <row r="655" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H655"/>
+      <c r="I655"/>
+    </row>
+    <row r="656" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H656"/>
+      <c r="I656"/>
+    </row>
+    <row r="657" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H657"/>
+      <c r="I657"/>
+    </row>
+    <row r="658" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H658"/>
+      <c r="I658"/>
+    </row>
+    <row r="659" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H659"/>
+      <c r="I659"/>
+    </row>
+    <row r="660" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H660"/>
+      <c r="I660"/>
+    </row>
+    <row r="661" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H661"/>
+      <c r="I661"/>
+    </row>
+    <row r="662" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H662"/>
+      <c r="I662"/>
+    </row>
+    <row r="663" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H663"/>
+      <c r="I663"/>
+    </row>
+    <row r="664" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H664"/>
+      <c r="I664"/>
+    </row>
+    <row r="665" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H665"/>
+      <c r="I665"/>
+    </row>
+    <row r="666" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H666"/>
+      <c r="I666"/>
+    </row>
+    <row r="667" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H667"/>
+      <c r="I667"/>
+    </row>
+    <row r="668" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H668"/>
+      <c r="I668"/>
+    </row>
+    <row r="669" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H669"/>
+      <c r="I669"/>
+    </row>
+    <row r="670" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H670"/>
+      <c r="I670"/>
+    </row>
+    <row r="671" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H671"/>
+      <c r="I671"/>
+    </row>
+    <row r="672" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H672"/>
+      <c r="I672"/>
+    </row>
+    <row r="673" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H673"/>
+      <c r="I673"/>
+    </row>
+    <row r="674" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H674"/>
+      <c r="I674"/>
+    </row>
+    <row r="675" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H675"/>
+      <c r="I675"/>
+    </row>
+    <row r="676" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H676"/>
+      <c r="I676"/>
+    </row>
+    <row r="677" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H677"/>
+      <c r="I677"/>
+    </row>
+    <row r="678" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H678"/>
+      <c r="I678"/>
+    </row>
+    <row r="679" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H679"/>
+      <c r="I679"/>
+    </row>
+    <row r="680" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H680"/>
+      <c r="I680"/>
+    </row>
+    <row r="681" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H681"/>
+      <c r="I681"/>
+    </row>
+    <row r="682" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H682"/>
+      <c r="I682"/>
+    </row>
+    <row r="683" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H683"/>
+      <c r="I683"/>
+    </row>
+    <row r="684" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H684"/>
+      <c r="I684"/>
+    </row>
+    <row r="685" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H685"/>
+      <c r="I685"/>
+    </row>
+    <row r="686" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H686"/>
+      <c r="I686"/>
+    </row>
+    <row r="687" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H687"/>
+      <c r="I687"/>
+    </row>
+    <row r="688" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H688"/>
+      <c r="I688"/>
+    </row>
+    <row r="689" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H689"/>
+      <c r="I689"/>
+    </row>
+    <row r="690" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H690"/>
+      <c r="I690"/>
+    </row>
+    <row r="691" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H691"/>
+      <c r="I691"/>
+    </row>
+    <row r="692" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H692"/>
+      <c r="I692"/>
+    </row>
+    <row r="693" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H693"/>
+      <c r="I693"/>
+    </row>
+    <row r="694" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H694"/>
+      <c r="I694"/>
+    </row>
+    <row r="695" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H695"/>
+      <c r="I695"/>
+    </row>
+    <row r="696" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H696"/>
+      <c r="I696"/>
+    </row>
+    <row r="697" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H697"/>
+      <c r="I697"/>
+    </row>
+    <row r="698" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H698"/>
+      <c r="I698"/>
+    </row>
+    <row r="699" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H699"/>
+      <c r="I699"/>
+    </row>
+    <row r="700" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H700"/>
+      <c r="I700"/>
+    </row>
+    <row r="701" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H701"/>
+      <c r="I701"/>
+    </row>
+    <row r="702" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H702"/>
+      <c r="I702"/>
+    </row>
+    <row r="703" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H703"/>
+      <c r="I703"/>
+    </row>
+    <row r="704" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H704"/>
+      <c r="I704"/>
+    </row>
+    <row r="705" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H705"/>
+      <c r="I705"/>
+    </row>
+    <row r="706" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H706"/>
+      <c r="I706"/>
+    </row>
+    <row r="707" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H707"/>
+      <c r="I707"/>
+    </row>
+    <row r="708" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H708"/>
+      <c r="I708"/>
+    </row>
+    <row r="709" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H709"/>
+      <c r="I709"/>
+    </row>
+    <row r="710" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H710"/>
+      <c r="I710"/>
+    </row>
+    <row r="711" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H711"/>
+      <c r="I711"/>
+    </row>
+    <row r="712" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H712"/>
+      <c r="I712"/>
+    </row>
+    <row r="713" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H713"/>
+      <c r="I713"/>
+    </row>
+    <row r="714" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H714"/>
+      <c r="I714"/>
+    </row>
+    <row r="715" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H715"/>
+      <c r="I715"/>
+    </row>
+    <row r="716" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H716"/>
+      <c r="I716"/>
+    </row>
+    <row r="717" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H717"/>
+      <c r="I717"/>
+    </row>
+    <row r="718" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H718"/>
+      <c r="I718"/>
+    </row>
+    <row r="719" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H719"/>
+      <c r="I719"/>
+    </row>
+    <row r="720" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H720"/>
+      <c r="I720"/>
+    </row>
+    <row r="721" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H721"/>
+      <c r="I721"/>
+    </row>
+    <row r="722" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H722"/>
+      <c r="I722"/>
+    </row>
+    <row r="723" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H723"/>
+      <c r="I723"/>
+    </row>
+    <row r="724" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H724"/>
+      <c r="I724"/>
+    </row>
+    <row r="725" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H725"/>
+      <c r="I725"/>
+    </row>
+    <row r="726" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H726"/>
+      <c r="I726"/>
+    </row>
+    <row r="727" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H727"/>
+      <c r="I727"/>
+    </row>
+    <row r="728" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H728"/>
+      <c r="I728"/>
+    </row>
+    <row r="729" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H729"/>
+      <c r="I729"/>
+    </row>
+    <row r="730" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H730"/>
+      <c r="I730"/>
+    </row>
+    <row r="731" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H731"/>
+      <c r="I731"/>
+    </row>
+    <row r="732" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H732"/>
+      <c r="I732"/>
+    </row>
+    <row r="733" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H733"/>
+      <c r="I733"/>
+    </row>
+    <row r="734" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H734"/>
+      <c r="I734"/>
+    </row>
+    <row r="735" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H735"/>
+      <c r="I735"/>
+    </row>
+    <row r="736" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H736"/>
+      <c r="I736"/>
+    </row>
+    <row r="737" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H737"/>
+      <c r="I737"/>
+    </row>
+    <row r="738" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H738"/>
+      <c r="I738"/>
+    </row>
+    <row r="739" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H739"/>
+      <c r="I739"/>
+    </row>
+    <row r="740" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H740"/>
+      <c r="I740"/>
+    </row>
+    <row r="741" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H741"/>
+      <c r="I741"/>
+    </row>
+    <row r="742" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H742"/>
+      <c r="I742"/>
+    </row>
+    <row r="743" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H743"/>
+      <c r="I743"/>
+    </row>
+    <row r="744" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H744"/>
+      <c r="I744"/>
+    </row>
+    <row r="745" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H745"/>
+      <c r="I745"/>
+    </row>
+    <row r="746" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H746"/>
+      <c r="I746"/>
+    </row>
+    <row r="747" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H747"/>
+      <c r="I747"/>
+    </row>
+    <row r="748" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H748"/>
+      <c r="I748"/>
+    </row>
+    <row r="749" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H749"/>
+      <c r="I749"/>
+    </row>
+    <row r="750" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H750"/>
+      <c r="I750"/>
+    </row>
+    <row r="751" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H751"/>
+      <c r="I751"/>
+    </row>
+    <row r="752" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H752"/>
+      <c r="I752"/>
+    </row>
+    <row r="753" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H753"/>
+      <c r="I753"/>
+    </row>
+    <row r="754" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H754"/>
+      <c r="I754"/>
+    </row>
+    <row r="755" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H755"/>
+      <c r="I755"/>
+    </row>
+    <row r="756" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H756"/>
+      <c r="I756"/>
+    </row>
+    <row r="757" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H757"/>
+      <c r="I757"/>
+    </row>
+    <row r="758" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H758"/>
+      <c r="I758"/>
+    </row>
+    <row r="759" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H759"/>
+      <c r="I759"/>
+    </row>
+    <row r="760" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H760"/>
+      <c r="I760"/>
+    </row>
+    <row r="761" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H761"/>
+      <c r="I761"/>
+    </row>
+    <row r="762" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H762"/>
+      <c r="I762"/>
+    </row>
+    <row r="763" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H763"/>
+      <c r="I763"/>
+    </row>
+    <row r="764" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H764"/>
+      <c r="I764"/>
+    </row>
+    <row r="765" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H765"/>
+      <c r="I765"/>
+    </row>
+    <row r="766" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H766"/>
+      <c r="I766"/>
+    </row>
+    <row r="767" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H767"/>
+      <c r="I767"/>
+    </row>
+    <row r="768" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H768"/>
+      <c r="I768"/>
+    </row>
+    <row r="769" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H769"/>
+      <c r="I769"/>
+    </row>
+    <row r="770" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H770"/>
+      <c r="I770"/>
+    </row>
+    <row r="771" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H771"/>
+      <c r="I771"/>
+    </row>
+    <row r="772" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H772"/>
+      <c r="I772"/>
+    </row>
+    <row r="773" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H773"/>
+      <c r="I773"/>
+    </row>
+    <row r="774" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H774"/>
+      <c r="I774"/>
+    </row>
+    <row r="775" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H775"/>
+      <c r="I775"/>
+    </row>
+    <row r="776" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H776"/>
+      <c r="I776"/>
+    </row>
+    <row r="777" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H777"/>
+      <c r="I777"/>
+    </row>
+    <row r="778" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H778"/>
+      <c r="I778"/>
+    </row>
+    <row r="779" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H779"/>
+      <c r="I779"/>
+    </row>
+    <row r="780" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H780"/>
+      <c r="I780"/>
+    </row>
+    <row r="781" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H781"/>
+      <c r="I781"/>
+    </row>
+    <row r="782" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H782"/>
+      <c r="I782"/>
+    </row>
+    <row r="783" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H783"/>
+      <c r="I783"/>
+    </row>
+    <row r="784" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H784"/>
+      <c r="I784"/>
+    </row>
+    <row r="785" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H785"/>
+      <c r="I785"/>
+    </row>
+    <row r="786" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H786"/>
+      <c r="I786"/>
+    </row>
+    <row r="787" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H787"/>
+      <c r="I787"/>
+    </row>
+    <row r="788" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H788"/>
+      <c r="I788"/>
+    </row>
+    <row r="789" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H789"/>
+      <c r="I789"/>
+    </row>
+    <row r="790" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H790"/>
+      <c r="I790"/>
+    </row>
+    <row r="791" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H791"/>
+      <c r="I791"/>
+    </row>
+    <row r="792" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H792"/>
+      <c r="I792"/>
+    </row>
+    <row r="793" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H793"/>
+      <c r="I793"/>
+    </row>
+    <row r="794" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H794"/>
+      <c r="I794"/>
+    </row>
+    <row r="795" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H795"/>
+      <c r="I795"/>
+    </row>
+    <row r="796" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H796"/>
+      <c r="I796"/>
+    </row>
+    <row r="797" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H797"/>
+      <c r="I797"/>
+    </row>
+    <row r="798" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H798"/>
+      <c r="I798"/>
+    </row>
+    <row r="799" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H799"/>
+      <c r="I799"/>
+    </row>
+    <row r="800" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H800"/>
+      <c r="I800"/>
+    </row>
+    <row r="801" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H801"/>
+      <c r="I801"/>
+    </row>
+    <row r="802" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H802"/>
+      <c r="I802"/>
+    </row>
+    <row r="803" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H803"/>
+      <c r="I803"/>
+    </row>
+    <row r="804" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H804"/>
+      <c r="I804"/>
+    </row>
+    <row r="805" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H805"/>
+      <c r="I805"/>
+    </row>
+    <row r="806" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H806"/>
+      <c r="I806"/>
+    </row>
+    <row r="807" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H807"/>
+      <c r="I807"/>
+    </row>
+    <row r="808" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H808"/>
+      <c r="I808"/>
+    </row>
+    <row r="809" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H809"/>
+      <c r="I809"/>
+    </row>
+    <row r="810" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H810"/>
+      <c r="I810"/>
+    </row>
+    <row r="811" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H811"/>
+      <c r="I811"/>
+    </row>
+    <row r="812" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H812"/>
+      <c r="I812"/>
+    </row>
+    <row r="813" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H813"/>
+      <c r="I813"/>
+    </row>
+    <row r="814" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H814"/>
+      <c r="I814"/>
+    </row>
+    <row r="815" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H815"/>
+      <c r="I815"/>
+    </row>
+    <row r="816" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H816"/>
+      <c r="I816"/>
+    </row>
+    <row r="817" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H817"/>
+      <c r="I817"/>
+    </row>
+    <row r="818" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H818"/>
+      <c r="I818"/>
+    </row>
+    <row r="819" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H819"/>
+      <c r="I819"/>
+    </row>
+    <row r="820" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H820"/>
+      <c r="I820"/>
+    </row>
+    <row r="821" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H821"/>
+      <c r="I821"/>
+    </row>
+    <row r="822" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H822"/>
+      <c r="I822"/>
+    </row>
+    <row r="823" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H823"/>
+      <c r="I823"/>
+    </row>
+    <row r="824" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H824"/>
+      <c r="I824"/>
+    </row>
+    <row r="825" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H825"/>
+      <c r="I825"/>
+    </row>
+    <row r="826" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H826"/>
+      <c r="I826"/>
+    </row>
+    <row r="827" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H827"/>
+      <c r="I827"/>
+    </row>
+    <row r="828" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H828"/>
+      <c r="I828"/>
+    </row>
+    <row r="829" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H829"/>
+      <c r="I829"/>
+    </row>
+    <row r="830" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H830"/>
+      <c r="I830"/>
+    </row>
+    <row r="831" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H831"/>
+      <c r="I831"/>
+    </row>
+    <row r="832" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H832"/>
+      <c r="I832"/>
+    </row>
+    <row r="833" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H833"/>
+      <c r="I833"/>
+    </row>
+    <row r="834" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H834"/>
+      <c r="I834"/>
+    </row>
+    <row r="835" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H835"/>
+      <c r="I835"/>
+    </row>
+    <row r="836" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H836"/>
+      <c r="I836"/>
+    </row>
+    <row r="837" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H837"/>
+      <c r="I837"/>
+    </row>
+    <row r="838" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H838"/>
+      <c r="I838"/>
+    </row>
+    <row r="839" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H839"/>
+      <c r="I839"/>
+    </row>
+    <row r="840" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H840"/>
+      <c r="I840"/>
+    </row>
+    <row r="841" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H841"/>
+      <c r="I841"/>
+    </row>
+    <row r="842" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H842"/>
+      <c r="I842"/>
+    </row>
+    <row r="843" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H843"/>
+      <c r="I843"/>
+    </row>
+    <row r="844" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H844"/>
+      <c r="I844"/>
+    </row>
+    <row r="845" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H845"/>
+      <c r="I845"/>
+    </row>
+    <row r="846" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H846"/>
+      <c r="I846"/>
+    </row>
+    <row r="847" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H847"/>
+      <c r="I847"/>
+    </row>
+    <row r="848" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H848"/>
+      <c r="I848"/>
+    </row>
+    <row r="849" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H849"/>
+      <c r="I849"/>
+    </row>
+    <row r="850" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H850"/>
+      <c r="I850"/>
+    </row>
+    <row r="851" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H851"/>
+      <c r="I851"/>
+    </row>
+    <row r="852" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H852"/>
+      <c r="I852"/>
+    </row>
+    <row r="853" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H853"/>
+      <c r="I853"/>
+    </row>
+    <row r="854" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H854"/>
+      <c r="I854"/>
+    </row>
+    <row r="855" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H855"/>
+      <c r="I855"/>
+    </row>
+    <row r="856" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H856"/>
+      <c r="I856"/>
+    </row>
+    <row r="857" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H857"/>
+      <c r="I857"/>
+    </row>
+    <row r="858" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H858"/>
+      <c r="I858"/>
+    </row>
+    <row r="859" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H859"/>
+      <c r="I859"/>
+    </row>
+    <row r="860" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H860"/>
+      <c r="I860"/>
+    </row>
+    <row r="861" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H861"/>
+      <c r="I861"/>
+    </row>
+    <row r="862" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H862"/>
+      <c r="I862"/>
+    </row>
+    <row r="863" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H863"/>
+      <c r="I863"/>
+    </row>
+    <row r="864" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H864"/>
+      <c r="I864"/>
+    </row>
+    <row r="865" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H865"/>
+      <c r="I865"/>
+    </row>
+    <row r="866" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H866"/>
+      <c r="I866"/>
+    </row>
+    <row r="867" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H867"/>
+      <c r="I867"/>
+    </row>
+    <row r="868" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H868"/>
+      <c r="I868"/>
+    </row>
+    <row r="869" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H869"/>
+      <c r="I869"/>
+    </row>
+    <row r="870" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H870"/>
+      <c r="I870"/>
+    </row>
+    <row r="871" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H871"/>
+      <c r="I871"/>
+    </row>
+    <row r="872" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H872"/>
+      <c r="I872"/>
+    </row>
+    <row r="873" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H873"/>
+      <c r="I873"/>
+    </row>
+    <row r="874" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H874"/>
+      <c r="I874"/>
+    </row>
+    <row r="875" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H875"/>
+      <c r="I875"/>
+    </row>
+    <row r="876" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H876"/>
+      <c r="I876"/>
+    </row>
+    <row r="877" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H877"/>
+      <c r="I877"/>
+    </row>
+    <row r="878" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H878"/>
+      <c r="I878"/>
+    </row>
+    <row r="879" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H879"/>
+      <c r="I879"/>
+    </row>
+    <row r="880" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H880"/>
+      <c r="I880"/>
+    </row>
+    <row r="881" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H881"/>
+      <c r="I881"/>
+    </row>
+    <row r="882" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H882"/>
+      <c r="I882"/>
+    </row>
+    <row r="883" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H883"/>
+      <c r="I883"/>
+    </row>
+    <row r="884" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H884"/>
+      <c r="I884"/>
+    </row>
+    <row r="885" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H885"/>
+      <c r="I885"/>
+    </row>
+    <row r="886" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H886"/>
+      <c r="I886"/>
+    </row>
+    <row r="887" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H887"/>
+      <c r="I887"/>
+    </row>
+    <row r="888" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H888"/>
+      <c r="I888"/>
+    </row>
+    <row r="889" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H889"/>
+      <c r="I889"/>
+    </row>
+    <row r="890" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H890"/>
+      <c r="I890"/>
+    </row>
+    <row r="891" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H891"/>
+      <c r="I891"/>
+    </row>
+    <row r="892" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H892"/>
+      <c r="I892"/>
+    </row>
+    <row r="893" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H893"/>
+      <c r="I893"/>
+    </row>
+    <row r="894" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H894"/>
+      <c r="I894"/>
+    </row>
+    <row r="895" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H895"/>
+      <c r="I895"/>
+    </row>
+    <row r="896" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H896"/>
+      <c r="I896"/>
+    </row>
+    <row r="897" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H897"/>
+      <c r="I897"/>
+    </row>
+    <row r="898" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H898"/>
+      <c r="I898"/>
+    </row>
+    <row r="899" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H899"/>
+      <c r="I899"/>
+    </row>
+    <row r="900" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H900"/>
+      <c r="I900"/>
+    </row>
+    <row r="901" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H901"/>
+      <c r="I901"/>
+    </row>
+    <row r="902" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H902"/>
+      <c r="I902"/>
+    </row>
+    <row r="903" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H903"/>
+      <c r="I903"/>
+    </row>
+    <row r="904" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H904"/>
+      <c r="I904"/>
+    </row>
+    <row r="905" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H905"/>
+      <c r="I905"/>
+    </row>
+    <row r="906" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H906"/>
+      <c r="I906"/>
+    </row>
+    <row r="907" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H907"/>
+      <c r="I907"/>
+    </row>
+    <row r="908" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H908"/>
+      <c r="I908"/>
+    </row>
+    <row r="909" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H909"/>
+      <c r="I909"/>
+    </row>
+    <row r="910" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H910"/>
+      <c r="I910"/>
+    </row>
+    <row r="911" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H911"/>
+      <c r="I911"/>
+    </row>
+    <row r="912" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H912"/>
+      <c r="I912"/>
+    </row>
+    <row r="913" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H913"/>
+      <c r="I913"/>
+    </row>
+    <row r="914" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H914"/>
+      <c r="I914"/>
+    </row>
+    <row r="915" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H915"/>
+      <c r="I915"/>
+    </row>
+    <row r="916" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H916"/>
+      <c r="I916"/>
+    </row>
+    <row r="917" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H917"/>
+      <c r="I917"/>
+    </row>
+    <row r="918" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H918"/>
+      <c r="I918"/>
+    </row>
+    <row r="919" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H919"/>
+      <c r="I919"/>
+    </row>
+    <row r="920" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H920"/>
+      <c r="I920"/>
+    </row>
+    <row r="921" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H921"/>
+      <c r="I921"/>
+    </row>
+    <row r="922" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H922"/>
+      <c r="I922"/>
+    </row>
+    <row r="923" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H923"/>
+      <c r="I923"/>
+    </row>
+    <row r="924" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H924"/>
+      <c r="I924"/>
+    </row>
+    <row r="925" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H925"/>
+      <c r="I925"/>
+    </row>
+    <row r="926" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H926"/>
+      <c r="I926"/>
+    </row>
+    <row r="927" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H927"/>
+      <c r="I927"/>
+    </row>
+    <row r="928" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H928"/>
+      <c r="I928"/>
+    </row>
+    <row r="929" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H929"/>
+      <c r="I929"/>
+    </row>
+    <row r="930" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H930"/>
+      <c r="I930"/>
+    </row>
+    <row r="931" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H931"/>
+      <c r="I931"/>
+    </row>
+    <row r="932" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H932"/>
+      <c r="I932"/>
+    </row>
+    <row r="933" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H933"/>
+      <c r="I933"/>
+    </row>
+    <row r="934" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H934"/>
+      <c r="I934"/>
+    </row>
+    <row r="935" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H935"/>
+      <c r="I935"/>
+    </row>
+    <row r="936" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H936"/>
+      <c r="I936"/>
+    </row>
+    <row r="937" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H937"/>
+      <c r="I937"/>
+    </row>
+    <row r="938" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H938"/>
+      <c r="I938"/>
+    </row>
+    <row r="939" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H939"/>
+      <c r="I939"/>
+    </row>
+    <row r="940" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H940"/>
+      <c r="I940"/>
+    </row>
+    <row r="941" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H941"/>
+      <c r="I941"/>
+    </row>
+    <row r="942" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H942"/>
+      <c r="I942"/>
+    </row>
+    <row r="943" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H943"/>
+      <c r="I943"/>
+    </row>
+    <row r="944" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H944"/>
+      <c r="I944"/>
+    </row>
+    <row r="945" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H945"/>
+      <c r="I945"/>
+    </row>
+    <row r="946" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H946"/>
+      <c r="I946"/>
+    </row>
+    <row r="947" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H947"/>
+      <c r="I947"/>
+    </row>
+    <row r="948" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H948"/>
+      <c r="I948"/>
+    </row>
+    <row r="949" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H949"/>
+      <c r="I949"/>
+    </row>
+    <row r="950" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H950"/>
+      <c r="I950"/>
+    </row>
+    <row r="951" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H951"/>
+      <c r="I951"/>
+    </row>
+    <row r="952" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H952"/>
+      <c r="I952"/>
+    </row>
+    <row r="953" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H953"/>
+      <c r="I953"/>
+    </row>
+    <row r="954" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H954"/>
+      <c r="I954"/>
+    </row>
+    <row r="955" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H955"/>
+      <c r="I955"/>
+    </row>
+    <row r="956" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H956"/>
+      <c r="I956"/>
+    </row>
+    <row r="957" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H957"/>
+      <c r="I957"/>
+    </row>
+    <row r="958" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H958"/>
+      <c r="I958"/>
+    </row>
+    <row r="959" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H959"/>
+      <c r="I959"/>
+    </row>
+    <row r="960" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H960"/>
+      <c r="I960"/>
+    </row>
+    <row r="961" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H961"/>
+      <c r="I961"/>
+    </row>
+    <row r="962" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H962"/>
+      <c r="I962"/>
+    </row>
+    <row r="963" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H963"/>
+      <c r="I963"/>
+    </row>
+    <row r="964" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H964"/>
+      <c r="I964"/>
+    </row>
+    <row r="965" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H965"/>
+      <c r="I965"/>
+    </row>
+    <row r="966" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H966"/>
+      <c r="I966"/>
+    </row>
+    <row r="967" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H967"/>
+      <c r="I967"/>
+    </row>
+    <row r="968" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H968"/>
+      <c r="I968"/>
+    </row>
+    <row r="969" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H969"/>
+      <c r="I969"/>
+    </row>
+    <row r="970" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H970"/>
+      <c r="I970"/>
+    </row>
+    <row r="971" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H971"/>
+      <c r="I971"/>
+    </row>
+    <row r="972" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H972"/>
+      <c r="I972"/>
+    </row>
+    <row r="973" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H973"/>
+      <c r="I973"/>
+    </row>
+    <row r="974" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H974"/>
+      <c r="I974"/>
+    </row>
+    <row r="975" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H975"/>
+      <c r="I975"/>
+    </row>
+    <row r="976" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H976"/>
+      <c r="I976"/>
+    </row>
+    <row r="977" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H977"/>
+      <c r="I977"/>
+    </row>
+    <row r="978" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H978"/>
+      <c r="I978"/>
+    </row>
+    <row r="979" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H979"/>
+      <c r="I979"/>
+    </row>
+    <row r="980" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H980"/>
+      <c r="I980"/>
+    </row>
+    <row r="981" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H981"/>
+      <c r="I981"/>
+    </row>
+    <row r="982" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H982"/>
+      <c r="I982"/>
+    </row>
+    <row r="983" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H983"/>
+      <c r="I983"/>
+    </row>
+    <row r="984" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H984"/>
+      <c r="I984"/>
+    </row>
+    <row r="985" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H985"/>
+      <c r="I985"/>
+    </row>
+    <row r="986" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H986"/>
+      <c r="I986"/>
+    </row>
+    <row r="987" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H987"/>
+      <c r="I987"/>
+    </row>
+    <row r="988" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H988"/>
+      <c r="I988"/>
+    </row>
+    <row r="989" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H989"/>
+      <c r="I989"/>
+    </row>
+    <row r="990" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H990"/>
+      <c r="I990"/>
+    </row>
+    <row r="991" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H991"/>
+      <c r="I991"/>
+    </row>
+    <row r="992" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H992"/>
+      <c r="I992"/>
+    </row>
+    <row r="993" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H993"/>
+      <c r="I993"/>
+    </row>
+    <row r="994" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H994"/>
+      <c r="I994"/>
+    </row>
+    <row r="995" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H995"/>
+      <c r="I995"/>
+    </row>
+    <row r="996" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H996"/>
+      <c r="I996"/>
+    </row>
+    <row r="997" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H997"/>
+      <c r="I997"/>
+    </row>
+    <row r="998" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H998"/>
+      <c r="I998"/>
+    </row>
+    <row r="999" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H999"/>
+      <c r="I999"/>
+    </row>
+    <row r="1000" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H1000"/>
+      <c r="I1000"/>
+    </row>
+    <row r="1001" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H1001"/>
+      <c r="I1001"/>
+    </row>
+    <row r="1002" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H1002"/>
+      <c r="I1002"/>
+    </row>
+    <row r="1003" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H1003"/>
+      <c r="I1003"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A395:B395"/>
-    <mergeCell ref="A456:B456"/>
-    <mergeCell ref="M1:S1"/>
-    <mergeCell ref="M2:T2"/>
-    <mergeCell ref="A448:B448"/>
+  <mergeCells count="14">
+    <mergeCell ref="A484:B484"/>
     <mergeCell ref="M5:T5"/>
     <mergeCell ref="M4:T4"/>
     <mergeCell ref="A404:B404"/>
     <mergeCell ref="M3:T3"/>
+    <mergeCell ref="A395:B395"/>
+    <mergeCell ref="M1:S1"/>
+    <mergeCell ref="A477:B477"/>
+    <mergeCell ref="A470:B470"/>
+    <mergeCell ref="M2:T2"/>
+    <mergeCell ref="A449:B449"/>
+    <mergeCell ref="A464:B464"/>
+    <mergeCell ref="A448:B448"/>
+    <mergeCell ref="A466:B466"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/GPS_ChecklistForAutoTest.xlsx
+++ b/GPS_ChecklistForAutoTest.xlsx
@@ -459,15 +459,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
@@ -480,6 +471,15 @@
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom/>
@@ -850,9 +850,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -860,26 +857,29 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1245,26 +1245,26 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T1000"/>
+  <dimension ref="A1:T561"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A508" workbookViewId="0">
-      <selection activeCell="I524" sqref="I524"/>
+    <sheetView tabSelected="1" topLeftCell="A528" workbookViewId="0">
+      <selection activeCell="C550" sqref="C550"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="17.7109375" customWidth="1" style="124" min="1" max="1"/>
-    <col width="39.42578125" customWidth="1" style="124" min="2" max="2"/>
-    <col width="41.5703125" customWidth="1" style="124" min="3" max="3"/>
-    <col width="10.42578125" customWidth="1" style="124" min="8" max="8"/>
-    <col width="16.28515625" customWidth="1" style="124" min="9" max="9"/>
-    <col width="16.85546875" customWidth="1" style="124" min="10" max="10"/>
-    <col width="17" customWidth="1" style="124" min="11" max="11"/>
-    <col width="31.28515625" customWidth="1" style="124" min="12" max="12"/>
-    <col width="14.7109375" customWidth="1" style="124" min="13" max="13"/>
+    <col width="17.7109375" customWidth="1" style="122" min="1" max="1"/>
+    <col width="39.42578125" customWidth="1" style="122" min="2" max="2"/>
+    <col width="41.5703125" customWidth="1" style="122" min="3" max="3"/>
+    <col width="10.42578125" customWidth="1" style="122" min="8" max="8"/>
+    <col width="16.28515625" customWidth="1" style="122" min="9" max="9"/>
+    <col width="16.85546875" customWidth="1" style="122" min="10" max="10"/>
+    <col width="17" customWidth="1" style="122" min="11" max="11"/>
+    <col width="31.28515625" customWidth="1" style="122" min="12" max="12"/>
+    <col width="14.7109375" customWidth="1" style="122" min="13" max="13"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1" s="124">
+    <row r="1" ht="18.75" customHeight="1" s="122">
       <c r="A1" s="74" t="n"/>
       <c r="B1" s="14" t="inlineStr">
         <is>
@@ -1281,13 +1281,13 @@
       <c r="J1" s="1" t="n"/>
       <c r="K1" s="75" t="n"/>
       <c r="L1" s="75" t="n"/>
-      <c r="M1" s="123" t="inlineStr">
+      <c r="M1" s="125" t="inlineStr">
         <is>
           <t>Giải thích</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1" s="124">
+    <row r="2" ht="18.75" customHeight="1" s="122">
       <c r="A2" s="25" t="n"/>
       <c r="B2" s="16" t="inlineStr">
         <is>
@@ -1304,13 +1304,13 @@
       <c r="J2" s="2" t="n"/>
       <c r="K2" s="2" t="n"/>
       <c r="L2" s="31" t="n"/>
-      <c r="M2" s="125" t="inlineStr">
+      <c r="M2" s="121" t="inlineStr">
         <is>
           <t>Mức độ 1: Các TestCase bắt buộc phải thực thi  sau mỗi lần kiểm thử</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="18.75" customHeight="1" s="124">
+    <row r="3" ht="18.75" customHeight="1" s="122">
       <c r="A3" s="24" t="n"/>
       <c r="B3" s="17" t="inlineStr">
         <is>
@@ -1339,13 +1339,13 @@
       <c r="J3" s="4" t="n"/>
       <c r="K3" s="4" t="n"/>
       <c r="L3" s="32" t="n"/>
-      <c r="M3" s="125" t="inlineStr">
+      <c r="M3" s="121" t="inlineStr">
         <is>
           <t>Mức độ 2: Các TestCase có độ ưu tiên cao sau mức độ 1</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="18.75" customHeight="1" s="124">
+    <row r="4" ht="18.75" customHeight="1" s="122">
       <c r="A4" s="24" t="n"/>
       <c r="B4" s="18" t="inlineStr">
         <is>
@@ -1371,13 +1371,13 @@
       <c r="J4" s="4" t="n"/>
       <c r="K4" s="4" t="n"/>
       <c r="L4" s="32" t="n"/>
-      <c r="M4" s="125" t="inlineStr">
+      <c r="M4" s="121" t="inlineStr">
         <is>
           <t>Mức độ 3: Các TestCase có độ ưu tiên chạy sau mức độ 2</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="18.75" customHeight="1" s="124">
+    <row r="5" ht="18.75" customHeight="1" s="122">
       <c r="A5" s="24" t="n"/>
       <c r="B5" s="18" t="inlineStr">
         <is>
@@ -1403,13 +1403,13 @@
       <c r="J5" s="4" t="n"/>
       <c r="K5" s="4" t="n"/>
       <c r="L5" s="32" t="n"/>
-      <c r="M5" s="125" t="inlineStr">
+      <c r="M5" s="121" t="inlineStr">
         <is>
           <t>Mức độ 4: Các TestCase có độ ưu tien sau mức độ 3</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="18.75" customHeight="1" s="124">
+    <row r="6" ht="18.75" customHeight="1" s="122">
       <c r="A6" s="24" t="n"/>
       <c r="B6" s="18" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
       <c r="L6" s="4" t="n"/>
       <c r="M6" s="75" t="n"/>
     </row>
-    <row r="7" ht="18.75" customHeight="1" s="124">
+    <row r="7" ht="18.75" customHeight="1" s="122">
       <c r="A7" s="24" t="n"/>
       <c r="B7" s="18" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
       <c r="L7" s="4" t="n"/>
       <c r="M7" s="75" t="n"/>
     </row>
-    <row r="8" ht="75" customHeight="1" s="124">
+    <row r="8" ht="75" customHeight="1" s="122">
       <c r="A8" s="26" t="inlineStr">
         <is>
           <t>MÃ</t>
@@ -1528,7 +1528,7 @@
       </c>
       <c r="M8" s="75" t="n"/>
     </row>
-    <row r="9" ht="18.75" customHeight="1" s="124">
+    <row r="9" ht="18.75" customHeight="1" s="122">
       <c r="A9" s="27" t="inlineStr">
         <is>
           <t>I.Màn hình đăng nhập</t>
@@ -1547,7 +1547,7 @@
       <c r="L9" s="12" t="n"/>
       <c r="M9" s="75" t="n"/>
     </row>
-    <row r="10" ht="18.75" customHeight="1" s="124">
+    <row r="10" ht="18.75" customHeight="1" s="122">
       <c r="A10" s="8" t="inlineStr">
         <is>
           <t>1.Đăng nhập hệ thống</t>
@@ -1566,7 +1566,7 @@
       <c r="L10" s="13" t="n"/>
       <c r="M10" s="75" t="n"/>
     </row>
-    <row r="11" ht="56.25" customHeight="1" s="124">
+    <row r="11" ht="56.25" customHeight="1" s="122">
       <c r="A11" s="24" t="inlineStr">
         <is>
           <t>Login01</t>
@@ -1597,7 +1597,7 @@
       <c r="K11" s="4" t="n"/>
       <c r="L11" s="4" t="n"/>
     </row>
-    <row r="12" ht="18.75" customHeight="1" s="124">
+    <row r="12" ht="18.75" customHeight="1" s="122">
       <c r="A12" s="24" t="inlineStr">
         <is>
           <t>Login02</t>
@@ -1627,7 +1627,7 @@
       <c r="K12" s="4" t="n"/>
       <c r="L12" s="4" t="n"/>
     </row>
-    <row r="13" ht="18.75" customHeight="1" s="124">
+    <row r="13" ht="18.75" customHeight="1" s="122">
       <c r="A13" s="24" t="inlineStr">
         <is>
           <t>Login03</t>
@@ -1657,7 +1657,7 @@
       <c r="K13" s="4" t="n"/>
       <c r="L13" s="4" t="n"/>
     </row>
-    <row r="14" ht="37.5" customHeight="1" s="124">
+    <row r="14" ht="37.5" customHeight="1" s="122">
       <c r="A14" s="24" t="inlineStr">
         <is>
           <t>Login04</t>
@@ -1687,7 +1687,7 @@
       <c r="K14" s="4" t="n"/>
       <c r="L14" s="4" t="n"/>
     </row>
-    <row r="15" ht="37.5" customHeight="1" s="124">
+    <row r="15" ht="37.5" customHeight="1" s="122">
       <c r="A15" s="24" t="inlineStr">
         <is>
           <t>Login05</t>
@@ -1717,7 +1717,7 @@
       <c r="K15" s="4" t="n"/>
       <c r="L15" s="4" t="n"/>
     </row>
-    <row r="16" ht="18.75" customHeight="1" s="124">
+    <row r="16" ht="18.75" customHeight="1" s="122">
       <c r="A16" s="24" t="inlineStr">
         <is>
           <t>Login06</t>
@@ -1747,7 +1747,7 @@
       <c r="K16" s="4" t="n"/>
       <c r="L16" s="4" t="n"/>
     </row>
-    <row r="17" ht="37.5" customHeight="1" s="124">
+    <row r="17" ht="37.5" customHeight="1" s="122">
       <c r="A17" s="24" t="inlineStr">
         <is>
           <t>Login07</t>
@@ -1777,7 +1777,7 @@
       <c r="K17" s="4" t="n"/>
       <c r="L17" s="4" t="n"/>
     </row>
-    <row r="18" ht="18.75" customHeight="1" s="124">
+    <row r="18" ht="18.75" customHeight="1" s="122">
       <c r="A18" s="24" t="n"/>
       <c r="B18" s="18" t="n"/>
       <c r="C18" s="18" t="n"/>
@@ -1791,7 +1791,7 @@
       <c r="K18" s="4" t="n"/>
       <c r="L18" s="4" t="n"/>
     </row>
-    <row r="19" ht="18.75" customHeight="1" s="124">
+    <row r="19" ht="18.75" customHeight="1" s="122">
       <c r="A19" s="8" t="inlineStr">
         <is>
           <t>2.Link liên kết</t>
@@ -1809,7 +1809,7 @@
       <c r="K19" s="13" t="n"/>
       <c r="L19" s="13" t="n"/>
     </row>
-    <row r="20" ht="37.5" customHeight="1" s="124">
+    <row r="20" ht="37.5" customHeight="1" s="122">
       <c r="A20" s="24" t="inlineStr">
         <is>
           <t>Login08</t>
@@ -1839,7 +1839,7 @@
       <c r="K20" s="4" t="n"/>
       <c r="L20" s="4" t="n"/>
     </row>
-    <row r="21" ht="37.5" customHeight="1" s="124">
+    <row r="21" ht="37.5" customHeight="1" s="122">
       <c r="A21" s="24" t="inlineStr">
         <is>
           <t>Login09</t>
@@ -1869,7 +1869,7 @@
       <c r="K21" s="4" t="n"/>
       <c r="L21" s="4" t="n"/>
     </row>
-    <row r="22" ht="37.5" customHeight="1" s="124">
+    <row r="22" ht="37.5" customHeight="1" s="122">
       <c r="A22" s="24" t="inlineStr">
         <is>
           <t>Login10</t>
@@ -1895,7 +1895,7 @@
       <c r="K22" s="4" t="n"/>
       <c r="L22" s="4" t="n"/>
     </row>
-    <row r="23" ht="37.5" customHeight="1" s="124">
+    <row r="23" ht="37.5" customHeight="1" s="122">
       <c r="A23" s="24" t="inlineStr">
         <is>
           <t>Login11</t>
@@ -1925,7 +1925,7 @@
       <c r="K23" s="4" t="n"/>
       <c r="L23" s="4" t="n"/>
     </row>
-    <row r="24" ht="37.5" customHeight="1" s="124">
+    <row r="24" ht="37.5" customHeight="1" s="122">
       <c r="A24" s="24" t="inlineStr">
         <is>
           <t>Login12</t>
@@ -1955,7 +1955,7 @@
       <c r="K24" s="4" t="n"/>
       <c r="L24" s="4" t="n"/>
     </row>
-    <row r="25" ht="37.5" customHeight="1" s="124">
+    <row r="25" ht="37.5" customHeight="1" s="122">
       <c r="A25" s="24" t="inlineStr">
         <is>
           <t>Login13</t>
@@ -1985,7 +1985,7 @@
       <c r="K25" s="4" t="n"/>
       <c r="L25" s="4" t="n"/>
     </row>
-    <row r="26" ht="37.5" customHeight="1" s="124">
+    <row r="26" ht="37.5" customHeight="1" s="122">
       <c r="A26" s="24" t="inlineStr">
         <is>
           <t>Login14</t>
@@ -2015,7 +2015,7 @@
         </is>
       </c>
     </row>
-    <row r="27" ht="37.5" customHeight="1" s="124">
+    <row r="27" ht="37.5" customHeight="1" s="122">
       <c r="A27" s="24" t="inlineStr">
         <is>
           <t>Login15</t>
@@ -2045,7 +2045,7 @@
       <c r="K27" s="4" t="n"/>
       <c r="L27" s="4" t="n"/>
     </row>
-    <row r="28" ht="37.5" customHeight="1" s="124">
+    <row r="28" ht="37.5" customHeight="1" s="122">
       <c r="A28" s="24" t="inlineStr">
         <is>
           <t>Login16</t>
@@ -2075,7 +2075,7 @@
       <c r="K28" s="4" t="n"/>
       <c r="L28" s="4" t="n"/>
     </row>
-    <row r="29" ht="37.5" customHeight="1" s="124">
+    <row r="29" ht="37.5" customHeight="1" s="122">
       <c r="A29" s="24" t="inlineStr">
         <is>
           <t>Login17</t>
@@ -2105,7 +2105,7 @@
       <c r="K29" s="4" t="n"/>
       <c r="L29" s="4" t="n"/>
     </row>
-    <row r="30" ht="37.5" customHeight="1" s="124">
+    <row r="30" ht="37.5" customHeight="1" s="122">
       <c r="A30" s="24" t="inlineStr">
         <is>
           <t>Login18</t>
@@ -2135,7 +2135,7 @@
       <c r="K30" s="4" t="n"/>
       <c r="L30" s="4" t="n"/>
     </row>
-    <row r="31" ht="37.5" customHeight="1" s="124">
+    <row r="31" ht="37.5" customHeight="1" s="122">
       <c r="A31" s="24" t="inlineStr">
         <is>
           <t>Login19</t>
@@ -2165,7 +2165,7 @@
       <c r="K31" s="4" t="n"/>
       <c r="L31" s="4" t="n"/>
     </row>
-    <row r="32" ht="37.5" customHeight="1" s="124">
+    <row r="32" ht="37.5" customHeight="1" s="122">
       <c r="A32" s="24" t="inlineStr">
         <is>
           <t>Login20</t>
@@ -2195,7 +2195,7 @@
       <c r="K32" s="4" t="n"/>
       <c r="L32" s="4" t="n"/>
     </row>
-    <row r="33" ht="18.75" customHeight="1" s="124">
+    <row r="33" ht="18.75" customHeight="1" s="122">
       <c r="A33" s="24" t="inlineStr">
         <is>
           <t>Login21</t>
@@ -2225,7 +2225,7 @@
       <c r="K33" s="4" t="n"/>
       <c r="L33" s="4" t="n"/>
     </row>
-    <row r="34" ht="18.75" customHeight="1" s="124">
+    <row r="34" ht="18.75" customHeight="1" s="122">
       <c r="A34" s="24" t="n"/>
       <c r="B34" s="18" t="n"/>
       <c r="C34" s="18" t="n"/>
@@ -2239,7 +2239,7 @@
       <c r="K34" s="4" t="n"/>
       <c r="L34" s="4" t="n"/>
     </row>
-    <row r="35" ht="18.75" customHeight="1" s="124">
+    <row r="35" ht="18.75" customHeight="1" s="122">
       <c r="A35" s="7" t="inlineStr">
         <is>
           <t>I.Giám sát</t>
@@ -2257,7 +2257,7 @@
       <c r="K35" s="12" t="n"/>
       <c r="L35" s="12" t="n"/>
     </row>
-    <row r="36" ht="18.75" customHeight="1" s="124">
+    <row r="36" ht="18.75" customHeight="1" s="122">
       <c r="A36" s="8" t="inlineStr">
         <is>
           <t>1.Tìm kiếm</t>
@@ -2275,7 +2275,7 @@
       <c r="K36" s="13" t="n"/>
       <c r="L36" s="13" t="n"/>
     </row>
-    <row r="37" ht="18.75" customHeight="1" s="124">
+    <row r="37" ht="18.75" customHeight="1" s="122">
       <c r="A37" s="24" t="inlineStr">
         <is>
           <t>GiamSat01</t>
@@ -2305,7 +2305,7 @@
       <c r="K37" s="4" t="n"/>
       <c r="L37" s="4" t="n"/>
     </row>
-    <row r="38" ht="18.75" customHeight="1" s="124">
+    <row r="38" ht="18.75" customHeight="1" s="122">
       <c r="A38" s="24" t="inlineStr">
         <is>
           <t>GiamSat02</t>
@@ -2335,7 +2335,7 @@
       <c r="K38" s="4" t="n"/>
       <c r="L38" s="4" t="n"/>
     </row>
-    <row r="39" ht="18.75" customHeight="1" s="124">
+    <row r="39" ht="18.75" customHeight="1" s="122">
       <c r="A39" s="24" t="inlineStr">
         <is>
           <t>GiamSat03</t>
@@ -2365,7 +2365,7 @@
       <c r="K39" s="4" t="n"/>
       <c r="L39" s="4" t="n"/>
     </row>
-    <row r="40" ht="18.75" customHeight="1" s="124">
+    <row r="40" ht="18.75" customHeight="1" s="122">
       <c r="A40" s="24" t="inlineStr">
         <is>
           <t>GiamSat04</t>
@@ -2395,7 +2395,7 @@
       <c r="K40" s="4" t="n"/>
       <c r="L40" s="4" t="n"/>
     </row>
-    <row r="41" ht="18.75" customHeight="1" s="124">
+    <row r="41" ht="18.75" customHeight="1" s="122">
       <c r="A41" s="24" t="n"/>
       <c r="B41" s="18" t="n"/>
       <c r="C41" s="18" t="n"/>
@@ -2409,7 +2409,7 @@
       <c r="K41" s="4" t="n"/>
       <c r="L41" s="4" t="n"/>
     </row>
-    <row r="42" ht="18.75" customHeight="1" s="124">
+    <row r="42" ht="18.75" customHeight="1" s="122">
       <c r="A42" s="8" t="inlineStr">
         <is>
           <t>2.Nhóm phương tiện</t>
@@ -2427,7 +2427,7 @@
       <c r="K42" s="13" t="n"/>
       <c r="L42" s="13" t="n"/>
     </row>
-    <row r="43" ht="37.5" customHeight="1" s="124">
+    <row r="43" ht="37.5" customHeight="1" s="122">
       <c r="A43" s="24" t="inlineStr">
         <is>
           <t>GiamSat05</t>
@@ -2457,7 +2457,7 @@
       <c r="K43" s="4" t="n"/>
       <c r="L43" s="4" t="n"/>
     </row>
-    <row r="44" ht="37.5" customHeight="1" s="124">
+    <row r="44" ht="37.5" customHeight="1" s="122">
       <c r="A44" s="24" t="inlineStr">
         <is>
           <t>GiamSat06</t>
@@ -2487,7 +2487,7 @@
       <c r="K44" s="4" t="n"/>
       <c r="L44" s="4" t="n"/>
     </row>
-    <row r="45" ht="18.75" customHeight="1" s="124">
+    <row r="45" ht="18.75" customHeight="1" s="122">
       <c r="A45" s="24" t="n"/>
       <c r="B45" s="18" t="n"/>
       <c r="C45" s="18" t="n"/>
@@ -2501,7 +2501,7 @@
       <c r="K45" s="4" t="n"/>
       <c r="L45" s="4" t="n"/>
     </row>
-    <row r="46" ht="18.75" customHeight="1" s="124">
+    <row r="46" ht="18.75" customHeight="1" s="122">
       <c r="A46" s="64" t="inlineStr">
         <is>
           <t>3.Trạng thái phương tiện</t>
@@ -2519,7 +2519,7 @@
       <c r="K46" s="13" t="n"/>
       <c r="L46" s="13" t="n"/>
     </row>
-    <row r="47" ht="56.25" customHeight="1" s="124">
+    <row r="47" ht="56.25" customHeight="1" s="122">
       <c r="A47" s="37" t="inlineStr">
         <is>
           <t>GiamSat07</t>
@@ -2549,7 +2549,7 @@
       <c r="K47" s="4" t="n"/>
       <c r="L47" s="4" t="n"/>
     </row>
-    <row r="48" ht="18.75" customHeight="1" s="124">
+    <row r="48" ht="18.75" customHeight="1" s="122">
       <c r="A48" s="36" t="inlineStr">
         <is>
           <t>3.1 Quyền quản trị - Công ty không có nhóm</t>
@@ -2571,7 +2571,7 @@
         </is>
       </c>
     </row>
-    <row r="49" ht="37.5" customHeight="1" s="124">
+    <row r="49" ht="37.5" customHeight="1" s="122">
       <c r="A49" s="24" t="inlineStr">
         <is>
           <t>GiamSat08</t>
@@ -2601,7 +2601,7 @@
       <c r="K49" s="4" t="n"/>
       <c r="L49" s="4" t="n"/>
     </row>
-    <row r="50" ht="18.75" customHeight="1" s="124">
+    <row r="50" ht="18.75" customHeight="1" s="122">
       <c r="A50" s="24" t="inlineStr">
         <is>
           <t>GiamSat09</t>
@@ -2631,7 +2631,7 @@
       <c r="K50" s="4" t="n"/>
       <c r="L50" s="4" t="n"/>
     </row>
-    <row r="51" ht="18.75" customHeight="1" s="124">
+    <row r="51" ht="18.75" customHeight="1" s="122">
       <c r="A51" s="24" t="inlineStr">
         <is>
           <t>GiamSat10</t>
@@ -2661,7 +2661,7 @@
       <c r="K51" s="4" t="n"/>
       <c r="L51" s="4" t="n"/>
     </row>
-    <row r="52" ht="18.75" customHeight="1" s="124">
+    <row r="52" ht="18.75" customHeight="1" s="122">
       <c r="A52" s="24" t="inlineStr">
         <is>
           <t>GiamSat11</t>
@@ -2691,7 +2691,7 @@
       <c r="K52" s="4" t="n"/>
       <c r="L52" s="4" t="n"/>
     </row>
-    <row r="53" ht="18.75" customHeight="1" s="124">
+    <row r="53" ht="18.75" customHeight="1" s="122">
       <c r="A53" s="24" t="inlineStr">
         <is>
           <t>GiamSat12</t>
@@ -2721,7 +2721,7 @@
       <c r="K53" s="4" t="n"/>
       <c r="L53" s="4" t="n"/>
     </row>
-    <row r="54" ht="18.75" customHeight="1" s="124">
+    <row r="54" ht="18.75" customHeight="1" s="122">
       <c r="A54" s="24" t="inlineStr">
         <is>
           <t>GiamSat13</t>
@@ -2751,7 +2751,7 @@
       <c r="K54" s="4" t="n"/>
       <c r="L54" s="4" t="n"/>
     </row>
-    <row r="55" ht="18.75" customHeight="1" s="124">
+    <row r="55" ht="18.75" customHeight="1" s="122">
       <c r="A55" s="24" t="inlineStr">
         <is>
           <t>GiamSat14</t>
@@ -2781,7 +2781,7 @@
       <c r="K55" s="4" t="n"/>
       <c r="L55" s="4" t="n"/>
     </row>
-    <row r="56" ht="18.75" customHeight="1" s="124">
+    <row r="56" ht="18.75" customHeight="1" s="122">
       <c r="A56" s="24" t="inlineStr">
         <is>
           <t>GiamSat15</t>
@@ -2811,7 +2811,7 @@
       <c r="K56" s="4" t="n"/>
       <c r="L56" s="4" t="n"/>
     </row>
-    <row r="57" ht="18.75" customHeight="1" s="124">
+    <row r="57" ht="18.75" customHeight="1" s="122">
       <c r="A57" s="24" t="inlineStr">
         <is>
           <t>GiamSat16</t>
@@ -2841,7 +2841,7 @@
       <c r="K57" s="4" t="n"/>
       <c r="L57" s="4" t="n"/>
     </row>
-    <row r="58" ht="18.75" customHeight="1" s="124">
+    <row r="58" ht="18.75" customHeight="1" s="122">
       <c r="A58" s="24" t="n"/>
       <c r="B58" s="18" t="n"/>
       <c r="C58" s="18" t="n"/>
@@ -2855,7 +2855,7 @@
       <c r="K58" s="4" t="n"/>
       <c r="L58" s="4" t="n"/>
     </row>
-    <row r="59" ht="18.75" customHeight="1" s="124">
+    <row r="59" ht="18.75" customHeight="1" s="122">
       <c r="A59" s="28" t="inlineStr">
         <is>
           <t>3.2 Quyền thường - Công ty không có nhóm</t>
@@ -2877,7 +2877,7 @@
         </is>
       </c>
     </row>
-    <row r="60" ht="37.5" customHeight="1" s="124">
+    <row r="60" ht="37.5" customHeight="1" s="122">
       <c r="A60" s="24" t="inlineStr">
         <is>
           <t>GiamSat17</t>
@@ -2907,7 +2907,7 @@
       <c r="K60" s="4" t="n"/>
       <c r="L60" s="4" t="n"/>
     </row>
-    <row r="61" ht="18.75" customHeight="1" s="124">
+    <row r="61" ht="18.75" customHeight="1" s="122">
       <c r="A61" s="24" t="inlineStr">
         <is>
           <t>GiamSat18</t>
@@ -2937,7 +2937,7 @@
       <c r="K61" s="4" t="n"/>
       <c r="L61" s="4" t="n"/>
     </row>
-    <row r="62" ht="18.75" customHeight="1" s="124">
+    <row r="62" ht="18.75" customHeight="1" s="122">
       <c r="A62" s="24" t="inlineStr">
         <is>
           <t>GiamSat19</t>
@@ -2967,7 +2967,7 @@
       <c r="K62" s="4" t="n"/>
       <c r="L62" s="4" t="n"/>
     </row>
-    <row r="63" ht="18.75" customHeight="1" s="124">
+    <row r="63" ht="18.75" customHeight="1" s="122">
       <c r="A63" s="24" t="inlineStr">
         <is>
           <t>GiamSat20</t>
@@ -2997,7 +2997,7 @@
       <c r="K63" s="4" t="n"/>
       <c r="L63" s="4" t="n"/>
     </row>
-    <row r="64" ht="18.75" customHeight="1" s="124">
+    <row r="64" ht="18.75" customHeight="1" s="122">
       <c r="A64" s="24" t="inlineStr">
         <is>
           <t>GiamSat21</t>
@@ -3027,7 +3027,7 @@
       <c r="K64" s="4" t="n"/>
       <c r="L64" s="4" t="n"/>
     </row>
-    <row r="65" ht="18.75" customHeight="1" s="124">
+    <row r="65" ht="18.75" customHeight="1" s="122">
       <c r="A65" s="24" t="inlineStr">
         <is>
           <t>GiamSat22</t>
@@ -3057,7 +3057,7 @@
       <c r="K65" s="4" t="n"/>
       <c r="L65" s="4" t="n"/>
     </row>
-    <row r="66" ht="18.75" customHeight="1" s="124">
+    <row r="66" ht="18.75" customHeight="1" s="122">
       <c r="A66" s="24" t="inlineStr">
         <is>
           <t>GiamSat23</t>
@@ -3087,7 +3087,7 @@
       <c r="K66" s="4" t="n"/>
       <c r="L66" s="4" t="n"/>
     </row>
-    <row r="67" ht="18.75" customHeight="1" s="124">
+    <row r="67" ht="18.75" customHeight="1" s="122">
       <c r="A67" s="24" t="inlineStr">
         <is>
           <t>GiamSat24</t>
@@ -3117,7 +3117,7 @@
       <c r="K67" s="4" t="n"/>
       <c r="L67" s="4" t="n"/>
     </row>
-    <row r="68" ht="18.75" customHeight="1" s="124">
+    <row r="68" ht="18.75" customHeight="1" s="122">
       <c r="A68" s="24" t="inlineStr">
         <is>
           <t>GiamSat25</t>
@@ -3147,7 +3147,7 @@
       <c r="K68" s="4" t="n"/>
       <c r="L68" s="4" t="n"/>
     </row>
-    <row r="69" ht="18.75" customHeight="1" s="124">
+    <row r="69" ht="18.75" customHeight="1" s="122">
       <c r="A69" s="24" t="n"/>
       <c r="B69" s="18" t="n"/>
       <c r="C69" s="18" t="n"/>
@@ -3161,7 +3161,7 @@
       <c r="K69" s="4" t="n"/>
       <c r="L69" s="4" t="n"/>
     </row>
-    <row r="70" ht="18.75" customHeight="1" s="124">
+    <row r="70" ht="18.75" customHeight="1" s="122">
       <c r="A70" s="28" t="inlineStr">
         <is>
           <t>3.3 Quyền quản trị - Công ty có nhóm</t>
@@ -3183,7 +3183,7 @@
         </is>
       </c>
     </row>
-    <row r="71" ht="37.5" customHeight="1" s="124">
+    <row r="71" ht="37.5" customHeight="1" s="122">
       <c r="A71" s="24" t="inlineStr">
         <is>
           <t>GiamSat26</t>
@@ -3213,7 +3213,7 @@
       <c r="K71" s="4" t="n"/>
       <c r="L71" s="4" t="n"/>
     </row>
-    <row r="72" ht="18.75" customHeight="1" s="124">
+    <row r="72" ht="18.75" customHeight="1" s="122">
       <c r="A72" s="24" t="inlineStr">
         <is>
           <t>GiamSat27</t>
@@ -3243,7 +3243,7 @@
       <c r="K72" s="4" t="n"/>
       <c r="L72" s="4" t="n"/>
     </row>
-    <row r="73" ht="18.75" customHeight="1" s="124">
+    <row r="73" ht="18.75" customHeight="1" s="122">
       <c r="A73" s="24" t="inlineStr">
         <is>
           <t>GiamSat28</t>
@@ -3273,7 +3273,7 @@
       <c r="K73" s="4" t="n"/>
       <c r="L73" s="4" t="n"/>
     </row>
-    <row r="74" ht="18.75" customHeight="1" s="124">
+    <row r="74" ht="18.75" customHeight="1" s="122">
       <c r="A74" s="24" t="inlineStr">
         <is>
           <t>GiamSat29</t>
@@ -3303,7 +3303,7 @@
       <c r="K74" s="4" t="n"/>
       <c r="L74" s="4" t="n"/>
     </row>
-    <row r="75" ht="18.75" customHeight="1" s="124">
+    <row r="75" ht="18.75" customHeight="1" s="122">
       <c r="A75" s="24" t="inlineStr">
         <is>
           <t>GiamSat30</t>
@@ -3333,7 +3333,7 @@
       <c r="K75" s="4" t="n"/>
       <c r="L75" s="4" t="n"/>
     </row>
-    <row r="76" ht="18.75" customHeight="1" s="124">
+    <row r="76" ht="18.75" customHeight="1" s="122">
       <c r="A76" s="24" t="inlineStr">
         <is>
           <t>GiamSat31</t>
@@ -3363,7 +3363,7 @@
       <c r="K76" s="4" t="n"/>
       <c r="L76" s="4" t="n"/>
     </row>
-    <row r="77" ht="18.75" customHeight="1" s="124">
+    <row r="77" ht="18.75" customHeight="1" s="122">
       <c r="A77" s="24" t="inlineStr">
         <is>
           <t>GiamSat32</t>
@@ -3393,7 +3393,7 @@
       <c r="K77" s="4" t="n"/>
       <c r="L77" s="4" t="n"/>
     </row>
-    <row r="78" ht="18.75" customHeight="1" s="124">
+    <row r="78" ht="18.75" customHeight="1" s="122">
       <c r="A78" s="24" t="inlineStr">
         <is>
           <t>GiamSat33</t>
@@ -3423,7 +3423,7 @@
       <c r="K78" s="4" t="n"/>
       <c r="L78" s="4" t="n"/>
     </row>
-    <row r="79" ht="18.75" customHeight="1" s="124">
+    <row r="79" ht="18.75" customHeight="1" s="122">
       <c r="A79" s="24" t="inlineStr">
         <is>
           <t>GiamSat34</t>
@@ -3453,7 +3453,7 @@
       <c r="K79" s="4" t="n"/>
       <c r="L79" s="4" t="n"/>
     </row>
-    <row r="80" ht="18.75" customHeight="1" s="124">
+    <row r="80" ht="18.75" customHeight="1" s="122">
       <c r="A80" s="24" t="n"/>
       <c r="B80" s="18" t="n"/>
       <c r="C80" s="18" t="n"/>
@@ -3467,7 +3467,7 @@
       <c r="K80" s="4" t="n"/>
       <c r="L80" s="4" t="n"/>
     </row>
-    <row r="81" ht="18.75" customHeight="1" s="124">
+    <row r="81" ht="18.75" customHeight="1" s="122">
       <c r="A81" s="28" t="inlineStr">
         <is>
           <t>3.4 Quyền thường - Công ty có nhóm</t>
@@ -3489,7 +3489,7 @@
         </is>
       </c>
     </row>
-    <row r="82" ht="37.5" customHeight="1" s="124">
+    <row r="82" ht="37.5" customHeight="1" s="122">
       <c r="A82" s="24" t="inlineStr">
         <is>
           <t>GiamSat35</t>
@@ -3519,7 +3519,7 @@
       <c r="K82" s="4" t="n"/>
       <c r="L82" s="4" t="n"/>
     </row>
-    <row r="83" ht="18.75" customHeight="1" s="124">
+    <row r="83" ht="18.75" customHeight="1" s="122">
       <c r="A83" s="24" t="inlineStr">
         <is>
           <t>GiamSat36</t>
@@ -3549,7 +3549,7 @@
       <c r="K83" s="4" t="n"/>
       <c r="L83" s="4" t="n"/>
     </row>
-    <row r="84" ht="18.75" customHeight="1" s="124">
+    <row r="84" ht="18.75" customHeight="1" s="122">
       <c r="A84" s="24" t="inlineStr">
         <is>
           <t>GiamSat37</t>
@@ -3579,7 +3579,7 @@
       <c r="K84" s="4" t="n"/>
       <c r="L84" s="4" t="n"/>
     </row>
-    <row r="85" ht="18.75" customHeight="1" s="124">
+    <row r="85" ht="18.75" customHeight="1" s="122">
       <c r="A85" s="24" t="inlineStr">
         <is>
           <t>GiamSat38</t>
@@ -3609,7 +3609,7 @@
       <c r="K85" s="4" t="n"/>
       <c r="L85" s="4" t="n"/>
     </row>
-    <row r="86" ht="18.75" customHeight="1" s="124">
+    <row r="86" ht="18.75" customHeight="1" s="122">
       <c r="A86" s="24" t="inlineStr">
         <is>
           <t>GiamSat39</t>
@@ -3639,7 +3639,7 @@
       <c r="K86" s="4" t="n"/>
       <c r="L86" s="4" t="n"/>
     </row>
-    <row r="87" ht="18.75" customHeight="1" s="124">
+    <row r="87" ht="18.75" customHeight="1" s="122">
       <c r="A87" s="24" t="inlineStr">
         <is>
           <t>GiamSat40</t>
@@ -3669,7 +3669,7 @@
       <c r="K87" s="4" t="n"/>
       <c r="L87" s="4" t="n"/>
     </row>
-    <row r="88" ht="18.75" customHeight="1" s="124">
+    <row r="88" ht="18.75" customHeight="1" s="122">
       <c r="A88" s="24" t="inlineStr">
         <is>
           <t>GiamSat41</t>
@@ -3699,7 +3699,7 @@
       <c r="K88" s="4" t="n"/>
       <c r="L88" s="4" t="n"/>
     </row>
-    <row r="89" ht="18.75" customHeight="1" s="124">
+    <row r="89" ht="18.75" customHeight="1" s="122">
       <c r="A89" s="24" t="inlineStr">
         <is>
           <t>GiamSat42</t>
@@ -3729,7 +3729,7 @@
       <c r="K89" s="4" t="n"/>
       <c r="L89" s="4" t="n"/>
     </row>
-    <row r="90" ht="18.75" customHeight="1" s="124">
+    <row r="90" ht="18.75" customHeight="1" s="122">
       <c r="A90" s="24" t="inlineStr">
         <is>
           <t>GiamSat43</t>
@@ -3759,7 +3759,7 @@
       <c r="K90" s="4" t="n"/>
       <c r="L90" s="4" t="n"/>
     </row>
-    <row r="91" ht="18.75" customHeight="1" s="124">
+    <row r="91" ht="18.75" customHeight="1" s="122">
       <c r="A91" s="28" t="inlineStr">
         <is>
           <t xml:space="preserve">3.5 Danh sách phương tiện </t>
@@ -3777,7 +3777,7 @@
       <c r="K91" s="9" t="n"/>
       <c r="L91" s="9" t="n"/>
     </row>
-    <row r="92" ht="38.25" customHeight="1" s="124">
+    <row r="92" ht="38.25" customHeight="1" s="122">
       <c r="A92" s="24" t="inlineStr">
         <is>
           <t>GiamSat44</t>
@@ -3807,7 +3807,7 @@
       <c r="K92" s="4" t="n"/>
       <c r="L92" s="4" t="n"/>
     </row>
-    <row r="93" ht="18.75" customHeight="1" s="124">
+    <row r="93" ht="18.75" customHeight="1" s="122">
       <c r="A93" s="24" t="n"/>
       <c r="B93" s="18" t="n"/>
       <c r="C93" s="18" t="n"/>
@@ -3821,7 +3821,7 @@
       <c r="K93" s="4" t="n"/>
       <c r="L93" s="4" t="n"/>
     </row>
-    <row r="94" ht="18.75" customHeight="1" s="124">
+    <row r="94" ht="18.75" customHeight="1" s="122">
       <c r="A94" s="8" t="inlineStr">
         <is>
           <t>4.Icon khác</t>
@@ -3839,7 +3839,7 @@
       <c r="K94" s="13" t="n"/>
       <c r="L94" s="13" t="n"/>
     </row>
-    <row r="95" ht="37.5" customHeight="1" s="124">
+    <row r="95" ht="37.5" customHeight="1" s="122">
       <c r="A95" s="24" t="inlineStr">
         <is>
           <t>GiamSat45</t>
@@ -3873,7 +3873,7 @@
         </is>
       </c>
     </row>
-    <row r="96" ht="18.75" customHeight="1" s="124">
+    <row r="96" ht="18.75" customHeight="1" s="122">
       <c r="A96" s="24" t="inlineStr">
         <is>
           <t>GiamSat46</t>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
     </row>
-    <row r="97" ht="18.75" customHeight="1" s="124">
+    <row r="97" ht="18.75" customHeight="1" s="122">
       <c r="A97" s="24" t="inlineStr">
         <is>
           <t>GiamSat47</t>
@@ -3937,7 +3937,7 @@
       <c r="K97" s="4" t="n"/>
       <c r="L97" s="4" t="n"/>
     </row>
-    <row r="98" ht="18.75" customHeight="1" s="124">
+    <row r="98" ht="18.75" customHeight="1" s="122">
       <c r="A98" s="24" t="inlineStr">
         <is>
           <t>GiamSat48</t>
@@ -3967,7 +3967,7 @@
       <c r="K98" s="4" t="n"/>
       <c r="L98" s="4" t="n"/>
     </row>
-    <row r="99" ht="18.75" customHeight="1" s="124">
+    <row r="99" ht="18.75" customHeight="1" s="122">
       <c r="A99" s="24" t="n"/>
       <c r="B99" s="18" t="n"/>
       <c r="C99" s="18" t="n"/>
@@ -3981,7 +3981,7 @@
       <c r="K99" s="4" t="n"/>
       <c r="L99" s="4" t="n"/>
     </row>
-    <row r="100" ht="18.75" customHeight="1" s="124">
+    <row r="100" ht="18.75" customHeight="1" s="122">
       <c r="A100" s="8" t="inlineStr">
         <is>
           <t>5.Chuột phải vào xe</t>
@@ -3999,7 +3999,7 @@
       <c r="K100" s="13" t="n"/>
       <c r="L100" s="13" t="n"/>
     </row>
-    <row r="101" ht="18.75" customHeight="1" s="124">
+    <row r="101" ht="18.75" customHeight="1" s="122">
       <c r="A101" s="28" t="inlineStr">
         <is>
           <t>5.1 Xem lại lộ trình</t>
@@ -4017,7 +4017,7 @@
       <c r="K101" s="9" t="n"/>
       <c r="L101" s="9" t="n"/>
     </row>
-    <row r="102" ht="56.25" customHeight="1" s="124">
+    <row r="102" ht="56.25" customHeight="1" s="122">
       <c r="A102" s="24" t="inlineStr">
         <is>
           <t>GiamSat49</t>
@@ -4047,7 +4047,7 @@
       <c r="K102" s="4" t="n"/>
       <c r="L102" s="4" t="n"/>
     </row>
-    <row r="103" ht="37.5" customHeight="1" s="124">
+    <row r="103" ht="37.5" customHeight="1" s="122">
       <c r="A103" s="24" t="inlineStr">
         <is>
           <t>GiamSat50</t>
@@ -4077,7 +4077,7 @@
       <c r="K103" s="4" t="n"/>
       <c r="L103" s="4" t="n"/>
     </row>
-    <row r="104" ht="56.25" customHeight="1" s="124">
+    <row r="104" ht="56.25" customHeight="1" s="122">
       <c r="A104" s="24" t="inlineStr">
         <is>
           <t>GiamSat51</t>
@@ -4107,7 +4107,7 @@
       <c r="K104" s="4" t="n"/>
       <c r="L104" s="4" t="n"/>
     </row>
-    <row r="105" ht="56.25" customHeight="1" s="124">
+    <row r="105" ht="56.25" customHeight="1" s="122">
       <c r="A105" s="24" t="inlineStr">
         <is>
           <t>GiamSat52</t>
@@ -4137,7 +4137,7 @@
       <c r="K105" s="4" t="n"/>
       <c r="L105" s="4" t="n"/>
     </row>
-    <row r="106" ht="37.5" customHeight="1" s="124">
+    <row r="106" ht="37.5" customHeight="1" s="122">
       <c r="A106" s="24" t="inlineStr">
         <is>
           <t>GiamSat53</t>
@@ -4167,7 +4167,7 @@
       <c r="K106" s="4" t="n"/>
       <c r="L106" s="4" t="n"/>
     </row>
-    <row r="107" ht="18.75" customHeight="1" s="124">
+    <row r="107" ht="18.75" customHeight="1" s="122">
       <c r="A107" s="24" t="n"/>
       <c r="B107" s="18" t="n"/>
       <c r="C107" s="18" t="n"/>
@@ -4181,7 +4181,7 @@
       <c r="K107" s="4" t="n"/>
       <c r="L107" s="4" t="n"/>
     </row>
-    <row r="108" ht="18.75" customHeight="1" s="124">
+    <row r="108" ht="18.75" customHeight="1" s="122">
       <c r="A108" s="28" t="inlineStr">
         <is>
           <t>5.2 Nhập thông tin xe</t>
@@ -4203,7 +4203,7 @@
         </is>
       </c>
     </row>
-    <row r="109" ht="37.5" customHeight="1" s="124">
+    <row r="109" ht="37.5" customHeight="1" s="122">
       <c r="A109" s="24" t="inlineStr">
         <is>
           <t>GiamSat54</t>
@@ -4233,7 +4233,7 @@
       <c r="K109" s="4" t="n"/>
       <c r="L109" s="4" t="n"/>
     </row>
-    <row r="110" ht="18.75" customHeight="1" s="124">
+    <row r="110" ht="18.75" customHeight="1" s="122">
       <c r="A110" s="24" t="inlineStr">
         <is>
           <t>GiamSat55</t>
@@ -4263,7 +4263,7 @@
       <c r="K110" s="4" t="n"/>
       <c r="L110" s="4" t="n"/>
     </row>
-    <row r="111" ht="18.75" customHeight="1" s="124">
+    <row r="111" ht="18.75" customHeight="1" s="122">
       <c r="A111" s="24" t="inlineStr">
         <is>
           <t>GiamSat56</t>
@@ -4293,7 +4293,7 @@
       <c r="K111" s="4" t="n"/>
       <c r="L111" s="4" t="n"/>
     </row>
-    <row r="112" ht="18.75" customHeight="1" s="124">
+    <row r="112" ht="18.75" customHeight="1" s="122">
       <c r="A112" s="24" t="inlineStr">
         <is>
           <t>GiamSat57</t>
@@ -4323,7 +4323,7 @@
       <c r="K112" s="4" t="n"/>
       <c r="L112" s="4" t="n"/>
     </row>
-    <row r="113" ht="18.75" customHeight="1" s="124">
+    <row r="113" ht="18.75" customHeight="1" s="122">
       <c r="A113" s="24" t="inlineStr">
         <is>
           <t>GiamSat58</t>
@@ -4353,7 +4353,7 @@
       <c r="K113" s="4" t="n"/>
       <c r="L113" s="4" t="n"/>
     </row>
-    <row r="114" ht="37.5" customHeight="1" s="124">
+    <row r="114" ht="37.5" customHeight="1" s="122">
       <c r="A114" s="24" t="inlineStr">
         <is>
           <t>GiamSat59</t>
@@ -4383,7 +4383,7 @@
       <c r="K114" s="4" t="n"/>
       <c r="L114" s="4" t="n"/>
     </row>
-    <row r="115" ht="18.75" customHeight="1" s="124">
+    <row r="115" ht="18.75" customHeight="1" s="122">
       <c r="A115" s="24" t="inlineStr">
         <is>
           <t>GiamSat60</t>
@@ -4413,7 +4413,7 @@
       <c r="K115" s="4" t="n"/>
       <c r="L115" s="4" t="n"/>
     </row>
-    <row r="116" ht="18.75" customHeight="1" s="124">
+    <row r="116" ht="18.75" customHeight="1" s="122">
       <c r="A116" s="24" t="inlineStr">
         <is>
           <t>GiamSat61</t>
@@ -4443,7 +4443,7 @@
       <c r="K116" s="4" t="n"/>
       <c r="L116" s="4" t="n"/>
     </row>
-    <row r="117" ht="18.75" customHeight="1" s="124">
+    <row r="117" ht="18.75" customHeight="1" s="122">
       <c r="A117" s="24" t="n"/>
       <c r="B117" s="18" t="n"/>
       <c r="C117" s="18" t="n"/>
@@ -4457,7 +4457,7 @@
       <c r="K117" s="4" t="n"/>
       <c r="L117" s="4" t="n"/>
     </row>
-    <row r="118" ht="18.75" customHeight="1" s="124">
+    <row r="118" ht="18.75" customHeight="1" s="122">
       <c r="A118" s="28" t="inlineStr">
         <is>
           <t>5.3 Giám sát nhiều xe</t>
@@ -4479,7 +4479,7 @@
         </is>
       </c>
     </row>
-    <row r="119" ht="37.5" customHeight="1" s="124">
+    <row r="119" ht="37.5" customHeight="1" s="122">
       <c r="A119" s="24" t="inlineStr">
         <is>
           <t>GiamSat62</t>
@@ -4509,7 +4509,7 @@
       <c r="K119" s="4" t="n"/>
       <c r="L119" s="4" t="n"/>
     </row>
-    <row r="120" ht="18.75" customHeight="1" s="124">
+    <row r="120" ht="18.75" customHeight="1" s="122">
       <c r="A120" s="24" t="inlineStr">
         <is>
           <t>GiamSat63</t>
@@ -4539,7 +4539,7 @@
       <c r="K120" s="4" t="n"/>
       <c r="L120" s="4" t="n"/>
     </row>
-    <row r="121" ht="18.75" customHeight="1" s="124">
+    <row r="121" ht="18.75" customHeight="1" s="122">
       <c r="A121" s="24" t="inlineStr">
         <is>
           <t>GiamSat64</t>
@@ -4569,7 +4569,7 @@
       <c r="K121" s="4" t="n"/>
       <c r="L121" s="4" t="n"/>
     </row>
-    <row r="122" ht="18.75" customHeight="1" s="124">
+    <row r="122" ht="18.75" customHeight="1" s="122">
       <c r="A122" s="24" t="inlineStr">
         <is>
           <t>GiamSat65</t>
@@ -4599,7 +4599,7 @@
       <c r="K122" s="4" t="n"/>
       <c r="L122" s="4" t="n"/>
     </row>
-    <row r="123" ht="18.75" customHeight="1" s="124">
+    <row r="123" ht="18.75" customHeight="1" s="122">
       <c r="A123" s="24" t="inlineStr">
         <is>
           <t>GiamSat66</t>
@@ -4629,7 +4629,7 @@
       <c r="K123" s="4" t="n"/>
       <c r="L123" s="4" t="n"/>
     </row>
-    <row r="124" ht="18.75" customHeight="1" s="124">
+    <row r="124" ht="18.75" customHeight="1" s="122">
       <c r="A124" s="24" t="n"/>
       <c r="B124" s="18" t="n"/>
       <c r="C124" s="18" t="n"/>
@@ -4643,7 +4643,7 @@
       <c r="K124" s="4" t="n"/>
       <c r="L124" s="4" t="n"/>
     </row>
-    <row r="125" ht="18.75" customHeight="1" s="124">
+    <row r="125" ht="18.75" customHeight="1" s="122">
       <c r="A125" s="28" t="inlineStr">
         <is>
           <t>5.4 Hiện trạng</t>
@@ -4661,7 +4661,7 @@
       <c r="K125" s="9" t="n"/>
       <c r="L125" s="9" t="n"/>
     </row>
-    <row r="126" ht="18.75" customHeight="1" s="124">
+    <row r="126" ht="18.75" customHeight="1" s="122">
       <c r="A126" s="24" t="inlineStr">
         <is>
           <t>GiamSat67</t>
@@ -4691,7 +4691,7 @@
       <c r="K126" s="4" t="n"/>
       <c r="L126" s="4" t="n"/>
     </row>
-    <row r="127" ht="18.75" customHeight="1" s="124">
+    <row r="127" ht="18.75" customHeight="1" s="122">
       <c r="A127" s="24" t="inlineStr">
         <is>
           <t>GiamSat68</t>
@@ -4721,7 +4721,7 @@
       <c r="K127" s="4" t="n"/>
       <c r="L127" s="4" t="n"/>
     </row>
-    <row r="128" ht="18.75" customHeight="1" s="124">
+    <row r="128" ht="18.75" customHeight="1" s="122">
       <c r="A128" s="24" t="n"/>
       <c r="B128" s="18" t="n"/>
       <c r="C128" s="18" t="n"/>
@@ -4735,7 +4735,7 @@
       <c r="K128" s="4" t="n"/>
       <c r="L128" s="4" t="n"/>
     </row>
-    <row r="129" ht="18.75" customHeight="1" s="124">
+    <row r="129" ht="18.75" customHeight="1" s="122">
       <c r="A129" s="28" t="inlineStr">
         <is>
           <t>5.5 Gán nhóm xe đặc biệt</t>
@@ -4753,7 +4753,7 @@
       <c r="K129" s="9" t="n"/>
       <c r="L129" s="9" t="n"/>
     </row>
-    <row r="130" ht="37.5" customHeight="1" s="124">
+    <row r="130" ht="37.5" customHeight="1" s="122">
       <c r="A130" s="24" t="inlineStr">
         <is>
           <t>GiamSat69</t>
@@ -4783,7 +4783,7 @@
       <c r="K130" s="4" t="n"/>
       <c r="L130" s="4" t="n"/>
     </row>
-    <row r="131" ht="18.75" customHeight="1" s="124">
+    <row r="131" ht="18.75" customHeight="1" s="122">
       <c r="A131" s="24" t="n"/>
       <c r="B131" s="18" t="n"/>
       <c r="C131" s="18" t="n"/>
@@ -4797,7 +4797,7 @@
       <c r="K131" s="4" t="n"/>
       <c r="L131" s="4" t="n"/>
     </row>
-    <row r="132" ht="18.75" customHeight="1" s="124">
+    <row r="132" ht="18.75" customHeight="1" s="122">
       <c r="A132" s="33" t="inlineStr">
         <is>
           <t>5.6 Ẩn xe</t>
@@ -4819,7 +4819,7 @@
         </is>
       </c>
     </row>
-    <row r="133" ht="18.75" customHeight="1" s="124">
+    <row r="133" ht="18.75" customHeight="1" s="122">
       <c r="A133" s="37" t="inlineStr">
         <is>
           <t>GiamSat70</t>
@@ -4849,7 +4849,7 @@
       <c r="K133" s="38" t="n"/>
       <c r="L133" s="38" t="n"/>
     </row>
-    <row r="134" ht="18.75" customHeight="1" s="124">
+    <row r="134" ht="18.75" customHeight="1" s="122">
       <c r="A134" s="37" t="inlineStr">
         <is>
           <t>GiamSat71</t>
@@ -4879,7 +4879,7 @@
       <c r="K134" s="38" t="n"/>
       <c r="L134" s="38" t="n"/>
     </row>
-    <row r="135" ht="18.75" customHeight="1" s="124">
+    <row r="135" ht="18.75" customHeight="1" s="122">
       <c r="A135" s="37" t="inlineStr">
         <is>
           <t>GiamSat72</t>
@@ -4909,7 +4909,7 @@
       <c r="K135" s="38" t="n"/>
       <c r="L135" s="38" t="n"/>
     </row>
-    <row r="136" ht="18.75" customHeight="1" s="124">
+    <row r="136" ht="18.75" customHeight="1" s="122">
       <c r="A136" s="37" t="inlineStr">
         <is>
           <t>GiamSat73</t>
@@ -4939,7 +4939,7 @@
       <c r="K136" s="38" t="n"/>
       <c r="L136" s="38" t="n"/>
     </row>
-    <row r="137" ht="18.75" customHeight="1" s="124">
+    <row r="137" ht="18.75" customHeight="1" s="122">
       <c r="A137" s="37" t="inlineStr">
         <is>
           <t>GiamSat74</t>
@@ -4969,7 +4969,7 @@
       <c r="K137" s="38" t="n"/>
       <c r="L137" s="38" t="n"/>
     </row>
-    <row r="138" ht="18.75" customHeight="1" s="124">
+    <row r="138" ht="18.75" customHeight="1" s="122">
       <c r="A138" s="37" t="inlineStr">
         <is>
           <t>GiamSat75</t>
@@ -4999,7 +4999,7 @@
       <c r="K138" s="38" t="n"/>
       <c r="L138" s="38" t="n"/>
     </row>
-    <row r="139" ht="18.75" customHeight="1" s="124">
+    <row r="139" ht="18.75" customHeight="1" s="122">
       <c r="A139" s="37" t="inlineStr">
         <is>
           <t>GiamSat76</t>
@@ -5029,7 +5029,7 @@
       <c r="K139" s="39" t="n"/>
       <c r="L139" s="39" t="n"/>
     </row>
-    <row r="140" ht="18.75" customHeight="1" s="124">
+    <row r="140" ht="18.75" customHeight="1" s="122">
       <c r="A140" s="37" t="inlineStr">
         <is>
           <t>GiamSat77</t>
@@ -5059,7 +5059,7 @@
       <c r="K140" s="38" t="n"/>
       <c r="L140" s="38" t="n"/>
     </row>
-    <row r="141" ht="18.75" customHeight="1" s="124">
+    <row r="141" ht="18.75" customHeight="1" s="122">
       <c r="A141" s="37" t="inlineStr">
         <is>
           <t>GiamSat78</t>
@@ -5089,7 +5089,7 @@
       <c r="K141" s="38" t="n"/>
       <c r="L141" s="38" t="n"/>
     </row>
-    <row r="142" ht="18.75" customHeight="1" s="124">
+    <row r="142" ht="18.75" customHeight="1" s="122">
       <c r="A142" s="37" t="inlineStr">
         <is>
           <t>GiamSat79</t>
@@ -5119,7 +5119,7 @@
       <c r="K142" s="38" t="n"/>
       <c r="L142" s="38" t="n"/>
     </row>
-    <row r="143" ht="18.75" customHeight="1" s="124">
+    <row r="143" ht="18.75" customHeight="1" s="122">
       <c r="A143" s="37" t="inlineStr">
         <is>
           <t>GiamSat80</t>
@@ -5149,7 +5149,7 @@
       <c r="K143" s="38" t="n"/>
       <c r="L143" s="38" t="n"/>
     </row>
-    <row r="144" ht="18.75" customHeight="1" s="124">
+    <row r="144" ht="18.75" customHeight="1" s="122">
       <c r="A144" s="39" t="n"/>
       <c r="B144" s="39" t="n"/>
       <c r="C144" s="39" t="n"/>
@@ -5163,7 +5163,7 @@
       <c r="K144" s="38" t="n"/>
       <c r="L144" s="38" t="n"/>
     </row>
-    <row r="145" ht="18.75" customHeight="1" s="124">
+    <row r="145" ht="18.75" customHeight="1" s="122">
       <c r="A145" s="36" t="inlineStr">
         <is>
           <t>5.7 Thông tin thiết bị</t>
@@ -5181,7 +5181,7 @@
       <c r="K145" s="9" t="n"/>
       <c r="L145" s="9" t="n"/>
     </row>
-    <row r="146" ht="37.5" customHeight="1" s="124">
+    <row r="146" ht="37.5" customHeight="1" s="122">
       <c r="A146" s="37" t="inlineStr">
         <is>
           <t>GiamSat81</t>
@@ -5211,7 +5211,7 @@
       <c r="K146" s="4" t="n"/>
       <c r="L146" s="4" t="n"/>
     </row>
-    <row r="147" ht="18.75" customHeight="1" s="124">
+    <row r="147" ht="18.75" customHeight="1" s="122">
       <c r="A147" s="37" t="inlineStr">
         <is>
           <t>GiamSat82</t>
@@ -5241,7 +5241,7 @@
       <c r="K147" s="4" t="n"/>
       <c r="L147" s="4" t="n"/>
     </row>
-    <row r="148" ht="18.75" customHeight="1" s="124">
+    <row r="148" ht="18.75" customHeight="1" s="122">
       <c r="A148" s="24" t="n"/>
       <c r="B148" s="18" t="n"/>
       <c r="C148" s="18" t="n"/>
@@ -5255,7 +5255,7 @@
       <c r="K148" s="4" t="n"/>
       <c r="L148" s="4" t="n"/>
     </row>
-    <row r="149" ht="18.75" customHeight="1" s="124">
+    <row r="149" ht="18.75" customHeight="1" s="122">
       <c r="A149" s="43" t="inlineStr">
         <is>
           <t>5.8 Xem ảnh camera - NĐ10</t>
@@ -5273,7 +5273,7 @@
       <c r="K149" s="9" t="n"/>
       <c r="L149" s="9" t="n"/>
     </row>
-    <row r="150" ht="56.25" customHeight="1" s="124">
+    <row r="150" ht="56.25" customHeight="1" s="122">
       <c r="A150" s="44" t="inlineStr">
         <is>
           <t>GiamSat83</t>
@@ -5304,7 +5304,7 @@
       <c r="K150" s="4" t="n"/>
       <c r="L150" s="4" t="n"/>
     </row>
-    <row r="151" ht="18.75" customHeight="1" s="124">
+    <row r="151" ht="18.75" customHeight="1" s="122">
       <c r="B151" s="18" t="n"/>
       <c r="C151" s="18" t="n"/>
       <c r="D151" s="4" t="n"/>
@@ -5317,7 +5317,7 @@
       <c r="K151" s="4" t="n"/>
       <c r="L151" s="4" t="n"/>
     </row>
-    <row r="152" ht="18.75" customHeight="1" s="124">
+    <row r="152" ht="18.75" customHeight="1" s="122">
       <c r="A152" s="43" t="inlineStr">
         <is>
           <t>5.9 Giám sát camera - NĐ10</t>
@@ -5335,7 +5335,7 @@
       <c r="K152" s="9" t="n"/>
       <c r="L152" s="9" t="n"/>
     </row>
-    <row r="153" ht="37.5" customHeight="1" s="124">
+    <row r="153" ht="37.5" customHeight="1" s="122">
       <c r="A153" s="44" t="inlineStr">
         <is>
           <t>GiamSat84</t>
@@ -5365,7 +5365,7 @@
       <c r="K153" s="4" t="n"/>
       <c r="L153" s="4" t="n"/>
     </row>
-    <row r="154" ht="18.75" customHeight="1" s="124">
+    <row r="154" ht="18.75" customHeight="1" s="122">
       <c r="A154" s="24" t="n"/>
       <c r="B154" s="18" t="n"/>
       <c r="C154" s="18" t="n"/>
@@ -5379,7 +5379,7 @@
       <c r="K154" s="4" t="n"/>
       <c r="L154" s="4" t="n"/>
     </row>
-    <row r="155" ht="18.75" customHeight="1" s="124">
+    <row r="155" ht="18.75" customHeight="1" s="122">
       <c r="A155" s="43" t="inlineStr">
         <is>
           <t>5.10 Biểu đồ nhiên liệu</t>
@@ -5397,7 +5397,7 @@
       <c r="K155" s="9" t="n"/>
       <c r="L155" s="9" t="n"/>
     </row>
-    <row r="156" ht="75" customHeight="1" s="124">
+    <row r="156" ht="75" customHeight="1" s="122">
       <c r="A156" s="44" t="inlineStr">
         <is>
           <t>GiamSat85</t>
@@ -5429,7 +5429,7 @@
       <c r="K156" s="4" t="n"/>
       <c r="L156" s="4" t="n"/>
     </row>
-    <row r="157" ht="18.75" customHeight="1" s="124">
+    <row r="157" ht="18.75" customHeight="1" s="122">
       <c r="A157" s="44" t="inlineStr">
         <is>
           <t>GiamSat86</t>
@@ -5459,7 +5459,7 @@
       <c r="K157" s="4" t="n"/>
       <c r="L157" s="4" t="n"/>
     </row>
-    <row r="158" ht="18.75" customHeight="1" s="124">
+    <row r="158" ht="18.75" customHeight="1" s="122">
       <c r="B158" s="18" t="n"/>
       <c r="C158" s="18" t="n"/>
       <c r="D158" s="4" t="n"/>
@@ -5472,7 +5472,7 @@
       <c r="K158" s="4" t="n"/>
       <c r="L158" s="4" t="n"/>
     </row>
-    <row r="159" ht="18.75" customHeight="1" s="124">
+    <row r="159" ht="18.75" customHeight="1" s="122">
       <c r="A159" s="45" t="inlineStr">
         <is>
           <t>5.11 Biểu đồ nhiên liệu mới</t>
@@ -5490,7 +5490,7 @@
       <c r="K159" s="35" t="n"/>
       <c r="L159" s="35" t="n"/>
     </row>
-    <row r="160" ht="93.75" customHeight="1" s="124">
+    <row r="160" ht="93.75" customHeight="1" s="122">
       <c r="A160" s="44" t="inlineStr">
         <is>
           <t>GiamSat87</t>
@@ -5522,7 +5522,7 @@
       <c r="K160" s="38" t="n"/>
       <c r="L160" s="38" t="n"/>
     </row>
-    <row r="161" ht="18.75" customHeight="1" s="124">
+    <row r="161" ht="18.75" customHeight="1" s="122">
       <c r="A161" s="44" t="inlineStr">
         <is>
           <t>GiamSat88</t>
@@ -5552,7 +5552,7 @@
       <c r="K161" s="38" t="n"/>
       <c r="L161" s="38" t="n"/>
     </row>
-    <row r="162" ht="18.75" customHeight="1" s="124">
+    <row r="162" ht="18.75" customHeight="1" s="122">
       <c r="B162" s="37" t="n"/>
       <c r="C162" s="37" t="n"/>
       <c r="D162" s="38" t="n"/>
@@ -5565,7 +5565,7 @@
       <c r="K162" s="38" t="n"/>
       <c r="L162" s="38" t="n"/>
     </row>
-    <row r="163" ht="18.75" customHeight="1" s="124">
+    <row r="163" ht="18.75" customHeight="1" s="122">
       <c r="A163" s="46" t="inlineStr">
         <is>
           <t>5.12 Biểu đồ nhiệt độ</t>
@@ -5583,7 +5583,7 @@
       <c r="K163" s="42" t="n"/>
       <c r="L163" s="42" t="n"/>
     </row>
-    <row r="164" ht="75" customHeight="1" s="124">
+    <row r="164" ht="75" customHeight="1" s="122">
       <c r="A164" s="44" t="inlineStr">
         <is>
           <t>GiamSat89</t>
@@ -5618,7 +5618,7 @@
         </is>
       </c>
     </row>
-    <row r="165" ht="18.75" customHeight="1" s="124">
+    <row r="165" ht="18.75" customHeight="1" s="122">
       <c r="B165" s="37" t="n"/>
       <c r="C165" s="37" t="n"/>
       <c r="D165" s="38" t="n"/>
@@ -5631,7 +5631,7 @@
       <c r="K165" s="38" t="n"/>
       <c r="L165" s="38" t="n"/>
     </row>
-    <row r="166" ht="18.75" customHeight="1" s="124">
+    <row r="166" ht="18.75" customHeight="1" s="122">
       <c r="A166" s="46" t="inlineStr">
         <is>
           <t>5.13 Khoảng cách đến các xe</t>
@@ -5649,7 +5649,7 @@
       <c r="K166" s="42" t="n"/>
       <c r="L166" s="42" t="n"/>
     </row>
-    <row r="167" ht="37.5" customHeight="1" s="124">
+    <row r="167" ht="37.5" customHeight="1" s="122">
       <c r="A167" s="44" t="inlineStr">
         <is>
           <t>GiamSat90</t>
@@ -5679,7 +5679,7 @@
       <c r="K167" s="38" t="n"/>
       <c r="L167" s="38" t="n"/>
     </row>
-    <row r="168" ht="18.75" customHeight="1" s="124">
+    <row r="168" ht="18.75" customHeight="1" s="122">
       <c r="A168" s="44" t="inlineStr">
         <is>
           <t>GiamSat91</t>
@@ -5709,7 +5709,7 @@
       <c r="K168" s="4" t="n"/>
       <c r="L168" s="4" t="n"/>
     </row>
-    <row r="169" ht="18.75" customHeight="1" s="124">
+    <row r="169" ht="18.75" customHeight="1" s="122">
       <c r="A169" s="44" t="inlineStr">
         <is>
           <t>GiamSat92</t>
@@ -5739,7 +5739,7 @@
       <c r="K169" s="4" t="n"/>
       <c r="L169" s="4" t="n"/>
     </row>
-    <row r="170" ht="18.75" customHeight="1" s="124">
+    <row r="170" ht="18.75" customHeight="1" s="122">
       <c r="A170" s="44" t="inlineStr">
         <is>
           <t>GiamSat93</t>
@@ -5769,7 +5769,7 @@
       <c r="K170" s="4" t="n"/>
       <c r="L170" s="4" t="n"/>
     </row>
-    <row r="171" ht="18.75" customHeight="1" s="124">
+    <row r="171" ht="18.75" customHeight="1" s="122">
       <c r="A171" s="44" t="inlineStr">
         <is>
           <t>GiamSat94</t>
@@ -5799,7 +5799,7 @@
       <c r="K171" s="4" t="n"/>
       <c r="L171" s="4" t="n"/>
     </row>
-    <row r="172" ht="18.75" customHeight="1" s="124">
+    <row r="172" ht="18.75" customHeight="1" s="122">
       <c r="B172" s="18" t="n"/>
       <c r="C172" s="18" t="n"/>
       <c r="D172" s="4" t="n"/>
@@ -5812,7 +5812,7 @@
       <c r="K172" s="4" t="n"/>
       <c r="L172" s="4" t="n"/>
     </row>
-    <row r="173" ht="18.75" customHeight="1" s="124">
+    <row r="173" ht="18.75" customHeight="1" s="122">
       <c r="A173" s="43" t="inlineStr">
         <is>
           <t>5.14 Khoảng cách đến các điểm</t>
@@ -5830,7 +5830,7 @@
       <c r="K173" s="9" t="n"/>
       <c r="L173" s="9" t="n"/>
     </row>
-    <row r="174" ht="37.5" customHeight="1" s="124">
+    <row r="174" ht="37.5" customHeight="1" s="122">
       <c r="A174" s="44" t="inlineStr">
         <is>
           <t>GiamSat95</t>
@@ -5860,7 +5860,7 @@
       <c r="K174" s="4" t="n"/>
       <c r="L174" s="4" t="n"/>
     </row>
-    <row r="175" ht="18.75" customHeight="1" s="124">
+    <row r="175" ht="18.75" customHeight="1" s="122">
       <c r="A175" s="44" t="inlineStr">
         <is>
           <t>GiamSat96</t>
@@ -5890,7 +5890,7 @@
       <c r="K175" s="4" t="n"/>
       <c r="L175" s="4" t="n"/>
     </row>
-    <row r="176" ht="18.75" customHeight="1" s="124">
+    <row r="176" ht="18.75" customHeight="1" s="122">
       <c r="A176" s="44" t="inlineStr">
         <is>
           <t>GiamSat97</t>
@@ -5920,7 +5920,7 @@
       <c r="K176" s="4" t="n"/>
       <c r="L176" s="4" t="n"/>
     </row>
-    <row r="177" ht="18.75" customHeight="1" s="124">
+    <row r="177" ht="18.75" customHeight="1" s="122">
       <c r="A177" s="44" t="inlineStr">
         <is>
           <t>GiamSat98</t>
@@ -5950,7 +5950,7 @@
       <c r="K177" s="4" t="n"/>
       <c r="L177" s="4" t="n"/>
     </row>
-    <row r="178" ht="18.75" customHeight="1" s="124">
+    <row r="178" ht="18.75" customHeight="1" s="122">
       <c r="A178" s="44" t="inlineStr">
         <is>
           <t>GiamSat99</t>
@@ -5980,7 +5980,7 @@
       <c r="K178" s="49" t="n"/>
       <c r="L178" s="49" t="n"/>
     </row>
-    <row r="179" ht="18.75" customHeight="1" s="124">
+    <row r="179" ht="18.75" customHeight="1" s="122">
       <c r="B179" s="47" t="n"/>
       <c r="C179" s="37" t="n"/>
       <c r="D179" s="38" t="n"/>
@@ -5993,7 +5993,7 @@
       <c r="K179" s="38" t="n"/>
       <c r="L179" s="38" t="n"/>
     </row>
-    <row r="180" ht="18.75" customHeight="1" s="124">
+    <row r="180" ht="18.75" customHeight="1" s="122">
       <c r="A180" s="28" t="inlineStr">
         <is>
           <t>5.15 Xem hình ảnh nhanh</t>
@@ -6011,7 +6011,7 @@
       <c r="K180" s="42" t="n"/>
       <c r="L180" s="42" t="n"/>
     </row>
-    <row r="181" ht="56.25" customHeight="1" s="124">
+    <row r="181" ht="56.25" customHeight="1" s="122">
       <c r="A181" s="24" t="inlineStr">
         <is>
           <t>GiamSat100</t>
@@ -6041,7 +6041,7 @@
       <c r="K181" s="38" t="n"/>
       <c r="L181" s="38" t="n"/>
     </row>
-    <row r="182" ht="18.75" customHeight="1" s="124">
+    <row r="182" ht="18.75" customHeight="1" s="122">
       <c r="A182" s="24" t="n"/>
       <c r="B182" s="47" t="n"/>
       <c r="C182" s="37" t="n"/>
@@ -6055,7 +6055,7 @@
       <c r="K182" s="38" t="n"/>
       <c r="L182" s="38" t="n"/>
     </row>
-    <row r="183" ht="18.75" customHeight="1" s="124">
+    <row r="183" ht="18.75" customHeight="1" s="122">
       <c r="A183" s="28" t="inlineStr">
         <is>
           <t>5.16 Xem ảnh camera</t>
@@ -6073,7 +6073,7 @@
       <c r="K183" s="42" t="n"/>
       <c r="L183" s="42" t="n"/>
     </row>
-    <row r="184" ht="37.5" customHeight="1" s="124">
+    <row r="184" ht="37.5" customHeight="1" s="122">
       <c r="A184" s="24" t="inlineStr">
         <is>
           <t>GiamSat101</t>
@@ -6103,7 +6103,7 @@
       <c r="K184" s="38" t="n"/>
       <c r="L184" s="38" t="n"/>
     </row>
-    <row r="185" ht="18.75" customHeight="1" s="124">
+    <row r="185" ht="18.75" customHeight="1" s="122">
       <c r="B185" s="47" t="n"/>
       <c r="C185" s="37" t="n"/>
       <c r="D185" s="38" t="n"/>
@@ -6116,7 +6116,7 @@
       <c r="K185" s="38" t="n"/>
       <c r="L185" s="38" t="n"/>
     </row>
-    <row r="186" ht="18.75" customHeight="1" s="124">
+    <row r="186" ht="18.75" customHeight="1" s="122">
       <c r="A186" s="46" t="inlineStr">
         <is>
           <t>5.17 Biểu đồ lưu lượng</t>
@@ -6138,7 +6138,7 @@
         </is>
       </c>
     </row>
-    <row r="187" ht="37.5" customHeight="1" s="124">
+    <row r="187" ht="37.5" customHeight="1" s="122">
       <c r="A187" s="44" t="inlineStr">
         <is>
           <t>GiamSat102</t>
@@ -6170,7 +6170,7 @@
       <c r="K187" s="38" t="n"/>
       <c r="L187" s="38" t="n"/>
     </row>
-    <row r="188" ht="37.5" customHeight="1" s="124">
+    <row r="188" ht="37.5" customHeight="1" s="122">
       <c r="A188" s="44" t="inlineStr">
         <is>
           <t>GiamSat103</t>
@@ -6200,7 +6200,7 @@
       <c r="K188" s="38" t="n"/>
       <c r="L188" s="38" t="n"/>
     </row>
-    <row r="189" ht="18.75" customHeight="1" s="124">
+    <row r="189" ht="18.75" customHeight="1" s="122">
       <c r="B189" s="39" t="n"/>
       <c r="C189" s="39" t="n"/>
       <c r="D189" s="39" t="n"/>
@@ -6213,7 +6213,7 @@
       <c r="K189" s="39" t="n"/>
       <c r="L189" s="39" t="n"/>
     </row>
-    <row r="190" ht="18.75" customHeight="1" s="124">
+    <row r="190" ht="18.75" customHeight="1" s="122">
       <c r="A190" s="28" t="inlineStr">
         <is>
           <t>5.18 GS theo tuyến mẫu</t>
@@ -6231,7 +6231,7 @@
       <c r="K190" s="9" t="n"/>
       <c r="L190" s="42" t="n"/>
     </row>
-    <row r="191" ht="37.5" customHeight="1" s="124">
+    <row r="191" ht="37.5" customHeight="1" s="122">
       <c r="A191" s="44" t="inlineStr">
         <is>
           <t>GiamSat104</t>
@@ -6261,7 +6261,7 @@
       <c r="K191" s="4" t="n"/>
       <c r="L191" s="4" t="n"/>
     </row>
-    <row r="192" ht="37.5" customHeight="1" s="124">
+    <row r="192" ht="37.5" customHeight="1" s="122">
       <c r="A192" s="44" t="inlineStr">
         <is>
           <t>GiamSat105</t>
@@ -6291,7 +6291,7 @@
         </is>
       </c>
     </row>
-    <row r="193" ht="37.5" customHeight="1" s="124">
+    <row r="193" ht="37.5" customHeight="1" s="122">
       <c r="A193" s="44" t="inlineStr">
         <is>
           <t>GiamSat106</t>
@@ -6321,7 +6321,7 @@
         </is>
       </c>
     </row>
-    <row r="194" ht="18.75" customHeight="1" s="124">
+    <row r="194" ht="18.75" customHeight="1" s="122">
       <c r="A194" s="44" t="inlineStr">
         <is>
           <t>GiamSat107</t>
@@ -6351,7 +6351,7 @@
       <c r="K194" s="4" t="n"/>
       <c r="L194" s="4" t="n"/>
     </row>
-    <row r="195" ht="18.75" customHeight="1" s="124">
+    <row r="195" ht="18.75" customHeight="1" s="122">
       <c r="B195" s="18" t="n"/>
       <c r="C195" s="18" t="n"/>
       <c r="D195" s="4" t="n"/>
@@ -6364,7 +6364,7 @@
       <c r="K195" s="4" t="n"/>
       <c r="L195" s="4" t="n"/>
     </row>
-    <row r="196" ht="18.75" customHeight="1" s="124">
+    <row r="196" ht="18.75" customHeight="1" s="122">
       <c r="A196" s="28" t="inlineStr">
         <is>
           <t>5.19 Tạo nhanh đơn hàng</t>
@@ -6386,7 +6386,7 @@
         </is>
       </c>
     </row>
-    <row r="197" ht="37.5" customHeight="1" s="124">
+    <row r="197" ht="37.5" customHeight="1" s="122">
       <c r="A197" s="44" t="inlineStr">
         <is>
           <t>GiamSat108</t>
@@ -6416,7 +6416,7 @@
       <c r="K197" s="4" t="n"/>
       <c r="L197" s="4" t="n"/>
     </row>
-    <row r="198" ht="18.75" customHeight="1" s="124">
+    <row r="198" ht="18.75" customHeight="1" s="122">
       <c r="A198" s="44" t="inlineStr">
         <is>
           <t>GiamSat109</t>
@@ -6446,7 +6446,7 @@
       <c r="K198" s="4" t="n"/>
       <c r="L198" s="4" t="n"/>
     </row>
-    <row r="199" ht="18.75" customHeight="1" s="124">
+    <row r="199" ht="18.75" customHeight="1" s="122">
       <c r="B199" s="18" t="n"/>
       <c r="C199" s="18" t="n"/>
       <c r="D199" s="4" t="n"/>
@@ -6459,7 +6459,7 @@
       <c r="K199" s="4" t="n"/>
       <c r="L199" s="4" t="n"/>
     </row>
-    <row r="200" ht="18.75" customHeight="1" s="124">
+    <row r="200" ht="18.75" customHeight="1" s="122">
       <c r="A200" s="28" t="inlineStr">
         <is>
           <t>5.20 Nhập lịch chuyến xe</t>
@@ -6481,7 +6481,7 @@
         </is>
       </c>
     </row>
-    <row r="201" ht="56.25" customHeight="1" s="124">
+    <row r="201" ht="56.25" customHeight="1" s="122">
       <c r="A201" s="44" t="inlineStr">
         <is>
           <t>GiamSat110</t>
@@ -6511,7 +6511,7 @@
       <c r="K201" s="4" t="n"/>
       <c r="L201" s="4" t="n"/>
     </row>
-    <row r="202" ht="56.25" customHeight="1" s="124">
+    <row r="202" ht="56.25" customHeight="1" s="122">
       <c r="A202" s="44" t="inlineStr">
         <is>
           <t>GiamSat111</t>
@@ -6541,7 +6541,7 @@
       <c r="K202" s="4" t="n"/>
       <c r="L202" s="4" t="n"/>
     </row>
-    <row r="203" ht="18.75" customHeight="1" s="124">
+    <row r="203" ht="18.75" customHeight="1" s="122">
       <c r="B203" s="18" t="n"/>
       <c r="C203" s="18" t="n"/>
       <c r="D203" s="4" t="n"/>
@@ -6554,7 +6554,7 @@
       <c r="K203" s="4" t="n"/>
       <c r="L203" s="4" t="n"/>
     </row>
-    <row r="204" ht="18.75" customHeight="1" s="124">
+    <row r="204" ht="18.75" customHeight="1" s="122">
       <c r="A204" s="8" t="inlineStr">
         <is>
           <t>6.Cảnh báo(góc phải bên dưới)</t>
@@ -6572,7 +6572,7 @@
       <c r="K204" s="13" t="n"/>
       <c r="L204" s="13" t="n"/>
     </row>
-    <row r="205" ht="18.75" customHeight="1" s="124">
+    <row r="205" ht="18.75" customHeight="1" s="122">
       <c r="A205" s="28" t="inlineStr">
         <is>
           <t>6.1 Phương tiện thiếu thông tin tích truyền</t>
@@ -6590,7 +6590,7 @@
       <c r="K205" s="9" t="n"/>
       <c r="L205" s="9" t="n"/>
     </row>
-    <row r="206" ht="75" customHeight="1" s="124">
+    <row r="206" ht="75" customHeight="1" s="122">
       <c r="A206" s="44" t="inlineStr">
         <is>
           <t>GiamSat112</t>
@@ -6624,7 +6624,7 @@
         </is>
       </c>
     </row>
-    <row r="207" ht="18.75" customHeight="1" s="124">
+    <row r="207" ht="18.75" customHeight="1" s="122">
       <c r="B207" s="18" t="n"/>
       <c r="C207" s="18" t="n"/>
       <c r="D207" s="4" t="n"/>
@@ -6637,7 +6637,7 @@
       <c r="K207" s="4" t="n"/>
       <c r="L207" s="4" t="n"/>
     </row>
-    <row r="208" ht="37.5" customHeight="1" s="124">
+    <row r="208" ht="37.5" customHeight="1" s="122">
       <c r="A208" s="10" t="inlineStr">
         <is>
           <t>6.2 Theo dõi chuyến hàng</t>
@@ -6655,7 +6655,7 @@
       <c r="K208" s="9" t="n"/>
       <c r="L208" s="9" t="n"/>
     </row>
-    <row r="209" ht="37.5" customHeight="1" s="124">
+    <row r="209" ht="37.5" customHeight="1" s="122">
       <c r="A209" s="44" t="inlineStr">
         <is>
           <t>GiamSat113</t>
@@ -6689,7 +6689,7 @@
         </is>
       </c>
     </row>
-    <row r="210" ht="18.75" customHeight="1" s="124">
+    <row r="210" ht="18.75" customHeight="1" s="122">
       <c r="A210" s="44" t="inlineStr">
         <is>
           <t>GiamSat114</t>
@@ -6719,7 +6719,7 @@
       <c r="K210" s="4" t="n"/>
       <c r="L210" s="4" t="n"/>
     </row>
-    <row r="211" ht="18.75" customHeight="1" s="124">
+    <row r="211" ht="18.75" customHeight="1" s="122">
       <c r="B211" s="18" t="n"/>
       <c r="C211" s="18" t="n"/>
       <c r="D211" s="4" t="n"/>
@@ -6732,7 +6732,7 @@
       <c r="K211" s="4" t="n"/>
       <c r="L211" s="4" t="n"/>
     </row>
-    <row r="212" ht="18.75" customHeight="1" s="124">
+    <row r="212" ht="18.75" customHeight="1" s="122">
       <c r="A212" s="28" t="inlineStr">
         <is>
           <t>6.3 Xem ảnh camera</t>
@@ -6750,7 +6750,7 @@
       <c r="K212" s="9" t="n"/>
       <c r="L212" s="9" t="n"/>
     </row>
-    <row r="213" ht="75" customHeight="1" s="124">
+    <row r="213" ht="75" customHeight="1" s="122">
       <c r="A213" s="44" t="inlineStr">
         <is>
           <t>GiamSat115</t>
@@ -6784,7 +6784,7 @@
         </is>
       </c>
     </row>
-    <row r="214" ht="18.75" customHeight="1" s="124">
+    <row r="214" ht="18.75" customHeight="1" s="122">
       <c r="B214" s="18" t="n"/>
       <c r="C214" s="18" t="n"/>
       <c r="D214" s="4" t="n"/>
@@ -6797,7 +6797,7 @@
       <c r="K214" s="4" t="n"/>
       <c r="L214" s="4" t="n"/>
     </row>
-    <row r="215" ht="18.75" customHeight="1" s="124">
+    <row r="215" ht="18.75" customHeight="1" s="122">
       <c r="A215" s="28" t="inlineStr">
         <is>
           <t>6.4 Hiện trạng hệ thống</t>
@@ -6815,7 +6815,7 @@
       <c r="K215" s="9" t="n"/>
       <c r="L215" s="9" t="n"/>
     </row>
-    <row r="216" ht="37.5" customHeight="1" s="124">
+    <row r="216" ht="37.5" customHeight="1" s="122">
       <c r="A216" s="44" t="inlineStr">
         <is>
           <t>GiamSat116</t>
@@ -6845,7 +6845,7 @@
       <c r="K216" s="4" t="n"/>
       <c r="L216" s="4" t="n"/>
     </row>
-    <row r="217" ht="18.75" customHeight="1" s="124">
+    <row r="217" ht="18.75" customHeight="1" s="122">
       <c r="A217" s="44" t="inlineStr">
         <is>
           <t>GiamSat117</t>
@@ -6875,7 +6875,7 @@
       <c r="K217" s="4" t="n"/>
       <c r="L217" s="4" t="n"/>
     </row>
-    <row r="218" ht="18.75" customHeight="1" s="124">
+    <row r="218" ht="18.75" customHeight="1" s="122">
       <c r="B218" s="18" t="n"/>
       <c r="C218" s="48" t="n"/>
       <c r="D218" s="49" t="n"/>
@@ -6888,7 +6888,7 @@
       <c r="K218" s="49" t="n"/>
       <c r="L218" s="49" t="n"/>
     </row>
-    <row r="219" ht="18.75" customHeight="1" s="124">
+    <row r="219" ht="18.75" customHeight="1" s="122">
       <c r="A219" s="28" t="inlineStr">
         <is>
           <t>6.5 Danh sách xe đang ẩn</t>
@@ -6906,7 +6906,7 @@
       <c r="K219" s="42" t="n"/>
       <c r="L219" s="42" t="n"/>
     </row>
-    <row r="220" ht="37.5" customHeight="1" s="124">
+    <row r="220" ht="37.5" customHeight="1" s="122">
       <c r="A220" s="44" t="inlineStr">
         <is>
           <t>GiamSat118</t>
@@ -6936,7 +6936,7 @@
       <c r="K220" s="38" t="n"/>
       <c r="L220" s="38" t="n"/>
     </row>
-    <row r="221" ht="18.75" customHeight="1" s="124">
+    <row r="221" ht="18.75" customHeight="1" s="122">
       <c r="A221" s="44" t="inlineStr">
         <is>
           <t>GiamSat119</t>
@@ -6966,7 +6966,7 @@
       <c r="K221" s="38" t="n"/>
       <c r="L221" s="38" t="n"/>
     </row>
-    <row r="222" ht="18.75" customHeight="1" s="124">
+    <row r="222" ht="18.75" customHeight="1" s="122">
       <c r="B222" s="47" t="n"/>
       <c r="C222" s="37" t="n"/>
       <c r="D222" s="38" t="n"/>
@@ -6979,7 +6979,7 @@
       <c r="K222" s="38" t="n"/>
       <c r="L222" s="38" t="n"/>
     </row>
-    <row r="223" ht="18.75" customHeight="1" s="124">
+    <row r="223" ht="18.75" customHeight="1" s="122">
       <c r="A223" s="28" t="inlineStr">
         <is>
           <t>6.6 Danh sách xe 2G</t>
@@ -6997,7 +6997,7 @@
       <c r="K223" s="42" t="n"/>
       <c r="L223" s="42" t="n"/>
     </row>
-    <row r="224" ht="37.5" customHeight="1" s="124">
+    <row r="224" ht="37.5" customHeight="1" s="122">
       <c r="A224" s="44" t="inlineStr">
         <is>
           <t>GiamSat120</t>
@@ -7028,7 +7028,7 @@
       <c r="K224" s="38" t="n"/>
       <c r="L224" s="38" t="n"/>
     </row>
-    <row r="225" ht="18.75" customHeight="1" s="124">
+    <row r="225" ht="18.75" customHeight="1" s="122">
       <c r="A225" s="44" t="inlineStr">
         <is>
           <t>GiamSat121</t>
@@ -7058,7 +7058,7 @@
       <c r="K225" s="4" t="n"/>
       <c r="L225" s="4" t="n"/>
     </row>
-    <row r="226" ht="18.75" customHeight="1" s="124">
+    <row r="226" ht="18.75" customHeight="1" s="122">
       <c r="B226" s="37" t="n"/>
       <c r="C226" s="37" t="n"/>
       <c r="D226" s="38" t="n"/>
@@ -7071,7 +7071,7 @@
       <c r="K226" s="4" t="n"/>
       <c r="L226" s="4" t="n"/>
     </row>
-    <row r="227" ht="18.75" customHeight="1" s="124">
+    <row r="227" ht="18.75" customHeight="1" s="122">
       <c r="A227" s="40" t="inlineStr">
         <is>
           <t>6.7 Cảnh báo Timeline</t>
@@ -7089,7 +7089,7 @@
       <c r="K227" s="9" t="n"/>
       <c r="L227" s="9" t="n"/>
     </row>
-    <row r="228" ht="18.75" customHeight="1" s="124">
+    <row r="228" ht="18.75" customHeight="1" s="122">
       <c r="A228" s="44" t="inlineStr">
         <is>
           <t>GiamSat122</t>
@@ -7119,7 +7119,7 @@
       <c r="K228" s="4" t="n"/>
       <c r="L228" s="4" t="n"/>
     </row>
-    <row r="229" ht="18.75" customHeight="1" s="124">
+    <row r="229" ht="18.75" customHeight="1" s="122">
       <c r="A229" s="44" t="inlineStr">
         <is>
           <t>GiamSat123</t>
@@ -7149,7 +7149,7 @@
       <c r="K229" s="4" t="n"/>
       <c r="L229" s="4" t="n"/>
     </row>
-    <row r="230" ht="18.75" customHeight="1" s="124">
+    <row r="230" ht="18.75" customHeight="1" s="122">
       <c r="B230" s="56" t="n"/>
       <c r="C230" s="56" t="n"/>
       <c r="D230" s="57" t="n"/>
@@ -7162,7 +7162,7 @@
       <c r="K230" s="49" t="n"/>
       <c r="L230" s="49" t="n"/>
     </row>
-    <row r="231" ht="18.75" customHeight="1" s="124">
+    <row r="231" ht="18.75" customHeight="1" s="122">
       <c r="A231" s="40" t="inlineStr">
         <is>
           <t>6.7 Thông tin xe tới hạn đi vào phố cấm</t>
@@ -7180,7 +7180,7 @@
       <c r="K231" s="42" t="n"/>
       <c r="L231" s="42" t="n"/>
     </row>
-    <row r="232" ht="75" customHeight="1" s="124">
+    <row r="232" ht="75" customHeight="1" s="122">
       <c r="A232" s="52" t="inlineStr">
         <is>
           <t>GiamSat124</t>
@@ -7214,7 +7214,7 @@
         </is>
       </c>
     </row>
-    <row r="233" ht="18.75" customHeight="1" s="124">
+    <row r="233" ht="18.75" customHeight="1" s="122">
       <c r="A233" s="39" t="n"/>
       <c r="B233" s="37" t="n"/>
       <c r="C233" s="37" t="n"/>
@@ -7228,7 +7228,7 @@
       <c r="K233" s="38" t="n"/>
       <c r="L233" s="38" t="n"/>
     </row>
-    <row r="234" ht="18.75" customHeight="1" s="124">
+    <row r="234" ht="18.75" customHeight="1" s="122">
       <c r="A234" s="40" t="inlineStr">
         <is>
           <t>6.8 Cảnh báo xe chưa tới điểm</t>
@@ -7246,7 +7246,7 @@
       <c r="K234" s="42" t="n"/>
       <c r="L234" s="42" t="n"/>
     </row>
-    <row r="235" ht="37.5" customHeight="1" s="124">
+    <row r="235" ht="37.5" customHeight="1" s="122">
       <c r="A235" s="52" t="inlineStr">
         <is>
           <t>GiamSat125</t>
@@ -7280,7 +7280,7 @@
         </is>
       </c>
     </row>
-    <row r="236" ht="18.75" customHeight="1" s="124">
+    <row r="236" ht="18.75" customHeight="1" s="122">
       <c r="A236" s="52" t="inlineStr">
         <is>
           <t>GiamSat126</t>
@@ -7310,7 +7310,7 @@
       <c r="K236" s="38" t="n"/>
       <c r="L236" s="38" t="n"/>
     </row>
-    <row r="237" ht="18.75" customHeight="1" s="124">
+    <row r="237" ht="18.75" customHeight="1" s="122">
       <c r="B237" s="37" t="n"/>
       <c r="C237" s="37" t="n"/>
       <c r="D237" s="38" t="n"/>
@@ -7323,7 +7323,7 @@
       <c r="K237" s="38" t="n"/>
       <c r="L237" s="38" t="n"/>
     </row>
-    <row r="238" ht="18.75" customHeight="1" s="124">
+    <row r="238" ht="18.75" customHeight="1" s="122">
       <c r="A238" s="40" t="inlineStr">
         <is>
           <t>6.9 Cảnh báo</t>
@@ -7341,7 +7341,7 @@
       <c r="K238" s="42" t="n"/>
       <c r="L238" s="42" t="n"/>
     </row>
-    <row r="239" ht="18.75" customHeight="1" s="124">
+    <row r="239" ht="18.75" customHeight="1" s="122">
       <c r="A239" s="52" t="inlineStr">
         <is>
           <t>GiamSat127</t>
@@ -7375,7 +7375,7 @@
         </is>
       </c>
     </row>
-    <row r="240" ht="18.75" customHeight="1" s="124">
+    <row r="240" ht="18.75" customHeight="1" s="122">
       <c r="A240" s="52" t="inlineStr">
         <is>
           <t>GiamSat128</t>
@@ -7405,7 +7405,7 @@
       <c r="K240" s="38" t="n"/>
       <c r="L240" s="38" t="n"/>
     </row>
-    <row r="241" ht="18.75" customHeight="1" s="124">
+    <row r="241" ht="18.75" customHeight="1" s="122">
       <c r="A241" s="37" t="n"/>
       <c r="B241" s="37" t="n"/>
       <c r="C241" s="37" t="n"/>
@@ -7419,7 +7419,7 @@
       <c r="K241" s="38" t="n"/>
       <c r="L241" s="38" t="n"/>
     </row>
-    <row r="242" ht="18.75" customHeight="1" s="124">
+    <row r="242" ht="18.75" customHeight="1" s="122">
       <c r="A242" s="58" t="inlineStr">
         <is>
           <t>7.Check dữ liệu(Thông tin xe - Hiện trạng hệ thống - API)</t>
@@ -7437,7 +7437,7 @@
       <c r="K242" s="60" t="n"/>
       <c r="L242" s="60" t="n"/>
     </row>
-    <row r="243" ht="18.75" customHeight="1" s="124">
+    <row r="243" ht="18.75" customHeight="1" s="122">
       <c r="A243" s="52" t="inlineStr">
         <is>
           <t>GiamSat129</t>
@@ -7467,7 +7467,7 @@
       <c r="K243" s="38" t="n"/>
       <c r="L243" s="38" t="n"/>
     </row>
-    <row r="244" ht="18.75" customHeight="1" s="124">
+    <row r="244" ht="18.75" customHeight="1" s="122">
       <c r="A244" s="52" t="inlineStr">
         <is>
           <t>GiamSat130</t>
@@ -7497,7 +7497,7 @@
       <c r="K244" s="38" t="n"/>
       <c r="L244" s="38" t="n"/>
     </row>
-    <row r="245" ht="18.75" customHeight="1" s="124">
+    <row r="245" ht="18.75" customHeight="1" s="122">
       <c r="A245" s="52" t="inlineStr">
         <is>
           <t>GiamSat131</t>
@@ -7527,7 +7527,7 @@
         </is>
       </c>
     </row>
-    <row r="246" ht="18.75" customHeight="1" s="124">
+    <row r="246" ht="18.75" customHeight="1" s="122">
       <c r="A246" s="52" t="inlineStr">
         <is>
           <t>GiamSat132</t>
@@ -7557,7 +7557,7 @@
         </is>
       </c>
     </row>
-    <row r="247" ht="18.75" customHeight="1" s="124">
+    <row r="247" ht="18.75" customHeight="1" s="122">
       <c r="A247" s="52" t="inlineStr">
         <is>
           <t>GiamSat133</t>
@@ -7587,7 +7587,7 @@
         </is>
       </c>
     </row>
-    <row r="248" ht="18.75" customHeight="1" s="124">
+    <row r="248" ht="18.75" customHeight="1" s="122">
       <c r="A248" s="52" t="inlineStr">
         <is>
           <t>GiamSat134</t>
@@ -7613,7 +7613,7 @@
       <c r="K248" s="4" t="n"/>
       <c r="L248" s="4" t="n"/>
     </row>
-    <row r="249" ht="18.75" customHeight="1" s="124">
+    <row r="249" ht="18.75" customHeight="1" s="122">
       <c r="A249" s="52" t="inlineStr">
         <is>
           <t>GiamSat135</t>
@@ -7639,7 +7639,7 @@
       <c r="K249" s="4" t="n"/>
       <c r="L249" s="4" t="n"/>
     </row>
-    <row r="250" ht="18.75" customHeight="1" s="124">
+    <row r="250" ht="18.75" customHeight="1" s="122">
       <c r="A250" s="52" t="inlineStr">
         <is>
           <t>GiamSat136</t>
@@ -7665,7 +7665,7 @@
       <c r="K250" s="4" t="n"/>
       <c r="L250" s="4" t="n"/>
     </row>
-    <row r="251" ht="18.75" customHeight="1" s="124">
+    <row r="251" ht="18.75" customHeight="1" s="122">
       <c r="A251" s="52" t="inlineStr">
         <is>
           <t>GiamSat137</t>
@@ -7691,7 +7691,7 @@
       <c r="K251" s="4" t="n"/>
       <c r="L251" s="4" t="n"/>
     </row>
-    <row r="252" ht="18.75" customHeight="1" s="124">
+    <row r="252" ht="18.75" customHeight="1" s="122">
       <c r="A252" s="52" t="inlineStr">
         <is>
           <t>GiamSat138</t>
@@ -7717,7 +7717,7 @@
       <c r="K252" s="4" t="n"/>
       <c r="L252" s="4" t="n"/>
     </row>
-    <row r="253" ht="18.75" customHeight="1" s="124">
+    <row r="253" ht="18.75" customHeight="1" s="122">
       <c r="A253" s="52" t="inlineStr">
         <is>
           <t>GiamSat139</t>
@@ -7743,7 +7743,7 @@
       <c r="K253" s="4" t="n"/>
       <c r="L253" s="4" t="n"/>
     </row>
-    <row r="254" ht="18.75" customHeight="1" s="124">
+    <row r="254" ht="18.75" customHeight="1" s="122">
       <c r="A254" s="52" t="inlineStr">
         <is>
           <t>GiamSat140</t>
@@ -7769,7 +7769,7 @@
       <c r="K254" s="4" t="n"/>
       <c r="L254" s="4" t="n"/>
     </row>
-    <row r="255" ht="18.75" customHeight="1" s="124">
+    <row r="255" ht="18.75" customHeight="1" s="122">
       <c r="A255" s="52" t="inlineStr">
         <is>
           <t>GiamSat141</t>
@@ -7795,7 +7795,7 @@
       <c r="K255" s="4" t="n"/>
       <c r="L255" s="4" t="n"/>
     </row>
-    <row r="256" ht="18.75" customHeight="1" s="124">
+    <row r="256" ht="18.75" customHeight="1" s="122">
       <c r="A256" s="52" t="inlineStr">
         <is>
           <t>GiamSat142</t>
@@ -7821,7 +7821,7 @@
       <c r="K256" s="4" t="n"/>
       <c r="L256" s="4" t="n"/>
     </row>
-    <row r="257" ht="18.75" customHeight="1" s="124">
+    <row r="257" ht="18.75" customHeight="1" s="122">
       <c r="A257" s="52" t="inlineStr">
         <is>
           <t>GiamSat143</t>
@@ -7847,7 +7847,7 @@
       <c r="K257" s="4" t="n"/>
       <c r="L257" s="4" t="n"/>
     </row>
-    <row r="258" ht="18.75" customHeight="1" s="124">
+    <row r="258" ht="18.75" customHeight="1" s="122">
       <c r="A258" s="52" t="inlineStr">
         <is>
           <t>GiamSat144</t>
@@ -7873,7 +7873,7 @@
       <c r="K258" s="4" t="n"/>
       <c r="L258" s="4" t="n"/>
     </row>
-    <row r="259" ht="18.75" customHeight="1" s="124">
+    <row r="259" ht="18.75" customHeight="1" s="122">
       <c r="A259" s="52" t="inlineStr">
         <is>
           <t>GiamSat145</t>
@@ -7899,7 +7899,7 @@
       <c r="K259" s="4" t="n"/>
       <c r="L259" s="4" t="n"/>
     </row>
-    <row r="260" ht="18.75" customHeight="1" s="124">
+    <row r="260" ht="18.75" customHeight="1" s="122">
       <c r="A260" s="52" t="inlineStr">
         <is>
           <t>GiamSat146</t>
@@ -7925,7 +7925,7 @@
       <c r="K260" s="4" t="n"/>
       <c r="L260" s="4" t="n"/>
     </row>
-    <row r="261" ht="18.75" customHeight="1" s="124">
+    <row r="261" ht="18.75" customHeight="1" s="122">
       <c r="A261" s="52" t="inlineStr">
         <is>
           <t>GiamSat147</t>
@@ -7951,7 +7951,7 @@
       <c r="K261" s="4" t="n"/>
       <c r="L261" s="4" t="n"/>
     </row>
-    <row r="262" ht="18.75" customHeight="1" s="124">
+    <row r="262" ht="18.75" customHeight="1" s="122">
       <c r="A262" s="52" t="inlineStr">
         <is>
           <t>GiamSat148</t>
@@ -7977,7 +7977,7 @@
       <c r="K262" s="4" t="n"/>
       <c r="L262" s="4" t="n"/>
     </row>
-    <row r="263" ht="18.75" customHeight="1" s="124">
+    <row r="263" ht="18.75" customHeight="1" s="122">
       <c r="A263" s="52" t="inlineStr">
         <is>
           <t>GiamSat149</t>
@@ -8003,7 +8003,7 @@
       <c r="K263" s="4" t="n"/>
       <c r="L263" s="4" t="n"/>
     </row>
-    <row r="264" ht="18.75" customHeight="1" s="124">
+    <row r="264" ht="18.75" customHeight="1" s="122">
       <c r="A264" s="52" t="inlineStr">
         <is>
           <t>GiamSat150</t>
@@ -8029,7 +8029,7 @@
       <c r="K264" s="4" t="n"/>
       <c r="L264" s="4" t="n"/>
     </row>
-    <row r="265" ht="18.75" customHeight="1" s="124">
+    <row r="265" ht="18.75" customHeight="1" s="122">
       <c r="A265" s="52" t="inlineStr">
         <is>
           <t>GiamSat151</t>
@@ -8055,7 +8055,7 @@
       <c r="K265" s="4" t="n"/>
       <c r="L265" s="4" t="n"/>
     </row>
-    <row r="266" ht="18.75" customHeight="1" s="124">
+    <row r="266" ht="18.75" customHeight="1" s="122">
       <c r="A266" s="52" t="inlineStr">
         <is>
           <t>GiamSat152</t>
@@ -8081,7 +8081,7 @@
       <c r="K266" s="4" t="n"/>
       <c r="L266" s="4" t="n"/>
     </row>
-    <row r="267" ht="18.75" customHeight="1" s="124">
+    <row r="267" ht="18.75" customHeight="1" s="122">
       <c r="A267" s="52" t="inlineStr">
         <is>
           <t>GiamSat153</t>
@@ -8107,7 +8107,7 @@
       <c r="K267" s="4" t="n"/>
       <c r="L267" s="4" t="n"/>
     </row>
-    <row r="268" ht="18.75" customHeight="1" s="124">
+    <row r="268" ht="18.75" customHeight="1" s="122">
       <c r="A268" s="52" t="inlineStr">
         <is>
           <t>GiamSat154</t>
@@ -8133,7 +8133,7 @@
       <c r="K268" s="4" t="n"/>
       <c r="L268" s="4" t="n"/>
     </row>
-    <row r="269" ht="18.75" customHeight="1" s="124">
+    <row r="269" ht="18.75" customHeight="1" s="122">
       <c r="A269" s="52" t="inlineStr">
         <is>
           <t>GiamSat155</t>
@@ -8159,7 +8159,7 @@
       <c r="K269" s="4" t="n"/>
       <c r="L269" s="4" t="n"/>
     </row>
-    <row r="270" ht="18.75" customHeight="1" s="124">
+    <row r="270" ht="18.75" customHeight="1" s="122">
       <c r="A270" s="52" t="inlineStr">
         <is>
           <t>GiamSat156</t>
@@ -8185,7 +8185,7 @@
       <c r="K270" s="4" t="n"/>
       <c r="L270" s="4" t="n"/>
     </row>
-    <row r="271" ht="18.75" customHeight="1" s="124">
+    <row r="271" ht="18.75" customHeight="1" s="122">
       <c r="B271" s="18" t="n"/>
       <c r="C271" s="18" t="n"/>
       <c r="D271" s="4" t="n"/>
@@ -8198,7 +8198,7 @@
       <c r="K271" s="4" t="n"/>
       <c r="L271" s="4" t="n"/>
     </row>
-    <row r="272" ht="18.75" customHeight="1" s="124">
+    <row r="272" ht="18.75" customHeight="1" s="122">
       <c r="A272" s="8" t="inlineStr">
         <is>
           <t>8.Chuột phải vào map</t>
@@ -8216,7 +8216,7 @@
       <c r="K272" s="13" t="n"/>
       <c r="L272" s="13" t="n"/>
     </row>
-    <row r="273" ht="18.75" customHeight="1" s="124">
+    <row r="273" ht="18.75" customHeight="1" s="122">
       <c r="A273" s="28" t="inlineStr">
         <is>
           <t>8.1 Phóng to</t>
@@ -8234,7 +8234,7 @@
       <c r="K273" s="9" t="n"/>
       <c r="L273" s="9" t="n"/>
     </row>
-    <row r="274" ht="37.5" customHeight="1" s="124">
+    <row r="274" ht="37.5" customHeight="1" s="122">
       <c r="A274" s="52" t="inlineStr">
         <is>
           <t>GiamSat157</t>
@@ -8264,7 +8264,7 @@
       <c r="K274" s="4" t="n"/>
       <c r="L274" s="4" t="n"/>
     </row>
-    <row r="275" ht="18.75" customHeight="1" s="124">
+    <row r="275" ht="18.75" customHeight="1" s="122">
       <c r="B275" s="18" t="n"/>
       <c r="C275" s="18" t="n"/>
       <c r="D275" s="4" t="n"/>
@@ -8277,7 +8277,7 @@
       <c r="K275" s="4" t="n"/>
       <c r="L275" s="4" t="n"/>
     </row>
-    <row r="276" ht="18.75" customHeight="1" s="124">
+    <row r="276" ht="18.75" customHeight="1" s="122">
       <c r="A276" s="28" t="inlineStr">
         <is>
           <t>8.2 Thu nhỏ</t>
@@ -8295,7 +8295,7 @@
       <c r="K276" s="9" t="n"/>
       <c r="L276" s="9" t="n"/>
     </row>
-    <row r="277" ht="37.5" customHeight="1" s="124">
+    <row r="277" ht="37.5" customHeight="1" s="122">
       <c r="A277" s="52" t="inlineStr">
         <is>
           <t>GiamSat158</t>
@@ -8325,7 +8325,7 @@
       <c r="K277" s="4" t="n"/>
       <c r="L277" s="4" t="n"/>
     </row>
-    <row r="278" ht="18.75" customHeight="1" s="124">
+    <row r="278" ht="18.75" customHeight="1" s="122">
       <c r="B278" s="18" t="n"/>
       <c r="C278" s="18" t="n"/>
       <c r="D278" s="4" t="n"/>
@@ -8338,7 +8338,7 @@
       <c r="K278" s="4" t="n"/>
       <c r="L278" s="4" t="n"/>
     </row>
-    <row r="279" ht="18.75" customHeight="1" s="124">
+    <row r="279" ht="18.75" customHeight="1" s="122">
       <c r="A279" s="28" t="inlineStr">
         <is>
           <t>8.2 Trung tâm ở đây</t>
@@ -8356,7 +8356,7 @@
       <c r="K279" s="9" t="n"/>
       <c r="L279" s="9" t="n"/>
     </row>
-    <row r="280" ht="37.5" customHeight="1" s="124">
+    <row r="280" ht="37.5" customHeight="1" s="122">
       <c r="A280" s="52" t="inlineStr">
         <is>
           <t>GiamSat159</t>
@@ -8386,7 +8386,7 @@
       <c r="K280" s="4" t="n"/>
       <c r="L280" s="4" t="n"/>
     </row>
-    <row r="281" ht="18.75" customHeight="1" s="124">
+    <row r="281" ht="18.75" customHeight="1" s="122">
       <c r="B281" s="18" t="n"/>
       <c r="C281" s="18" t="n"/>
       <c r="D281" s="4" t="n"/>
@@ -8399,7 +8399,7 @@
       <c r="K281" s="4" t="n"/>
       <c r="L281" s="4" t="n"/>
     </row>
-    <row r="282" ht="18.75" customHeight="1" s="124">
+    <row r="282" ht="18.75" customHeight="1" s="122">
       <c r="A282" s="28" t="inlineStr">
         <is>
           <t>8.3 Xem địa chỉ</t>
@@ -8417,7 +8417,7 @@
       <c r="K282" s="9" t="n"/>
       <c r="L282" s="9" t="n"/>
     </row>
-    <row r="283" ht="37.5" customHeight="1" s="124">
+    <row r="283" ht="37.5" customHeight="1" s="122">
       <c r="A283" s="52" t="inlineStr">
         <is>
           <t>GiamSat160</t>
@@ -8447,7 +8447,7 @@
       <c r="K283" s="4" t="n"/>
       <c r="L283" s="4" t="n"/>
     </row>
-    <row r="284" ht="18.75" customHeight="1" s="124">
+    <row r="284" ht="18.75" customHeight="1" s="122">
       <c r="B284" s="18" t="n"/>
       <c r="C284" s="18" t="n"/>
       <c r="D284" s="4" t="n"/>
@@ -8460,7 +8460,7 @@
       <c r="K284" s="4" t="n"/>
       <c r="L284" s="4" t="n"/>
     </row>
-    <row r="285" ht="18.75" customHeight="1" s="124">
+    <row r="285" ht="18.75" customHeight="1" s="122">
       <c r="A285" s="28" t="inlineStr">
         <is>
           <t>8.4 Đo khoảng cách</t>
@@ -8482,7 +8482,7 @@
         </is>
       </c>
     </row>
-    <row r="286" ht="37.5" customHeight="1" s="124">
+    <row r="286" ht="37.5" customHeight="1" s="122">
       <c r="A286" s="52" t="inlineStr">
         <is>
           <t>GiamSat161</t>
@@ -8512,7 +8512,7 @@
       <c r="K286" s="4" t="n"/>
       <c r="L286" s="4" t="n"/>
     </row>
-    <row r="287" ht="18.75" customHeight="1" s="124">
+    <row r="287" ht="18.75" customHeight="1" s="122">
       <c r="A287" s="52" t="inlineStr">
         <is>
           <t>GiamSat162</t>
@@ -8542,7 +8542,7 @@
       <c r="K287" s="4" t="n"/>
       <c r="L287" s="4" t="n"/>
     </row>
-    <row r="288" ht="18.75" customHeight="1" s="124">
+    <row r="288" ht="18.75" customHeight="1" s="122">
       <c r="A288" s="52" t="inlineStr">
         <is>
           <t>GiamSat163</t>
@@ -8572,7 +8572,7 @@
       <c r="K288" s="4" t="n"/>
       <c r="L288" s="4" t="n"/>
     </row>
-    <row r="289" ht="18.75" customHeight="1" s="124">
+    <row r="289" ht="18.75" customHeight="1" s="122">
       <c r="A289" s="52" t="inlineStr">
         <is>
           <t>GiamSat164</t>
@@ -8602,7 +8602,7 @@
       <c r="K289" s="4" t="n"/>
       <c r="L289" s="4" t="n"/>
     </row>
-    <row r="290" ht="18.75" customHeight="1" s="124">
+    <row r="290" ht="18.75" customHeight="1" s="122">
       <c r="B290" s="47" t="n"/>
       <c r="C290" s="37" t="n"/>
       <c r="D290" s="38" t="n"/>
@@ -8615,7 +8615,7 @@
       <c r="K290" s="4" t="n"/>
       <c r="L290" s="4" t="n"/>
     </row>
-    <row r="291" ht="18.75" customHeight="1" s="124">
+    <row r="291" ht="18.75" customHeight="1" s="122">
       <c r="A291" s="28" t="inlineStr">
         <is>
           <t>8.5 Chỉ hướng</t>
@@ -8633,7 +8633,7 @@
       <c r="K291" s="9" t="n"/>
       <c r="L291" s="9" t="n"/>
     </row>
-    <row r="292" ht="37.5" customHeight="1" s="124">
+    <row r="292" ht="37.5" customHeight="1" s="122">
       <c r="A292" s="52" t="inlineStr">
         <is>
           <t>GiamSat165</t>
@@ -8667,7 +8667,7 @@
       <c r="K292" s="4" t="n"/>
       <c r="L292" s="4" t="n"/>
     </row>
-    <row r="293" ht="18.75" customHeight="1" s="124">
+    <row r="293" ht="18.75" customHeight="1" s="122">
       <c r="A293" s="52" t="inlineStr">
         <is>
           <t>GiamSat166</t>
@@ -8697,7 +8697,7 @@
       <c r="K293" s="4" t="n"/>
       <c r="L293" s="4" t="n"/>
     </row>
-    <row r="294" ht="18.75" customHeight="1" s="124">
+    <row r="294" ht="18.75" customHeight="1" s="122">
       <c r="A294" s="52" t="inlineStr">
         <is>
           <t>GiamSat167</t>
@@ -8727,7 +8727,7 @@
       <c r="K294" s="4" t="n"/>
       <c r="L294" s="4" t="n"/>
     </row>
-    <row r="295" ht="18.75" customHeight="1" s="124">
+    <row r="295" ht="18.75" customHeight="1" s="122">
       <c r="A295" s="52" t="inlineStr">
         <is>
           <t>GiamSat168</t>
@@ -8757,7 +8757,7 @@
       <c r="K295" s="4" t="n"/>
       <c r="L295" s="4" t="n"/>
     </row>
-    <row r="296" ht="18.75" customHeight="1" s="124">
+    <row r="296" ht="18.75" customHeight="1" s="122">
       <c r="A296" s="52" t="inlineStr">
         <is>
           <t>GiamSat169</t>
@@ -8787,7 +8787,7 @@
       <c r="K296" s="4" t="n"/>
       <c r="L296" s="4" t="n"/>
     </row>
-    <row r="297" ht="37.5" customHeight="1" s="124">
+    <row r="297" ht="37.5" customHeight="1" s="122">
       <c r="A297" s="73" t="inlineStr">
         <is>
           <t>GiamSat170</t>
@@ -8817,7 +8817,7 @@
       <c r="K297" s="49" t="n"/>
       <c r="L297" s="49" t="n"/>
     </row>
-    <row r="298" ht="18.75" customHeight="1" s="124">
+    <row r="298" ht="18.75" customHeight="1" s="122">
       <c r="A298" s="52" t="inlineStr">
         <is>
           <t>GiamSat171</t>
@@ -8847,7 +8847,7 @@
       <c r="K298" s="38" t="n"/>
       <c r="L298" s="38" t="n"/>
     </row>
-    <row r="299" ht="18.75" customHeight="1" s="124">
+    <row r="299" ht="18.75" customHeight="1" s="122">
       <c r="A299" s="52" t="inlineStr">
         <is>
           <t>GiamSat172</t>
@@ -8877,7 +8877,7 @@
       <c r="K299" s="38" t="n"/>
       <c r="L299" s="38" t="n"/>
     </row>
-    <row r="300" ht="18.75" customHeight="1" s="124">
+    <row r="300" ht="18.75" customHeight="1" s="122">
       <c r="A300" s="39" t="n"/>
       <c r="B300" s="37" t="n"/>
       <c r="C300" s="37" t="n"/>
@@ -8891,7 +8891,7 @@
       <c r="K300" s="38" t="n"/>
       <c r="L300" s="38" t="n"/>
     </row>
-    <row r="301" ht="18.75" customHeight="1" s="124">
+    <row r="301" ht="18.75" customHeight="1" s="122">
       <c r="A301" s="33" t="inlineStr">
         <is>
           <t>8.6 Tạo điểm bản đồ</t>
@@ -8909,7 +8909,7 @@
       <c r="K301" s="35" t="n"/>
       <c r="L301" s="35" t="n"/>
     </row>
-    <row r="302" ht="37.5" customHeight="1" s="124">
+    <row r="302" ht="37.5" customHeight="1" s="122">
       <c r="A302" s="52" t="inlineStr">
         <is>
           <t>GiamSat173</t>
@@ -8943,7 +8943,7 @@
       <c r="K302" s="38" t="n"/>
       <c r="L302" s="38" t="n"/>
     </row>
-    <row r="303" ht="18.75" customHeight="1" s="124">
+    <row r="303" ht="18.75" customHeight="1" s="122">
       <c r="A303" s="52" t="inlineStr">
         <is>
           <t>GiamSat174</t>
@@ -8969,7 +8969,7 @@
       <c r="K303" s="38" t="n"/>
       <c r="L303" s="38" t="n"/>
     </row>
-    <row r="304" ht="18.75" customHeight="1" s="124">
+    <row r="304" ht="18.75" customHeight="1" s="122">
       <c r="A304" s="52" t="inlineStr">
         <is>
           <t>GiamSat175</t>
@@ -8999,7 +8999,7 @@
       <c r="K304" s="38" t="n"/>
       <c r="L304" s="38" t="n"/>
     </row>
-    <row r="305" ht="18.75" customHeight="1" s="124">
+    <row r="305" ht="18.75" customHeight="1" s="122">
       <c r="A305" s="52" t="inlineStr">
         <is>
           <t>GiamSat176</t>
@@ -9029,7 +9029,7 @@
       <c r="K305" s="38" t="n"/>
       <c r="L305" s="38" t="n"/>
     </row>
-    <row r="306" ht="18.75" customHeight="1" s="124">
+    <row r="306" ht="18.75" customHeight="1" s="122">
       <c r="A306" s="52" t="inlineStr">
         <is>
           <t>GiamSat177</t>
@@ -9059,7 +9059,7 @@
       <c r="K306" s="38" t="n"/>
       <c r="L306" s="38" t="n"/>
     </row>
-    <row r="307" ht="18.75" customHeight="1" s="124">
+    <row r="307" ht="18.75" customHeight="1" s="122">
       <c r="A307" s="52" t="inlineStr">
         <is>
           <t>GiamSat178</t>
@@ -9089,7 +9089,7 @@
       <c r="K307" s="38" t="n"/>
       <c r="L307" s="38" t="n"/>
     </row>
-    <row r="308" ht="18.75" customHeight="1" s="124">
+    <row r="308" ht="18.75" customHeight="1" s="122">
       <c r="B308" s="74" t="n"/>
       <c r="C308" s="18" t="n"/>
       <c r="D308" s="4" t="n"/>
@@ -9102,7 +9102,7 @@
       <c r="K308" s="4" t="n"/>
       <c r="L308" s="4" t="n"/>
     </row>
-    <row r="309" ht="18.75" customHeight="1" s="124">
+    <row r="309" ht="18.75" customHeight="1" s="122">
       <c r="A309" s="28" t="inlineStr">
         <is>
           <t>8.7 Tạo vùng lộ trình</t>
@@ -9120,7 +9120,7 @@
       <c r="K309" s="9" t="n"/>
       <c r="L309" s="61" t="n"/>
     </row>
-    <row r="310" ht="37.5" customHeight="1" s="124">
+    <row r="310" ht="37.5" customHeight="1" s="122">
       <c r="A310" s="52" t="inlineStr">
         <is>
           <t>GiamSat179</t>
@@ -9150,7 +9150,7 @@
       <c r="K310" s="4" t="n"/>
       <c r="L310" s="4" t="n"/>
     </row>
-    <row r="311" ht="18.75" customHeight="1" s="124">
+    <row r="311" ht="18.75" customHeight="1" s="122">
       <c r="A311" s="52" t="inlineStr">
         <is>
           <t>GiamSat180</t>
@@ -9180,7 +9180,7 @@
       <c r="K311" s="4" t="n"/>
       <c r="L311" s="4" t="n"/>
     </row>
-    <row r="312" ht="18.75" customHeight="1" s="124">
+    <row r="312" ht="18.75" customHeight="1" s="122">
       <c r="B312" s="18" t="n"/>
       <c r="C312" s="18" t="n"/>
       <c r="D312" s="4" t="n"/>
@@ -9193,7 +9193,7 @@
       <c r="K312" s="4" t="n"/>
       <c r="L312" s="4" t="n"/>
     </row>
-    <row r="313" ht="18.75" customHeight="1" s="124">
+    <row r="313" ht="18.75" customHeight="1" s="122">
       <c r="A313" s="33" t="inlineStr">
         <is>
           <t>8.8 Tìm xe trong vùng</t>
@@ -9211,7 +9211,7 @@
       <c r="K313" s="35" t="n"/>
       <c r="L313" s="9" t="n"/>
     </row>
-    <row r="314" ht="56.25" customHeight="1" s="124">
+    <row r="314" ht="56.25" customHeight="1" s="122">
       <c r="A314" s="52" t="inlineStr">
         <is>
           <t>GiamSat181</t>
@@ -9245,7 +9245,7 @@
       <c r="K314" s="38" t="n"/>
       <c r="L314" s="4" t="n"/>
     </row>
-    <row r="315" ht="18.75" customHeight="1" s="124">
+    <row r="315" ht="18.75" customHeight="1" s="122">
       <c r="A315" s="52" t="inlineStr">
         <is>
           <t>GiamSat182</t>
@@ -9275,7 +9275,7 @@
       <c r="K315" s="38" t="n"/>
       <c r="L315" s="4" t="n"/>
     </row>
-    <row r="316" ht="18.75" customHeight="1" s="124">
+    <row r="316" ht="18.75" customHeight="1" s="122">
       <c r="A316" s="52" t="inlineStr">
         <is>
           <t>GiamSat183</t>
@@ -9305,7 +9305,7 @@
       <c r="K316" s="38" t="n"/>
       <c r="L316" s="4" t="n"/>
     </row>
-    <row r="317" ht="18.75" customHeight="1" s="124">
+    <row r="317" ht="18.75" customHeight="1" s="122">
       <c r="A317" s="52" t="inlineStr">
         <is>
           <t>GiamSat184</t>
@@ -9339,7 +9339,7 @@
       <c r="K317" s="38" t="n"/>
       <c r="L317" s="4" t="n"/>
     </row>
-    <row r="318" ht="18.75" customHeight="1" s="124">
+    <row r="318" ht="18.75" customHeight="1" s="122">
       <c r="B318" s="37" t="n"/>
       <c r="C318" s="37" t="n"/>
       <c r="D318" s="38" t="n"/>
@@ -9352,7 +9352,7 @@
       <c r="K318" s="38" t="n"/>
       <c r="L318" s="4" t="n"/>
     </row>
-    <row r="319" ht="18.75" customHeight="1" s="124">
+    <row r="319" ht="18.75" customHeight="1" s="122">
       <c r="A319" s="63" t="inlineStr">
         <is>
           <t>8.9 Tìm xe gần nhất</t>
@@ -9370,7 +9370,7 @@
       <c r="K319" s="42" t="n"/>
       <c r="L319" s="9" t="n"/>
     </row>
-    <row r="320" ht="37.5" customHeight="1" s="124">
+    <row r="320" ht="37.5" customHeight="1" s="122">
       <c r="A320" s="52" t="inlineStr">
         <is>
           <t>GiamSat185</t>
@@ -9400,7 +9400,7 @@
       <c r="K320" s="38" t="n"/>
       <c r="L320" s="4" t="n"/>
     </row>
-    <row r="321" ht="18.75" customHeight="1" s="124">
+    <row r="321" ht="18.75" customHeight="1" s="122">
       <c r="A321" s="52" t="inlineStr">
         <is>
           <t>GiamSat186</t>
@@ -9430,7 +9430,7 @@
       <c r="K321" s="38" t="n"/>
       <c r="L321" s="4" t="n"/>
     </row>
-    <row r="322" ht="18.75" customHeight="1" s="124">
+    <row r="322" ht="18.75" customHeight="1" s="122">
       <c r="B322" s="37" t="n"/>
       <c r="C322" s="37" t="n"/>
       <c r="D322" s="38" t="n"/>
@@ -9443,7 +9443,7 @@
       <c r="K322" s="38" t="n"/>
       <c r="L322" s="4" t="n"/>
     </row>
-    <row r="323" ht="18.75" customHeight="1" s="124">
+    <row r="323" ht="18.75" customHeight="1" s="122">
       <c r="A323" s="69" t="inlineStr">
         <is>
           <t>8.10 Cấu hình hiển thị nhóm điểm</t>
@@ -9461,7 +9461,7 @@
       <c r="K323" s="71" t="n"/>
       <c r="L323" s="35" t="n"/>
     </row>
-    <row r="324" ht="37.5" customHeight="1" s="124">
+    <row r="324" ht="37.5" customHeight="1" s="122">
       <c r="A324" s="52" t="inlineStr">
         <is>
           <t>GiamSat187</t>
@@ -9495,7 +9495,7 @@
       <c r="K324" s="38" t="n"/>
       <c r="L324" s="38" t="n"/>
     </row>
-    <row r="325" ht="37.5" customHeight="1" s="124">
+    <row r="325" ht="37.5" customHeight="1" s="122">
       <c r="A325" s="52" t="inlineStr">
         <is>
           <t>GiamSat188</t>
@@ -9525,7 +9525,7 @@
       <c r="K325" s="38" t="n"/>
       <c r="L325" s="38" t="n"/>
     </row>
-    <row r="326" ht="18.75" customHeight="1" s="124">
+    <row r="326" ht="18.75" customHeight="1" s="122">
       <c r="A326" s="52" t="inlineStr">
         <is>
           <t>GiamSat189</t>
@@ -9555,7 +9555,7 @@
       <c r="K326" s="38" t="n"/>
       <c r="L326" s="38" t="n"/>
     </row>
-    <row r="327" ht="18.75" customHeight="1" s="124">
+    <row r="327" ht="18.75" customHeight="1" s="122">
       <c r="A327" s="52" t="inlineStr">
         <is>
           <t>GiamSat190</t>
@@ -9585,7 +9585,7 @@
       <c r="K327" s="38" t="n"/>
       <c r="L327" s="38" t="n"/>
     </row>
-    <row r="328" ht="18.75" customHeight="1" s="124">
+    <row r="328" ht="18.75" customHeight="1" s="122">
       <c r="A328" s="52" t="inlineStr">
         <is>
           <t>GiamSat191</t>
@@ -9615,7 +9615,7 @@
       <c r="K328" s="38" t="n"/>
       <c r="L328" s="38" t="n"/>
     </row>
-    <row r="329" ht="18.75" customHeight="1" s="124">
+    <row r="329" ht="18.75" customHeight="1" s="122">
       <c r="A329" s="52" t="inlineStr">
         <is>
           <t>GiamSat192</t>
@@ -9645,7 +9645,7 @@
       <c r="K329" s="38" t="n"/>
       <c r="L329" s="38" t="n"/>
     </row>
-    <row r="330" ht="18.75" customHeight="1" s="124">
+    <row r="330" ht="18.75" customHeight="1" s="122">
       <c r="A330" s="52" t="inlineStr">
         <is>
           <t>GiamSat193</t>
@@ -9675,7 +9675,7 @@
       <c r="K330" s="38" t="n"/>
       <c r="L330" s="38" t="n"/>
     </row>
-    <row r="331" ht="18.75" customHeight="1" s="124">
+    <row r="331" ht="18.75" customHeight="1" s="122">
       <c r="A331" s="52" t="inlineStr">
         <is>
           <t>GiamSat194</t>
@@ -9705,7 +9705,7 @@
       <c r="K331" s="38" t="n"/>
       <c r="L331" s="38" t="n"/>
     </row>
-    <row r="332" ht="18.75" customHeight="1" s="124">
+    <row r="332" ht="18.75" customHeight="1" s="122">
       <c r="A332" s="52" t="inlineStr">
         <is>
           <t>GiamSat195</t>
@@ -9735,7 +9735,7 @@
       <c r="K332" s="38" t="n"/>
       <c r="L332" s="38" t="n"/>
     </row>
-    <row r="333" ht="18.75" customHeight="1" s="124">
+    <row r="333" ht="18.75" customHeight="1" s="122">
       <c r="A333" s="52" t="inlineStr">
         <is>
           <t>GiamSat196</t>
@@ -9765,7 +9765,7 @@
       <c r="K333" s="38" t="n"/>
       <c r="L333" s="38" t="n"/>
     </row>
-    <row r="334" ht="18.75" customHeight="1" s="124">
+    <row r="334" ht="18.75" customHeight="1" s="122">
       <c r="A334" s="52" t="inlineStr">
         <is>
           <t>GiamSat197</t>
@@ -9795,7 +9795,7 @@
       <c r="K334" s="38" t="n"/>
       <c r="L334" s="38" t="n"/>
     </row>
-    <row r="335" ht="18.75" customHeight="1" s="124">
+    <row r="335" ht="18.75" customHeight="1" s="122">
       <c r="A335" s="52" t="inlineStr">
         <is>
           <t>GiamSat198</t>
@@ -9825,7 +9825,7 @@
       <c r="K335" s="38" t="n"/>
       <c r="L335" s="38" t="n"/>
     </row>
-    <row r="336" ht="18.75" customHeight="1" s="124">
+    <row r="336" ht="18.75" customHeight="1" s="122">
       <c r="F336" s="38" t="n"/>
       <c r="G336" s="38" t="n"/>
       <c r="H336" s="38" t="inlineStr"/>
@@ -9834,7 +9834,7 @@
       <c r="K336" s="38" t="n"/>
       <c r="L336" s="38" t="n"/>
     </row>
-    <row r="337" ht="18.75" customHeight="1" s="124">
+    <row r="337" ht="18.75" customHeight="1" s="122">
       <c r="A337" s="72" t="inlineStr">
         <is>
           <t>8.11 Cấu hình khởi động</t>
@@ -9853,7 +9853,7 @@
       <c r="L337" s="35" t="n"/>
       <c r="M337" s="75" t="n"/>
     </row>
-    <row r="338" ht="37.5" customHeight="1" s="124">
+    <row r="338" ht="37.5" customHeight="1" s="122">
       <c r="A338" s="52" t="inlineStr">
         <is>
           <t>GiamSat199</t>
@@ -9888,7 +9888,7 @@
       <c r="L338" s="38" t="n"/>
       <c r="M338" s="75" t="n"/>
     </row>
-    <row r="339" ht="37.5" customHeight="1" s="124">
+    <row r="339" ht="37.5" customHeight="1" s="122">
       <c r="A339" s="52" t="inlineStr">
         <is>
           <t>GiamSat200</t>
@@ -9919,7 +9919,7 @@
       <c r="L339" s="38" t="n"/>
       <c r="M339" s="75" t="n"/>
     </row>
-    <row r="340" ht="18.75" customHeight="1" s="124">
+    <row r="340" ht="18.75" customHeight="1" s="122">
       <c r="A340" s="52" t="inlineStr">
         <is>
           <t>GiamSat201</t>
@@ -9950,7 +9950,7 @@
       <c r="L340" s="38" t="n"/>
       <c r="M340" s="75" t="n"/>
     </row>
-    <row r="341" ht="18.75" customHeight="1" s="124">
+    <row r="341" ht="18.75" customHeight="1" s="122">
       <c r="A341" s="52" t="inlineStr">
         <is>
           <t>GiamSat202</t>
@@ -9981,7 +9981,7 @@
       <c r="L341" s="38" t="n"/>
       <c r="M341" s="75" t="n"/>
     </row>
-    <row r="342" ht="18.75" customHeight="1" s="124">
+    <row r="342" ht="18.75" customHeight="1" s="122">
       <c r="B342" s="37" t="n"/>
       <c r="C342" s="37" t="n"/>
       <c r="D342" s="38" t="n"/>
@@ -9995,7 +9995,7 @@
       <c r="L342" s="38" t="n"/>
       <c r="M342" s="75" t="n"/>
     </row>
-    <row r="343" ht="56.25" customHeight="1" s="124">
+    <row r="343" ht="56.25" customHeight="1" s="122">
       <c r="A343" s="41" t="inlineStr">
         <is>
           <t>8.12 Biểu đồ nhiên liệu mới</t>
@@ -10014,7 +10014,7 @@
       <c r="L343" s="42" t="n"/>
       <c r="M343" s="75" t="n"/>
     </row>
-    <row r="344" ht="56.25" customHeight="1" s="124">
+    <row r="344" ht="56.25" customHeight="1" s="122">
       <c r="A344" s="52" t="inlineStr">
         <is>
           <t>GiamSat203</t>
@@ -10045,7 +10045,7 @@
       <c r="L344" s="38" t="n"/>
       <c r="M344" s="75" t="n"/>
     </row>
-    <row r="345" ht="18.75" customHeight="1" s="124">
+    <row r="345" ht="18.75" customHeight="1" s="122">
       <c r="B345" s="37" t="n"/>
       <c r="C345" s="37" t="n"/>
       <c r="D345" s="38" t="n"/>
@@ -10059,7 +10059,7 @@
       <c r="L345" s="38" t="n"/>
       <c r="M345" s="75" t="n"/>
     </row>
-    <row r="346" ht="18.75" customHeight="1" s="124">
+    <row r="346" ht="18.75" customHeight="1" s="122">
       <c r="A346" s="40" t="inlineStr">
         <is>
           <t>8.13 GS theo tuyến mẫu</t>
@@ -10082,7 +10082,7 @@
       </c>
       <c r="M346" s="75" t="n"/>
     </row>
-    <row r="347" ht="37.5" customHeight="1" s="124">
+    <row r="347" ht="37.5" customHeight="1" s="122">
       <c r="A347" s="52" t="inlineStr">
         <is>
           <t>GiamSat204</t>
@@ -10113,7 +10113,7 @@
       <c r="L347" s="38" t="n"/>
       <c r="M347" s="75" t="n"/>
     </row>
-    <row r="348" ht="18.75" customHeight="1" s="124">
+    <row r="348" ht="18.75" customHeight="1" s="122">
       <c r="A348" s="52" t="inlineStr">
         <is>
           <t>GiamSat205</t>
@@ -10144,7 +10144,7 @@
       <c r="L348" s="38" t="n"/>
       <c r="M348" s="75" t="n"/>
     </row>
-    <row r="349" ht="18.75" customHeight="1" s="124">
+    <row r="349" ht="18.75" customHeight="1" s="122">
       <c r="B349" s="74" t="n"/>
       <c r="C349" s="74" t="n"/>
       <c r="D349" s="75" t="n"/>
@@ -10157,7 +10157,7 @@
       <c r="L349" s="75" t="n"/>
       <c r="M349" s="75" t="n"/>
     </row>
-    <row r="350" ht="18.75" customHeight="1" s="124">
+    <row r="350" ht="18.75" customHeight="1" s="122">
       <c r="A350" s="28" t="inlineStr">
         <is>
           <t>8.14 Chỉ dẫn đường - Tìm theo điểm</t>
@@ -10176,7 +10176,7 @@
       <c r="L350" s="9" t="n"/>
       <c r="M350" s="75" t="n"/>
     </row>
-    <row r="351" ht="37.5" customHeight="1" s="124">
+    <row r="351" ht="37.5" customHeight="1" s="122">
       <c r="A351" s="52" t="inlineStr">
         <is>
           <t>GiamSat206</t>
@@ -10211,7 +10211,7 @@
       <c r="L351" s="4" t="n"/>
       <c r="M351" s="75" t="n"/>
     </row>
-    <row r="352" ht="18.75" customHeight="1" s="124">
+    <row r="352" ht="18.75" customHeight="1" s="122">
       <c r="A352" s="52" t="inlineStr">
         <is>
           <t>GiamSat207</t>
@@ -10242,7 +10242,7 @@
       <c r="L352" s="4" t="n"/>
       <c r="M352" s="75" t="n"/>
     </row>
-    <row r="353" ht="18.75" customHeight="1" s="124">
+    <row r="353" ht="18.75" customHeight="1" s="122">
       <c r="A353" s="52" t="inlineStr">
         <is>
           <t>GiamSat208</t>
@@ -10273,7 +10273,7 @@
       <c r="L353" s="4" t="n"/>
       <c r="M353" s="75" t="n"/>
     </row>
-    <row r="354" ht="18.75" customHeight="1" s="124">
+    <row r="354" ht="18.75" customHeight="1" s="122">
       <c r="A354" s="52" t="inlineStr">
         <is>
           <t>GiamSat209</t>
@@ -10304,7 +10304,7 @@
       <c r="L354" s="4" t="n"/>
       <c r="M354" s="75" t="n"/>
     </row>
-    <row r="355" ht="18.75" customHeight="1" s="124">
+    <row r="355" ht="18.75" customHeight="1" s="122">
       <c r="A355" s="52" t="inlineStr">
         <is>
           <t>GiamSat210</t>
@@ -10335,7 +10335,7 @@
       <c r="L355" s="4" t="n"/>
       <c r="M355" s="75" t="n"/>
     </row>
-    <row r="356" ht="18.75" customHeight="1" s="124">
+    <row r="356" ht="18.75" customHeight="1" s="122">
       <c r="A356" s="52" t="inlineStr">
         <is>
           <t>GiamSat211</t>
@@ -10366,7 +10366,7 @@
       <c r="L356" s="4" t="n"/>
       <c r="M356" s="75" t="n"/>
     </row>
-    <row r="357" ht="18.75" customHeight="1" s="124">
+    <row r="357" ht="18.75" customHeight="1" s="122">
       <c r="A357" s="52" t="inlineStr">
         <is>
           <t>GiamSat212</t>
@@ -10397,7 +10397,7 @@
       <c r="L357" s="4" t="n"/>
       <c r="M357" s="75" t="n"/>
     </row>
-    <row r="358" ht="18.75" customHeight="1" s="124">
+    <row r="358" ht="18.75" customHeight="1" s="122">
       <c r="A358" s="52" t="inlineStr">
         <is>
           <t>GiamSat213</t>
@@ -10428,7 +10428,7 @@
       <c r="L358" s="4" t="n"/>
       <c r="M358" s="75" t="n"/>
     </row>
-    <row r="359" ht="18.75" customHeight="1" s="124">
+    <row r="359" ht="18.75" customHeight="1" s="122">
       <c r="B359" s="18" t="n"/>
       <c r="C359" s="18" t="n"/>
       <c r="D359" s="4" t="n"/>
@@ -10442,7 +10442,7 @@
       <c r="L359" s="4" t="n"/>
       <c r="M359" s="75" t="n"/>
     </row>
-    <row r="360" ht="18.75" customHeight="1" s="124">
+    <row r="360" ht="18.75" customHeight="1" s="122">
       <c r="A360" s="28" t="inlineStr">
         <is>
           <t>8.15 Chỉ dẫn đường - Tìm theo lộ trình</t>
@@ -10461,7 +10461,7 @@
       <c r="L360" s="9" t="n"/>
       <c r="M360" s="75" t="n"/>
     </row>
-    <row r="361" ht="56.25" customHeight="1" s="124">
+    <row r="361" ht="56.25" customHeight="1" s="122">
       <c r="A361" s="73" t="inlineStr">
         <is>
           <t>GiamSat214</t>
@@ -10492,7 +10492,7 @@
       <c r="L361" s="49" t="n"/>
       <c r="M361" s="75" t="n"/>
     </row>
-    <row r="362" ht="18.75" customHeight="1" s="124">
+    <row r="362" ht="18.75" customHeight="1" s="122">
       <c r="A362" s="52" t="inlineStr">
         <is>
           <t>GiamSat215</t>
@@ -10523,7 +10523,7 @@
       <c r="L362" s="38" t="n"/>
       <c r="M362" s="75" t="n"/>
     </row>
-    <row r="363" ht="18.75" customHeight="1" s="124">
+    <row r="363" ht="18.75" customHeight="1" s="122">
       <c r="A363" s="52" t="inlineStr">
         <is>
           <t>GiamSat216</t>
@@ -10554,7 +10554,7 @@
       <c r="L363" s="38" t="n"/>
       <c r="M363" s="75" t="n"/>
     </row>
-    <row r="364" ht="18.75" customHeight="1" s="124">
+    <row r="364" ht="18.75" customHeight="1" s="122">
       <c r="A364" s="52" t="inlineStr">
         <is>
           <t>GiamSat217</t>
@@ -10585,7 +10585,7 @@
       <c r="L364" s="38" t="n"/>
       <c r="M364" s="75" t="n"/>
     </row>
-    <row r="365" ht="18.75" customHeight="1" s="124">
+    <row r="365" ht="18.75" customHeight="1" s="122">
       <c r="A365" s="52" t="inlineStr">
         <is>
           <t>GiamSat218</t>
@@ -10616,7 +10616,7 @@
       <c r="L365" s="38" t="n"/>
       <c r="M365" s="75" t="n"/>
     </row>
-    <row r="366" ht="18.75" customHeight="1" s="124">
+    <row r="366" ht="18.75" customHeight="1" s="122">
       <c r="A366" s="52" t="inlineStr">
         <is>
           <t>GiamSat219</t>
@@ -10647,7 +10647,7 @@
       <c r="L366" s="38" t="n"/>
       <c r="M366" s="75" t="n"/>
     </row>
-    <row r="367" ht="18.75" customHeight="1" s="124">
+    <row r="367" ht="18.75" customHeight="1" s="122">
       <c r="A367" s="39" t="n"/>
       <c r="B367" s="37" t="n"/>
       <c r="C367" s="37" t="n"/>
@@ -10662,7 +10662,7 @@
       <c r="L367" s="38" t="n"/>
       <c r="M367" s="75" t="n"/>
     </row>
-    <row r="368" ht="18.75" customHeight="1" s="124">
+    <row r="368" ht="18.75" customHeight="1" s="122">
       <c r="A368" s="40" t="inlineStr">
         <is>
           <t>8.16 Biểu đồ nhiên liệu</t>
@@ -10681,7 +10681,7 @@
       <c r="L368" s="42" t="n"/>
       <c r="M368" s="75" t="n"/>
     </row>
-    <row r="369" ht="37.5" customHeight="1" s="124">
+    <row r="369" ht="37.5" customHeight="1" s="122">
       <c r="A369" s="52" t="inlineStr">
         <is>
           <t>GiamSat220</t>
@@ -10717,7 +10717,7 @@
       </c>
       <c r="M369" s="75" t="n"/>
     </row>
-    <row r="370" ht="18.75" customHeight="1" s="124">
+    <row r="370" ht="18.75" customHeight="1" s="122">
       <c r="A370" s="39" t="n"/>
       <c r="B370" s="37" t="n"/>
       <c r="C370" s="37" t="n"/>
@@ -10732,7 +10732,7 @@
       <c r="L370" s="38" t="n"/>
       <c r="M370" s="75" t="n"/>
     </row>
-    <row r="371" ht="18.75" customHeight="1" s="124">
+    <row r="371" ht="18.75" customHeight="1" s="122">
       <c r="A371" s="40" t="inlineStr">
         <is>
           <t>8.17 Điều xe đi tuyến</t>
@@ -10755,7 +10755,7 @@
       </c>
       <c r="M371" s="75" t="n"/>
     </row>
-    <row r="372" ht="37.5" customHeight="1" s="124">
+    <row r="372" ht="37.5" customHeight="1" s="122">
       <c r="A372" s="52" t="inlineStr">
         <is>
           <t>GiamSat221</t>
@@ -10786,7 +10786,7 @@
       <c r="L372" s="38" t="n"/>
       <c r="M372" s="75" t="n"/>
     </row>
-    <row r="373" ht="18.75" customHeight="1" s="124">
+    <row r="373" ht="18.75" customHeight="1" s="122">
       <c r="A373" s="52" t="inlineStr">
         <is>
           <t>GiamSat222</t>
@@ -10813,7 +10813,7 @@
       <c r="L373" s="38" t="n"/>
       <c r="M373" s="75" t="n"/>
     </row>
-    <row r="374" ht="18.75" customHeight="1" s="124">
+    <row r="374" ht="18.75" customHeight="1" s="122">
       <c r="A374" s="37" t="n"/>
       <c r="B374" s="37" t="n"/>
       <c r="C374" s="37" t="n"/>
@@ -10828,7 +10828,7 @@
       <c r="L374" s="38" t="n"/>
       <c r="M374" s="75" t="n"/>
     </row>
-    <row r="375" ht="18.75" customHeight="1" s="124">
+    <row r="375" ht="18.75" customHeight="1" s="122">
       <c r="A375" s="76" t="inlineStr">
         <is>
           <t>II.Lộ Trình</t>
@@ -10847,7 +10847,7 @@
       <c r="L375" s="77" t="n"/>
       <c r="M375" s="75" t="n"/>
     </row>
-    <row r="376" ht="37.5" customHeight="1" s="124">
+    <row r="376" ht="37.5" customHeight="1" s="122">
       <c r="A376" s="78" t="inlineStr">
         <is>
           <t>Route01</t>
@@ -10879,7 +10879,7 @@
       <c r="L376" s="80" t="n"/>
       <c r="M376" s="75" t="n"/>
     </row>
-    <row r="377" ht="93.75" customHeight="1" s="124">
+    <row r="377" ht="93.75" customHeight="1" s="122">
       <c r="A377" s="78" t="inlineStr">
         <is>
           <t>Route02</t>
@@ -10911,7 +10911,7 @@
       <c r="L377" s="80" t="n"/>
       <c r="M377" s="75" t="n"/>
     </row>
-    <row r="378" ht="37.5" customHeight="1" s="124">
+    <row r="378" ht="37.5" customHeight="1" s="122">
       <c r="A378" s="78" t="inlineStr">
         <is>
           <t>Route03</t>
@@ -10942,7 +10942,7 @@
       <c r="L378" s="80" t="n"/>
       <c r="M378" s="75" t="n"/>
     </row>
-    <row r="379" ht="18.75" customHeight="1" s="124">
+    <row r="379" ht="18.75" customHeight="1" s="122">
       <c r="A379" s="78" t="inlineStr">
         <is>
           <t>Route04</t>
@@ -10973,7 +10973,7 @@
       <c r="L379" s="80" t="n"/>
       <c r="M379" s="75" t="n"/>
     </row>
-    <row r="380" ht="18.75" customHeight="1" s="124">
+    <row r="380" ht="18.75" customHeight="1" s="122">
       <c r="A380" s="78" t="inlineStr">
         <is>
           <t>Route05</t>
@@ -11004,7 +11004,7 @@
       <c r="L380" s="80" t="n"/>
       <c r="M380" s="75" t="n"/>
     </row>
-    <row r="381" ht="18.75" customHeight="1" s="124">
+    <row r="381" ht="18.75" customHeight="1" s="122">
       <c r="A381" s="81" t="n"/>
       <c r="B381" s="79" t="n"/>
       <c r="C381" s="67" t="n"/>
@@ -11019,7 +11019,7 @@
       <c r="L381" s="80" t="n"/>
       <c r="M381" s="75" t="n"/>
     </row>
-    <row r="382" ht="18.75" customHeight="1" s="124">
+    <row r="382" ht="18.75" customHeight="1" s="122">
       <c r="A382" s="82" t="inlineStr">
         <is>
           <t>1. Cấu hình dữ liệu</t>
@@ -11038,7 +11038,7 @@
       <c r="L382" s="83" t="n"/>
       <c r="M382" s="75" t="n"/>
     </row>
-    <row r="383" ht="18.75" customHeight="1" s="124">
+    <row r="383" ht="18.75" customHeight="1" s="122">
       <c r="A383" s="89" t="inlineStr">
         <is>
           <t>Route06</t>
@@ -11069,7 +11069,7 @@
       <c r="L383" s="87" t="n"/>
       <c r="M383" s="75" t="n"/>
     </row>
-    <row r="384" ht="37.5" customHeight="1" s="124">
+    <row r="384" ht="37.5" customHeight="1" s="122">
       <c r="A384" s="89" t="inlineStr">
         <is>
           <t>Route07</t>
@@ -11100,7 +11100,7 @@
       <c r="L384" s="80" t="n"/>
       <c r="M384" s="75" t="n"/>
     </row>
-    <row r="385" ht="37.5" customHeight="1" s="124">
+    <row r="385" ht="37.5" customHeight="1" s="122">
       <c r="A385" s="89" t="inlineStr">
         <is>
           <t>Route08</t>
@@ -11131,7 +11131,7 @@
       <c r="L385" s="80" t="n"/>
       <c r="M385" s="75" t="n"/>
     </row>
-    <row r="386" ht="37.5" customHeight="1" s="124">
+    <row r="386" ht="37.5" customHeight="1" s="122">
       <c r="A386" s="89" t="inlineStr">
         <is>
           <t>Route09</t>
@@ -11162,7 +11162,7 @@
       <c r="L386" s="80" t="n"/>
       <c r="M386" s="75" t="n"/>
     </row>
-    <row r="387" ht="37.5" customHeight="1" s="124">
+    <row r="387" ht="37.5" customHeight="1" s="122">
       <c r="A387" s="89" t="inlineStr">
         <is>
           <t>Route10</t>
@@ -11193,7 +11193,7 @@
       <c r="L387" s="80" t="n"/>
       <c r="M387" s="75" t="n"/>
     </row>
-    <row r="388" ht="37.5" customHeight="1" s="124">
+    <row r="388" ht="37.5" customHeight="1" s="122">
       <c r="A388" s="89" t="inlineStr">
         <is>
           <t>Route11</t>
@@ -11224,7 +11224,7 @@
       <c r="L388" s="80" t="n"/>
       <c r="M388" s="75" t="n"/>
     </row>
-    <row r="389" ht="37.5" customHeight="1" s="124">
+    <row r="389" ht="37.5" customHeight="1" s="122">
       <c r="A389" s="89" t="inlineStr">
         <is>
           <t>Route12</t>
@@ -11255,7 +11255,7 @@
       <c r="L389" s="80" t="n"/>
       <c r="M389" s="75" t="n"/>
     </row>
-    <row r="390" ht="37.5" customHeight="1" s="124">
+    <row r="390" ht="37.5" customHeight="1" s="122">
       <c r="A390" s="89" t="inlineStr">
         <is>
           <t>Route13</t>
@@ -11286,7 +11286,7 @@
       <c r="L390" s="80" t="n"/>
       <c r="M390" s="75" t="n"/>
     </row>
-    <row r="391" ht="37.5" customHeight="1" s="124">
+    <row r="391" ht="37.5" customHeight="1" s="122">
       <c r="A391" s="89" t="inlineStr">
         <is>
           <t>Route14</t>
@@ -11317,7 +11317,7 @@
       <c r="L391" s="80" t="n"/>
       <c r="M391" s="75" t="n"/>
     </row>
-    <row r="392" ht="37.5" customHeight="1" s="124">
+    <row r="392" ht="37.5" customHeight="1" s="122">
       <c r="A392" s="89" t="inlineStr">
         <is>
           <t>Route15</t>
@@ -11348,7 +11348,7 @@
       <c r="L392" s="80" t="n"/>
       <c r="M392" s="75" t="n"/>
     </row>
-    <row r="393" ht="37.5" customHeight="1" s="124">
+    <row r="393" ht="37.5" customHeight="1" s="122">
       <c r="A393" s="89" t="inlineStr">
         <is>
           <t>Route16</t>
@@ -11379,7 +11379,7 @@
       <c r="L393" s="80" t="n"/>
       <c r="M393" s="75" t="n"/>
     </row>
-    <row r="394" ht="18.75" customHeight="1" s="124">
+    <row r="394" ht="18.75" customHeight="1" s="122">
       <c r="A394" s="92" t="n"/>
       <c r="B394" s="90" t="n"/>
       <c r="C394" s="91" t="n"/>
@@ -11394,14 +11394,14 @@
       <c r="L394" s="80" t="n"/>
       <c r="M394" s="75" t="n"/>
     </row>
-    <row r="395" ht="18.75" customHeight="1" s="124">
-      <c r="A395" s="119" t="inlineStr">
+    <row r="395" ht="18.75" customHeight="1" s="122">
+      <c r="A395" s="128" t="inlineStr">
         <is>
           <t>2. Cấu hình hiển thị lộ trình</t>
         </is>
       </c>
-      <c r="B395" s="120" t="n"/>
-      <c r="C395" s="119" t="n"/>
+      <c r="B395" s="129" t="n"/>
+      <c r="C395" s="128" t="n"/>
       <c r="D395" s="83" t="n"/>
       <c r="E395" s="83" t="n"/>
       <c r="F395" s="83" t="n"/>
@@ -11413,7 +11413,7 @@
       <c r="L395" s="83" t="n"/>
       <c r="M395" s="75" t="n"/>
     </row>
-    <row r="396" ht="18.75" customHeight="1" s="124">
+    <row r="396" ht="18.75" customHeight="1" s="122">
       <c r="A396" s="89" t="inlineStr">
         <is>
           <t>Route17</t>
@@ -11448,7 +11448,7 @@
       <c r="L396" s="80" t="n"/>
       <c r="M396" s="75" t="n"/>
     </row>
-    <row r="397" ht="18.75" customHeight="1" s="124">
+    <row r="397" ht="18.75" customHeight="1" s="122">
       <c r="A397" s="89" t="inlineStr">
         <is>
           <t>Route18</t>
@@ -11479,7 +11479,7 @@
       <c r="L397" s="80" t="n"/>
       <c r="M397" s="75" t="n"/>
     </row>
-    <row r="398" ht="18.75" customHeight="1" s="124">
+    <row r="398" ht="18.75" customHeight="1" s="122">
       <c r="A398" s="89" t="inlineStr">
         <is>
           <t>Route19</t>
@@ -11510,7 +11510,7 @@
       <c r="L398" s="80" t="n"/>
       <c r="M398" s="75" t="n"/>
     </row>
-    <row r="399" ht="18.75" customHeight="1" s="124">
+    <row r="399" ht="18.75" customHeight="1" s="122">
       <c r="A399" s="89" t="inlineStr">
         <is>
           <t>Route20</t>
@@ -11541,7 +11541,7 @@
       <c r="L399" s="80" t="n"/>
       <c r="M399" s="75" t="n"/>
     </row>
-    <row r="400" ht="18.75" customHeight="1" s="124">
+    <row r="400" ht="18.75" customHeight="1" s="122">
       <c r="A400" s="89" t="inlineStr">
         <is>
           <t>Route21</t>
@@ -11572,7 +11572,7 @@
       <c r="L400" s="80" t="n"/>
       <c r="M400" s="75" t="n"/>
     </row>
-    <row r="401" ht="18.75" customHeight="1" s="124">
+    <row r="401" ht="18.75" customHeight="1" s="122">
       <c r="A401" s="89" t="inlineStr">
         <is>
           <t>Route22</t>
@@ -11603,7 +11603,7 @@
       <c r="L401" s="80" t="n"/>
       <c r="M401" s="75" t="n"/>
     </row>
-    <row r="402" ht="18.75" customHeight="1" s="124">
+    <row r="402" ht="18.75" customHeight="1" s="122">
       <c r="A402" s="92" t="n"/>
       <c r="B402" s="92" t="n"/>
       <c r="C402" s="92" t="n"/>
@@ -11618,7 +11618,7 @@
       <c r="L402" s="80" t="n"/>
       <c r="M402" s="75" t="n"/>
     </row>
-    <row r="403" ht="18.75" customHeight="1" s="124">
+    <row r="403" ht="18.75" customHeight="1" s="122">
       <c r="A403" s="93" t="inlineStr">
         <is>
           <t>III. Quản trị</t>
@@ -11637,7 +11637,7 @@
       <c r="L403" s="84" t="n"/>
       <c r="M403" s="75" t="n"/>
     </row>
-    <row r="404" ht="18.75" customHeight="1" s="124">
+    <row r="404" ht="18.75" customHeight="1" s="122">
       <c r="A404" s="126" t="inlineStr">
         <is>
           <t>1. Quản trị xe</t>
@@ -11656,7 +11656,7 @@
       <c r="L404" s="85" t="n"/>
       <c r="M404" s="75" t="n"/>
     </row>
-    <row r="405" ht="18.75" customHeight="1" s="124">
+    <row r="405" ht="18.75" customHeight="1" s="122">
       <c r="A405" s="33" t="inlineStr">
         <is>
           <t>1.1 Quản trị loại phương tiện</t>
@@ -11675,7 +11675,7 @@
       <c r="L405" s="35" t="n"/>
       <c r="M405" s="75" t="n"/>
     </row>
-    <row r="406" ht="18.75" customHeight="1" s="124">
+    <row r="406" ht="18.75" customHeight="1" s="122">
       <c r="A406" s="95" t="inlineStr">
         <is>
           <t>Admin01</t>
@@ -11710,7 +11710,7 @@
       <c r="L406" s="86" t="n"/>
       <c r="M406" s="75" t="n"/>
     </row>
-    <row r="407" ht="18.75" customHeight="1" s="124">
+    <row r="407" ht="18.75" customHeight="1" s="122">
       <c r="A407" s="95" t="inlineStr">
         <is>
           <t>Admin02</t>
@@ -11737,7 +11737,7 @@
       <c r="L407" s="86" t="n"/>
       <c r="M407" s="75" t="n"/>
     </row>
-    <row r="408" ht="18.75" customHeight="1" s="124">
+    <row r="408" ht="18.75" customHeight="1" s="122">
       <c r="A408" s="95" t="inlineStr">
         <is>
           <t>Admin03</t>
@@ -11764,7 +11764,7 @@
       <c r="L408" s="86" t="n"/>
       <c r="M408" s="75" t="n"/>
     </row>
-    <row r="409" ht="18.75" customHeight="1" s="124">
+    <row r="409" ht="18.75" customHeight="1" s="122">
       <c r="A409" s="95" t="inlineStr">
         <is>
           <t>Admin04</t>
@@ -11790,7 +11790,7 @@
       <c r="L409" s="86" t="n"/>
       <c r="M409" s="75" t="n"/>
     </row>
-    <row r="410" ht="18.75" customHeight="1" s="124">
+    <row r="410" ht="18.75" customHeight="1" s="122">
       <c r="A410" s="95" t="inlineStr">
         <is>
           <t>Admin05</t>
@@ -11817,7 +11817,7 @@
       <c r="L410" s="86" t="n"/>
       <c r="M410" s="75" t="n"/>
     </row>
-    <row r="411" ht="18.75" customHeight="1" s="124">
+    <row r="411" ht="18.75" customHeight="1" s="122">
       <c r="A411" s="95" t="inlineStr">
         <is>
           <t>Admin06</t>
@@ -11843,7 +11843,7 @@
       <c r="L411" s="86" t="n"/>
       <c r="M411" s="75" t="n"/>
     </row>
-    <row r="412" ht="18.75" customHeight="1" s="124">
+    <row r="412" ht="18.75" customHeight="1" s="122">
       <c r="A412" s="95" t="inlineStr">
         <is>
           <t>Admin07</t>
@@ -11870,7 +11870,7 @@
       <c r="L412" s="86" t="n"/>
       <c r="M412" s="75" t="n"/>
     </row>
-    <row r="413" ht="18.75" customHeight="1" s="124">
+    <row r="413" ht="18.75" customHeight="1" s="122">
       <c r="A413" s="95" t="inlineStr">
         <is>
           <t>Admin08</t>
@@ -11897,7 +11897,7 @@
       <c r="L413" s="86" t="n"/>
       <c r="M413" s="75" t="n"/>
     </row>
-    <row r="414" ht="18.75" customHeight="1" s="124">
+    <row r="414" ht="18.75" customHeight="1" s="122">
       <c r="B414" s="96" t="n"/>
       <c r="C414" s="97" t="n"/>
       <c r="D414" s="86" t="n"/>
@@ -11911,7 +11911,7 @@
       <c r="L414" s="86" t="n"/>
       <c r="M414" s="75" t="n"/>
     </row>
-    <row r="415" ht="18.75" customHeight="1" s="124">
+    <row r="415" ht="18.75" customHeight="1" s="122">
       <c r="A415" s="45" t="inlineStr">
         <is>
           <t>1.2 Danh sách xe</t>
@@ -11930,7 +11930,7 @@
       <c r="L415" s="35" t="n"/>
       <c r="M415" s="75" t="n"/>
     </row>
-    <row r="416" ht="18.75" customHeight="1" s="124">
+    <row r="416" ht="18.75" customHeight="1" s="122">
       <c r="A416" s="89" t="inlineStr">
         <is>
           <t>Admin09</t>
@@ -11965,7 +11965,7 @@
       <c r="L416" s="80" t="n"/>
       <c r="M416" s="75" t="n"/>
     </row>
-    <row r="417" ht="18.75" customHeight="1" s="124">
+    <row r="417" ht="18.75" customHeight="1" s="122">
       <c r="A417" s="89" t="inlineStr">
         <is>
           <t>Admin10</t>
@@ -11996,7 +11996,7 @@
       <c r="L417" s="80" t="n"/>
       <c r="M417" s="75" t="n"/>
     </row>
-    <row r="418" ht="18.75" customHeight="1" s="124">
+    <row r="418" ht="18.75" customHeight="1" s="122">
       <c r="A418" s="89" t="inlineStr">
         <is>
           <t>Admin11</t>
@@ -12027,7 +12027,7 @@
       <c r="L418" s="80" t="n"/>
       <c r="M418" s="75" t="n"/>
     </row>
-    <row r="419" ht="39.75" customHeight="1" s="124">
+    <row r="419" ht="39.75" customHeight="1" s="122">
       <c r="A419" s="89" t="inlineStr">
         <is>
           <t>Admin12</t>
@@ -12058,7 +12058,7 @@
       <c r="L419" s="80" t="n"/>
       <c r="M419" s="75" t="n"/>
     </row>
-    <row r="420" ht="36.75" customHeight="1" s="124">
+    <row r="420" ht="36.75" customHeight="1" s="122">
       <c r="A420" s="89" t="inlineStr">
         <is>
           <t>Admin13</t>
@@ -12090,7 +12090,7 @@
       <c r="L420" s="80" t="n"/>
       <c r="M420" s="75" t="n"/>
     </row>
-    <row r="421" ht="36.75" customHeight="1" s="124">
+    <row r="421" ht="36.75" customHeight="1" s="122">
       <c r="A421" s="89" t="inlineStr">
         <is>
           <t>Admin14</t>
@@ -12121,7 +12121,7 @@
       <c r="L421" s="80" t="n"/>
       <c r="M421" s="75" t="n"/>
     </row>
-    <row r="422" ht="18.75" customHeight="1" s="124">
+    <row r="422" ht="18.75" customHeight="1" s="122">
       <c r="A422" s="89" t="inlineStr">
         <is>
           <t>Admin15</t>
@@ -12152,7 +12152,7 @@
       <c r="L422" s="80" t="n"/>
       <c r="M422" s="75" t="n"/>
     </row>
-    <row r="423" ht="18.75" customHeight="1" s="124">
+    <row r="423" ht="18.75" customHeight="1" s="122">
       <c r="A423" s="89" t="inlineStr">
         <is>
           <t>Admin16</t>
@@ -12183,7 +12183,7 @@
       <c r="L423" s="80" t="n"/>
       <c r="M423" s="75" t="n"/>
     </row>
-    <row r="424" ht="18.75" customHeight="1" s="124">
+    <row r="424" ht="18.75" customHeight="1" s="122">
       <c r="A424" s="89" t="inlineStr">
         <is>
           <t>Admin17</t>
@@ -12214,7 +12214,7 @@
       <c r="L424" s="80" t="n"/>
       <c r="M424" s="75" t="n"/>
     </row>
-    <row r="425" ht="18.75" customHeight="1" s="124">
+    <row r="425" ht="18.75" customHeight="1" s="122">
       <c r="A425" s="89" t="inlineStr">
         <is>
           <t>Admin18</t>
@@ -12245,7 +12245,7 @@
       <c r="L425" s="80" t="n"/>
       <c r="M425" s="75" t="n"/>
     </row>
-    <row r="426" ht="18.75" customHeight="1" s="124">
+    <row r="426" ht="18.75" customHeight="1" s="122">
       <c r="A426" s="89" t="inlineStr">
         <is>
           <t>Admin19</t>
@@ -12276,7 +12276,7 @@
       <c r="L426" s="80" t="n"/>
       <c r="M426" s="75" t="n"/>
     </row>
-    <row r="427" ht="18" customHeight="1" s="124">
+    <row r="427" ht="18" customHeight="1" s="122">
       <c r="A427" s="89" t="inlineStr">
         <is>
           <t>Admin20</t>
@@ -12303,7 +12303,7 @@
       <c r="L427" s="80" t="n"/>
       <c r="M427" s="75" t="n"/>
     </row>
-    <row r="428" ht="18.75" customHeight="1" s="124">
+    <row r="428" ht="18.75" customHeight="1" s="122">
       <c r="A428" s="89" t="inlineStr">
         <is>
           <t>Admin21</t>
@@ -12330,7 +12330,7 @@
       <c r="L428" s="80" t="n"/>
       <c r="M428" s="75" t="n"/>
     </row>
-    <row r="429" ht="18.75" customHeight="1" s="124">
+    <row r="429" ht="18.75" customHeight="1" s="122">
       <c r="A429" s="89" t="n"/>
       <c r="B429" s="90" t="n"/>
       <c r="C429" s="91" t="n"/>
@@ -12345,7 +12345,7 @@
       <c r="L429" s="80" t="n"/>
       <c r="M429" s="75" t="n"/>
     </row>
-    <row r="430" ht="18.75" customHeight="1" s="124">
+    <row r="430" ht="18.75" customHeight="1" s="122">
       <c r="A430" s="46" t="inlineStr">
         <is>
           <t>1.3 Quản trị nhóm</t>
@@ -12364,7 +12364,7 @@
       <c r="L430" s="42" t="n"/>
       <c r="M430" s="75" t="n"/>
     </row>
-    <row r="431" ht="18.75" customHeight="1" s="124">
+    <row r="431" ht="18.75" customHeight="1" s="122">
       <c r="A431" s="89" t="inlineStr">
         <is>
           <t>Admin22</t>
@@ -12399,7 +12399,7 @@
       <c r="L431" s="80" t="n"/>
       <c r="M431" s="75" t="n"/>
     </row>
-    <row r="432" ht="18.75" customHeight="1" s="124">
+    <row r="432" ht="18.75" customHeight="1" s="122">
       <c r="A432" s="89" t="inlineStr">
         <is>
           <t>Admin23</t>
@@ -12430,7 +12430,7 @@
       <c r="L432" s="80" t="n"/>
       <c r="M432" s="75" t="n"/>
     </row>
-    <row r="433" ht="18.75" customHeight="1" s="124">
+    <row r="433" ht="18.75" customHeight="1" s="122">
       <c r="A433" s="89" t="inlineStr">
         <is>
           <t>Admin24</t>
@@ -12457,7 +12457,7 @@
       <c r="L433" s="80" t="n"/>
       <c r="M433" s="75" t="n"/>
     </row>
-    <row r="434" ht="18.75" customHeight="1" s="124">
+    <row r="434" ht="18.75" customHeight="1" s="122">
       <c r="A434" s="89" t="inlineStr">
         <is>
           <t>Admin25</t>
@@ -12484,7 +12484,7 @@
       <c r="L434" s="80" t="n"/>
       <c r="M434" s="75" t="n"/>
     </row>
-    <row r="435" ht="18.75" customHeight="1" s="124">
+    <row r="435" ht="18.75" customHeight="1" s="122">
       <c r="A435" s="89" t="inlineStr">
         <is>
           <t>Admin26</t>
@@ -12511,7 +12511,7 @@
       <c r="L435" s="80" t="n"/>
       <c r="M435" s="75" t="n"/>
     </row>
-    <row r="436" ht="18.75" customHeight="1" s="124">
+    <row r="436" ht="18.75" customHeight="1" s="122">
       <c r="A436" s="89" t="inlineStr">
         <is>
           <t>Admin27</t>
@@ -12538,7 +12538,7 @@
       <c r="L436" s="80" t="n"/>
       <c r="M436" s="75" t="n"/>
     </row>
-    <row r="437" ht="18.75" customHeight="1" s="124">
+    <row r="437" ht="18.75" customHeight="1" s="122">
       <c r="A437" s="89" t="inlineStr">
         <is>
           <t>Admin28</t>
@@ -12565,7 +12565,7 @@
       <c r="L437" s="80" t="n"/>
       <c r="M437" s="75" t="n"/>
     </row>
-    <row r="438" ht="18.75" customHeight="1" s="124">
+    <row r="438" ht="18.75" customHeight="1" s="122">
       <c r="A438" s="89" t="inlineStr">
         <is>
           <t>Admin29</t>
@@ -12592,7 +12592,7 @@
       <c r="L438" s="80" t="n"/>
       <c r="M438" s="75" t="n"/>
     </row>
-    <row r="439" ht="18.75" customHeight="1" s="124">
+    <row r="439" ht="18.75" customHeight="1" s="122">
       <c r="A439" s="89" t="inlineStr">
         <is>
           <t>Admin30</t>
@@ -12619,7 +12619,7 @@
       <c r="L439" s="80" t="n"/>
       <c r="M439" s="75" t="n"/>
     </row>
-    <row r="440" ht="18.75" customHeight="1" s="124">
+    <row r="440" ht="18.75" customHeight="1" s="122">
       <c r="A440" s="89" t="inlineStr">
         <is>
           <t>Admin31</t>
@@ -12646,7 +12646,7 @@
       <c r="L440" s="80" t="n"/>
       <c r="M440" s="75" t="n"/>
     </row>
-    <row r="441" ht="18.75" customHeight="1" s="124">
+    <row r="441" ht="18.75" customHeight="1" s="122">
       <c r="A441" s="39" t="n"/>
       <c r="B441" s="90" t="n"/>
       <c r="C441" s="91" t="n"/>
@@ -12661,7 +12661,7 @@
       <c r="L441" s="80" t="n"/>
       <c r="M441" s="75" t="n"/>
     </row>
-    <row r="442" ht="18.75" customHeight="1" s="124">
+    <row r="442" ht="18.75" customHeight="1" s="122">
       <c r="A442" s="46" t="inlineStr">
         <is>
           <t>1.4 Phân quyền nhóm xe</t>
@@ -12680,7 +12680,7 @@
       <c r="L442" s="42" t="n"/>
       <c r="M442" s="75" t="n"/>
     </row>
-    <row r="443" ht="38.25" customHeight="1" s="124">
+    <row r="443" ht="38.25" customHeight="1" s="122">
       <c r="A443" s="89" t="inlineStr">
         <is>
           <t>Admin32</t>
@@ -12715,7 +12715,7 @@
       <c r="L443" s="80" t="n"/>
       <c r="M443" s="75" t="n"/>
     </row>
-    <row r="444" ht="18.75" customHeight="1" s="124">
+    <row r="444" ht="18.75" customHeight="1" s="122">
       <c r="A444" s="89" t="inlineStr">
         <is>
           <t>Admin33</t>
@@ -12742,7 +12742,7 @@
       <c r="L444" s="80" t="n"/>
       <c r="M444" s="75" t="n"/>
     </row>
-    <row r="445" ht="18.75" customHeight="1" s="124">
+    <row r="445" ht="18.75" customHeight="1" s="122">
       <c r="A445" s="89" t="inlineStr">
         <is>
           <t>Admin34</t>
@@ -12768,7 +12768,7 @@
       </c>
       <c r="M445" s="75" t="n"/>
     </row>
-    <row r="446" ht="18.75" customHeight="1" s="124">
+    <row r="446" ht="18.75" customHeight="1" s="122">
       <c r="A446" s="89" t="inlineStr">
         <is>
           <t>Admin35</t>
@@ -12794,7 +12794,7 @@
       </c>
       <c r="M446" s="75" t="n"/>
     </row>
-    <row r="447" ht="18.75" customHeight="1" s="124">
+    <row r="447" ht="18.75" customHeight="1" s="122">
       <c r="A447" s="89" t="n"/>
       <c r="B447" s="90" t="n"/>
       <c r="C447" s="39" t="n"/>
@@ -12809,13 +12809,13 @@
       <c r="L447" s="80" t="n"/>
       <c r="M447" s="75" t="n"/>
     </row>
-    <row r="448" ht="18.75" customHeight="1" s="124">
-      <c r="A448" s="128" t="inlineStr">
+    <row r="448" ht="18.75" customHeight="1" s="122">
+      <c r="A448" s="123" t="inlineStr">
         <is>
           <t>2.Quản trị công ty</t>
         </is>
       </c>
-      <c r="B448" s="129" t="n"/>
+      <c r="B448" s="124" t="n"/>
       <c r="C448" s="94" t="n"/>
       <c r="D448" s="85" t="n"/>
       <c r="E448" s="85" t="n"/>
@@ -12828,7 +12828,7 @@
       <c r="L448" s="85" t="n"/>
       <c r="M448" s="75" t="n"/>
     </row>
-    <row r="449" ht="18.75" customHeight="1" s="124">
+    <row r="449" ht="18.75" customHeight="1" s="122">
       <c r="A449" s="126" t="inlineStr">
         <is>
           <t>3.Quản trị hệ thống</t>
@@ -12847,7 +12847,7 @@
       <c r="L449" s="85" t="n"/>
       <c r="M449" s="75" t="n"/>
     </row>
-    <row r="450" ht="18.75" customHeight="1" s="124">
+    <row r="450" ht="18.75" customHeight="1" s="122">
       <c r="A450" s="45" t="inlineStr">
         <is>
           <t>3.1 Danh sách người dùng</t>
@@ -12866,7 +12866,7 @@
       <c r="L450" s="35" t="n"/>
       <c r="M450" s="75" t="n"/>
     </row>
-    <row r="451" ht="75" customHeight="1" s="124">
+    <row r="451" ht="75" customHeight="1" s="122">
       <c r="A451" s="95" t="inlineStr">
         <is>
           <t>User01</t>
@@ -12898,7 +12898,7 @@
       <c r="L451" s="86" t="n"/>
       <c r="M451" s="75" t="n"/>
     </row>
-    <row r="452" ht="37.5" customHeight="1" s="124">
+    <row r="452" ht="37.5" customHeight="1" s="122">
       <c r="A452" s="95" t="inlineStr">
         <is>
           <t>User02</t>
@@ -12929,7 +12929,7 @@
       <c r="L452" s="86" t="n"/>
       <c r="M452" s="75" t="n"/>
     </row>
-    <row r="453" ht="37.5" customHeight="1" s="124">
+    <row r="453" ht="37.5" customHeight="1" s="122">
       <c r="A453" s="95" t="inlineStr">
         <is>
           <t>User03</t>
@@ -12960,7 +12960,7 @@
       <c r="L453" s="86" t="n"/>
       <c r="M453" s="75" t="n"/>
     </row>
-    <row r="454" ht="37.5" customHeight="1" s="124">
+    <row r="454" ht="37.5" customHeight="1" s="122">
       <c r="A454" s="95" t="inlineStr">
         <is>
           <t>User04</t>
@@ -12995,7 +12995,7 @@
       </c>
       <c r="M454" s="75" t="n"/>
     </row>
-    <row r="455" ht="56.25" customHeight="1" s="124">
+    <row r="455" ht="56.25" customHeight="1" s="122">
       <c r="A455" s="95" t="inlineStr">
         <is>
           <t>User05</t>
@@ -13030,7 +13030,7 @@
       </c>
       <c r="M455" s="75" t="n"/>
     </row>
-    <row r="456" ht="37.5" customHeight="1" s="124">
+    <row r="456" ht="37.5" customHeight="1" s="122">
       <c r="A456" s="95" t="inlineStr">
         <is>
           <t>User06</t>
@@ -13065,7 +13065,7 @@
       </c>
       <c r="M456" s="75" t="n"/>
     </row>
-    <row r="457" ht="37.5" customHeight="1" s="124">
+    <row r="457" ht="37.5" customHeight="1" s="122">
       <c r="A457" s="95" t="inlineStr">
         <is>
           <t>User07</t>
@@ -13100,7 +13100,7 @@
       </c>
       <c r="M457" s="75" t="n"/>
     </row>
-    <row r="458" ht="56.25" customHeight="1" s="124">
+    <row r="458" ht="56.25" customHeight="1" s="122">
       <c r="A458" s="95" t="inlineStr">
         <is>
           <t>User08</t>
@@ -13135,7 +13135,7 @@
       </c>
       <c r="M458" s="75" t="n"/>
     </row>
-    <row r="459" ht="37.5" customHeight="1" s="124">
+    <row r="459" ht="37.5" customHeight="1" s="122">
       <c r="A459" s="95" t="inlineStr">
         <is>
           <t>User09</t>
@@ -13170,7 +13170,7 @@
       </c>
       <c r="M459" s="75" t="n"/>
     </row>
-    <row r="460" ht="75" customHeight="1" s="124">
+    <row r="460" ht="75" customHeight="1" s="122">
       <c r="A460" s="95" t="inlineStr">
         <is>
           <t>User10</t>
@@ -13205,7 +13205,7 @@
       </c>
       <c r="M460" s="75" t="n"/>
     </row>
-    <row r="461" ht="37.5" customHeight="1" s="124">
+    <row r="461" ht="37.5" customHeight="1" s="122">
       <c r="A461" s="98" t="inlineStr">
         <is>
           <t>User11</t>
@@ -13240,7 +13240,7 @@
       </c>
       <c r="M461" s="75" t="n"/>
     </row>
-    <row r="462" ht="37.5" customHeight="1" s="124">
+    <row r="462" ht="37.5" customHeight="1" s="122">
       <c r="A462" s="98" t="inlineStr">
         <is>
           <t>User12</t>
@@ -13275,7 +13275,7 @@
       </c>
       <c r="M462" s="75" t="n"/>
     </row>
-    <row r="463" ht="18.75" customHeight="1" s="124">
+    <row r="463" ht="18.75" customHeight="1" s="122">
       <c r="A463" s="126" t="inlineStr">
         <is>
           <t>3.Quản lý lái xe</t>
@@ -13294,7 +13294,7 @@
       <c r="L463" s="85" t="n"/>
       <c r="M463" s="75" t="n"/>
     </row>
-    <row r="464" ht="18.75" customHeight="1" s="124" thickBot="1">
+    <row r="464" ht="18.75" customHeight="1" s="122" thickBot="1">
       <c r="A464" s="126" t="inlineStr">
         <is>
           <t>4.Quản trị thông báo</t>
@@ -13313,7 +13313,7 @@
       <c r="L464" s="85" t="n"/>
       <c r="M464" s="75" t="n"/>
     </row>
-    <row r="465" ht="18.75" customHeight="1" s="124" thickBot="1">
+    <row r="465" ht="18.75" customHeight="1" s="122" thickBot="1">
       <c r="A465" s="101" t="inlineStr">
         <is>
           <t>III. BÁO CÁO</t>
@@ -13331,13 +13331,13 @@
       <c r="K465" s="103" t="n"/>
       <c r="L465" s="103" t="n"/>
     </row>
-    <row r="466" ht="18.75" customHeight="1" s="124" thickBot="1">
-      <c r="A466" s="121" t="inlineStr">
+    <row r="466" ht="18.75" customHeight="1" s="122" thickBot="1">
+      <c r="A466" s="119" t="inlineStr">
         <is>
           <t>1.Báo cáo tổng hợp hoạt động</t>
         </is>
       </c>
-      <c r="B466" s="122" t="n"/>
+      <c r="B466" s="120" t="n"/>
       <c r="C466" s="104" t="n"/>
       <c r="D466" s="105" t="n"/>
       <c r="E466" s="105" t="n"/>
@@ -13349,7 +13349,7 @@
       <c r="K466" s="105" t="n"/>
       <c r="L466" s="105" t="n"/>
     </row>
-    <row r="467" ht="18.75" customHeight="1" s="124" thickBot="1">
+    <row r="467" ht="18.75" customHeight="1" s="122" thickBot="1">
       <c r="A467" s="106" t="inlineStr">
         <is>
           <t>Report01</t>
@@ -13379,7 +13379,7 @@
       <c r="K467" s="109" t="n"/>
       <c r="L467" s="109" t="n"/>
     </row>
-    <row r="468" ht="18.75" customHeight="1" s="124" thickBot="1">
+    <row r="468" ht="18.75" customHeight="1" s="122" thickBot="1">
       <c r="A468" s="106" t="inlineStr">
         <is>
           <t>Report02</t>
@@ -13411,7 +13411,7 @@
       <c r="K468" s="109" t="n"/>
       <c r="L468" s="109" t="n"/>
     </row>
-    <row r="469" ht="18.75" customHeight="1" s="124" thickBot="1">
+    <row r="469" ht="18.75" customHeight="1" s="122" thickBot="1">
       <c r="A469" s="106" t="inlineStr">
         <is>
           <t>Report03</t>
@@ -13440,15 +13440,19 @@
       <c r="I469" s="109" t="inlineStr"/>
       <c r="J469" s="109" t="n"/>
       <c r="K469" s="109" t="n"/>
-      <c r="L469" s="109" t="n"/>
-    </row>
-    <row r="470" ht="18.75" customHeight="1" s="124" thickBot="1">
-      <c r="A470" s="121" t="inlineStr">
+      <c r="L469" s="109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="470" ht="18.75" customHeight="1" s="122" thickBot="1">
+      <c r="A470" s="119" t="inlineStr">
         <is>
           <t>2.Báo cáo Chi tiết hoạt động</t>
         </is>
       </c>
-      <c r="B470" s="122" t="n"/>
+      <c r="B470" s="120" t="n"/>
       <c r="C470" s="104" t="n"/>
       <c r="D470" s="105" t="n"/>
       <c r="E470" s="105" t="n"/>
@@ -13460,7 +13464,7 @@
       <c r="K470" s="105" t="n"/>
       <c r="L470" s="105" t="n"/>
     </row>
-    <row r="471" ht="18.75" customHeight="1" s="124" thickBot="1">
+    <row r="471" ht="18.75" customHeight="1" s="122" thickBot="1">
       <c r="A471" s="106" t="inlineStr">
         <is>
           <t>Report04</t>
@@ -13490,7 +13494,7 @@
       <c r="K471" s="109" t="n"/>
       <c r="L471" s="109" t="n"/>
     </row>
-    <row r="472" ht="18.75" customHeight="1" s="124" thickBot="1">
+    <row r="472" ht="18.75" customHeight="1" s="122" thickBot="1">
       <c r="A472" s="106" t="inlineStr">
         <is>
           <t>Report05</t>
@@ -13520,7 +13524,7 @@
       <c r="K472" s="109" t="n"/>
       <c r="L472" s="109" t="n"/>
     </row>
-    <row r="473" ht="18.75" customHeight="1" s="124" thickBot="1">
+    <row r="473" ht="18.75" customHeight="1" s="122" thickBot="1">
       <c r="A473" s="106" t="inlineStr">
         <is>
           <t>Report06</t>
@@ -13550,7 +13554,7 @@
       <c r="K473" s="109" t="n"/>
       <c r="L473" s="109" t="n"/>
     </row>
-    <row r="474" ht="18.75" customHeight="1" s="124" thickBot="1">
+    <row r="474" ht="18.75" customHeight="1" s="122" thickBot="1">
       <c r="A474" s="106" t="inlineStr">
         <is>
           <t>Report07</t>
@@ -13580,7 +13584,7 @@
       <c r="K474" s="109" t="n"/>
       <c r="L474" s="109" t="n"/>
     </row>
-    <row r="475" ht="18.75" customHeight="1" s="124" thickBot="1">
+    <row r="475" ht="18.75" customHeight="1" s="122" thickBot="1">
       <c r="A475" s="106" t="inlineStr">
         <is>
           <t>Report08</t>
@@ -13609,8 +13613,13 @@
       <c r="I475" s="109" t="inlineStr"/>
       <c r="J475" s="109" t="n"/>
       <c r="K475" s="109" t="n"/>
-    </row>
-    <row r="476" ht="18.75" customHeight="1" s="124" thickBot="1">
+      <c r="L475" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="476" ht="18.75" customHeight="1" s="122" thickBot="1">
       <c r="B476" s="107" t="n"/>
       <c r="C476" s="108" t="n"/>
       <c r="D476" s="109" t="n"/>
@@ -13623,13 +13632,13 @@
       <c r="K476" s="109" t="n"/>
       <c r="L476" s="109" t="n"/>
     </row>
-    <row r="477" ht="18.75" customHeight="1" s="124" thickBot="1">
-      <c r="A477" s="121" t="inlineStr">
+    <row r="477" ht="18.75" customHeight="1" s="122" thickBot="1">
+      <c r="A477" s="119" t="inlineStr">
         <is>
           <t>3.Báo cáo tổng hợp km xe hoạt động</t>
         </is>
       </c>
-      <c r="B477" s="122" t="n"/>
+      <c r="B477" s="120" t="n"/>
       <c r="C477" s="104" t="n"/>
       <c r="D477" s="105" t="n"/>
       <c r="E477" s="105" t="n"/>
@@ -13641,7 +13650,7 @@
       <c r="K477" s="105" t="n"/>
       <c r="L477" s="105" t="n"/>
     </row>
-    <row r="478" ht="18.75" customHeight="1" s="124" thickBot="1">
+    <row r="478" ht="18.75" customHeight="1" s="122" thickBot="1">
       <c r="A478" s="106" t="inlineStr">
         <is>
           <t>Report09</t>
@@ -13671,7 +13680,7 @@
       <c r="K478" s="109" t="n"/>
       <c r="L478" s="109" t="n"/>
     </row>
-    <row r="479" ht="18.75" customHeight="1" s="124" thickBot="1">
+    <row r="479" ht="18.75" customHeight="1" s="122" thickBot="1">
       <c r="A479" s="106" t="inlineStr">
         <is>
           <t>Report10</t>
@@ -13701,7 +13710,7 @@
       <c r="K479" s="109" t="n"/>
       <c r="L479" s="109" t="n"/>
     </row>
-    <row r="480" ht="18.75" customHeight="1" s="124" thickBot="1">
+    <row r="480" ht="18.75" customHeight="1" s="122" thickBot="1">
       <c r="A480" s="106" t="inlineStr">
         <is>
           <t>Report11</t>
@@ -13736,7 +13745,7 @@
         </is>
       </c>
     </row>
-    <row r="481" ht="18.75" customHeight="1" s="124" thickBot="1">
+    <row r="481" ht="18.75" customHeight="1" s="122" thickBot="1">
       <c r="A481" s="106" t="inlineStr">
         <is>
           <t>Report12</t>
@@ -13766,7 +13775,7 @@
       <c r="K481" s="109" t="n"/>
       <c r="L481" s="109" t="n"/>
     </row>
-    <row r="482" ht="18.75" customHeight="1" s="124" thickBot="1">
+    <row r="482" ht="18.75" customHeight="1" s="122" thickBot="1">
       <c r="A482" s="106" t="inlineStr">
         <is>
           <t>Report13</t>
@@ -13801,7 +13810,7 @@
         </is>
       </c>
     </row>
-    <row r="483" ht="18.75" customHeight="1" s="124" thickBot="1">
+    <row r="483" ht="18.75" customHeight="1" s="122" thickBot="1">
       <c r="B483" s="107" t="n"/>
       <c r="C483" s="108" t="n"/>
       <c r="D483" s="109" t="n"/>
@@ -13814,13 +13823,13 @@
       <c r="K483" s="109" t="n"/>
       <c r="L483" s="109" t="n"/>
     </row>
-    <row r="484" ht="18.75" customHeight="1" s="124" thickBot="1">
-      <c r="A484" s="121" t="inlineStr">
+    <row r="484" ht="18.75" customHeight="1" s="122" thickBot="1">
+      <c r="A484" s="119" t="inlineStr">
         <is>
           <t>4.Báo cáo dừng đỗ</t>
         </is>
       </c>
-      <c r="B484" s="122" t="n"/>
+      <c r="B484" s="120" t="n"/>
       <c r="C484" s="104" t="n"/>
       <c r="D484" s="105" t="n"/>
       <c r="E484" s="105" t="n"/>
@@ -13832,7 +13841,7 @@
       <c r="K484" s="105" t="n"/>
       <c r="L484" s="105" t="n"/>
     </row>
-    <row r="485" ht="18.75" customHeight="1" s="124" thickBot="1">
+    <row r="485" ht="18.75" customHeight="1" s="122" thickBot="1">
       <c r="A485" s="106" t="inlineStr">
         <is>
           <t>Report14</t>
@@ -13862,7 +13871,7 @@
       <c r="K485" s="109" t="n"/>
       <c r="L485" s="109" t="n"/>
     </row>
-    <row r="486" ht="18.75" customHeight="1" s="124" thickBot="1">
+    <row r="486" ht="18.75" customHeight="1" s="122" thickBot="1">
       <c r="A486" s="106" t="inlineStr">
         <is>
           <t>Report15</t>
@@ -13892,7 +13901,7 @@
       <c r="K486" s="109" t="n"/>
       <c r="L486" s="109" t="n"/>
     </row>
-    <row r="487" ht="18.75" customHeight="1" s="124" thickBot="1">
+    <row r="487" ht="18.75" customHeight="1" s="122" thickBot="1">
       <c r="A487" s="106" t="inlineStr">
         <is>
           <t>Report16</t>
@@ -13927,7 +13936,7 @@
         </is>
       </c>
     </row>
-    <row r="488" ht="18.75" customHeight="1" s="124" thickBot="1">
+    <row r="488" ht="18.75" customHeight="1" s="122" thickBot="1">
       <c r="B488" s="115" t="n"/>
       <c r="C488" s="108" t="n"/>
       <c r="D488" s="109" t="n"/>
@@ -13940,13 +13949,13 @@
       <c r="K488" s="109" t="n"/>
       <c r="L488" s="109" t="n"/>
     </row>
-    <row r="489" ht="18.75" customHeight="1" s="124" thickBot="1">
-      <c r="A489" s="121" t="inlineStr">
+    <row r="489" ht="18.75" customHeight="1" s="122" thickBot="1">
+      <c r="A489" s="119" t="inlineStr">
         <is>
           <t>5.Báo cáo chuyến kinh doanh</t>
         </is>
       </c>
-      <c r="B489" s="122" t="n"/>
+      <c r="B489" s="120" t="n"/>
       <c r="C489" s="104" t="n"/>
       <c r="D489" s="105" t="n"/>
       <c r="E489" s="105" t="n"/>
@@ -13958,7 +13967,7 @@
       <c r="K489" s="105" t="n"/>
       <c r="L489" s="105" t="n"/>
     </row>
-    <row r="490" ht="18.75" customHeight="1" s="124" thickBot="1">
+    <row r="490" ht="18.75" customHeight="1" s="122" thickBot="1">
       <c r="A490" s="106" t="inlineStr">
         <is>
           <t>Report17</t>
@@ -13988,7 +13997,7 @@
       <c r="K490" s="109" t="n"/>
       <c r="L490" s="109" t="n"/>
     </row>
-    <row r="491" ht="18.75" customHeight="1" s="124" thickBot="1">
+    <row r="491" ht="18.75" customHeight="1" s="122" thickBot="1">
       <c r="A491" s="106" t="inlineStr">
         <is>
           <t>Report18</t>
@@ -14018,7 +14027,7 @@
       <c r="K491" s="109" t="n"/>
       <c r="L491" s="109" t="n"/>
     </row>
-    <row r="492" ht="18.75" customHeight="1" s="124" thickBot="1">
+    <row r="492" ht="18.75" customHeight="1" s="122" thickBot="1">
       <c r="A492" s="106" t="inlineStr">
         <is>
           <t>Report19</t>
@@ -14053,7 +14062,7 @@
         </is>
       </c>
     </row>
-    <row r="493" ht="18.75" customHeight="1" s="124" thickBot="1">
+    <row r="493" ht="18.75" customHeight="1" s="122" thickBot="1">
       <c r="B493" s="107" t="n"/>
       <c r="C493" s="108" t="n"/>
       <c r="D493" s="109" t="n"/>
@@ -14066,13 +14075,13 @@
       <c r="K493" s="109" t="n"/>
       <c r="L493" s="109" t="n"/>
     </row>
-    <row r="494" ht="18.75" customHeight="1" s="124" thickBot="1">
-      <c r="A494" s="121" t="inlineStr">
+    <row r="494" ht="18.75" customHeight="1" s="122" thickBot="1">
+      <c r="A494" s="119" t="inlineStr">
         <is>
           <t>6.Báo cáo ra vào trạm</t>
         </is>
       </c>
-      <c r="B494" s="122" t="n"/>
+      <c r="B494" s="120" t="n"/>
       <c r="C494" s="104" t="n"/>
       <c r="D494" s="105" t="n"/>
       <c r="E494" s="105" t="n"/>
@@ -14084,7 +14093,7 @@
       <c r="K494" s="105" t="n"/>
       <c r="L494" s="105" t="n"/>
     </row>
-    <row r="495" ht="18.75" customHeight="1" s="124" thickBot="1">
+    <row r="495" ht="18.75" customHeight="1" s="122" thickBot="1">
       <c r="A495" s="106" t="inlineStr">
         <is>
           <t>Report20</t>
@@ -14114,7 +14123,7 @@
       <c r="K495" s="109" t="n"/>
       <c r="L495" s="109" t="n"/>
     </row>
-    <row r="496" ht="18.75" customHeight="1" s="124" thickBot="1">
+    <row r="496" ht="18.75" customHeight="1" s="122" thickBot="1">
       <c r="A496" s="106" t="inlineStr">
         <is>
           <t>Report21</t>
@@ -14144,7 +14153,7 @@
       <c r="K496" s="109" t="n"/>
       <c r="L496" s="109" t="n"/>
     </row>
-    <row r="497" ht="18.75" customHeight="1" s="124" thickBot="1">
+    <row r="497" ht="18.75" customHeight="1" s="122" thickBot="1">
       <c r="A497" s="106" t="inlineStr">
         <is>
           <t>Report22</t>
@@ -14179,7 +14188,7 @@
         </is>
       </c>
     </row>
-    <row r="498" ht="18.75" customHeight="1" s="124" thickBot="1">
+    <row r="498" ht="18.75" customHeight="1" s="122" thickBot="1">
       <c r="B498" s="107" t="n"/>
       <c r="C498" s="108" t="n"/>
       <c r="D498" s="109" t="n"/>
@@ -14192,13 +14201,13 @@
       <c r="K498" s="109" t="n"/>
       <c r="L498" s="109" t="n"/>
     </row>
-    <row r="499" ht="18.75" customHeight="1" s="124" thickBot="1">
-      <c r="A499" s="121" t="inlineStr">
+    <row r="499" ht="18.75" customHeight="1" s="122" thickBot="1">
+      <c r="A499" s="119" t="inlineStr">
         <is>
           <t>7.Báo cáo tổng hợp bật điều hòa</t>
         </is>
       </c>
-      <c r="B499" s="122" t="n"/>
+      <c r="B499" s="120" t="n"/>
       <c r="C499" s="104" t="n"/>
       <c r="D499" s="105" t="n"/>
       <c r="E499" s="105" t="n"/>
@@ -14210,7 +14219,7 @@
       <c r="K499" s="105" t="n"/>
       <c r="L499" s="105" t="n"/>
     </row>
-    <row r="500" ht="18.75" customHeight="1" s="124" thickBot="1">
+    <row r="500" ht="18.75" customHeight="1" s="122" thickBot="1">
       <c r="A500" s="106" t="inlineStr">
         <is>
           <t>Report23</t>
@@ -14240,7 +14249,7 @@
       <c r="K500" s="109" t="n"/>
       <c r="L500" s="109" t="n"/>
     </row>
-    <row r="501" ht="18.75" customHeight="1" s="124" thickBot="1">
+    <row r="501" ht="18.75" customHeight="1" s="122" thickBot="1">
       <c r="A501" s="106" t="inlineStr">
         <is>
           <t>Report24</t>
@@ -14270,7 +14279,7 @@
       <c r="K501" s="109" t="n"/>
       <c r="L501" s="109" t="n"/>
     </row>
-    <row r="502" ht="18.75" customHeight="1" s="124" thickBot="1">
+    <row r="502" ht="18.75" customHeight="1" s="122" thickBot="1">
       <c r="A502" s="106" t="inlineStr">
         <is>
           <t>Report25</t>
@@ -14305,7 +14314,7 @@
         </is>
       </c>
     </row>
-    <row r="503" ht="18.75" customHeight="1" s="124" thickBot="1">
+    <row r="503" ht="18.75" customHeight="1" s="122" thickBot="1">
       <c r="B503" s="107" t="n"/>
       <c r="C503" s="108" t="n"/>
       <c r="D503" s="109" t="n"/>
@@ -14318,13 +14327,13 @@
       <c r="K503" s="109" t="n"/>
       <c r="L503" s="109" t="n"/>
     </row>
-    <row r="504" ht="18.75" customHeight="1" s="124" thickBot="1">
-      <c r="A504" s="121" t="inlineStr">
+    <row r="504" ht="18.75" customHeight="1" s="122" thickBot="1">
+      <c r="A504" s="119" t="inlineStr">
         <is>
           <t>8.Báo cáo động cơ</t>
         </is>
       </c>
-      <c r="B504" s="122" t="n"/>
+      <c r="B504" s="120" t="n"/>
       <c r="C504" s="104" t="n"/>
       <c r="D504" s="105" t="n"/>
       <c r="E504" s="105" t="n"/>
@@ -14336,7 +14345,7 @@
       <c r="K504" s="105" t="n"/>
       <c r="L504" s="105" t="n"/>
     </row>
-    <row r="505" ht="18.75" customHeight="1" s="124" thickBot="1">
+    <row r="505" ht="18.75" customHeight="1" s="122" thickBot="1">
       <c r="A505" s="106" t="inlineStr">
         <is>
           <t>Report26</t>
@@ -14366,7 +14375,7 @@
       <c r="K505" s="109" t="n"/>
       <c r="L505" s="109" t="n"/>
     </row>
-    <row r="506" ht="18.75" customHeight="1" s="124" thickBot="1">
+    <row r="506" ht="18.75" customHeight="1" s="122" thickBot="1">
       <c r="A506" s="106" t="inlineStr">
         <is>
           <t>Report27</t>
@@ -14396,7 +14405,7 @@
       <c r="K506" s="109" t="n"/>
       <c r="L506" s="109" t="n"/>
     </row>
-    <row r="507" ht="18.75" customHeight="1" s="124" thickBot="1">
+    <row r="507" ht="18.75" customHeight="1" s="122" thickBot="1">
       <c r="A507" s="106" t="inlineStr">
         <is>
           <t>Report28</t>
@@ -14431,7 +14440,7 @@
         </is>
       </c>
     </row>
-    <row r="508" ht="18.75" customHeight="1" s="124" thickBot="1">
+    <row r="508" ht="18.75" customHeight="1" s="122" thickBot="1">
       <c r="B508" s="107" t="n"/>
       <c r="C508" s="108" t="n"/>
       <c r="D508" s="109" t="n"/>
@@ -14444,13 +14453,13 @@
       <c r="K508" s="109" t="n"/>
       <c r="L508" s="109" t="n"/>
     </row>
-    <row r="509" ht="18.75" customHeight="1" s="124" thickBot="1">
-      <c r="A509" s="121" t="inlineStr">
+    <row r="509" ht="18.75" customHeight="1" s="122" thickBot="1">
+      <c r="A509" s="119" t="inlineStr">
         <is>
           <t>9.Báo cáo hành trình</t>
         </is>
       </c>
-      <c r="B509" s="122" t="n"/>
+      <c r="B509" s="120" t="n"/>
       <c r="C509" s="104" t="n"/>
       <c r="D509" s="105" t="n"/>
       <c r="E509" s="105" t="n"/>
@@ -14462,7 +14471,7 @@
       <c r="K509" s="105" t="n"/>
       <c r="L509" s="105" t="n"/>
     </row>
-    <row r="510" ht="18.75" customHeight="1" s="124" thickBot="1">
+    <row r="510" ht="18.75" customHeight="1" s="122" thickBot="1">
       <c r="A510" s="106" t="inlineStr">
         <is>
           <t>Report29</t>
@@ -14492,7 +14501,7 @@
       <c r="K510" s="109" t="n"/>
       <c r="L510" s="109" t="n"/>
     </row>
-    <row r="511" ht="18.75" customHeight="1" s="124" thickBot="1">
+    <row r="511" ht="18.75" customHeight="1" s="122" thickBot="1">
       <c r="A511" s="106" t="inlineStr">
         <is>
           <t>Report30</t>
@@ -14522,7 +14531,7 @@
       <c r="K511" s="109" t="n"/>
       <c r="L511" s="109" t="n"/>
     </row>
-    <row r="512" ht="18.75" customHeight="1" s="124" thickBot="1">
+    <row r="512" ht="18.75" customHeight="1" s="122" thickBot="1">
       <c r="A512" s="106" t="inlineStr">
         <is>
           <t>Report31</t>
@@ -14552,7 +14561,7 @@
       <c r="K512" s="109" t="n"/>
       <c r="L512" s="109" t="n"/>
     </row>
-    <row r="513" ht="18.75" customHeight="1" s="124" thickBot="1">
+    <row r="513" ht="18.75" customHeight="1" s="122" thickBot="1">
       <c r="A513" s="106" t="inlineStr">
         <is>
           <t>Report32</t>
@@ -14587,8 +14596,7 @@
         </is>
       </c>
     </row>
-    <row r="514" ht="18.75" customHeight="1" s="124" thickBot="1">
-      <c r="A514" s="106" t="n"/>
+    <row r="514" ht="18.75" customHeight="1" s="122" thickBot="1">
       <c r="B514" s="107" t="n"/>
       <c r="C514" s="108" t="n"/>
       <c r="D514" s="109" t="n"/>
@@ -14601,25 +14609,45 @@
       <c r="K514" s="109" t="n"/>
       <c r="L514" s="109" t="n"/>
     </row>
-    <row r="515" ht="18.75" customHeight="1" s="124" thickBot="1">
-      <c r="A515" s="106" t="n"/>
-      <c r="B515" s="107" t="n"/>
-      <c r="C515" s="108" t="n"/>
-      <c r="D515" s="109" t="n"/>
-      <c r="E515" s="109" t="n"/>
-      <c r="F515" s="109" t="n"/>
-      <c r="G515" s="109" t="n"/>
-      <c r="H515" s="109" t="inlineStr"/>
-      <c r="I515" s="109" t="inlineStr"/>
-      <c r="J515" s="109" t="n"/>
-      <c r="K515" s="109" t="n"/>
-      <c r="L515" s="109" t="n"/>
-    </row>
-    <row r="516" ht="18.75" customHeight="1" s="124" thickBot="1">
-      <c r="A516" s="106" t="n"/>
-      <c r="B516" s="107" t="n"/>
-      <c r="C516" s="108" t="n"/>
-      <c r="D516" s="109" t="n"/>
+    <row r="515" ht="18.75" customHeight="1" s="122" thickBot="1">
+      <c r="A515" s="119" t="inlineStr">
+        <is>
+          <t>10.Báo cáo tổng hợp tiêu hao nhiên liệu</t>
+        </is>
+      </c>
+      <c r="B515" s="120" t="n"/>
+      <c r="C515" s="104" t="n"/>
+      <c r="D515" s="105" t="n"/>
+      <c r="E515" s="105" t="n"/>
+      <c r="F515" s="105" t="n"/>
+      <c r="G515" s="105" t="n"/>
+      <c r="H515" s="105" t="inlineStr"/>
+      <c r="I515" s="105" t="inlineStr"/>
+      <c r="J515" s="105" t="n"/>
+      <c r="K515" s="105" t="n"/>
+      <c r="L515" s="105" t="n"/>
+    </row>
+    <row r="516" ht="18.75" customHeight="1" s="122" thickBot="1">
+      <c r="A516" s="106" t="inlineStr">
+        <is>
+          <t>Report33</t>
+        </is>
+      </c>
+      <c r="B516" s="107" t="inlineStr">
+        <is>
+          <t>Mở báo cáo</t>
+        </is>
+      </c>
+      <c r="C516" s="108" t="inlineStr">
+        <is>
+          <t>Menu Báo cáo --&gt; Mở báo cáo --&gt; Đúng giao diện báo cáo</t>
+        </is>
+      </c>
+      <c r="D516" s="109" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="E516" s="109" t="n"/>
       <c r="F516" s="109" t="n"/>
       <c r="G516" s="109" t="n"/>
@@ -14629,11 +14657,27 @@
       <c r="K516" s="109" t="n"/>
       <c r="L516" s="109" t="n"/>
     </row>
-    <row r="517" ht="18.75" customHeight="1" s="124" thickBot="1">
-      <c r="A517" s="106" t="n"/>
-      <c r="B517" s="107" t="n"/>
-      <c r="C517" s="108" t="n"/>
-      <c r="D517" s="109" t="n"/>
+    <row r="517" ht="18.75" customHeight="1" s="122" thickBot="1">
+      <c r="A517" s="106" t="inlineStr">
+        <is>
+          <t>Report34</t>
+        </is>
+      </c>
+      <c r="B517" s="107" t="inlineStr">
+        <is>
+          <t>Bấm nút tìm kiểm</t>
+        </is>
+      </c>
+      <c r="C517" s="108" t="inlineStr">
+        <is>
+          <t>Bấm nút tìm kiếm --&gt; Hiển thị dữ liệu trên lưới</t>
+        </is>
+      </c>
+      <c r="D517" s="109" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="E517" s="109" t="n"/>
       <c r="F517" s="109" t="n"/>
       <c r="G517" s="109" t="n"/>
@@ -14643,11 +14687,28 @@
       <c r="K517" s="109" t="n"/>
       <c r="L517" s="109" t="n"/>
     </row>
-    <row r="518" ht="18.75" customHeight="1" s="124" thickBot="1">
-      <c r="A518" s="106" t="n"/>
-      <c r="B518" s="107" t="n"/>
-      <c r="C518" s="108" t="n"/>
-      <c r="D518" s="109" t="n"/>
+    <row r="518" ht="18.75" customHeight="1" s="122" thickBot="1">
+      <c r="A518" s="106" t="inlineStr">
+        <is>
+          <t>Report35</t>
+        </is>
+      </c>
+      <c r="B518" s="107" t="inlineStr">
+        <is>
+          <t>Xuất Excel</t>
+        </is>
+      </c>
+      <c r="C518" s="108" t="inlineStr">
+        <is>
+          <t>Xuất excel : Các cột trên lưới = các cột excel
+Định dạng cột giống nhau</t>
+        </is>
+      </c>
+      <c r="D518" s="109" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="E518" s="109" t="n"/>
       <c r="F518" s="109" t="n"/>
       <c r="G518" s="109" t="n"/>
@@ -14655,10 +14716,13 @@
       <c r="I518" s="109" t="inlineStr"/>
       <c r="J518" s="109" t="n"/>
       <c r="K518" s="109" t="n"/>
-      <c r="L518" s="109" t="n"/>
-    </row>
-    <row r="519" ht="18.75" customHeight="1" s="124" thickBot="1">
-      <c r="A519" s="106" t="n"/>
+      <c r="L518" s="109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="519" ht="18.75" customHeight="1" s="122" thickBot="1">
       <c r="B519" s="107" t="n"/>
       <c r="C519" s="108" t="n"/>
       <c r="D519" s="109" t="n"/>
@@ -14671,33 +14735,45 @@
       <c r="K519" s="109" t="n"/>
       <c r="L519" s="109" t="n"/>
     </row>
-    <row r="520" ht="18.75" customHeight="1" s="124" thickBot="1">
-      <c r="A520" s="106" t="n"/>
-      <c r="B520" s="107" t="inlineStr">
-        <is>
-          <t>Báo cáo quá tốc độ</t>
-        </is>
-      </c>
-      <c r="C520" s="108" t="n"/>
-      <c r="D520" s="109" t="n"/>
-      <c r="E520" s="109" t="n"/>
-      <c r="F520" s="109" t="n"/>
-      <c r="G520" s="109" t="n"/>
-      <c r="H520" s="109" t="inlineStr"/>
-      <c r="I520" s="109" t="inlineStr"/>
-      <c r="J520" s="109" t="n"/>
-      <c r="K520" s="109" t="n"/>
-      <c r="L520" s="109" t="n"/>
-    </row>
-    <row r="521" ht="18.75" customHeight="1" s="124" thickBot="1">
-      <c r="A521" s="106" t="n"/>
+    <row r="520" ht="18.75" customHeight="1" s="122" thickBot="1">
+      <c r="A520" s="119" t="inlineStr">
+        <is>
+          <t>11.Báo cáo tiêu hao nhiên liệu</t>
+        </is>
+      </c>
+      <c r="B520" s="120" t="n"/>
+      <c r="C520" s="104" t="n"/>
+      <c r="D520" s="105" t="n"/>
+      <c r="E520" s="105" t="n"/>
+      <c r="F520" s="105" t="n"/>
+      <c r="G520" s="105" t="n"/>
+      <c r="H520" s="105" t="inlineStr"/>
+      <c r="I520" s="105" t="inlineStr"/>
+      <c r="J520" s="105" t="n"/>
+      <c r="K520" s="105" t="n"/>
+      <c r="L520" s="105" t="n"/>
+    </row>
+    <row r="521" ht="18.75" customHeight="1" s="122" thickBot="1">
+      <c r="A521" s="106" t="inlineStr">
+        <is>
+          <t>Report36</t>
+        </is>
+      </c>
       <c r="B521" s="107" t="inlineStr">
         <is>
-          <t>BC Đăng nhập đăng xuất lái xe - Tổng hợp</t>
-        </is>
-      </c>
-      <c r="C521" s="108" t="n"/>
-      <c r="D521" s="109" t="n"/>
+          <t>Mở báo cáo</t>
+        </is>
+      </c>
+      <c r="C521" s="108" t="inlineStr">
+        <is>
+          <t>Menu Báo cáo --&gt; Mở báo cáo --&gt; Đúng giao diện báo cáo</t>
+        </is>
+      </c>
+      <c r="D521" s="109" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="E521" s="109" t="n"/>
       <c r="F521" s="109" t="n"/>
       <c r="G521" s="109" t="n"/>
@@ -14707,15 +14783,27 @@
       <c r="K521" s="109" t="n"/>
       <c r="L521" s="109" t="n"/>
     </row>
-    <row r="522" ht="18.75" customHeight="1" s="124" thickBot="1">
-      <c r="A522" s="106" t="n"/>
+    <row r="522" ht="18.75" customHeight="1" s="122" thickBot="1">
+      <c r="A522" s="106" t="inlineStr">
+        <is>
+          <t>Report37</t>
+        </is>
+      </c>
       <c r="B522" s="107" t="inlineStr">
         <is>
-          <t>Báo cáo BGT quá vận tốc</t>
-        </is>
-      </c>
-      <c r="C522" s="108" t="n"/>
-      <c r="D522" s="109" t="n"/>
+          <t>Bấm nút tìm kiểm</t>
+        </is>
+      </c>
+      <c r="C522" s="108" t="inlineStr">
+        <is>
+          <t>Bấm nút tìm kiếm --&gt; Hiển thị dữ liệu trên lưới</t>
+        </is>
+      </c>
+      <c r="D522" s="109" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="E522" s="109" t="n"/>
       <c r="F522" s="109" t="n"/>
       <c r="G522" s="109" t="n"/>
@@ -14725,15 +14813,28 @@
       <c r="K522" s="109" t="n"/>
       <c r="L522" s="109" t="n"/>
     </row>
-    <row r="523" ht="18.75" customHeight="1" s="124" thickBot="1">
-      <c r="A523" s="106" t="n"/>
+    <row r="523" ht="18.75" customHeight="1" s="122" thickBot="1">
+      <c r="A523" s="106" t="inlineStr">
+        <is>
+          <t>Report38</t>
+        </is>
+      </c>
       <c r="B523" s="107" t="inlineStr">
         <is>
-          <t>Báo cáo hành trình</t>
-        </is>
-      </c>
-      <c r="C523" s="108" t="n"/>
-      <c r="D523" s="109" t="n"/>
+          <t>Xuất Excel</t>
+        </is>
+      </c>
+      <c r="C523" s="108" t="inlineStr">
+        <is>
+          <t>Xuất excel : Các cột trên lưới = các cột excel
+Định dạng cột giống nhau</t>
+        </is>
+      </c>
+      <c r="D523" s="109" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="E523" s="109" t="n"/>
       <c r="F523" s="109" t="n"/>
       <c r="G523" s="109" t="n"/>
@@ -14741,15 +14842,14 @@
       <c r="I523" s="109" t="inlineStr"/>
       <c r="J523" s="109" t="n"/>
       <c r="K523" s="109" t="n"/>
-      <c r="L523" s="109" t="n"/>
-    </row>
-    <row r="524" ht="18.75" customHeight="1" s="124" thickBot="1">
-      <c r="A524" s="106" t="n"/>
-      <c r="B524" s="107" t="inlineStr">
-        <is>
-          <t>Báo cáo tổng hợp tiêu hao nhiên liệu</t>
-        </is>
-      </c>
+      <c r="L523" s="109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="524" ht="18.75" customHeight="1" s="122" thickBot="1">
+      <c r="B524" s="107" t="n"/>
       <c r="C524" s="108" t="n"/>
       <c r="D524" s="109" t="n"/>
       <c r="E524" s="109" t="n"/>
@@ -14761,33 +14861,45 @@
       <c r="K524" s="109" t="n"/>
       <c r="L524" s="109" t="n"/>
     </row>
-    <row r="525" ht="18.75" customHeight="1" s="124" thickBot="1">
-      <c r="A525" s="106" t="n"/>
-      <c r="B525" s="107" t="inlineStr">
-        <is>
-          <t>Báo cáo đổ hút nhiên liệu</t>
-        </is>
-      </c>
-      <c r="C525" s="108" t="n"/>
-      <c r="D525" s="109" t="n"/>
-      <c r="E525" s="109" t="n"/>
-      <c r="F525" s="109" t="n"/>
-      <c r="G525" s="109" t="n"/>
-      <c r="H525" s="109" t="inlineStr"/>
-      <c r="I525" s="109" t="inlineStr"/>
-      <c r="J525" s="109" t="n"/>
-      <c r="K525" s="109" t="n"/>
-      <c r="L525" s="109" t="n"/>
-    </row>
-    <row r="526" ht="18.75" customHeight="1" s="124" thickBot="1">
-      <c r="A526" s="106" t="n"/>
+    <row r="525" ht="18.75" customHeight="1" s="122" thickBot="1">
+      <c r="A525" s="119" t="inlineStr">
+        <is>
+          <t>12.Báo cáo đổ hút nhiên liệu</t>
+        </is>
+      </c>
+      <c r="B525" s="120" t="n"/>
+      <c r="C525" s="104" t="n"/>
+      <c r="D525" s="105" t="n"/>
+      <c r="E525" s="105" t="n"/>
+      <c r="F525" s="105" t="n"/>
+      <c r="G525" s="105" t="n"/>
+      <c r="H525" s="105" t="inlineStr"/>
+      <c r="I525" s="105" t="inlineStr"/>
+      <c r="J525" s="105" t="n"/>
+      <c r="K525" s="105" t="n"/>
+      <c r="L525" s="105" t="n"/>
+    </row>
+    <row r="526" ht="18.75" customHeight="1" s="122" thickBot="1">
+      <c r="A526" s="106" t="inlineStr">
+        <is>
+          <t>Report39</t>
+        </is>
+      </c>
       <c r="B526" s="107" t="inlineStr">
         <is>
-          <t>Báo cáo tiêu hao nhiên liệu</t>
-        </is>
-      </c>
-      <c r="C526" s="108" t="n"/>
-      <c r="D526" s="109" t="n"/>
+          <t>Mở báo cáo</t>
+        </is>
+      </c>
+      <c r="C526" s="108" t="inlineStr">
+        <is>
+          <t>Menu Báo cáo --&gt; Mở báo cáo --&gt; Đúng giao diện báo cáo</t>
+        </is>
+      </c>
+      <c r="D526" s="109" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="E526" s="109" t="n"/>
       <c r="F526" s="109" t="n"/>
       <c r="G526" s="109" t="n"/>
@@ -14797,15 +14909,27 @@
       <c r="K526" s="109" t="n"/>
       <c r="L526" s="109" t="n"/>
     </row>
-    <row r="527" ht="18.75" customHeight="1" s="124" thickBot="1">
-      <c r="A527" s="106" t="n"/>
+    <row r="527" ht="18.75" customHeight="1" s="122" thickBot="1">
+      <c r="A527" s="106" t="inlineStr">
+        <is>
+          <t>Report40</t>
+        </is>
+      </c>
       <c r="B527" s="107" t="inlineStr">
         <is>
-          <t>Báo cáo tổng hợp mất tín hiệu</t>
-        </is>
-      </c>
-      <c r="C527" s="108" t="n"/>
-      <c r="D527" s="109" t="n"/>
+          <t>Bấm nút tìm kiểm</t>
+        </is>
+      </c>
+      <c r="C527" s="108" t="inlineStr">
+        <is>
+          <t>Bấm nút tìm kiếm --&gt; Hiển thị dữ liệu trên lưới</t>
+        </is>
+      </c>
+      <c r="D527" s="109" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="E527" s="109" t="n"/>
       <c r="F527" s="109" t="n"/>
       <c r="G527" s="109" t="n"/>
@@ -14815,15 +14939,28 @@
       <c r="K527" s="109" t="n"/>
       <c r="L527" s="109" t="n"/>
     </row>
-    <row r="528" ht="18.75" customHeight="1" s="124" thickBot="1">
-      <c r="A528" s="106" t="n"/>
+    <row r="528" ht="18.75" customHeight="1" s="122" thickBot="1">
+      <c r="A528" s="106" t="inlineStr">
+        <is>
+          <t>Report41</t>
+        </is>
+      </c>
       <c r="B528" s="107" t="inlineStr">
         <is>
-          <t>Xem lại video - Tổng quan</t>
-        </is>
-      </c>
-      <c r="C528" s="108" t="n"/>
-      <c r="D528" s="109" t="n"/>
+          <t>Xuất Excel</t>
+        </is>
+      </c>
+      <c r="C528" s="108" t="inlineStr">
+        <is>
+          <t>Xuất excel : Các cột trên lưới = các cột excel
+Định dạng cột giống nhau</t>
+        </is>
+      </c>
+      <c r="D528" s="109" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="E528" s="109" t="n"/>
       <c r="F528" s="109" t="n"/>
       <c r="G528" s="109" t="n"/>
@@ -14831,15 +14968,14 @@
       <c r="I528" s="109" t="inlineStr"/>
       <c r="J528" s="109" t="n"/>
       <c r="K528" s="109" t="n"/>
-      <c r="L528" s="109" t="n"/>
-    </row>
-    <row r="529" ht="18.75" customHeight="1" s="124" thickBot="1">
-      <c r="A529" s="106" t="n"/>
-      <c r="B529" s="107" t="inlineStr">
-        <is>
-          <t>Xem lại video - chi tiết</t>
-        </is>
-      </c>
+      <c r="L528" s="109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="529" ht="18.75" customHeight="1" s="122" thickBot="1">
+      <c r="B529" s="107" t="n"/>
       <c r="C529" s="108" t="n"/>
       <c r="D529" s="109" t="n"/>
       <c r="E529" s="109" t="n"/>
@@ -14851,1997 +14987,713 @@
       <c r="K529" s="109" t="n"/>
       <c r="L529" s="109" t="n"/>
     </row>
-    <row r="530" ht="18.75" customHeight="1" s="124" thickBot="1">
-      <c r="A530" s="106" t="n"/>
-      <c r="B530" s="107" t="inlineStr">
-        <is>
-          <t>Xem lại video - chi tiết</t>
-        </is>
-      </c>
-      <c r="C530" s="108" t="n"/>
-      <c r="D530" s="109" t="n"/>
-      <c r="E530" s="109" t="n"/>
-      <c r="F530" s="109" t="n"/>
-      <c r="G530" s="109" t="n"/>
-      <c r="H530" s="109" t="inlineStr"/>
-      <c r="I530" s="109" t="inlineStr"/>
-      <c r="J530" s="109" t="n"/>
-      <c r="K530" s="109" t="n"/>
-      <c r="L530" s="109" t="n"/>
-    </row>
-    <row r="531" ht="18.75" customHeight="1" s="124" thickBot="1">
-      <c r="A531" s="106" t="n"/>
+    <row r="530" ht="18.75" customHeight="1" s="122" thickBot="1">
+      <c r="A530" s="119" t="inlineStr">
+        <is>
+          <t>13.Báo cáo mất tín hiệu</t>
+        </is>
+      </c>
+      <c r="B530" s="120" t="n"/>
+      <c r="C530" s="104" t="n"/>
+      <c r="D530" s="105" t="n"/>
+      <c r="E530" s="105" t="n"/>
+      <c r="F530" s="105" t="n"/>
+      <c r="G530" s="105" t="n"/>
+      <c r="H530" s="105" t="inlineStr"/>
+      <c r="I530" s="105" t="inlineStr"/>
+      <c r="J530" s="105" t="n"/>
+      <c r="K530" s="105" t="n"/>
+      <c r="L530" s="105" t="n"/>
+    </row>
+    <row r="531" ht="18.75" customHeight="1" s="122" thickBot="1">
+      <c r="A531" s="106" t="inlineStr">
+        <is>
+          <t>Report42</t>
+        </is>
+      </c>
       <c r="B531" s="107" t="inlineStr">
         <is>
-          <t>Quản lý ảnh Camera - Nghị định 10 - V2</t>
-        </is>
-      </c>
-      <c r="C531" s="108" t="n"/>
-      <c r="D531" s="109" t="n"/>
+          <t>Mở báo cáo</t>
+        </is>
+      </c>
+      <c r="C531" s="108" t="inlineStr">
+        <is>
+          <t>Menu Báo cáo --&gt; Mở báo cáo --&gt; Đúng giao diện báo cáo</t>
+        </is>
+      </c>
+      <c r="D531" s="109" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="E531" s="109" t="n"/>
       <c r="F531" s="109" t="n"/>
       <c r="G531" s="109" t="n"/>
-      <c r="H531" s="109" t="inlineStr"/>
+      <c r="H531" s="109" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="I531" s="109" t="inlineStr"/>
       <c r="J531" s="109" t="n"/>
       <c r="K531" s="109" t="n"/>
       <c r="L531" s="109" t="n"/>
     </row>
-    <row r="532" ht="18.75" customHeight="1" s="124" thickBot="1">
-      <c r="A532" s="106" t="n"/>
+    <row r="532" ht="18.75" customHeight="1" s="122" thickBot="1">
+      <c r="A532" s="106" t="inlineStr">
+        <is>
+          <t>Report43</t>
+        </is>
+      </c>
       <c r="B532" s="107" t="inlineStr">
         <is>
-          <t>Giám sát xe bằng hình ảnh</t>
-        </is>
-      </c>
-      <c r="C532" s="108" t="n"/>
-      <c r="D532" s="109" t="n"/>
+          <t>Bấm nút tìm kiểm</t>
+        </is>
+      </c>
+      <c r="C532" s="108" t="inlineStr">
+        <is>
+          <t>Bấm nút tìm kiếm --&gt; Hiển thị dữ liệu trên lưới</t>
+        </is>
+      </c>
+      <c r="D532" s="109" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="E532" s="109" t="n"/>
       <c r="F532" s="109" t="n"/>
       <c r="G532" s="109" t="n"/>
-      <c r="H532" s="109" t="inlineStr"/>
+      <c r="H532" s="109" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="I532" s="109" t="inlineStr"/>
       <c r="J532" s="109" t="n"/>
       <c r="K532" s="109" t="n"/>
       <c r="L532" s="109" t="n"/>
     </row>
-    <row r="533" ht="19.5" customHeight="1" s="124" thickBot="1">
-      <c r="A533" s="106" t="n"/>
+    <row r="533" ht="18.75" customHeight="1" s="122" thickBot="1">
+      <c r="A533" s="106" t="inlineStr">
+        <is>
+          <t>Report44</t>
+        </is>
+      </c>
       <c r="B533" s="107" t="inlineStr">
         <is>
-          <t>Giám sát bằng hình ảnh 1 xe</t>
-        </is>
-      </c>
-      <c r="C533" s="108" t="n"/>
-      <c r="D533" s="109" t="n"/>
+          <t>Xuất Excel</t>
+        </is>
+      </c>
+      <c r="C533" s="108" t="inlineStr">
+        <is>
+          <t>Xuất excel : Các cột trên lưới = các cột excel
+Định dạng cột giống nhau</t>
+        </is>
+      </c>
+      <c r="D533" s="109" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="E533" s="109" t="n"/>
       <c r="F533" s="109" t="n"/>
       <c r="G533" s="109" t="n"/>
-      <c r="H533" s="109" t="inlineStr"/>
+      <c r="H533" s="109" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="I533" s="109" t="inlineStr"/>
       <c r="J533" s="109" t="n"/>
       <c r="K533" s="109" t="n"/>
-      <c r="L533" s="109" t="n"/>
-    </row>
-    <row r="534" ht="18.75" customHeight="1" s="124" thickBot="1">
-      <c r="A534" s="110" t="n"/>
-      <c r="B534" s="111" t="inlineStr">
+      <c r="L533" s="109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="534" ht="18.75" customHeight="1" s="122" thickBot="1">
+      <c r="B534" s="107" t="n"/>
+      <c r="C534" s="108" t="n"/>
+      <c r="D534" s="109" t="n"/>
+      <c r="E534" s="109" t="n"/>
+      <c r="F534" s="109" t="n"/>
+      <c r="G534" s="109" t="n"/>
+      <c r="H534" s="109" t="inlineStr"/>
+      <c r="I534" s="109" t="inlineStr"/>
+      <c r="J534" s="109" t="n"/>
+      <c r="K534" s="109" t="n"/>
+      <c r="L534" s="109" t="n"/>
+    </row>
+    <row r="535" ht="18.75" customHeight="1" s="122" thickBot="1">
+      <c r="A535" s="119" t="inlineStr">
+        <is>
+          <t>14.Báo cáo quá tốc độ</t>
+        </is>
+      </c>
+      <c r="B535" s="120" t="n"/>
+      <c r="C535" s="104" t="n"/>
+      <c r="D535" s="105" t="n"/>
+      <c r="E535" s="105" t="n"/>
+      <c r="F535" s="105" t="n"/>
+      <c r="G535" s="105" t="n"/>
+      <c r="H535" s="105" t="inlineStr"/>
+      <c r="I535" s="105" t="inlineStr"/>
+      <c r="J535" s="105" t="n"/>
+      <c r="K535" s="105" t="n"/>
+      <c r="L535" s="105" t="n"/>
+    </row>
+    <row r="536" ht="18.75" customHeight="1" s="122" thickBot="1">
+      <c r="A536" s="106" t="inlineStr">
+        <is>
+          <t>Report45</t>
+        </is>
+      </c>
+      <c r="B536" s="107" t="inlineStr">
+        <is>
+          <t>Mở báo cáo</t>
+        </is>
+      </c>
+      <c r="C536" s="108" t="inlineStr">
+        <is>
+          <t>Menu Báo cáo --&gt; Mở báo cáo --&gt; Đúng giao diện báo cáo</t>
+        </is>
+      </c>
+      <c r="D536" s="109" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E536" s="109" t="n"/>
+      <c r="F536" s="109" t="n"/>
+      <c r="G536" s="109" t="n"/>
+      <c r="H536" s="109" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="I536" s="109" t="inlineStr"/>
+      <c r="J536" s="109" t="n"/>
+      <c r="K536" s="109" t="n"/>
+      <c r="L536" s="109" t="n"/>
+    </row>
+    <row r="537" ht="18.75" customHeight="1" s="122" thickBot="1">
+      <c r="A537" s="106" t="inlineStr">
+        <is>
+          <t>Report46</t>
+        </is>
+      </c>
+      <c r="B537" s="107" t="inlineStr">
+        <is>
+          <t>Bấm nút tìm kiểm</t>
+        </is>
+      </c>
+      <c r="C537" s="108" t="inlineStr">
+        <is>
+          <t>Bấm nút tìm kiếm --&gt; Hiển thị dữ liệu trên lưới</t>
+        </is>
+      </c>
+      <c r="D537" s="109" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E537" s="109" t="n"/>
+      <c r="F537" s="109" t="n"/>
+      <c r="G537" s="109" t="n"/>
+      <c r="H537" s="109" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="I537" s="109" t="inlineStr"/>
+      <c r="J537" s="109" t="n"/>
+      <c r="K537" s="109" t="n"/>
+      <c r="L537" s="109" t="n"/>
+    </row>
+    <row r="538" ht="18.75" customHeight="1" s="122" thickBot="1">
+      <c r="A538" s="106" t="inlineStr">
+        <is>
+          <t>Report47</t>
+        </is>
+      </c>
+      <c r="B538" s="107" t="inlineStr">
+        <is>
+          <t>Xuất Excel</t>
+        </is>
+      </c>
+      <c r="C538" s="108" t="inlineStr">
+        <is>
+          <t>Xuất excel : Các cột trên lưới = các cột excel
+Định dạng cột giống nhau</t>
+        </is>
+      </c>
+      <c r="D538" s="109" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E538" s="109" t="n"/>
+      <c r="F538" s="109" t="n"/>
+      <c r="G538" s="109" t="n"/>
+      <c r="H538" s="109" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="I538" s="109" t="inlineStr"/>
+      <c r="J538" s="109" t="n"/>
+      <c r="K538" s="109" t="n"/>
+      <c r="L538" s="109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="539" ht="18.75" customHeight="1" s="122" thickBot="1">
+      <c r="B539" s="107" t="n"/>
+      <c r="C539" s="108" t="n"/>
+      <c r="D539" s="109" t="n"/>
+      <c r="E539" s="109" t="n"/>
+      <c r="F539" s="109" t="n"/>
+      <c r="G539" s="109" t="n"/>
+      <c r="H539" s="109" t="inlineStr"/>
+      <c r="I539" s="109" t="inlineStr"/>
+      <c r="J539" s="109" t="n"/>
+      <c r="K539" s="109" t="n"/>
+      <c r="L539" s="109" t="n"/>
+    </row>
+    <row r="540" ht="18.75" customHeight="1" s="122" thickBot="1">
+      <c r="A540" s="119" t="inlineStr">
+        <is>
+          <t>15.Báo cáo tổng hợp lái xe đăng nhập đăng xuất</t>
+        </is>
+      </c>
+      <c r="B540" s="120" t="n"/>
+      <c r="C540" s="104" t="n"/>
+      <c r="D540" s="105" t="n"/>
+      <c r="E540" s="105" t="n"/>
+      <c r="F540" s="105" t="n"/>
+      <c r="G540" s="105" t="n"/>
+      <c r="H540" s="105" t="inlineStr"/>
+      <c r="I540" s="105" t="inlineStr"/>
+      <c r="J540" s="105" t="n"/>
+      <c r="K540" s="105" t="n"/>
+      <c r="L540" s="105" t="n"/>
+    </row>
+    <row r="541" ht="18.75" customHeight="1" s="122" thickBot="1">
+      <c r="A541" s="106" t="inlineStr">
+        <is>
+          <t>Report48</t>
+        </is>
+      </c>
+      <c r="B541" s="107" t="inlineStr">
+        <is>
+          <t>Mở báo cáo</t>
+        </is>
+      </c>
+      <c r="C541" s="108" t="inlineStr">
+        <is>
+          <t>Menu Báo cáo --&gt; Mở báo cáo --&gt; Đúng giao diện báo cáo</t>
+        </is>
+      </c>
+      <c r="D541" s="109" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E541" s="109" t="n"/>
+      <c r="F541" s="109" t="n"/>
+      <c r="G541" s="109" t="n"/>
+      <c r="H541" s="109" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="I541" s="109" t="inlineStr"/>
+      <c r="J541" s="109" t="n"/>
+      <c r="K541" s="109" t="n"/>
+      <c r="L541" s="109" t="n"/>
+    </row>
+    <row r="542" ht="18.75" customHeight="1" s="122" thickBot="1">
+      <c r="A542" s="106" t="inlineStr">
+        <is>
+          <t>Report49</t>
+        </is>
+      </c>
+      <c r="B542" s="107" t="inlineStr">
+        <is>
+          <t>Bấm nút tìm kiểm</t>
+        </is>
+      </c>
+      <c r="C542" s="108" t="inlineStr">
+        <is>
+          <t>Bấm nút tìm kiếm --&gt; Hiển thị dữ liệu trên lưới</t>
+        </is>
+      </c>
+      <c r="D542" s="109" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E542" s="109" t="n"/>
+      <c r="F542" s="109" t="n"/>
+      <c r="G542" s="109" t="n"/>
+      <c r="H542" s="109" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="I542" s="109" t="inlineStr"/>
+      <c r="J542" s="109" t="n"/>
+      <c r="K542" s="109" t="n"/>
+      <c r="L542" s="109" t="n"/>
+    </row>
+    <row r="543" ht="18.75" customHeight="1" s="122" thickBot="1">
+      <c r="A543" s="106" t="inlineStr">
+        <is>
+          <t>Report50</t>
+        </is>
+      </c>
+      <c r="B543" s="107" t="inlineStr">
+        <is>
+          <t>Xuất Excel</t>
+        </is>
+      </c>
+      <c r="C543" s="108" t="inlineStr">
+        <is>
+          <t>Xuất excel : Các cột trên lưới = các cột excel
+Định dạng cột giống nhau</t>
+        </is>
+      </c>
+      <c r="D543" s="109" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E543" s="109" t="n"/>
+      <c r="F543" s="109" t="n"/>
+      <c r="G543" s="109" t="n"/>
+      <c r="H543" s="109" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="I543" s="109" t="inlineStr"/>
+      <c r="J543" s="109" t="n"/>
+      <c r="K543" s="109" t="n"/>
+      <c r="L543" s="109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="544" ht="18.75" customHeight="1" s="122" thickBot="1">
+      <c r="A544" s="106" t="n"/>
+      <c r="B544" s="107" t="n"/>
+      <c r="C544" s="108" t="n"/>
+      <c r="D544" s="109" t="n"/>
+      <c r="E544" s="109" t="n"/>
+      <c r="F544" s="109" t="n"/>
+      <c r="G544" s="109" t="n"/>
+      <c r="H544" s="109" t="inlineStr"/>
+      <c r="I544" s="109" t="inlineStr"/>
+      <c r="J544" s="109" t="n"/>
+      <c r="K544" s="109" t="n"/>
+      <c r="L544" s="109" t="n"/>
+    </row>
+    <row r="545" ht="18.75" customHeight="1" s="122" thickBot="1">
+      <c r="A545" s="106" t="n"/>
+      <c r="B545" s="107" t="n"/>
+      <c r="C545" s="108" t="n"/>
+      <c r="D545" s="109" t="n"/>
+      <c r="E545" s="109" t="n"/>
+      <c r="F545" s="109" t="n"/>
+      <c r="G545" s="109" t="n"/>
+      <c r="H545" s="109" t="inlineStr"/>
+      <c r="I545" s="109" t="inlineStr"/>
+      <c r="J545" s="109" t="n"/>
+      <c r="K545" s="109" t="n"/>
+      <c r="L545" s="109" t="n"/>
+    </row>
+    <row r="546" ht="18.75" customHeight="1" s="122" thickBot="1">
+      <c r="A546" s="106" t="n"/>
+      <c r="B546" s="107" t="n"/>
+      <c r="C546" s="108" t="n"/>
+      <c r="D546" s="109" t="n"/>
+      <c r="E546" s="109" t="n"/>
+      <c r="F546" s="109" t="n"/>
+      <c r="G546" s="109" t="n"/>
+      <c r="H546" s="109" t="inlineStr"/>
+      <c r="I546" s="109" t="inlineStr"/>
+      <c r="J546" s="109" t="n"/>
+      <c r="K546" s="109" t="n"/>
+      <c r="L546" s="109" t="n"/>
+    </row>
+    <row r="547" ht="18.75" customHeight="1" s="122" thickBot="1">
+      <c r="A547" s="106" t="n"/>
+      <c r="B547" s="107" t="n"/>
+      <c r="C547" s="108" t="n"/>
+      <c r="D547" s="109" t="n"/>
+      <c r="E547" s="109" t="n"/>
+      <c r="F547" s="109" t="n"/>
+      <c r="G547" s="109" t="n"/>
+      <c r="H547" s="109" t="inlineStr"/>
+      <c r="I547" s="109" t="inlineStr"/>
+      <c r="J547" s="109" t="n"/>
+      <c r="K547" s="109" t="n"/>
+      <c r="L547" s="109" t="n"/>
+    </row>
+    <row r="548" ht="18.75" customHeight="1" s="122" thickBot="1">
+      <c r="A548" s="106" t="n"/>
+      <c r="B548" s="107" t="n"/>
+      <c r="C548" s="108" t="n"/>
+      <c r="D548" s="109" t="n"/>
+      <c r="E548" s="109" t="n"/>
+      <c r="F548" s="109" t="n"/>
+      <c r="G548" s="109" t="n"/>
+      <c r="H548" s="109" t="inlineStr"/>
+      <c r="I548" s="109" t="inlineStr"/>
+      <c r="J548" s="109" t="n"/>
+      <c r="K548" s="109" t="n"/>
+      <c r="L548" s="109" t="n"/>
+    </row>
+    <row r="549" ht="18.75" customHeight="1" s="122" thickBot="1">
+      <c r="A549" s="106" t="n"/>
+      <c r="B549" s="107" t="n"/>
+      <c r="C549" s="108" t="n"/>
+      <c r="D549" s="109" t="n"/>
+      <c r="E549" s="109" t="n"/>
+      <c r="F549" s="109" t="n"/>
+      <c r="G549" s="109" t="n"/>
+      <c r="H549" s="109" t="inlineStr"/>
+      <c r="I549" s="109" t="inlineStr"/>
+      <c r="J549" s="109" t="n"/>
+      <c r="K549" s="109" t="n"/>
+      <c r="L549" s="109" t="n"/>
+    </row>
+    <row r="550" ht="18.75" customHeight="1" s="122" thickBot="1">
+      <c r="A550" s="106" t="n"/>
+      <c r="B550" s="107" t="n"/>
+      <c r="C550" s="108" t="n"/>
+      <c r="D550" s="109" t="n"/>
+      <c r="E550" s="109" t="n"/>
+      <c r="F550" s="109" t="n"/>
+      <c r="G550" s="109" t="n"/>
+      <c r="H550" s="109" t="inlineStr"/>
+      <c r="I550" s="109" t="inlineStr"/>
+      <c r="J550" s="109" t="n"/>
+      <c r="K550" s="109" t="n"/>
+      <c r="L550" s="109" t="n"/>
+    </row>
+    <row r="551" ht="18.75" customHeight="1" s="122" thickBot="1">
+      <c r="A551" s="106" t="n"/>
+      <c r="B551" s="107" t="n"/>
+      <c r="C551" s="108" t="n"/>
+      <c r="D551" s="109" t="n"/>
+      <c r="E551" s="109" t="n"/>
+      <c r="F551" s="109" t="n"/>
+      <c r="G551" s="109" t="n"/>
+      <c r="H551" s="109" t="inlineStr"/>
+      <c r="I551" s="109" t="inlineStr"/>
+      <c r="J551" s="109" t="n"/>
+      <c r="K551" s="109" t="n"/>
+      <c r="L551" s="109" t="n"/>
+    </row>
+    <row r="552" ht="18.75" customHeight="1" s="122" thickBot="1">
+      <c r="A552" s="106" t="n"/>
+      <c r="B552" s="107" t="inlineStr">
+        <is>
+          <t>Báo cáo BGT quá vận tốc</t>
+        </is>
+      </c>
+      <c r="C552" s="108" t="n"/>
+      <c r="D552" s="109" t="n"/>
+      <c r="E552" s="109" t="n"/>
+      <c r="F552" s="109" t="n"/>
+      <c r="G552" s="109" t="n"/>
+      <c r="H552" s="109" t="inlineStr"/>
+      <c r="I552" s="109" t="inlineStr"/>
+      <c r="J552" s="109" t="n"/>
+      <c r="K552" s="109" t="n"/>
+      <c r="L552" s="109" t="n"/>
+    </row>
+    <row r="553" ht="18.75" customHeight="1" s="122" thickBot="1">
+      <c r="A553" s="106" t="n"/>
+      <c r="B553" s="107" t="inlineStr">
+        <is>
+          <t>Xem lại video - Tổng quan</t>
+        </is>
+      </c>
+      <c r="C553" s="108" t="n"/>
+      <c r="D553" s="109" t="n"/>
+      <c r="E553" s="109" t="n"/>
+      <c r="F553" s="109" t="n"/>
+      <c r="G553" s="109" t="n"/>
+      <c r="H553" s="109" t="inlineStr"/>
+      <c r="I553" s="109" t="inlineStr"/>
+      <c r="J553" s="109" t="n"/>
+      <c r="K553" s="109" t="n"/>
+      <c r="L553" s="109" t="n"/>
+    </row>
+    <row r="554" ht="18.75" customHeight="1" s="122" thickBot="1">
+      <c r="A554" s="106" t="n"/>
+      <c r="B554" s="107" t="inlineStr">
+        <is>
+          <t>Xem lại video - chi tiết</t>
+        </is>
+      </c>
+      <c r="C554" s="108" t="n"/>
+      <c r="D554" s="109" t="n"/>
+      <c r="E554" s="109" t="n"/>
+      <c r="F554" s="109" t="n"/>
+      <c r="G554" s="109" t="n"/>
+      <c r="H554" s="109" t="inlineStr"/>
+      <c r="I554" s="109" t="inlineStr"/>
+      <c r="J554" s="109" t="n"/>
+      <c r="K554" s="109" t="n"/>
+      <c r="L554" s="109" t="n"/>
+    </row>
+    <row r="555" ht="18.75" customHeight="1" s="122" thickBot="1">
+      <c r="A555" s="106" t="n"/>
+      <c r="B555" s="107" t="inlineStr">
+        <is>
+          <t>Xem lại video - chi tiết</t>
+        </is>
+      </c>
+      <c r="C555" s="108" t="n"/>
+      <c r="D555" s="109" t="n"/>
+      <c r="E555" s="109" t="n"/>
+      <c r="F555" s="109" t="n"/>
+      <c r="G555" s="109" t="n"/>
+      <c r="H555" s="109" t="inlineStr"/>
+      <c r="I555" s="109" t="inlineStr"/>
+      <c r="J555" s="109" t="n"/>
+      <c r="K555" s="109" t="n"/>
+      <c r="L555" s="109" t="n"/>
+    </row>
+    <row r="556" ht="18.75" customHeight="1" s="122" thickBot="1">
+      <c r="A556" s="106" t="n"/>
+      <c r="B556" s="107" t="inlineStr">
+        <is>
+          <t>Quản lý ảnh Camera - Nghị định 10 - V2</t>
+        </is>
+      </c>
+      <c r="C556" s="108" t="n"/>
+      <c r="D556" s="109" t="n"/>
+      <c r="E556" s="109" t="n"/>
+      <c r="F556" s="109" t="n"/>
+      <c r="G556" s="109" t="n"/>
+      <c r="H556" s="109" t="inlineStr"/>
+      <c r="I556" s="109" t="inlineStr"/>
+      <c r="J556" s="109" t="n"/>
+      <c r="K556" s="109" t="n"/>
+      <c r="L556" s="109" t="n"/>
+    </row>
+    <row r="557" ht="18.75" customHeight="1" s="122" thickBot="1">
+      <c r="A557" s="106" t="n"/>
+      <c r="B557" s="107" t="inlineStr">
+        <is>
+          <t>Giám sát xe bằng hình ảnh</t>
+        </is>
+      </c>
+      <c r="C557" s="108" t="n"/>
+      <c r="D557" s="109" t="n"/>
+      <c r="E557" s="109" t="n"/>
+      <c r="F557" s="109" t="n"/>
+      <c r="G557" s="109" t="n"/>
+      <c r="H557" s="109" t="inlineStr"/>
+      <c r="I557" s="109" t="inlineStr"/>
+      <c r="J557" s="109" t="n"/>
+      <c r="K557" s="109" t="n"/>
+      <c r="L557" s="109" t="n"/>
+    </row>
+    <row r="558" ht="19.5" customHeight="1" s="122" thickBot="1">
+      <c r="A558" s="106" t="n"/>
+      <c r="B558" s="107" t="inlineStr">
+        <is>
+          <t>Giám sát bằng hình ảnh 1 xe</t>
+        </is>
+      </c>
+      <c r="C558" s="108" t="n"/>
+      <c r="D558" s="109" t="n"/>
+      <c r="E558" s="109" t="n"/>
+      <c r="F558" s="109" t="n"/>
+      <c r="G558" s="109" t="n"/>
+      <c r="H558" s="109" t="inlineStr"/>
+      <c r="I558" s="109" t="inlineStr"/>
+      <c r="J558" s="109" t="n"/>
+      <c r="K558" s="109" t="n"/>
+      <c r="L558" s="109" t="n"/>
+    </row>
+    <row r="559" ht="18.75" customHeight="1" s="122" thickBot="1">
+      <c r="A559" s="110" t="n"/>
+      <c r="B559" s="111" t="inlineStr">
         <is>
           <t>Xem ảnh Camera - NĐ10</t>
         </is>
       </c>
-      <c r="C534" s="112" t="n"/>
-      <c r="D534" s="113" t="n"/>
-      <c r="E534" s="113" t="n"/>
-      <c r="F534" s="113" t="n"/>
-      <c r="G534" s="113" t="n"/>
-      <c r="H534" s="113" t="inlineStr"/>
-      <c r="I534" s="113" t="inlineStr"/>
-      <c r="J534" s="113" t="n"/>
-      <c r="K534" s="113" t="n"/>
-      <c r="L534" s="113" t="n"/>
-    </row>
-    <row r="535" ht="18.75" customHeight="1" s="124" thickBot="1">
-      <c r="A535" s="110" t="n"/>
-      <c r="B535" s="111" t="inlineStr">
+      <c r="C559" s="112" t="n"/>
+      <c r="D559" s="113" t="n"/>
+      <c r="E559" s="113" t="n"/>
+      <c r="F559" s="113" t="n"/>
+      <c r="G559" s="113" t="n"/>
+      <c r="H559" s="113" t="inlineStr"/>
+      <c r="I559" s="113" t="inlineStr"/>
+      <c r="J559" s="113" t="n"/>
+      <c r="K559" s="113" t="n"/>
+      <c r="L559" s="113" t="n"/>
+    </row>
+    <row r="560" ht="18.75" customHeight="1" s="122" thickBot="1">
+      <c r="A560" s="110" t="n"/>
+      <c r="B560" s="111" t="inlineStr">
         <is>
           <t>Xem nhiều ảnh camera - NĐ10</t>
         </is>
       </c>
-      <c r="C535" s="112" t="n"/>
-      <c r="D535" s="113" t="n"/>
-      <c r="E535" s="113" t="n"/>
-      <c r="F535" s="113" t="n"/>
-      <c r="G535" s="113" t="n"/>
-      <c r="H535" s="113" t="inlineStr"/>
-      <c r="I535" s="113" t="inlineStr"/>
-      <c r="J535" s="113" t="n"/>
-      <c r="K535" s="113" t="n"/>
-      <c r="L535" s="113" t="n"/>
-    </row>
-    <row r="536" ht="18.75" customHeight="1" s="124" thickBot="1">
-      <c r="A536" s="110" t="n"/>
-      <c r="B536" s="114" t="inlineStr">
+      <c r="C560" s="112" t="n"/>
+      <c r="D560" s="113" t="n"/>
+      <c r="E560" s="113" t="n"/>
+      <c r="F560" s="113" t="n"/>
+      <c r="G560" s="113" t="n"/>
+      <c r="H560" s="113" t="inlineStr"/>
+      <c r="I560" s="113" t="inlineStr"/>
+      <c r="J560" s="113" t="n"/>
+      <c r="K560" s="113" t="n"/>
+      <c r="L560" s="113" t="n"/>
+    </row>
+    <row r="561" ht="18.75" customHeight="1" s="122" thickBot="1">
+      <c r="A561" s="110" t="n"/>
+      <c r="B561" s="114" t="inlineStr">
         <is>
           <t>Giám sát xe trực tuyến bằng hình ảnh</t>
         </is>
       </c>
-      <c r="C536" s="112" t="n"/>
-      <c r="D536" s="113" t="n"/>
-      <c r="E536" s="113" t="n"/>
-      <c r="F536" s="113" t="n"/>
-      <c r="G536" s="113" t="n"/>
-      <c r="H536" s="113" t="inlineStr"/>
-      <c r="I536" s="113" t="inlineStr"/>
-      <c r="J536" s="113" t="n"/>
-      <c r="K536" s="113" t="n"/>
-      <c r="L536" s="113" t="n"/>
-    </row>
-    <row r="537">
-      <c r="H537" t="inlineStr"/>
-      <c r="I537" t="inlineStr"/>
-    </row>
-    <row r="538">
-      <c r="H538" t="inlineStr"/>
-      <c r="I538" t="inlineStr"/>
-    </row>
-    <row r="539">
-      <c r="H539" t="inlineStr"/>
-      <c r="I539" t="inlineStr"/>
-    </row>
-    <row r="540">
-      <c r="H540" t="inlineStr"/>
-      <c r="I540" t="inlineStr"/>
-    </row>
-    <row r="541">
-      <c r="H541" t="inlineStr"/>
-      <c r="I541" t="inlineStr"/>
-    </row>
-    <row r="542">
-      <c r="H542" t="inlineStr"/>
-      <c r="I542" t="inlineStr"/>
-    </row>
-    <row r="543">
-      <c r="H543" t="inlineStr"/>
-      <c r="I543" t="inlineStr"/>
-    </row>
-    <row r="544">
-      <c r="H544" t="inlineStr"/>
-      <c r="I544" t="inlineStr"/>
-    </row>
-    <row r="545">
-      <c r="H545" t="inlineStr"/>
-      <c r="I545" t="inlineStr"/>
-    </row>
-    <row r="546">
-      <c r="H546" t="inlineStr"/>
-      <c r="I546" t="inlineStr"/>
-    </row>
-    <row r="547">
-      <c r="H547" t="inlineStr"/>
-      <c r="I547" t="inlineStr"/>
-    </row>
-    <row r="548">
-      <c r="H548" t="inlineStr"/>
-      <c r="I548" t="inlineStr"/>
-    </row>
-    <row r="549">
-      <c r="H549" t="inlineStr"/>
-      <c r="I549" t="inlineStr"/>
-    </row>
-    <row r="550">
-      <c r="H550" t="inlineStr"/>
-      <c r="I550" t="inlineStr"/>
-    </row>
-    <row r="551">
-      <c r="H551" t="inlineStr"/>
-      <c r="I551" t="inlineStr"/>
-    </row>
-    <row r="552">
-      <c r="H552" t="inlineStr"/>
-      <c r="I552" t="inlineStr"/>
-    </row>
-    <row r="553">
-      <c r="H553" t="inlineStr"/>
-      <c r="I553" t="inlineStr"/>
-    </row>
-    <row r="554">
-      <c r="H554" t="inlineStr"/>
-      <c r="I554" t="inlineStr"/>
-    </row>
-    <row r="555">
-      <c r="H555" t="inlineStr"/>
-      <c r="I555" t="inlineStr"/>
-    </row>
-    <row r="556">
-      <c r="H556" t="inlineStr"/>
-      <c r="I556" t="inlineStr"/>
-    </row>
-    <row r="557">
-      <c r="H557" t="inlineStr"/>
-      <c r="I557" t="inlineStr"/>
-    </row>
-    <row r="558">
-      <c r="H558" t="inlineStr"/>
-      <c r="I558" t="inlineStr"/>
-    </row>
-    <row r="559">
-      <c r="H559" t="inlineStr"/>
-      <c r="I559" t="inlineStr"/>
-    </row>
-    <row r="560">
-      <c r="H560" t="inlineStr"/>
-      <c r="I560" t="inlineStr"/>
-    </row>
-    <row r="561">
-      <c r="H561" t="inlineStr"/>
-      <c r="I561" t="inlineStr"/>
-    </row>
-    <row r="562">
-      <c r="H562" t="inlineStr"/>
-      <c r="I562" t="inlineStr"/>
-    </row>
-    <row r="563">
-      <c r="H563" t="inlineStr"/>
-      <c r="I563" t="inlineStr"/>
-    </row>
-    <row r="564">
-      <c r="H564" t="inlineStr"/>
-      <c r="I564" t="inlineStr"/>
-    </row>
-    <row r="565">
-      <c r="H565" t="inlineStr"/>
-      <c r="I565" t="inlineStr"/>
-    </row>
-    <row r="566">
-      <c r="H566" t="inlineStr"/>
-      <c r="I566" t="inlineStr"/>
-    </row>
-    <row r="567">
-      <c r="H567" t="inlineStr"/>
-      <c r="I567" t="inlineStr"/>
-    </row>
-    <row r="568">
-      <c r="H568" t="inlineStr"/>
-      <c r="I568" t="inlineStr"/>
-    </row>
-    <row r="569">
-      <c r="H569" t="inlineStr"/>
-      <c r="I569" t="inlineStr"/>
-    </row>
-    <row r="570">
-      <c r="H570" t="inlineStr"/>
-      <c r="I570" t="inlineStr"/>
-    </row>
-    <row r="571">
-      <c r="H571" t="inlineStr"/>
-      <c r="I571" t="inlineStr"/>
-    </row>
-    <row r="572">
-      <c r="H572" t="inlineStr"/>
-      <c r="I572" t="inlineStr"/>
-    </row>
-    <row r="573">
-      <c r="H573" t="inlineStr"/>
-      <c r="I573" t="inlineStr"/>
-    </row>
-    <row r="574">
-      <c r="H574" t="inlineStr"/>
-      <c r="I574" t="inlineStr"/>
-    </row>
-    <row r="575">
-      <c r="H575" t="inlineStr"/>
-      <c r="I575" t="inlineStr"/>
-    </row>
-    <row r="576">
-      <c r="H576" t="inlineStr"/>
-      <c r="I576" t="inlineStr"/>
-    </row>
-    <row r="577">
-      <c r="H577" t="inlineStr"/>
-      <c r="I577" t="inlineStr"/>
-    </row>
-    <row r="578">
-      <c r="H578" t="inlineStr"/>
-      <c r="I578" t="inlineStr"/>
-    </row>
-    <row r="579">
-      <c r="H579" t="inlineStr"/>
-      <c r="I579" t="inlineStr"/>
-    </row>
-    <row r="580">
-      <c r="H580" t="inlineStr"/>
-      <c r="I580" t="inlineStr"/>
-    </row>
-    <row r="581">
-      <c r="H581" t="inlineStr"/>
-      <c r="I581" t="inlineStr"/>
-    </row>
-    <row r="582">
-      <c r="H582" t="inlineStr"/>
-      <c r="I582" t="inlineStr"/>
-    </row>
-    <row r="583">
-      <c r="H583" t="inlineStr"/>
-      <c r="I583" t="inlineStr"/>
-    </row>
-    <row r="584">
-      <c r="H584" t="inlineStr"/>
-      <c r="I584" t="inlineStr"/>
-    </row>
-    <row r="585">
-      <c r="H585" t="inlineStr"/>
-      <c r="I585" t="inlineStr"/>
-    </row>
-    <row r="586">
-      <c r="H586" t="inlineStr"/>
-      <c r="I586" t="inlineStr"/>
-    </row>
-    <row r="587">
-      <c r="H587" t="inlineStr"/>
-      <c r="I587" t="inlineStr"/>
-    </row>
-    <row r="588">
-      <c r="H588" t="inlineStr"/>
-      <c r="I588" t="inlineStr"/>
-    </row>
-    <row r="589">
-      <c r="H589" t="inlineStr"/>
-      <c r="I589" t="inlineStr"/>
-    </row>
-    <row r="590">
-      <c r="H590" t="inlineStr"/>
-      <c r="I590" t="inlineStr"/>
-    </row>
-    <row r="591">
-      <c r="H591" t="inlineStr"/>
-      <c r="I591" t="inlineStr"/>
-    </row>
-    <row r="592">
-      <c r="H592" t="inlineStr"/>
-      <c r="I592" t="inlineStr"/>
-    </row>
-    <row r="593">
-      <c r="H593" t="inlineStr"/>
-      <c r="I593" t="inlineStr"/>
-    </row>
-    <row r="594">
-      <c r="H594" t="inlineStr"/>
-      <c r="I594" t="inlineStr"/>
-    </row>
-    <row r="595">
-      <c r="H595" t="inlineStr"/>
-      <c r="I595" t="inlineStr"/>
-    </row>
-    <row r="596">
-      <c r="H596" t="inlineStr"/>
-      <c r="I596" t="inlineStr"/>
-    </row>
-    <row r="597">
-      <c r="H597" t="inlineStr"/>
-      <c r="I597" t="inlineStr"/>
-    </row>
-    <row r="598">
-      <c r="H598" t="inlineStr"/>
-      <c r="I598" t="inlineStr"/>
-    </row>
-    <row r="599">
-      <c r="H599" t="inlineStr"/>
-      <c r="I599" t="inlineStr"/>
-    </row>
-    <row r="600">
-      <c r="H600" t="inlineStr"/>
-      <c r="I600" t="inlineStr"/>
-    </row>
-    <row r="601">
-      <c r="H601" t="inlineStr"/>
-      <c r="I601" t="inlineStr"/>
-    </row>
-    <row r="602">
-      <c r="H602" t="inlineStr"/>
-      <c r="I602" t="inlineStr"/>
-    </row>
-    <row r="603">
-      <c r="H603" t="inlineStr"/>
-      <c r="I603" t="inlineStr"/>
-    </row>
-    <row r="604">
-      <c r="H604" t="inlineStr"/>
-      <c r="I604" t="inlineStr"/>
-    </row>
-    <row r="605">
-      <c r="H605" t="inlineStr"/>
-      <c r="I605" t="inlineStr"/>
-    </row>
-    <row r="606">
-      <c r="H606" t="inlineStr"/>
-      <c r="I606" t="inlineStr"/>
-    </row>
-    <row r="607">
-      <c r="H607" t="inlineStr"/>
-      <c r="I607" t="inlineStr"/>
-    </row>
-    <row r="608">
-      <c r="H608" t="inlineStr"/>
-      <c r="I608" t="inlineStr"/>
-    </row>
-    <row r="609">
-      <c r="H609" t="inlineStr"/>
-      <c r="I609" t="inlineStr"/>
-    </row>
-    <row r="610">
-      <c r="H610" t="inlineStr"/>
-      <c r="I610" t="inlineStr"/>
-    </row>
-    <row r="611">
-      <c r="H611" t="inlineStr"/>
-      <c r="I611" t="inlineStr"/>
-    </row>
-    <row r="612">
-      <c r="H612" t="inlineStr"/>
-      <c r="I612" t="inlineStr"/>
-    </row>
-    <row r="613">
-      <c r="H613" t="inlineStr"/>
-      <c r="I613" t="inlineStr"/>
-    </row>
-    <row r="614">
-      <c r="H614" t="inlineStr"/>
-      <c r="I614" t="inlineStr"/>
-    </row>
-    <row r="615">
-      <c r="H615" t="inlineStr"/>
-      <c r="I615" t="inlineStr"/>
-    </row>
-    <row r="616">
-      <c r="H616" t="inlineStr"/>
-      <c r="I616" t="inlineStr"/>
-    </row>
-    <row r="617">
-      <c r="H617" t="inlineStr"/>
-      <c r="I617" t="inlineStr"/>
-    </row>
-    <row r="618">
-      <c r="H618" t="inlineStr"/>
-      <c r="I618" t="inlineStr"/>
-    </row>
-    <row r="619">
-      <c r="H619" t="inlineStr"/>
-      <c r="I619" t="inlineStr"/>
-    </row>
-    <row r="620">
-      <c r="H620" t="inlineStr"/>
-      <c r="I620" t="inlineStr"/>
-    </row>
-    <row r="621">
-      <c r="H621" t="inlineStr"/>
-      <c r="I621" t="inlineStr"/>
-    </row>
-    <row r="622">
-      <c r="H622" t="inlineStr"/>
-      <c r="I622" t="inlineStr"/>
-    </row>
-    <row r="623">
-      <c r="H623" t="inlineStr"/>
-      <c r="I623" t="inlineStr"/>
-    </row>
-    <row r="624">
-      <c r="H624" t="inlineStr"/>
-      <c r="I624" t="inlineStr"/>
-    </row>
-    <row r="625">
-      <c r="H625" t="inlineStr"/>
-      <c r="I625" t="inlineStr"/>
-    </row>
-    <row r="626">
-      <c r="H626" t="inlineStr"/>
-      <c r="I626" t="inlineStr"/>
-    </row>
-    <row r="627">
-      <c r="H627" t="inlineStr"/>
-      <c r="I627" t="inlineStr"/>
-    </row>
-    <row r="628">
-      <c r="H628" t="inlineStr"/>
-      <c r="I628" t="inlineStr"/>
-    </row>
-    <row r="629">
-      <c r="H629" t="inlineStr"/>
-      <c r="I629" t="inlineStr"/>
-    </row>
-    <row r="630">
-      <c r="H630" t="inlineStr"/>
-      <c r="I630" t="inlineStr"/>
-    </row>
-    <row r="631">
-      <c r="H631" t="inlineStr"/>
-      <c r="I631" t="inlineStr"/>
-    </row>
-    <row r="632">
-      <c r="H632" t="inlineStr"/>
-      <c r="I632" t="inlineStr"/>
-    </row>
-    <row r="633">
-      <c r="H633" t="inlineStr"/>
-      <c r="I633" t="inlineStr"/>
-    </row>
-    <row r="634">
-      <c r="H634" t="inlineStr"/>
-      <c r="I634" t="inlineStr"/>
-    </row>
-    <row r="635">
-      <c r="H635" t="inlineStr"/>
-      <c r="I635" t="inlineStr"/>
-    </row>
-    <row r="636">
-      <c r="H636" t="inlineStr"/>
-      <c r="I636" t="inlineStr"/>
-    </row>
-    <row r="637">
-      <c r="H637" t="inlineStr"/>
-      <c r="I637" t="inlineStr"/>
-    </row>
-    <row r="638">
-      <c r="H638" t="inlineStr"/>
-      <c r="I638" t="inlineStr"/>
-    </row>
-    <row r="639">
-      <c r="H639" t="inlineStr"/>
-      <c r="I639" t="inlineStr"/>
-    </row>
-    <row r="640">
-      <c r="H640" t="inlineStr"/>
-      <c r="I640" t="inlineStr"/>
-    </row>
-    <row r="641">
-      <c r="H641" t="inlineStr"/>
-      <c r="I641" t="inlineStr"/>
-    </row>
-    <row r="642">
-      <c r="H642" t="inlineStr"/>
-      <c r="I642" t="inlineStr"/>
-    </row>
-    <row r="643">
-      <c r="H643" t="inlineStr"/>
-      <c r="I643" t="inlineStr"/>
-    </row>
-    <row r="644">
-      <c r="H644" t="inlineStr"/>
-      <c r="I644" t="inlineStr"/>
-    </row>
-    <row r="645">
-      <c r="H645" t="inlineStr"/>
-      <c r="I645" t="inlineStr"/>
-    </row>
-    <row r="646">
-      <c r="H646" t="inlineStr"/>
-      <c r="I646" t="inlineStr"/>
-    </row>
-    <row r="647">
-      <c r="H647" t="inlineStr"/>
-      <c r="I647" t="inlineStr"/>
-    </row>
-    <row r="648">
-      <c r="H648" t="inlineStr"/>
-      <c r="I648" t="inlineStr"/>
-    </row>
-    <row r="649">
-      <c r="H649" t="inlineStr"/>
-      <c r="I649" t="inlineStr"/>
-    </row>
-    <row r="650">
-      <c r="H650" t="inlineStr"/>
-      <c r="I650" t="inlineStr"/>
-    </row>
-    <row r="651">
-      <c r="H651" t="inlineStr"/>
-      <c r="I651" t="inlineStr"/>
-    </row>
-    <row r="652">
-      <c r="H652" t="inlineStr"/>
-      <c r="I652" t="inlineStr"/>
-    </row>
-    <row r="653">
-      <c r="H653" t="inlineStr"/>
-      <c r="I653" t="inlineStr"/>
-    </row>
-    <row r="654">
-      <c r="H654" t="inlineStr"/>
-      <c r="I654" t="inlineStr"/>
-    </row>
-    <row r="655">
-      <c r="H655" t="inlineStr"/>
-      <c r="I655" t="inlineStr"/>
-    </row>
-    <row r="656">
-      <c r="H656" t="inlineStr"/>
-      <c r="I656" t="inlineStr"/>
-    </row>
-    <row r="657">
-      <c r="H657" t="inlineStr"/>
-      <c r="I657" t="inlineStr"/>
-    </row>
-    <row r="658">
-      <c r="H658" t="inlineStr"/>
-      <c r="I658" t="inlineStr"/>
-    </row>
-    <row r="659">
-      <c r="H659" t="inlineStr"/>
-      <c r="I659" t="inlineStr"/>
-    </row>
-    <row r="660">
-      <c r="H660" t="inlineStr"/>
-      <c r="I660" t="inlineStr"/>
-    </row>
-    <row r="661">
-      <c r="H661" t="inlineStr"/>
-      <c r="I661" t="inlineStr"/>
-    </row>
-    <row r="662">
-      <c r="H662" t="inlineStr"/>
-      <c r="I662" t="inlineStr"/>
-    </row>
-    <row r="663">
-      <c r="H663" t="inlineStr"/>
-      <c r="I663" t="inlineStr"/>
-    </row>
-    <row r="664">
-      <c r="H664" t="inlineStr"/>
-      <c r="I664" t="inlineStr"/>
-    </row>
-    <row r="665">
-      <c r="H665" t="inlineStr"/>
-      <c r="I665" t="inlineStr"/>
-    </row>
-    <row r="666">
-      <c r="H666" t="inlineStr"/>
-      <c r="I666" t="inlineStr"/>
-    </row>
-    <row r="667">
-      <c r="H667" t="inlineStr"/>
-      <c r="I667" t="inlineStr"/>
-    </row>
-    <row r="668">
-      <c r="H668" t="inlineStr"/>
-      <c r="I668" t="inlineStr"/>
-    </row>
-    <row r="669">
-      <c r="H669" t="inlineStr"/>
-      <c r="I669" t="inlineStr"/>
-    </row>
-    <row r="670">
-      <c r="H670" t="inlineStr"/>
-      <c r="I670" t="inlineStr"/>
-    </row>
-    <row r="671">
-      <c r="H671" t="inlineStr"/>
-      <c r="I671" t="inlineStr"/>
-    </row>
-    <row r="672">
-      <c r="H672" t="inlineStr"/>
-      <c r="I672" t="inlineStr"/>
-    </row>
-    <row r="673">
-      <c r="H673" t="inlineStr"/>
-      <c r="I673" t="inlineStr"/>
-    </row>
-    <row r="674">
-      <c r="H674" t="inlineStr"/>
-      <c r="I674" t="inlineStr"/>
-    </row>
-    <row r="675">
-      <c r="H675" t="inlineStr"/>
-      <c r="I675" t="inlineStr"/>
-    </row>
-    <row r="676">
-      <c r="H676" t="inlineStr"/>
-      <c r="I676" t="inlineStr"/>
-    </row>
-    <row r="677">
-      <c r="H677" t="inlineStr"/>
-      <c r="I677" t="inlineStr"/>
-    </row>
-    <row r="678">
-      <c r="H678" t="inlineStr"/>
-      <c r="I678" t="inlineStr"/>
-    </row>
-    <row r="679">
-      <c r="H679" t="inlineStr"/>
-      <c r="I679" t="inlineStr"/>
-    </row>
-    <row r="680">
-      <c r="H680" t="inlineStr"/>
-      <c r="I680" t="inlineStr"/>
-    </row>
-    <row r="681">
-      <c r="H681" t="inlineStr"/>
-      <c r="I681" t="inlineStr"/>
-    </row>
-    <row r="682">
-      <c r="H682" t="inlineStr"/>
-      <c r="I682" t="inlineStr"/>
-    </row>
-    <row r="683">
-      <c r="H683" t="inlineStr"/>
-      <c r="I683" t="inlineStr"/>
-    </row>
-    <row r="684">
-      <c r="H684" t="inlineStr"/>
-      <c r="I684" t="inlineStr"/>
-    </row>
-    <row r="685">
-      <c r="H685" t="inlineStr"/>
-      <c r="I685" t="inlineStr"/>
-    </row>
-    <row r="686">
-      <c r="H686" t="inlineStr"/>
-      <c r="I686" t="inlineStr"/>
-    </row>
-    <row r="687">
-      <c r="H687" t="inlineStr"/>
-      <c r="I687" t="inlineStr"/>
-    </row>
-    <row r="688">
-      <c r="H688" t="inlineStr"/>
-      <c r="I688" t="inlineStr"/>
-    </row>
-    <row r="689">
-      <c r="H689" t="inlineStr"/>
-      <c r="I689" t="inlineStr"/>
-    </row>
-    <row r="690">
-      <c r="H690" t="inlineStr"/>
-      <c r="I690" t="inlineStr"/>
-    </row>
-    <row r="691">
-      <c r="H691" t="inlineStr"/>
-      <c r="I691" t="inlineStr"/>
-    </row>
-    <row r="692">
-      <c r="H692" t="inlineStr"/>
-      <c r="I692" t="inlineStr"/>
-    </row>
-    <row r="693">
-      <c r="H693" t="inlineStr"/>
-      <c r="I693" t="inlineStr"/>
-    </row>
-    <row r="694">
-      <c r="H694" t="inlineStr"/>
-      <c r="I694" t="inlineStr"/>
-    </row>
-    <row r="695">
-      <c r="H695" t="inlineStr"/>
-      <c r="I695" t="inlineStr"/>
-    </row>
-    <row r="696">
-      <c r="H696" t="inlineStr"/>
-      <c r="I696" t="inlineStr"/>
-    </row>
-    <row r="697">
-      <c r="H697" t="inlineStr"/>
-      <c r="I697" t="inlineStr"/>
-    </row>
-    <row r="698">
-      <c r="H698" t="inlineStr"/>
-      <c r="I698" t="inlineStr"/>
-    </row>
-    <row r="699">
-      <c r="H699" t="inlineStr"/>
-      <c r="I699" t="inlineStr"/>
-    </row>
-    <row r="700">
-      <c r="H700" t="inlineStr"/>
-      <c r="I700" t="inlineStr"/>
-    </row>
-    <row r="701">
-      <c r="H701" t="inlineStr"/>
-      <c r="I701" t="inlineStr"/>
-    </row>
-    <row r="702">
-      <c r="H702" t="inlineStr"/>
-      <c r="I702" t="inlineStr"/>
-    </row>
-    <row r="703">
-      <c r="H703" t="inlineStr"/>
-      <c r="I703" t="inlineStr"/>
-    </row>
-    <row r="704">
-      <c r="H704" t="inlineStr"/>
-      <c r="I704" t="inlineStr"/>
-    </row>
-    <row r="705">
-      <c r="H705" t="inlineStr"/>
-      <c r="I705" t="inlineStr"/>
-    </row>
-    <row r="706">
-      <c r="H706" t="inlineStr"/>
-      <c r="I706" t="inlineStr"/>
-    </row>
-    <row r="707">
-      <c r="H707" t="inlineStr"/>
-      <c r="I707" t="inlineStr"/>
-    </row>
-    <row r="708">
-      <c r="H708" t="inlineStr"/>
-      <c r="I708" t="inlineStr"/>
-    </row>
-    <row r="709">
-      <c r="H709" t="inlineStr"/>
-      <c r="I709" t="inlineStr"/>
-    </row>
-    <row r="710">
-      <c r="H710" t="inlineStr"/>
-      <c r="I710" t="inlineStr"/>
-    </row>
-    <row r="711">
-      <c r="H711" t="inlineStr"/>
-      <c r="I711" t="inlineStr"/>
-    </row>
-    <row r="712">
-      <c r="H712" t="inlineStr"/>
-      <c r="I712" t="inlineStr"/>
-    </row>
-    <row r="713">
-      <c r="H713" t="inlineStr"/>
-      <c r="I713" t="inlineStr"/>
-    </row>
-    <row r="714">
-      <c r="H714" t="inlineStr"/>
-      <c r="I714" t="inlineStr"/>
-    </row>
-    <row r="715">
-      <c r="H715" t="inlineStr"/>
-      <c r="I715" t="inlineStr"/>
-    </row>
-    <row r="716">
-      <c r="H716" t="inlineStr"/>
-      <c r="I716" t="inlineStr"/>
-    </row>
-    <row r="717">
-      <c r="H717" t="inlineStr"/>
-      <c r="I717" t="inlineStr"/>
-    </row>
-    <row r="718">
-      <c r="H718" t="inlineStr"/>
-      <c r="I718" t="inlineStr"/>
-    </row>
-    <row r="719">
-      <c r="H719" t="inlineStr"/>
-      <c r="I719" t="inlineStr"/>
-    </row>
-    <row r="720">
-      <c r="H720" t="inlineStr"/>
-      <c r="I720" t="inlineStr"/>
-    </row>
-    <row r="721">
-      <c r="H721" t="inlineStr"/>
-      <c r="I721" t="inlineStr"/>
-    </row>
-    <row r="722">
-      <c r="H722" t="inlineStr"/>
-      <c r="I722" t="inlineStr"/>
-    </row>
-    <row r="723">
-      <c r="H723" t="inlineStr"/>
-      <c r="I723" t="inlineStr"/>
-    </row>
-    <row r="724">
-      <c r="H724" t="inlineStr"/>
-      <c r="I724" t="inlineStr"/>
-    </row>
-    <row r="725">
-      <c r="H725" t="inlineStr"/>
-      <c r="I725" t="inlineStr"/>
-    </row>
-    <row r="726">
-      <c r="H726" t="inlineStr"/>
-      <c r="I726" t="inlineStr"/>
-    </row>
-    <row r="727">
-      <c r="H727" t="inlineStr"/>
-      <c r="I727" t="inlineStr"/>
-    </row>
-    <row r="728">
-      <c r="H728" t="inlineStr"/>
-      <c r="I728" t="inlineStr"/>
-    </row>
-    <row r="729">
-      <c r="H729" t="inlineStr"/>
-      <c r="I729" t="inlineStr"/>
-    </row>
-    <row r="730">
-      <c r="H730" t="inlineStr"/>
-      <c r="I730" t="inlineStr"/>
-    </row>
-    <row r="731">
-      <c r="H731" t="inlineStr"/>
-      <c r="I731" t="inlineStr"/>
-    </row>
-    <row r="732">
-      <c r="H732" t="inlineStr"/>
-      <c r="I732" t="inlineStr"/>
-    </row>
-    <row r="733">
-      <c r="H733" t="inlineStr"/>
-      <c r="I733" t="inlineStr"/>
-    </row>
-    <row r="734">
-      <c r="H734" t="inlineStr"/>
-      <c r="I734" t="inlineStr"/>
-    </row>
-    <row r="735">
-      <c r="H735" t="inlineStr"/>
-      <c r="I735" t="inlineStr"/>
-    </row>
-    <row r="736">
-      <c r="H736" t="inlineStr"/>
-      <c r="I736" t="inlineStr"/>
-    </row>
-    <row r="737">
-      <c r="H737" t="inlineStr"/>
-      <c r="I737" t="inlineStr"/>
-    </row>
-    <row r="738">
-      <c r="H738" t="inlineStr"/>
-      <c r="I738" t="inlineStr"/>
-    </row>
-    <row r="739">
-      <c r="H739" t="inlineStr"/>
-      <c r="I739" t="inlineStr"/>
-    </row>
-    <row r="740">
-      <c r="H740" t="inlineStr"/>
-      <c r="I740" t="inlineStr"/>
-    </row>
-    <row r="741">
-      <c r="H741" t="inlineStr"/>
-      <c r="I741" t="inlineStr"/>
-    </row>
-    <row r="742">
-      <c r="H742" t="inlineStr"/>
-      <c r="I742" t="inlineStr"/>
-    </row>
-    <row r="743">
-      <c r="H743" t="inlineStr"/>
-      <c r="I743" t="inlineStr"/>
-    </row>
-    <row r="744">
-      <c r="H744" t="inlineStr"/>
-      <c r="I744" t="inlineStr"/>
-    </row>
-    <row r="745">
-      <c r="H745" t="inlineStr"/>
-      <c r="I745" t="inlineStr"/>
-    </row>
-    <row r="746">
-      <c r="H746" t="inlineStr"/>
-      <c r="I746" t="inlineStr"/>
-    </row>
-    <row r="747">
-      <c r="H747" t="inlineStr"/>
-      <c r="I747" t="inlineStr"/>
-    </row>
-    <row r="748">
-      <c r="H748" t="inlineStr"/>
-      <c r="I748" t="inlineStr"/>
-    </row>
-    <row r="749">
-      <c r="H749" t="inlineStr"/>
-      <c r="I749" t="inlineStr"/>
-    </row>
-    <row r="750">
-      <c r="H750" t="inlineStr"/>
-      <c r="I750" t="inlineStr"/>
-    </row>
-    <row r="751">
-      <c r="H751" t="inlineStr"/>
-      <c r="I751" t="inlineStr"/>
-    </row>
-    <row r="752">
-      <c r="H752" t="inlineStr"/>
-      <c r="I752" t="inlineStr"/>
-    </row>
-    <row r="753">
-      <c r="H753" t="inlineStr"/>
-      <c r="I753" t="inlineStr"/>
-    </row>
-    <row r="754">
-      <c r="H754" t="inlineStr"/>
-      <c r="I754" t="inlineStr"/>
-    </row>
-    <row r="755">
-      <c r="H755" t="inlineStr"/>
-      <c r="I755" t="inlineStr"/>
-    </row>
-    <row r="756">
-      <c r="H756" t="inlineStr"/>
-      <c r="I756" t="inlineStr"/>
-    </row>
-    <row r="757">
-      <c r="H757" t="inlineStr"/>
-      <c r="I757" t="inlineStr"/>
-    </row>
-    <row r="758">
-      <c r="H758" t="inlineStr"/>
-      <c r="I758" t="inlineStr"/>
-    </row>
-    <row r="759">
-      <c r="H759" t="inlineStr"/>
-      <c r="I759" t="inlineStr"/>
-    </row>
-    <row r="760">
-      <c r="H760" t="inlineStr"/>
-      <c r="I760" t="inlineStr"/>
-    </row>
-    <row r="761">
-      <c r="H761" t="inlineStr"/>
-      <c r="I761" t="inlineStr"/>
-    </row>
-    <row r="762">
-      <c r="H762" t="inlineStr"/>
-      <c r="I762" t="inlineStr"/>
-    </row>
-    <row r="763">
-      <c r="H763" t="inlineStr"/>
-      <c r="I763" t="inlineStr"/>
-    </row>
-    <row r="764">
-      <c r="H764" t="inlineStr"/>
-      <c r="I764" t="inlineStr"/>
-    </row>
-    <row r="765">
-      <c r="H765" t="inlineStr"/>
-      <c r="I765" t="inlineStr"/>
-    </row>
-    <row r="766">
-      <c r="H766" t="inlineStr"/>
-      <c r="I766" t="inlineStr"/>
-    </row>
-    <row r="767">
-      <c r="H767" t="inlineStr"/>
-      <c r="I767" t="inlineStr"/>
-    </row>
-    <row r="768">
-      <c r="H768" t="inlineStr"/>
-      <c r="I768" t="inlineStr"/>
-    </row>
-    <row r="769">
-      <c r="H769" t="inlineStr"/>
-      <c r="I769" t="inlineStr"/>
-    </row>
-    <row r="770">
-      <c r="H770" t="inlineStr"/>
-      <c r="I770" t="inlineStr"/>
-    </row>
-    <row r="771">
-      <c r="H771" t="inlineStr"/>
-      <c r="I771" t="inlineStr"/>
-    </row>
-    <row r="772">
-      <c r="H772" t="inlineStr"/>
-      <c r="I772" t="inlineStr"/>
-    </row>
-    <row r="773">
-      <c r="H773" t="inlineStr"/>
-      <c r="I773" t="inlineStr"/>
-    </row>
-    <row r="774">
-      <c r="H774" t="inlineStr"/>
-      <c r="I774" t="inlineStr"/>
-    </row>
-    <row r="775">
-      <c r="H775" t="inlineStr"/>
-      <c r="I775" t="inlineStr"/>
-    </row>
-    <row r="776">
-      <c r="H776" t="inlineStr"/>
-      <c r="I776" t="inlineStr"/>
-    </row>
-    <row r="777">
-      <c r="H777" t="inlineStr"/>
-      <c r="I777" t="inlineStr"/>
-    </row>
-    <row r="778">
-      <c r="H778" t="inlineStr"/>
-      <c r="I778" t="inlineStr"/>
-    </row>
-    <row r="779">
-      <c r="H779" t="inlineStr"/>
-      <c r="I779" t="inlineStr"/>
-    </row>
-    <row r="780">
-      <c r="H780" t="inlineStr"/>
-      <c r="I780" t="inlineStr"/>
-    </row>
-    <row r="781">
-      <c r="H781" t="inlineStr"/>
-      <c r="I781" t="inlineStr"/>
-    </row>
-    <row r="782">
-      <c r="H782" t="inlineStr"/>
-      <c r="I782" t="inlineStr"/>
-    </row>
-    <row r="783">
-      <c r="H783" t="inlineStr"/>
-      <c r="I783" t="inlineStr"/>
-    </row>
-    <row r="784">
-      <c r="H784" t="inlineStr"/>
-      <c r="I784" t="inlineStr"/>
-    </row>
-    <row r="785">
-      <c r="H785" t="inlineStr"/>
-      <c r="I785" t="inlineStr"/>
-    </row>
-    <row r="786">
-      <c r="H786" t="inlineStr"/>
-      <c r="I786" t="inlineStr"/>
-    </row>
-    <row r="787">
-      <c r="H787" t="inlineStr"/>
-      <c r="I787" t="inlineStr"/>
-    </row>
-    <row r="788">
-      <c r="H788" t="inlineStr"/>
-      <c r="I788" t="inlineStr"/>
-    </row>
-    <row r="789">
-      <c r="H789" t="inlineStr"/>
-      <c r="I789" t="inlineStr"/>
-    </row>
-    <row r="790">
-      <c r="H790" t="inlineStr"/>
-      <c r="I790" t="inlineStr"/>
-    </row>
-    <row r="791">
-      <c r="H791" t="inlineStr"/>
-      <c r="I791" t="inlineStr"/>
-    </row>
-    <row r="792">
-      <c r="H792" t="inlineStr"/>
-      <c r="I792" t="inlineStr"/>
-    </row>
-    <row r="793">
-      <c r="H793" t="inlineStr"/>
-      <c r="I793" t="inlineStr"/>
-    </row>
-    <row r="794">
-      <c r="H794" t="inlineStr"/>
-      <c r="I794" t="inlineStr"/>
-    </row>
-    <row r="795">
-      <c r="H795" t="inlineStr"/>
-      <c r="I795" t="inlineStr"/>
-    </row>
-    <row r="796">
-      <c r="H796" t="inlineStr"/>
-      <c r="I796" t="inlineStr"/>
-    </row>
-    <row r="797">
-      <c r="H797" t="inlineStr"/>
-      <c r="I797" t="inlineStr"/>
-    </row>
-    <row r="798">
-      <c r="H798" t="inlineStr"/>
-      <c r="I798" t="inlineStr"/>
-    </row>
-    <row r="799">
-      <c r="H799" t="inlineStr"/>
-      <c r="I799" t="inlineStr"/>
-    </row>
-    <row r="800">
-      <c r="H800" t="inlineStr"/>
-      <c r="I800" t="inlineStr"/>
-    </row>
-    <row r="801">
-      <c r="H801" t="inlineStr"/>
-      <c r="I801" t="inlineStr"/>
-    </row>
-    <row r="802">
-      <c r="H802" t="inlineStr"/>
-      <c r="I802" t="inlineStr"/>
-    </row>
-    <row r="803">
-      <c r="H803" t="inlineStr"/>
-      <c r="I803" t="inlineStr"/>
-    </row>
-    <row r="804">
-      <c r="H804" t="inlineStr"/>
-      <c r="I804" t="inlineStr"/>
-    </row>
-    <row r="805">
-      <c r="H805" t="inlineStr"/>
-      <c r="I805" t="inlineStr"/>
-    </row>
-    <row r="806">
-      <c r="H806" t="inlineStr"/>
-      <c r="I806" t="inlineStr"/>
-    </row>
-    <row r="807">
-      <c r="H807" t="inlineStr"/>
-      <c r="I807" t="inlineStr"/>
-    </row>
-    <row r="808">
-      <c r="H808" t="inlineStr"/>
-      <c r="I808" t="inlineStr"/>
-    </row>
-    <row r="809">
-      <c r="H809" t="inlineStr"/>
-      <c r="I809" t="inlineStr"/>
-    </row>
-    <row r="810">
-      <c r="H810" t="inlineStr"/>
-      <c r="I810" t="inlineStr"/>
-    </row>
-    <row r="811">
-      <c r="H811" t="inlineStr"/>
-      <c r="I811" t="inlineStr"/>
-    </row>
-    <row r="812">
-      <c r="H812" t="inlineStr"/>
-      <c r="I812" t="inlineStr"/>
-    </row>
-    <row r="813">
-      <c r="H813" t="inlineStr"/>
-      <c r="I813" t="inlineStr"/>
-    </row>
-    <row r="814">
-      <c r="H814" t="inlineStr"/>
-      <c r="I814" t="inlineStr"/>
-    </row>
-    <row r="815">
-      <c r="H815" t="inlineStr"/>
-      <c r="I815" t="inlineStr"/>
-    </row>
-    <row r="816">
-      <c r="H816" t="inlineStr"/>
-      <c r="I816" t="inlineStr"/>
-    </row>
-    <row r="817">
-      <c r="H817" t="inlineStr"/>
-      <c r="I817" t="inlineStr"/>
-    </row>
-    <row r="818">
-      <c r="H818" t="inlineStr"/>
-      <c r="I818" t="inlineStr"/>
-    </row>
-    <row r="819">
-      <c r="H819" t="inlineStr"/>
-      <c r="I819" t="inlineStr"/>
-    </row>
-    <row r="820">
-      <c r="H820" t="inlineStr"/>
-      <c r="I820" t="inlineStr"/>
-    </row>
-    <row r="821">
-      <c r="H821" t="inlineStr"/>
-      <c r="I821" t="inlineStr"/>
-    </row>
-    <row r="822">
-      <c r="H822" t="inlineStr"/>
-      <c r="I822" t="inlineStr"/>
-    </row>
-    <row r="823">
-      <c r="H823" t="inlineStr"/>
-      <c r="I823" t="inlineStr"/>
-    </row>
-    <row r="824">
-      <c r="H824" t="inlineStr"/>
-      <c r="I824" t="inlineStr"/>
-    </row>
-    <row r="825">
-      <c r="H825" t="inlineStr"/>
-      <c r="I825" t="inlineStr"/>
-    </row>
-    <row r="826">
-      <c r="H826" t="inlineStr"/>
-      <c r="I826" t="inlineStr"/>
-    </row>
-    <row r="827">
-      <c r="H827" t="inlineStr"/>
-      <c r="I827" t="inlineStr"/>
-    </row>
-    <row r="828">
-      <c r="H828" t="inlineStr"/>
-      <c r="I828" t="inlineStr"/>
-    </row>
-    <row r="829">
-      <c r="H829" t="inlineStr"/>
-      <c r="I829" t="inlineStr"/>
-    </row>
-    <row r="830">
-      <c r="H830" t="inlineStr"/>
-      <c r="I830" t="inlineStr"/>
-    </row>
-    <row r="831">
-      <c r="H831" t="inlineStr"/>
-      <c r="I831" t="inlineStr"/>
-    </row>
-    <row r="832">
-      <c r="H832" t="inlineStr"/>
-      <c r="I832" t="inlineStr"/>
-    </row>
-    <row r="833">
-      <c r="H833" t="inlineStr"/>
-      <c r="I833" t="inlineStr"/>
-    </row>
-    <row r="834">
-      <c r="H834" t="inlineStr"/>
-      <c r="I834" t="inlineStr"/>
-    </row>
-    <row r="835">
-      <c r="H835" t="inlineStr"/>
-      <c r="I835" t="inlineStr"/>
-    </row>
-    <row r="836">
-      <c r="H836" t="inlineStr"/>
-      <c r="I836" t="inlineStr"/>
-    </row>
-    <row r="837">
-      <c r="H837" t="inlineStr"/>
-      <c r="I837" t="inlineStr"/>
-    </row>
-    <row r="838">
-      <c r="H838" t="inlineStr"/>
-      <c r="I838" t="inlineStr"/>
-    </row>
-    <row r="839">
-      <c r="H839" t="inlineStr"/>
-      <c r="I839" t="inlineStr"/>
-    </row>
-    <row r="840">
-      <c r="H840" t="inlineStr"/>
-      <c r="I840" t="inlineStr"/>
-    </row>
-    <row r="841">
-      <c r="H841" t="inlineStr"/>
-      <c r="I841" t="inlineStr"/>
-    </row>
-    <row r="842">
-      <c r="H842" t="inlineStr"/>
-      <c r="I842" t="inlineStr"/>
-    </row>
-    <row r="843">
-      <c r="H843" t="inlineStr"/>
-      <c r="I843" t="inlineStr"/>
-    </row>
-    <row r="844">
-      <c r="H844" t="inlineStr"/>
-      <c r="I844" t="inlineStr"/>
-    </row>
-    <row r="845">
-      <c r="H845" t="inlineStr"/>
-      <c r="I845" t="inlineStr"/>
-    </row>
-    <row r="846">
-      <c r="H846" t="inlineStr"/>
-      <c r="I846" t="inlineStr"/>
-    </row>
-    <row r="847">
-      <c r="H847" t="inlineStr"/>
-      <c r="I847" t="inlineStr"/>
-    </row>
-    <row r="848">
-      <c r="H848" t="inlineStr"/>
-      <c r="I848" t="inlineStr"/>
-    </row>
-    <row r="849">
-      <c r="H849" t="inlineStr"/>
-      <c r="I849" t="inlineStr"/>
-    </row>
-    <row r="850">
-      <c r="H850" t="inlineStr"/>
-      <c r="I850" t="inlineStr"/>
-    </row>
-    <row r="851">
-      <c r="H851" t="inlineStr"/>
-      <c r="I851" t="inlineStr"/>
-    </row>
-    <row r="852">
-      <c r="H852" t="inlineStr"/>
-      <c r="I852" t="inlineStr"/>
-    </row>
-    <row r="853">
-      <c r="H853" t="inlineStr"/>
-      <c r="I853" t="inlineStr"/>
-    </row>
-    <row r="854">
-      <c r="H854" t="inlineStr"/>
-      <c r="I854" t="inlineStr"/>
-    </row>
-    <row r="855">
-      <c r="H855" t="inlineStr"/>
-      <c r="I855" t="inlineStr"/>
-    </row>
-    <row r="856">
-      <c r="H856" t="inlineStr"/>
-      <c r="I856" t="inlineStr"/>
-    </row>
-    <row r="857">
-      <c r="H857" t="inlineStr"/>
-      <c r="I857" t="inlineStr"/>
-    </row>
-    <row r="858">
-      <c r="H858" t="inlineStr"/>
-      <c r="I858" t="inlineStr"/>
-    </row>
-    <row r="859">
-      <c r="H859" t="inlineStr"/>
-      <c r="I859" t="inlineStr"/>
-    </row>
-    <row r="860">
-      <c r="H860" t="inlineStr"/>
-      <c r="I860" t="inlineStr"/>
-    </row>
-    <row r="861">
-      <c r="H861" t="inlineStr"/>
-      <c r="I861" t="inlineStr"/>
-    </row>
-    <row r="862">
-      <c r="H862" t="inlineStr"/>
-      <c r="I862" t="inlineStr"/>
-    </row>
-    <row r="863">
-      <c r="H863" t="inlineStr"/>
-      <c r="I863" t="inlineStr"/>
-    </row>
-    <row r="864">
-      <c r="H864" t="inlineStr"/>
-      <c r="I864" t="inlineStr"/>
-    </row>
-    <row r="865">
-      <c r="H865" t="inlineStr"/>
-      <c r="I865" t="inlineStr"/>
-    </row>
-    <row r="866">
-      <c r="H866" t="inlineStr"/>
-      <c r="I866" t="inlineStr"/>
-    </row>
-    <row r="867">
-      <c r="H867" t="inlineStr"/>
-      <c r="I867" t="inlineStr"/>
-    </row>
-    <row r="868">
-      <c r="H868" t="inlineStr"/>
-      <c r="I868" t="inlineStr"/>
-    </row>
-    <row r="869">
-      <c r="H869" t="inlineStr"/>
-      <c r="I869" t="inlineStr"/>
-    </row>
-    <row r="870">
-      <c r="H870" t="inlineStr"/>
-      <c r="I870" t="inlineStr"/>
-    </row>
-    <row r="871">
-      <c r="H871" t="inlineStr"/>
-      <c r="I871" t="inlineStr"/>
-    </row>
-    <row r="872">
-      <c r="H872" t="inlineStr"/>
-      <c r="I872" t="inlineStr"/>
-    </row>
-    <row r="873">
-      <c r="H873" t="inlineStr"/>
-      <c r="I873" t="inlineStr"/>
-    </row>
-    <row r="874">
-      <c r="H874" t="inlineStr"/>
-      <c r="I874" t="inlineStr"/>
-    </row>
-    <row r="875">
-      <c r="H875" t="inlineStr"/>
-      <c r="I875" t="inlineStr"/>
-    </row>
-    <row r="876">
-      <c r="H876" t="inlineStr"/>
-      <c r="I876" t="inlineStr"/>
-    </row>
-    <row r="877">
-      <c r="H877" t="inlineStr"/>
-      <c r="I877" t="inlineStr"/>
-    </row>
-    <row r="878">
-      <c r="H878" t="inlineStr"/>
-      <c r="I878" t="inlineStr"/>
-    </row>
-    <row r="879">
-      <c r="H879" t="inlineStr"/>
-      <c r="I879" t="inlineStr"/>
-    </row>
-    <row r="880">
-      <c r="H880" t="inlineStr"/>
-      <c r="I880" t="inlineStr"/>
-    </row>
-    <row r="881">
-      <c r="H881" t="inlineStr"/>
-      <c r="I881" t="inlineStr"/>
-    </row>
-    <row r="882">
-      <c r="H882" t="inlineStr"/>
-      <c r="I882" t="inlineStr"/>
-    </row>
-    <row r="883">
-      <c r="H883" t="inlineStr"/>
-      <c r="I883" t="inlineStr"/>
-    </row>
-    <row r="884">
-      <c r="H884" t="inlineStr"/>
-      <c r="I884" t="inlineStr"/>
-    </row>
-    <row r="885">
-      <c r="H885" t="inlineStr"/>
-      <c r="I885" t="inlineStr"/>
-    </row>
-    <row r="886">
-      <c r="H886" t="inlineStr"/>
-      <c r="I886" t="inlineStr"/>
-    </row>
-    <row r="887">
-      <c r="H887" t="inlineStr"/>
-      <c r="I887" t="inlineStr"/>
-    </row>
-    <row r="888">
-      <c r="H888" t="inlineStr"/>
-      <c r="I888" t="inlineStr"/>
-    </row>
-    <row r="889">
-      <c r="H889" t="inlineStr"/>
-      <c r="I889" t="inlineStr"/>
-    </row>
-    <row r="890">
-      <c r="H890" t="inlineStr"/>
-      <c r="I890" t="inlineStr"/>
-    </row>
-    <row r="891">
-      <c r="H891" t="inlineStr"/>
-      <c r="I891" t="inlineStr"/>
-    </row>
-    <row r="892">
-      <c r="H892" t="inlineStr"/>
-      <c r="I892" t="inlineStr"/>
-    </row>
-    <row r="893">
-      <c r="H893" t="inlineStr"/>
-      <c r="I893" t="inlineStr"/>
-    </row>
-    <row r="894">
-      <c r="H894" t="inlineStr"/>
-      <c r="I894" t="inlineStr"/>
-    </row>
-    <row r="895">
-      <c r="H895" t="inlineStr"/>
-      <c r="I895" t="inlineStr"/>
-    </row>
-    <row r="896">
-      <c r="H896" t="inlineStr"/>
-      <c r="I896" t="inlineStr"/>
-    </row>
-    <row r="897">
-      <c r="H897" t="inlineStr"/>
-      <c r="I897" t="inlineStr"/>
-    </row>
-    <row r="898">
-      <c r="H898" t="inlineStr"/>
-      <c r="I898" t="inlineStr"/>
-    </row>
-    <row r="899">
-      <c r="H899" t="inlineStr"/>
-      <c r="I899" t="inlineStr"/>
-    </row>
-    <row r="900">
-      <c r="H900" t="inlineStr"/>
-      <c r="I900" t="inlineStr"/>
-    </row>
-    <row r="901">
-      <c r="H901" t="inlineStr"/>
-      <c r="I901" t="inlineStr"/>
-    </row>
-    <row r="902">
-      <c r="H902" t="inlineStr"/>
-      <c r="I902" t="inlineStr"/>
-    </row>
-    <row r="903">
-      <c r="H903" t="inlineStr"/>
-      <c r="I903" t="inlineStr"/>
-    </row>
-    <row r="904">
-      <c r="H904" t="inlineStr"/>
-      <c r="I904" t="inlineStr"/>
-    </row>
-    <row r="905">
-      <c r="H905" t="inlineStr"/>
-      <c r="I905" t="inlineStr"/>
-    </row>
-    <row r="906">
-      <c r="H906" t="inlineStr"/>
-      <c r="I906" t="inlineStr"/>
-    </row>
-    <row r="907">
-      <c r="H907" t="inlineStr"/>
-      <c r="I907" t="inlineStr"/>
-    </row>
-    <row r="908">
-      <c r="H908" t="inlineStr"/>
-      <c r="I908" t="inlineStr"/>
-    </row>
-    <row r="909">
-      <c r="H909" t="inlineStr"/>
-      <c r="I909" t="inlineStr"/>
-    </row>
-    <row r="910">
-      <c r="H910" t="inlineStr"/>
-      <c r="I910" t="inlineStr"/>
-    </row>
-    <row r="911">
-      <c r="H911" t="inlineStr"/>
-      <c r="I911" t="inlineStr"/>
-    </row>
-    <row r="912">
-      <c r="H912" t="inlineStr"/>
-      <c r="I912" t="inlineStr"/>
-    </row>
-    <row r="913">
-      <c r="H913" t="inlineStr"/>
-      <c r="I913" t="inlineStr"/>
-    </row>
-    <row r="914">
-      <c r="H914" t="inlineStr"/>
-      <c r="I914" t="inlineStr"/>
-    </row>
-    <row r="915">
-      <c r="H915" t="inlineStr"/>
-      <c r="I915" t="inlineStr"/>
-    </row>
-    <row r="916">
-      <c r="H916" t="inlineStr"/>
-      <c r="I916" t="inlineStr"/>
-    </row>
-    <row r="917">
-      <c r="H917" t="inlineStr"/>
-      <c r="I917" t="inlineStr"/>
-    </row>
-    <row r="918">
-      <c r="H918" t="inlineStr"/>
-      <c r="I918" t="inlineStr"/>
-    </row>
-    <row r="919">
-      <c r="H919" t="inlineStr"/>
-      <c r="I919" t="inlineStr"/>
-    </row>
-    <row r="920">
-      <c r="H920" t="inlineStr"/>
-      <c r="I920" t="inlineStr"/>
-    </row>
-    <row r="921">
-      <c r="H921" t="inlineStr"/>
-      <c r="I921" t="inlineStr"/>
-    </row>
-    <row r="922">
-      <c r="H922" t="inlineStr"/>
-      <c r="I922" t="inlineStr"/>
-    </row>
-    <row r="923">
-      <c r="H923" t="inlineStr"/>
-      <c r="I923" t="inlineStr"/>
-    </row>
-    <row r="924">
-      <c r="H924" t="inlineStr"/>
-      <c r="I924" t="inlineStr"/>
-    </row>
-    <row r="925">
-      <c r="H925" t="inlineStr"/>
-      <c r="I925" t="inlineStr"/>
-    </row>
-    <row r="926">
-      <c r="H926" t="inlineStr"/>
-      <c r="I926" t="inlineStr"/>
-    </row>
-    <row r="927">
-      <c r="H927" t="inlineStr"/>
-      <c r="I927" t="inlineStr"/>
-    </row>
-    <row r="928">
-      <c r="H928" t="inlineStr"/>
-      <c r="I928" t="inlineStr"/>
-    </row>
-    <row r="929">
-      <c r="H929" t="inlineStr"/>
-      <c r="I929" t="inlineStr"/>
-    </row>
-    <row r="930">
-      <c r="H930" t="inlineStr"/>
-      <c r="I930" t="inlineStr"/>
-    </row>
-    <row r="931">
-      <c r="H931" t="inlineStr"/>
-      <c r="I931" t="inlineStr"/>
-    </row>
-    <row r="932">
-      <c r="H932" t="inlineStr"/>
-      <c r="I932" t="inlineStr"/>
-    </row>
-    <row r="933">
-      <c r="H933" t="inlineStr"/>
-      <c r="I933" t="inlineStr"/>
-    </row>
-    <row r="934">
-      <c r="H934" t="inlineStr"/>
-      <c r="I934" t="inlineStr"/>
-    </row>
-    <row r="935">
-      <c r="H935" t="inlineStr"/>
-      <c r="I935" t="inlineStr"/>
-    </row>
-    <row r="936">
-      <c r="H936" t="inlineStr"/>
-      <c r="I936" t="inlineStr"/>
-    </row>
-    <row r="937">
-      <c r="H937" t="inlineStr"/>
-      <c r="I937" t="inlineStr"/>
-    </row>
-    <row r="938">
-      <c r="H938" t="inlineStr"/>
-      <c r="I938" t="inlineStr"/>
-    </row>
-    <row r="939">
-      <c r="H939" t="inlineStr"/>
-      <c r="I939" t="inlineStr"/>
-    </row>
-    <row r="940">
-      <c r="H940" t="inlineStr"/>
-      <c r="I940" t="inlineStr"/>
-    </row>
-    <row r="941">
-      <c r="H941" t="inlineStr"/>
-      <c r="I941" t="inlineStr"/>
-    </row>
-    <row r="942">
-      <c r="H942" t="inlineStr"/>
-      <c r="I942" t="inlineStr"/>
-    </row>
-    <row r="943">
-      <c r="H943" t="inlineStr"/>
-      <c r="I943" t="inlineStr"/>
-    </row>
-    <row r="944">
-      <c r="H944" t="inlineStr"/>
-      <c r="I944" t="inlineStr"/>
-    </row>
-    <row r="945">
-      <c r="H945" t="inlineStr"/>
-      <c r="I945" t="inlineStr"/>
-    </row>
-    <row r="946">
-      <c r="H946" t="inlineStr"/>
-      <c r="I946" t="inlineStr"/>
-    </row>
-    <row r="947">
-      <c r="H947" t="inlineStr"/>
-      <c r="I947" t="inlineStr"/>
-    </row>
-    <row r="948">
-      <c r="H948" t="inlineStr"/>
-      <c r="I948" t="inlineStr"/>
-    </row>
-    <row r="949">
-      <c r="H949" t="inlineStr"/>
-      <c r="I949" t="inlineStr"/>
-    </row>
-    <row r="950">
-      <c r="H950" t="inlineStr"/>
-      <c r="I950" t="inlineStr"/>
-    </row>
-    <row r="951">
-      <c r="H951" t="inlineStr"/>
-      <c r="I951" t="inlineStr"/>
-    </row>
-    <row r="952">
-      <c r="H952" t="inlineStr"/>
-      <c r="I952" t="inlineStr"/>
-    </row>
-    <row r="953">
-      <c r="H953" t="inlineStr"/>
-      <c r="I953" t="inlineStr"/>
-    </row>
-    <row r="954">
-      <c r="H954" t="inlineStr"/>
-      <c r="I954" t="inlineStr"/>
-    </row>
-    <row r="955">
-      <c r="H955" t="inlineStr"/>
-      <c r="I955" t="inlineStr"/>
-    </row>
-    <row r="956">
-      <c r="H956" t="inlineStr"/>
-      <c r="I956" t="inlineStr"/>
-    </row>
-    <row r="957">
-      <c r="H957" t="inlineStr"/>
-      <c r="I957" t="inlineStr"/>
-    </row>
-    <row r="958">
-      <c r="H958" t="inlineStr"/>
-      <c r="I958" t="inlineStr"/>
-    </row>
-    <row r="959">
-      <c r="H959" t="inlineStr"/>
-      <c r="I959" t="inlineStr"/>
-    </row>
-    <row r="960">
-      <c r="H960" t="inlineStr"/>
-      <c r="I960" t="inlineStr"/>
-    </row>
-    <row r="961">
-      <c r="H961" t="inlineStr"/>
-      <c r="I961" t="inlineStr"/>
-    </row>
-    <row r="962">
-      <c r="H962" t="inlineStr"/>
-      <c r="I962" t="inlineStr"/>
-    </row>
-    <row r="963">
-      <c r="H963" t="inlineStr"/>
-      <c r="I963" t="inlineStr"/>
-    </row>
-    <row r="964">
-      <c r="H964" t="inlineStr"/>
-      <c r="I964" t="inlineStr"/>
-    </row>
-    <row r="965">
-      <c r="H965" t="inlineStr"/>
-      <c r="I965" t="inlineStr"/>
-    </row>
-    <row r="966">
-      <c r="H966" t="inlineStr"/>
-      <c r="I966" t="inlineStr"/>
-    </row>
-    <row r="967">
-      <c r="H967" t="inlineStr"/>
-      <c r="I967" t="inlineStr"/>
-    </row>
-    <row r="968">
-      <c r="H968" t="inlineStr"/>
-      <c r="I968" t="inlineStr"/>
-    </row>
-    <row r="969">
-      <c r="H969" t="inlineStr"/>
-      <c r="I969" t="inlineStr"/>
-    </row>
-    <row r="970">
-      <c r="H970" t="inlineStr"/>
-      <c r="I970" t="inlineStr"/>
-    </row>
-    <row r="971">
-      <c r="H971" t="inlineStr"/>
-      <c r="I971" t="inlineStr"/>
-    </row>
-    <row r="972">
-      <c r="H972" t="inlineStr"/>
-      <c r="I972" t="inlineStr"/>
-    </row>
-    <row r="973">
-      <c r="H973" t="inlineStr"/>
-      <c r="I973" t="inlineStr"/>
-    </row>
-    <row r="974">
-      <c r="H974" t="inlineStr"/>
-      <c r="I974" t="inlineStr"/>
-    </row>
-    <row r="975">
-      <c r="H975" t="inlineStr"/>
-      <c r="I975" t="inlineStr"/>
-    </row>
-    <row r="976">
-      <c r="H976" t="inlineStr"/>
-      <c r="I976" t="inlineStr"/>
-    </row>
-    <row r="977">
-      <c r="H977" t="inlineStr"/>
-      <c r="I977" t="inlineStr"/>
-    </row>
-    <row r="978">
-      <c r="H978" t="inlineStr"/>
-      <c r="I978" t="inlineStr"/>
-    </row>
-    <row r="979">
-      <c r="H979" t="inlineStr"/>
-      <c r="I979" t="inlineStr"/>
-    </row>
-    <row r="980">
-      <c r="H980" t="inlineStr"/>
-      <c r="I980" t="inlineStr"/>
-    </row>
-    <row r="981">
-      <c r="H981" t="inlineStr"/>
-      <c r="I981" t="inlineStr"/>
-    </row>
-    <row r="982">
-      <c r="H982" t="inlineStr"/>
-      <c r="I982" t="inlineStr"/>
-    </row>
-    <row r="983">
-      <c r="H983" t="inlineStr"/>
-      <c r="I983" t="inlineStr"/>
-    </row>
-    <row r="984">
-      <c r="H984" t="inlineStr"/>
-      <c r="I984" t="inlineStr"/>
-    </row>
-    <row r="985">
-      <c r="H985" t="inlineStr"/>
-      <c r="I985" t="inlineStr"/>
-    </row>
-    <row r="986">
-      <c r="H986" t="inlineStr"/>
-      <c r="I986" t="inlineStr"/>
-    </row>
-    <row r="987">
-      <c r="H987" t="inlineStr"/>
-      <c r="I987" t="inlineStr"/>
-    </row>
-    <row r="988">
-      <c r="H988" t="inlineStr"/>
-      <c r="I988" t="inlineStr"/>
-    </row>
-    <row r="989">
-      <c r="H989" t="inlineStr"/>
-      <c r="I989" t="inlineStr"/>
-    </row>
-    <row r="990">
-      <c r="H990" t="inlineStr"/>
-      <c r="I990" t="inlineStr"/>
-    </row>
-    <row r="991">
-      <c r="H991" t="inlineStr"/>
-      <c r="I991" t="inlineStr"/>
-    </row>
-    <row r="992">
-      <c r="H992" t="inlineStr"/>
-      <c r="I992" t="inlineStr"/>
-    </row>
-    <row r="993">
-      <c r="H993" t="inlineStr"/>
-      <c r="I993" t="inlineStr"/>
-    </row>
-    <row r="994">
-      <c r="H994" t="inlineStr"/>
-      <c r="I994" t="inlineStr"/>
-    </row>
-    <row r="995">
-      <c r="H995" t="inlineStr"/>
-      <c r="I995" t="inlineStr"/>
-    </row>
-    <row r="996">
-      <c r="H996" t="inlineStr"/>
-      <c r="I996" t="inlineStr"/>
-    </row>
-    <row r="997">
-      <c r="H997" t="inlineStr"/>
-      <c r="I997" t="inlineStr"/>
-    </row>
-    <row r="998">
-      <c r="H998" t="inlineStr"/>
-      <c r="I998" t="inlineStr"/>
-    </row>
-    <row r="999">
-      <c r="H999" t="inlineStr"/>
-      <c r="I999" t="inlineStr"/>
-    </row>
-    <row r="1000">
-      <c r="H1000" t="inlineStr"/>
-      <c r="I1000" t="inlineStr"/>
+      <c r="C561" s="112" t="n"/>
+      <c r="D561" s="113" t="n"/>
+      <c r="E561" s="113" t="n"/>
+      <c r="F561" s="113" t="n"/>
+      <c r="G561" s="113" t="n"/>
+      <c r="H561" s="113" t="inlineStr"/>
+      <c r="I561" s="113" t="inlineStr"/>
+      <c r="J561" s="113" t="n"/>
+      <c r="K561" s="113" t="n"/>
+      <c r="L561" s="113" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="25">
+    <mergeCell ref="A530:B530"/>
     <mergeCell ref="A477:B477"/>
+    <mergeCell ref="A540:B540"/>
+    <mergeCell ref="A520:B520"/>
     <mergeCell ref="M5:T5"/>
+    <mergeCell ref="A535:B535"/>
     <mergeCell ref="M2:T2"/>
     <mergeCell ref="A448:B448"/>
     <mergeCell ref="A484:B484"/>
     <mergeCell ref="M1:S1"/>
     <mergeCell ref="A499:B499"/>
+    <mergeCell ref="A515:B515"/>
     <mergeCell ref="A449:B449"/>
     <mergeCell ref="A464:B464"/>
     <mergeCell ref="A489:B489"/>
@@ -16851,6 +15703,7 @@
     <mergeCell ref="A395:B395"/>
     <mergeCell ref="A504:B504"/>
     <mergeCell ref="A494:B494"/>
+    <mergeCell ref="A525:B525"/>
     <mergeCell ref="A466:B466"/>
     <mergeCell ref="A509:B509"/>
     <mergeCell ref="M4:T4"/>

--- a/GPS_ChecklistForAutoTest.xlsx
+++ b/GPS_ChecklistForAutoTest.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1681" uniqueCount="1010">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1755" uniqueCount="1029">
   <si>
     <t>WEBGPS SYSTEM - CHECKLIST AUTOMATION TEST</t>
   </si>
@@ -2940,6 +2940,9 @@
     <t>Report53</t>
   </si>
   <si>
+    <t>IV. Video Clip</t>
+  </si>
+  <si>
     <t>1.Xem dữ liệu video - Tổng quan</t>
   </si>
   <si>
@@ -3018,62 +3021,116 @@
     <t>Video12</t>
   </si>
   <si>
-    <t>Quản lý ảnh Camera - Nghị định 10 - V2</t>
-  </si>
-  <si>
-    <t>Giám sát xe bằng hình ảnh</t>
-  </si>
-  <si>
-    <t>Giám sát bằng hình ảnh 1 xe</t>
-  </si>
-  <si>
-    <t>Xem ảnh Camera - NĐ10</t>
-  </si>
-  <si>
-    <t>Xem nhiều ảnh camera - NĐ10</t>
-  </si>
-  <si>
-    <t>Giám sát xe trực tuyến bằng hình ảnh</t>
-  </si>
-  <si>
     <t>V.Hình Ảnh</t>
   </si>
   <si>
-    <t>IV. Video Clip</t>
-  </si>
-  <si>
     <t>1.Giám sát bằng hình ảnh</t>
   </si>
   <si>
     <t>Image01</t>
   </si>
   <si>
+    <t>Mở chức năng "Giám sát bằng hình ảnh"</t>
+  </si>
+  <si>
+    <t>Mở Menu Video clip --&gt; Mở chức  năng xem dữ liệu ảnh --&gt; Hiển thị đúng giao diện</t>
+  </si>
+  <si>
     <t>Image02</t>
   </si>
   <si>
+    <t>Xem ảnh</t>
+  </si>
+  <si>
+    <t>Phóng to hình ảnh được chọn</t>
+  </si>
+  <si>
     <t>Image03</t>
   </si>
   <si>
-    <t>Mở chức năng "Giám sát bằng hình ảnhn"</t>
-  </si>
-  <si>
-    <t>Mở Menu Video clip --&gt; Mở chức  năng xem dữ liệu ảnh --&gt; Hiển thị đúng giao diện</t>
-  </si>
-  <si>
     <t>Image04</t>
   </si>
   <si>
-    <t>Xem ảnh</t>
-  </si>
-  <si>
-    <t>Phóng to hình ảnh được chọn</t>
+    <t>Check API trường "Hình ảnh"</t>
+  </si>
+  <si>
+    <t>2.Giám sát hình ảnh trực tuyến</t>
+  </si>
+  <si>
+    <t>Image05</t>
+  </si>
+  <si>
+    <t>Mở chức năng "Giám sát hình ảnh trực tuyến"</t>
+  </si>
+  <si>
+    <t>Image06</t>
+  </si>
+  <si>
+    <t>Image07</t>
+  </si>
+  <si>
+    <t>Image08</t>
+  </si>
+  <si>
+    <t>Image09</t>
+  </si>
+  <si>
+    <t>3.Giám sát bằng hình ảnh 1 xe (thư viện ảnh)</t>
+  </si>
+  <si>
+    <t>Image10</t>
+  </si>
+  <si>
+    <t>Mở chức năng "Giám sát bằng hình ảnh 1 xe (thư viện ảnh)"</t>
+  </si>
+  <si>
+    <t>Image11</t>
+  </si>
+  <si>
+    <t>Image12</t>
+  </si>
+  <si>
+    <t>Image13</t>
+  </si>
+  <si>
+    <t>4.Quản lý ảnh Camera</t>
+  </si>
+  <si>
+    <t>Image14</t>
+  </si>
+  <si>
+    <t>Mở chức năng "Quản lý ảnh Camera"</t>
+  </si>
+  <si>
+    <t>Image15</t>
+  </si>
+  <si>
+    <t>Image16</t>
+  </si>
+  <si>
+    <t>Image17</t>
+  </si>
+  <si>
+    <t>5.Xem ảnh Camera</t>
+  </si>
+  <si>
+    <t>Image18</t>
+  </si>
+  <si>
+    <t>Mở chức năng "Xem ảnh Camera"</t>
+  </si>
+  <si>
+    <t>Image19</t>
+  </si>
+  <si>
+    <t>Image20</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3128,18 +3185,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -3214,7 +3259,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -3445,36 +3490,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color rgb="FF000000"/>
@@ -3528,7 +3543,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3751,16 +3766,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3793,7 +3808,7 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3811,7 +3826,7 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3842,7 +3857,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3851,28 +3866,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3882,29 +3882,29 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4207,23 +4207,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T594"/>
+  <dimension ref="A1:T606"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A552" workbookViewId="0">
-      <selection activeCell="I565" sqref="I565"/>
+    <sheetView tabSelected="1" topLeftCell="A576" workbookViewId="0">
+      <selection activeCell="N596" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" style="118" customWidth="1"/>
-    <col min="2" max="2" width="39.42578125" style="118" customWidth="1"/>
-    <col min="3" max="3" width="41.5703125" style="118" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" style="118" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="118" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" style="118" customWidth="1"/>
-    <col min="11" max="11" width="17" style="118" customWidth="1"/>
-    <col min="12" max="12" width="31.28515625" style="118" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="118" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" style="113" customWidth="1"/>
+    <col min="2" max="2" width="39.42578125" style="113" customWidth="1"/>
+    <col min="3" max="3" width="41.5703125" style="113" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" style="113" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="113" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" style="113" customWidth="1"/>
+    <col min="11" max="11" width="17" style="113" customWidth="1"/>
+    <col min="12" max="12" width="31.28515625" style="113" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="113" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4241,15 +4241,15 @@
       <c r="J1" s="1"/>
       <c r="K1" s="75"/>
       <c r="L1" s="75"/>
-      <c r="M1" s="127" t="s">
+      <c r="M1" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="124"/>
-      <c r="O1" s="124"/>
-      <c r="P1" s="124"/>
-      <c r="Q1" s="124"/>
-      <c r="R1" s="124"/>
-      <c r="S1" s="124"/>
+      <c r="N1" s="117"/>
+      <c r="O1" s="117"/>
+      <c r="P1" s="117"/>
+      <c r="Q1" s="117"/>
+      <c r="R1" s="117"/>
+      <c r="S1" s="117"/>
     </row>
     <row r="2" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="25"/>
@@ -4266,16 +4266,16 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="31"/>
-      <c r="M2" s="123" t="s">
+      <c r="M2" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="124"/>
-      <c r="O2" s="124"/>
-      <c r="P2" s="124"/>
-      <c r="Q2" s="124"/>
-      <c r="R2" s="124"/>
-      <c r="S2" s="124"/>
-      <c r="T2" s="124"/>
+      <c r="N2" s="117"/>
+      <c r="O2" s="117"/>
+      <c r="P2" s="117"/>
+      <c r="Q2" s="117"/>
+      <c r="R2" s="117"/>
+      <c r="S2" s="117"/>
+      <c r="T2" s="117"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24"/>
@@ -4298,16 +4298,16 @@
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="32"/>
-      <c r="M3" s="123" t="s">
+      <c r="M3" s="122" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="124"/>
-      <c r="O3" s="124"/>
-      <c r="P3" s="124"/>
-      <c r="Q3" s="124"/>
-      <c r="R3" s="124"/>
-      <c r="S3" s="124"/>
-      <c r="T3" s="124"/>
+      <c r="N3" s="117"/>
+      <c r="O3" s="117"/>
+      <c r="P3" s="117"/>
+      <c r="Q3" s="117"/>
+      <c r="R3" s="117"/>
+      <c r="S3" s="117"/>
+      <c r="T3" s="117"/>
     </row>
     <row r="4" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="24"/>
@@ -4316,11 +4316,11 @@
       </c>
       <c r="C4" s="18">
         <f>COUNTIF(D:D,"x")</f>
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="D4" s="4">
         <f>COUNTIFS(H:H,"Pass",D:D,"x")</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E4" s="4">
         <f>COUNTIFS(H:H,"Fail",D:D,"x")</f>
@@ -4333,16 +4333,16 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="32"/>
-      <c r="M4" s="123" t="s">
+      <c r="M4" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="124"/>
-      <c r="O4" s="124"/>
-      <c r="P4" s="124"/>
-      <c r="Q4" s="124"/>
-      <c r="R4" s="124"/>
-      <c r="S4" s="124"/>
-      <c r="T4" s="124"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="117"/>
+      <c r="P4" s="117"/>
+      <c r="Q4" s="117"/>
+      <c r="R4" s="117"/>
+      <c r="S4" s="117"/>
+      <c r="T4" s="117"/>
     </row>
     <row r="5" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="24"/>
@@ -4368,16 +4368,16 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="32"/>
-      <c r="M5" s="123" t="s">
+      <c r="M5" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="124"/>
-      <c r="O5" s="124"/>
-      <c r="P5" s="124"/>
-      <c r="Q5" s="124"/>
-      <c r="R5" s="124"/>
-      <c r="S5" s="124"/>
-      <c r="T5" s="124"/>
+      <c r="N5" s="117"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="117"/>
+      <c r="Q5" s="117"/>
+      <c r="R5" s="117"/>
+      <c r="S5" s="117"/>
+      <c r="T5" s="117"/>
     </row>
     <row r="6" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="24"/>
@@ -4412,11 +4412,11 @@
       </c>
       <c r="C7" s="18">
         <f>COUNTIF(G:G,"x")</f>
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D7" s="4">
         <f>COUNTIFS(H:H,"Pass",G:G,"x")</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E7" s="4">
         <f>COUNTIFS(H:H,"Fail",G:G,"x")</f>
@@ -12110,11 +12110,11 @@
       <c r="M394" s="75"/>
     </row>
     <row r="395" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A395" s="130" t="s">
+      <c r="A395" s="123" t="s">
         <v>734</v>
       </c>
-      <c r="B395" s="131"/>
-      <c r="C395" s="120"/>
+      <c r="B395" s="124"/>
+      <c r="C395" s="115"/>
       <c r="D395" s="83"/>
       <c r="E395" s="83"/>
       <c r="F395" s="83"/>
@@ -12299,10 +12299,10 @@
       <c r="M403" s="75"/>
     </row>
     <row r="404" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A404" s="128" t="s">
+      <c r="A404" s="120" t="s">
         <v>751</v>
       </c>
-      <c r="B404" s="129"/>
+      <c r="B404" s="121"/>
       <c r="C404" s="94"/>
       <c r="D404" s="85"/>
       <c r="E404" s="85"/>
@@ -12880,7 +12880,9 @@
       <c r="G431" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="H431" s="80"/>
+      <c r="H431" s="80" t="s">
+        <v>6</v>
+      </c>
       <c r="I431" s="80"/>
       <c r="J431" s="80"/>
       <c r="K431" s="80"/>
@@ -12903,7 +12905,9 @@
       <c r="G432" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="H432" s="80"/>
+      <c r="H432" s="80" t="s">
+        <v>6</v>
+      </c>
       <c r="I432" s="80"/>
       <c r="J432" s="80"/>
       <c r="K432" s="80"/>
@@ -12924,7 +12928,9 @@
       <c r="E433" s="80"/>
       <c r="F433" s="80"/>
       <c r="G433" s="80"/>
-      <c r="H433" s="80"/>
+      <c r="H433" s="80" t="s">
+        <v>6</v>
+      </c>
       <c r="I433" s="80"/>
       <c r="J433" s="80"/>
       <c r="K433" s="80"/>
@@ -12945,7 +12951,9 @@
       <c r="E434" s="80"/>
       <c r="F434" s="80"/>
       <c r="G434" s="80"/>
-      <c r="H434" s="80"/>
+      <c r="H434" s="80" t="s">
+        <v>6</v>
+      </c>
       <c r="I434" s="80"/>
       <c r="J434" s="80"/>
       <c r="K434" s="80"/>
@@ -12966,7 +12974,9 @@
       <c r="E435" s="80"/>
       <c r="F435" s="80"/>
       <c r="G435" s="80"/>
-      <c r="H435" s="80"/>
+      <c r="H435" s="80" t="s">
+        <v>6</v>
+      </c>
       <c r="I435" s="80"/>
       <c r="J435" s="80"/>
       <c r="K435" s="80"/>
@@ -12987,7 +12997,9 @@
       <c r="E436" s="80"/>
       <c r="F436" s="80"/>
       <c r="G436" s="80"/>
-      <c r="H436" s="80"/>
+      <c r="H436" s="80" t="s">
+        <v>6</v>
+      </c>
       <c r="I436" s="80"/>
       <c r="J436" s="80"/>
       <c r="K436" s="80"/>
@@ -13008,7 +13020,9 @@
       <c r="G437" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="H437" s="80"/>
+      <c r="H437" s="80" t="s">
+        <v>6</v>
+      </c>
       <c r="I437" s="80"/>
       <c r="J437" s="80"/>
       <c r="K437" s="80"/>
@@ -13029,7 +13043,9 @@
       <c r="G438" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="H438" s="80"/>
+      <c r="H438" s="80" t="s">
+        <v>6</v>
+      </c>
       <c r="I438" s="80"/>
       <c r="J438" s="80"/>
       <c r="K438" s="80"/>
@@ -13050,7 +13066,9 @@
       <c r="E439" s="80"/>
       <c r="F439" s="80"/>
       <c r="G439" s="39"/>
-      <c r="H439" s="80"/>
+      <c r="H439" s="80" t="s">
+        <v>6</v>
+      </c>
       <c r="I439" s="80"/>
       <c r="J439" s="80"/>
       <c r="K439" s="80"/>
@@ -13071,7 +13089,9 @@
       <c r="E440" s="80"/>
       <c r="F440" s="80"/>
       <c r="G440" s="80"/>
-      <c r="H440" s="80"/>
+      <c r="H440" s="80" t="s">
+        <v>6</v>
+      </c>
       <c r="I440" s="80"/>
       <c r="J440" s="80"/>
       <c r="K440" s="80"/>
@@ -13128,7 +13148,9 @@
       <c r="G443" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="H443" s="80"/>
+      <c r="H443" s="80" t="s">
+        <v>6</v>
+      </c>
       <c r="I443" s="80"/>
       <c r="J443" s="80"/>
       <c r="K443" s="80"/>
@@ -13149,7 +13171,9 @@
       <c r="E444" s="80"/>
       <c r="F444" s="80"/>
       <c r="G444" s="80"/>
-      <c r="H444" s="80"/>
+      <c r="H444" s="80" t="s">
+        <v>6</v>
+      </c>
       <c r="I444" s="80"/>
       <c r="J444" s="80"/>
       <c r="K444" s="80"/>
@@ -13166,8 +13190,12 @@
       <c r="C445" s="39"/>
       <c r="E445" s="80"/>
       <c r="F445" s="80"/>
-      <c r="G445" s="80"/>
-      <c r="H445" s="80"/>
+      <c r="G445" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="H445" s="80" t="s">
+        <v>6</v>
+      </c>
       <c r="I445" s="80"/>
       <c r="J445" s="80"/>
       <c r="K445" s="80"/>
@@ -13186,8 +13214,12 @@
       <c r="C446" s="39"/>
       <c r="E446" s="80"/>
       <c r="F446" s="80"/>
-      <c r="G446" s="80"/>
-      <c r="H446" s="80"/>
+      <c r="G446" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="H446" s="80" t="s">
+        <v>6</v>
+      </c>
       <c r="I446" s="80"/>
       <c r="J446" s="80"/>
       <c r="K446" s="80"/>
@@ -13229,10 +13261,10 @@
       <c r="M448" s="75"/>
     </row>
     <row r="449" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A449" s="128" t="s">
+      <c r="A449" s="120" t="s">
         <v>836</v>
       </c>
-      <c r="B449" s="129"/>
+      <c r="B449" s="121"/>
       <c r="C449" s="94"/>
       <c r="D449" s="85"/>
       <c r="E449" s="85"/>
@@ -13557,7 +13589,7 @@
       <c r="M462" s="75"/>
     </row>
     <row r="463" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A463" s="119" t="s">
+      <c r="A463" s="114" t="s">
         <v>875</v>
       </c>
       <c r="B463" s="94"/>
@@ -13574,10 +13606,10 @@
       <c r="M463" s="75"/>
     </row>
     <row r="464" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A464" s="128" t="s">
+      <c r="A464" s="120" t="s">
         <v>876</v>
       </c>
-      <c r="B464" s="129"/>
+      <c r="B464" s="121"/>
       <c r="C464" s="94"/>
       <c r="D464" s="85"/>
       <c r="E464" s="85"/>
@@ -13607,10 +13639,10 @@
       <c r="L465" s="103"/>
     </row>
     <row r="466" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A466" s="121" t="s">
+      <c r="A466" s="118" t="s">
         <v>878</v>
       </c>
-      <c r="B466" s="122"/>
+      <c r="B466" s="119"/>
       <c r="C466" s="104"/>
       <c r="D466" s="105"/>
       <c r="E466" s="105"/>
@@ -13691,10 +13723,10 @@
       </c>
     </row>
     <row r="470" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A470" s="121" t="s">
+      <c r="A470" s="118" t="s">
         <v>888</v>
       </c>
-      <c r="B470" s="122"/>
+      <c r="B470" s="119"/>
       <c r="C470" s="104"/>
       <c r="D470" s="105"/>
       <c r="E470" s="105"/>
@@ -13832,10 +13864,10 @@
       <c r="L476" s="109"/>
     </row>
     <row r="477" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A477" s="121" t="s">
+      <c r="A477" s="118" t="s">
         <v>901</v>
       </c>
-      <c r="B477" s="122"/>
+      <c r="B477" s="119"/>
       <c r="C477" s="104"/>
       <c r="D477" s="105"/>
       <c r="E477" s="105"/>
@@ -13975,10 +14007,10 @@
       <c r="L483" s="109"/>
     </row>
     <row r="484" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A484" s="121" t="s">
+      <c r="A484" s="118" t="s">
         <v>913</v>
       </c>
-      <c r="B484" s="122"/>
+      <c r="B484" s="119"/>
       <c r="C484" s="104"/>
       <c r="D484" s="105"/>
       <c r="E484" s="105"/>
@@ -14059,7 +14091,7 @@
       </c>
     </row>
     <row r="488" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B488" s="115"/>
+      <c r="B488" s="110"/>
       <c r="C488" s="108"/>
       <c r="D488" s="109"/>
       <c r="E488" s="109"/>
@@ -14072,10 +14104,10 @@
       <c r="L488" s="109"/>
     </row>
     <row r="489" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A489" s="121" t="s">
+      <c r="A489" s="118" t="s">
         <v>917</v>
       </c>
-      <c r="B489" s="122"/>
+      <c r="B489" s="119"/>
       <c r="C489" s="104"/>
       <c r="D489" s="105"/>
       <c r="E489" s="105"/>
@@ -14169,10 +14201,10 @@
       <c r="L493" s="109"/>
     </row>
     <row r="494" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A494" s="121" t="s">
+      <c r="A494" s="118" t="s">
         <v>921</v>
       </c>
-      <c r="B494" s="122"/>
+      <c r="B494" s="119"/>
       <c r="C494" s="104"/>
       <c r="D494" s="105"/>
       <c r="E494" s="105"/>
@@ -14266,10 +14298,10 @@
       <c r="L498" s="109"/>
     </row>
     <row r="499" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A499" s="121" t="s">
+      <c r="A499" s="118" t="s">
         <v>925</v>
       </c>
-      <c r="B499" s="122"/>
+      <c r="B499" s="119"/>
       <c r="C499" s="104"/>
       <c r="D499" s="105"/>
       <c r="E499" s="105"/>
@@ -14363,10 +14395,10 @@
       <c r="L503" s="109"/>
     </row>
     <row r="504" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A504" s="121" t="s">
+      <c r="A504" s="118" t="s">
         <v>929</v>
       </c>
-      <c r="B504" s="122"/>
+      <c r="B504" s="119"/>
       <c r="C504" s="104"/>
       <c r="D504" s="105"/>
       <c r="E504" s="105"/>
@@ -14460,10 +14492,10 @@
       <c r="L508" s="109"/>
     </row>
     <row r="509" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A509" s="121" t="s">
+      <c r="A509" s="118" t="s">
         <v>933</v>
       </c>
-      <c r="B509" s="122"/>
+      <c r="B509" s="119"/>
       <c r="C509" s="104"/>
       <c r="D509" s="105"/>
       <c r="E509" s="105"/>
@@ -14579,10 +14611,10 @@
       <c r="L514" s="109"/>
     </row>
     <row r="515" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A515" s="121" t="s">
+      <c r="A515" s="118" t="s">
         <v>939</v>
       </c>
-      <c r="B515" s="122"/>
+      <c r="B515" s="119"/>
       <c r="C515" s="104"/>
       <c r="D515" s="105"/>
       <c r="E515" s="105"/>
@@ -14676,10 +14708,10 @@
       <c r="L519" s="109"/>
     </row>
     <row r="520" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A520" s="121" t="s">
+      <c r="A520" s="118" t="s">
         <v>943</v>
       </c>
-      <c r="B520" s="122"/>
+      <c r="B520" s="119"/>
       <c r="C520" s="104"/>
       <c r="D520" s="105"/>
       <c r="E520" s="105"/>
@@ -14773,10 +14805,10 @@
       <c r="L524" s="109"/>
     </row>
     <row r="525" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A525" s="121" t="s">
+      <c r="A525" s="118" t="s">
         <v>947</v>
       </c>
-      <c r="B525" s="122"/>
+      <c r="B525" s="119"/>
       <c r="C525" s="104"/>
       <c r="D525" s="105"/>
       <c r="E525" s="105"/>
@@ -14870,10 +14902,10 @@
       <c r="L529" s="109"/>
     </row>
     <row r="530" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A530" s="121" t="s">
+      <c r="A530" s="118" t="s">
         <v>951</v>
       </c>
-      <c r="B530" s="122"/>
+      <c r="B530" s="119"/>
       <c r="C530" s="104"/>
       <c r="D530" s="105"/>
       <c r="E530" s="105"/>
@@ -14967,10 +14999,10 @@
       <c r="L534" s="109"/>
     </row>
     <row r="535" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A535" s="121" t="s">
+      <c r="A535" s="118" t="s">
         <v>955</v>
       </c>
-      <c r="B535" s="122"/>
+      <c r="B535" s="119"/>
       <c r="C535" s="104"/>
       <c r="D535" s="105"/>
       <c r="E535" s="105"/>
@@ -15064,10 +15096,10 @@
       <c r="L539" s="109"/>
     </row>
     <row r="540" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A540" s="121" t="s">
+      <c r="A540" s="118" t="s">
         <v>959</v>
       </c>
-      <c r="B540" s="122"/>
+      <c r="B540" s="119"/>
       <c r="C540" s="104"/>
       <c r="D540" s="105"/>
       <c r="E540" s="105"/>
@@ -15161,10 +15193,10 @@
       <c r="L544" s="109"/>
     </row>
     <row r="545" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A545" s="121" t="s">
+      <c r="A545" s="118" t="s">
         <v>963</v>
       </c>
-      <c r="B545" s="122"/>
+      <c r="B545" s="119"/>
       <c r="C545" s="104"/>
       <c r="D545" s="105"/>
       <c r="E545" s="105"/>
@@ -15260,7 +15292,7 @@
     </row>
     <row r="550" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A550" s="101" t="s">
-        <v>1000</v>
+        <v>967</v>
       </c>
       <c r="B550" s="102"/>
       <c r="C550" s="102"/>
@@ -15275,10 +15307,10 @@
       <c r="L550" s="103"/>
     </row>
     <row r="551" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A551" s="121" t="s">
-        <v>967</v>
-      </c>
-      <c r="B551" s="122"/>
+      <c r="A551" s="118" t="s">
+        <v>968</v>
+      </c>
+      <c r="B551" s="119"/>
       <c r="C551" s="104"/>
       <c r="D551" s="105"/>
       <c r="E551" s="105"/>
@@ -15292,13 +15324,13 @@
     </row>
     <row r="552" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A552" s="106" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="B552" s="107" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="C552" s="108" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="D552" s="109" t="s">
         <v>32</v>
@@ -15314,7 +15346,7 @@
     </row>
     <row r="553" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A553" s="106" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="B553" s="107" t="s">
         <v>883</v>
@@ -15336,13 +15368,13 @@
     </row>
     <row r="554" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A554" s="106" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="B554" s="107" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="C554" s="108" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="D554" s="109" t="s">
         <v>32</v>
@@ -15372,10 +15404,10 @@
       </c>
     </row>
     <row r="556" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A556" s="121" t="s">
-        <v>975</v>
-      </c>
-      <c r="B556" s="122"/>
+      <c r="A556" s="118" t="s">
+        <v>976</v>
+      </c>
+      <c r="B556" s="119"/>
       <c r="C556" s="104"/>
       <c r="D556" s="105"/>
       <c r="E556" s="105"/>
@@ -15389,13 +15421,13 @@
     </row>
     <row r="557" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A557" s="106" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="B557" s="107" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="C557" s="108" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="D557" s="109" t="s">
         <v>32</v>
@@ -15411,7 +15443,7 @@
     </row>
     <row r="558" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A558" s="106" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="B558" s="107" t="s">
         <v>883</v>
@@ -15433,13 +15465,13 @@
     </row>
     <row r="559" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A559" s="106" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="B559" s="107" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="C559" s="108" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="D559" s="109" t="s">
         <v>32</v>
@@ -15455,13 +15487,13 @@
     </row>
     <row r="560" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A560" s="106" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="B560" s="107" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="C560" s="108" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="D560" s="109" t="s">
         <v>32</v>
@@ -15490,10 +15522,10 @@
       <c r="L561" s="109"/>
     </row>
     <row r="562" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A562" s="121" t="s">
-        <v>983</v>
-      </c>
-      <c r="B562" s="122"/>
+      <c r="A562" s="118" t="s">
+        <v>984</v>
+      </c>
+      <c r="B562" s="119"/>
       <c r="C562" s="104"/>
       <c r="D562" s="105"/>
       <c r="E562" s="105"/>
@@ -15507,13 +15539,13 @@
     </row>
     <row r="563" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A563" s="106" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="B563" s="107" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="C563" s="108" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="D563" s="109" t="s">
         <v>32</v>
@@ -15521,9 +15553,7 @@
       <c r="E563" s="109"/>
       <c r="F563" s="109"/>
       <c r="G563" s="109"/>
-      <c r="H563" s="109" t="s">
-        <v>6</v>
-      </c>
+      <c r="H563" s="109"/>
       <c r="I563" s="109"/>
       <c r="J563" s="109"/>
       <c r="K563" s="109"/>
@@ -15531,13 +15561,13 @@
     </row>
     <row r="564" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A564" s="106" t="s">
-        <v>986</v>
-      </c>
-      <c r="B564" s="116" t="s">
         <v>987</v>
       </c>
-      <c r="C564" s="117" t="s">
+      <c r="B564" s="111" t="s">
         <v>988</v>
+      </c>
+      <c r="C564" s="112" t="s">
+        <v>989</v>
       </c>
       <c r="D564" s="109" t="s">
         <v>32</v>
@@ -15545,9 +15575,7 @@
       <c r="E564" s="109"/>
       <c r="F564" s="109"/>
       <c r="G564" s="109"/>
-      <c r="H564" s="109" t="s">
-        <v>6</v>
-      </c>
+      <c r="H564" s="109"/>
       <c r="I564" s="109"/>
       <c r="J564" s="109"/>
       <c r="K564" s="109"/>
@@ -15555,7 +15583,7 @@
     </row>
     <row r="565" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A565" s="106" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="B565" s="107" t="s">
         <v>886</v>
@@ -15569,9 +15597,7 @@
       <c r="E565" s="109"/>
       <c r="F565" s="109"/>
       <c r="G565" s="109"/>
-      <c r="H565" s="109" t="s">
-        <v>6</v>
-      </c>
+      <c r="H565" s="109"/>
       <c r="I565" s="109"/>
       <c r="J565" s="109"/>
       <c r="K565" s="109"/>
@@ -15581,13 +15607,13 @@
     </row>
     <row r="566" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A566" s="106" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B566" s="107" t="s">
         <v>883</v>
       </c>
       <c r="C566" s="108" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="D566" s="109" t="s">
         <v>32</v>
@@ -15595,9 +15621,7 @@
       <c r="E566" s="109"/>
       <c r="F566" s="109"/>
       <c r="G566" s="109"/>
-      <c r="H566" s="109" t="s">
-        <v>6</v>
-      </c>
+      <c r="H566" s="109"/>
       <c r="I566" s="109"/>
       <c r="J566" s="109"/>
       <c r="K566" s="109"/>
@@ -15605,13 +15629,13 @@
     </row>
     <row r="567" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A567" s="106" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="B567" s="107" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="C567" s="108" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="D567" s="109" t="s">
         <v>32</v>
@@ -15619,9 +15643,7 @@
       <c r="E567" s="109"/>
       <c r="F567" s="109"/>
       <c r="G567" s="109"/>
-      <c r="H567" s="109" t="s">
-        <v>6</v>
-      </c>
+      <c r="H567" s="109"/>
       <c r="I567" s="109"/>
       <c r="J567" s="109"/>
       <c r="K567" s="109"/>
@@ -15641,9 +15663,9 @@
       <c r="K568" s="109"/>
       <c r="L568" s="109"/>
     </row>
-    <row r="569" spans="1:12" s="118" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A569" s="101" t="s">
-        <v>999</v>
+        <v>994</v>
       </c>
       <c r="B569" s="102"/>
       <c r="C569" s="102"/>
@@ -15657,11 +15679,11 @@
       <c r="K569" s="103"/>
       <c r="L569" s="103"/>
     </row>
-    <row r="570" spans="1:12" s="118" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A570" s="121" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B570" s="122"/>
+    <row r="570" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A570" s="118" t="s">
+        <v>995</v>
+      </c>
+      <c r="B570" s="119"/>
       <c r="C570" s="104"/>
       <c r="D570" s="105"/>
       <c r="E570" s="105"/>
@@ -15673,15 +15695,15 @@
       <c r="K570" s="105"/>
       <c r="L570" s="105"/>
     </row>
-    <row r="571" spans="1:12" s="118" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A571" s="106" t="s">
-        <v>1002</v>
+        <v>996</v>
       </c>
       <c r="B571" s="107" t="s">
-        <v>1005</v>
+        <v>997</v>
       </c>
       <c r="C571" s="108" t="s">
-        <v>1006</v>
+        <v>998</v>
       </c>
       <c r="D571" s="109" t="s">
         <v>32</v>
@@ -15695,15 +15717,15 @@
       <c r="K571" s="109"/>
       <c r="L571" s="109"/>
     </row>
-    <row r="572" spans="1:12" s="118" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A572" s="106" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="B572" s="107" t="s">
-        <v>1008</v>
+        <v>1000</v>
       </c>
       <c r="C572" s="108" t="s">
-        <v>1009</v>
+        <v>1001</v>
       </c>
       <c r="D572" s="109" t="s">
         <v>32</v>
@@ -15717,9 +15739,9 @@
       <c r="K572" s="109"/>
       <c r="L572" s="109"/>
     </row>
-    <row r="573" spans="1:12" s="118" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A573" s="106" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="B573" s="107" t="s">
         <v>883</v>
@@ -15739,15 +15761,15 @@
       <c r="K573" s="109"/>
       <c r="L573" s="109"/>
     </row>
-    <row r="574" spans="1:12" s="118" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A574" s="106" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="B574" s="107" t="s">
-        <v>973</v>
+        <v>1004</v>
       </c>
       <c r="C574" s="108" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="D574" s="109" t="s">
         <v>32</v>
@@ -15761,8 +15783,7 @@
       <c r="K574" s="109"/>
       <c r="L574" s="109"/>
     </row>
-    <row r="575" spans="1:12" s="118" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A575" s="106"/>
+    <row r="575" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B575" s="107"/>
       <c r="C575" s="108"/>
       <c r="D575" s="109"/>
@@ -15775,25 +15796,35 @@
       <c r="K575" s="109"/>
       <c r="L575" s="109"/>
     </row>
-    <row r="576" spans="1:12" s="118" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A576" s="106"/>
-      <c r="B576" s="107"/>
-      <c r="C576" s="108"/>
-      <c r="D576" s="109"/>
-      <c r="E576" s="109"/>
-      <c r="F576" s="109"/>
-      <c r="G576" s="109"/>
-      <c r="H576" s="109"/>
-      <c r="I576" s="109"/>
-      <c r="J576" s="109"/>
-      <c r="K576" s="109"/>
-      <c r="L576" s="109"/>
-    </row>
-    <row r="577" spans="1:12" s="118" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A577" s="106"/>
-      <c r="B577" s="107"/>
-      <c r="C577" s="108"/>
-      <c r="D577" s="109"/>
+    <row r="576" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A576" s="118" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B576" s="119"/>
+      <c r="C576" s="104"/>
+      <c r="D576" s="105"/>
+      <c r="E576" s="105"/>
+      <c r="F576" s="105"/>
+      <c r="G576" s="105"/>
+      <c r="H576" s="105"/>
+      <c r="I576" s="105"/>
+      <c r="J576" s="105"/>
+      <c r="K576" s="105"/>
+      <c r="L576" s="105"/>
+    </row>
+    <row r="577" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A577" s="106" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B577" s="107" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C577" s="108" t="s">
+        <v>998</v>
+      </c>
+      <c r="D577" s="109" t="s">
+        <v>32</v>
+      </c>
       <c r="E577" s="109"/>
       <c r="F577" s="109"/>
       <c r="G577" s="109"/>
@@ -15803,11 +15834,19 @@
       <c r="K577" s="109"/>
       <c r="L577" s="109"/>
     </row>
-    <row r="578" spans="1:12" s="118" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A578" s="106"/>
-      <c r="B578" s="107"/>
-      <c r="C578" s="108"/>
-      <c r="D578" s="109"/>
+    <row r="578" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A578" s="106" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B578" s="107" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C578" s="108" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D578" s="109" t="s">
+        <v>32</v>
+      </c>
       <c r="E578" s="109"/>
       <c r="F578" s="109"/>
       <c r="G578" s="109"/>
@@ -15817,11 +15856,19 @@
       <c r="K578" s="109"/>
       <c r="L578" s="109"/>
     </row>
-    <row r="579" spans="1:12" s="118" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A579" s="106"/>
-      <c r="B579" s="107"/>
-      <c r="C579" s="108"/>
-      <c r="D579" s="109"/>
+    <row r="579" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A579" s="106" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B579" s="107" t="s">
+        <v>886</v>
+      </c>
+      <c r="C579" s="108" t="s">
+        <v>887</v>
+      </c>
+      <c r="D579" s="109" t="s">
+        <v>32</v>
+      </c>
       <c r="E579" s="109"/>
       <c r="F579" s="109"/>
       <c r="G579" s="109"/>
@@ -15829,13 +15876,23 @@
       <c r="I579" s="109"/>
       <c r="J579" s="109"/>
       <c r="K579" s="109"/>
-      <c r="L579" s="109"/>
-    </row>
-    <row r="580" spans="1:12" s="118" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A580" s="106"/>
-      <c r="B580" s="107"/>
-      <c r="C580" s="108"/>
-      <c r="D580" s="109"/>
+      <c r="L579" s="109" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="580" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A580" s="106" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B580" s="107" t="s">
+        <v>883</v>
+      </c>
+      <c r="C580" s="108" t="s">
+        <v>899</v>
+      </c>
+      <c r="D580" s="109" t="s">
+        <v>32</v>
+      </c>
       <c r="E580" s="109"/>
       <c r="F580" s="109"/>
       <c r="G580" s="109"/>
@@ -15845,11 +15902,19 @@
       <c r="K580" s="109"/>
       <c r="L580" s="109"/>
     </row>
-    <row r="581" spans="1:12" s="118" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A581" s="106"/>
-      <c r="B581" s="107"/>
-      <c r="C581" s="108"/>
-      <c r="D581" s="109"/>
+    <row r="581" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A581" s="106" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B581" s="107" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C581" s="108" t="s">
+        <v>975</v>
+      </c>
+      <c r="D581" s="109" t="s">
+        <v>32</v>
+      </c>
       <c r="E581" s="109"/>
       <c r="F581" s="109"/>
       <c r="G581" s="109"/>
@@ -15859,8 +15924,7 @@
       <c r="K581" s="109"/>
       <c r="L581" s="109"/>
     </row>
-    <row r="582" spans="1:12" s="118" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A582" s="106"/>
+    <row r="582" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B582" s="107"/>
       <c r="C582" s="108"/>
       <c r="D582" s="109"/>
@@ -15873,25 +15937,35 @@
       <c r="K582" s="109"/>
       <c r="L582" s="109"/>
     </row>
-    <row r="583" spans="1:12" s="118" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A583" s="106"/>
-      <c r="B583" s="107"/>
-      <c r="C583" s="108"/>
-      <c r="D583" s="109"/>
-      <c r="E583" s="109"/>
-      <c r="F583" s="109"/>
-      <c r="G583" s="109"/>
-      <c r="H583" s="109"/>
-      <c r="I583" s="109"/>
-      <c r="J583" s="109"/>
-      <c r="K583" s="109"/>
-      <c r="L583" s="109"/>
+    <row r="583" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A583" s="118" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B583" s="119"/>
+      <c r="C583" s="104"/>
+      <c r="D583" s="105"/>
+      <c r="E583" s="105"/>
+      <c r="F583" s="105"/>
+      <c r="G583" s="105"/>
+      <c r="H583" s="105"/>
+      <c r="I583" s="105"/>
+      <c r="J583" s="105"/>
+      <c r="K583" s="105"/>
+      <c r="L583" s="105"/>
     </row>
     <row r="584" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A584" s="106"/>
-      <c r="B584" s="107"/>
-      <c r="C584" s="108"/>
-      <c r="D584" s="109"/>
+      <c r="A584" s="106" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B584" s="107" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C584" s="108" t="s">
+        <v>998</v>
+      </c>
+      <c r="D584" s="109" t="s">
+        <v>32</v>
+      </c>
       <c r="E584" s="109"/>
       <c r="F584" s="109"/>
       <c r="G584" s="109"/>
@@ -15902,10 +15976,18 @@
       <c r="L584" s="109"/>
     </row>
     <row r="585" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A585" s="106"/>
-      <c r="B585" s="107"/>
-      <c r="C585" s="108"/>
-      <c r="D585" s="109"/>
+      <c r="A585" s="106" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B585" s="107" t="s">
+        <v>883</v>
+      </c>
+      <c r="C585" s="108" t="s">
+        <v>899</v>
+      </c>
+      <c r="D585" s="109" t="s">
+        <v>32</v>
+      </c>
       <c r="E585" s="109"/>
       <c r="F585" s="109"/>
       <c r="G585" s="109"/>
@@ -15916,10 +15998,18 @@
       <c r="L585" s="109"/>
     </row>
     <row r="586" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A586" s="106"/>
-      <c r="B586" s="107"/>
-      <c r="C586" s="108"/>
-      <c r="D586" s="109"/>
+      <c r="A586" s="106" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B586" s="107" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C586" s="108" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D586" s="109" t="s">
+        <v>32</v>
+      </c>
       <c r="E586" s="109"/>
       <c r="F586" s="109"/>
       <c r="G586" s="109"/>
@@ -15930,10 +16020,18 @@
       <c r="L586" s="109"/>
     </row>
     <row r="587" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A587" s="106"/>
-      <c r="B587" s="107"/>
-      <c r="C587" s="108"/>
-      <c r="D587" s="109"/>
+      <c r="A587" s="106" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B587" s="107" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C587" s="108" t="s">
+        <v>975</v>
+      </c>
+      <c r="D587" s="109" t="s">
+        <v>32</v>
+      </c>
       <c r="E587" s="109"/>
       <c r="F587" s="109"/>
       <c r="G587" s="109"/>
@@ -15944,7 +16042,6 @@
       <c r="L587" s="109"/>
     </row>
     <row r="588" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A588" s="106"/>
       <c r="B588" s="107"/>
       <c r="C588" s="108"/>
       <c r="D588" s="109"/>
@@ -15958,28 +16055,34 @@
       <c r="L588" s="109"/>
     </row>
     <row r="589" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A589" s="106"/>
-      <c r="B589" s="107" t="s">
-        <v>993</v>
-      </c>
-      <c r="C589" s="108"/>
-      <c r="D589" s="109"/>
-      <c r="E589" s="109"/>
-      <c r="F589" s="109"/>
-      <c r="G589" s="109"/>
-      <c r="H589" s="109"/>
-      <c r="I589" s="109"/>
-      <c r="J589" s="109"/>
-      <c r="K589" s="109"/>
-      <c r="L589" s="109"/>
+      <c r="A589" s="118" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B589" s="119"/>
+      <c r="C589" s="104"/>
+      <c r="D589" s="105"/>
+      <c r="E589" s="105"/>
+      <c r="F589" s="105"/>
+      <c r="G589" s="105"/>
+      <c r="H589" s="105"/>
+      <c r="I589" s="105"/>
+      <c r="J589" s="105"/>
+      <c r="K589" s="105"/>
+      <c r="L589" s="105"/>
     </row>
     <row r="590" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A590" s="106"/>
+      <c r="A590" s="106" t="s">
+        <v>1019</v>
+      </c>
       <c r="B590" s="107" t="s">
-        <v>994</v>
-      </c>
-      <c r="C590" s="108"/>
-      <c r="D590" s="109"/>
+        <v>1020</v>
+      </c>
+      <c r="C590" s="108" t="s">
+        <v>998</v>
+      </c>
+      <c r="D590" s="109" t="s">
+        <v>32</v>
+      </c>
       <c r="E590" s="109"/>
       <c r="F590" s="109"/>
       <c r="G590" s="109"/>
@@ -15989,13 +16092,19 @@
       <c r="K590" s="109"/>
       <c r="L590" s="109"/>
     </row>
-    <row r="591" spans="1:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A591" s="106"/>
+    <row r="591" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A591" s="106" t="s">
+        <v>1021</v>
+      </c>
       <c r="B591" s="107" t="s">
-        <v>995</v>
-      </c>
-      <c r="C591" s="108"/>
-      <c r="D591" s="109"/>
+        <v>883</v>
+      </c>
+      <c r="C591" s="108" t="s">
+        <v>899</v>
+      </c>
+      <c r="D591" s="109" t="s">
+        <v>32</v>
+      </c>
       <c r="E591" s="109"/>
       <c r="F591" s="109"/>
       <c r="G591" s="109"/>
@@ -16006,56 +16115,276 @@
       <c r="L591" s="109"/>
     </row>
     <row r="592" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A592" s="110"/>
-      <c r="B592" s="111" t="s">
-        <v>996</v>
-      </c>
-      <c r="C592" s="112"/>
-      <c r="D592" s="113"/>
-      <c r="E592" s="113"/>
-      <c r="F592" s="113"/>
-      <c r="G592" s="113"/>
-      <c r="H592" s="113"/>
-      <c r="I592" s="113"/>
-      <c r="J592" s="113"/>
-      <c r="K592" s="113"/>
-      <c r="L592" s="113"/>
+      <c r="A592" s="106" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B592" s="107" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C592" s="108" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D592" s="109" t="s">
+        <v>32</v>
+      </c>
+      <c r="E592" s="109"/>
+      <c r="F592" s="109"/>
+      <c r="G592" s="109"/>
+      <c r="H592" s="109"/>
+      <c r="I592" s="109"/>
+      <c r="J592" s="109"/>
+      <c r="K592" s="109"/>
+      <c r="L592" s="109"/>
     </row>
     <row r="593" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A593" s="110"/>
-      <c r="B593" s="111" t="s">
-        <v>997</v>
-      </c>
-      <c r="C593" s="112"/>
-      <c r="D593" s="113"/>
-      <c r="E593" s="113"/>
-      <c r="F593" s="113"/>
-      <c r="G593" s="113"/>
-      <c r="H593" s="113"/>
-      <c r="I593" s="113"/>
-      <c r="J593" s="113"/>
-      <c r="K593" s="113"/>
-      <c r="L593" s="113"/>
+      <c r="A593" s="106" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B593" s="107" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C593" s="108" t="s">
+        <v>975</v>
+      </c>
+      <c r="D593" s="109" t="s">
+        <v>32</v>
+      </c>
+      <c r="E593" s="109"/>
+      <c r="F593" s="109"/>
+      <c r="G593" s="109"/>
+      <c r="H593" s="109"/>
+      <c r="I593" s="109"/>
+      <c r="J593" s="109"/>
+      <c r="K593" s="109"/>
+      <c r="L593" s="109"/>
     </row>
     <row r="594" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A594" s="110"/>
-      <c r="B594" s="114" t="s">
+      <c r="B594" s="107"/>
+      <c r="C594" s="108"/>
+      <c r="D594" s="109"/>
+      <c r="E594" s="109"/>
+      <c r="F594" s="109"/>
+      <c r="G594" s="109"/>
+      <c r="H594" s="109"/>
+      <c r="I594" s="109"/>
+      <c r="J594" s="109"/>
+      <c r="K594" s="109"/>
+      <c r="L594" s="109"/>
+    </row>
+    <row r="595" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A595" s="118" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B595" s="119"/>
+      <c r="C595" s="104"/>
+      <c r="D595" s="105"/>
+      <c r="E595" s="105"/>
+      <c r="F595" s="105"/>
+      <c r="G595" s="105"/>
+      <c r="H595" s="105"/>
+      <c r="I595" s="105"/>
+      <c r="J595" s="105"/>
+      <c r="K595" s="105"/>
+      <c r="L595" s="105"/>
+    </row>
+    <row r="596" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A596" s="106" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B596" s="107" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C596" s="108" t="s">
         <v>998</v>
       </c>
-      <c r="C594" s="112"/>
-      <c r="D594" s="113"/>
-      <c r="E594" s="113"/>
-      <c r="F594" s="113"/>
-      <c r="G594" s="113"/>
-      <c r="H594" s="113"/>
-      <c r="I594" s="113"/>
-      <c r="J594" s="113"/>
-      <c r="K594" s="113"/>
-      <c r="L594" s="113"/>
+      <c r="D596" s="109" t="s">
+        <v>32</v>
+      </c>
+      <c r="E596" s="109"/>
+      <c r="F596" s="109"/>
+      <c r="G596" s="109"/>
+      <c r="H596" s="109"/>
+      <c r="I596" s="109"/>
+      <c r="J596" s="109"/>
+      <c r="K596" s="109"/>
+      <c r="L596" s="109"/>
+    </row>
+    <row r="597" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A597" s="106" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B597" s="107" t="s">
+        <v>883</v>
+      </c>
+      <c r="C597" s="108" t="s">
+        <v>899</v>
+      </c>
+      <c r="D597" s="109" t="s">
+        <v>32</v>
+      </c>
+      <c r="E597" s="109"/>
+      <c r="F597" s="109"/>
+      <c r="G597" s="109"/>
+      <c r="H597" s="109"/>
+      <c r="I597" s="109"/>
+      <c r="J597" s="109"/>
+      <c r="K597" s="109"/>
+      <c r="L597" s="109"/>
+    </row>
+    <row r="598" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A598" s="106" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B598" s="107" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C598" s="108" t="s">
+        <v>975</v>
+      </c>
+      <c r="D598" s="109" t="s">
+        <v>32</v>
+      </c>
+      <c r="E598" s="109"/>
+      <c r="F598" s="109"/>
+      <c r="G598" s="109"/>
+      <c r="H598" s="109"/>
+      <c r="I598" s="109"/>
+      <c r="J598" s="109"/>
+      <c r="K598" s="109"/>
+      <c r="L598" s="109"/>
+    </row>
+    <row r="599" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A599" s="106"/>
+      <c r="B599" s="107"/>
+      <c r="C599" s="108"/>
+      <c r="D599" s="109"/>
+      <c r="E599" s="109"/>
+      <c r="F599" s="109"/>
+      <c r="G599" s="109"/>
+      <c r="H599" s="109"/>
+      <c r="I599" s="109"/>
+      <c r="J599" s="109"/>
+      <c r="K599" s="109"/>
+      <c r="L599" s="109"/>
+    </row>
+    <row r="600" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A600" s="106"/>
+      <c r="B600" s="107"/>
+      <c r="C600" s="108"/>
+      <c r="D600" s="109"/>
+      <c r="E600" s="109"/>
+      <c r="F600" s="109"/>
+      <c r="G600" s="109"/>
+      <c r="H600" s="109"/>
+      <c r="I600" s="109"/>
+      <c r="J600" s="109"/>
+      <c r="K600" s="109"/>
+      <c r="L600" s="109"/>
+    </row>
+    <row r="601" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A601" s="106"/>
+      <c r="B601" s="107"/>
+      <c r="C601" s="108"/>
+      <c r="D601" s="109"/>
+      <c r="E601" s="109"/>
+      <c r="F601" s="109"/>
+      <c r="G601" s="109"/>
+      <c r="H601" s="109"/>
+      <c r="I601" s="109"/>
+      <c r="J601" s="109"/>
+      <c r="K601" s="109"/>
+      <c r="L601" s="109"/>
+    </row>
+    <row r="602" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A602" s="106"/>
+      <c r="B602" s="107"/>
+      <c r="C602" s="108"/>
+      <c r="D602" s="109"/>
+      <c r="E602" s="109"/>
+      <c r="F602" s="109"/>
+      <c r="G602" s="109"/>
+      <c r="H602" s="109"/>
+      <c r="I602" s="109"/>
+      <c r="J602" s="109"/>
+      <c r="K602" s="109"/>
+      <c r="L602" s="109"/>
+    </row>
+    <row r="603" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A603" s="106"/>
+      <c r="B603" s="107"/>
+      <c r="C603" s="108"/>
+      <c r="D603" s="109"/>
+      <c r="E603" s="109"/>
+      <c r="F603" s="109"/>
+      <c r="G603" s="109"/>
+      <c r="H603" s="109"/>
+      <c r="I603" s="109"/>
+      <c r="J603" s="109"/>
+      <c r="K603" s="109"/>
+      <c r="L603" s="109"/>
+    </row>
+    <row r="604" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A604" s="106"/>
+      <c r="B604" s="107"/>
+      <c r="C604" s="108"/>
+      <c r="D604" s="109"/>
+      <c r="E604" s="109"/>
+      <c r="F604" s="109"/>
+      <c r="G604" s="109"/>
+      <c r="H604" s="109"/>
+      <c r="I604" s="109"/>
+      <c r="J604" s="109"/>
+      <c r="K604" s="109"/>
+      <c r="L604" s="109"/>
+    </row>
+    <row r="605" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A605" s="106"/>
+      <c r="B605" s="107"/>
+      <c r="C605" s="108"/>
+      <c r="D605" s="109"/>
+      <c r="E605" s="109"/>
+      <c r="F605" s="109"/>
+      <c r="G605" s="109"/>
+      <c r="H605" s="109"/>
+      <c r="I605" s="109"/>
+      <c r="J605" s="109"/>
+      <c r="K605" s="109"/>
+      <c r="L605" s="109"/>
+    </row>
+    <row r="606" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A606" s="106"/>
+      <c r="B606" s="107"/>
+      <c r="C606" s="108"/>
+      <c r="D606" s="109"/>
+      <c r="E606" s="109"/>
+      <c r="F606" s="109"/>
+      <c r="G606" s="109"/>
+      <c r="H606" s="109"/>
+      <c r="I606" s="109"/>
+      <c r="J606" s="109"/>
+      <c r="K606" s="109"/>
+      <c r="L606" s="109"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="34">
+    <mergeCell ref="A595:B595"/>
+    <mergeCell ref="A477:B477"/>
+    <mergeCell ref="A540:B540"/>
+    <mergeCell ref="A589:B589"/>
+    <mergeCell ref="A520:B520"/>
+    <mergeCell ref="M2:T2"/>
+    <mergeCell ref="A448:B448"/>
+    <mergeCell ref="A484:B484"/>
+    <mergeCell ref="A556:B556"/>
+    <mergeCell ref="A583:B583"/>
+    <mergeCell ref="A509:B509"/>
+    <mergeCell ref="M4:T4"/>
+    <mergeCell ref="M5:T5"/>
+    <mergeCell ref="A576:B576"/>
     <mergeCell ref="A570:B570"/>
+    <mergeCell ref="A535:B535"/>
+    <mergeCell ref="A551:B551"/>
+    <mergeCell ref="A530:B530"/>
     <mergeCell ref="M1:S1"/>
     <mergeCell ref="A562:B562"/>
     <mergeCell ref="A499:B499"/>
@@ -16072,21 +16401,8 @@
     <mergeCell ref="A494:B494"/>
     <mergeCell ref="A525:B525"/>
     <mergeCell ref="A466:B466"/>
-    <mergeCell ref="A551:B551"/>
-    <mergeCell ref="M2:T2"/>
-    <mergeCell ref="A448:B448"/>
-    <mergeCell ref="A484:B484"/>
-    <mergeCell ref="A556:B556"/>
-    <mergeCell ref="A509:B509"/>
-    <mergeCell ref="M4:T4"/>
-    <mergeCell ref="A530:B530"/>
-    <mergeCell ref="A477:B477"/>
-    <mergeCell ref="A540:B540"/>
-    <mergeCell ref="A520:B520"/>
-    <mergeCell ref="M5:T5"/>
-    <mergeCell ref="A535:B535"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/GPS_ChecklistForAutoTest.xlsx
+++ b/GPS_ChecklistForAutoTest.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1755" uniqueCount="1029">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1853" uniqueCount="1035">
   <si>
     <t>WEBGPS SYSTEM - CHECKLIST AUTOMATION TEST</t>
   </si>
@@ -939,6 +939,9 @@
   <si>
     <t>Mở tab mới và chuyển tới module "Quản lý ảnh camera"
 Ô Phương tiện fill BKS vừa chọn</t>
+  </si>
+  <si>
+    <t>GiamSat83_ChuotPhaiXe_XemAnhCameraND10.png</t>
   </si>
   <si>
     <t>5.9 Giám sát camera - NĐ10</t>
@@ -1197,6 +1200,9 @@
     <t>Hiển thị Popup "Phương tiện thiếu thông tin tích truyền"</t>
   </si>
   <si>
+    <t>GiamSat112_CanhBao_PhuongTienThieuThongTinTichTruyen.png</t>
+  </si>
+  <si>
     <t>Không hiện popup nên ko check được các thông tin</t>
   </si>
   <si>
@@ -1228,6 +1234,9 @@
   </si>
   <si>
     <t>Hiển thị Popup "Xem ảnh camera"</t>
+  </si>
+  <si>
+    <t>GiamSat115_CanhBao_XemAnhCamera.png</t>
   </si>
   <si>
     <t>6.4 Hiện trạng hệ thống</t>
@@ -1306,6 +1315,9 @@
     <t>Hiển thị Popup "Thông tin xe tới hạn đi vào phố cấm"</t>
   </si>
   <si>
+    <t>GiamSat124_CanhBao_ThongTinXeToiHanDiVaoPhoCam.png</t>
+  </si>
+  <si>
     <t>6.8 Cảnh báo xe chưa tới điểm</t>
   </si>
   <si>
@@ -1783,6 +1795,9 @@
     <t>Hiển thị Popup "Cấu hình hiển thị nhóm điểm"</t>
   </si>
   <si>
+    <t>GiamSat187_ChuotPhaiVaoMap_CauHinhHienThiNhomDiem.png</t>
+  </si>
+  <si>
     <t>GiamSat188</t>
   </si>
   <si>
@@ -1919,6 +1934,9 @@
   </si>
   <si>
     <t>Hiển thị Popup "Biểu đồ nhiên liệu mới"</t>
+  </si>
+  <si>
+    <t>GiamSat203_ChuotPhaiVaoMap_BieuDoNguyenLieuMoi.png</t>
   </si>
   <si>
     <t>8.13 GS theo tuyến mẫu</t>
@@ -2063,7 +2081,7 @@
 Ô phương tiện để trống</t>
   </si>
   <si>
-    <t>Giống như khi kích vào xe</t>
+    <t>GiamSat220_ChuotPhaiVaoMap_BieuDoNguyenLieu.png</t>
   </si>
   <si>
     <t>8.17 Điều xe đi tuyến</t>
@@ -3882,29 +3900,29 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4209,8 +4227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T606"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A576" workbookViewId="0">
-      <selection activeCell="N596" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A581" workbookViewId="0">
+      <selection activeCell="J601" sqref="J601"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4241,15 +4259,15 @@
       <c r="J1" s="1"/>
       <c r="K1" s="75"/>
       <c r="L1" s="75"/>
-      <c r="M1" s="116" t="s">
+      <c r="M1" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="117"/>
-      <c r="O1" s="117"/>
-      <c r="P1" s="117"/>
-      <c r="Q1" s="117"/>
-      <c r="R1" s="117"/>
-      <c r="S1" s="117"/>
+      <c r="N1" s="119"/>
+      <c r="O1" s="119"/>
+      <c r="P1" s="119"/>
+      <c r="Q1" s="119"/>
+      <c r="R1" s="119"/>
+      <c r="S1" s="119"/>
     </row>
     <row r="2" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="25"/>
@@ -4266,16 +4284,16 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="31"/>
-      <c r="M2" s="122" t="s">
+      <c r="M2" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="117"/>
-      <c r="O2" s="117"/>
-      <c r="P2" s="117"/>
-      <c r="Q2" s="117"/>
-      <c r="R2" s="117"/>
-      <c r="S2" s="117"/>
-      <c r="T2" s="117"/>
+      <c r="N2" s="119"/>
+      <c r="O2" s="119"/>
+      <c r="P2" s="119"/>
+      <c r="Q2" s="119"/>
+      <c r="R2" s="119"/>
+      <c r="S2" s="119"/>
+      <c r="T2" s="119"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24"/>
@@ -4298,16 +4316,16 @@
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="32"/>
-      <c r="M3" s="122" t="s">
+      <c r="M3" s="118" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="117"/>
-      <c r="O3" s="117"/>
-      <c r="P3" s="117"/>
-      <c r="Q3" s="117"/>
-      <c r="R3" s="117"/>
-      <c r="S3" s="117"/>
-      <c r="T3" s="117"/>
+      <c r="N3" s="119"/>
+      <c r="O3" s="119"/>
+      <c r="P3" s="119"/>
+      <c r="Q3" s="119"/>
+      <c r="R3" s="119"/>
+      <c r="S3" s="119"/>
+      <c r="T3" s="119"/>
     </row>
     <row r="4" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="24"/>
@@ -4320,11 +4338,11 @@
       </c>
       <c r="D4" s="4">
         <f>COUNTIFS(H:H,"Pass",D:D,"x")</f>
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="E4" s="4">
         <f>COUNTIFS(H:H,"Fail",D:D,"x")</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -4333,16 +4351,16 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="32"/>
-      <c r="M4" s="122" t="s">
+      <c r="M4" s="118" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="117"/>
-      <c r="O4" s="117"/>
-      <c r="P4" s="117"/>
-      <c r="Q4" s="117"/>
-      <c r="R4" s="117"/>
-      <c r="S4" s="117"/>
-      <c r="T4" s="117"/>
+      <c r="N4" s="119"/>
+      <c r="O4" s="119"/>
+      <c r="P4" s="119"/>
+      <c r="Q4" s="119"/>
+      <c r="R4" s="119"/>
+      <c r="S4" s="119"/>
+      <c r="T4" s="119"/>
     </row>
     <row r="5" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="24"/>
@@ -4355,11 +4373,11 @@
       </c>
       <c r="D5" s="4">
         <f>COUNTIFS(H:H,"Pass",E:E,"x")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E5" s="4">
         <f>COUNTIFS(H:H,"Fail",E:E,"x")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -4368,16 +4386,16 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="32"/>
-      <c r="M5" s="122" t="s">
+      <c r="M5" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="117"/>
-      <c r="O5" s="117"/>
-      <c r="P5" s="117"/>
-      <c r="Q5" s="117"/>
-      <c r="R5" s="117"/>
-      <c r="S5" s="117"/>
-      <c r="T5" s="117"/>
+      <c r="N5" s="119"/>
+      <c r="O5" s="119"/>
+      <c r="P5" s="119"/>
+      <c r="Q5" s="119"/>
+      <c r="R5" s="119"/>
+      <c r="S5" s="119"/>
+      <c r="T5" s="119"/>
     </row>
     <row r="6" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="24"/>
@@ -4390,7 +4408,7 @@
       </c>
       <c r="D6" s="4">
         <f>COUNTIFS(H:H,"Pass",F:F,"x")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E6" s="4">
         <f>COUNTIFS(H:H,"Fail",F:F,"x")</f>
@@ -4416,7 +4434,7 @@
       </c>
       <c r="D7" s="4">
         <f>COUNTIFS(H:H,"Pass",G:G,"x")</f>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E7" s="4">
         <f>COUNTIFS(H:H,"Fail",G:G,"x")</f>
@@ -4520,7 +4538,9 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
+      <c r="H11" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
@@ -4542,7 +4562,9 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
+      <c r="H12" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
@@ -4564,7 +4586,9 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
+      <c r="H13" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
@@ -5056,7 +5080,9 @@
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
+      <c r="H37" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
@@ -5078,7 +5104,9 @@
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
+      <c r="H38" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
@@ -5174,7 +5202,9 @@
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
+      <c r="H43" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
@@ -5196,7 +5226,9 @@
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
+      <c r="H44" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
@@ -5248,7 +5280,9 @@
       <c r="E47" s="38"/>
       <c r="F47" s="38"/>
       <c r="G47" s="38"/>
-      <c r="H47" s="38"/>
+      <c r="H47" s="38" t="s">
+        <v>6</v>
+      </c>
       <c r="I47" s="38"/>
       <c r="J47" s="38"/>
       <c r="K47" s="4"/>
@@ -6192,7 +6226,9 @@
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
       <c r="G92" s="4"/>
-      <c r="H92" s="4"/>
+      <c r="H92" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="I92" s="4"/>
       <c r="J92" s="4"/>
       <c r="K92" s="4"/>
@@ -6244,7 +6280,9 @@
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
       <c r="G95" s="4"/>
-      <c r="H95" s="4"/>
+      <c r="H95" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="I95" s="4"/>
       <c r="J95" s="4"/>
       <c r="K95" s="4"/>
@@ -6268,7 +6306,9 @@
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
       <c r="G96" s="4"/>
-      <c r="H96" s="4"/>
+      <c r="H96" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="I96" s="4"/>
       <c r="J96" s="4"/>
       <c r="K96" s="4"/>
@@ -6292,7 +6332,9 @@
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
       <c r="G97" s="4"/>
-      <c r="H97" s="4"/>
+      <c r="H97" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="I97" s="4"/>
       <c r="J97" s="4"/>
       <c r="K97" s="4"/>
@@ -6382,7 +6424,9 @@
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
       <c r="G102" s="4"/>
-      <c r="H102" s="4"/>
+      <c r="H102" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="I102" s="4"/>
       <c r="J102" s="4"/>
       <c r="K102" s="4"/>
@@ -6404,7 +6448,9 @@
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
       <c r="G103" s="4"/>
-      <c r="H103" s="4"/>
+      <c r="H103" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="I103" s="4"/>
       <c r="J103" s="4"/>
       <c r="K103" s="4"/>
@@ -6426,7 +6472,9 @@
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
       <c r="G104" s="4"/>
-      <c r="H104" s="4"/>
+      <c r="H104" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="I104" s="4"/>
       <c r="J104" s="4"/>
       <c r="K104" s="4"/>
@@ -6448,7 +6496,9 @@
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
       <c r="G105" s="4"/>
-      <c r="H105" s="4"/>
+      <c r="H105" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="I105" s="4"/>
       <c r="J105" s="4"/>
       <c r="K105" s="4"/>
@@ -6470,7 +6520,9 @@
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
       <c r="G106" s="4"/>
-      <c r="H106" s="4"/>
+      <c r="H106" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="I106" s="4"/>
       <c r="J106" s="4"/>
       <c r="K106" s="4"/>
@@ -6524,7 +6576,9 @@
       <c r="E109" s="4"/>
       <c r="F109" s="4"/>
       <c r="G109" s="4"/>
-      <c r="H109" s="4"/>
+      <c r="H109" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="I109" s="4"/>
       <c r="J109" s="4"/>
       <c r="K109" s="4"/>
@@ -6732,7 +6786,9 @@
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
       <c r="G119" s="4"/>
-      <c r="H119" s="4"/>
+      <c r="H119" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="I119" s="4"/>
       <c r="J119" s="4"/>
       <c r="K119" s="4"/>
@@ -6872,7 +6928,9 @@
       <c r="E126" s="4"/>
       <c r="F126" s="4"/>
       <c r="G126" s="4"/>
-      <c r="H126" s="4"/>
+      <c r="H126" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="I126" s="4"/>
       <c r="J126" s="4"/>
       <c r="K126" s="4"/>
@@ -6946,7 +7004,9 @@
       <c r="E130" s="4"/>
       <c r="F130" s="4"/>
       <c r="G130" s="4"/>
-      <c r="H130" s="4"/>
+      <c r="H130" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="I130" s="4"/>
       <c r="J130" s="4"/>
       <c r="K130" s="4"/>
@@ -7000,7 +7060,9 @@
       <c r="E133" s="38"/>
       <c r="F133" s="38"/>
       <c r="G133" s="38"/>
-      <c r="H133" s="38"/>
+      <c r="H133" s="38" t="s">
+        <v>6</v>
+      </c>
       <c r="I133" s="38"/>
       <c r="J133" s="38"/>
       <c r="K133" s="38"/>
@@ -7022,7 +7084,9 @@
       <c r="E134" s="38"/>
       <c r="F134" s="38"/>
       <c r="G134" s="38"/>
-      <c r="H134" s="38"/>
+      <c r="H134" s="38" t="s">
+        <v>6</v>
+      </c>
       <c r="I134" s="38"/>
       <c r="J134" s="38"/>
       <c r="K134" s="38"/>
@@ -7272,7 +7336,9 @@
       <c r="E146" s="4"/>
       <c r="F146" s="4"/>
       <c r="G146" s="4"/>
-      <c r="H146" s="4"/>
+      <c r="H146" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="I146" s="4"/>
       <c r="J146" s="4"/>
       <c r="K146" s="4"/>
@@ -7294,7 +7360,9 @@
       <c r="E147" s="4"/>
       <c r="F147" s="4"/>
       <c r="G147" s="4"/>
-      <c r="H147" s="4"/>
+      <c r="H147" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="I147" s="4"/>
       <c r="J147" s="4"/>
       <c r="K147" s="4"/>
@@ -7346,8 +7414,12 @@
       <c r="E150" s="4"/>
       <c r="F150" s="4"/>
       <c r="G150" s="4"/>
-      <c r="H150" s="4"/>
-      <c r="I150" s="4"/>
+      <c r="H150" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I150" s="4" t="s">
+        <v>306</v>
+      </c>
       <c r="J150" s="4"/>
       <c r="K150" s="4"/>
       <c r="L150" s="4"/>
@@ -7367,7 +7439,7 @@
     </row>
     <row r="152" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="43" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B152" s="28"/>
       <c r="C152" s="23"/>
@@ -7383,13 +7455,13 @@
     </row>
     <row r="153" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="44" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B153" s="18" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C153" s="18" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D153" s="4" t="s">
         <v>32</v>
@@ -7397,7 +7469,9 @@
       <c r="E153" s="4"/>
       <c r="F153" s="4"/>
       <c r="G153" s="4"/>
-      <c r="H153" s="4"/>
+      <c r="H153" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="I153" s="4"/>
       <c r="J153" s="4"/>
       <c r="K153" s="4"/>
@@ -7419,7 +7493,7 @@
     </row>
     <row r="155" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="43" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B155" s="28"/>
       <c r="C155" s="23"/>
@@ -7435,13 +7509,13 @@
     </row>
     <row r="156" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="44" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B156" s="18" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C156" s="18" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D156" s="4" t="s">
         <v>32</v>
@@ -7449,7 +7523,9 @@
       <c r="E156" s="4"/>
       <c r="F156" s="4"/>
       <c r="G156" s="4"/>
-      <c r="H156" s="4"/>
+      <c r="H156" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="I156" s="4"/>
       <c r="J156" s="4"/>
       <c r="K156" s="4"/>
@@ -7457,7 +7533,7 @@
     </row>
     <row r="157" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="44" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B157" s="18" t="s">
         <v>250</v>
@@ -7471,7 +7547,9 @@
       <c r="E157" s="4"/>
       <c r="F157" s="4"/>
       <c r="G157" s="4"/>
-      <c r="H157" s="4"/>
+      <c r="H157" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="I157" s="4"/>
       <c r="J157" s="4"/>
       <c r="K157" s="4"/>
@@ -7492,7 +7570,7 @@
     </row>
     <row r="159" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="45" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B159" s="33"/>
       <c r="C159" s="34"/>
@@ -7508,13 +7586,13 @@
     </row>
     <row r="160" spans="1:12" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="44" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B160" s="37" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C160" s="37" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D160" s="38" t="s">
         <v>32</v>
@@ -7522,7 +7600,9 @@
       <c r="E160" s="38"/>
       <c r="F160" s="38"/>
       <c r="G160" s="38"/>
-      <c r="H160" s="38"/>
+      <c r="H160" s="38" t="s">
+        <v>6</v>
+      </c>
       <c r="I160" s="38"/>
       <c r="J160" s="38"/>
       <c r="K160" s="38"/>
@@ -7530,7 +7610,7 @@
     </row>
     <row r="161" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="44" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B161" s="37" t="s">
         <v>250</v>
@@ -7544,7 +7624,9 @@
       <c r="E161" s="38"/>
       <c r="F161" s="38"/>
       <c r="G161" s="38"/>
-      <c r="H161" s="38"/>
+      <c r="H161" s="38" t="s">
+        <v>6</v>
+      </c>
       <c r="I161" s="38"/>
       <c r="J161" s="38"/>
       <c r="K161" s="38"/>
@@ -7565,7 +7647,7 @@
     </row>
     <row r="163" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="46" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B163" s="40"/>
       <c r="C163" s="41"/>
@@ -7581,13 +7663,13 @@
     </row>
     <row r="164" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="44" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B164" s="37" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C164" s="37" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D164" s="38" t="s">
         <v>32</v>
@@ -7595,12 +7677,14 @@
       <c r="E164" s="38"/>
       <c r="F164" s="38"/>
       <c r="G164" s="38"/>
-      <c r="H164" s="38"/>
+      <c r="H164" s="38" t="s">
+        <v>6</v>
+      </c>
       <c r="I164" s="38"/>
       <c r="J164" s="38"/>
       <c r="K164" s="38"/>
       <c r="L164" s="38" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="165" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7618,7 +7702,7 @@
     </row>
     <row r="166" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="46" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B166" s="40"/>
       <c r="C166" s="41"/>
@@ -7634,13 +7718,13 @@
     </row>
     <row r="167" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="44" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B167" s="37" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C167" s="37" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D167" s="38" t="s">
         <v>32</v>
@@ -7648,7 +7732,9 @@
       <c r="E167" s="38"/>
       <c r="F167" s="38"/>
       <c r="G167" s="38"/>
-      <c r="H167" s="38"/>
+      <c r="H167" s="38" t="s">
+        <v>6</v>
+      </c>
       <c r="I167" s="38"/>
       <c r="J167" s="38"/>
       <c r="K167" s="38"/>
@@ -7656,13 +7742,13 @@
     </row>
     <row r="168" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="44" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B168" s="18" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C168" s="18" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D168" s="4"/>
       <c r="E168" s="4"/>
@@ -7678,13 +7764,13 @@
     </row>
     <row r="169" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="44" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B169" s="18" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C169" s="18" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D169" s="4"/>
       <c r="E169" s="4"/>
@@ -7700,13 +7786,13 @@
     </row>
     <row r="170" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="44" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B170" s="18" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C170" s="18" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D170" s="4"/>
       <c r="E170" s="4"/>
@@ -7722,7 +7808,7 @@
     </row>
     <row r="171" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="44" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B171" s="18" t="s">
         <v>250</v>
@@ -7757,7 +7843,7 @@
     </row>
     <row r="173" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="43" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B173" s="28"/>
       <c r="C173" s="23"/>
@@ -7773,13 +7859,13 @@
     </row>
     <row r="174" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="44" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B174" s="18" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C174" s="18" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D174" s="4" t="s">
         <v>32</v>
@@ -7787,7 +7873,9 @@
       <c r="E174" s="4"/>
       <c r="F174" s="4"/>
       <c r="G174" s="4"/>
-      <c r="H174" s="4"/>
+      <c r="H174" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="I174" s="4"/>
       <c r="J174" s="4"/>
       <c r="K174" s="4"/>
@@ -7795,13 +7883,13 @@
     </row>
     <row r="175" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="44" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B175" s="18" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C175" s="18" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D175" s="4"/>
       <c r="E175" s="4"/>
@@ -7817,13 +7905,13 @@
     </row>
     <row r="176" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="44" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B176" s="18" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C176" s="18" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D176" s="4"/>
       <c r="E176" s="4"/>
@@ -7839,13 +7927,13 @@
     </row>
     <row r="177" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="44" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B177" s="18" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C177" s="18" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D177" s="4"/>
       <c r="E177" s="4"/>
@@ -7861,7 +7949,7 @@
     </row>
     <row r="178" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="44" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B178" s="18" t="s">
         <v>250</v>
@@ -7896,7 +7984,7 @@
     </row>
     <row r="180" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="28" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B180" s="30"/>
       <c r="C180" s="41"/>
@@ -7912,13 +8000,13 @@
     </row>
     <row r="181" spans="1:12" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="24" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B181" s="47" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C181" s="37" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D181" s="38" t="s">
         <v>32</v>
@@ -7926,7 +8014,9 @@
       <c r="E181" s="39"/>
       <c r="F181" s="39"/>
       <c r="G181" s="39"/>
-      <c r="H181" s="51"/>
+      <c r="H181" s="51" t="s">
+        <v>6</v>
+      </c>
       <c r="I181" s="38"/>
       <c r="J181" s="38"/>
       <c r="K181" s="38"/>
@@ -7948,7 +8038,7 @@
     </row>
     <row r="183" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="28" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B183" s="30"/>
       <c r="C183" s="41"/>
@@ -7964,13 +8054,13 @@
     </row>
     <row r="184" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="24" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B184" s="47" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C184" s="37" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D184" s="38" t="s">
         <v>32</v>
@@ -7999,7 +8089,7 @@
     </row>
     <row r="186" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="46" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B186" s="40"/>
       <c r="C186" s="41"/>
@@ -8012,18 +8102,18 @@
       <c r="J186" s="42"/>
       <c r="K186" s="42"/>
       <c r="L186" s="42" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="187" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="44" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B187" s="37" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C187" s="37" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D187" s="38" t="s">
         <v>32</v>
@@ -8031,7 +8121,9 @@
       <c r="E187" s="38"/>
       <c r="F187" s="38"/>
       <c r="G187" s="38"/>
-      <c r="H187" s="38"/>
+      <c r="H187" s="38" t="s">
+        <v>6</v>
+      </c>
       <c r="I187" s="38"/>
       <c r="J187" s="38"/>
       <c r="K187" s="38"/>
@@ -8039,7 +8131,7 @@
     </row>
     <row r="188" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="44" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B188" s="37" t="s">
         <v>250</v>
@@ -8053,7 +8145,9 @@
       <c r="E188" s="38"/>
       <c r="F188" s="38"/>
       <c r="G188" s="38"/>
-      <c r="H188" s="38"/>
+      <c r="H188" s="38" t="s">
+        <v>6</v>
+      </c>
       <c r="I188" s="38"/>
       <c r="J188" s="38"/>
       <c r="K188" s="38"/>
@@ -8074,7 +8168,7 @@
     </row>
     <row r="190" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="28" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B190" s="28"/>
       <c r="C190" s="10"/>
@@ -8090,13 +8184,13 @@
     </row>
     <row r="191" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="44" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B191" s="18" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C191" s="18" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D191" s="4" t="s">
         <v>32</v>
@@ -8104,7 +8198,9 @@
       <c r="E191" s="4"/>
       <c r="F191" s="4"/>
       <c r="G191" s="4"/>
-      <c r="H191" s="4"/>
+      <c r="H191" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="I191" s="4"/>
       <c r="J191" s="4"/>
       <c r="K191" s="4"/>
@@ -8112,10 +8208,10 @@
     </row>
     <row r="192" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="44" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B192" s="18" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C192" s="18"/>
       <c r="D192" s="4"/>
@@ -8129,15 +8225,15 @@
       <c r="J192" s="4"/>
       <c r="K192" s="4"/>
       <c r="L192" s="4" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="193" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="44" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B193" s="18" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C193" s="18"/>
       <c r="D193" s="4"/>
@@ -8151,12 +8247,12 @@
       <c r="J193" s="4"/>
       <c r="K193" s="4"/>
       <c r="L193" s="4" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="194" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="44" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B194" s="18" t="s">
         <v>250</v>
@@ -8170,7 +8266,9 @@
       <c r="E194" s="4"/>
       <c r="F194" s="4"/>
       <c r="G194" s="4"/>
-      <c r="H194" s="4"/>
+      <c r="H194" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="I194" s="4"/>
       <c r="J194" s="4"/>
       <c r="K194" s="4"/>
@@ -8191,7 +8289,7 @@
     </row>
     <row r="196" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="28" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B196" s="28"/>
       <c r="C196" s="23"/>
@@ -8204,18 +8302,18 @@
       <c r="J196" s="9"/>
       <c r="K196" s="9"/>
       <c r="L196" s="42" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="197" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="44" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B197" s="18" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C197" s="47" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D197" s="38" t="s">
         <v>32</v>
@@ -8223,7 +8321,9 @@
       <c r="E197" s="38"/>
       <c r="F197" s="38"/>
       <c r="G197" s="38"/>
-      <c r="H197" s="38"/>
+      <c r="H197" s="38" t="s">
+        <v>6</v>
+      </c>
       <c r="I197" s="38"/>
       <c r="J197" s="4"/>
       <c r="K197" s="4"/>
@@ -8231,13 +8331,13 @@
     </row>
     <row r="198" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="44" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B198" s="18" t="s">
         <v>268</v>
       </c>
       <c r="C198" s="18" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D198" s="38" t="s">
         <v>32</v>
@@ -8245,7 +8345,9 @@
       <c r="E198" s="38"/>
       <c r="F198" s="38"/>
       <c r="G198" s="39"/>
-      <c r="H198" s="38"/>
+      <c r="H198" s="38" t="s">
+        <v>6</v>
+      </c>
       <c r="I198" s="38"/>
       <c r="J198" s="4"/>
       <c r="K198" s="4"/>
@@ -8266,7 +8368,7 @@
     </row>
     <row r="200" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="28" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B200" s="28"/>
       <c r="C200" s="23"/>
@@ -8279,18 +8381,18 @@
       <c r="J200" s="9"/>
       <c r="K200" s="9"/>
       <c r="L200" s="42" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="201" spans="1:12" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="44" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B201" s="18" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C201" s="18" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D201" s="4" t="s">
         <v>32</v>
@@ -8298,7 +8400,9 @@
       <c r="E201" s="4"/>
       <c r="F201" s="4"/>
       <c r="G201" s="4"/>
-      <c r="H201" s="4"/>
+      <c r="H201" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="I201" s="4"/>
       <c r="J201" s="4"/>
       <c r="K201" s="4"/>
@@ -8306,13 +8410,13 @@
     </row>
     <row r="202" spans="1:12" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="44" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B202" s="18" t="s">
         <v>268</v>
       </c>
       <c r="C202" s="18" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D202" s="4" t="s">
         <v>32</v>
@@ -8320,7 +8424,9 @@
       <c r="E202" s="4"/>
       <c r="F202" s="4"/>
       <c r="G202" s="4"/>
-      <c r="H202" s="4"/>
+      <c r="H202" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="I202" s="4"/>
       <c r="J202" s="4"/>
       <c r="K202" s="4"/>
@@ -8341,7 +8447,7 @@
     </row>
     <row r="204" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="8" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B204" s="21"/>
       <c r="C204" s="21"/>
@@ -8357,7 +8463,7 @@
     </row>
     <row r="205" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="28" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B205" s="23"/>
       <c r="C205" s="23"/>
@@ -8373,13 +8479,13 @@
     </row>
     <row r="206" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="44" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B206" s="18" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C206" s="18" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D206" s="4" t="s">
         <v>32</v>
@@ -8387,12 +8493,16 @@
       <c r="E206" s="4"/>
       <c r="F206" s="4"/>
       <c r="G206" s="4"/>
-      <c r="H206" s="4"/>
-      <c r="I206" s="4"/>
+      <c r="H206" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I206" s="4" t="s">
+        <v>390</v>
+      </c>
       <c r="J206" s="4"/>
       <c r="K206" s="4"/>
       <c r="L206" s="4" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="207" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8410,7 +8520,7 @@
     </row>
     <row r="208" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="10" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B208" s="23"/>
       <c r="C208" s="23"/>
@@ -8426,13 +8536,13 @@
     </row>
     <row r="209" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="44" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B209" s="18" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C209" s="18" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D209" s="4" t="s">
         <v>32</v>
@@ -8440,17 +8550,19 @@
       <c r="E209" s="4"/>
       <c r="F209" s="4"/>
       <c r="G209" s="4"/>
-      <c r="H209" s="4"/>
+      <c r="H209" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="I209" s="4"/>
       <c r="J209" s="4"/>
       <c r="K209" s="4"/>
       <c r="L209" s="4" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="210" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="44" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B210" s="18" t="s">
         <v>250</v>
@@ -8464,7 +8576,9 @@
       <c r="E210" s="4"/>
       <c r="F210" s="4"/>
       <c r="G210" s="4"/>
-      <c r="H210" s="4"/>
+      <c r="H210" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="I210" s="4"/>
       <c r="J210" s="4"/>
       <c r="K210" s="4"/>
@@ -8485,7 +8599,7 @@
     </row>
     <row r="212" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="28" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B212" s="23"/>
       <c r="C212" s="23"/>
@@ -8501,13 +8615,13 @@
     </row>
     <row r="213" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="44" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B213" s="18" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C213" s="18" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D213" s="4" t="s">
         <v>32</v>
@@ -8515,12 +8629,16 @@
       <c r="E213" s="4"/>
       <c r="F213" s="4"/>
       <c r="G213" s="4"/>
-      <c r="H213" s="4"/>
-      <c r="I213" s="4"/>
+      <c r="H213" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I213" s="4" t="s">
+        <v>402</v>
+      </c>
       <c r="J213" s="4"/>
       <c r="K213" s="4"/>
       <c r="L213" s="4" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="214" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8538,7 +8656,7 @@
     </row>
     <row r="215" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="28" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="B215" s="23"/>
       <c r="C215" s="23"/>
@@ -8554,13 +8672,13 @@
     </row>
     <row r="216" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="44" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="B216" s="18" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="C216" s="18" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="D216" s="4" t="s">
         <v>32</v>
@@ -8568,7 +8686,9 @@
       <c r="E216" s="4"/>
       <c r="F216" s="4"/>
       <c r="G216" s="4"/>
-      <c r="H216" s="4"/>
+      <c r="H216" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="I216" s="4"/>
       <c r="J216" s="4"/>
       <c r="K216" s="4"/>
@@ -8576,7 +8696,7 @@
     </row>
     <row r="217" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="44" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="B217" s="18" t="s">
         <v>250</v>
@@ -8590,7 +8710,9 @@
       <c r="E217" s="4"/>
       <c r="F217" s="4"/>
       <c r="G217" s="4"/>
-      <c r="H217" s="4"/>
+      <c r="H217" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="I217" s="4"/>
       <c r="J217" s="4"/>
       <c r="K217" s="4"/>
@@ -8611,7 +8733,7 @@
     </row>
     <row r="219" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="28" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B219" s="53"/>
       <c r="C219" s="41"/>
@@ -8627,13 +8749,13 @@
     </row>
     <row r="220" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="44" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="B220" s="47" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="C220" s="37" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="D220" s="38" t="s">
         <v>32</v>
@@ -8641,7 +8763,9 @@
       <c r="E220" s="38"/>
       <c r="F220" s="38"/>
       <c r="G220" s="38"/>
-      <c r="H220" s="38"/>
+      <c r="H220" s="38" t="s">
+        <v>6</v>
+      </c>
       <c r="I220" s="38"/>
       <c r="J220" s="38"/>
       <c r="K220" s="38"/>
@@ -8649,7 +8773,7 @@
     </row>
     <row r="221" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="44" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B221" s="47" t="s">
         <v>250</v>
@@ -8663,7 +8787,9 @@
       <c r="E221" s="38"/>
       <c r="F221" s="38"/>
       <c r="G221" s="39"/>
-      <c r="H221" s="38"/>
+      <c r="H221" s="38" t="s">
+        <v>6</v>
+      </c>
       <c r="I221" s="38"/>
       <c r="J221" s="38"/>
       <c r="K221" s="38"/>
@@ -8684,7 +8810,7 @@
     </row>
     <row r="223" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="28" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B223" s="53"/>
       <c r="C223" s="41"/>
@@ -8700,13 +8826,13 @@
     </row>
     <row r="224" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="44" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B224" s="47" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C224" s="37" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="D224" s="38" t="s">
         <v>32</v>
@@ -8714,7 +8840,9 @@
       <c r="E224" s="38"/>
       <c r="F224" s="38"/>
       <c r="G224" s="38"/>
-      <c r="H224" s="38"/>
+      <c r="H224" s="38" t="s">
+        <v>6</v>
+      </c>
       <c r="I224" s="38"/>
       <c r="J224" s="38"/>
       <c r="K224" s="38"/>
@@ -8722,7 +8850,7 @@
     </row>
     <row r="225" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="44" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B225" s="37" t="s">
         <v>268</v>
@@ -8736,7 +8864,9 @@
       <c r="E225" s="54"/>
       <c r="F225" s="54"/>
       <c r="G225" s="55"/>
-      <c r="H225" s="54"/>
+      <c r="H225" s="54" t="s">
+        <v>6</v>
+      </c>
       <c r="I225" s="54"/>
       <c r="J225" s="54"/>
       <c r="K225" s="4"/>
@@ -8757,7 +8887,7 @@
     </row>
     <row r="227" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="40" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B227" s="40"/>
       <c r="C227" s="41"/>
@@ -8773,13 +8903,13 @@
     </row>
     <row r="228" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="44" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B228" s="37" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="C228" s="37" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="D228" s="38" t="s">
         <v>32</v>
@@ -8787,7 +8917,9 @@
       <c r="E228" s="38"/>
       <c r="F228" s="38"/>
       <c r="G228" s="38"/>
-      <c r="H228" s="38"/>
+      <c r="H228" s="38" t="s">
+        <v>6</v>
+      </c>
       <c r="I228" s="38"/>
       <c r="J228" s="38"/>
       <c r="K228" s="4"/>
@@ -8795,10 +8927,10 @@
     </row>
     <row r="229" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="44" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B229" s="37" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="C229" s="37" t="s">
         <v>301</v>
@@ -8809,7 +8941,9 @@
       <c r="E229" s="38"/>
       <c r="F229" s="38"/>
       <c r="G229" s="38"/>
-      <c r="H229" s="38"/>
+      <c r="H229" s="38" t="s">
+        <v>6</v>
+      </c>
       <c r="I229" s="38"/>
       <c r="J229" s="38"/>
       <c r="K229" s="4"/>
@@ -8830,7 +8964,7 @@
     </row>
     <row r="231" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="40" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B231" s="40"/>
       <c r="C231" s="41"/>
@@ -8846,13 +8980,13 @@
     </row>
     <row r="232" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="52" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B232" s="37" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="C232" s="37" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="D232" s="38" t="s">
         <v>32</v>
@@ -8860,12 +8994,16 @@
       <c r="E232" s="38"/>
       <c r="F232" s="38"/>
       <c r="G232" s="38"/>
-      <c r="H232" s="38"/>
-      <c r="I232" s="38"/>
+      <c r="H232" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="I232" s="38" t="s">
+        <v>428</v>
+      </c>
       <c r="J232" s="38"/>
       <c r="K232" s="38"/>
       <c r="L232" s="38" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="233" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8884,7 +9022,7 @@
     </row>
     <row r="234" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="40" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="B234" s="41"/>
       <c r="C234" s="41"/>
@@ -8900,13 +9038,13 @@
     </row>
     <row r="235" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="52" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="B235" s="37" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="C235" s="37" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="D235" s="38" t="s">
         <v>32</v>
@@ -8914,20 +9052,22 @@
       <c r="E235" s="38"/>
       <c r="F235" s="38"/>
       <c r="G235" s="38"/>
-      <c r="H235" s="38"/>
+      <c r="H235" s="38" t="s">
+        <v>6</v>
+      </c>
       <c r="I235" s="38"/>
       <c r="J235" s="38"/>
       <c r="K235" s="38"/>
       <c r="L235" s="38" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="236" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="52" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="B236" s="37" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="C236" s="37" t="s">
         <v>301</v>
@@ -8938,7 +9078,9 @@
       <c r="E236" s="38"/>
       <c r="F236" s="38"/>
       <c r="G236" s="38"/>
-      <c r="H236" s="38"/>
+      <c r="H236" s="38" t="s">
+        <v>6</v>
+      </c>
       <c r="I236" s="38"/>
       <c r="J236" s="38"/>
       <c r="K236" s="38"/>
@@ -8959,7 +9101,7 @@
     </row>
     <row r="238" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="40" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="B238" s="41"/>
       <c r="C238" s="41"/>
@@ -8975,13 +9117,13 @@
     </row>
     <row r="239" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="52" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="B239" s="37" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="C239" s="37" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="D239" s="38" t="s">
         <v>32</v>
@@ -8989,20 +9131,22 @@
       <c r="E239" s="38"/>
       <c r="F239" s="38"/>
       <c r="G239" s="38"/>
-      <c r="H239" s="38"/>
+      <c r="H239" s="38" t="s">
+        <v>6</v>
+      </c>
       <c r="I239" s="38"/>
       <c r="J239" s="38"/>
       <c r="K239" s="38"/>
       <c r="L239" s="38" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="240" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="52" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="B240" s="37" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="C240" s="37" t="s">
         <v>301</v>
@@ -9013,7 +9157,9 @@
       <c r="E240" s="38"/>
       <c r="F240" s="38"/>
       <c r="G240" s="38"/>
-      <c r="H240" s="38"/>
+      <c r="H240" s="38" t="s">
+        <v>6</v>
+      </c>
       <c r="I240" s="38"/>
       <c r="J240" s="38"/>
       <c r="K240" s="38"/>
@@ -9035,7 +9181,7 @@
     </row>
     <row r="242" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="58" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="B242" s="59"/>
       <c r="C242" s="59"/>
@@ -9051,13 +9197,13 @@
     </row>
     <row r="243" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="52" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="B243" s="37" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="C243" s="37" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="D243" s="38"/>
       <c r="E243" s="38" t="s">
@@ -9073,13 +9219,13 @@
     </row>
     <row r="244" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="52" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="B244" s="37" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="C244" s="37" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="D244" s="38"/>
       <c r="E244" s="38" t="s">
@@ -9095,10 +9241,10 @@
     </row>
     <row r="245" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="52" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="B245" s="37" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="C245" s="37"/>
       <c r="D245" s="38"/>
@@ -9112,15 +9258,15 @@
       <c r="J245" s="38"/>
       <c r="K245" s="38"/>
       <c r="L245" s="38" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
     </row>
     <row r="246" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="52" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="B246" s="37" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="C246" s="37"/>
       <c r="D246" s="38"/>
@@ -9134,15 +9280,15 @@
       <c r="J246" s="38"/>
       <c r="K246" s="38"/>
       <c r="L246" s="38" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
     </row>
     <row r="247" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="52" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="B247" s="18" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="C247" s="37"/>
       <c r="D247" s="4"/>
@@ -9156,12 +9302,12 @@
       <c r="J247" s="4"/>
       <c r="K247" s="4"/>
       <c r="L247" s="38" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
     </row>
     <row r="248" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="52" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="B248" s="18" t="s">
         <v>130</v>
@@ -9181,10 +9327,10 @@
     </row>
     <row r="249" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="52" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="B249" s="18" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="C249" s="37"/>
       <c r="D249" s="4"/>
@@ -9197,14 +9343,16 @@
       <c r="I249" s="4"/>
       <c r="J249" s="4"/>
       <c r="K249" s="4"/>
-      <c r="L249" s="4"/>
+      <c r="L249" s="38" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="250" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="52" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="B250" s="18" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="C250" s="37"/>
       <c r="D250" s="4"/>
@@ -9221,10 +9369,10 @@
     </row>
     <row r="251" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="52" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="B251" s="18" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="C251" s="37"/>
       <c r="D251" s="4"/>
@@ -9241,10 +9389,10 @@
     </row>
     <row r="252" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="52" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="B252" s="18" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="C252" s="37"/>
       <c r="D252" s="4"/>
@@ -9261,10 +9409,10 @@
     </row>
     <row r="253" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="52" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="B253" s="18" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="C253" s="37"/>
       <c r="D253" s="4"/>
@@ -9281,10 +9429,10 @@
     </row>
     <row r="254" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="52" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="B254" s="18" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="C254" s="37"/>
       <c r="D254" s="4"/>
@@ -9301,10 +9449,10 @@
     </row>
     <row r="255" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="52" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="B255" s="18" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="C255" s="37"/>
       <c r="D255" s="4"/>
@@ -9321,10 +9469,10 @@
     </row>
     <row r="256" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="52" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="B256" s="18" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="C256" s="37"/>
       <c r="D256" s="4"/>
@@ -9341,7 +9489,7 @@
     </row>
     <row r="257" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="52" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="B257" s="18" t="s">
         <v>127</v>
@@ -9361,10 +9509,10 @@
     </row>
     <row r="258" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="52" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="B258" s="18" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="C258" s="37"/>
       <c r="D258" s="4"/>
@@ -9381,10 +9529,10 @@
     </row>
     <row r="259" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="52" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="B259" s="18" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="C259" s="37"/>
       <c r="D259" s="4"/>
@@ -9401,10 +9549,10 @@
     </row>
     <row r="260" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="52" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="B260" s="18" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="C260" s="37"/>
       <c r="D260" s="4"/>
@@ -9421,10 +9569,10 @@
     </row>
     <row r="261" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="52" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="B261" s="18" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="C261" s="37"/>
       <c r="D261" s="4"/>
@@ -9441,10 +9589,10 @@
     </row>
     <row r="262" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="52" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="B262" s="18" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="C262" s="37"/>
       <c r="D262" s="4"/>
@@ -9461,10 +9609,10 @@
     </row>
     <row r="263" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="52" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="B263" s="18" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="C263" s="37"/>
       <c r="D263" s="4"/>
@@ -9481,10 +9629,10 @@
     </row>
     <row r="264" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="52" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="B264" s="18" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="C264" s="37"/>
       <c r="D264" s="4"/>
@@ -9501,10 +9649,10 @@
     </row>
     <row r="265" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="52" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="B265" s="18" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="C265" s="37"/>
       <c r="D265" s="4"/>
@@ -9521,10 +9669,10 @@
     </row>
     <row r="266" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="52" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="B266" s="18" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="C266" s="37"/>
       <c r="D266" s="4"/>
@@ -9541,10 +9689,10 @@
     </row>
     <row r="267" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="52" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="B267" s="18" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="C267" s="37"/>
       <c r="D267" s="4"/>
@@ -9561,10 +9709,10 @@
     </row>
     <row r="268" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="52" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="B268" s="18" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="C268" s="37"/>
       <c r="D268" s="4"/>
@@ -9581,10 +9729,10 @@
     </row>
     <row r="269" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="52" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="B269" s="18" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="C269" s="37"/>
       <c r="D269" s="4"/>
@@ -9601,10 +9749,10 @@
     </row>
     <row r="270" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="52" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="B270" s="18" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="C270" s="37"/>
       <c r="D270" s="4"/>
@@ -9634,7 +9782,7 @@
     </row>
     <row r="272" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="8" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="B272" s="21"/>
       <c r="C272" s="21"/>
@@ -9650,7 +9798,7 @@
     </row>
     <row r="273" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="28" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="B273" s="28"/>
       <c r="C273" s="23"/>
@@ -9666,13 +9814,13 @@
     </row>
     <row r="274" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="52" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="B274" s="18" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="C274" s="18" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="D274" s="4"/>
       <c r="E274" s="4" t="s">
@@ -9701,7 +9849,7 @@
     </row>
     <row r="276" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="28" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="B276" s="28"/>
       <c r="C276" s="23"/>
@@ -9717,13 +9865,13 @@
     </row>
     <row r="277" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="52" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="B277" s="18" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="C277" s="18" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="D277" s="4"/>
       <c r="E277" s="4" t="s">
@@ -9752,7 +9900,7 @@
     </row>
     <row r="279" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="28" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="B279" s="23"/>
       <c r="C279" s="23"/>
@@ -9768,13 +9916,13 @@
     </row>
     <row r="280" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="52" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="B280" s="18" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="C280" s="18" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="D280" s="4"/>
       <c r="E280" s="4" t="s">
@@ -9803,7 +9951,7 @@
     </row>
     <row r="282" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="28" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="B282" s="23"/>
       <c r="C282" s="23"/>
@@ -9819,13 +9967,13 @@
     </row>
     <row r="283" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="52" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="B283" s="18" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="C283" s="18" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="D283" s="4"/>
       <c r="E283" s="4" t="s">
@@ -9854,7 +10002,7 @@
     </row>
     <row r="285" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="28" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="B285" s="23"/>
       <c r="C285" s="34"/>
@@ -9867,18 +10015,18 @@
       <c r="J285" s="9"/>
       <c r="K285" s="9"/>
       <c r="L285" s="9" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
     </row>
     <row r="286" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="52" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="B286" s="47" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="C286" s="37" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="D286" s="38" t="s">
         <v>32</v>
@@ -9886,7 +10034,9 @@
       <c r="E286" s="38"/>
       <c r="F286" s="38"/>
       <c r="G286" s="38"/>
-      <c r="H286" s="38"/>
+      <c r="H286" s="38" t="s">
+        <v>6</v>
+      </c>
       <c r="I286" s="38"/>
       <c r="J286" s="4"/>
       <c r="K286" s="4"/>
@@ -9894,13 +10044,13 @@
     </row>
     <row r="287" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="52" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="B287" s="47" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="C287" s="37" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="D287" s="38" t="s">
         <v>32</v>
@@ -9908,7 +10058,9 @@
       <c r="E287" s="39"/>
       <c r="F287" s="38"/>
       <c r="G287" s="38"/>
-      <c r="H287" s="38"/>
+      <c r="H287" s="38" t="s">
+        <v>6</v>
+      </c>
       <c r="I287" s="38"/>
       <c r="J287" s="4"/>
       <c r="K287" s="4"/>
@@ -9916,13 +10068,13 @@
     </row>
     <row r="288" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="52" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="B288" s="47" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="C288" s="37" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="D288" s="38" t="s">
         <v>32</v>
@@ -9930,7 +10082,9 @@
       <c r="E288" s="39"/>
       <c r="F288" s="38"/>
       <c r="G288" s="38"/>
-      <c r="H288" s="38"/>
+      <c r="H288" s="38" t="s">
+        <v>6</v>
+      </c>
       <c r="I288" s="38"/>
       <c r="J288" s="4"/>
       <c r="K288" s="4"/>
@@ -9938,7 +10092,7 @@
     </row>
     <row r="289" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="52" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="B289" s="47" t="s">
         <v>250</v>
@@ -9952,7 +10106,9 @@
       <c r="E289" s="39"/>
       <c r="F289" s="38"/>
       <c r="G289" s="38"/>
-      <c r="H289" s="38"/>
+      <c r="H289" s="38" t="s">
+        <v>6</v>
+      </c>
       <c r="I289" s="38"/>
       <c r="J289" s="4"/>
       <c r="K289" s="4"/>
@@ -9973,7 +10129,7 @@
     </row>
     <row r="291" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="28" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="B291" s="23"/>
       <c r="C291" s="34"/>
@@ -9989,13 +10145,13 @@
     </row>
     <row r="292" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="52" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="B292" s="47" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="C292" s="37" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="D292" s="38" t="s">
         <v>32</v>
@@ -10005,7 +10161,9 @@
         <v>32</v>
       </c>
       <c r="G292" s="38"/>
-      <c r="H292" s="38"/>
+      <c r="H292" s="38" t="s">
+        <v>6</v>
+      </c>
       <c r="I292" s="38"/>
       <c r="J292" s="4"/>
       <c r="K292" s="4"/>
@@ -10013,10 +10171,10 @@
     </row>
     <row r="293" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="52" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="B293" s="47" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="C293" s="37" t="s">
         <v>301</v>
@@ -10027,7 +10185,9 @@
       <c r="E293" s="38"/>
       <c r="F293" s="39"/>
       <c r="G293" s="38"/>
-      <c r="H293" s="38"/>
+      <c r="H293" s="38" t="s">
+        <v>6</v>
+      </c>
       <c r="I293" s="38"/>
       <c r="J293" s="4"/>
       <c r="K293" s="4"/>
@@ -10035,13 +10195,13 @@
     </row>
     <row r="294" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="52" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="B294" s="47" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="C294" s="37" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="D294" s="38"/>
       <c r="E294" s="38"/>
@@ -10057,13 +10217,13 @@
     </row>
     <row r="295" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="52" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="B295" s="47" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="C295" s="37" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="D295" s="38"/>
       <c r="E295" s="38"/>
@@ -10079,13 +10239,13 @@
     </row>
     <row r="296" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="52" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="B296" s="47" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="C296" s="37" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="D296" s="38"/>
       <c r="E296" s="38"/>
@@ -10101,13 +10261,13 @@
     </row>
     <row r="297" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="73" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="B297" s="74" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="C297" s="56" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="D297" s="57"/>
       <c r="E297" s="57"/>
@@ -10123,13 +10283,13 @@
     </row>
     <row r="298" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="52" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="B298" s="37" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="C298" s="37" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="D298" s="38"/>
       <c r="E298" s="38"/>
@@ -10145,13 +10305,13 @@
     </row>
     <row r="299" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="52" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="B299" s="37" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="C299" s="37" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="D299" s="38"/>
       <c r="E299" s="38"/>
@@ -10181,7 +10341,7 @@
     </row>
     <row r="301" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="33" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="B301" s="34"/>
       <c r="C301" s="34"/>
@@ -10197,13 +10357,13 @@
     </row>
     <row r="302" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="52" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="B302" s="37" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="C302" s="37" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="D302" s="38" t="s">
         <v>32</v>
@@ -10213,7 +10373,9 @@
         <v>32</v>
       </c>
       <c r="G302" s="38"/>
-      <c r="H302" s="38"/>
+      <c r="H302" s="38" t="s">
+        <v>6</v>
+      </c>
       <c r="I302" s="38"/>
       <c r="J302" s="38"/>
       <c r="K302" s="38"/>
@@ -10221,7 +10383,7 @@
     </row>
     <row r="303" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="52" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="B303" s="37" t="s">
         <v>234</v>
@@ -10233,7 +10395,9 @@
       <c r="E303" s="38"/>
       <c r="F303" s="39"/>
       <c r="G303" s="38"/>
-      <c r="H303" s="38"/>
+      <c r="H303" s="38" t="s">
+        <v>6</v>
+      </c>
       <c r="I303" s="38"/>
       <c r="J303" s="38"/>
       <c r="K303" s="38"/>
@@ -10241,13 +10405,13 @@
     </row>
     <row r="304" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="52" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="B304" s="37" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="C304" s="37" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="D304" s="38"/>
       <c r="E304" s="38"/>
@@ -10263,13 +10427,13 @@
     </row>
     <row r="305" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="52" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="B305" s="37" t="s">
         <v>271</v>
       </c>
       <c r="C305" s="52" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="D305" s="38"/>
       <c r="E305" s="38"/>
@@ -10285,13 +10449,13 @@
     </row>
     <row r="306" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="52" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="B306" s="37" t="s">
         <v>217</v>
       </c>
       <c r="C306" s="52" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="D306" s="39"/>
       <c r="E306" s="39"/>
@@ -10307,13 +10471,13 @@
     </row>
     <row r="307" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="52" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="B307" s="37" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="C307" s="52" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="D307" s="38"/>
       <c r="E307" s="38"/>
@@ -10342,7 +10506,7 @@
     </row>
     <row r="309" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="28" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="B309" s="23"/>
       <c r="C309" s="23"/>
@@ -10358,13 +10522,13 @@
     </row>
     <row r="310" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="52" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="B310" s="18" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="C310" s="18" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="D310" s="4" t="s">
         <v>32</v>
@@ -10372,7 +10536,9 @@
       <c r="E310" s="4"/>
       <c r="F310" s="4"/>
       <c r="G310" s="4"/>
-      <c r="H310" s="4"/>
+      <c r="H310" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="I310" s="4"/>
       <c r="J310" s="4"/>
       <c r="K310" s="4"/>
@@ -10380,7 +10546,7 @@
     </row>
     <row r="311" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="52" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="B311" s="18" t="s">
         <v>234</v>
@@ -10394,7 +10560,9 @@
       <c r="E311" s="4"/>
       <c r="F311" s="4"/>
       <c r="G311" s="4"/>
-      <c r="H311" s="4"/>
+      <c r="H311" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="I311" s="4"/>
       <c r="J311" s="4"/>
       <c r="K311" s="4"/>
@@ -10415,7 +10583,7 @@
     </row>
     <row r="313" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="33" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="B313" s="34"/>
       <c r="C313" s="34"/>
@@ -10431,13 +10599,13 @@
     </row>
     <row r="314" spans="1:12" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="52" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="B314" s="37" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="C314" s="37" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="D314" s="38" t="s">
         <v>32</v>
@@ -10447,7 +10615,9 @@
       </c>
       <c r="F314" s="38"/>
       <c r="G314" s="38"/>
-      <c r="H314" s="38"/>
+      <c r="H314" s="38" t="s">
+        <v>6</v>
+      </c>
       <c r="I314" s="38"/>
       <c r="J314" s="38"/>
       <c r="K314" s="38"/>
@@ -10455,10 +10625,10 @@
     </row>
     <row r="315" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="52" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="B315" s="37" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="C315" s="37" t="s">
         <v>186</v>
@@ -10477,13 +10647,13 @@
     </row>
     <row r="316" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="52" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="B316" s="37" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="C316" s="37" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="D316" s="38"/>
       <c r="E316" s="38" t="s">
@@ -10499,7 +10669,7 @@
     </row>
     <row r="317" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="52" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="B317" s="37" t="s">
         <v>250</v>
@@ -10515,7 +10685,9 @@
       </c>
       <c r="F317" s="38"/>
       <c r="G317" s="38"/>
-      <c r="H317" s="38"/>
+      <c r="H317" s="38" t="s">
+        <v>6</v>
+      </c>
       <c r="I317" s="38"/>
       <c r="J317" s="38"/>
       <c r="K317" s="38"/>
@@ -10536,7 +10708,7 @@
     </row>
     <row r="319" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="63" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="B319" s="62"/>
       <c r="C319" s="41"/>
@@ -10552,13 +10724,13 @@
     </row>
     <row r="320" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="52" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="B320" s="37" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="C320" s="37" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="D320" s="38" t="s">
         <v>32</v>
@@ -10566,7 +10738,9 @@
       <c r="E320" s="38"/>
       <c r="F320" s="38"/>
       <c r="G320" s="38"/>
-      <c r="H320" s="38"/>
+      <c r="H320" s="38" t="s">
+        <v>6</v>
+      </c>
       <c r="I320" s="38"/>
       <c r="J320" s="38"/>
       <c r="K320" s="38"/>
@@ -10574,7 +10748,7 @@
     </row>
     <row r="321" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="52" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="B321" s="37" t="s">
         <v>250</v>
@@ -10588,7 +10762,9 @@
       <c r="E321" s="38"/>
       <c r="F321" s="38"/>
       <c r="G321" s="38"/>
-      <c r="H321" s="38"/>
+      <c r="H321" s="38" t="s">
+        <v>6</v>
+      </c>
       <c r="I321" s="38"/>
       <c r="J321" s="38"/>
       <c r="K321" s="38"/>
@@ -10609,7 +10785,7 @@
     </row>
     <row r="323" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="69" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="B323" s="70"/>
       <c r="C323" s="70"/>
@@ -10625,13 +10801,13 @@
     </row>
     <row r="324" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="52" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="B324" s="37" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="C324" s="37" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="D324" s="38" t="s">
         <v>32</v>
@@ -10641,15 +10817,19 @@
       </c>
       <c r="F324" s="38"/>
       <c r="G324" s="38"/>
-      <c r="H324" s="38"/>
-      <c r="I324" s="38"/>
+      <c r="H324" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="I324" s="38" t="s">
+        <v>588</v>
+      </c>
       <c r="J324" s="38"/>
       <c r="K324" s="38"/>
       <c r="L324" s="38"/>
     </row>
     <row r="325" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="52" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="B325" s="37" t="s">
         <v>250</v>
@@ -10663,7 +10843,9 @@
       <c r="E325" s="38"/>
       <c r="F325" s="38"/>
       <c r="G325" s="38"/>
-      <c r="H325" s="38"/>
+      <c r="H325" s="38" t="s">
+        <v>6</v>
+      </c>
       <c r="I325" s="38"/>
       <c r="J325" s="38"/>
       <c r="K325" s="38"/>
@@ -10671,13 +10853,13 @@
     </row>
     <row r="326" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="52" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="B326" s="52" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="C326" s="37" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="D326" s="38"/>
       <c r="E326" s="38" t="s">
@@ -10693,13 +10875,13 @@
     </row>
     <row r="327" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="52" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="B327" s="52" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="C327" s="37" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="D327" s="38"/>
       <c r="E327" s="38" t="s">
@@ -10715,13 +10897,13 @@
     </row>
     <row r="328" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="52" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="B328" s="52" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="C328" s="37" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="D328" s="38"/>
       <c r="E328" s="38" t="s">
@@ -10737,13 +10919,13 @@
     </row>
     <row r="329" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="52" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="B329" s="52" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="C329" s="37" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="D329" s="38"/>
       <c r="E329" s="38" t="s">
@@ -10759,13 +10941,13 @@
     </row>
     <row r="330" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="52" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="B330" s="52" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="C330" s="37" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="D330" s="38"/>
       <c r="E330" s="38" t="s">
@@ -10781,13 +10963,13 @@
     </row>
     <row r="331" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="52" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="B331" s="52" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="C331" s="37" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="D331" s="38"/>
       <c r="E331" s="38" t="s">
@@ -10803,13 +10985,13 @@
     </row>
     <row r="332" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="52" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="B332" s="52" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="C332" s="37" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="D332" s="38"/>
       <c r="E332" s="38" t="s">
@@ -10825,13 +11007,13 @@
     </row>
     <row r="333" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="52" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="B333" s="52" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="C333" s="37" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="D333" s="38"/>
       <c r="E333" s="38" t="s">
@@ -10847,13 +11029,13 @@
     </row>
     <row r="334" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="52" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="B334" s="52" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="C334" s="37" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="D334" s="38"/>
       <c r="E334" s="38" t="s">
@@ -10869,13 +11051,13 @@
     </row>
     <row r="335" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="52" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="B335" s="52" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="C335" s="37" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="D335" s="38"/>
       <c r="E335" s="38" t="s">
@@ -10900,7 +11082,7 @@
     </row>
     <row r="337" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="72" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="B337" s="34"/>
       <c r="C337" s="34"/>
@@ -10917,13 +11099,13 @@
     </row>
     <row r="338" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="52" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="B338" s="37" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="C338" s="37" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="D338" s="38" t="s">
         <v>32</v>
@@ -10933,7 +11115,9 @@
       </c>
       <c r="F338" s="38"/>
       <c r="G338" s="38"/>
-      <c r="H338" s="38"/>
+      <c r="H338" s="38" t="s">
+        <v>6</v>
+      </c>
       <c r="I338" s="38"/>
       <c r="J338" s="38"/>
       <c r="K338" s="38"/>
@@ -10942,7 +11126,7 @@
     </row>
     <row r="339" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="52" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="B339" s="37" t="s">
         <v>234</v>
@@ -10956,7 +11140,9 @@
       <c r="E339" s="39"/>
       <c r="F339" s="38"/>
       <c r="G339" s="38"/>
-      <c r="H339" s="38"/>
+      <c r="H339" s="38" t="s">
+        <v>6</v>
+      </c>
       <c r="I339" s="38"/>
       <c r="J339" s="38"/>
       <c r="K339" s="38"/>
@@ -10965,13 +11151,13 @@
     </row>
     <row r="340" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="52" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="B340" s="37" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="C340" s="37" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="D340" s="38"/>
       <c r="E340" s="38" t="s">
@@ -10988,13 +11174,13 @@
     </row>
     <row r="341" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="52" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="B341" s="37" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="C341" s="37" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="D341" s="38"/>
       <c r="E341" s="38" t="s">
@@ -11025,7 +11211,7 @@
     </row>
     <row r="343" spans="1:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="41" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="B343" s="41"/>
       <c r="C343" s="41"/>
@@ -11042,13 +11228,13 @@
     </row>
     <row r="344" spans="1:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="52" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
       <c r="B344" s="37" t="s">
-        <v>628</v>
+        <v>633</v>
       </c>
       <c r="C344" s="37" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="D344" s="38" t="s">
         <v>32</v>
@@ -11056,8 +11242,12 @@
       <c r="E344" s="38"/>
       <c r="F344" s="38"/>
       <c r="G344" s="38"/>
-      <c r="H344" s="38"/>
-      <c r="I344" s="38"/>
+      <c r="H344" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="I344" s="38" t="s">
+        <v>635</v>
+      </c>
       <c r="J344" s="38"/>
       <c r="K344" s="38"/>
       <c r="L344" s="38"/>
@@ -11079,7 +11269,7 @@
     </row>
     <row r="346" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="40" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
       <c r="B346" s="41"/>
       <c r="C346" s="41"/>
@@ -11092,19 +11282,19 @@
       <c r="J346" s="42"/>
       <c r="K346" s="42"/>
       <c r="L346" s="42" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="M346" s="75"/>
     </row>
     <row r="347" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="52" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="B347" s="37" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="C347" s="37" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D347" s="38" t="s">
         <v>32</v>
@@ -11112,7 +11302,9 @@
       <c r="E347" s="39"/>
       <c r="F347" s="38"/>
       <c r="G347" s="38"/>
-      <c r="H347" s="38"/>
+      <c r="H347" s="38" t="s">
+        <v>6</v>
+      </c>
       <c r="I347" s="38"/>
       <c r="J347" s="38"/>
       <c r="K347" s="38"/>
@@ -11121,7 +11313,7 @@
     </row>
     <row r="348" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="52" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
       <c r="B348" s="37" t="s">
         <v>250</v>
@@ -11135,7 +11327,9 @@
       <c r="E348" s="38"/>
       <c r="F348" s="39"/>
       <c r="G348" s="38"/>
-      <c r="H348" s="38"/>
+      <c r="H348" s="38" t="s">
+        <v>6</v>
+      </c>
       <c r="I348" s="38"/>
       <c r="J348" s="38"/>
       <c r="K348" s="38"/>
@@ -11157,7 +11351,7 @@
     </row>
     <row r="350" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="28" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="B350" s="23"/>
       <c r="C350" s="23"/>
@@ -11174,13 +11368,13 @@
     </row>
     <row r="351" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="52" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="B351" s="18" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="C351" s="18" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
       <c r="D351" s="4" t="s">
         <v>32</v>
@@ -11190,7 +11384,9 @@
         <v>32</v>
       </c>
       <c r="G351" s="4"/>
-      <c r="H351" s="4"/>
+      <c r="H351" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="I351" s="4"/>
       <c r="J351" s="4"/>
       <c r="K351" s="4"/>
@@ -11199,7 +11395,7 @@
     </row>
     <row r="352" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="52" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
       <c r="B352" s="47" t="s">
         <v>250</v>
@@ -11213,7 +11409,9 @@
       <c r="E352" s="4"/>
       <c r="F352" s="4"/>
       <c r="G352" s="4"/>
-      <c r="H352" s="4"/>
+      <c r="H352" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="I352" s="4"/>
       <c r="J352" s="4"/>
       <c r="K352" s="4"/>
@@ -11222,13 +11420,13 @@
     </row>
     <row r="353" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="52" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="B353" s="18" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="C353" s="18" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="D353" s="4"/>
       <c r="E353" s="4"/>
@@ -11245,13 +11443,13 @@
     </row>
     <row r="354" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="52" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="B354" s="18" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="C354" s="18" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="D354" s="4"/>
       <c r="E354" s="4"/>
@@ -11268,13 +11466,13 @@
     </row>
     <row r="355" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="52" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="B355" s="18" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="C355" s="18" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
       <c r="D355" s="4"/>
       <c r="E355" s="4"/>
@@ -11291,13 +11489,13 @@
     </row>
     <row r="356" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="52" t="s">
-        <v>645</v>
+        <v>651</v>
       </c>
       <c r="B356" s="18" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="C356" s="18" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
       <c r="D356" s="4"/>
       <c r="E356" s="4"/>
@@ -11314,13 +11512,13 @@
     </row>
     <row r="357" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="52" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
       <c r="B357" s="18" t="s">
-        <v>649</v>
+        <v>655</v>
       </c>
       <c r="C357" s="18" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
       <c r="D357" s="4"/>
       <c r="E357" s="4"/>
@@ -11337,13 +11535,13 @@
     </row>
     <row r="358" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="52" t="s">
-        <v>651</v>
+        <v>657</v>
       </c>
       <c r="B358" s="18" t="s">
-        <v>652</v>
+        <v>658</v>
       </c>
       <c r="C358" s="18" t="s">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="D358" s="4"/>
       <c r="E358" s="4"/>
@@ -11374,7 +11572,7 @@
     </row>
     <row r="360" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="28" t="s">
-        <v>654</v>
+        <v>660</v>
       </c>
       <c r="B360" s="23"/>
       <c r="C360" s="23"/>
@@ -11391,13 +11589,13 @@
     </row>
     <row r="361" spans="1:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="73" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="B361" s="48" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
       <c r="C361" s="48" t="s">
-        <v>657</v>
+        <v>663</v>
       </c>
       <c r="D361" s="49" t="s">
         <v>32</v>
@@ -11405,7 +11603,9 @@
       <c r="E361" s="49"/>
       <c r="F361" s="49"/>
       <c r="G361" s="49"/>
-      <c r="H361" s="49"/>
+      <c r="H361" s="49" t="s">
+        <v>6</v>
+      </c>
       <c r="I361" s="49"/>
       <c r="J361" s="49"/>
       <c r="K361" s="49"/>
@@ -11414,13 +11614,13 @@
     </row>
     <row r="362" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="52" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
       <c r="B362" s="37" t="s">
-        <v>659</v>
+        <v>665</v>
       </c>
       <c r="C362" s="37" t="s">
-        <v>660</v>
+        <v>666</v>
       </c>
       <c r="D362" s="38"/>
       <c r="E362" s="38"/>
@@ -11437,13 +11637,13 @@
     </row>
     <row r="363" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="52" t="s">
-        <v>661</v>
+        <v>667</v>
       </c>
       <c r="B363" s="37" t="s">
-        <v>662</v>
+        <v>668</v>
       </c>
       <c r="C363" s="37" t="s">
-        <v>663</v>
+        <v>669</v>
       </c>
       <c r="D363" s="38"/>
       <c r="E363" s="38"/>
@@ -11460,13 +11660,13 @@
     </row>
     <row r="364" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="52" t="s">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="B364" s="37" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="C364" s="37" t="s">
-        <v>666</v>
+        <v>672</v>
       </c>
       <c r="D364" s="38"/>
       <c r="E364" s="38"/>
@@ -11483,13 +11683,13 @@
     </row>
     <row r="365" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="52" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="B365" s="37" t="s">
-        <v>668</v>
+        <v>674</v>
       </c>
       <c r="C365" s="37" t="s">
-        <v>669</v>
+        <v>675</v>
       </c>
       <c r="D365" s="38"/>
       <c r="E365" s="38"/>
@@ -11506,13 +11706,13 @@
     </row>
     <row r="366" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="52" t="s">
-        <v>670</v>
+        <v>676</v>
       </c>
       <c r="B366" s="37" t="s">
-        <v>671</v>
+        <v>677</v>
       </c>
       <c r="C366" s="37" t="s">
-        <v>672</v>
+        <v>678</v>
       </c>
       <c r="D366" s="38"/>
       <c r="E366" s="38"/>
@@ -11544,7 +11744,7 @@
     </row>
     <row r="368" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="40" t="s">
-        <v>673</v>
+        <v>679</v>
       </c>
       <c r="B368" s="41"/>
       <c r="C368" s="41"/>
@@ -11561,13 +11761,13 @@
     </row>
     <row r="369" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="52" t="s">
-        <v>674</v>
+        <v>680</v>
       </c>
       <c r="B369" s="37" t="s">
-        <v>675</v>
+        <v>681</v>
       </c>
       <c r="C369" s="37" t="s">
-        <v>676</v>
+        <v>682</v>
       </c>
       <c r="D369" s="38" t="s">
         <v>32</v>
@@ -11575,13 +11775,15 @@
       <c r="E369" s="38"/>
       <c r="F369" s="38"/>
       <c r="G369" s="38"/>
-      <c r="H369" s="38"/>
-      <c r="I369" s="38"/>
+      <c r="H369" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="I369" s="38" t="s">
+        <v>683</v>
+      </c>
       <c r="J369" s="38"/>
       <c r="K369" s="38"/>
-      <c r="L369" s="38" t="s">
-        <v>677</v>
-      </c>
+      <c r="L369" s="38"/>
       <c r="M369" s="75"/>
     </row>
     <row r="370" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11601,7 +11803,7 @@
     </row>
     <row r="371" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="40" t="s">
-        <v>678</v>
+        <v>684</v>
       </c>
       <c r="B371" s="41"/>
       <c r="C371" s="41"/>
@@ -11614,19 +11816,19 @@
       <c r="J371" s="42"/>
       <c r="K371" s="42"/>
       <c r="L371" s="42" t="s">
-        <v>679</v>
+        <v>685</v>
       </c>
       <c r="M371" s="75"/>
     </row>
     <row r="372" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="52" t="s">
-        <v>680</v>
+        <v>686</v>
       </c>
       <c r="B372" s="37" t="s">
-        <v>681</v>
+        <v>687</v>
       </c>
       <c r="C372" s="37" t="s">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="D372" s="38" t="s">
         <v>32</v>
@@ -11634,7 +11836,9 @@
       <c r="E372" s="38"/>
       <c r="F372" s="38"/>
       <c r="G372" s="38"/>
-      <c r="H372" s="38"/>
+      <c r="H372" s="38" t="s">
+        <v>6</v>
+      </c>
       <c r="I372" s="38"/>
       <c r="J372" s="38"/>
       <c r="K372" s="38"/>
@@ -11643,10 +11847,10 @@
     </row>
     <row r="373" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="52" t="s">
-        <v>683</v>
+        <v>689</v>
       </c>
       <c r="B373" s="37" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="C373" s="37"/>
       <c r="D373" s="38" t="s">
@@ -11655,7 +11859,9 @@
       <c r="E373" s="38"/>
       <c r="F373" s="38"/>
       <c r="G373" s="39"/>
-      <c r="H373" s="38"/>
+      <c r="H373" s="38" t="s">
+        <v>6</v>
+      </c>
       <c r="I373" s="38"/>
       <c r="J373" s="38"/>
       <c r="K373" s="38"/>
@@ -11679,7 +11885,7 @@
     </row>
     <row r="375" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="76" t="s">
-        <v>684</v>
+        <v>690</v>
       </c>
       <c r="B375" s="76"/>
       <c r="C375" s="76"/>
@@ -11696,13 +11902,13 @@
     </row>
     <row r="376" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="78" t="s">
-        <v>685</v>
+        <v>691</v>
       </c>
       <c r="B376" s="79" t="s">
-        <v>686</v>
+        <v>692</v>
       </c>
       <c r="C376" s="67" t="s">
-        <v>687</v>
+        <v>693</v>
       </c>
       <c r="D376" s="80" t="s">
         <v>32</v>
@@ -11710,7 +11916,9 @@
       <c r="E376" s="80"/>
       <c r="F376" s="80"/>
       <c r="G376" s="80"/>
-      <c r="H376" s="80"/>
+      <c r="H376" s="80" t="s">
+        <v>6</v>
+      </c>
       <c r="I376" s="80"/>
       <c r="J376" s="80"/>
       <c r="K376" s="80"/>
@@ -11719,13 +11927,13 @@
     </row>
     <row r="377" spans="1:13" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="78" t="s">
-        <v>688</v>
+        <v>694</v>
       </c>
       <c r="B377" s="79" t="s">
-        <v>689</v>
+        <v>695</v>
       </c>
       <c r="C377" s="67" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="D377" s="80" t="s">
         <v>32</v>
@@ -11733,7 +11941,9 @@
       <c r="E377" s="80"/>
       <c r="F377" s="80"/>
       <c r="G377" s="80"/>
-      <c r="H377" s="80"/>
+      <c r="H377" s="80" t="s">
+        <v>6</v>
+      </c>
       <c r="I377" s="80"/>
       <c r="J377" s="80"/>
       <c r="K377" s="80"/>
@@ -11742,13 +11952,13 @@
     </row>
     <row r="378" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="78" t="s">
-        <v>691</v>
+        <v>697</v>
       </c>
       <c r="B378" s="79" t="s">
-        <v>692</v>
+        <v>698</v>
       </c>
       <c r="C378" s="67" t="s">
-        <v>693</v>
+        <v>699</v>
       </c>
       <c r="D378" s="80" t="s">
         <v>32</v>
@@ -11756,7 +11966,9 @@
       <c r="E378" s="80"/>
       <c r="F378" s="80"/>
       <c r="G378" s="80"/>
-      <c r="H378" s="80"/>
+      <c r="H378" s="80" t="s">
+        <v>6</v>
+      </c>
       <c r="I378" s="80"/>
       <c r="J378" s="80"/>
       <c r="K378" s="80"/>
@@ -11765,13 +11977,13 @@
     </row>
     <row r="379" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="78" t="s">
-        <v>694</v>
+        <v>700</v>
       </c>
       <c r="B379" s="79" t="s">
-        <v>695</v>
+        <v>701</v>
       </c>
       <c r="C379" s="67" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="D379" s="80" t="s">
         <v>32</v>
@@ -11779,7 +11991,9 @@
       <c r="E379" s="80"/>
       <c r="F379" s="80"/>
       <c r="G379" s="80"/>
-      <c r="H379" s="80"/>
+      <c r="H379" s="80" t="s">
+        <v>6</v>
+      </c>
       <c r="I379" s="80"/>
       <c r="J379" s="80"/>
       <c r="K379" s="80"/>
@@ -11788,13 +12002,13 @@
     </row>
     <row r="380" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="78" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="B380" s="79" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
       <c r="C380" s="67" t="s">
-        <v>699</v>
+        <v>705</v>
       </c>
       <c r="D380" s="80" t="s">
         <v>32</v>
@@ -11802,7 +12016,9 @@
       <c r="E380" s="80"/>
       <c r="F380" s="80"/>
       <c r="G380" s="80"/>
-      <c r="H380" s="80"/>
+      <c r="H380" s="80" t="s">
+        <v>6</v>
+      </c>
       <c r="I380" s="80"/>
       <c r="J380" s="80"/>
       <c r="K380" s="80"/>
@@ -11826,7 +12042,7 @@
     </row>
     <row r="382" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="82" t="s">
-        <v>700</v>
+        <v>706</v>
       </c>
       <c r="B382" s="82"/>
       <c r="C382" s="82"/>
@@ -11843,13 +12059,13 @@
     </row>
     <row r="383" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A383" s="89" t="s">
-        <v>701</v>
+        <v>707</v>
       </c>
       <c r="B383" s="90" t="s">
-        <v>702</v>
+        <v>708</v>
       </c>
       <c r="C383" s="91" t="s">
-        <v>703</v>
+        <v>709</v>
       </c>
       <c r="D383" s="99"/>
       <c r="E383" s="99"/>
@@ -11866,13 +12082,13 @@
     </row>
     <row r="384" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A384" s="89" t="s">
-        <v>704</v>
+        <v>710</v>
       </c>
       <c r="B384" s="90" t="s">
-        <v>705</v>
+        <v>711</v>
       </c>
       <c r="C384" s="91" t="s">
-        <v>706</v>
+        <v>712</v>
       </c>
       <c r="D384" s="80"/>
       <c r="E384" s="99"/>
@@ -11889,13 +12105,13 @@
     </row>
     <row r="385" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A385" s="89" t="s">
-        <v>707</v>
+        <v>713</v>
       </c>
       <c r="B385" s="90" t="s">
-        <v>708</v>
+        <v>714</v>
       </c>
       <c r="C385" s="91" t="s">
-        <v>709</v>
+        <v>715</v>
       </c>
       <c r="D385" s="80"/>
       <c r="E385" s="99"/>
@@ -11912,13 +12128,13 @@
     </row>
     <row r="386" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A386" s="89" t="s">
-        <v>710</v>
+        <v>716</v>
       </c>
       <c r="B386" s="90" t="s">
-        <v>711</v>
+        <v>717</v>
       </c>
       <c r="C386" s="91" t="s">
-        <v>712</v>
+        <v>718</v>
       </c>
       <c r="D386" s="80"/>
       <c r="E386" s="99"/>
@@ -11935,13 +12151,13 @@
     </row>
     <row r="387" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A387" s="89" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
       <c r="B387" s="90" t="s">
-        <v>714</v>
+        <v>720</v>
       </c>
       <c r="C387" s="91" t="s">
-        <v>715</v>
+        <v>721</v>
       </c>
       <c r="D387" s="80"/>
       <c r="E387" s="99"/>
@@ -11958,13 +12174,13 @@
     </row>
     <row r="388" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A388" s="89" t="s">
-        <v>716</v>
+        <v>722</v>
       </c>
       <c r="B388" s="90" t="s">
-        <v>717</v>
+        <v>723</v>
       </c>
       <c r="C388" s="91" t="s">
-        <v>718</v>
+        <v>724</v>
       </c>
       <c r="D388" s="80"/>
       <c r="E388" s="99"/>
@@ -11981,13 +12197,13 @@
     </row>
     <row r="389" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A389" s="89" t="s">
-        <v>719</v>
+        <v>725</v>
       </c>
       <c r="B389" s="90" t="s">
-        <v>720</v>
+        <v>726</v>
       </c>
       <c r="C389" s="91" t="s">
-        <v>721</v>
+        <v>727</v>
       </c>
       <c r="D389" s="80"/>
       <c r="E389" s="99"/>
@@ -12004,13 +12220,13 @@
     </row>
     <row r="390" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A390" s="89" t="s">
-        <v>722</v>
+        <v>728</v>
       </c>
       <c r="B390" s="90" t="s">
-        <v>723</v>
+        <v>729</v>
       </c>
       <c r="C390" s="91" t="s">
-        <v>724</v>
+        <v>730</v>
       </c>
       <c r="D390" s="80"/>
       <c r="E390" s="99"/>
@@ -12027,13 +12243,13 @@
     </row>
     <row r="391" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A391" s="89" t="s">
-        <v>725</v>
+        <v>731</v>
       </c>
       <c r="B391" s="90" t="s">
-        <v>726</v>
+        <v>732</v>
       </c>
       <c r="C391" s="91" t="s">
-        <v>727</v>
+        <v>733</v>
       </c>
       <c r="D391" s="80"/>
       <c r="E391" s="99"/>
@@ -12050,13 +12266,13 @@
     </row>
     <row r="392" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A392" s="89" t="s">
-        <v>728</v>
+        <v>734</v>
       </c>
       <c r="B392" s="90" t="s">
-        <v>729</v>
+        <v>735</v>
       </c>
       <c r="C392" s="91" t="s">
-        <v>730</v>
+        <v>736</v>
       </c>
       <c r="D392" s="80"/>
       <c r="E392" s="99"/>
@@ -12073,13 +12289,13 @@
     </row>
     <row r="393" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A393" s="89" t="s">
-        <v>731</v>
+        <v>737</v>
       </c>
       <c r="B393" s="90" t="s">
-        <v>732</v>
+        <v>738</v>
       </c>
       <c r="C393" s="91" t="s">
-        <v>733</v>
+        <v>739</v>
       </c>
       <c r="D393" s="80"/>
       <c r="E393" s="99"/>
@@ -12110,10 +12326,10 @@
       <c r="M394" s="75"/>
     </row>
     <row r="395" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A395" s="123" t="s">
-        <v>734</v>
-      </c>
-      <c r="B395" s="124"/>
+      <c r="A395" s="125" t="s">
+        <v>740</v>
+      </c>
+      <c r="B395" s="126"/>
       <c r="C395" s="115"/>
       <c r="D395" s="83"/>
       <c r="E395" s="83"/>
@@ -12128,13 +12344,13 @@
     </row>
     <row r="396" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="89" t="s">
-        <v>735</v>
+        <v>741</v>
       </c>
       <c r="B396" s="90" t="s">
-        <v>736</v>
+        <v>742</v>
       </c>
       <c r="C396" s="91" t="s">
-        <v>737</v>
+        <v>743</v>
       </c>
       <c r="D396" s="88" t="s">
         <v>32</v>
@@ -12144,7 +12360,9 @@
         <v>32</v>
       </c>
       <c r="G396" s="80"/>
-      <c r="H396" s="80"/>
+      <c r="H396" s="80" t="s">
+        <v>6</v>
+      </c>
       <c r="I396" s="80"/>
       <c r="J396" s="80"/>
       <c r="K396" s="80"/>
@@ -12153,7 +12371,7 @@
     </row>
     <row r="397" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="89" t="s">
-        <v>738</v>
+        <v>744</v>
       </c>
       <c r="B397" s="90" t="s">
         <v>234</v>
@@ -12167,7 +12385,9 @@
       <c r="E397" s="80"/>
       <c r="F397" s="80"/>
       <c r="G397" s="80"/>
-      <c r="H397" s="80"/>
+      <c r="H397" s="80" t="s">
+        <v>6</v>
+      </c>
       <c r="I397" s="80"/>
       <c r="J397" s="80"/>
       <c r="K397" s="80"/>
@@ -12176,13 +12396,13 @@
     </row>
     <row r="398" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="89" t="s">
-        <v>739</v>
+        <v>745</v>
       </c>
       <c r="B398" s="90" t="s">
-        <v>740</v>
+        <v>746</v>
       </c>
       <c r="C398" s="91" t="s">
-        <v>741</v>
+        <v>747</v>
       </c>
       <c r="D398" s="80"/>
       <c r="E398" s="80"/>
@@ -12199,13 +12419,13 @@
     </row>
     <row r="399" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="89" t="s">
-        <v>742</v>
+        <v>748</v>
       </c>
       <c r="B399" s="90" t="s">
-        <v>743</v>
+        <v>749</v>
       </c>
       <c r="C399" s="91" t="s">
-        <v>744</v>
+        <v>750</v>
       </c>
       <c r="D399" s="80"/>
       <c r="E399" s="80"/>
@@ -12222,13 +12442,13 @@
     </row>
     <row r="400" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="89" t="s">
-        <v>745</v>
+        <v>751</v>
       </c>
       <c r="B400" s="90" t="s">
-        <v>746</v>
+        <v>752</v>
       </c>
       <c r="C400" s="91" t="s">
-        <v>747</v>
+        <v>753</v>
       </c>
       <c r="D400" s="80"/>
       <c r="E400" s="80"/>
@@ -12245,13 +12465,13 @@
     </row>
     <row r="401" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="89" t="s">
-        <v>748</v>
+        <v>754</v>
       </c>
       <c r="B401" s="90" t="s">
         <v>271</v>
       </c>
       <c r="C401" s="91" t="s">
-        <v>749</v>
+        <v>755</v>
       </c>
       <c r="D401" s="80"/>
       <c r="E401" s="80"/>
@@ -12283,7 +12503,7 @@
     </row>
     <row r="403" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="93" t="s">
-        <v>750</v>
+        <v>756</v>
       </c>
       <c r="B403" s="93"/>
       <c r="C403" s="93"/>
@@ -12299,10 +12519,10 @@
       <c r="M403" s="75"/>
     </row>
     <row r="404" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A404" s="120" t="s">
-        <v>751</v>
-      </c>
-      <c r="B404" s="121"/>
+      <c r="A404" s="123" t="s">
+        <v>757</v>
+      </c>
+      <c r="B404" s="124"/>
       <c r="C404" s="94"/>
       <c r="D404" s="85"/>
       <c r="E404" s="85"/>
@@ -12317,7 +12537,7 @@
     </row>
     <row r="405" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="33" t="s">
-        <v>752</v>
+        <v>758</v>
       </c>
       <c r="B405" s="34"/>
       <c r="C405" s="34"/>
@@ -12334,13 +12554,13 @@
     </row>
     <row r="406" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="95" t="s">
-        <v>753</v>
+        <v>759</v>
       </c>
       <c r="B406" s="96" t="s">
-        <v>754</v>
+        <v>760</v>
       </c>
       <c r="C406" s="97" t="s">
-        <v>755</v>
+        <v>761</v>
       </c>
       <c r="D406" s="86" t="s">
         <v>32</v>
@@ -12359,10 +12579,10 @@
     </row>
     <row r="407" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="95" t="s">
-        <v>756</v>
+        <v>762</v>
       </c>
       <c r="B407" s="96" t="s">
-        <v>757</v>
+        <v>763</v>
       </c>
       <c r="C407" s="97"/>
       <c r="D407" s="86" t="s">
@@ -12380,10 +12600,10 @@
     </row>
     <row r="408" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="95" t="s">
-        <v>758</v>
+        <v>764</v>
       </c>
       <c r="B408" s="96" t="s">
-        <v>759</v>
+        <v>765</v>
       </c>
       <c r="C408" s="97"/>
       <c r="D408" s="86"/>
@@ -12401,10 +12621,10 @@
     </row>
     <row r="409" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="95" t="s">
-        <v>760</v>
+        <v>766</v>
       </c>
       <c r="B409" s="96" t="s">
-        <v>761</v>
+        <v>767</v>
       </c>
       <c r="D409" s="86"/>
       <c r="E409" s="86" t="s">
@@ -12421,10 +12641,10 @@
     </row>
     <row r="410" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="95" t="s">
-        <v>762</v>
+        <v>768</v>
       </c>
       <c r="B410" s="96" t="s">
-        <v>763</v>
+        <v>769</v>
       </c>
       <c r="C410" s="97"/>
       <c r="D410" s="86"/>
@@ -12442,10 +12662,10 @@
     </row>
     <row r="411" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="95" t="s">
-        <v>764</v>
+        <v>770</v>
       </c>
       <c r="B411" s="96" t="s">
-        <v>765</v>
+        <v>771</v>
       </c>
       <c r="D411" s="86"/>
       <c r="E411" s="86" t="s">
@@ -12462,7 +12682,7 @@
     </row>
     <row r="412" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="95" t="s">
-        <v>766</v>
+        <v>772</v>
       </c>
       <c r="B412" s="96" t="s">
         <v>182</v>
@@ -12483,10 +12703,10 @@
     </row>
     <row r="413" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="95" t="s">
-        <v>767</v>
+        <v>773</v>
       </c>
       <c r="B413" s="96" t="s">
-        <v>768</v>
+        <v>774</v>
       </c>
       <c r="C413" s="97"/>
       <c r="D413" s="86"/>
@@ -12518,7 +12738,7 @@
     </row>
     <row r="415" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="45" t="s">
-        <v>769</v>
+        <v>775</v>
       </c>
       <c r="B415" s="34"/>
       <c r="C415" s="34"/>
@@ -12535,13 +12755,13 @@
     </row>
     <row r="416" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="89" t="s">
-        <v>770</v>
+        <v>776</v>
       </c>
       <c r="B416" s="90" t="s">
-        <v>771</v>
+        <v>777</v>
       </c>
       <c r="C416" s="91" t="s">
-        <v>772</v>
+        <v>778</v>
       </c>
       <c r="D416" s="80" t="s">
         <v>32</v>
@@ -12551,7 +12771,9 @@
       <c r="G416" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="H416" s="80"/>
+      <c r="H416" s="80" t="s">
+        <v>6</v>
+      </c>
       <c r="I416" s="80"/>
       <c r="J416" s="80"/>
       <c r="K416" s="80"/>
@@ -12560,13 +12782,13 @@
     </row>
     <row r="417" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="89" t="s">
-        <v>773</v>
+        <v>779</v>
       </c>
       <c r="B417" s="90" t="s">
-        <v>774</v>
+        <v>780</v>
       </c>
       <c r="C417" s="92" t="s">
-        <v>775</v>
+        <v>781</v>
       </c>
       <c r="D417" s="80" t="s">
         <v>32</v>
@@ -12583,13 +12805,13 @@
     </row>
     <row r="418" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="89" t="s">
-        <v>776</v>
+        <v>782</v>
       </c>
       <c r="B418" s="90" t="s">
-        <v>777</v>
+        <v>783</v>
       </c>
       <c r="C418" s="91" t="s">
-        <v>778</v>
+        <v>784</v>
       </c>
       <c r="D418" s="80" t="s">
         <v>32</v>
@@ -12606,13 +12828,13 @@
     </row>
     <row r="419" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="89" t="s">
-        <v>779</v>
+        <v>785</v>
       </c>
       <c r="B419" s="90" t="s">
-        <v>780</v>
+        <v>786</v>
       </c>
       <c r="C419" s="92" t="s">
-        <v>781</v>
+        <v>787</v>
       </c>
       <c r="D419" s="80" t="s">
         <v>32</v>
@@ -12629,13 +12851,13 @@
     </row>
     <row r="420" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="89" t="s">
-        <v>782</v>
+        <v>788</v>
       </c>
       <c r="B420" s="90" t="s">
-        <v>783</v>
+        <v>789</v>
       </c>
       <c r="C420" s="92" t="s">
-        <v>784</v>
+        <v>790</v>
       </c>
       <c r="D420" s="80" t="s">
         <v>32</v>
@@ -12652,13 +12874,13 @@
     </row>
     <row r="421" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="89" t="s">
-        <v>785</v>
+        <v>791</v>
       </c>
       <c r="B421" s="90" t="s">
-        <v>786</v>
+        <v>792</v>
       </c>
       <c r="C421" s="91" t="s">
-        <v>787</v>
+        <v>793</v>
       </c>
       <c r="D421" s="80" t="s">
         <v>32</v>
@@ -12675,13 +12897,13 @@
     </row>
     <row r="422" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="89" t="s">
-        <v>788</v>
+        <v>794</v>
       </c>
       <c r="B422" s="90" t="s">
-        <v>789</v>
+        <v>795</v>
       </c>
       <c r="C422" s="39" t="s">
-        <v>790</v>
+        <v>796</v>
       </c>
       <c r="D422" s="39"/>
       <c r="E422" s="80"/>
@@ -12698,13 +12920,13 @@
     </row>
     <row r="423" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="89" t="s">
-        <v>791</v>
+        <v>797</v>
       </c>
       <c r="B423" s="90" t="s">
-        <v>792</v>
+        <v>798</v>
       </c>
       <c r="C423" s="90" t="s">
-        <v>792</v>
+        <v>798</v>
       </c>
       <c r="D423" s="39"/>
       <c r="E423" s="80"/>
@@ -12721,13 +12943,13 @@
     </row>
     <row r="424" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="89" t="s">
-        <v>793</v>
+        <v>799</v>
       </c>
       <c r="B424" s="90" t="s">
-        <v>794</v>
+        <v>800</v>
       </c>
       <c r="C424" s="90" t="s">
-        <v>794</v>
+        <v>800</v>
       </c>
       <c r="D424" s="80"/>
       <c r="E424" s="80"/>
@@ -12744,13 +12966,13 @@
     </row>
     <row r="425" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="89" t="s">
-        <v>795</v>
+        <v>801</v>
       </c>
       <c r="B425" s="90" t="s">
-        <v>796</v>
+        <v>802</v>
       </c>
       <c r="C425" s="90" t="s">
-        <v>796</v>
+        <v>802</v>
       </c>
       <c r="D425" s="80"/>
       <c r="E425" s="80"/>
@@ -12767,13 +12989,13 @@
     </row>
     <row r="426" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="89" t="s">
-        <v>797</v>
+        <v>803</v>
       </c>
       <c r="B426" s="90" t="s">
-        <v>798</v>
+        <v>804</v>
       </c>
       <c r="C426" s="91" t="s">
-        <v>799</v>
+        <v>805</v>
       </c>
       <c r="D426" s="80"/>
       <c r="E426" s="80"/>
@@ -12781,7 +13003,9 @@
       <c r="G426" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="H426" s="80"/>
+      <c r="H426" s="80" t="s">
+        <v>6</v>
+      </c>
       <c r="I426" s="80"/>
       <c r="J426" s="80"/>
       <c r="K426" s="80"/>
@@ -12790,10 +13014,10 @@
     </row>
     <row r="427" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="89" t="s">
-        <v>800</v>
+        <v>806</v>
       </c>
       <c r="B427" s="90" t="s">
-        <v>801</v>
+        <v>807</v>
       </c>
       <c r="C427" s="91"/>
       <c r="D427" s="80"/>
@@ -12802,7 +13026,9 @@
       <c r="G427" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="H427" s="80"/>
+      <c r="H427" s="80" t="s">
+        <v>6</v>
+      </c>
       <c r="I427" s="80"/>
       <c r="J427" s="80"/>
       <c r="K427" s="80"/>
@@ -12811,10 +13037,10 @@
     </row>
     <row r="428" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="89" t="s">
-        <v>802</v>
+        <v>808</v>
       </c>
       <c r="B428" s="92" t="s">
-        <v>803</v>
+        <v>809</v>
       </c>
       <c r="C428" s="91"/>
       <c r="D428" s="80"/>
@@ -12823,7 +13049,9 @@
       <c r="G428" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="H428" s="80"/>
+      <c r="H428" s="80" t="s">
+        <v>6</v>
+      </c>
       <c r="I428" s="80"/>
       <c r="J428" s="80"/>
       <c r="K428" s="80"/>
@@ -12847,7 +13075,7 @@
     </row>
     <row r="430" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="46" t="s">
-        <v>804</v>
+        <v>810</v>
       </c>
       <c r="B430" s="41"/>
       <c r="C430" s="41"/>
@@ -12864,13 +13092,13 @@
     </row>
     <row r="431" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="89" t="s">
-        <v>805</v>
+        <v>811</v>
       </c>
       <c r="B431" s="90" t="s">
-        <v>806</v>
+        <v>812</v>
       </c>
       <c r="C431" s="39" t="s">
-        <v>807</v>
+        <v>813</v>
       </c>
       <c r="D431" s="80" t="s">
         <v>32</v>
@@ -12891,13 +13119,13 @@
     </row>
     <row r="432" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="89" t="s">
-        <v>808</v>
+        <v>814</v>
       </c>
       <c r="B432" s="90" t="s">
-        <v>757</v>
+        <v>763</v>
       </c>
       <c r="C432" s="91" t="s">
-        <v>809</v>
+        <v>815</v>
       </c>
       <c r="D432" s="80"/>
       <c r="E432" s="39"/>
@@ -12916,10 +13144,10 @@
     </row>
     <row r="433" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="89" t="s">
-        <v>810</v>
+        <v>816</v>
       </c>
       <c r="B433" s="90" t="s">
-        <v>811</v>
+        <v>817</v>
       </c>
       <c r="C433" s="91"/>
       <c r="D433" s="80" t="s">
@@ -12928,9 +13156,7 @@
       <c r="E433" s="80"/>
       <c r="F433" s="80"/>
       <c r="G433" s="80"/>
-      <c r="H433" s="80" t="s">
-        <v>6</v>
-      </c>
+      <c r="H433" s="80"/>
       <c r="I433" s="80"/>
       <c r="J433" s="80"/>
       <c r="K433" s="80"/>
@@ -12939,10 +13165,10 @@
     </row>
     <row r="434" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="89" t="s">
-        <v>812</v>
+        <v>818</v>
       </c>
       <c r="B434" s="90" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
       <c r="C434" s="91"/>
       <c r="D434" s="80" t="s">
@@ -12951,9 +13177,7 @@
       <c r="E434" s="80"/>
       <c r="F434" s="80"/>
       <c r="G434" s="80"/>
-      <c r="H434" s="80" t="s">
-        <v>6</v>
-      </c>
+      <c r="H434" s="80"/>
       <c r="I434" s="80"/>
       <c r="J434" s="80"/>
       <c r="K434" s="80"/>
@@ -12962,10 +13186,10 @@
     </row>
     <row r="435" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="89" t="s">
-        <v>814</v>
+        <v>820</v>
       </c>
       <c r="B435" s="90" t="s">
-        <v>815</v>
+        <v>821</v>
       </c>
       <c r="C435" s="91"/>
       <c r="D435" s="80" t="s">
@@ -12974,9 +13198,7 @@
       <c r="E435" s="80"/>
       <c r="F435" s="80"/>
       <c r="G435" s="80"/>
-      <c r="H435" s="80" t="s">
-        <v>6</v>
-      </c>
+      <c r="H435" s="80"/>
       <c r="I435" s="80"/>
       <c r="J435" s="80"/>
       <c r="K435" s="80"/>
@@ -12985,10 +13207,10 @@
     </row>
     <row r="436" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="89" t="s">
-        <v>816</v>
+        <v>822</v>
       </c>
       <c r="B436" s="90" t="s">
-        <v>817</v>
+        <v>823</v>
       </c>
       <c r="C436" s="91"/>
       <c r="D436" s="80" t="s">
@@ -12997,9 +13219,7 @@
       <c r="E436" s="80"/>
       <c r="F436" s="80"/>
       <c r="G436" s="80"/>
-      <c r="H436" s="80" t="s">
-        <v>6</v>
-      </c>
+      <c r="H436" s="80"/>
       <c r="I436" s="80"/>
       <c r="J436" s="80"/>
       <c r="K436" s="80"/>
@@ -13008,10 +13228,10 @@
     </row>
     <row r="437" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="89" t="s">
-        <v>818</v>
+        <v>824</v>
       </c>
       <c r="B437" s="90" t="s">
-        <v>819</v>
+        <v>825</v>
       </c>
       <c r="C437" s="91"/>
       <c r="D437" s="80"/>
@@ -13031,10 +13251,10 @@
     </row>
     <row r="438" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="89" t="s">
-        <v>820</v>
+        <v>826</v>
       </c>
       <c r="B438" s="90" t="s">
-        <v>821</v>
+        <v>827</v>
       </c>
       <c r="C438" s="91"/>
       <c r="D438" s="39"/>
@@ -13054,10 +13274,10 @@
     </row>
     <row r="439" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="89" t="s">
-        <v>822</v>
+        <v>828</v>
       </c>
       <c r="B439" s="90" t="s">
-        <v>823</v>
+        <v>829</v>
       </c>
       <c r="C439" s="91"/>
       <c r="D439" s="80" t="s">
@@ -13066,9 +13286,7 @@
       <c r="E439" s="80"/>
       <c r="F439" s="80"/>
       <c r="G439" s="39"/>
-      <c r="H439" s="80" t="s">
-        <v>6</v>
-      </c>
+      <c r="H439" s="80"/>
       <c r="I439" s="80"/>
       <c r="J439" s="80"/>
       <c r="K439" s="80"/>
@@ -13077,10 +13295,10 @@
     </row>
     <row r="440" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="89" t="s">
-        <v>824</v>
+        <v>830</v>
       </c>
       <c r="B440" s="90" t="s">
-        <v>825</v>
+        <v>831</v>
       </c>
       <c r="C440" s="91"/>
       <c r="D440" s="80" t="s">
@@ -13089,9 +13307,7 @@
       <c r="E440" s="80"/>
       <c r="F440" s="80"/>
       <c r="G440" s="80"/>
-      <c r="H440" s="80" t="s">
-        <v>6</v>
-      </c>
+      <c r="H440" s="80"/>
       <c r="I440" s="80"/>
       <c r="J440" s="80"/>
       <c r="K440" s="80"/>
@@ -13115,7 +13331,7 @@
     </row>
     <row r="442" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="46" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="B442" s="41"/>
       <c r="C442" s="41"/>
@@ -13132,13 +13348,13 @@
     </row>
     <row r="443" spans="1:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="89" t="s">
-        <v>827</v>
+        <v>833</v>
       </c>
       <c r="B443" s="90" t="s">
-        <v>806</v>
+        <v>812</v>
       </c>
       <c r="C443" s="81" t="s">
-        <v>828</v>
+        <v>834</v>
       </c>
       <c r="D443" s="80" t="s">
         <v>32</v>
@@ -13159,10 +13375,10 @@
     </row>
     <row r="444" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="89" t="s">
-        <v>829</v>
+        <v>835</v>
       </c>
       <c r="B444" s="90" t="s">
-        <v>757</v>
+        <v>763</v>
       </c>
       <c r="C444" s="39"/>
       <c r="D444" s="80" t="s">
@@ -13171,9 +13387,7 @@
       <c r="E444" s="80"/>
       <c r="F444" s="80"/>
       <c r="G444" s="80"/>
-      <c r="H444" s="80" t="s">
-        <v>6</v>
-      </c>
+      <c r="H444" s="80"/>
       <c r="I444" s="80"/>
       <c r="J444" s="80"/>
       <c r="K444" s="80"/>
@@ -13182,10 +13396,10 @@
     </row>
     <row r="445" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="89" t="s">
-        <v>830</v>
+        <v>836</v>
       </c>
       <c r="B445" s="90" t="s">
-        <v>831</v>
+        <v>837</v>
       </c>
       <c r="C445" s="39"/>
       <c r="E445" s="80"/>
@@ -13200,16 +13414,16 @@
       <c r="J445" s="80"/>
       <c r="K445" s="80"/>
       <c r="L445" s="80" t="s">
-        <v>832</v>
+        <v>838</v>
       </c>
       <c r="M445" s="75"/>
     </row>
     <row r="446" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="89" t="s">
-        <v>833</v>
+        <v>839</v>
       </c>
       <c r="B446" s="90" t="s">
-        <v>834</v>
+        <v>840</v>
       </c>
       <c r="C446" s="39"/>
       <c r="E446" s="80"/>
@@ -13224,7 +13438,7 @@
       <c r="J446" s="80"/>
       <c r="K446" s="80"/>
       <c r="L446" s="80" t="s">
-        <v>832</v>
+        <v>838</v>
       </c>
       <c r="M446" s="75"/>
     </row>
@@ -13244,10 +13458,10 @@
       <c r="M447" s="75"/>
     </row>
     <row r="448" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A448" s="125" t="s">
-        <v>835</v>
-      </c>
-      <c r="B448" s="126"/>
+      <c r="A448" s="120" t="s">
+        <v>841</v>
+      </c>
+      <c r="B448" s="121"/>
       <c r="C448" s="94"/>
       <c r="D448" s="85"/>
       <c r="E448" s="85"/>
@@ -13261,10 +13475,10 @@
       <c r="M448" s="75"/>
     </row>
     <row r="449" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A449" s="120" t="s">
-        <v>836</v>
-      </c>
-      <c r="B449" s="121"/>
+      <c r="A449" s="123" t="s">
+        <v>842</v>
+      </c>
+      <c r="B449" s="124"/>
       <c r="C449" s="94"/>
       <c r="D449" s="85"/>
       <c r="E449" s="85"/>
@@ -13279,7 +13493,7 @@
     </row>
     <row r="450" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="45" t="s">
-        <v>837</v>
+        <v>843</v>
       </c>
       <c r="B450" s="34"/>
       <c r="C450" s="34"/>
@@ -13296,13 +13510,13 @@
     </row>
     <row r="451" spans="1:13" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="95" t="s">
-        <v>838</v>
+        <v>844</v>
       </c>
       <c r="B451" s="96" t="s">
-        <v>839</v>
+        <v>845</v>
       </c>
       <c r="C451" s="97" t="s">
-        <v>840</v>
+        <v>846</v>
       </c>
       <c r="D451" s="86" t="s">
         <v>32</v>
@@ -13319,13 +13533,13 @@
     </row>
     <row r="452" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="95" t="s">
-        <v>841</v>
+        <v>847</v>
       </c>
       <c r="B452" s="96" t="s">
-        <v>842</v>
+        <v>848</v>
       </c>
       <c r="C452" s="97" t="s">
-        <v>843</v>
+        <v>849</v>
       </c>
       <c r="D452" s="86" t="s">
         <v>32</v>
@@ -13342,13 +13556,13 @@
     </row>
     <row r="453" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="95" t="s">
-        <v>844</v>
+        <v>850</v>
       </c>
       <c r="B453" s="96" t="s">
-        <v>845</v>
+        <v>851</v>
       </c>
       <c r="C453" s="97" t="s">
-        <v>846</v>
+        <v>852</v>
       </c>
       <c r="D453" s="86" t="s">
         <v>32</v>
@@ -13365,13 +13579,13 @@
     </row>
     <row r="454" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="95" t="s">
-        <v>847</v>
+        <v>853</v>
       </c>
       <c r="B454" s="96" t="s">
-        <v>848</v>
+        <v>854</v>
       </c>
       <c r="C454" s="97" t="s">
-        <v>849</v>
+        <v>855</v>
       </c>
       <c r="D454" s="86"/>
       <c r="E454" s="86" t="s">
@@ -13384,19 +13598,19 @@
       <c r="J454" s="86"/>
       <c r="K454" s="86"/>
       <c r="L454" s="86" t="s">
-        <v>850</v>
+        <v>856</v>
       </c>
       <c r="M454" s="75"/>
     </row>
     <row r="455" spans="1:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="95" t="s">
-        <v>851</v>
+        <v>857</v>
       </c>
       <c r="B455" s="96" t="s">
-        <v>852</v>
+        <v>858</v>
       </c>
       <c r="C455" s="97" t="s">
-        <v>853</v>
+        <v>859</v>
       </c>
       <c r="D455" s="86"/>
       <c r="E455" s="86" t="s">
@@ -13409,19 +13623,19 @@
       <c r="J455" s="86"/>
       <c r="K455" s="86"/>
       <c r="L455" s="86" t="s">
-        <v>850</v>
+        <v>856</v>
       </c>
       <c r="M455" s="75"/>
     </row>
     <row r="456" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="95" t="s">
-        <v>854</v>
+        <v>860</v>
       </c>
       <c r="B456" s="96" t="s">
-        <v>855</v>
+        <v>861</v>
       </c>
       <c r="C456" s="97" t="s">
-        <v>856</v>
+        <v>862</v>
       </c>
       <c r="D456" s="86"/>
       <c r="E456" s="86" t="s">
@@ -13434,19 +13648,19 @@
       <c r="J456" s="86"/>
       <c r="K456" s="86"/>
       <c r="L456" s="86" t="s">
-        <v>850</v>
+        <v>856</v>
       </c>
       <c r="M456" s="75"/>
     </row>
     <row r="457" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="95" t="s">
-        <v>857</v>
+        <v>863</v>
       </c>
       <c r="B457" s="96" t="s">
-        <v>858</v>
+        <v>864</v>
       </c>
       <c r="C457" s="97" t="s">
-        <v>859</v>
+        <v>865</v>
       </c>
       <c r="D457" s="86"/>
       <c r="E457" s="86" t="s">
@@ -13459,19 +13673,19 @@
       <c r="J457" s="86"/>
       <c r="K457" s="86"/>
       <c r="L457" s="86" t="s">
-        <v>850</v>
+        <v>856</v>
       </c>
       <c r="M457" s="75"/>
     </row>
     <row r="458" spans="1:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="95" t="s">
-        <v>860</v>
+        <v>866</v>
       </c>
       <c r="B458" s="96" t="s">
-        <v>861</v>
+        <v>867</v>
       </c>
       <c r="C458" s="97" t="s">
-        <v>862</v>
+        <v>868</v>
       </c>
       <c r="D458" s="86"/>
       <c r="E458" s="86" t="s">
@@ -13484,19 +13698,19 @@
       <c r="J458" s="86"/>
       <c r="K458" s="86"/>
       <c r="L458" s="86" t="s">
-        <v>850</v>
+        <v>856</v>
       </c>
       <c r="M458" s="75"/>
     </row>
     <row r="459" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="95" t="s">
-        <v>863</v>
+        <v>869</v>
       </c>
       <c r="B459" s="96" t="s">
-        <v>864</v>
+        <v>870</v>
       </c>
       <c r="C459" s="97" t="s">
-        <v>865</v>
+        <v>871</v>
       </c>
       <c r="D459" s="86"/>
       <c r="E459" s="86" t="s">
@@ -13509,19 +13723,19 @@
       <c r="J459" s="86"/>
       <c r="K459" s="86"/>
       <c r="L459" s="86" t="s">
-        <v>850</v>
+        <v>856</v>
       </c>
       <c r="M459" s="75"/>
     </row>
     <row r="460" spans="1:13" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="95" t="s">
-        <v>866</v>
+        <v>872</v>
       </c>
       <c r="B460" s="96" t="s">
-        <v>867</v>
+        <v>873</v>
       </c>
       <c r="C460" s="97" t="s">
-        <v>868</v>
+        <v>874</v>
       </c>
       <c r="D460" s="86"/>
       <c r="E460" s="86" t="s">
@@ -13534,19 +13748,19 @@
       <c r="J460" s="86"/>
       <c r="K460" s="86"/>
       <c r="L460" s="86" t="s">
-        <v>850</v>
+        <v>856</v>
       </c>
       <c r="M460" s="75"/>
     </row>
     <row r="461" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="98" t="s">
-        <v>869</v>
+        <v>875</v>
       </c>
       <c r="B461" s="96" t="s">
-        <v>870</v>
+        <v>876</v>
       </c>
       <c r="C461" s="97" t="s">
-        <v>871</v>
+        <v>877</v>
       </c>
       <c r="D461" s="86"/>
       <c r="E461" s="86" t="s">
@@ -13559,19 +13773,19 @@
       <c r="J461" s="86"/>
       <c r="K461" s="86"/>
       <c r="L461" s="86" t="s">
-        <v>850</v>
+        <v>856</v>
       </c>
       <c r="M461" s="75"/>
     </row>
     <row r="462" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="98" t="s">
-        <v>872</v>
+        <v>878</v>
       </c>
       <c r="B462" s="96" t="s">
-        <v>873</v>
+        <v>879</v>
       </c>
       <c r="C462" s="97" t="s">
-        <v>874</v>
+        <v>880</v>
       </c>
       <c r="D462" s="86"/>
       <c r="E462" s="86" t="s">
@@ -13584,13 +13798,13 @@
       <c r="J462" s="86"/>
       <c r="K462" s="86"/>
       <c r="L462" s="86" t="s">
-        <v>850</v>
+        <v>856</v>
       </c>
       <c r="M462" s="75"/>
     </row>
     <row r="463" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="114" t="s">
-        <v>875</v>
+        <v>881</v>
       </c>
       <c r="B463" s="94"/>
       <c r="C463" s="94"/>
@@ -13606,10 +13820,10 @@
       <c r="M463" s="75"/>
     </row>
     <row r="464" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A464" s="120" t="s">
-        <v>876</v>
-      </c>
-      <c r="B464" s="121"/>
+      <c r="A464" s="123" t="s">
+        <v>882</v>
+      </c>
+      <c r="B464" s="124"/>
       <c r="C464" s="94"/>
       <c r="D464" s="85"/>
       <c r="E464" s="85"/>
@@ -13624,7 +13838,7 @@
     </row>
     <row r="465" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A465" s="101" t="s">
-        <v>877</v>
+        <v>883</v>
       </c>
       <c r="B465" s="102"/>
       <c r="C465" s="102"/>
@@ -13639,10 +13853,10 @@
       <c r="L465" s="103"/>
     </row>
     <row r="466" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A466" s="118" t="s">
-        <v>878</v>
-      </c>
-      <c r="B466" s="119"/>
+      <c r="A466" s="116" t="s">
+        <v>884</v>
+      </c>
+      <c r="B466" s="117"/>
       <c r="C466" s="104"/>
       <c r="D466" s="105"/>
       <c r="E466" s="105"/>
@@ -13656,13 +13870,13 @@
     </row>
     <row r="467" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A467" s="106" t="s">
-        <v>879</v>
+        <v>885</v>
       </c>
       <c r="B467" s="107" t="s">
-        <v>880</v>
+        <v>886</v>
       </c>
       <c r="C467" s="108" t="s">
-        <v>881</v>
+        <v>887</v>
       </c>
       <c r="D467" s="109" t="s">
         <v>32</v>
@@ -13678,13 +13892,13 @@
     </row>
     <row r="468" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A468" s="106" t="s">
-        <v>882</v>
+        <v>888</v>
       </c>
       <c r="B468" s="107" t="s">
-        <v>883</v>
+        <v>889</v>
       </c>
       <c r="C468" s="108" t="s">
-        <v>884</v>
+        <v>890</v>
       </c>
       <c r="D468" s="109" t="s">
         <v>32</v>
@@ -13700,13 +13914,13 @@
     </row>
     <row r="469" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A469" s="106" t="s">
-        <v>885</v>
+        <v>891</v>
       </c>
       <c r="B469" s="107" t="s">
-        <v>886</v>
+        <v>892</v>
       </c>
       <c r="C469" s="108" t="s">
-        <v>887</v>
+        <v>893</v>
       </c>
       <c r="D469" s="109" t="s">
         <v>32</v>
@@ -13723,10 +13937,10 @@
       </c>
     </row>
     <row r="470" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A470" s="118" t="s">
-        <v>888</v>
-      </c>
-      <c r="B470" s="119"/>
+      <c r="A470" s="116" t="s">
+        <v>894</v>
+      </c>
+      <c r="B470" s="117"/>
       <c r="C470" s="104"/>
       <c r="D470" s="105"/>
       <c r="E470" s="105"/>
@@ -13740,13 +13954,13 @@
     </row>
     <row r="471" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A471" s="106" t="s">
-        <v>889</v>
+        <v>895</v>
       </c>
       <c r="B471" s="107" t="s">
-        <v>890</v>
+        <v>896</v>
       </c>
       <c r="C471" s="108" t="s">
-        <v>881</v>
+        <v>887</v>
       </c>
       <c r="D471" s="109" t="s">
         <v>32</v>
@@ -13762,13 +13976,13 @@
     </row>
     <row r="472" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A472" s="106" t="s">
-        <v>891</v>
+        <v>897</v>
       </c>
       <c r="B472" s="107" t="s">
-        <v>892</v>
+        <v>898</v>
       </c>
       <c r="C472" s="108" t="s">
-        <v>893</v>
+        <v>899</v>
       </c>
       <c r="D472" s="109" t="s">
         <v>32</v>
@@ -13784,13 +13998,13 @@
     </row>
     <row r="473" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A473" s="106" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="B473" s="107" t="s">
-        <v>895</v>
+        <v>901</v>
       </c>
       <c r="C473" s="108" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
       <c r="D473" s="109" t="s">
         <v>32</v>
@@ -13806,13 +14020,13 @@
     </row>
     <row r="474" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A474" s="106" t="s">
-        <v>897</v>
+        <v>903</v>
       </c>
       <c r="B474" s="107" t="s">
-        <v>898</v>
+        <v>904</v>
       </c>
       <c r="C474" s="108" t="s">
-        <v>899</v>
+        <v>905</v>
       </c>
       <c r="D474" s="109" t="s">
         <v>32</v>
@@ -13828,13 +14042,13 @@
     </row>
     <row r="475" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A475" s="106" t="s">
-        <v>900</v>
+        <v>906</v>
       </c>
       <c r="B475" s="107" t="s">
         <v>182</v>
       </c>
       <c r="C475" s="108" t="s">
-        <v>887</v>
+        <v>893</v>
       </c>
       <c r="D475" s="109" t="s">
         <v>32</v>
@@ -13864,10 +14078,10 @@
       <c r="L476" s="109"/>
     </row>
     <row r="477" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A477" s="118" t="s">
-        <v>901</v>
-      </c>
-      <c r="B477" s="119"/>
+      <c r="A477" s="116" t="s">
+        <v>907</v>
+      </c>
+      <c r="B477" s="117"/>
       <c r="C477" s="104"/>
       <c r="D477" s="105"/>
       <c r="E477" s="105"/>
@@ -13881,13 +14095,13 @@
     </row>
     <row r="478" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A478" s="106" t="s">
-        <v>902</v>
+        <v>908</v>
       </c>
       <c r="B478" s="107" t="s">
-        <v>890</v>
+        <v>896</v>
       </c>
       <c r="C478" s="108" t="s">
-        <v>881</v>
+        <v>887</v>
       </c>
       <c r="D478" s="109" t="s">
         <v>32</v>
@@ -13903,13 +14117,13 @@
     </row>
     <row r="479" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A479" s="106" t="s">
-        <v>903</v>
+        <v>909</v>
       </c>
       <c r="B479" s="107" t="s">
-        <v>904</v>
+        <v>910</v>
       </c>
       <c r="C479" s="108" t="s">
-        <v>905</v>
+        <v>911</v>
       </c>
       <c r="D479" s="109" t="s">
         <v>32</v>
@@ -13925,13 +14139,13 @@
     </row>
     <row r="480" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A480" s="106" t="s">
-        <v>906</v>
+        <v>912</v>
       </c>
       <c r="B480" s="107" t="s">
-        <v>907</v>
+        <v>913</v>
       </c>
       <c r="C480" s="108" t="s">
-        <v>887</v>
+        <v>893</v>
       </c>
       <c r="D480" s="109" t="s">
         <v>32</v>
@@ -13949,13 +14163,13 @@
     </row>
     <row r="481" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A481" s="106" t="s">
-        <v>908</v>
+        <v>914</v>
       </c>
       <c r="B481" s="107" t="s">
-        <v>909</v>
+        <v>915</v>
       </c>
       <c r="C481" s="108" t="s">
-        <v>910</v>
+        <v>916</v>
       </c>
       <c r="D481" s="109" t="s">
         <v>32</v>
@@ -13971,13 +14185,13 @@
     </row>
     <row r="482" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A482" s="106" t="s">
-        <v>911</v>
+        <v>917</v>
       </c>
       <c r="B482" s="107" t="s">
-        <v>912</v>
+        <v>918</v>
       </c>
       <c r="C482" s="108" t="s">
-        <v>887</v>
+        <v>893</v>
       </c>
       <c r="D482" s="109" t="s">
         <v>32</v>
@@ -14007,10 +14221,10 @@
       <c r="L483" s="109"/>
     </row>
     <row r="484" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A484" s="118" t="s">
-        <v>913</v>
-      </c>
-      <c r="B484" s="119"/>
+      <c r="A484" s="116" t="s">
+        <v>919</v>
+      </c>
+      <c r="B484" s="117"/>
       <c r="C484" s="104"/>
       <c r="D484" s="105"/>
       <c r="E484" s="105"/>
@@ -14024,13 +14238,13 @@
     </row>
     <row r="485" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A485" s="106" t="s">
-        <v>914</v>
+        <v>920</v>
       </c>
       <c r="B485" s="107" t="s">
-        <v>890</v>
+        <v>896</v>
       </c>
       <c r="C485" s="108" t="s">
-        <v>881</v>
+        <v>887</v>
       </c>
       <c r="D485" s="109" t="s">
         <v>32</v>
@@ -14046,13 +14260,13 @@
     </row>
     <row r="486" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A486" s="106" t="s">
-        <v>915</v>
+        <v>921</v>
       </c>
       <c r="B486" s="107" t="s">
-        <v>883</v>
+        <v>889</v>
       </c>
       <c r="C486" s="108" t="s">
-        <v>899</v>
+        <v>905</v>
       </c>
       <c r="D486" s="109" t="s">
         <v>32</v>
@@ -14068,13 +14282,13 @@
     </row>
     <row r="487" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A487" s="106" t="s">
-        <v>916</v>
+        <v>922</v>
       </c>
       <c r="B487" s="107" t="s">
-        <v>886</v>
+        <v>892</v>
       </c>
       <c r="C487" s="108" t="s">
-        <v>887</v>
+        <v>893</v>
       </c>
       <c r="D487" s="109" t="s">
         <v>32</v>
@@ -14104,10 +14318,10 @@
       <c r="L488" s="109"/>
     </row>
     <row r="489" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A489" s="118" t="s">
-        <v>917</v>
-      </c>
-      <c r="B489" s="119"/>
+      <c r="A489" s="116" t="s">
+        <v>923</v>
+      </c>
+      <c r="B489" s="117"/>
       <c r="C489" s="104"/>
       <c r="D489" s="105"/>
       <c r="E489" s="105"/>
@@ -14121,13 +14335,13 @@
     </row>
     <row r="490" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A490" s="106" t="s">
-        <v>918</v>
+        <v>924</v>
       </c>
       <c r="B490" s="107" t="s">
-        <v>890</v>
+        <v>896</v>
       </c>
       <c r="C490" s="108" t="s">
-        <v>881</v>
+        <v>887</v>
       </c>
       <c r="D490" s="109" t="s">
         <v>32</v>
@@ -14143,13 +14357,13 @@
     </row>
     <row r="491" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A491" s="106" t="s">
-        <v>919</v>
+        <v>925</v>
       </c>
       <c r="B491" s="107" t="s">
-        <v>883</v>
+        <v>889</v>
       </c>
       <c r="C491" s="108" t="s">
-        <v>899</v>
+        <v>905</v>
       </c>
       <c r="D491" s="109" t="s">
         <v>32</v>
@@ -14165,13 +14379,13 @@
     </row>
     <row r="492" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A492" s="106" t="s">
-        <v>920</v>
+        <v>926</v>
       </c>
       <c r="B492" s="107" t="s">
-        <v>886</v>
+        <v>892</v>
       </c>
       <c r="C492" s="108" t="s">
-        <v>887</v>
+        <v>893</v>
       </c>
       <c r="D492" s="109" t="s">
         <v>32</v>
@@ -14201,10 +14415,10 @@
       <c r="L493" s="109"/>
     </row>
     <row r="494" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A494" s="118" t="s">
-        <v>921</v>
-      </c>
-      <c r="B494" s="119"/>
+      <c r="A494" s="116" t="s">
+        <v>927</v>
+      </c>
+      <c r="B494" s="117"/>
       <c r="C494" s="104"/>
       <c r="D494" s="105"/>
       <c r="E494" s="105"/>
@@ -14218,13 +14432,13 @@
     </row>
     <row r="495" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A495" s="106" t="s">
-        <v>922</v>
+        <v>928</v>
       </c>
       <c r="B495" s="107" t="s">
-        <v>890</v>
+        <v>896</v>
       </c>
       <c r="C495" s="108" t="s">
-        <v>881</v>
+        <v>887</v>
       </c>
       <c r="D495" s="109" t="s">
         <v>32</v>
@@ -14240,13 +14454,13 @@
     </row>
     <row r="496" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A496" s="106" t="s">
-        <v>923</v>
+        <v>929</v>
       </c>
       <c r="B496" s="107" t="s">
-        <v>883</v>
+        <v>889</v>
       </c>
       <c r="C496" s="108" t="s">
-        <v>899</v>
+        <v>905</v>
       </c>
       <c r="D496" s="109" t="s">
         <v>32</v>
@@ -14262,13 +14476,13 @@
     </row>
     <row r="497" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A497" s="106" t="s">
-        <v>924</v>
+        <v>930</v>
       </c>
       <c r="B497" s="107" t="s">
-        <v>886</v>
+        <v>892</v>
       </c>
       <c r="C497" s="108" t="s">
-        <v>887</v>
+        <v>893</v>
       </c>
       <c r="D497" s="109" t="s">
         <v>32</v>
@@ -14298,10 +14512,10 @@
       <c r="L498" s="109"/>
     </row>
     <row r="499" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A499" s="118" t="s">
-        <v>925</v>
-      </c>
-      <c r="B499" s="119"/>
+      <c r="A499" s="116" t="s">
+        <v>931</v>
+      </c>
+      <c r="B499" s="117"/>
       <c r="C499" s="104"/>
       <c r="D499" s="105"/>
       <c r="E499" s="105"/>
@@ -14315,13 +14529,13 @@
     </row>
     <row r="500" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A500" s="106" t="s">
-        <v>926</v>
+        <v>932</v>
       </c>
       <c r="B500" s="107" t="s">
-        <v>890</v>
+        <v>896</v>
       </c>
       <c r="C500" s="108" t="s">
-        <v>881</v>
+        <v>887</v>
       </c>
       <c r="D500" s="109" t="s">
         <v>32</v>
@@ -14337,13 +14551,13 @@
     </row>
     <row r="501" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A501" s="106" t="s">
-        <v>927</v>
+        <v>933</v>
       </c>
       <c r="B501" s="107" t="s">
-        <v>883</v>
+        <v>889</v>
       </c>
       <c r="C501" s="108" t="s">
-        <v>899</v>
+        <v>905</v>
       </c>
       <c r="D501" s="109" t="s">
         <v>32</v>
@@ -14359,13 +14573,13 @@
     </row>
     <row r="502" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A502" s="106" t="s">
-        <v>928</v>
+        <v>934</v>
       </c>
       <c r="B502" s="107" t="s">
-        <v>886</v>
+        <v>892</v>
       </c>
       <c r="C502" s="108" t="s">
-        <v>887</v>
+        <v>893</v>
       </c>
       <c r="D502" s="109" t="s">
         <v>32</v>
@@ -14395,10 +14609,10 @@
       <c r="L503" s="109"/>
     </row>
     <row r="504" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A504" s="118" t="s">
-        <v>929</v>
-      </c>
-      <c r="B504" s="119"/>
+      <c r="A504" s="116" t="s">
+        <v>935</v>
+      </c>
+      <c r="B504" s="117"/>
       <c r="C504" s="104"/>
       <c r="D504" s="105"/>
       <c r="E504" s="105"/>
@@ -14412,13 +14626,13 @@
     </row>
     <row r="505" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A505" s="106" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
       <c r="B505" s="107" t="s">
-        <v>890</v>
+        <v>896</v>
       </c>
       <c r="C505" s="108" t="s">
-        <v>881</v>
+        <v>887</v>
       </c>
       <c r="D505" s="109" t="s">
         <v>32</v>
@@ -14434,13 +14648,13 @@
     </row>
     <row r="506" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A506" s="106" t="s">
-        <v>931</v>
+        <v>937</v>
       </c>
       <c r="B506" s="107" t="s">
-        <v>883</v>
+        <v>889</v>
       </c>
       <c r="C506" s="108" t="s">
-        <v>899</v>
+        <v>905</v>
       </c>
       <c r="D506" s="109" t="s">
         <v>32</v>
@@ -14456,13 +14670,13 @@
     </row>
     <row r="507" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A507" s="106" t="s">
-        <v>932</v>
+        <v>938</v>
       </c>
       <c r="B507" s="107" t="s">
-        <v>886</v>
+        <v>892</v>
       </c>
       <c r="C507" s="108" t="s">
-        <v>887</v>
+        <v>893</v>
       </c>
       <c r="D507" s="109" t="s">
         <v>32</v>
@@ -14492,10 +14706,10 @@
       <c r="L508" s="109"/>
     </row>
     <row r="509" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A509" s="118" t="s">
-        <v>933</v>
-      </c>
-      <c r="B509" s="119"/>
+      <c r="A509" s="116" t="s">
+        <v>939</v>
+      </c>
+      <c r="B509" s="117"/>
       <c r="C509" s="104"/>
       <c r="D509" s="105"/>
       <c r="E509" s="105"/>
@@ -14509,13 +14723,13 @@
     </row>
     <row r="510" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A510" s="106" t="s">
-        <v>934</v>
+        <v>940</v>
       </c>
       <c r="B510" s="107" t="s">
-        <v>890</v>
+        <v>896</v>
       </c>
       <c r="C510" s="108" t="s">
-        <v>881</v>
+        <v>887</v>
       </c>
       <c r="D510" s="109" t="s">
         <v>32</v>
@@ -14531,13 +14745,13 @@
     </row>
     <row r="511" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A511" s="106" t="s">
-        <v>935</v>
+        <v>941</v>
       </c>
       <c r="B511" s="107" t="s">
-        <v>936</v>
+        <v>942</v>
       </c>
       <c r="C511" s="108" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
       <c r="D511" s="109" t="s">
         <v>32</v>
@@ -14553,13 +14767,13 @@
     </row>
     <row r="512" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A512" s="106" t="s">
-        <v>937</v>
+        <v>943</v>
       </c>
       <c r="B512" s="107" t="s">
-        <v>883</v>
+        <v>889</v>
       </c>
       <c r="C512" s="108" t="s">
-        <v>899</v>
+        <v>905</v>
       </c>
       <c r="D512" s="109" t="s">
         <v>32</v>
@@ -14575,13 +14789,13 @@
     </row>
     <row r="513" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A513" s="106" t="s">
-        <v>938</v>
+        <v>944</v>
       </c>
       <c r="B513" s="107" t="s">
-        <v>886</v>
+        <v>892</v>
       </c>
       <c r="C513" s="108" t="s">
-        <v>887</v>
+        <v>893</v>
       </c>
       <c r="D513" s="109" t="s">
         <v>32</v>
@@ -14611,10 +14825,10 @@
       <c r="L514" s="109"/>
     </row>
     <row r="515" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A515" s="118" t="s">
-        <v>939</v>
-      </c>
-      <c r="B515" s="119"/>
+      <c r="A515" s="116" t="s">
+        <v>945</v>
+      </c>
+      <c r="B515" s="117"/>
       <c r="C515" s="104"/>
       <c r="D515" s="105"/>
       <c r="E515" s="105"/>
@@ -14628,13 +14842,13 @@
     </row>
     <row r="516" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A516" s="106" t="s">
-        <v>940</v>
+        <v>946</v>
       </c>
       <c r="B516" s="107" t="s">
-        <v>890</v>
+        <v>896</v>
       </c>
       <c r="C516" s="108" t="s">
-        <v>881</v>
+        <v>887</v>
       </c>
       <c r="D516" s="109" t="s">
         <v>32</v>
@@ -14650,13 +14864,13 @@
     </row>
     <row r="517" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A517" s="106" t="s">
-        <v>941</v>
+        <v>947</v>
       </c>
       <c r="B517" s="107" t="s">
-        <v>883</v>
+        <v>889</v>
       </c>
       <c r="C517" s="108" t="s">
-        <v>899</v>
+        <v>905</v>
       </c>
       <c r="D517" s="109" t="s">
         <v>32</v>
@@ -14672,13 +14886,13 @@
     </row>
     <row r="518" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A518" s="106" t="s">
-        <v>942</v>
+        <v>948</v>
       </c>
       <c r="B518" s="107" t="s">
-        <v>886</v>
+        <v>892</v>
       </c>
       <c r="C518" s="108" t="s">
-        <v>887</v>
+        <v>893</v>
       </c>
       <c r="D518" s="109" t="s">
         <v>32</v>
@@ -14708,10 +14922,10 @@
       <c r="L519" s="109"/>
     </row>
     <row r="520" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A520" s="118" t="s">
-        <v>943</v>
-      </c>
-      <c r="B520" s="119"/>
+      <c r="A520" s="116" t="s">
+        <v>949</v>
+      </c>
+      <c r="B520" s="117"/>
       <c r="C520" s="104"/>
       <c r="D520" s="105"/>
       <c r="E520" s="105"/>
@@ -14725,13 +14939,13 @@
     </row>
     <row r="521" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A521" s="106" t="s">
-        <v>944</v>
+        <v>950</v>
       </c>
       <c r="B521" s="107" t="s">
-        <v>890</v>
+        <v>896</v>
       </c>
       <c r="C521" s="108" t="s">
-        <v>881</v>
+        <v>887</v>
       </c>
       <c r="D521" s="109" t="s">
         <v>32</v>
@@ -14747,13 +14961,13 @@
     </row>
     <row r="522" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A522" s="106" t="s">
-        <v>945</v>
+        <v>951</v>
       </c>
       <c r="B522" s="107" t="s">
-        <v>883</v>
+        <v>889</v>
       </c>
       <c r="C522" s="108" t="s">
-        <v>899</v>
+        <v>905</v>
       </c>
       <c r="D522" s="109" t="s">
         <v>32</v>
@@ -14769,13 +14983,13 @@
     </row>
     <row r="523" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A523" s="106" t="s">
-        <v>946</v>
+        <v>952</v>
       </c>
       <c r="B523" s="107" t="s">
-        <v>886</v>
+        <v>892</v>
       </c>
       <c r="C523" s="108" t="s">
-        <v>887</v>
+        <v>893</v>
       </c>
       <c r="D523" s="109" t="s">
         <v>32</v>
@@ -14805,10 +15019,10 @@
       <c r="L524" s="109"/>
     </row>
     <row r="525" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A525" s="118" t="s">
-        <v>947</v>
-      </c>
-      <c r="B525" s="119"/>
+      <c r="A525" s="116" t="s">
+        <v>953</v>
+      </c>
+      <c r="B525" s="117"/>
       <c r="C525" s="104"/>
       <c r="D525" s="105"/>
       <c r="E525" s="105"/>
@@ -14822,13 +15036,13 @@
     </row>
     <row r="526" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A526" s="106" t="s">
-        <v>948</v>
+        <v>954</v>
       </c>
       <c r="B526" s="107" t="s">
-        <v>890</v>
+        <v>896</v>
       </c>
       <c r="C526" s="108" t="s">
-        <v>881</v>
+        <v>887</v>
       </c>
       <c r="D526" s="109" t="s">
         <v>32</v>
@@ -14844,13 +15058,13 @@
     </row>
     <row r="527" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A527" s="106" t="s">
-        <v>949</v>
+        <v>955</v>
       </c>
       <c r="B527" s="107" t="s">
-        <v>883</v>
+        <v>889</v>
       </c>
       <c r="C527" s="108" t="s">
-        <v>899</v>
+        <v>905</v>
       </c>
       <c r="D527" s="109" t="s">
         <v>32</v>
@@ -14866,13 +15080,13 @@
     </row>
     <row r="528" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A528" s="106" t="s">
-        <v>950</v>
+        <v>956</v>
       </c>
       <c r="B528" s="107" t="s">
-        <v>886</v>
+        <v>892</v>
       </c>
       <c r="C528" s="108" t="s">
-        <v>887</v>
+        <v>893</v>
       </c>
       <c r="D528" s="109" t="s">
         <v>32</v>
@@ -14902,10 +15116,10 @@
       <c r="L529" s="109"/>
     </row>
     <row r="530" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A530" s="118" t="s">
-        <v>951</v>
-      </c>
-      <c r="B530" s="119"/>
+      <c r="A530" s="116" t="s">
+        <v>957</v>
+      </c>
+      <c r="B530" s="117"/>
       <c r="C530" s="104"/>
       <c r="D530" s="105"/>
       <c r="E530" s="105"/>
@@ -14919,13 +15133,13 @@
     </row>
     <row r="531" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A531" s="106" t="s">
-        <v>952</v>
+        <v>958</v>
       </c>
       <c r="B531" s="107" t="s">
-        <v>890</v>
+        <v>896</v>
       </c>
       <c r="C531" s="108" t="s">
-        <v>881</v>
+        <v>887</v>
       </c>
       <c r="D531" s="109" t="s">
         <v>32</v>
@@ -14941,13 +15155,13 @@
     </row>
     <row r="532" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A532" s="106" t="s">
-        <v>953</v>
+        <v>959</v>
       </c>
       <c r="B532" s="107" t="s">
-        <v>883</v>
+        <v>889</v>
       </c>
       <c r="C532" s="108" t="s">
-        <v>899</v>
+        <v>905</v>
       </c>
       <c r="D532" s="109" t="s">
         <v>32</v>
@@ -14963,13 +15177,13 @@
     </row>
     <row r="533" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A533" s="106" t="s">
-        <v>954</v>
+        <v>960</v>
       </c>
       <c r="B533" s="107" t="s">
-        <v>886</v>
+        <v>892</v>
       </c>
       <c r="C533" s="108" t="s">
-        <v>887</v>
+        <v>893</v>
       </c>
       <c r="D533" s="109" t="s">
         <v>32</v>
@@ -14999,10 +15213,10 @@
       <c r="L534" s="109"/>
     </row>
     <row r="535" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A535" s="118" t="s">
-        <v>955</v>
-      </c>
-      <c r="B535" s="119"/>
+      <c r="A535" s="116" t="s">
+        <v>961</v>
+      </c>
+      <c r="B535" s="117"/>
       <c r="C535" s="104"/>
       <c r="D535" s="105"/>
       <c r="E535" s="105"/>
@@ -15016,13 +15230,13 @@
     </row>
     <row r="536" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A536" s="106" t="s">
-        <v>956</v>
+        <v>962</v>
       </c>
       <c r="B536" s="107" t="s">
-        <v>890</v>
+        <v>896</v>
       </c>
       <c r="C536" s="108" t="s">
-        <v>881</v>
+        <v>887</v>
       </c>
       <c r="D536" s="109" t="s">
         <v>32</v>
@@ -15038,13 +15252,13 @@
     </row>
     <row r="537" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A537" s="106" t="s">
-        <v>957</v>
+        <v>963</v>
       </c>
       <c r="B537" s="107" t="s">
-        <v>883</v>
+        <v>889</v>
       </c>
       <c r="C537" s="108" t="s">
-        <v>899</v>
+        <v>905</v>
       </c>
       <c r="D537" s="109" t="s">
         <v>32</v>
@@ -15060,13 +15274,13 @@
     </row>
     <row r="538" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A538" s="106" t="s">
-        <v>958</v>
+        <v>964</v>
       </c>
       <c r="B538" s="107" t="s">
-        <v>886</v>
+        <v>892</v>
       </c>
       <c r="C538" s="108" t="s">
-        <v>887</v>
+        <v>893</v>
       </c>
       <c r="D538" s="109" t="s">
         <v>32</v>
@@ -15096,10 +15310,10 @@
       <c r="L539" s="109"/>
     </row>
     <row r="540" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A540" s="118" t="s">
-        <v>959</v>
-      </c>
-      <c r="B540" s="119"/>
+      <c r="A540" s="116" t="s">
+        <v>965</v>
+      </c>
+      <c r="B540" s="117"/>
       <c r="C540" s="104"/>
       <c r="D540" s="105"/>
       <c r="E540" s="105"/>
@@ -15113,13 +15327,13 @@
     </row>
     <row r="541" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A541" s="106" t="s">
-        <v>960</v>
+        <v>966</v>
       </c>
       <c r="B541" s="107" t="s">
-        <v>890</v>
+        <v>896</v>
       </c>
       <c r="C541" s="108" t="s">
-        <v>881</v>
+        <v>887</v>
       </c>
       <c r="D541" s="109" t="s">
         <v>32</v>
@@ -15135,13 +15349,13 @@
     </row>
     <row r="542" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A542" s="106" t="s">
-        <v>961</v>
+        <v>967</v>
       </c>
       <c r="B542" s="107" t="s">
-        <v>883</v>
+        <v>889</v>
       </c>
       <c r="C542" s="108" t="s">
-        <v>899</v>
+        <v>905</v>
       </c>
       <c r="D542" s="109" t="s">
         <v>32</v>
@@ -15157,13 +15371,13 @@
     </row>
     <row r="543" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A543" s="106" t="s">
-        <v>962</v>
+        <v>968</v>
       </c>
       <c r="B543" s="107" t="s">
-        <v>886</v>
+        <v>892</v>
       </c>
       <c r="C543" s="108" t="s">
-        <v>887</v>
+        <v>893</v>
       </c>
       <c r="D543" s="109" t="s">
         <v>32</v>
@@ -15193,10 +15407,10 @@
       <c r="L544" s="109"/>
     </row>
     <row r="545" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A545" s="118" t="s">
-        <v>963</v>
-      </c>
-      <c r="B545" s="119"/>
+      <c r="A545" s="116" t="s">
+        <v>969</v>
+      </c>
+      <c r="B545" s="117"/>
       <c r="C545" s="104"/>
       <c r="D545" s="105"/>
       <c r="E545" s="105"/>
@@ -15210,13 +15424,13 @@
     </row>
     <row r="546" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A546" s="106" t="s">
-        <v>964</v>
+        <v>970</v>
       </c>
       <c r="B546" s="107" t="s">
-        <v>890</v>
+        <v>896</v>
       </c>
       <c r="C546" s="108" t="s">
-        <v>881</v>
+        <v>887</v>
       </c>
       <c r="D546" s="109" t="s">
         <v>32</v>
@@ -15232,13 +15446,13 @@
     </row>
     <row r="547" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A547" s="106" t="s">
-        <v>965</v>
+        <v>971</v>
       </c>
       <c r="B547" s="107" t="s">
-        <v>883</v>
+        <v>889</v>
       </c>
       <c r="C547" s="108" t="s">
-        <v>899</v>
+        <v>905</v>
       </c>
       <c r="D547" s="109" t="s">
         <v>32</v>
@@ -15254,13 +15468,13 @@
     </row>
     <row r="548" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A548" s="106" t="s">
-        <v>966</v>
+        <v>972</v>
       </c>
       <c r="B548" s="107" t="s">
-        <v>886</v>
+        <v>892</v>
       </c>
       <c r="C548" s="108" t="s">
-        <v>887</v>
+        <v>893</v>
       </c>
       <c r="D548" s="109" t="s">
         <v>32</v>
@@ -15292,7 +15506,7 @@
     </row>
     <row r="550" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A550" s="101" t="s">
-        <v>967</v>
+        <v>973</v>
       </c>
       <c r="B550" s="102"/>
       <c r="C550" s="102"/>
@@ -15307,10 +15521,10 @@
       <c r="L550" s="103"/>
     </row>
     <row r="551" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A551" s="118" t="s">
-        <v>968</v>
-      </c>
-      <c r="B551" s="119"/>
+      <c r="A551" s="116" t="s">
+        <v>974</v>
+      </c>
+      <c r="B551" s="117"/>
       <c r="C551" s="104"/>
       <c r="D551" s="105"/>
       <c r="E551" s="105"/>
@@ -15324,15 +15538,15 @@
     </row>
     <row r="552" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A552" s="106" t="s">
-        <v>969</v>
+        <v>975</v>
       </c>
       <c r="B552" s="107" t="s">
-        <v>970</v>
+        <v>976</v>
       </c>
       <c r="C552" s="108" t="s">
-        <v>971</v>
-      </c>
-      <c r="D552" s="109" t="s">
+        <v>977</v>
+      </c>
+      <c r="D552" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E552" s="109"/>
@@ -15346,13 +15560,13 @@
     </row>
     <row r="553" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A553" s="106" t="s">
-        <v>972</v>
+        <v>978</v>
       </c>
       <c r="B553" s="107" t="s">
-        <v>883</v>
+        <v>889</v>
       </c>
       <c r="C553" s="108" t="s">
-        <v>899</v>
+        <v>905</v>
       </c>
       <c r="D553" s="109" t="s">
         <v>32</v>
@@ -15368,13 +15582,13 @@
     </row>
     <row r="554" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A554" s="106" t="s">
-        <v>973</v>
+        <v>979</v>
       </c>
       <c r="B554" s="107" t="s">
-        <v>974</v>
+        <v>980</v>
       </c>
       <c r="C554" s="108" t="s">
-        <v>975</v>
+        <v>981</v>
       </c>
       <c r="D554" s="109" t="s">
         <v>32</v>
@@ -15404,10 +15618,10 @@
       </c>
     </row>
     <row r="556" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A556" s="118" t="s">
-        <v>976</v>
-      </c>
-      <c r="B556" s="119"/>
+      <c r="A556" s="116" t="s">
+        <v>982</v>
+      </c>
+      <c r="B556" s="117"/>
       <c r="C556" s="104"/>
       <c r="D556" s="105"/>
       <c r="E556" s="105"/>
@@ -15421,13 +15635,13 @@
     </row>
     <row r="557" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A557" s="106" t="s">
+        <v>983</v>
+      </c>
+      <c r="B557" s="107" t="s">
+        <v>984</v>
+      </c>
+      <c r="C557" s="108" t="s">
         <v>977</v>
-      </c>
-      <c r="B557" s="107" t="s">
-        <v>978</v>
-      </c>
-      <c r="C557" s="108" t="s">
-        <v>971</v>
       </c>
       <c r="D557" s="109" t="s">
         <v>32</v>
@@ -15443,13 +15657,13 @@
     </row>
     <row r="558" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A558" s="106" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="B558" s="107" t="s">
-        <v>883</v>
+        <v>889</v>
       </c>
       <c r="C558" s="108" t="s">
-        <v>899</v>
+        <v>905</v>
       </c>
       <c r="D558" s="109" t="s">
         <v>32</v>
@@ -15465,13 +15679,13 @@
     </row>
     <row r="559" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A559" s="106" t="s">
+        <v>986</v>
+      </c>
+      <c r="B559" s="107" t="s">
         <v>980</v>
       </c>
-      <c r="B559" s="107" t="s">
-        <v>974</v>
-      </c>
       <c r="C559" s="108" t="s">
-        <v>975</v>
+        <v>981</v>
       </c>
       <c r="D559" s="109" t="s">
         <v>32</v>
@@ -15487,13 +15701,13 @@
     </row>
     <row r="560" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A560" s="106" t="s">
-        <v>981</v>
+        <v>987</v>
       </c>
       <c r="B560" s="107" t="s">
-        <v>982</v>
+        <v>988</v>
       </c>
       <c r="C560" s="108" t="s">
-        <v>983</v>
+        <v>989</v>
       </c>
       <c r="D560" s="109" t="s">
         <v>32</v>
@@ -15522,10 +15736,10 @@
       <c r="L561" s="109"/>
     </row>
     <row r="562" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A562" s="118" t="s">
-        <v>984</v>
-      </c>
-      <c r="B562" s="119"/>
+      <c r="A562" s="116" t="s">
+        <v>990</v>
+      </c>
+      <c r="B562" s="117"/>
       <c r="C562" s="104"/>
       <c r="D562" s="105"/>
       <c r="E562" s="105"/>
@@ -15539,13 +15753,13 @@
     </row>
     <row r="563" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A563" s="106" t="s">
-        <v>985</v>
+        <v>991</v>
       </c>
       <c r="B563" s="107" t="s">
-        <v>986</v>
+        <v>992</v>
       </c>
       <c r="C563" s="108" t="s">
-        <v>971</v>
+        <v>977</v>
       </c>
       <c r="D563" s="109" t="s">
         <v>32</v>
@@ -15561,13 +15775,13 @@
     </row>
     <row r="564" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A564" s="106" t="s">
-        <v>987</v>
+        <v>993</v>
       </c>
       <c r="B564" s="111" t="s">
-        <v>988</v>
+        <v>994</v>
       </c>
       <c r="C564" s="112" t="s">
-        <v>989</v>
+        <v>995</v>
       </c>
       <c r="D564" s="109" t="s">
         <v>32</v>
@@ -15583,13 +15797,13 @@
     </row>
     <row r="565" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A565" s="106" t="s">
-        <v>990</v>
+        <v>996</v>
       </c>
       <c r="B565" s="107" t="s">
-        <v>886</v>
+        <v>892</v>
       </c>
       <c r="C565" s="108" t="s">
-        <v>887</v>
+        <v>893</v>
       </c>
       <c r="D565" s="109" t="s">
         <v>32</v>
@@ -15607,13 +15821,13 @@
     </row>
     <row r="566" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A566" s="106" t="s">
-        <v>991</v>
+        <v>997</v>
       </c>
       <c r="B566" s="107" t="s">
-        <v>883</v>
+        <v>889</v>
       </c>
       <c r="C566" s="108" t="s">
-        <v>992</v>
+        <v>998</v>
       </c>
       <c r="D566" s="109" t="s">
         <v>32</v>
@@ -15629,13 +15843,13 @@
     </row>
     <row r="567" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A567" s="106" t="s">
-        <v>993</v>
+        <v>999</v>
       </c>
       <c r="B567" s="107" t="s">
-        <v>974</v>
+        <v>980</v>
       </c>
       <c r="C567" s="108" t="s">
-        <v>975</v>
+        <v>981</v>
       </c>
       <c r="D567" s="109" t="s">
         <v>32</v>
@@ -15665,7 +15879,7 @@
     </row>
     <row r="569" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A569" s="101" t="s">
-        <v>994</v>
+        <v>1000</v>
       </c>
       <c r="B569" s="102"/>
       <c r="C569" s="102"/>
@@ -15680,10 +15894,10 @@
       <c r="L569" s="103"/>
     </row>
     <row r="570" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A570" s="118" t="s">
-        <v>995</v>
-      </c>
-      <c r="B570" s="119"/>
+      <c r="A570" s="116" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B570" s="117"/>
       <c r="C570" s="104"/>
       <c r="D570" s="105"/>
       <c r="E570" s="105"/>
@@ -15697,13 +15911,13 @@
     </row>
     <row r="571" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A571" s="106" t="s">
-        <v>996</v>
+        <v>1002</v>
       </c>
       <c r="B571" s="107" t="s">
-        <v>997</v>
+        <v>1003</v>
       </c>
       <c r="C571" s="108" t="s">
-        <v>998</v>
+        <v>1004</v>
       </c>
       <c r="D571" s="109" t="s">
         <v>32</v>
@@ -15719,13 +15933,13 @@
     </row>
     <row r="572" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A572" s="106" t="s">
-        <v>999</v>
+        <v>1005</v>
       </c>
       <c r="B572" s="107" t="s">
-        <v>1000</v>
+        <v>1006</v>
       </c>
       <c r="C572" s="108" t="s">
-        <v>1001</v>
+        <v>1007</v>
       </c>
       <c r="D572" s="109" t="s">
         <v>32</v>
@@ -15741,13 +15955,13 @@
     </row>
     <row r="573" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A573" s="106" t="s">
-        <v>1002</v>
+        <v>1008</v>
       </c>
       <c r="B573" s="107" t="s">
-        <v>883</v>
+        <v>889</v>
       </c>
       <c r="C573" s="108" t="s">
-        <v>899</v>
+        <v>905</v>
       </c>
       <c r="D573" s="109" t="s">
         <v>32</v>
@@ -15763,13 +15977,13 @@
     </row>
     <row r="574" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A574" s="106" t="s">
-        <v>1003</v>
+        <v>1009</v>
       </c>
       <c r="B574" s="107" t="s">
-        <v>1004</v>
+        <v>1010</v>
       </c>
       <c r="C574" s="108" t="s">
-        <v>975</v>
+        <v>981</v>
       </c>
       <c r="D574" s="109" t="s">
         <v>32</v>
@@ -15797,10 +16011,10 @@
       <c r="L575" s="109"/>
     </row>
     <row r="576" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A576" s="118" t="s">
-        <v>1005</v>
-      </c>
-      <c r="B576" s="119"/>
+      <c r="A576" s="116" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B576" s="117"/>
       <c r="C576" s="104"/>
       <c r="D576" s="105"/>
       <c r="E576" s="105"/>
@@ -15814,13 +16028,13 @@
     </row>
     <row r="577" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A577" s="106" t="s">
-        <v>1006</v>
+        <v>1012</v>
       </c>
       <c r="B577" s="107" t="s">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="C577" s="108" t="s">
-        <v>998</v>
+        <v>1004</v>
       </c>
       <c r="D577" s="109" t="s">
         <v>32</v>
@@ -15836,13 +16050,13 @@
     </row>
     <row r="578" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A578" s="106" t="s">
-        <v>1008</v>
+        <v>1014</v>
       </c>
       <c r="B578" s="107" t="s">
-        <v>1000</v>
+        <v>1006</v>
       </c>
       <c r="C578" s="108" t="s">
-        <v>1001</v>
+        <v>1007</v>
       </c>
       <c r="D578" s="109" t="s">
         <v>32</v>
@@ -15858,13 +16072,13 @@
     </row>
     <row r="579" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A579" s="106" t="s">
-        <v>1009</v>
+        <v>1015</v>
       </c>
       <c r="B579" s="107" t="s">
-        <v>886</v>
+        <v>892</v>
       </c>
       <c r="C579" s="108" t="s">
-        <v>887</v>
+        <v>893</v>
       </c>
       <c r="D579" s="109" t="s">
         <v>32</v>
@@ -15882,13 +16096,13 @@
     </row>
     <row r="580" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A580" s="106" t="s">
-        <v>1010</v>
+        <v>1016</v>
       </c>
       <c r="B580" s="107" t="s">
-        <v>883</v>
+        <v>889</v>
       </c>
       <c r="C580" s="108" t="s">
-        <v>899</v>
+        <v>905</v>
       </c>
       <c r="D580" s="109" t="s">
         <v>32</v>
@@ -15904,13 +16118,13 @@
     </row>
     <row r="581" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A581" s="106" t="s">
-        <v>1011</v>
+        <v>1017</v>
       </c>
       <c r="B581" s="107" t="s">
-        <v>1004</v>
+        <v>1010</v>
       </c>
       <c r="C581" s="108" t="s">
-        <v>975</v>
+        <v>981</v>
       </c>
       <c r="D581" s="109" t="s">
         <v>32</v>
@@ -15938,10 +16152,10 @@
       <c r="L582" s="109"/>
     </row>
     <row r="583" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A583" s="118" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B583" s="119"/>
+      <c r="A583" s="116" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B583" s="117"/>
       <c r="C583" s="104"/>
       <c r="D583" s="105"/>
       <c r="E583" s="105"/>
@@ -15955,13 +16169,13 @@
     </row>
     <row r="584" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A584" s="106" t="s">
-        <v>1013</v>
+        <v>1019</v>
       </c>
       <c r="B584" s="107" t="s">
-        <v>1014</v>
+        <v>1020</v>
       </c>
       <c r="C584" s="108" t="s">
-        <v>998</v>
+        <v>1004</v>
       </c>
       <c r="D584" s="109" t="s">
         <v>32</v>
@@ -15977,13 +16191,13 @@
     </row>
     <row r="585" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A585" s="106" t="s">
-        <v>1015</v>
+        <v>1021</v>
       </c>
       <c r="B585" s="107" t="s">
-        <v>883</v>
+        <v>889</v>
       </c>
       <c r="C585" s="108" t="s">
-        <v>899</v>
+        <v>905</v>
       </c>
       <c r="D585" s="109" t="s">
         <v>32</v>
@@ -15999,13 +16213,13 @@
     </row>
     <row r="586" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A586" s="106" t="s">
-        <v>1016</v>
+        <v>1022</v>
       </c>
       <c r="B586" s="107" t="s">
-        <v>1000</v>
+        <v>1006</v>
       </c>
       <c r="C586" s="108" t="s">
-        <v>1001</v>
+        <v>1007</v>
       </c>
       <c r="D586" s="109" t="s">
         <v>32</v>
@@ -16021,13 +16235,13 @@
     </row>
     <row r="587" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A587" s="106" t="s">
-        <v>1017</v>
+        <v>1023</v>
       </c>
       <c r="B587" s="107" t="s">
-        <v>1004</v>
+        <v>1010</v>
       </c>
       <c r="C587" s="108" t="s">
-        <v>975</v>
+        <v>981</v>
       </c>
       <c r="D587" s="109" t="s">
         <v>32</v>
@@ -16055,10 +16269,10 @@
       <c r="L588" s="109"/>
     </row>
     <row r="589" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A589" s="118" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B589" s="119"/>
+      <c r="A589" s="116" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B589" s="117"/>
       <c r="C589" s="104"/>
       <c r="D589" s="105"/>
       <c r="E589" s="105"/>
@@ -16072,13 +16286,13 @@
     </row>
     <row r="590" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A590" s="106" t="s">
-        <v>1019</v>
+        <v>1025</v>
       </c>
       <c r="B590" s="107" t="s">
-        <v>1020</v>
+        <v>1026</v>
       </c>
       <c r="C590" s="108" t="s">
-        <v>998</v>
+        <v>1004</v>
       </c>
       <c r="D590" s="109" t="s">
         <v>32</v>
@@ -16094,13 +16308,13 @@
     </row>
     <row r="591" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A591" s="106" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="B591" s="107" t="s">
-        <v>883</v>
+        <v>889</v>
       </c>
       <c r="C591" s="108" t="s">
-        <v>899</v>
+        <v>905</v>
       </c>
       <c r="D591" s="109" t="s">
         <v>32</v>
@@ -16116,13 +16330,13 @@
     </row>
     <row r="592" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A592" s="106" t="s">
-        <v>1022</v>
+        <v>1028</v>
       </c>
       <c r="B592" s="107" t="s">
-        <v>1000</v>
+        <v>1006</v>
       </c>
       <c r="C592" s="108" t="s">
-        <v>1001</v>
+        <v>1007</v>
       </c>
       <c r="D592" s="109" t="s">
         <v>32</v>
@@ -16138,13 +16352,13 @@
     </row>
     <row r="593" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A593" s="106" t="s">
-        <v>1023</v>
+        <v>1029</v>
       </c>
       <c r="B593" s="107" t="s">
-        <v>1004</v>
+        <v>1010</v>
       </c>
       <c r="C593" s="108" t="s">
-        <v>975</v>
+        <v>981</v>
       </c>
       <c r="D593" s="109" t="s">
         <v>32</v>
@@ -16172,10 +16386,10 @@
       <c r="L594" s="109"/>
     </row>
     <row r="595" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A595" s="118" t="s">
-        <v>1024</v>
-      </c>
-      <c r="B595" s="119"/>
+      <c r="A595" s="116" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B595" s="117"/>
       <c r="C595" s="104"/>
       <c r="D595" s="105"/>
       <c r="E595" s="105"/>
@@ -16189,13 +16403,13 @@
     </row>
     <row r="596" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A596" s="106" t="s">
-        <v>1025</v>
+        <v>1031</v>
       </c>
       <c r="B596" s="107" t="s">
-        <v>1026</v>
+        <v>1032</v>
       </c>
       <c r="C596" s="108" t="s">
-        <v>998</v>
+        <v>1004</v>
       </c>
       <c r="D596" s="109" t="s">
         <v>32</v>
@@ -16211,13 +16425,13 @@
     </row>
     <row r="597" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A597" s="106" t="s">
-        <v>1027</v>
+        <v>1033</v>
       </c>
       <c r="B597" s="107" t="s">
-        <v>883</v>
+        <v>889</v>
       </c>
       <c r="C597" s="108" t="s">
-        <v>899</v>
+        <v>905</v>
       </c>
       <c r="D597" s="109" t="s">
         <v>32</v>
@@ -16233,13 +16447,13 @@
     </row>
     <row r="598" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A598" s="106" t="s">
-        <v>1028</v>
+        <v>1034</v>
       </c>
       <c r="B598" s="107" t="s">
-        <v>1004</v>
+        <v>1010</v>
       </c>
       <c r="C598" s="108" t="s">
-        <v>975</v>
+        <v>981</v>
       </c>
       <c r="D598" s="109" t="s">
         <v>32</v>
@@ -16367,24 +16581,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A595:B595"/>
-    <mergeCell ref="A477:B477"/>
-    <mergeCell ref="A540:B540"/>
-    <mergeCell ref="A589:B589"/>
-    <mergeCell ref="A520:B520"/>
-    <mergeCell ref="M2:T2"/>
-    <mergeCell ref="A448:B448"/>
-    <mergeCell ref="A484:B484"/>
-    <mergeCell ref="A556:B556"/>
-    <mergeCell ref="A583:B583"/>
-    <mergeCell ref="A509:B509"/>
-    <mergeCell ref="M4:T4"/>
-    <mergeCell ref="M5:T5"/>
-    <mergeCell ref="A576:B576"/>
-    <mergeCell ref="A570:B570"/>
-    <mergeCell ref="A535:B535"/>
-    <mergeCell ref="A551:B551"/>
-    <mergeCell ref="A530:B530"/>
     <mergeCell ref="M1:S1"/>
     <mergeCell ref="A562:B562"/>
     <mergeCell ref="A499:B499"/>
@@ -16401,8 +16597,26 @@
     <mergeCell ref="A494:B494"/>
     <mergeCell ref="A525:B525"/>
     <mergeCell ref="A466:B466"/>
+    <mergeCell ref="M2:T2"/>
+    <mergeCell ref="A448:B448"/>
+    <mergeCell ref="A484:B484"/>
+    <mergeCell ref="A556:B556"/>
+    <mergeCell ref="A583:B583"/>
+    <mergeCell ref="A509:B509"/>
+    <mergeCell ref="M4:T4"/>
+    <mergeCell ref="M5:T5"/>
+    <mergeCell ref="A576:B576"/>
+    <mergeCell ref="A570:B570"/>
+    <mergeCell ref="A535:B535"/>
+    <mergeCell ref="A551:B551"/>
+    <mergeCell ref="A530:B530"/>
+    <mergeCell ref="A595:B595"/>
+    <mergeCell ref="A477:B477"/>
+    <mergeCell ref="A540:B540"/>
+    <mergeCell ref="A589:B589"/>
+    <mergeCell ref="A520:B520"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/GPS_ChecklistForAutoTest.xlsx
+++ b/GPS_ChecklistForAutoTest.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1853" uniqueCount="1035">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1741" uniqueCount="1028">
   <si>
     <t>WEBGPS SYSTEM - CHECKLIST AUTOMATION TEST</t>
   </si>
@@ -939,9 +939,6 @@
   <si>
     <t>Mở tab mới và chuyển tới module "Quản lý ảnh camera"
 Ô Phương tiện fill BKS vừa chọn</t>
-  </si>
-  <si>
-    <t>GiamSat83_ChuotPhaiXe_XemAnhCameraND10.png</t>
   </si>
   <si>
     <t>5.9 Giám sát camera - NĐ10</t>
@@ -1200,9 +1197,6 @@
     <t>Hiển thị Popup "Phương tiện thiếu thông tin tích truyền"</t>
   </si>
   <si>
-    <t>GiamSat112_CanhBao_PhuongTienThieuThongTinTichTruyen.png</t>
-  </si>
-  <si>
     <t>Không hiện popup nên ko check được các thông tin</t>
   </si>
   <si>
@@ -1234,9 +1228,6 @@
   </si>
   <si>
     <t>Hiển thị Popup "Xem ảnh camera"</t>
-  </si>
-  <si>
-    <t>GiamSat115_CanhBao_XemAnhCamera.png</t>
   </si>
   <si>
     <t>6.4 Hiện trạng hệ thống</t>
@@ -1315,9 +1306,6 @@
     <t>Hiển thị Popup "Thông tin xe tới hạn đi vào phố cấm"</t>
   </si>
   <si>
-    <t>GiamSat124_CanhBao_ThongTinXeToiHanDiVaoPhoCam.png</t>
-  </si>
-  <si>
     <t>6.8 Cảnh báo xe chưa tới điểm</t>
   </si>
   <si>
@@ -1795,9 +1783,6 @@
     <t>Hiển thị Popup "Cấu hình hiển thị nhóm điểm"</t>
   </si>
   <si>
-    <t>GiamSat187_ChuotPhaiVaoMap_CauHinhHienThiNhomDiem.png</t>
-  </si>
-  <si>
     <t>GiamSat188</t>
   </si>
   <si>
@@ -1934,9 +1919,6 @@
   </si>
   <si>
     <t>Hiển thị Popup "Biểu đồ nhiên liệu mới"</t>
-  </si>
-  <si>
-    <t>GiamSat203_ChuotPhaiVaoMap_BieuDoNguyenLieuMoi.png</t>
   </si>
   <si>
     <t>8.13 GS theo tuyến mẫu</t>
@@ -2079,9 +2061,6 @@
   <si>
     <t>Hiển thị Popup "Biểu đồ nhiên liệu"
 Ô phương tiện để trống</t>
-  </si>
-  <si>
-    <t>GiamSat220_ChuotPhaiVaoMap_BieuDoNguyenLieu.png</t>
   </si>
   <si>
     <t>8.17 Điều xe đi tuyến</t>
@@ -4225,10 +4204,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T606"/>
+  <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A581" workbookViewId="0">
-      <selection activeCell="J601" sqref="J601"/>
+    <sheetView tabSelected="1" topLeftCell="A389" workbookViewId="0">
+      <selection activeCell="J398" sqref="J398"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4338,11 +4317,11 @@
       </c>
       <c r="D4" s="4">
         <f>COUNTIFS(H:H,"Pass",D:D,"x")</f>
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="E4" s="4">
         <f>COUNTIFS(H:H,"Fail",D:D,"x")</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -4373,11 +4352,11 @@
       </c>
       <c r="D5" s="4">
         <f>COUNTIFS(H:H,"Pass",E:E,"x")</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E5" s="4">
         <f>COUNTIFS(H:H,"Fail",E:E,"x")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -4408,7 +4387,7 @@
       </c>
       <c r="D6" s="4">
         <f>COUNTIFS(H:H,"Pass",F:F,"x")</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E6" s="4">
         <f>COUNTIFS(H:H,"Fail",F:F,"x")</f>
@@ -4434,7 +4413,7 @@
       </c>
       <c r="D7" s="4">
         <f>COUNTIFS(H:H,"Pass",G:G,"x")</f>
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E7" s="4">
         <f>COUNTIFS(H:H,"Fail",G:G,"x")</f>
@@ -4538,9 +4517,7 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
@@ -4562,9 +4539,7 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
@@ -4586,9 +4561,7 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
@@ -5080,9 +5053,7 @@
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
-      <c r="H37" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="H37" s="4"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
@@ -5104,9 +5075,7 @@
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
-      <c r="H38" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="H38" s="4"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
@@ -5202,9 +5171,7 @@
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
-      <c r="H43" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="H43" s="4"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
@@ -5226,9 +5193,7 @@
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
-      <c r="H44" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="H44" s="4"/>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
@@ -5280,9 +5245,7 @@
       <c r="E47" s="38"/>
       <c r="F47" s="38"/>
       <c r="G47" s="38"/>
-      <c r="H47" s="38" t="s">
-        <v>6</v>
-      </c>
+      <c r="H47" s="38"/>
       <c r="I47" s="38"/>
       <c r="J47" s="38"/>
       <c r="K47" s="4"/>
@@ -6226,9 +6189,7 @@
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
       <c r="G92" s="4"/>
-      <c r="H92" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="H92" s="4"/>
       <c r="I92" s="4"/>
       <c r="J92" s="4"/>
       <c r="K92" s="4"/>
@@ -6280,9 +6241,7 @@
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
       <c r="G95" s="4"/>
-      <c r="H95" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="H95" s="4"/>
       <c r="I95" s="4"/>
       <c r="J95" s="4"/>
       <c r="K95" s="4"/>
@@ -6306,9 +6265,7 @@
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
       <c r="G96" s="4"/>
-      <c r="H96" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="H96" s="4"/>
       <c r="I96" s="4"/>
       <c r="J96" s="4"/>
       <c r="K96" s="4"/>
@@ -6332,9 +6289,7 @@
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
       <c r="G97" s="4"/>
-      <c r="H97" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="H97" s="4"/>
       <c r="I97" s="4"/>
       <c r="J97" s="4"/>
       <c r="K97" s="4"/>
@@ -6424,9 +6379,7 @@
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
       <c r="G102" s="4"/>
-      <c r="H102" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="H102" s="4"/>
       <c r="I102" s="4"/>
       <c r="J102" s="4"/>
       <c r="K102" s="4"/>
@@ -6448,9 +6401,7 @@
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
       <c r="G103" s="4"/>
-      <c r="H103" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="H103" s="4"/>
       <c r="I103" s="4"/>
       <c r="J103" s="4"/>
       <c r="K103" s="4"/>
@@ -6472,9 +6423,7 @@
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
       <c r="G104" s="4"/>
-      <c r="H104" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="H104" s="4"/>
       <c r="I104" s="4"/>
       <c r="J104" s="4"/>
       <c r="K104" s="4"/>
@@ -6496,9 +6445,7 @@
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
       <c r="G105" s="4"/>
-      <c r="H105" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="H105" s="4"/>
       <c r="I105" s="4"/>
       <c r="J105" s="4"/>
       <c r="K105" s="4"/>
@@ -6520,9 +6467,7 @@
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
       <c r="G106" s="4"/>
-      <c r="H106" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="H106" s="4"/>
       <c r="I106" s="4"/>
       <c r="J106" s="4"/>
       <c r="K106" s="4"/>
@@ -6576,9 +6521,7 @@
       <c r="E109" s="4"/>
       <c r="F109" s="4"/>
       <c r="G109" s="4"/>
-      <c r="H109" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="H109" s="4"/>
       <c r="I109" s="4"/>
       <c r="J109" s="4"/>
       <c r="K109" s="4"/>
@@ -6786,9 +6729,7 @@
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
       <c r="G119" s="4"/>
-      <c r="H119" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="H119" s="4"/>
       <c r="I119" s="4"/>
       <c r="J119" s="4"/>
       <c r="K119" s="4"/>
@@ -6928,9 +6869,7 @@
       <c r="E126" s="4"/>
       <c r="F126" s="4"/>
       <c r="G126" s="4"/>
-      <c r="H126" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="H126" s="4"/>
       <c r="I126" s="4"/>
       <c r="J126" s="4"/>
       <c r="K126" s="4"/>
@@ -7004,9 +6943,7 @@
       <c r="E130" s="4"/>
       <c r="F130" s="4"/>
       <c r="G130" s="4"/>
-      <c r="H130" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="H130" s="4"/>
       <c r="I130" s="4"/>
       <c r="J130" s="4"/>
       <c r="K130" s="4"/>
@@ -7060,9 +6997,7 @@
       <c r="E133" s="38"/>
       <c r="F133" s="38"/>
       <c r="G133" s="38"/>
-      <c r="H133" s="38" t="s">
-        <v>6</v>
-      </c>
+      <c r="H133" s="38"/>
       <c r="I133" s="38"/>
       <c r="J133" s="38"/>
       <c r="K133" s="38"/>
@@ -7084,9 +7019,7 @@
       <c r="E134" s="38"/>
       <c r="F134" s="38"/>
       <c r="G134" s="38"/>
-      <c r="H134" s="38" t="s">
-        <v>6</v>
-      </c>
+      <c r="H134" s="38"/>
       <c r="I134" s="38"/>
       <c r="J134" s="38"/>
       <c r="K134" s="38"/>
@@ -7336,9 +7269,7 @@
       <c r="E146" s="4"/>
       <c r="F146" s="4"/>
       <c r="G146" s="4"/>
-      <c r="H146" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="H146" s="4"/>
       <c r="I146" s="4"/>
       <c r="J146" s="4"/>
       <c r="K146" s="4"/>
@@ -7360,9 +7291,7 @@
       <c r="E147" s="4"/>
       <c r="F147" s="4"/>
       <c r="G147" s="4"/>
-      <c r="H147" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="H147" s="4"/>
       <c r="I147" s="4"/>
       <c r="J147" s="4"/>
       <c r="K147" s="4"/>
@@ -7414,12 +7343,8 @@
       <c r="E150" s="4"/>
       <c r="F150" s="4"/>
       <c r="G150" s="4"/>
-      <c r="H150" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I150" s="4" t="s">
-        <v>306</v>
-      </c>
+      <c r="H150" s="4"/>
+      <c r="I150" s="4"/>
       <c r="J150" s="4"/>
       <c r="K150" s="4"/>
       <c r="L150" s="4"/>
@@ -7439,7 +7364,7 @@
     </row>
     <row r="152" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="43" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B152" s="28"/>
       <c r="C152" s="23"/>
@@ -7455,13 +7380,13 @@
     </row>
     <row r="153" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="44" t="s">
+        <v>307</v>
+      </c>
+      <c r="B153" s="18" t="s">
         <v>308</v>
       </c>
-      <c r="B153" s="18" t="s">
+      <c r="C153" s="18" t="s">
         <v>309</v>
-      </c>
-      <c r="C153" s="18" t="s">
-        <v>310</v>
       </c>
       <c r="D153" s="4" t="s">
         <v>32</v>
@@ -7469,9 +7394,7 @@
       <c r="E153" s="4"/>
       <c r="F153" s="4"/>
       <c r="G153" s="4"/>
-      <c r="H153" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="H153" s="4"/>
       <c r="I153" s="4"/>
       <c r="J153" s="4"/>
       <c r="K153" s="4"/>
@@ -7493,7 +7416,7 @@
     </row>
     <row r="155" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="43" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B155" s="28"/>
       <c r="C155" s="23"/>
@@ -7509,13 +7432,13 @@
     </row>
     <row r="156" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="44" t="s">
+        <v>311</v>
+      </c>
+      <c r="B156" s="18" t="s">
         <v>312</v>
       </c>
-      <c r="B156" s="18" t="s">
+      <c r="C156" s="18" t="s">
         <v>313</v>
-      </c>
-      <c r="C156" s="18" t="s">
-        <v>314</v>
       </c>
       <c r="D156" s="4" t="s">
         <v>32</v>
@@ -7523,9 +7446,7 @@
       <c r="E156" s="4"/>
       <c r="F156" s="4"/>
       <c r="G156" s="4"/>
-      <c r="H156" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="H156" s="4"/>
       <c r="I156" s="4"/>
       <c r="J156" s="4"/>
       <c r="K156" s="4"/>
@@ -7533,7 +7454,7 @@
     </row>
     <row r="157" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="44" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B157" s="18" t="s">
         <v>250</v>
@@ -7547,9 +7468,7 @@
       <c r="E157" s="4"/>
       <c r="F157" s="4"/>
       <c r="G157" s="4"/>
-      <c r="H157" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="H157" s="4"/>
       <c r="I157" s="4"/>
       <c r="J157" s="4"/>
       <c r="K157" s="4"/>
@@ -7570,7 +7489,7 @@
     </row>
     <row r="159" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="45" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B159" s="33"/>
       <c r="C159" s="34"/>
@@ -7586,13 +7505,13 @@
     </row>
     <row r="160" spans="1:12" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="44" t="s">
+        <v>316</v>
+      </c>
+      <c r="B160" s="37" t="s">
+        <v>312</v>
+      </c>
+      <c r="C160" s="37" t="s">
         <v>317</v>
-      </c>
-      <c r="B160" s="37" t="s">
-        <v>313</v>
-      </c>
-      <c r="C160" s="37" t="s">
-        <v>318</v>
       </c>
       <c r="D160" s="38" t="s">
         <v>32</v>
@@ -7600,9 +7519,7 @@
       <c r="E160" s="38"/>
       <c r="F160" s="38"/>
       <c r="G160" s="38"/>
-      <c r="H160" s="38" t="s">
-        <v>6</v>
-      </c>
+      <c r="H160" s="38"/>
       <c r="I160" s="38"/>
       <c r="J160" s="38"/>
       <c r="K160" s="38"/>
@@ -7610,7 +7527,7 @@
     </row>
     <row r="161" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="44" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B161" s="37" t="s">
         <v>250</v>
@@ -7624,9 +7541,7 @@
       <c r="E161" s="38"/>
       <c r="F161" s="38"/>
       <c r="G161" s="38"/>
-      <c r="H161" s="38" t="s">
-        <v>6</v>
-      </c>
+      <c r="H161" s="38"/>
       <c r="I161" s="38"/>
       <c r="J161" s="38"/>
       <c r="K161" s="38"/>
@@ -7647,7 +7562,7 @@
     </row>
     <row r="163" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="46" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B163" s="40"/>
       <c r="C163" s="41"/>
@@ -7663,13 +7578,13 @@
     </row>
     <row r="164" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="44" t="s">
+        <v>320</v>
+      </c>
+      <c r="B164" s="37" t="s">
         <v>321</v>
       </c>
-      <c r="B164" s="37" t="s">
+      <c r="C164" s="37" t="s">
         <v>322</v>
-      </c>
-      <c r="C164" s="37" t="s">
-        <v>323</v>
       </c>
       <c r="D164" s="38" t="s">
         <v>32</v>
@@ -7677,14 +7592,12 @@
       <c r="E164" s="38"/>
       <c r="F164" s="38"/>
       <c r="G164" s="38"/>
-      <c r="H164" s="38" t="s">
-        <v>6</v>
-      </c>
+      <c r="H164" s="38"/>
       <c r="I164" s="38"/>
       <c r="J164" s="38"/>
       <c r="K164" s="38"/>
       <c r="L164" s="38" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="165" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7702,7 +7615,7 @@
     </row>
     <row r="166" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="46" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B166" s="40"/>
       <c r="C166" s="41"/>
@@ -7718,13 +7631,13 @@
     </row>
     <row r="167" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="44" t="s">
+        <v>325</v>
+      </c>
+      <c r="B167" s="37" t="s">
         <v>326</v>
       </c>
-      <c r="B167" s="37" t="s">
+      <c r="C167" s="37" t="s">
         <v>327</v>
-      </c>
-      <c r="C167" s="37" t="s">
-        <v>328</v>
       </c>
       <c r="D167" s="38" t="s">
         <v>32</v>
@@ -7732,9 +7645,7 @@
       <c r="E167" s="38"/>
       <c r="F167" s="38"/>
       <c r="G167" s="38"/>
-      <c r="H167" s="38" t="s">
-        <v>6</v>
-      </c>
+      <c r="H167" s="38"/>
       <c r="I167" s="38"/>
       <c r="J167" s="38"/>
       <c r="K167" s="38"/>
@@ -7742,13 +7653,13 @@
     </row>
     <row r="168" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="44" t="s">
+        <v>328</v>
+      </c>
+      <c r="B168" s="18" t="s">
         <v>329</v>
       </c>
-      <c r="B168" s="18" t="s">
+      <c r="C168" s="18" t="s">
         <v>330</v>
-      </c>
-      <c r="C168" s="18" t="s">
-        <v>331</v>
       </c>
       <c r="D168" s="4"/>
       <c r="E168" s="4"/>
@@ -7764,13 +7675,13 @@
     </row>
     <row r="169" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="44" t="s">
+        <v>331</v>
+      </c>
+      <c r="B169" s="18" t="s">
         <v>332</v>
       </c>
-      <c r="B169" s="18" t="s">
+      <c r="C169" s="18" t="s">
         <v>333</v>
-      </c>
-      <c r="C169" s="18" t="s">
-        <v>334</v>
       </c>
       <c r="D169" s="4"/>
       <c r="E169" s="4"/>
@@ -7786,13 +7697,13 @@
     </row>
     <row r="170" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="44" t="s">
+        <v>334</v>
+      </c>
+      <c r="B170" s="18" t="s">
         <v>335</v>
       </c>
-      <c r="B170" s="18" t="s">
+      <c r="C170" s="18" t="s">
         <v>336</v>
-      </c>
-      <c r="C170" s="18" t="s">
-        <v>337</v>
       </c>
       <c r="D170" s="4"/>
       <c r="E170" s="4"/>
@@ -7808,7 +7719,7 @@
     </row>
     <row r="171" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="44" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B171" s="18" t="s">
         <v>250</v>
@@ -7843,7 +7754,7 @@
     </row>
     <row r="173" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="43" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B173" s="28"/>
       <c r="C173" s="23"/>
@@ -7859,13 +7770,13 @@
     </row>
     <row r="174" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="44" t="s">
+        <v>339</v>
+      </c>
+      <c r="B174" s="18" t="s">
         <v>340</v>
       </c>
-      <c r="B174" s="18" t="s">
+      <c r="C174" s="18" t="s">
         <v>341</v>
-      </c>
-      <c r="C174" s="18" t="s">
-        <v>342</v>
       </c>
       <c r="D174" s="4" t="s">
         <v>32</v>
@@ -7873,9 +7784,7 @@
       <c r="E174" s="4"/>
       <c r="F174" s="4"/>
       <c r="G174" s="4"/>
-      <c r="H174" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="H174" s="4"/>
       <c r="I174" s="4"/>
       <c r="J174" s="4"/>
       <c r="K174" s="4"/>
@@ -7883,13 +7792,13 @@
     </row>
     <row r="175" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="44" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B175" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="C175" s="18" t="s">
         <v>330</v>
-      </c>
-      <c r="C175" s="18" t="s">
-        <v>331</v>
       </c>
       <c r="D175" s="4"/>
       <c r="E175" s="4"/>
@@ -7905,13 +7814,13 @@
     </row>
     <row r="176" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="44" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B176" s="18" t="s">
+        <v>332</v>
+      </c>
+      <c r="C176" s="18" t="s">
         <v>333</v>
-      </c>
-      <c r="C176" s="18" t="s">
-        <v>334</v>
       </c>
       <c r="D176" s="4"/>
       <c r="E176" s="4"/>
@@ -7927,13 +7836,13 @@
     </row>
     <row r="177" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="44" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B177" s="18" t="s">
+        <v>335</v>
+      </c>
+      <c r="C177" s="18" t="s">
         <v>336</v>
-      </c>
-      <c r="C177" s="18" t="s">
-        <v>337</v>
       </c>
       <c r="D177" s="4"/>
       <c r="E177" s="4"/>
@@ -7949,7 +7858,7 @@
     </row>
     <row r="178" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="44" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B178" s="18" t="s">
         <v>250</v>
@@ -7984,7 +7893,7 @@
     </row>
     <row r="180" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="28" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B180" s="30"/>
       <c r="C180" s="41"/>
@@ -8000,13 +7909,13 @@
     </row>
     <row r="181" spans="1:12" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="24" t="s">
+        <v>347</v>
+      </c>
+      <c r="B181" s="47" t="s">
         <v>348</v>
       </c>
-      <c r="B181" s="47" t="s">
+      <c r="C181" s="37" t="s">
         <v>349</v>
-      </c>
-      <c r="C181" s="37" t="s">
-        <v>350</v>
       </c>
       <c r="D181" s="38" t="s">
         <v>32</v>
@@ -8014,9 +7923,7 @@
       <c r="E181" s="39"/>
       <c r="F181" s="39"/>
       <c r="G181" s="39"/>
-      <c r="H181" s="51" t="s">
-        <v>6</v>
-      </c>
+      <c r="H181" s="51"/>
       <c r="I181" s="38"/>
       <c r="J181" s="38"/>
       <c r="K181" s="38"/>
@@ -8038,7 +7945,7 @@
     </row>
     <row r="183" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="28" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B183" s="30"/>
       <c r="C183" s="41"/>
@@ -8054,13 +7961,13 @@
     </row>
     <row r="184" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="24" t="s">
+        <v>351</v>
+      </c>
+      <c r="B184" s="47" t="s">
         <v>352</v>
       </c>
-      <c r="B184" s="47" t="s">
+      <c r="C184" s="37" t="s">
         <v>353</v>
-      </c>
-      <c r="C184" s="37" t="s">
-        <v>354</v>
       </c>
       <c r="D184" s="38" t="s">
         <v>32</v>
@@ -8089,7 +7996,7 @@
     </row>
     <row r="186" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="46" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B186" s="40"/>
       <c r="C186" s="41"/>
@@ -8102,18 +8009,18 @@
       <c r="J186" s="42"/>
       <c r="K186" s="42"/>
       <c r="L186" s="42" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="187" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="44" t="s">
+        <v>356</v>
+      </c>
+      <c r="B187" s="37" t="s">
         <v>357</v>
       </c>
-      <c r="B187" s="37" t="s">
+      <c r="C187" s="37" t="s">
         <v>358</v>
-      </c>
-      <c r="C187" s="37" t="s">
-        <v>359</v>
       </c>
       <c r="D187" s="38" t="s">
         <v>32</v>
@@ -8121,9 +8028,7 @@
       <c r="E187" s="38"/>
       <c r="F187" s="38"/>
       <c r="G187" s="38"/>
-      <c r="H187" s="38" t="s">
-        <v>6</v>
-      </c>
+      <c r="H187" s="38"/>
       <c r="I187" s="38"/>
       <c r="J187" s="38"/>
       <c r="K187" s="38"/>
@@ -8131,7 +8036,7 @@
     </row>
     <row r="188" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="44" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B188" s="37" t="s">
         <v>250</v>
@@ -8145,9 +8050,7 @@
       <c r="E188" s="38"/>
       <c r="F188" s="38"/>
       <c r="G188" s="38"/>
-      <c r="H188" s="38" t="s">
-        <v>6</v>
-      </c>
+      <c r="H188" s="38"/>
       <c r="I188" s="38"/>
       <c r="J188" s="38"/>
       <c r="K188" s="38"/>
@@ -8168,7 +8071,7 @@
     </row>
     <row r="190" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="28" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B190" s="28"/>
       <c r="C190" s="10"/>
@@ -8184,13 +8087,13 @@
     </row>
     <row r="191" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="44" t="s">
+        <v>361</v>
+      </c>
+      <c r="B191" s="18" t="s">
         <v>362</v>
       </c>
-      <c r="B191" s="18" t="s">
+      <c r="C191" s="18" t="s">
         <v>363</v>
-      </c>
-      <c r="C191" s="18" t="s">
-        <v>364</v>
       </c>
       <c r="D191" s="4" t="s">
         <v>32</v>
@@ -8198,9 +8101,7 @@
       <c r="E191" s="4"/>
       <c r="F191" s="4"/>
       <c r="G191" s="4"/>
-      <c r="H191" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="H191" s="4"/>
       <c r="I191" s="4"/>
       <c r="J191" s="4"/>
       <c r="K191" s="4"/>
@@ -8208,10 +8109,10 @@
     </row>
     <row r="192" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="44" t="s">
+        <v>364</v>
+      </c>
+      <c r="B192" s="18" t="s">
         <v>365</v>
-      </c>
-      <c r="B192" s="18" t="s">
-        <v>366</v>
       </c>
       <c r="C192" s="18"/>
       <c r="D192" s="4"/>
@@ -8225,15 +8126,15 @@
       <c r="J192" s="4"/>
       <c r="K192" s="4"/>
       <c r="L192" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="193" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="44" t="s">
+        <v>367</v>
+      </c>
+      <c r="B193" s="18" t="s">
         <v>368</v>
-      </c>
-      <c r="B193" s="18" t="s">
-        <v>369</v>
       </c>
       <c r="C193" s="18"/>
       <c r="D193" s="4"/>
@@ -8247,12 +8148,12 @@
       <c r="J193" s="4"/>
       <c r="K193" s="4"/>
       <c r="L193" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="194" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="44" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B194" s="18" t="s">
         <v>250</v>
@@ -8266,9 +8167,7 @@
       <c r="E194" s="4"/>
       <c r="F194" s="4"/>
       <c r="G194" s="4"/>
-      <c r="H194" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="H194" s="4"/>
       <c r="I194" s="4"/>
       <c r="J194" s="4"/>
       <c r="K194" s="4"/>
@@ -8289,7 +8188,7 @@
     </row>
     <row r="196" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="28" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B196" s="28"/>
       <c r="C196" s="23"/>
@@ -8302,18 +8201,18 @@
       <c r="J196" s="9"/>
       <c r="K196" s="9"/>
       <c r="L196" s="42" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="197" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="44" t="s">
+        <v>372</v>
+      </c>
+      <c r="B197" s="18" t="s">
         <v>373</v>
       </c>
-      <c r="B197" s="18" t="s">
+      <c r="C197" s="47" t="s">
         <v>374</v>
-      </c>
-      <c r="C197" s="47" t="s">
-        <v>375</v>
       </c>
       <c r="D197" s="38" t="s">
         <v>32</v>
@@ -8321,9 +8220,7 @@
       <c r="E197" s="38"/>
       <c r="F197" s="38"/>
       <c r="G197" s="38"/>
-      <c r="H197" s="38" t="s">
-        <v>6</v>
-      </c>
+      <c r="H197" s="38"/>
       <c r="I197" s="38"/>
       <c r="J197" s="4"/>
       <c r="K197" s="4"/>
@@ -8331,13 +8228,13 @@
     </row>
     <row r="198" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="44" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B198" s="18" t="s">
         <v>268</v>
       </c>
       <c r="C198" s="18" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D198" s="38" t="s">
         <v>32</v>
@@ -8345,9 +8242,7 @@
       <c r="E198" s="38"/>
       <c r="F198" s="38"/>
       <c r="G198" s="39"/>
-      <c r="H198" s="38" t="s">
-        <v>6</v>
-      </c>
+      <c r="H198" s="38"/>
       <c r="I198" s="38"/>
       <c r="J198" s="4"/>
       <c r="K198" s="4"/>
@@ -8368,7 +8263,7 @@
     </row>
     <row r="200" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="28" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B200" s="28"/>
       <c r="C200" s="23"/>
@@ -8381,18 +8276,18 @@
       <c r="J200" s="9"/>
       <c r="K200" s="9"/>
       <c r="L200" s="42" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="201" spans="1:12" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="44" t="s">
+        <v>379</v>
+      </c>
+      <c r="B201" s="18" t="s">
         <v>380</v>
       </c>
-      <c r="B201" s="18" t="s">
+      <c r="C201" s="18" t="s">
         <v>381</v>
-      </c>
-      <c r="C201" s="18" t="s">
-        <v>382</v>
       </c>
       <c r="D201" s="4" t="s">
         <v>32</v>
@@ -8400,9 +8295,7 @@
       <c r="E201" s="4"/>
       <c r="F201" s="4"/>
       <c r="G201" s="4"/>
-      <c r="H201" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="H201" s="4"/>
       <c r="I201" s="4"/>
       <c r="J201" s="4"/>
       <c r="K201" s="4"/>
@@ -8410,13 +8303,13 @@
     </row>
     <row r="202" spans="1:12" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="44" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B202" s="18" t="s">
         <v>268</v>
       </c>
       <c r="C202" s="18" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D202" s="4" t="s">
         <v>32</v>
@@ -8424,9 +8317,7 @@
       <c r="E202" s="4"/>
       <c r="F202" s="4"/>
       <c r="G202" s="4"/>
-      <c r="H202" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="H202" s="4"/>
       <c r="I202" s="4"/>
       <c r="J202" s="4"/>
       <c r="K202" s="4"/>
@@ -8447,7 +8338,7 @@
     </row>
     <row r="204" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B204" s="21"/>
       <c r="C204" s="21"/>
@@ -8463,7 +8354,7 @@
     </row>
     <row r="205" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="28" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B205" s="23"/>
       <c r="C205" s="23"/>
@@ -8479,13 +8370,13 @@
     </row>
     <row r="206" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="44" t="s">
+        <v>386</v>
+      </c>
+      <c r="B206" s="18" t="s">
         <v>387</v>
       </c>
-      <c r="B206" s="18" t="s">
+      <c r="C206" s="18" t="s">
         <v>388</v>
-      </c>
-      <c r="C206" s="18" t="s">
-        <v>389</v>
       </c>
       <c r="D206" s="4" t="s">
         <v>32</v>
@@ -8493,16 +8384,12 @@
       <c r="E206" s="4"/>
       <c r="F206" s="4"/>
       <c r="G206" s="4"/>
-      <c r="H206" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I206" s="4" t="s">
-        <v>390</v>
-      </c>
+      <c r="H206" s="4"/>
+      <c r="I206" s="4"/>
       <c r="J206" s="4"/>
       <c r="K206" s="4"/>
       <c r="L206" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="207" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8520,7 +8407,7 @@
     </row>
     <row r="208" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B208" s="23"/>
       <c r="C208" s="23"/>
@@ -8536,13 +8423,13 @@
     </row>
     <row r="209" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="44" t="s">
+        <v>391</v>
+      </c>
+      <c r="B209" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="C209" s="18" t="s">
         <v>393</v>
-      </c>
-      <c r="B209" s="18" t="s">
-        <v>394</v>
-      </c>
-      <c r="C209" s="18" t="s">
-        <v>395</v>
       </c>
       <c r="D209" s="4" t="s">
         <v>32</v>
@@ -8550,19 +8437,17 @@
       <c r="E209" s="4"/>
       <c r="F209" s="4"/>
       <c r="G209" s="4"/>
-      <c r="H209" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="H209" s="4"/>
       <c r="I209" s="4"/>
       <c r="J209" s="4"/>
       <c r="K209" s="4"/>
       <c r="L209" s="4" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="210" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="44" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B210" s="18" t="s">
         <v>250</v>
@@ -8576,9 +8461,7 @@
       <c r="E210" s="4"/>
       <c r="F210" s="4"/>
       <c r="G210" s="4"/>
-      <c r="H210" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="H210" s="4"/>
       <c r="I210" s="4"/>
       <c r="J210" s="4"/>
       <c r="K210" s="4"/>
@@ -8599,7 +8482,7 @@
     </row>
     <row r="212" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="28" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B212" s="23"/>
       <c r="C212" s="23"/>
@@ -8615,13 +8498,13 @@
     </row>
     <row r="213" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="44" t="s">
+        <v>397</v>
+      </c>
+      <c r="B213" s="18" t="s">
+        <v>398</v>
+      </c>
+      <c r="C213" s="18" t="s">
         <v>399</v>
-      </c>
-      <c r="B213" s="18" t="s">
-        <v>400</v>
-      </c>
-      <c r="C213" s="18" t="s">
-        <v>401</v>
       </c>
       <c r="D213" s="4" t="s">
         <v>32</v>
@@ -8629,16 +8512,12 @@
       <c r="E213" s="4"/>
       <c r="F213" s="4"/>
       <c r="G213" s="4"/>
-      <c r="H213" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I213" s="4" t="s">
-        <v>402</v>
-      </c>
+      <c r="H213" s="4"/>
+      <c r="I213" s="4"/>
       <c r="J213" s="4"/>
       <c r="K213" s="4"/>
       <c r="L213" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="214" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8656,7 +8535,7 @@
     </row>
     <row r="215" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="28" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B215" s="23"/>
       <c r="C215" s="23"/>
@@ -8672,13 +8551,13 @@
     </row>
     <row r="216" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="44" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B216" s="18" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C216" s="18" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D216" s="4" t="s">
         <v>32</v>
@@ -8686,9 +8565,7 @@
       <c r="E216" s="4"/>
       <c r="F216" s="4"/>
       <c r="G216" s="4"/>
-      <c r="H216" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="H216" s="4"/>
       <c r="I216" s="4"/>
       <c r="J216" s="4"/>
       <c r="K216" s="4"/>
@@ -8696,7 +8573,7 @@
     </row>
     <row r="217" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="44" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B217" s="18" t="s">
         <v>250</v>
@@ -8710,9 +8587,7 @@
       <c r="E217" s="4"/>
       <c r="F217" s="4"/>
       <c r="G217" s="4"/>
-      <c r="H217" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="H217" s="4"/>
       <c r="I217" s="4"/>
       <c r="J217" s="4"/>
       <c r="K217" s="4"/>
@@ -8733,7 +8608,7 @@
     </row>
     <row r="219" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="28" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B219" s="53"/>
       <c r="C219" s="41"/>
@@ -8749,13 +8624,13 @@
     </row>
     <row r="220" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="44" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B220" s="47" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C220" s="37" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D220" s="38" t="s">
         <v>32</v>
@@ -8763,9 +8638,7 @@
       <c r="E220" s="38"/>
       <c r="F220" s="38"/>
       <c r="G220" s="38"/>
-      <c r="H220" s="38" t="s">
-        <v>6</v>
-      </c>
+      <c r="H220" s="38"/>
       <c r="I220" s="38"/>
       <c r="J220" s="38"/>
       <c r="K220" s="38"/>
@@ -8773,7 +8646,7 @@
     </row>
     <row r="221" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="44" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B221" s="47" t="s">
         <v>250</v>
@@ -8787,9 +8660,7 @@
       <c r="E221" s="38"/>
       <c r="F221" s="38"/>
       <c r="G221" s="39"/>
-      <c r="H221" s="38" t="s">
-        <v>6</v>
-      </c>
+      <c r="H221" s="38"/>
       <c r="I221" s="38"/>
       <c r="J221" s="38"/>
       <c r="K221" s="38"/>
@@ -8810,7 +8681,7 @@
     </row>
     <row r="223" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="28" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B223" s="53"/>
       <c r="C223" s="41"/>
@@ -8826,13 +8697,13 @@
     </row>
     <row r="224" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="44" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B224" s="47" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C224" s="37" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D224" s="38" t="s">
         <v>32</v>
@@ -8840,9 +8711,7 @@
       <c r="E224" s="38"/>
       <c r="F224" s="38"/>
       <c r="G224" s="38"/>
-      <c r="H224" s="38" t="s">
-        <v>6</v>
-      </c>
+      <c r="H224" s="38"/>
       <c r="I224" s="38"/>
       <c r="J224" s="38"/>
       <c r="K224" s="38"/>
@@ -8850,7 +8719,7 @@
     </row>
     <row r="225" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="44" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B225" s="37" t="s">
         <v>268</v>
@@ -8864,9 +8733,7 @@
       <c r="E225" s="54"/>
       <c r="F225" s="54"/>
       <c r="G225" s="55"/>
-      <c r="H225" s="54" t="s">
-        <v>6</v>
-      </c>
+      <c r="H225" s="54"/>
       <c r="I225" s="54"/>
       <c r="J225" s="54"/>
       <c r="K225" s="4"/>
@@ -8887,7 +8754,7 @@
     </row>
     <row r="227" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="40" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B227" s="40"/>
       <c r="C227" s="41"/>
@@ -8903,13 +8770,13 @@
     </row>
     <row r="228" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="44" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B228" s="37" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C228" s="37" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="D228" s="38" t="s">
         <v>32</v>
@@ -8917,9 +8784,7 @@
       <c r="E228" s="38"/>
       <c r="F228" s="38"/>
       <c r="G228" s="38"/>
-      <c r="H228" s="38" t="s">
-        <v>6</v>
-      </c>
+      <c r="H228" s="38"/>
       <c r="I228" s="38"/>
       <c r="J228" s="38"/>
       <c r="K228" s="4"/>
@@ -8927,10 +8792,10 @@
     </row>
     <row r="229" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="44" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B229" s="37" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C229" s="37" t="s">
         <v>301</v>
@@ -8941,9 +8806,7 @@
       <c r="E229" s="38"/>
       <c r="F229" s="38"/>
       <c r="G229" s="38"/>
-      <c r="H229" s="38" t="s">
-        <v>6</v>
-      </c>
+      <c r="H229" s="38"/>
       <c r="I229" s="38"/>
       <c r="J229" s="38"/>
       <c r="K229" s="4"/>
@@ -8964,7 +8827,7 @@
     </row>
     <row r="231" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="40" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B231" s="40"/>
       <c r="C231" s="41"/>
@@ -8980,13 +8843,13 @@
     </row>
     <row r="232" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="52" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B232" s="37" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C232" s="37" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D232" s="38" t="s">
         <v>32</v>
@@ -8994,16 +8857,12 @@
       <c r="E232" s="38"/>
       <c r="F232" s="38"/>
       <c r="G232" s="38"/>
-      <c r="H232" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="I232" s="38" t="s">
-        <v>428</v>
-      </c>
+      <c r="H232" s="38"/>
+      <c r="I232" s="38"/>
       <c r="J232" s="38"/>
       <c r="K232" s="38"/>
       <c r="L232" s="38" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="233" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9022,7 +8881,7 @@
     </row>
     <row r="234" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="40" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B234" s="41"/>
       <c r="C234" s="41"/>
@@ -9038,13 +8897,13 @@
     </row>
     <row r="235" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="52" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="B235" s="37" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C235" s="37" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="D235" s="38" t="s">
         <v>32</v>
@@ -9052,22 +8911,20 @@
       <c r="E235" s="38"/>
       <c r="F235" s="38"/>
       <c r="G235" s="38"/>
-      <c r="H235" s="38" t="s">
-        <v>6</v>
-      </c>
+      <c r="H235" s="38"/>
       <c r="I235" s="38"/>
       <c r="J235" s="38"/>
       <c r="K235" s="38"/>
       <c r="L235" s="38" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="236" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="52" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B236" s="37" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C236" s="37" t="s">
         <v>301</v>
@@ -9078,9 +8935,7 @@
       <c r="E236" s="38"/>
       <c r="F236" s="38"/>
       <c r="G236" s="38"/>
-      <c r="H236" s="38" t="s">
-        <v>6</v>
-      </c>
+      <c r="H236" s="38"/>
       <c r="I236" s="38"/>
       <c r="J236" s="38"/>
       <c r="K236" s="38"/>
@@ -9101,7 +8956,7 @@
     </row>
     <row r="238" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="40" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="B238" s="41"/>
       <c r="C238" s="41"/>
@@ -9117,13 +8972,13 @@
     </row>
     <row r="239" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="52" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B239" s="37" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C239" s="37" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="D239" s="38" t="s">
         <v>32</v>
@@ -9131,22 +8986,20 @@
       <c r="E239" s="38"/>
       <c r="F239" s="38"/>
       <c r="G239" s="38"/>
-      <c r="H239" s="38" t="s">
-        <v>6</v>
-      </c>
+      <c r="H239" s="38"/>
       <c r="I239" s="38"/>
       <c r="J239" s="38"/>
       <c r="K239" s="38"/>
       <c r="L239" s="38" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="240" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="52" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B240" s="37" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C240" s="37" t="s">
         <v>301</v>
@@ -9157,9 +9010,7 @@
       <c r="E240" s="38"/>
       <c r="F240" s="38"/>
       <c r="G240" s="38"/>
-      <c r="H240" s="38" t="s">
-        <v>6</v>
-      </c>
+      <c r="H240" s="38"/>
       <c r="I240" s="38"/>
       <c r="J240" s="38"/>
       <c r="K240" s="38"/>
@@ -9181,7 +9032,7 @@
     </row>
     <row r="242" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="58" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B242" s="59"/>
       <c r="C242" s="59"/>
@@ -9197,13 +9048,13 @@
     </row>
     <row r="243" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="52" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B243" s="37" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="C243" s="37" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="D243" s="38"/>
       <c r="E243" s="38" t="s">
@@ -9219,13 +9070,13 @@
     </row>
     <row r="244" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="52" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B244" s="37" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="C244" s="37" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="D244" s="38"/>
       <c r="E244" s="38" t="s">
@@ -9241,10 +9092,10 @@
     </row>
     <row r="245" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="52" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B245" s="37" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C245" s="37"/>
       <c r="D245" s="38"/>
@@ -9258,15 +9109,15 @@
       <c r="J245" s="38"/>
       <c r="K245" s="38"/>
       <c r="L245" s="38" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="246" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="52" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B246" s="37" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C246" s="37"/>
       <c r="D246" s="38"/>
@@ -9280,15 +9131,15 @@
       <c r="J246" s="38"/>
       <c r="K246" s="38"/>
       <c r="L246" s="38" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="247" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="52" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B247" s="18" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="C247" s="37"/>
       <c r="D247" s="4"/>
@@ -9302,12 +9153,12 @@
       <c r="J247" s="4"/>
       <c r="K247" s="4"/>
       <c r="L247" s="38" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="248" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="52" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="B248" s="18" t="s">
         <v>130</v>
@@ -9327,10 +9178,10 @@
     </row>
     <row r="249" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="52" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="B249" s="18" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C249" s="37"/>
       <c r="D249" s="4"/>
@@ -9344,15 +9195,15 @@
       <c r="J249" s="4"/>
       <c r="K249" s="4"/>
       <c r="L249" s="38" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="250" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="52" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="B250" s="18" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C250" s="37"/>
       <c r="D250" s="4"/>
@@ -9369,10 +9220,10 @@
     </row>
     <row r="251" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="52" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B251" s="18" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C251" s="37"/>
       <c r="D251" s="4"/>
@@ -9389,10 +9240,10 @@
     </row>
     <row r="252" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="52" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B252" s="18" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="C252" s="37"/>
       <c r="D252" s="4"/>
@@ -9409,10 +9260,10 @@
     </row>
     <row r="253" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="52" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="B253" s="18" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="C253" s="37"/>
       <c r="D253" s="4"/>
@@ -9429,10 +9280,10 @@
     </row>
     <row r="254" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="52" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B254" s="18" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C254" s="37"/>
       <c r="D254" s="4"/>
@@ -9449,10 +9300,10 @@
     </row>
     <row r="255" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="52" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="B255" s="18" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C255" s="37"/>
       <c r="D255" s="4"/>
@@ -9469,10 +9320,10 @@
     </row>
     <row r="256" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="52" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B256" s="18" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C256" s="37"/>
       <c r="D256" s="4"/>
@@ -9489,7 +9340,7 @@
     </row>
     <row r="257" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="52" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="B257" s="18" t="s">
         <v>127</v>
@@ -9509,10 +9360,10 @@
     </row>
     <row r="258" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="52" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B258" s="18" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C258" s="37"/>
       <c r="D258" s="4"/>
@@ -9529,10 +9380,10 @@
     </row>
     <row r="259" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="52" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B259" s="18" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C259" s="37"/>
       <c r="D259" s="4"/>
@@ -9549,10 +9400,10 @@
     </row>
     <row r="260" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="52" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B260" s="18" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C260" s="37"/>
       <c r="D260" s="4"/>
@@ -9569,10 +9420,10 @@
     </row>
     <row r="261" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="52" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B261" s="18" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="C261" s="37"/>
       <c r="D261" s="4"/>
@@ -9589,10 +9440,10 @@
     </row>
     <row r="262" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="52" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="B262" s="18" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C262" s="37"/>
       <c r="D262" s="4"/>
@@ -9609,10 +9460,10 @@
     </row>
     <row r="263" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="52" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B263" s="18" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C263" s="37"/>
       <c r="D263" s="4"/>
@@ -9629,10 +9480,10 @@
     </row>
     <row r="264" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="52" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="B264" s="18" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C264" s="37"/>
       <c r="D264" s="4"/>
@@ -9649,10 +9500,10 @@
     </row>
     <row r="265" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="52" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="B265" s="18" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C265" s="37"/>
       <c r="D265" s="4"/>
@@ -9669,10 +9520,10 @@
     </row>
     <row r="266" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="52" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B266" s="18" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C266" s="37"/>
       <c r="D266" s="4"/>
@@ -9689,10 +9540,10 @@
     </row>
     <row r="267" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="52" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="B267" s="18" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="C267" s="37"/>
       <c r="D267" s="4"/>
@@ -9709,10 +9560,10 @@
     </row>
     <row r="268" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="52" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B268" s="18" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C268" s="37"/>
       <c r="D268" s="4"/>
@@ -9729,10 +9580,10 @@
     </row>
     <row r="269" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="52" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B269" s="18" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C269" s="37"/>
       <c r="D269" s="4"/>
@@ -9749,10 +9600,10 @@
     </row>
     <row r="270" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="52" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B270" s="18" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C270" s="37"/>
       <c r="D270" s="4"/>
@@ -9782,7 +9633,7 @@
     </row>
     <row r="272" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="8" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="B272" s="21"/>
       <c r="C272" s="21"/>
@@ -9798,7 +9649,7 @@
     </row>
     <row r="273" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="28" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="B273" s="28"/>
       <c r="C273" s="23"/>
@@ -9814,13 +9665,13 @@
     </row>
     <row r="274" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="52" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="B274" s="18" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C274" s="18" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="D274" s="4"/>
       <c r="E274" s="4" t="s">
@@ -9849,7 +9700,7 @@
     </row>
     <row r="276" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="28" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B276" s="28"/>
       <c r="C276" s="23"/>
@@ -9865,13 +9716,13 @@
     </row>
     <row r="277" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="52" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B277" s="18" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="C277" s="18" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="D277" s="4"/>
       <c r="E277" s="4" t="s">
@@ -9900,7 +9751,7 @@
     </row>
     <row r="279" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="28" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="B279" s="23"/>
       <c r="C279" s="23"/>
@@ -9916,13 +9767,13 @@
     </row>
     <row r="280" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="52" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B280" s="18" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="C280" s="18" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="D280" s="4"/>
       <c r="E280" s="4" t="s">
@@ -9951,7 +9802,7 @@
     </row>
     <row r="282" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="28" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="B282" s="23"/>
       <c r="C282" s="23"/>
@@ -9967,13 +9818,13 @@
     </row>
     <row r="283" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="52" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B283" s="18" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C283" s="18" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D283" s="4"/>
       <c r="E283" s="4" t="s">
@@ -10002,7 +9853,7 @@
     </row>
     <row r="285" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="28" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="B285" s="23"/>
       <c r="C285" s="34"/>
@@ -10015,18 +9866,18 @@
       <c r="J285" s="9"/>
       <c r="K285" s="9"/>
       <c r="L285" s="9" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="286" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="52" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="B286" s="47" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="C286" s="37" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="D286" s="38" t="s">
         <v>32</v>
@@ -10034,9 +9885,7 @@
       <c r="E286" s="38"/>
       <c r="F286" s="38"/>
       <c r="G286" s="38"/>
-      <c r="H286" s="38" t="s">
-        <v>6</v>
-      </c>
+      <c r="H286" s="38"/>
       <c r="I286" s="38"/>
       <c r="J286" s="4"/>
       <c r="K286" s="4"/>
@@ -10044,13 +9893,13 @@
     </row>
     <row r="287" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="52" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="B287" s="47" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="C287" s="37" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="D287" s="38" t="s">
         <v>32</v>
@@ -10058,9 +9907,7 @@
       <c r="E287" s="39"/>
       <c r="F287" s="38"/>
       <c r="G287" s="38"/>
-      <c r="H287" s="38" t="s">
-        <v>6</v>
-      </c>
+      <c r="H287" s="38"/>
       <c r="I287" s="38"/>
       <c r="J287" s="4"/>
       <c r="K287" s="4"/>
@@ -10068,13 +9915,13 @@
     </row>
     <row r="288" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="52" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="B288" s="47" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="C288" s="37" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="D288" s="38" t="s">
         <v>32</v>
@@ -10082,9 +9929,7 @@
       <c r="E288" s="39"/>
       <c r="F288" s="38"/>
       <c r="G288" s="38"/>
-      <c r="H288" s="38" t="s">
-        <v>6</v>
-      </c>
+      <c r="H288" s="38"/>
       <c r="I288" s="38"/>
       <c r="J288" s="4"/>
       <c r="K288" s="4"/>
@@ -10092,7 +9937,7 @@
     </row>
     <row r="289" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="52" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="B289" s="47" t="s">
         <v>250</v>
@@ -10106,9 +9951,7 @@
       <c r="E289" s="39"/>
       <c r="F289" s="38"/>
       <c r="G289" s="38"/>
-      <c r="H289" s="38" t="s">
-        <v>6</v>
-      </c>
+      <c r="H289" s="38"/>
       <c r="I289" s="38"/>
       <c r="J289" s="4"/>
       <c r="K289" s="4"/>
@@ -10129,7 +9972,7 @@
     </row>
     <row r="291" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="28" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="B291" s="23"/>
       <c r="C291" s="34"/>
@@ -10145,13 +9988,13 @@
     </row>
     <row r="292" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="52" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="B292" s="47" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="C292" s="37" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="D292" s="38" t="s">
         <v>32</v>
@@ -10161,9 +10004,7 @@
         <v>32</v>
       </c>
       <c r="G292" s="38"/>
-      <c r="H292" s="38" t="s">
-        <v>6</v>
-      </c>
+      <c r="H292" s="38"/>
       <c r="I292" s="38"/>
       <c r="J292" s="4"/>
       <c r="K292" s="4"/>
@@ -10171,10 +10012,10 @@
     </row>
     <row r="293" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="52" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="B293" s="47" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="C293" s="37" t="s">
         <v>301</v>
@@ -10185,9 +10026,7 @@
       <c r="E293" s="38"/>
       <c r="F293" s="39"/>
       <c r="G293" s="38"/>
-      <c r="H293" s="38" t="s">
-        <v>6</v>
-      </c>
+      <c r="H293" s="38"/>
       <c r="I293" s="38"/>
       <c r="J293" s="4"/>
       <c r="K293" s="4"/>
@@ -10195,13 +10034,13 @@
     </row>
     <row r="294" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="52" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B294" s="47" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C294" s="37" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="D294" s="38"/>
       <c r="E294" s="38"/>
@@ -10217,13 +10056,13 @@
     </row>
     <row r="295" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="52" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="B295" s="47" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="C295" s="37" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="D295" s="38"/>
       <c r="E295" s="38"/>
@@ -10239,13 +10078,13 @@
     </row>
     <row r="296" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="52" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B296" s="47" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="C296" s="37" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="D296" s="38"/>
       <c r="E296" s="38"/>
@@ -10261,13 +10100,13 @@
     </row>
     <row r="297" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="73" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B297" s="74" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="C297" s="56" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="D297" s="57"/>
       <c r="E297" s="57"/>
@@ -10283,13 +10122,13 @@
     </row>
     <row r="298" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="52" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="B298" s="37" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="C298" s="37" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="D298" s="38"/>
       <c r="E298" s="38"/>
@@ -10305,13 +10144,13 @@
     </row>
     <row r="299" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="52" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B299" s="37" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="C299" s="37" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="D299" s="38"/>
       <c r="E299" s="38"/>
@@ -10341,7 +10180,7 @@
     </row>
     <row r="301" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="33" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="B301" s="34"/>
       <c r="C301" s="34"/>
@@ -10357,13 +10196,13 @@
     </row>
     <row r="302" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="52" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B302" s="37" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="C302" s="37" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="D302" s="38" t="s">
         <v>32</v>
@@ -10373,9 +10212,7 @@
         <v>32</v>
       </c>
       <c r="G302" s="38"/>
-      <c r="H302" s="38" t="s">
-        <v>6</v>
-      </c>
+      <c r="H302" s="38"/>
       <c r="I302" s="38"/>
       <c r="J302" s="38"/>
       <c r="K302" s="38"/>
@@ -10383,7 +10220,7 @@
     </row>
     <row r="303" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="52" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="B303" s="37" t="s">
         <v>234</v>
@@ -10395,9 +10232,7 @@
       <c r="E303" s="38"/>
       <c r="F303" s="39"/>
       <c r="G303" s="38"/>
-      <c r="H303" s="38" t="s">
-        <v>6</v>
-      </c>
+      <c r="H303" s="38"/>
       <c r="I303" s="38"/>
       <c r="J303" s="38"/>
       <c r="K303" s="38"/>
@@ -10405,13 +10240,13 @@
     </row>
     <row r="304" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="52" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="B304" s="37" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="C304" s="37" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="D304" s="38"/>
       <c r="E304" s="38"/>
@@ -10427,13 +10262,13 @@
     </row>
     <row r="305" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="52" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="B305" s="37" t="s">
         <v>271</v>
       </c>
       <c r="C305" s="52" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="D305" s="38"/>
       <c r="E305" s="38"/>
@@ -10449,13 +10284,13 @@
     </row>
     <row r="306" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="52" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="B306" s="37" t="s">
         <v>217</v>
       </c>
       <c r="C306" s="52" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="D306" s="39"/>
       <c r="E306" s="39"/>
@@ -10471,13 +10306,13 @@
     </row>
     <row r="307" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="52" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B307" s="37" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="C307" s="52" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="D307" s="38"/>
       <c r="E307" s="38"/>
@@ -10506,7 +10341,7 @@
     </row>
     <row r="309" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="28" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="B309" s="23"/>
       <c r="C309" s="23"/>
@@ -10522,13 +10357,13 @@
     </row>
     <row r="310" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="52" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="B310" s="18" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="C310" s="18" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="D310" s="4" t="s">
         <v>32</v>
@@ -10536,9 +10371,7 @@
       <c r="E310" s="4"/>
       <c r="F310" s="4"/>
       <c r="G310" s="4"/>
-      <c r="H310" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="H310" s="4"/>
       <c r="I310" s="4"/>
       <c r="J310" s="4"/>
       <c r="K310" s="4"/>
@@ -10546,7 +10379,7 @@
     </row>
     <row r="311" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="52" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="B311" s="18" t="s">
         <v>234</v>
@@ -10560,9 +10393,7 @@
       <c r="E311" s="4"/>
       <c r="F311" s="4"/>
       <c r="G311" s="4"/>
-      <c r="H311" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="H311" s="4"/>
       <c r="I311" s="4"/>
       <c r="J311" s="4"/>
       <c r="K311" s="4"/>
@@ -10583,7 +10414,7 @@
     </row>
     <row r="313" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="33" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="B313" s="34"/>
       <c r="C313" s="34"/>
@@ -10599,13 +10430,13 @@
     </row>
     <row r="314" spans="1:12" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="52" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="B314" s="37" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="C314" s="37" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="D314" s="38" t="s">
         <v>32</v>
@@ -10615,9 +10446,7 @@
       </c>
       <c r="F314" s="38"/>
       <c r="G314" s="38"/>
-      <c r="H314" s="38" t="s">
-        <v>6</v>
-      </c>
+      <c r="H314" s="38"/>
       <c r="I314" s="38"/>
       <c r="J314" s="38"/>
       <c r="K314" s="38"/>
@@ -10625,10 +10454,10 @@
     </row>
     <row r="315" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="52" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="B315" s="37" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="C315" s="37" t="s">
         <v>186</v>
@@ -10647,13 +10476,13 @@
     </row>
     <row r="316" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="52" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B316" s="37" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="C316" s="37" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="D316" s="38"/>
       <c r="E316" s="38" t="s">
@@ -10669,7 +10498,7 @@
     </row>
     <row r="317" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="52" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="B317" s="37" t="s">
         <v>250</v>
@@ -10685,9 +10514,7 @@
       </c>
       <c r="F317" s="38"/>
       <c r="G317" s="38"/>
-      <c r="H317" s="38" t="s">
-        <v>6</v>
-      </c>
+      <c r="H317" s="38"/>
       <c r="I317" s="38"/>
       <c r="J317" s="38"/>
       <c r="K317" s="38"/>
@@ -10708,7 +10535,7 @@
     </row>
     <row r="319" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="63" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="B319" s="62"/>
       <c r="C319" s="41"/>
@@ -10724,13 +10551,13 @@
     </row>
     <row r="320" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="52" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="B320" s="37" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="C320" s="37" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="D320" s="38" t="s">
         <v>32</v>
@@ -10738,9 +10565,7 @@
       <c r="E320" s="38"/>
       <c r="F320" s="38"/>
       <c r="G320" s="38"/>
-      <c r="H320" s="38" t="s">
-        <v>6</v>
-      </c>
+      <c r="H320" s="38"/>
       <c r="I320" s="38"/>
       <c r="J320" s="38"/>
       <c r="K320" s="38"/>
@@ -10748,7 +10573,7 @@
     </row>
     <row r="321" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="52" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="B321" s="37" t="s">
         <v>250</v>
@@ -10762,9 +10587,7 @@
       <c r="E321" s="38"/>
       <c r="F321" s="38"/>
       <c r="G321" s="38"/>
-      <c r="H321" s="38" t="s">
-        <v>6</v>
-      </c>
+      <c r="H321" s="38"/>
       <c r="I321" s="38"/>
       <c r="J321" s="38"/>
       <c r="K321" s="38"/>
@@ -10785,7 +10608,7 @@
     </row>
     <row r="323" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="69" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="B323" s="70"/>
       <c r="C323" s="70"/>
@@ -10801,13 +10624,13 @@
     </row>
     <row r="324" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="52" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="B324" s="37" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="C324" s="37" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="D324" s="38" t="s">
         <v>32</v>
@@ -10817,19 +10640,15 @@
       </c>
       <c r="F324" s="38"/>
       <c r="G324" s="38"/>
-      <c r="H324" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="I324" s="38" t="s">
-        <v>588</v>
-      </c>
+      <c r="H324" s="38"/>
+      <c r="I324" s="38"/>
       <c r="J324" s="38"/>
       <c r="K324" s="38"/>
       <c r="L324" s="38"/>
     </row>
     <row r="325" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="52" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="B325" s="37" t="s">
         <v>250</v>
@@ -10843,9 +10662,7 @@
       <c r="E325" s="38"/>
       <c r="F325" s="38"/>
       <c r="G325" s="38"/>
-      <c r="H325" s="38" t="s">
-        <v>6</v>
-      </c>
+      <c r="H325" s="38"/>
       <c r="I325" s="38"/>
       <c r="J325" s="38"/>
       <c r="K325" s="38"/>
@@ -10853,13 +10670,13 @@
     </row>
     <row r="326" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="52" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="B326" s="52" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="C326" s="37" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="D326" s="38"/>
       <c r="E326" s="38" t="s">
@@ -10875,13 +10692,13 @@
     </row>
     <row r="327" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="52" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="B327" s="52" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="C327" s="37" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="D327" s="38"/>
       <c r="E327" s="38" t="s">
@@ -10897,13 +10714,13 @@
     </row>
     <row r="328" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="52" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="B328" s="52" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="C328" s="37" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="D328" s="38"/>
       <c r="E328" s="38" t="s">
@@ -10919,13 +10736,13 @@
     </row>
     <row r="329" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="52" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="B329" s="52" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="C329" s="37" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="D329" s="38"/>
       <c r="E329" s="38" t="s">
@@ -10941,13 +10758,13 @@
     </row>
     <row r="330" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="52" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="B330" s="52" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="C330" s="37" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="D330" s="38"/>
       <c r="E330" s="38" t="s">
@@ -10963,13 +10780,13 @@
     </row>
     <row r="331" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="52" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="B331" s="52" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="C331" s="37" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="D331" s="38"/>
       <c r="E331" s="38" t="s">
@@ -10985,13 +10802,13 @@
     </row>
     <row r="332" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="52" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="B332" s="52" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="C332" s="37" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="D332" s="38"/>
       <c r="E332" s="38" t="s">
@@ -11007,13 +10824,13 @@
     </row>
     <row r="333" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="52" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="B333" s="52" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="C333" s="37" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="D333" s="38"/>
       <c r="E333" s="38" t="s">
@@ -11029,13 +10846,13 @@
     </row>
     <row r="334" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="52" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="B334" s="52" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="C334" s="37" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="D334" s="38"/>
       <c r="E334" s="38" t="s">
@@ -11051,13 +10868,13 @@
     </row>
     <row r="335" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="52" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="B335" s="52" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="C335" s="37" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="D335" s="38"/>
       <c r="E335" s="38" t="s">
@@ -11080,9 +10897,9 @@
       <c r="K336" s="38"/>
       <c r="L336" s="38"/>
     </row>
-    <row r="337" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="72" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="B337" s="34"/>
       <c r="C337" s="34"/>
@@ -11095,17 +10912,16 @@
       <c r="J337" s="35"/>
       <c r="K337" s="35"/>
       <c r="L337" s="35"/>
-      <c r="M337" s="75"/>
-    </row>
-    <row r="338" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="338" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="52" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="B338" s="37" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="C338" s="37" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="D338" s="38" t="s">
         <v>32</v>
@@ -11115,18 +10931,15 @@
       </c>
       <c r="F338" s="38"/>
       <c r="G338" s="38"/>
-      <c r="H338" s="38" t="s">
-        <v>6</v>
-      </c>
+      <c r="H338" s="38"/>
       <c r="I338" s="38"/>
       <c r="J338" s="38"/>
       <c r="K338" s="38"/>
       <c r="L338" s="38"/>
-      <c r="M338" s="75"/>
-    </row>
-    <row r="339" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="339" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="52" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="B339" s="37" t="s">
         <v>234</v>
@@ -11140,24 +10953,21 @@
       <c r="E339" s="39"/>
       <c r="F339" s="38"/>
       <c r="G339" s="38"/>
-      <c r="H339" s="38" t="s">
-        <v>6</v>
-      </c>
+      <c r="H339" s="38"/>
       <c r="I339" s="38"/>
       <c r="J339" s="38"/>
       <c r="K339" s="38"/>
       <c r="L339" s="38"/>
-      <c r="M339" s="75"/>
-    </row>
-    <row r="340" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="340" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="52" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="B340" s="37" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="C340" s="37" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="D340" s="38"/>
       <c r="E340" s="38" t="s">
@@ -11170,17 +10980,16 @@
       <c r="J340" s="38"/>
       <c r="K340" s="38"/>
       <c r="L340" s="38"/>
-      <c r="M340" s="75"/>
-    </row>
-    <row r="341" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="341" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="52" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="B341" s="37" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="C341" s="37" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="D341" s="38"/>
       <c r="E341" s="38" t="s">
@@ -11193,9 +11002,8 @@
       <c r="J341" s="38"/>
       <c r="K341" s="38"/>
       <c r="L341" s="38"/>
-      <c r="M341" s="75"/>
-    </row>
-    <row r="342" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="342" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B342" s="37"/>
       <c r="C342" s="37"/>
       <c r="D342" s="38"/>
@@ -11207,11 +11015,10 @@
       <c r="J342" s="38"/>
       <c r="K342" s="38"/>
       <c r="L342" s="38"/>
-      <c r="M342" s="75"/>
-    </row>
-    <row r="343" spans="1:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="343" spans="1:12" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="41" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="B343" s="41"/>
       <c r="C343" s="41"/>
@@ -11224,17 +11031,16 @@
       <c r="J343" s="42"/>
       <c r="K343" s="42"/>
       <c r="L343" s="42"/>
-      <c r="M343" s="75"/>
-    </row>
-    <row r="344" spans="1:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="344" spans="1:12" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="52" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="B344" s="37" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="C344" s="37" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="D344" s="38" t="s">
         <v>32</v>
@@ -11242,18 +11048,13 @@
       <c r="E344" s="38"/>
       <c r="F344" s="38"/>
       <c r="G344" s="38"/>
-      <c r="H344" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="I344" s="38" t="s">
-        <v>635</v>
-      </c>
+      <c r="H344" s="38"/>
+      <c r="I344" s="38"/>
       <c r="J344" s="38"/>
       <c r="K344" s="38"/>
       <c r="L344" s="38"/>
-      <c r="M344" s="75"/>
-    </row>
-    <row r="345" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="345" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B345" s="37"/>
       <c r="C345" s="37"/>
       <c r="D345" s="38"/>
@@ -11265,11 +11066,10 @@
       <c r="J345" s="38"/>
       <c r="K345" s="38"/>
       <c r="L345" s="38"/>
-      <c r="M345" s="75"/>
-    </row>
-    <row r="346" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="346" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="40" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="B346" s="41"/>
       <c r="C346" s="41"/>
@@ -11282,19 +11082,18 @@
       <c r="J346" s="42"/>
       <c r="K346" s="42"/>
       <c r="L346" s="42" t="s">
-        <v>396</v>
-      </c>
-      <c r="M346" s="75"/>
-    </row>
-    <row r="347" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="347" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="52" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="B347" s="37" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="C347" s="37" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D347" s="38" t="s">
         <v>32</v>
@@ -11302,18 +11101,15 @@
       <c r="E347" s="39"/>
       <c r="F347" s="38"/>
       <c r="G347" s="38"/>
-      <c r="H347" s="38" t="s">
-        <v>6</v>
-      </c>
+      <c r="H347" s="38"/>
       <c r="I347" s="38"/>
       <c r="J347" s="38"/>
       <c r="K347" s="38"/>
       <c r="L347" s="38"/>
-      <c r="M347" s="75"/>
-    </row>
-    <row r="348" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="348" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="52" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="B348" s="37" t="s">
         <v>250</v>
@@ -11327,16 +11123,13 @@
       <c r="E348" s="38"/>
       <c r="F348" s="39"/>
       <c r="G348" s="38"/>
-      <c r="H348" s="38" t="s">
-        <v>6</v>
-      </c>
+      <c r="H348" s="38"/>
       <c r="I348" s="38"/>
       <c r="J348" s="38"/>
       <c r="K348" s="38"/>
       <c r="L348" s="38"/>
-      <c r="M348" s="75"/>
-    </row>
-    <row r="349" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="349" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B349" s="74"/>
       <c r="C349" s="74"/>
       <c r="D349" s="75"/>
@@ -11347,11 +11140,10 @@
       <c r="J349" s="75"/>
       <c r="K349" s="75"/>
       <c r="L349" s="75"/>
-      <c r="M349" s="75"/>
-    </row>
-    <row r="350" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="350" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="28" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="B350" s="23"/>
       <c r="C350" s="23"/>
@@ -11364,17 +11156,16 @@
       <c r="J350" s="9"/>
       <c r="K350" s="9"/>
       <c r="L350" s="9"/>
-      <c r="M350" s="75"/>
-    </row>
-    <row r="351" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="351" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="52" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="B351" s="18" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="C351" s="18" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="D351" s="4" t="s">
         <v>32</v>
@@ -11384,18 +11175,15 @@
         <v>32</v>
       </c>
       <c r="G351" s="4"/>
-      <c r="H351" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="H351" s="4"/>
       <c r="I351" s="4"/>
       <c r="J351" s="4"/>
       <c r="K351" s="4"/>
       <c r="L351" s="4"/>
-      <c r="M351" s="75"/>
-    </row>
-    <row r="352" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="352" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="52" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="B352" s="47" t="s">
         <v>250</v>
@@ -11409,24 +11197,21 @@
       <c r="E352" s="4"/>
       <c r="F352" s="4"/>
       <c r="G352" s="4"/>
-      <c r="H352" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="H352" s="4"/>
       <c r="I352" s="4"/>
       <c r="J352" s="4"/>
       <c r="K352" s="4"/>
       <c r="L352" s="4"/>
-      <c r="M352" s="75"/>
     </row>
     <row r="353" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="52" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="B353" s="18" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="C353" s="18" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="D353" s="4"/>
       <c r="E353" s="4"/>
@@ -11439,17 +11224,16 @@
       <c r="J353" s="4"/>
       <c r="K353" s="4"/>
       <c r="L353" s="4"/>
-      <c r="M353" s="75"/>
     </row>
     <row r="354" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="52" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="B354" s="18" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="C354" s="18" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="D354" s="4"/>
       <c r="E354" s="4"/>
@@ -11462,17 +11246,16 @@
       <c r="J354" s="4"/>
       <c r="K354" s="4"/>
       <c r="L354" s="4"/>
-      <c r="M354" s="75"/>
     </row>
     <row r="355" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="52" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="B355" s="18" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="C355" s="18" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="D355" s="4"/>
       <c r="E355" s="4"/>
@@ -11485,17 +11268,16 @@
       <c r="J355" s="4"/>
       <c r="K355" s="4"/>
       <c r="L355" s="4"/>
-      <c r="M355" s="75"/>
     </row>
     <row r="356" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="52" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="B356" s="18" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="C356" s="18" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="D356" s="4"/>
       <c r="E356" s="4"/>
@@ -11508,17 +11290,16 @@
       <c r="J356" s="4"/>
       <c r="K356" s="4"/>
       <c r="L356" s="4"/>
-      <c r="M356" s="75"/>
     </row>
     <row r="357" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="52" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="B357" s="18" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C357" s="18" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="D357" s="4"/>
       <c r="E357" s="4"/>
@@ -11531,17 +11312,16 @@
       <c r="J357" s="4"/>
       <c r="K357" s="4"/>
       <c r="L357" s="4"/>
-      <c r="M357" s="75"/>
     </row>
     <row r="358" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="52" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="B358" s="18" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="C358" s="18" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="D358" s="4"/>
       <c r="E358" s="4"/>
@@ -11554,7 +11334,6 @@
       <c r="J358" s="4"/>
       <c r="K358" s="4"/>
       <c r="L358" s="4"/>
-      <c r="M358" s="75"/>
     </row>
     <row r="359" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B359" s="18"/>
@@ -11568,11 +11347,10 @@
       <c r="J359" s="4"/>
       <c r="K359" s="4"/>
       <c r="L359" s="4"/>
-      <c r="M359" s="75"/>
     </row>
     <row r="360" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="28" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="B360" s="23"/>
       <c r="C360" s="23"/>
@@ -11585,17 +11363,16 @@
       <c r="J360" s="9"/>
       <c r="K360" s="9"/>
       <c r="L360" s="9"/>
-      <c r="M360" s="75"/>
     </row>
     <row r="361" spans="1:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="73" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="B361" s="48" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="C361" s="48" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="D361" s="49" t="s">
         <v>32</v>
@@ -11603,24 +11380,21 @@
       <c r="E361" s="49"/>
       <c r="F361" s="49"/>
       <c r="G361" s="49"/>
-      <c r="H361" s="49" t="s">
-        <v>6</v>
-      </c>
+      <c r="H361" s="49"/>
       <c r="I361" s="49"/>
       <c r="J361" s="49"/>
       <c r="K361" s="49"/>
       <c r="L361" s="49"/>
-      <c r="M361" s="75"/>
     </row>
     <row r="362" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="52" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="B362" s="37" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="C362" s="37" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="D362" s="38"/>
       <c r="E362" s="38"/>
@@ -11633,17 +11407,16 @@
       <c r="J362" s="38"/>
       <c r="K362" s="38"/>
       <c r="L362" s="38"/>
-      <c r="M362" s="75"/>
     </row>
     <row r="363" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="52" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="B363" s="37" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="C363" s="37" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="D363" s="38"/>
       <c r="E363" s="38"/>
@@ -11656,17 +11429,16 @@
       <c r="J363" s="38"/>
       <c r="K363" s="38"/>
       <c r="L363" s="38"/>
-      <c r="M363" s="75"/>
     </row>
     <row r="364" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="52" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="B364" s="37" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="C364" s="37" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="D364" s="38"/>
       <c r="E364" s="38"/>
@@ -11679,17 +11451,16 @@
       <c r="J364" s="38"/>
       <c r="K364" s="38"/>
       <c r="L364" s="38"/>
-      <c r="M364" s="75"/>
     </row>
     <row r="365" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="52" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="B365" s="37" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="C365" s="37" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="D365" s="38"/>
       <c r="E365" s="38"/>
@@ -11702,17 +11473,16 @@
       <c r="J365" s="38"/>
       <c r="K365" s="38"/>
       <c r="L365" s="38"/>
-      <c r="M365" s="75"/>
     </row>
     <row r="366" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="52" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="B366" s="37" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="C366" s="37" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="D366" s="38"/>
       <c r="E366" s="38"/>
@@ -11725,7 +11495,6 @@
       <c r="J366" s="38"/>
       <c r="K366" s="38"/>
       <c r="L366" s="38"/>
-      <c r="M366" s="75"/>
     </row>
     <row r="367" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="39"/>
@@ -11744,7 +11513,7 @@
     </row>
     <row r="368" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="40" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="B368" s="41"/>
       <c r="C368" s="41"/>
@@ -11761,13 +11530,13 @@
     </row>
     <row r="369" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="52" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="B369" s="37" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="C369" s="37" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="D369" s="38" t="s">
         <v>32</v>
@@ -11775,12 +11544,8 @@
       <c r="E369" s="38"/>
       <c r="F369" s="38"/>
       <c r="G369" s="38"/>
-      <c r="H369" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="I369" s="38" t="s">
-        <v>683</v>
-      </c>
+      <c r="H369" s="38"/>
+      <c r="I369" s="38"/>
       <c r="J369" s="38"/>
       <c r="K369" s="38"/>
       <c r="L369" s="38"/>
@@ -11803,7 +11568,7 @@
     </row>
     <row r="371" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="40" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="B371" s="41"/>
       <c r="C371" s="41"/>
@@ -11816,19 +11581,19 @@
       <c r="J371" s="42"/>
       <c r="K371" s="42"/>
       <c r="L371" s="42" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="M371" s="75"/>
     </row>
     <row r="372" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="52" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="B372" s="37" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="C372" s="37" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="D372" s="38" t="s">
         <v>32</v>
@@ -11836,9 +11601,7 @@
       <c r="E372" s="38"/>
       <c r="F372" s="38"/>
       <c r="G372" s="38"/>
-      <c r="H372" s="38" t="s">
-        <v>6</v>
-      </c>
+      <c r="H372" s="38"/>
       <c r="I372" s="38"/>
       <c r="J372" s="38"/>
       <c r="K372" s="38"/>
@@ -11847,10 +11610,10 @@
     </row>
     <row r="373" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="52" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="B373" s="37" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="C373" s="37"/>
       <c r="D373" s="38" t="s">
@@ -11859,9 +11622,7 @@
       <c r="E373" s="38"/>
       <c r="F373" s="38"/>
       <c r="G373" s="39"/>
-      <c r="H373" s="38" t="s">
-        <v>6</v>
-      </c>
+      <c r="H373" s="38"/>
       <c r="I373" s="38"/>
       <c r="J373" s="38"/>
       <c r="K373" s="38"/>
@@ -11885,7 +11646,7 @@
     </row>
     <row r="375" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="76" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="B375" s="76"/>
       <c r="C375" s="76"/>
@@ -11902,13 +11663,13 @@
     </row>
     <row r="376" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="78" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="B376" s="79" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
       <c r="C376" s="67" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="D376" s="80" t="s">
         <v>32</v>
@@ -11916,9 +11677,7 @@
       <c r="E376" s="80"/>
       <c r="F376" s="80"/>
       <c r="G376" s="80"/>
-      <c r="H376" s="80" t="s">
-        <v>6</v>
-      </c>
+      <c r="H376" s="80"/>
       <c r="I376" s="80"/>
       <c r="J376" s="80"/>
       <c r="K376" s="80"/>
@@ -11927,13 +11686,13 @@
     </row>
     <row r="377" spans="1:13" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="78" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="B377" s="79" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="C377" s="67" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="D377" s="80" t="s">
         <v>32</v>
@@ -11941,9 +11700,7 @@
       <c r="E377" s="80"/>
       <c r="F377" s="80"/>
       <c r="G377" s="80"/>
-      <c r="H377" s="80" t="s">
-        <v>6</v>
-      </c>
+      <c r="H377" s="80"/>
       <c r="I377" s="80"/>
       <c r="J377" s="80"/>
       <c r="K377" s="80"/>
@@ -11952,13 +11709,13 @@
     </row>
     <row r="378" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="78" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="B378" s="79" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="C378" s="67" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="D378" s="80" t="s">
         <v>32</v>
@@ -11966,9 +11723,7 @@
       <c r="E378" s="80"/>
       <c r="F378" s="80"/>
       <c r="G378" s="80"/>
-      <c r="H378" s="80" t="s">
-        <v>6</v>
-      </c>
+      <c r="H378" s="80"/>
       <c r="I378" s="80"/>
       <c r="J378" s="80"/>
       <c r="K378" s="80"/>
@@ -11977,13 +11732,13 @@
     </row>
     <row r="379" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="78" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="B379" s="79" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="C379" s="67" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="D379" s="80" t="s">
         <v>32</v>
@@ -11991,9 +11746,7 @@
       <c r="E379" s="80"/>
       <c r="F379" s="80"/>
       <c r="G379" s="80"/>
-      <c r="H379" s="80" t="s">
-        <v>6</v>
-      </c>
+      <c r="H379" s="80"/>
       <c r="I379" s="80"/>
       <c r="J379" s="80"/>
       <c r="K379" s="80"/>
@@ -12002,13 +11755,13 @@
     </row>
     <row r="380" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="78" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="B380" s="79" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="C380" s="67" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="D380" s="80" t="s">
         <v>32</v>
@@ -12016,9 +11769,7 @@
       <c r="E380" s="80"/>
       <c r="F380" s="80"/>
       <c r="G380" s="80"/>
-      <c r="H380" s="80" t="s">
-        <v>6</v>
-      </c>
+      <c r="H380" s="80"/>
       <c r="I380" s="80"/>
       <c r="J380" s="80"/>
       <c r="K380" s="80"/>
@@ -12042,7 +11793,7 @@
     </row>
     <row r="382" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="82" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="B382" s="82"/>
       <c r="C382" s="82"/>
@@ -12059,13 +11810,13 @@
     </row>
     <row r="383" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A383" s="89" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="B383" s="90" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="C383" s="91" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="D383" s="99"/>
       <c r="E383" s="99"/>
@@ -12082,13 +11833,13 @@
     </row>
     <row r="384" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A384" s="89" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="B384" s="90" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="C384" s="91" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="D384" s="80"/>
       <c r="E384" s="99"/>
@@ -12105,13 +11856,13 @@
     </row>
     <row r="385" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A385" s="89" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="B385" s="90" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="C385" s="91" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="D385" s="80"/>
       <c r="E385" s="99"/>
@@ -12128,13 +11879,13 @@
     </row>
     <row r="386" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A386" s="89" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="B386" s="90" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="C386" s="91" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="D386" s="80"/>
       <c r="E386" s="99"/>
@@ -12151,13 +11902,13 @@
     </row>
     <row r="387" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A387" s="89" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="B387" s="90" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="C387" s="91" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="D387" s="80"/>
       <c r="E387" s="99"/>
@@ -12174,13 +11925,13 @@
     </row>
     <row r="388" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A388" s="89" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="B388" s="90" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="C388" s="91" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="D388" s="80"/>
       <c r="E388" s="99"/>
@@ -12197,13 +11948,13 @@
     </row>
     <row r="389" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A389" s="89" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="B389" s="90" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="C389" s="91" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="D389" s="80"/>
       <c r="E389" s="99"/>
@@ -12220,13 +11971,13 @@
     </row>
     <row r="390" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A390" s="89" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="B390" s="90" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="C390" s="91" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
       <c r="D390" s="80"/>
       <c r="E390" s="99"/>
@@ -12243,13 +11994,13 @@
     </row>
     <row r="391" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A391" s="89" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="B391" s="90" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
       <c r="C391" s="91" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="D391" s="80"/>
       <c r="E391" s="99"/>
@@ -12266,13 +12017,13 @@
     </row>
     <row r="392" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A392" s="89" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
       <c r="B392" s="90" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
       <c r="C392" s="91" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="D392" s="80"/>
       <c r="E392" s="99"/>
@@ -12289,13 +12040,13 @@
     </row>
     <row r="393" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A393" s="89" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
       <c r="B393" s="90" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="C393" s="91" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
       <c r="D393" s="80"/>
       <c r="E393" s="99"/>
@@ -12327,7 +12078,7 @@
     </row>
     <row r="395" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="125" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="B395" s="126"/>
       <c r="C395" s="115"/>
@@ -12344,13 +12095,13 @@
     </row>
     <row r="396" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="89" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
       <c r="B396" s="90" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
       <c r="C396" s="91" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="D396" s="88" t="s">
         <v>32</v>
@@ -12360,9 +12111,7 @@
         <v>32</v>
       </c>
       <c r="G396" s="80"/>
-      <c r="H396" s="80" t="s">
-        <v>6</v>
-      </c>
+      <c r="H396" s="80"/>
       <c r="I396" s="80"/>
       <c r="J396" s="80"/>
       <c r="K396" s="80"/>
@@ -12371,7 +12120,7 @@
     </row>
     <row r="397" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="89" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
       <c r="B397" s="90" t="s">
         <v>234</v>
@@ -12385,9 +12134,7 @@
       <c r="E397" s="80"/>
       <c r="F397" s="80"/>
       <c r="G397" s="80"/>
-      <c r="H397" s="80" t="s">
-        <v>6</v>
-      </c>
+      <c r="H397" s="80"/>
       <c r="I397" s="80"/>
       <c r="J397" s="80"/>
       <c r="K397" s="80"/>
@@ -12396,13 +12143,13 @@
     </row>
     <row r="398" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="89" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
       <c r="B398" s="90" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="C398" s="91" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="D398" s="80"/>
       <c r="E398" s="80"/>
@@ -12419,13 +12166,13 @@
     </row>
     <row r="399" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="89" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="B399" s="90" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="C399" s="91" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="D399" s="80"/>
       <c r="E399" s="80"/>
@@ -12442,13 +12189,13 @@
     </row>
     <row r="400" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="89" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
       <c r="B400" s="90" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
       <c r="C400" s="91" t="s">
-        <v>753</v>
+        <v>746</v>
       </c>
       <c r="D400" s="80"/>
       <c r="E400" s="80"/>
@@ -12465,13 +12212,13 @@
     </row>
     <row r="401" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="89" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="B401" s="90" t="s">
         <v>271</v>
       </c>
       <c r="C401" s="91" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="D401" s="80"/>
       <c r="E401" s="80"/>
@@ -12503,7 +12250,7 @@
     </row>
     <row r="403" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="93" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="B403" s="93"/>
       <c r="C403" s="93"/>
@@ -12520,7 +12267,7 @@
     </row>
     <row r="404" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="123" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="B404" s="124"/>
       <c r="C404" s="94"/>
@@ -12537,7 +12284,7 @@
     </row>
     <row r="405" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="33" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="B405" s="34"/>
       <c r="C405" s="34"/>
@@ -12554,13 +12301,13 @@
     </row>
     <row r="406" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="95" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="B406" s="96" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="C406" s="97" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="D406" s="86" t="s">
         <v>32</v>
@@ -12579,10 +12326,10 @@
     </row>
     <row r="407" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="95" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="B407" s="96" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="C407" s="97"/>
       <c r="D407" s="86" t="s">
@@ -12600,10 +12347,10 @@
     </row>
     <row r="408" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="95" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="B408" s="96" t="s">
-        <v>765</v>
+        <v>758</v>
       </c>
       <c r="C408" s="97"/>
       <c r="D408" s="86"/>
@@ -12621,10 +12368,10 @@
     </row>
     <row r="409" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="95" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
       <c r="B409" s="96" t="s">
-        <v>767</v>
+        <v>760</v>
       </c>
       <c r="D409" s="86"/>
       <c r="E409" s="86" t="s">
@@ -12641,10 +12388,10 @@
     </row>
     <row r="410" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="95" t="s">
-        <v>768</v>
+        <v>761</v>
       </c>
       <c r="B410" s="96" t="s">
-        <v>769</v>
+        <v>762</v>
       </c>
       <c r="C410" s="97"/>
       <c r="D410" s="86"/>
@@ -12662,10 +12409,10 @@
     </row>
     <row r="411" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="95" t="s">
-        <v>770</v>
+        <v>763</v>
       </c>
       <c r="B411" s="96" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="D411" s="86"/>
       <c r="E411" s="86" t="s">
@@ -12682,7 +12429,7 @@
     </row>
     <row r="412" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="95" t="s">
-        <v>772</v>
+        <v>765</v>
       </c>
       <c r="B412" s="96" t="s">
         <v>182</v>
@@ -12703,10 +12450,10 @@
     </row>
     <row r="413" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="95" t="s">
-        <v>773</v>
+        <v>766</v>
       </c>
       <c r="B413" s="96" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="C413" s="97"/>
       <c r="D413" s="86"/>
@@ -12738,7 +12485,7 @@
     </row>
     <row r="415" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="45" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="B415" s="34"/>
       <c r="C415" s="34"/>
@@ -12755,13 +12502,13 @@
     </row>
     <row r="416" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="89" t="s">
-        <v>776</v>
+        <v>769</v>
       </c>
       <c r="B416" s="90" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="C416" s="91" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="D416" s="80" t="s">
         <v>32</v>
@@ -12771,9 +12518,7 @@
       <c r="G416" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="H416" s="80" t="s">
-        <v>6</v>
-      </c>
+      <c r="H416" s="80"/>
       <c r="I416" s="80"/>
       <c r="J416" s="80"/>
       <c r="K416" s="80"/>
@@ -12782,13 +12527,13 @@
     </row>
     <row r="417" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="89" t="s">
-        <v>779</v>
+        <v>772</v>
       </c>
       <c r="B417" s="90" t="s">
-        <v>780</v>
+        <v>773</v>
       </c>
       <c r="C417" s="92" t="s">
-        <v>781</v>
+        <v>774</v>
       </c>
       <c r="D417" s="80" t="s">
         <v>32</v>
@@ -12805,13 +12550,13 @@
     </row>
     <row r="418" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="89" t="s">
-        <v>782</v>
+        <v>775</v>
       </c>
       <c r="B418" s="90" t="s">
-        <v>783</v>
+        <v>776</v>
       </c>
       <c r="C418" s="91" t="s">
-        <v>784</v>
+        <v>777</v>
       </c>
       <c r="D418" s="80" t="s">
         <v>32</v>
@@ -12828,13 +12573,13 @@
     </row>
     <row r="419" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="89" t="s">
-        <v>785</v>
+        <v>778</v>
       </c>
       <c r="B419" s="90" t="s">
-        <v>786</v>
+        <v>779</v>
       </c>
       <c r="C419" s="92" t="s">
-        <v>787</v>
+        <v>780</v>
       </c>
       <c r="D419" s="80" t="s">
         <v>32</v>
@@ -12851,13 +12596,13 @@
     </row>
     <row r="420" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="89" t="s">
-        <v>788</v>
+        <v>781</v>
       </c>
       <c r="B420" s="90" t="s">
-        <v>789</v>
+        <v>782</v>
       </c>
       <c r="C420" s="92" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="D420" s="80" t="s">
         <v>32</v>
@@ -12874,13 +12619,13 @@
     </row>
     <row r="421" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="89" t="s">
-        <v>791</v>
+        <v>784</v>
       </c>
       <c r="B421" s="90" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="C421" s="91" t="s">
-        <v>793</v>
+        <v>786</v>
       </c>
       <c r="D421" s="80" t="s">
         <v>32</v>
@@ -12897,13 +12642,13 @@
     </row>
     <row r="422" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="89" t="s">
-        <v>794</v>
+        <v>787</v>
       </c>
       <c r="B422" s="90" t="s">
-        <v>795</v>
+        <v>788</v>
       </c>
       <c r="C422" s="39" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
       <c r="D422" s="39"/>
       <c r="E422" s="80"/>
@@ -12920,13 +12665,13 @@
     </row>
     <row r="423" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="89" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="B423" s="90" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="C423" s="90" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="D423" s="39"/>
       <c r="E423" s="80"/>
@@ -12943,13 +12688,13 @@
     </row>
     <row r="424" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="89" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="B424" s="90" t="s">
-        <v>800</v>
+        <v>793</v>
       </c>
       <c r="C424" s="90" t="s">
-        <v>800</v>
+        <v>793</v>
       </c>
       <c r="D424" s="80"/>
       <c r="E424" s="80"/>
@@ -12966,13 +12711,13 @@
     </row>
     <row r="425" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="89" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="B425" s="90" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
       <c r="C425" s="90" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
       <c r="D425" s="80"/>
       <c r="E425" s="80"/>
@@ -12989,13 +12734,13 @@
     </row>
     <row r="426" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="89" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="B426" s="90" t="s">
-        <v>804</v>
+        <v>797</v>
       </c>
       <c r="C426" s="91" t="s">
-        <v>805</v>
+        <v>798</v>
       </c>
       <c r="D426" s="80"/>
       <c r="E426" s="80"/>
@@ -13003,9 +12748,7 @@
       <c r="G426" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="H426" s="80" t="s">
-        <v>6</v>
-      </c>
+      <c r="H426" s="80"/>
       <c r="I426" s="80"/>
       <c r="J426" s="80"/>
       <c r="K426" s="80"/>
@@ -13014,10 +12757,10 @@
     </row>
     <row r="427" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="89" t="s">
-        <v>806</v>
+        <v>799</v>
       </c>
       <c r="B427" s="90" t="s">
-        <v>807</v>
+        <v>800</v>
       </c>
       <c r="C427" s="91"/>
       <c r="D427" s="80"/>
@@ -13026,9 +12769,7 @@
       <c r="G427" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="H427" s="80" t="s">
-        <v>6</v>
-      </c>
+      <c r="H427" s="80"/>
       <c r="I427" s="80"/>
       <c r="J427" s="80"/>
       <c r="K427" s="80"/>
@@ -13037,10 +12778,10 @@
     </row>
     <row r="428" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="89" t="s">
-        <v>808</v>
+        <v>801</v>
       </c>
       <c r="B428" s="92" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="C428" s="91"/>
       <c r="D428" s="80"/>
@@ -13049,9 +12790,7 @@
       <c r="G428" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="H428" s="80" t="s">
-        <v>6</v>
-      </c>
+      <c r="H428" s="80"/>
       <c r="I428" s="80"/>
       <c r="J428" s="80"/>
       <c r="K428" s="80"/>
@@ -13075,7 +12814,7 @@
     </row>
     <row r="430" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="46" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="B430" s="41"/>
       <c r="C430" s="41"/>
@@ -13092,13 +12831,13 @@
     </row>
     <row r="431" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="89" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="B431" s="90" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="C431" s="39" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="D431" s="80" t="s">
         <v>32</v>
@@ -13108,9 +12847,7 @@
       <c r="G431" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="H431" s="80" t="s">
-        <v>6</v>
-      </c>
+      <c r="H431" s="80"/>
       <c r="I431" s="80"/>
       <c r="J431" s="80"/>
       <c r="K431" s="80"/>
@@ -13119,13 +12856,13 @@
     </row>
     <row r="432" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="89" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="B432" s="90" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="C432" s="91" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="D432" s="80"/>
       <c r="E432" s="39"/>
@@ -13133,9 +12870,7 @@
       <c r="G432" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="H432" s="80" t="s">
-        <v>6</v>
-      </c>
+      <c r="H432" s="80"/>
       <c r="I432" s="80"/>
       <c r="J432" s="80"/>
       <c r="K432" s="80"/>
@@ -13144,10 +12879,10 @@
     </row>
     <row r="433" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="89" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="B433" s="90" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="C433" s="91"/>
       <c r="D433" s="80" t="s">
@@ -13165,10 +12900,10 @@
     </row>
     <row r="434" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="89" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="B434" s="90" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="C434" s="91"/>
       <c r="D434" s="80" t="s">
@@ -13186,10 +12921,10 @@
     </row>
     <row r="435" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="89" t="s">
-        <v>820</v>
+        <v>813</v>
       </c>
       <c r="B435" s="90" t="s">
-        <v>821</v>
+        <v>814</v>
       </c>
       <c r="C435" s="91"/>
       <c r="D435" s="80" t="s">
@@ -13207,10 +12942,10 @@
     </row>
     <row r="436" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="89" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
       <c r="B436" s="90" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="C436" s="91"/>
       <c r="D436" s="80" t="s">
@@ -13228,10 +12963,10 @@
     </row>
     <row r="437" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="89" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
       <c r="B437" s="90" t="s">
-        <v>825</v>
+        <v>818</v>
       </c>
       <c r="C437" s="91"/>
       <c r="D437" s="80"/>
@@ -13240,9 +12975,7 @@
       <c r="G437" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="H437" s="80" t="s">
-        <v>6</v>
-      </c>
+      <c r="H437" s="80"/>
       <c r="I437" s="80"/>
       <c r="J437" s="80"/>
       <c r="K437" s="80"/>
@@ -13251,10 +12984,10 @@
     </row>
     <row r="438" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="89" t="s">
-        <v>826</v>
+        <v>819</v>
       </c>
       <c r="B438" s="90" t="s">
-        <v>827</v>
+        <v>820</v>
       </c>
       <c r="C438" s="91"/>
       <c r="D438" s="39"/>
@@ -13263,9 +12996,7 @@
       <c r="G438" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="H438" s="80" t="s">
-        <v>6</v>
-      </c>
+      <c r="H438" s="80"/>
       <c r="I438" s="80"/>
       <c r="J438" s="80"/>
       <c r="K438" s="80"/>
@@ -13274,10 +13005,10 @@
     </row>
     <row r="439" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="89" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="B439" s="90" t="s">
-        <v>829</v>
+        <v>822</v>
       </c>
       <c r="C439" s="91"/>
       <c r="D439" s="80" t="s">
@@ -13295,10 +13026,10 @@
     </row>
     <row r="440" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="89" t="s">
-        <v>830</v>
+        <v>823</v>
       </c>
       <c r="B440" s="90" t="s">
-        <v>831</v>
+        <v>824</v>
       </c>
       <c r="C440" s="91"/>
       <c r="D440" s="80" t="s">
@@ -13331,7 +13062,7 @@
     </row>
     <row r="442" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="46" t="s">
-        <v>832</v>
+        <v>825</v>
       </c>
       <c r="B442" s="41"/>
       <c r="C442" s="41"/>
@@ -13348,13 +13079,13 @@
     </row>
     <row r="443" spans="1:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="89" t="s">
-        <v>833</v>
+        <v>826</v>
       </c>
       <c r="B443" s="90" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="C443" s="81" t="s">
-        <v>834</v>
+        <v>827</v>
       </c>
       <c r="D443" s="80" t="s">
         <v>32</v>
@@ -13364,9 +13095,7 @@
       <c r="G443" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="H443" s="80" t="s">
-        <v>6</v>
-      </c>
+      <c r="H443" s="80"/>
       <c r="I443" s="80"/>
       <c r="J443" s="80"/>
       <c r="K443" s="80"/>
@@ -13375,10 +13104,10 @@
     </row>
     <row r="444" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="89" t="s">
-        <v>835</v>
+        <v>828</v>
       </c>
       <c r="B444" s="90" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="C444" s="39"/>
       <c r="D444" s="80" t="s">
@@ -13396,10 +13125,10 @@
     </row>
     <row r="445" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="89" t="s">
-        <v>836</v>
+        <v>829</v>
       </c>
       <c r="B445" s="90" t="s">
-        <v>837</v>
+        <v>830</v>
       </c>
       <c r="C445" s="39"/>
       <c r="E445" s="80"/>
@@ -13407,23 +13136,21 @@
       <c r="G445" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="H445" s="80" t="s">
-        <v>6</v>
-      </c>
+      <c r="H445" s="80"/>
       <c r="I445" s="80"/>
       <c r="J445" s="80"/>
       <c r="K445" s="80"/>
       <c r="L445" s="80" t="s">
-        <v>838</v>
+        <v>831</v>
       </c>
       <c r="M445" s="75"/>
     </row>
     <row r="446" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="89" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="B446" s="90" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C446" s="39"/>
       <c r="E446" s="80"/>
@@ -13431,14 +13158,12 @@
       <c r="G446" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="H446" s="80" t="s">
-        <v>6</v>
-      </c>
+      <c r="H446" s="80"/>
       <c r="I446" s="80"/>
       <c r="J446" s="80"/>
       <c r="K446" s="80"/>
       <c r="L446" s="80" t="s">
-        <v>838</v>
+        <v>831</v>
       </c>
       <c r="M446" s="75"/>
     </row>
@@ -13459,7 +13184,7 @@
     </row>
     <row r="448" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="120" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="B448" s="121"/>
       <c r="C448" s="94"/>
@@ -13476,7 +13201,7 @@
     </row>
     <row r="449" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="123" t="s">
-        <v>842</v>
+        <v>835</v>
       </c>
       <c r="B449" s="124"/>
       <c r="C449" s="94"/>
@@ -13493,7 +13218,7 @@
     </row>
     <row r="450" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="45" t="s">
-        <v>843</v>
+        <v>836</v>
       </c>
       <c r="B450" s="34"/>
       <c r="C450" s="34"/>
@@ -13510,13 +13235,13 @@
     </row>
     <row r="451" spans="1:13" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="95" t="s">
-        <v>844</v>
+        <v>837</v>
       </c>
       <c r="B451" s="96" t="s">
-        <v>845</v>
+        <v>838</v>
       </c>
       <c r="C451" s="97" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="D451" s="86" t="s">
         <v>32</v>
@@ -13533,13 +13258,13 @@
     </row>
     <row r="452" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="95" t="s">
-        <v>847</v>
+        <v>840</v>
       </c>
       <c r="B452" s="96" t="s">
-        <v>848</v>
+        <v>841</v>
       </c>
       <c r="C452" s="97" t="s">
-        <v>849</v>
+        <v>842</v>
       </c>
       <c r="D452" s="86" t="s">
         <v>32</v>
@@ -13556,13 +13281,13 @@
     </row>
     <row r="453" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="95" t="s">
-        <v>850</v>
+        <v>843</v>
       </c>
       <c r="B453" s="96" t="s">
-        <v>851</v>
+        <v>844</v>
       </c>
       <c r="C453" s="97" t="s">
-        <v>852</v>
+        <v>845</v>
       </c>
       <c r="D453" s="86" t="s">
         <v>32</v>
@@ -13579,13 +13304,13 @@
     </row>
     <row r="454" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="95" t="s">
-        <v>853</v>
+        <v>846</v>
       </c>
       <c r="B454" s="96" t="s">
-        <v>854</v>
+        <v>847</v>
       </c>
       <c r="C454" s="97" t="s">
-        <v>855</v>
+        <v>848</v>
       </c>
       <c r="D454" s="86"/>
       <c r="E454" s="86" t="s">
@@ -13598,19 +13323,19 @@
       <c r="J454" s="86"/>
       <c r="K454" s="86"/>
       <c r="L454" s="86" t="s">
-        <v>856</v>
+        <v>849</v>
       </c>
       <c r="M454" s="75"/>
     </row>
     <row r="455" spans="1:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="95" t="s">
-        <v>857</v>
+        <v>850</v>
       </c>
       <c r="B455" s="96" t="s">
-        <v>858</v>
+        <v>851</v>
       </c>
       <c r="C455" s="97" t="s">
-        <v>859</v>
+        <v>852</v>
       </c>
       <c r="D455" s="86"/>
       <c r="E455" s="86" t="s">
@@ -13623,19 +13348,19 @@
       <c r="J455" s="86"/>
       <c r="K455" s="86"/>
       <c r="L455" s="86" t="s">
-        <v>856</v>
+        <v>849</v>
       </c>
       <c r="M455" s="75"/>
     </row>
     <row r="456" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="95" t="s">
-        <v>860</v>
+        <v>853</v>
       </c>
       <c r="B456" s="96" t="s">
-        <v>861</v>
+        <v>854</v>
       </c>
       <c r="C456" s="97" t="s">
-        <v>862</v>
+        <v>855</v>
       </c>
       <c r="D456" s="86"/>
       <c r="E456" s="86" t="s">
@@ -13648,19 +13373,19 @@
       <c r="J456" s="86"/>
       <c r="K456" s="86"/>
       <c r="L456" s="86" t="s">
-        <v>856</v>
+        <v>849</v>
       </c>
       <c r="M456" s="75"/>
     </row>
     <row r="457" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="95" t="s">
-        <v>863</v>
+        <v>856</v>
       </c>
       <c r="B457" s="96" t="s">
-        <v>864</v>
+        <v>857</v>
       </c>
       <c r="C457" s="97" t="s">
-        <v>865</v>
+        <v>858</v>
       </c>
       <c r="D457" s="86"/>
       <c r="E457" s="86" t="s">
@@ -13673,19 +13398,19 @@
       <c r="J457" s="86"/>
       <c r="K457" s="86"/>
       <c r="L457" s="86" t="s">
-        <v>856</v>
+        <v>849</v>
       </c>
       <c r="M457" s="75"/>
     </row>
     <row r="458" spans="1:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="95" t="s">
-        <v>866</v>
+        <v>859</v>
       </c>
       <c r="B458" s="96" t="s">
-        <v>867</v>
+        <v>860</v>
       </c>
       <c r="C458" s="97" t="s">
-        <v>868</v>
+        <v>861</v>
       </c>
       <c r="D458" s="86"/>
       <c r="E458" s="86" t="s">
@@ -13698,19 +13423,19 @@
       <c r="J458" s="86"/>
       <c r="K458" s="86"/>
       <c r="L458" s="86" t="s">
-        <v>856</v>
+        <v>849</v>
       </c>
       <c r="M458" s="75"/>
     </row>
     <row r="459" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="95" t="s">
-        <v>869</v>
+        <v>862</v>
       </c>
       <c r="B459" s="96" t="s">
-        <v>870</v>
+        <v>863</v>
       </c>
       <c r="C459" s="97" t="s">
-        <v>871</v>
+        <v>864</v>
       </c>
       <c r="D459" s="86"/>
       <c r="E459" s="86" t="s">
@@ -13723,19 +13448,19 @@
       <c r="J459" s="86"/>
       <c r="K459" s="86"/>
       <c r="L459" s="86" t="s">
-        <v>856</v>
+        <v>849</v>
       </c>
       <c r="M459" s="75"/>
     </row>
     <row r="460" spans="1:13" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="95" t="s">
-        <v>872</v>
+        <v>865</v>
       </c>
       <c r="B460" s="96" t="s">
-        <v>873</v>
+        <v>866</v>
       </c>
       <c r="C460" s="97" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
       <c r="D460" s="86"/>
       <c r="E460" s="86" t="s">
@@ -13748,19 +13473,19 @@
       <c r="J460" s="86"/>
       <c r="K460" s="86"/>
       <c r="L460" s="86" t="s">
-        <v>856</v>
+        <v>849</v>
       </c>
       <c r="M460" s="75"/>
     </row>
     <row r="461" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="98" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
       <c r="B461" s="96" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
       <c r="C461" s="97" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
       <c r="D461" s="86"/>
       <c r="E461" s="86" t="s">
@@ -13773,19 +13498,19 @@
       <c r="J461" s="86"/>
       <c r="K461" s="86"/>
       <c r="L461" s="86" t="s">
-        <v>856</v>
+        <v>849</v>
       </c>
       <c r="M461" s="75"/>
     </row>
     <row r="462" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="98" t="s">
-        <v>878</v>
+        <v>871</v>
       </c>
       <c r="B462" s="96" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
       <c r="C462" s="97" t="s">
-        <v>880</v>
+        <v>873</v>
       </c>
       <c r="D462" s="86"/>
       <c r="E462" s="86" t="s">
@@ -13798,13 +13523,13 @@
       <c r="J462" s="86"/>
       <c r="K462" s="86"/>
       <c r="L462" s="86" t="s">
-        <v>856</v>
+        <v>849</v>
       </c>
       <c r="M462" s="75"/>
     </row>
     <row r="463" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="114" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="B463" s="94"/>
       <c r="C463" s="94"/>
@@ -13821,7 +13546,7 @@
     </row>
     <row r="464" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A464" s="123" t="s">
-        <v>882</v>
+        <v>875</v>
       </c>
       <c r="B464" s="124"/>
       <c r="C464" s="94"/>
@@ -13838,7 +13563,7 @@
     </row>
     <row r="465" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A465" s="101" t="s">
-        <v>883</v>
+        <v>876</v>
       </c>
       <c r="B465" s="102"/>
       <c r="C465" s="102"/>
@@ -13854,7 +13579,7 @@
     </row>
     <row r="466" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A466" s="116" t="s">
-        <v>884</v>
+        <v>877</v>
       </c>
       <c r="B466" s="117"/>
       <c r="C466" s="104"/>
@@ -13870,13 +13595,13 @@
     </row>
     <row r="467" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A467" s="106" t="s">
-        <v>885</v>
+        <v>878</v>
       </c>
       <c r="B467" s="107" t="s">
-        <v>886</v>
+        <v>879</v>
       </c>
       <c r="C467" s="108" t="s">
-        <v>887</v>
+        <v>880</v>
       </c>
       <c r="D467" s="109" t="s">
         <v>32</v>
@@ -13892,13 +13617,13 @@
     </row>
     <row r="468" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A468" s="106" t="s">
-        <v>888</v>
+        <v>881</v>
       </c>
       <c r="B468" s="107" t="s">
-        <v>889</v>
+        <v>882</v>
       </c>
       <c r="C468" s="108" t="s">
-        <v>890</v>
+        <v>883</v>
       </c>
       <c r="D468" s="109" t="s">
         <v>32</v>
@@ -13914,13 +13639,13 @@
     </row>
     <row r="469" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A469" s="106" t="s">
-        <v>891</v>
+        <v>884</v>
       </c>
       <c r="B469" s="107" t="s">
-        <v>892</v>
+        <v>885</v>
       </c>
       <c r="C469" s="108" t="s">
-        <v>893</v>
+        <v>886</v>
       </c>
       <c r="D469" s="109" t="s">
         <v>32</v>
@@ -13938,7 +13663,7 @@
     </row>
     <row r="470" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A470" s="116" t="s">
-        <v>894</v>
+        <v>887</v>
       </c>
       <c r="B470" s="117"/>
       <c r="C470" s="104"/>
@@ -13954,13 +13679,13 @@
     </row>
     <row r="471" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A471" s="106" t="s">
-        <v>895</v>
+        <v>888</v>
       </c>
       <c r="B471" s="107" t="s">
-        <v>896</v>
+        <v>889</v>
       </c>
       <c r="C471" s="108" t="s">
-        <v>887</v>
+        <v>880</v>
       </c>
       <c r="D471" s="109" t="s">
         <v>32</v>
@@ -13976,13 +13701,13 @@
     </row>
     <row r="472" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A472" s="106" t="s">
-        <v>897</v>
+        <v>890</v>
       </c>
       <c r="B472" s="107" t="s">
-        <v>898</v>
+        <v>891</v>
       </c>
       <c r="C472" s="108" t="s">
-        <v>899</v>
+        <v>892</v>
       </c>
       <c r="D472" s="109" t="s">
         <v>32</v>
@@ -13998,13 +13723,13 @@
     </row>
     <row r="473" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A473" s="106" t="s">
-        <v>900</v>
+        <v>893</v>
       </c>
       <c r="B473" s="107" t="s">
-        <v>901</v>
+        <v>894</v>
       </c>
       <c r="C473" s="108" t="s">
-        <v>902</v>
+        <v>895</v>
       </c>
       <c r="D473" s="109" t="s">
         <v>32</v>
@@ -14020,13 +13745,13 @@
     </row>
     <row r="474" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A474" s="106" t="s">
-        <v>903</v>
+        <v>896</v>
       </c>
       <c r="B474" s="107" t="s">
-        <v>904</v>
+        <v>897</v>
       </c>
       <c r="C474" s="108" t="s">
-        <v>905</v>
+        <v>898</v>
       </c>
       <c r="D474" s="109" t="s">
         <v>32</v>
@@ -14042,13 +13767,13 @@
     </row>
     <row r="475" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A475" s="106" t="s">
-        <v>906</v>
+        <v>899</v>
       </c>
       <c r="B475" s="107" t="s">
         <v>182</v>
       </c>
       <c r="C475" s="108" t="s">
-        <v>893</v>
+        <v>886</v>
       </c>
       <c r="D475" s="109" t="s">
         <v>32</v>
@@ -14079,7 +13804,7 @@
     </row>
     <row r="477" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A477" s="116" t="s">
-        <v>907</v>
+        <v>900</v>
       </c>
       <c r="B477" s="117"/>
       <c r="C477" s="104"/>
@@ -14095,13 +13820,13 @@
     </row>
     <row r="478" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A478" s="106" t="s">
-        <v>908</v>
+        <v>901</v>
       </c>
       <c r="B478" s="107" t="s">
-        <v>896</v>
+        <v>889</v>
       </c>
       <c r="C478" s="108" t="s">
-        <v>887</v>
+        <v>880</v>
       </c>
       <c r="D478" s="109" t="s">
         <v>32</v>
@@ -14117,13 +13842,13 @@
     </row>
     <row r="479" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A479" s="106" t="s">
-        <v>909</v>
+        <v>902</v>
       </c>
       <c r="B479" s="107" t="s">
-        <v>910</v>
+        <v>903</v>
       </c>
       <c r="C479" s="108" t="s">
-        <v>911</v>
+        <v>904</v>
       </c>
       <c r="D479" s="109" t="s">
         <v>32</v>
@@ -14139,13 +13864,13 @@
     </row>
     <row r="480" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A480" s="106" t="s">
-        <v>912</v>
+        <v>905</v>
       </c>
       <c r="B480" s="107" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
       <c r="C480" s="108" t="s">
-        <v>893</v>
+        <v>886</v>
       </c>
       <c r="D480" s="109" t="s">
         <v>32</v>
@@ -14163,13 +13888,13 @@
     </row>
     <row r="481" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A481" s="106" t="s">
-        <v>914</v>
+        <v>907</v>
       </c>
       <c r="B481" s="107" t="s">
-        <v>915</v>
+        <v>908</v>
       </c>
       <c r="C481" s="108" t="s">
-        <v>916</v>
+        <v>909</v>
       </c>
       <c r="D481" s="109" t="s">
         <v>32</v>
@@ -14185,13 +13910,13 @@
     </row>
     <row r="482" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A482" s="106" t="s">
-        <v>917</v>
+        <v>910</v>
       </c>
       <c r="B482" s="107" t="s">
-        <v>918</v>
+        <v>911</v>
       </c>
       <c r="C482" s="108" t="s">
-        <v>893</v>
+        <v>886</v>
       </c>
       <c r="D482" s="109" t="s">
         <v>32</v>
@@ -14222,7 +13947,7 @@
     </row>
     <row r="484" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A484" s="116" t="s">
-        <v>919</v>
+        <v>912</v>
       </c>
       <c r="B484" s="117"/>
       <c r="C484" s="104"/>
@@ -14238,13 +13963,13 @@
     </row>
     <row r="485" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A485" s="106" t="s">
-        <v>920</v>
+        <v>913</v>
       </c>
       <c r="B485" s="107" t="s">
-        <v>896</v>
+        <v>889</v>
       </c>
       <c r="C485" s="108" t="s">
-        <v>887</v>
+        <v>880</v>
       </c>
       <c r="D485" s="109" t="s">
         <v>32</v>
@@ -14260,13 +13985,13 @@
     </row>
     <row r="486" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A486" s="106" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="B486" s="107" t="s">
-        <v>889</v>
+        <v>882</v>
       </c>
       <c r="C486" s="108" t="s">
-        <v>905</v>
+        <v>898</v>
       </c>
       <c r="D486" s="109" t="s">
         <v>32</v>
@@ -14282,13 +14007,13 @@
     </row>
     <row r="487" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A487" s="106" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="B487" s="107" t="s">
-        <v>892</v>
+        <v>885</v>
       </c>
       <c r="C487" s="108" t="s">
-        <v>893</v>
+        <v>886</v>
       </c>
       <c r="D487" s="109" t="s">
         <v>32</v>
@@ -14319,7 +14044,7 @@
     </row>
     <row r="489" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A489" s="116" t="s">
-        <v>923</v>
+        <v>916</v>
       </c>
       <c r="B489" s="117"/>
       <c r="C489" s="104"/>
@@ -14335,13 +14060,13 @@
     </row>
     <row r="490" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A490" s="106" t="s">
-        <v>924</v>
+        <v>917</v>
       </c>
       <c r="B490" s="107" t="s">
-        <v>896</v>
+        <v>889</v>
       </c>
       <c r="C490" s="108" t="s">
-        <v>887</v>
+        <v>880</v>
       </c>
       <c r="D490" s="109" t="s">
         <v>32</v>
@@ -14357,13 +14082,13 @@
     </row>
     <row r="491" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A491" s="106" t="s">
-        <v>925</v>
+        <v>918</v>
       </c>
       <c r="B491" s="107" t="s">
-        <v>889</v>
+        <v>882</v>
       </c>
       <c r="C491" s="108" t="s">
-        <v>905</v>
+        <v>898</v>
       </c>
       <c r="D491" s="109" t="s">
         <v>32</v>
@@ -14379,13 +14104,13 @@
     </row>
     <row r="492" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A492" s="106" t="s">
-        <v>926</v>
+        <v>919</v>
       </c>
       <c r="B492" s="107" t="s">
-        <v>892</v>
+        <v>885</v>
       </c>
       <c r="C492" s="108" t="s">
-        <v>893</v>
+        <v>886</v>
       </c>
       <c r="D492" s="109" t="s">
         <v>32</v>
@@ -14416,7 +14141,7 @@
     </row>
     <row r="494" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A494" s="116" t="s">
-        <v>927</v>
+        <v>920</v>
       </c>
       <c r="B494" s="117"/>
       <c r="C494" s="104"/>
@@ -14432,13 +14157,13 @@
     </row>
     <row r="495" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A495" s="106" t="s">
-        <v>928</v>
+        <v>921</v>
       </c>
       <c r="B495" s="107" t="s">
-        <v>896</v>
+        <v>889</v>
       </c>
       <c r="C495" s="108" t="s">
-        <v>887</v>
+        <v>880</v>
       </c>
       <c r="D495" s="109" t="s">
         <v>32</v>
@@ -14454,13 +14179,13 @@
     </row>
     <row r="496" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A496" s="106" t="s">
-        <v>929</v>
+        <v>922</v>
       </c>
       <c r="B496" s="107" t="s">
-        <v>889</v>
+        <v>882</v>
       </c>
       <c r="C496" s="108" t="s">
-        <v>905</v>
+        <v>898</v>
       </c>
       <c r="D496" s="109" t="s">
         <v>32</v>
@@ -14476,13 +14201,13 @@
     </row>
     <row r="497" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A497" s="106" t="s">
-        <v>930</v>
+        <v>923</v>
       </c>
       <c r="B497" s="107" t="s">
-        <v>892</v>
+        <v>885</v>
       </c>
       <c r="C497" s="108" t="s">
-        <v>893</v>
+        <v>886</v>
       </c>
       <c r="D497" s="109" t="s">
         <v>32</v>
@@ -14513,7 +14238,7 @@
     </row>
     <row r="499" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A499" s="116" t="s">
-        <v>931</v>
+        <v>924</v>
       </c>
       <c r="B499" s="117"/>
       <c r="C499" s="104"/>
@@ -14529,13 +14254,13 @@
     </row>
     <row r="500" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A500" s="106" t="s">
-        <v>932</v>
+        <v>925</v>
       </c>
       <c r="B500" s="107" t="s">
-        <v>896</v>
+        <v>889</v>
       </c>
       <c r="C500" s="108" t="s">
-        <v>887</v>
+        <v>880</v>
       </c>
       <c r="D500" s="109" t="s">
         <v>32</v>
@@ -14551,13 +14276,13 @@
     </row>
     <row r="501" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A501" s="106" t="s">
-        <v>933</v>
+        <v>926</v>
       </c>
       <c r="B501" s="107" t="s">
-        <v>889</v>
+        <v>882</v>
       </c>
       <c r="C501" s="108" t="s">
-        <v>905</v>
+        <v>898</v>
       </c>
       <c r="D501" s="109" t="s">
         <v>32</v>
@@ -14573,13 +14298,13 @@
     </row>
     <row r="502" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A502" s="106" t="s">
-        <v>934</v>
+        <v>927</v>
       </c>
       <c r="B502" s="107" t="s">
-        <v>892</v>
+        <v>885</v>
       </c>
       <c r="C502" s="108" t="s">
-        <v>893</v>
+        <v>886</v>
       </c>
       <c r="D502" s="109" t="s">
         <v>32</v>
@@ -14610,7 +14335,7 @@
     </row>
     <row r="504" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A504" s="116" t="s">
-        <v>935</v>
+        <v>928</v>
       </c>
       <c r="B504" s="117"/>
       <c r="C504" s="104"/>
@@ -14626,13 +14351,13 @@
     </row>
     <row r="505" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A505" s="106" t="s">
-        <v>936</v>
+        <v>929</v>
       </c>
       <c r="B505" s="107" t="s">
-        <v>896</v>
+        <v>889</v>
       </c>
       <c r="C505" s="108" t="s">
-        <v>887</v>
+        <v>880</v>
       </c>
       <c r="D505" s="109" t="s">
         <v>32</v>
@@ -14648,13 +14373,13 @@
     </row>
     <row r="506" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A506" s="106" t="s">
-        <v>937</v>
+        <v>930</v>
       </c>
       <c r="B506" s="107" t="s">
-        <v>889</v>
+        <v>882</v>
       </c>
       <c r="C506" s="108" t="s">
-        <v>905</v>
+        <v>898</v>
       </c>
       <c r="D506" s="109" t="s">
         <v>32</v>
@@ -14670,13 +14395,13 @@
     </row>
     <row r="507" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A507" s="106" t="s">
-        <v>938</v>
+        <v>931</v>
       </c>
       <c r="B507" s="107" t="s">
-        <v>892</v>
+        <v>885</v>
       </c>
       <c r="C507" s="108" t="s">
-        <v>893</v>
+        <v>886</v>
       </c>
       <c r="D507" s="109" t="s">
         <v>32</v>
@@ -14707,7 +14432,7 @@
     </row>
     <row r="509" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A509" s="116" t="s">
-        <v>939</v>
+        <v>932</v>
       </c>
       <c r="B509" s="117"/>
       <c r="C509" s="104"/>
@@ -14723,13 +14448,13 @@
     </row>
     <row r="510" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A510" s="106" t="s">
-        <v>940</v>
+        <v>933</v>
       </c>
       <c r="B510" s="107" t="s">
-        <v>896</v>
+        <v>889</v>
       </c>
       <c r="C510" s="108" t="s">
-        <v>887</v>
+        <v>880</v>
       </c>
       <c r="D510" s="109" t="s">
         <v>32</v>
@@ -14745,13 +14470,13 @@
     </row>
     <row r="511" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A511" s="106" t="s">
-        <v>941</v>
+        <v>934</v>
       </c>
       <c r="B511" s="107" t="s">
-        <v>942</v>
+        <v>935</v>
       </c>
       <c r="C511" s="108" t="s">
-        <v>902</v>
+        <v>895</v>
       </c>
       <c r="D511" s="109" t="s">
         <v>32</v>
@@ -14767,13 +14492,13 @@
     </row>
     <row r="512" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A512" s="106" t="s">
-        <v>943</v>
+        <v>936</v>
       </c>
       <c r="B512" s="107" t="s">
-        <v>889</v>
+        <v>882</v>
       </c>
       <c r="C512" s="108" t="s">
-        <v>905</v>
+        <v>898</v>
       </c>
       <c r="D512" s="109" t="s">
         <v>32</v>
@@ -14789,13 +14514,13 @@
     </row>
     <row r="513" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A513" s="106" t="s">
-        <v>944</v>
+        <v>937</v>
       </c>
       <c r="B513" s="107" t="s">
-        <v>892</v>
+        <v>885</v>
       </c>
       <c r="C513" s="108" t="s">
-        <v>893</v>
+        <v>886</v>
       </c>
       <c r="D513" s="109" t="s">
         <v>32</v>
@@ -14826,7 +14551,7 @@
     </row>
     <row r="515" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A515" s="116" t="s">
-        <v>945</v>
+        <v>938</v>
       </c>
       <c r="B515" s="117"/>
       <c r="C515" s="104"/>
@@ -14842,13 +14567,13 @@
     </row>
     <row r="516" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A516" s="106" t="s">
-        <v>946</v>
+        <v>939</v>
       </c>
       <c r="B516" s="107" t="s">
-        <v>896</v>
+        <v>889</v>
       </c>
       <c r="C516" s="108" t="s">
-        <v>887</v>
+        <v>880</v>
       </c>
       <c r="D516" s="109" t="s">
         <v>32</v>
@@ -14864,13 +14589,13 @@
     </row>
     <row r="517" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A517" s="106" t="s">
-        <v>947</v>
+        <v>940</v>
       </c>
       <c r="B517" s="107" t="s">
-        <v>889</v>
+        <v>882</v>
       </c>
       <c r="C517" s="108" t="s">
-        <v>905</v>
+        <v>898</v>
       </c>
       <c r="D517" s="109" t="s">
         <v>32</v>
@@ -14886,13 +14611,13 @@
     </row>
     <row r="518" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A518" s="106" t="s">
-        <v>948</v>
+        <v>941</v>
       </c>
       <c r="B518" s="107" t="s">
-        <v>892</v>
+        <v>885</v>
       </c>
       <c r="C518" s="108" t="s">
-        <v>893</v>
+        <v>886</v>
       </c>
       <c r="D518" s="109" t="s">
         <v>32</v>
@@ -14923,7 +14648,7 @@
     </row>
     <row r="520" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A520" s="116" t="s">
-        <v>949</v>
+        <v>942</v>
       </c>
       <c r="B520" s="117"/>
       <c r="C520" s="104"/>
@@ -14939,13 +14664,13 @@
     </row>
     <row r="521" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A521" s="106" t="s">
-        <v>950</v>
+        <v>943</v>
       </c>
       <c r="B521" s="107" t="s">
-        <v>896</v>
+        <v>889</v>
       </c>
       <c r="C521" s="108" t="s">
-        <v>887</v>
+        <v>880</v>
       </c>
       <c r="D521" s="109" t="s">
         <v>32</v>
@@ -14961,13 +14686,13 @@
     </row>
     <row r="522" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A522" s="106" t="s">
-        <v>951</v>
+        <v>944</v>
       </c>
       <c r="B522" s="107" t="s">
-        <v>889</v>
+        <v>882</v>
       </c>
       <c r="C522" s="108" t="s">
-        <v>905</v>
+        <v>898</v>
       </c>
       <c r="D522" s="109" t="s">
         <v>32</v>
@@ -14983,13 +14708,13 @@
     </row>
     <row r="523" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A523" s="106" t="s">
-        <v>952</v>
+        <v>945</v>
       </c>
       <c r="B523" s="107" t="s">
-        <v>892</v>
+        <v>885</v>
       </c>
       <c r="C523" s="108" t="s">
-        <v>893</v>
+        <v>886</v>
       </c>
       <c r="D523" s="109" t="s">
         <v>32</v>
@@ -15020,7 +14745,7 @@
     </row>
     <row r="525" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A525" s="116" t="s">
-        <v>953</v>
+        <v>946</v>
       </c>
       <c r="B525" s="117"/>
       <c r="C525" s="104"/>
@@ -15036,13 +14761,13 @@
     </row>
     <row r="526" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A526" s="106" t="s">
-        <v>954</v>
+        <v>947</v>
       </c>
       <c r="B526" s="107" t="s">
-        <v>896</v>
+        <v>889</v>
       </c>
       <c r="C526" s="108" t="s">
-        <v>887</v>
+        <v>880</v>
       </c>
       <c r="D526" s="109" t="s">
         <v>32</v>
@@ -15058,13 +14783,13 @@
     </row>
     <row r="527" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A527" s="106" t="s">
-        <v>955</v>
+        <v>948</v>
       </c>
       <c r="B527" s="107" t="s">
-        <v>889</v>
+        <v>882</v>
       </c>
       <c r="C527" s="108" t="s">
-        <v>905</v>
+        <v>898</v>
       </c>
       <c r="D527" s="109" t="s">
         <v>32</v>
@@ -15080,13 +14805,13 @@
     </row>
     <row r="528" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A528" s="106" t="s">
-        <v>956</v>
+        <v>949</v>
       </c>
       <c r="B528" s="107" t="s">
-        <v>892</v>
+        <v>885</v>
       </c>
       <c r="C528" s="108" t="s">
-        <v>893</v>
+        <v>886</v>
       </c>
       <c r="D528" s="109" t="s">
         <v>32</v>
@@ -15117,7 +14842,7 @@
     </row>
     <row r="530" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A530" s="116" t="s">
-        <v>957</v>
+        <v>950</v>
       </c>
       <c r="B530" s="117"/>
       <c r="C530" s="104"/>
@@ -15133,13 +14858,13 @@
     </row>
     <row r="531" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A531" s="106" t="s">
-        <v>958</v>
+        <v>951</v>
       </c>
       <c r="B531" s="107" t="s">
-        <v>896</v>
+        <v>889</v>
       </c>
       <c r="C531" s="108" t="s">
-        <v>887</v>
+        <v>880</v>
       </c>
       <c r="D531" s="109" t="s">
         <v>32</v>
@@ -15155,13 +14880,13 @@
     </row>
     <row r="532" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A532" s="106" t="s">
-        <v>959</v>
+        <v>952</v>
       </c>
       <c r="B532" s="107" t="s">
-        <v>889</v>
+        <v>882</v>
       </c>
       <c r="C532" s="108" t="s">
-        <v>905</v>
+        <v>898</v>
       </c>
       <c r="D532" s="109" t="s">
         <v>32</v>
@@ -15177,13 +14902,13 @@
     </row>
     <row r="533" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A533" s="106" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
       <c r="B533" s="107" t="s">
-        <v>892</v>
+        <v>885</v>
       </c>
       <c r="C533" s="108" t="s">
-        <v>893</v>
+        <v>886</v>
       </c>
       <c r="D533" s="109" t="s">
         <v>32</v>
@@ -15214,7 +14939,7 @@
     </row>
     <row r="535" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A535" s="116" t="s">
-        <v>961</v>
+        <v>954</v>
       </c>
       <c r="B535" s="117"/>
       <c r="C535" s="104"/>
@@ -15230,13 +14955,13 @@
     </row>
     <row r="536" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A536" s="106" t="s">
-        <v>962</v>
+        <v>955</v>
       </c>
       <c r="B536" s="107" t="s">
-        <v>896</v>
+        <v>889</v>
       </c>
       <c r="C536" s="108" t="s">
-        <v>887</v>
+        <v>880</v>
       </c>
       <c r="D536" s="109" t="s">
         <v>32</v>
@@ -15252,13 +14977,13 @@
     </row>
     <row r="537" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A537" s="106" t="s">
-        <v>963</v>
+        <v>956</v>
       </c>
       <c r="B537" s="107" t="s">
-        <v>889</v>
+        <v>882</v>
       </c>
       <c r="C537" s="108" t="s">
-        <v>905</v>
+        <v>898</v>
       </c>
       <c r="D537" s="109" t="s">
         <v>32</v>
@@ -15274,13 +14999,13 @@
     </row>
     <row r="538" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A538" s="106" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="B538" s="107" t="s">
-        <v>892</v>
+        <v>885</v>
       </c>
       <c r="C538" s="108" t="s">
-        <v>893</v>
+        <v>886</v>
       </c>
       <c r="D538" s="109" t="s">
         <v>32</v>
@@ -15311,7 +15036,7 @@
     </row>
     <row r="540" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A540" s="116" t="s">
-        <v>965</v>
+        <v>958</v>
       </c>
       <c r="B540" s="117"/>
       <c r="C540" s="104"/>
@@ -15327,13 +15052,13 @@
     </row>
     <row r="541" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A541" s="106" t="s">
-        <v>966</v>
+        <v>959</v>
       </c>
       <c r="B541" s="107" t="s">
-        <v>896</v>
+        <v>889</v>
       </c>
       <c r="C541" s="108" t="s">
-        <v>887</v>
+        <v>880</v>
       </c>
       <c r="D541" s="109" t="s">
         <v>32</v>
@@ -15349,13 +15074,13 @@
     </row>
     <row r="542" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A542" s="106" t="s">
-        <v>967</v>
+        <v>960</v>
       </c>
       <c r="B542" s="107" t="s">
-        <v>889</v>
+        <v>882</v>
       </c>
       <c r="C542" s="108" t="s">
-        <v>905</v>
+        <v>898</v>
       </c>
       <c r="D542" s="109" t="s">
         <v>32</v>
@@ -15371,13 +15096,13 @@
     </row>
     <row r="543" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A543" s="106" t="s">
-        <v>968</v>
+        <v>961</v>
       </c>
       <c r="B543" s="107" t="s">
-        <v>892</v>
+        <v>885</v>
       </c>
       <c r="C543" s="108" t="s">
-        <v>893</v>
+        <v>886</v>
       </c>
       <c r="D543" s="109" t="s">
         <v>32</v>
@@ -15408,7 +15133,7 @@
     </row>
     <row r="545" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A545" s="116" t="s">
-        <v>969</v>
+        <v>962</v>
       </c>
       <c r="B545" s="117"/>
       <c r="C545" s="104"/>
@@ -15424,13 +15149,13 @@
     </row>
     <row r="546" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A546" s="106" t="s">
-        <v>970</v>
+        <v>963</v>
       </c>
       <c r="B546" s="107" t="s">
-        <v>896</v>
+        <v>889</v>
       </c>
       <c r="C546" s="108" t="s">
-        <v>887</v>
+        <v>880</v>
       </c>
       <c r="D546" s="109" t="s">
         <v>32</v>
@@ -15446,13 +15171,13 @@
     </row>
     <row r="547" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A547" s="106" t="s">
-        <v>971</v>
+        <v>964</v>
       </c>
       <c r="B547" s="107" t="s">
-        <v>889</v>
+        <v>882</v>
       </c>
       <c r="C547" s="108" t="s">
-        <v>905</v>
+        <v>898</v>
       </c>
       <c r="D547" s="109" t="s">
         <v>32</v>
@@ -15468,13 +15193,13 @@
     </row>
     <row r="548" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A548" s="106" t="s">
-        <v>972</v>
+        <v>965</v>
       </c>
       <c r="B548" s="107" t="s">
-        <v>892</v>
+        <v>885</v>
       </c>
       <c r="C548" s="108" t="s">
-        <v>893</v>
+        <v>886</v>
       </c>
       <c r="D548" s="109" t="s">
         <v>32</v>
@@ -15506,7 +15231,7 @@
     </row>
     <row r="550" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A550" s="101" t="s">
-        <v>973</v>
+        <v>966</v>
       </c>
       <c r="B550" s="102"/>
       <c r="C550" s="102"/>
@@ -15522,7 +15247,7 @@
     </row>
     <row r="551" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A551" s="116" t="s">
-        <v>974</v>
+        <v>967</v>
       </c>
       <c r="B551" s="117"/>
       <c r="C551" s="104"/>
@@ -15538,13 +15263,13 @@
     </row>
     <row r="552" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A552" s="106" t="s">
-        <v>975</v>
+        <v>968</v>
       </c>
       <c r="B552" s="107" t="s">
-        <v>976</v>
+        <v>969</v>
       </c>
       <c r="C552" s="108" t="s">
-        <v>977</v>
+        <v>970</v>
       </c>
       <c r="D552" s="4" t="s">
         <v>32</v>
@@ -15560,13 +15285,13 @@
     </row>
     <row r="553" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A553" s="106" t="s">
-        <v>978</v>
+        <v>971</v>
       </c>
       <c r="B553" s="107" t="s">
-        <v>889</v>
+        <v>882</v>
       </c>
       <c r="C553" s="108" t="s">
-        <v>905</v>
+        <v>898</v>
       </c>
       <c r="D553" s="109" t="s">
         <v>32</v>
@@ -15582,13 +15307,13 @@
     </row>
     <row r="554" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A554" s="106" t="s">
-        <v>979</v>
+        <v>972</v>
       </c>
       <c r="B554" s="107" t="s">
-        <v>980</v>
+        <v>973</v>
       </c>
       <c r="C554" s="108" t="s">
-        <v>981</v>
+        <v>974</v>
       </c>
       <c r="D554" s="109" t="s">
         <v>32</v>
@@ -15619,7 +15344,7 @@
     </row>
     <row r="556" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A556" s="116" t="s">
-        <v>982</v>
+        <v>975</v>
       </c>
       <c r="B556" s="117"/>
       <c r="C556" s="104"/>
@@ -15635,13 +15360,13 @@
     </row>
     <row r="557" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A557" s="106" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
       <c r="B557" s="107" t="s">
-        <v>984</v>
+        <v>977</v>
       </c>
       <c r="C557" s="108" t="s">
-        <v>977</v>
+        <v>970</v>
       </c>
       <c r="D557" s="109" t="s">
         <v>32</v>
@@ -15657,13 +15382,13 @@
     </row>
     <row r="558" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A558" s="106" t="s">
-        <v>985</v>
+        <v>978</v>
       </c>
       <c r="B558" s="107" t="s">
-        <v>889</v>
+        <v>882</v>
       </c>
       <c r="C558" s="108" t="s">
-        <v>905</v>
+        <v>898</v>
       </c>
       <c r="D558" s="109" t="s">
         <v>32</v>
@@ -15679,13 +15404,13 @@
     </row>
     <row r="559" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A559" s="106" t="s">
-        <v>986</v>
+        <v>979</v>
       </c>
       <c r="B559" s="107" t="s">
-        <v>980</v>
+        <v>973</v>
       </c>
       <c r="C559" s="108" t="s">
-        <v>981</v>
+        <v>974</v>
       </c>
       <c r="D559" s="109" t="s">
         <v>32</v>
@@ -15701,13 +15426,13 @@
     </row>
     <row r="560" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A560" s="106" t="s">
-        <v>987</v>
+        <v>980</v>
       </c>
       <c r="B560" s="107" t="s">
-        <v>988</v>
+        <v>981</v>
       </c>
       <c r="C560" s="108" t="s">
-        <v>989</v>
+        <v>982</v>
       </c>
       <c r="D560" s="109" t="s">
         <v>32</v>
@@ -15737,7 +15462,7 @@
     </row>
     <row r="562" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A562" s="116" t="s">
-        <v>990</v>
+        <v>983</v>
       </c>
       <c r="B562" s="117"/>
       <c r="C562" s="104"/>
@@ -15753,13 +15478,13 @@
     </row>
     <row r="563" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A563" s="106" t="s">
-        <v>991</v>
+        <v>984</v>
       </c>
       <c r="B563" s="107" t="s">
-        <v>992</v>
+        <v>985</v>
       </c>
       <c r="C563" s="108" t="s">
-        <v>977</v>
+        <v>970</v>
       </c>
       <c r="D563" s="109" t="s">
         <v>32</v>
@@ -15775,13 +15500,13 @@
     </row>
     <row r="564" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A564" s="106" t="s">
-        <v>993</v>
+        <v>986</v>
       </c>
       <c r="B564" s="111" t="s">
-        <v>994</v>
+        <v>987</v>
       </c>
       <c r="C564" s="112" t="s">
-        <v>995</v>
+        <v>988</v>
       </c>
       <c r="D564" s="109" t="s">
         <v>32</v>
@@ -15797,13 +15522,13 @@
     </row>
     <row r="565" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A565" s="106" t="s">
-        <v>996</v>
+        <v>989</v>
       </c>
       <c r="B565" s="107" t="s">
-        <v>892</v>
+        <v>885</v>
       </c>
       <c r="C565" s="108" t="s">
-        <v>893</v>
+        <v>886</v>
       </c>
       <c r="D565" s="109" t="s">
         <v>32</v>
@@ -15821,13 +15546,13 @@
     </row>
     <row r="566" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A566" s="106" t="s">
-        <v>997</v>
+        <v>990</v>
       </c>
       <c r="B566" s="107" t="s">
-        <v>889</v>
+        <v>882</v>
       </c>
       <c r="C566" s="108" t="s">
-        <v>998</v>
+        <v>991</v>
       </c>
       <c r="D566" s="109" t="s">
         <v>32</v>
@@ -15843,13 +15568,13 @@
     </row>
     <row r="567" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A567" s="106" t="s">
-        <v>999</v>
+        <v>992</v>
       </c>
       <c r="B567" s="107" t="s">
-        <v>980</v>
+        <v>973</v>
       </c>
       <c r="C567" s="108" t="s">
-        <v>981</v>
+        <v>974</v>
       </c>
       <c r="D567" s="109" t="s">
         <v>32</v>
@@ -15879,7 +15604,7 @@
     </row>
     <row r="569" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A569" s="101" t="s">
-        <v>1000</v>
+        <v>993</v>
       </c>
       <c r="B569" s="102"/>
       <c r="C569" s="102"/>
@@ -15895,7 +15620,7 @@
     </row>
     <row r="570" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A570" s="116" t="s">
-        <v>1001</v>
+        <v>994</v>
       </c>
       <c r="B570" s="117"/>
       <c r="C570" s="104"/>
@@ -15911,13 +15636,13 @@
     </row>
     <row r="571" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A571" s="106" t="s">
-        <v>1002</v>
+        <v>995</v>
       </c>
       <c r="B571" s="107" t="s">
-        <v>1003</v>
+        <v>996</v>
       </c>
       <c r="C571" s="108" t="s">
-        <v>1004</v>
+        <v>997</v>
       </c>
       <c r="D571" s="109" t="s">
         <v>32</v>
@@ -15933,13 +15658,13 @@
     </row>
     <row r="572" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A572" s="106" t="s">
-        <v>1005</v>
+        <v>998</v>
       </c>
       <c r="B572" s="107" t="s">
-        <v>1006</v>
+        <v>999</v>
       </c>
       <c r="C572" s="108" t="s">
-        <v>1007</v>
+        <v>1000</v>
       </c>
       <c r="D572" s="109" t="s">
         <v>32</v>
@@ -15955,13 +15680,13 @@
     </row>
     <row r="573" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A573" s="106" t="s">
-        <v>1008</v>
+        <v>1001</v>
       </c>
       <c r="B573" s="107" t="s">
-        <v>889</v>
+        <v>882</v>
       </c>
       <c r="C573" s="108" t="s">
-        <v>905</v>
+        <v>898</v>
       </c>
       <c r="D573" s="109" t="s">
         <v>32</v>
@@ -15977,13 +15702,13 @@
     </row>
     <row r="574" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A574" s="106" t="s">
-        <v>1009</v>
+        <v>1002</v>
       </c>
       <c r="B574" s="107" t="s">
-        <v>1010</v>
+        <v>1003</v>
       </c>
       <c r="C574" s="108" t="s">
-        <v>981</v>
+        <v>974</v>
       </c>
       <c r="D574" s="109" t="s">
         <v>32</v>
@@ -16012,7 +15737,7 @@
     </row>
     <row r="576" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A576" s="116" t="s">
-        <v>1011</v>
+        <v>1004</v>
       </c>
       <c r="B576" s="117"/>
       <c r="C576" s="104"/>
@@ -16028,13 +15753,13 @@
     </row>
     <row r="577" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A577" s="106" t="s">
-        <v>1012</v>
+        <v>1005</v>
       </c>
       <c r="B577" s="107" t="s">
-        <v>1013</v>
+        <v>1006</v>
       </c>
       <c r="C577" s="108" t="s">
-        <v>1004</v>
+        <v>997</v>
       </c>
       <c r="D577" s="109" t="s">
         <v>32</v>
@@ -16050,13 +15775,13 @@
     </row>
     <row r="578" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A578" s="106" t="s">
-        <v>1014</v>
+        <v>1007</v>
       </c>
       <c r="B578" s="107" t="s">
-        <v>1006</v>
+        <v>999</v>
       </c>
       <c r="C578" s="108" t="s">
-        <v>1007</v>
+        <v>1000</v>
       </c>
       <c r="D578" s="109" t="s">
         <v>32</v>
@@ -16072,13 +15797,13 @@
     </row>
     <row r="579" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A579" s="106" t="s">
-        <v>1015</v>
+        <v>1008</v>
       </c>
       <c r="B579" s="107" t="s">
-        <v>892</v>
+        <v>885</v>
       </c>
       <c r="C579" s="108" t="s">
-        <v>893</v>
+        <v>886</v>
       </c>
       <c r="D579" s="109" t="s">
         <v>32</v>
@@ -16096,13 +15821,13 @@
     </row>
     <row r="580" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A580" s="106" t="s">
-        <v>1016</v>
+        <v>1009</v>
       </c>
       <c r="B580" s="107" t="s">
-        <v>889</v>
+        <v>882</v>
       </c>
       <c r="C580" s="108" t="s">
-        <v>905</v>
+        <v>898</v>
       </c>
       <c r="D580" s="109" t="s">
         <v>32</v>
@@ -16118,13 +15843,13 @@
     </row>
     <row r="581" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A581" s="106" t="s">
-        <v>1017</v>
+        <v>1010</v>
       </c>
       <c r="B581" s="107" t="s">
-        <v>1010</v>
+        <v>1003</v>
       </c>
       <c r="C581" s="108" t="s">
-        <v>981</v>
+        <v>974</v>
       </c>
       <c r="D581" s="109" t="s">
         <v>32</v>
@@ -16153,7 +15878,7 @@
     </row>
     <row r="583" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A583" s="116" t="s">
-        <v>1018</v>
+        <v>1011</v>
       </c>
       <c r="B583" s="117"/>
       <c r="C583" s="104"/>
@@ -16169,13 +15894,13 @@
     </row>
     <row r="584" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A584" s="106" t="s">
-        <v>1019</v>
+        <v>1012</v>
       </c>
       <c r="B584" s="107" t="s">
-        <v>1020</v>
+        <v>1013</v>
       </c>
       <c r="C584" s="108" t="s">
-        <v>1004</v>
+        <v>997</v>
       </c>
       <c r="D584" s="109" t="s">
         <v>32</v>
@@ -16191,13 +15916,13 @@
     </row>
     <row r="585" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A585" s="106" t="s">
-        <v>1021</v>
+        <v>1014</v>
       </c>
       <c r="B585" s="107" t="s">
-        <v>889</v>
+        <v>882</v>
       </c>
       <c r="C585" s="108" t="s">
-        <v>905</v>
+        <v>898</v>
       </c>
       <c r="D585" s="109" t="s">
         <v>32</v>
@@ -16213,13 +15938,13 @@
     </row>
     <row r="586" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A586" s="106" t="s">
-        <v>1022</v>
+        <v>1015</v>
       </c>
       <c r="B586" s="107" t="s">
-        <v>1006</v>
+        <v>999</v>
       </c>
       <c r="C586" s="108" t="s">
-        <v>1007</v>
+        <v>1000</v>
       </c>
       <c r="D586" s="109" t="s">
         <v>32</v>
@@ -16235,13 +15960,13 @@
     </row>
     <row r="587" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A587" s="106" t="s">
-        <v>1023</v>
+        <v>1016</v>
       </c>
       <c r="B587" s="107" t="s">
-        <v>1010</v>
+        <v>1003</v>
       </c>
       <c r="C587" s="108" t="s">
-        <v>981</v>
+        <v>974</v>
       </c>
       <c r="D587" s="109" t="s">
         <v>32</v>
@@ -16270,7 +15995,7 @@
     </row>
     <row r="589" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A589" s="116" t="s">
-        <v>1024</v>
+        <v>1017</v>
       </c>
       <c r="B589" s="117"/>
       <c r="C589" s="104"/>
@@ -16286,13 +16011,13 @@
     </row>
     <row r="590" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A590" s="106" t="s">
-        <v>1025</v>
+        <v>1018</v>
       </c>
       <c r="B590" s="107" t="s">
-        <v>1026</v>
+        <v>1019</v>
       </c>
       <c r="C590" s="108" t="s">
-        <v>1004</v>
+        <v>997</v>
       </c>
       <c r="D590" s="109" t="s">
         <v>32</v>
@@ -16308,13 +16033,13 @@
     </row>
     <row r="591" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A591" s="106" t="s">
-        <v>1027</v>
+        <v>1020</v>
       </c>
       <c r="B591" s="107" t="s">
-        <v>889</v>
+        <v>882</v>
       </c>
       <c r="C591" s="108" t="s">
-        <v>905</v>
+        <v>898</v>
       </c>
       <c r="D591" s="109" t="s">
         <v>32</v>
@@ -16330,13 +16055,13 @@
     </row>
     <row r="592" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A592" s="106" t="s">
-        <v>1028</v>
+        <v>1021</v>
       </c>
       <c r="B592" s="107" t="s">
-        <v>1006</v>
+        <v>999</v>
       </c>
       <c r="C592" s="108" t="s">
-        <v>1007</v>
+        <v>1000</v>
       </c>
       <c r="D592" s="109" t="s">
         <v>32</v>
@@ -16352,13 +16077,13 @@
     </row>
     <row r="593" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A593" s="106" t="s">
-        <v>1029</v>
+        <v>1022</v>
       </c>
       <c r="B593" s="107" t="s">
-        <v>1010</v>
+        <v>1003</v>
       </c>
       <c r="C593" s="108" t="s">
-        <v>981</v>
+        <v>974</v>
       </c>
       <c r="D593" s="109" t="s">
         <v>32</v>
@@ -16387,7 +16112,7 @@
     </row>
     <row r="595" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A595" s="116" t="s">
-        <v>1030</v>
+        <v>1023</v>
       </c>
       <c r="B595" s="117"/>
       <c r="C595" s="104"/>
@@ -16403,13 +16128,13 @@
     </row>
     <row r="596" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A596" s="106" t="s">
-        <v>1031</v>
+        <v>1024</v>
       </c>
       <c r="B596" s="107" t="s">
-        <v>1032</v>
+        <v>1025</v>
       </c>
       <c r="C596" s="108" t="s">
-        <v>1004</v>
+        <v>997</v>
       </c>
       <c r="D596" s="109" t="s">
         <v>32</v>
@@ -16425,13 +16150,13 @@
     </row>
     <row r="597" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A597" s="106" t="s">
-        <v>1033</v>
+        <v>1026</v>
       </c>
       <c r="B597" s="107" t="s">
-        <v>889</v>
+        <v>882</v>
       </c>
       <c r="C597" s="108" t="s">
-        <v>905</v>
+        <v>898</v>
       </c>
       <c r="D597" s="109" t="s">
         <v>32</v>
@@ -16447,13 +16172,13 @@
     </row>
     <row r="598" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A598" s="106" t="s">
-        <v>1034</v>
+        <v>1027</v>
       </c>
       <c r="B598" s="107" t="s">
-        <v>1010</v>
+        <v>1003</v>
       </c>
       <c r="C598" s="108" t="s">
-        <v>981</v>
+        <v>974</v>
       </c>
       <c r="D598" s="109" t="s">
         <v>32</v>
@@ -16578,6 +16303,1582 @@
       <c r="J606" s="109"/>
       <c r="K606" s="109"/>
       <c r="L606" s="109"/>
+    </row>
+    <row r="607" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H607"/>
+      <c r="I607"/>
+    </row>
+    <row r="608" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H608"/>
+      <c r="I608"/>
+    </row>
+    <row r="609" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H609"/>
+      <c r="I609"/>
+    </row>
+    <row r="610" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H610"/>
+      <c r="I610"/>
+    </row>
+    <row r="611" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H611"/>
+      <c r="I611"/>
+    </row>
+    <row r="612" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H612"/>
+      <c r="I612"/>
+    </row>
+    <row r="613" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H613"/>
+      <c r="I613"/>
+    </row>
+    <row r="614" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H614"/>
+      <c r="I614"/>
+    </row>
+    <row r="615" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H615"/>
+      <c r="I615"/>
+    </row>
+    <row r="616" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H616"/>
+      <c r="I616"/>
+    </row>
+    <row r="617" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H617"/>
+      <c r="I617"/>
+    </row>
+    <row r="618" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H618"/>
+      <c r="I618"/>
+    </row>
+    <row r="619" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H619"/>
+      <c r="I619"/>
+    </row>
+    <row r="620" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H620"/>
+      <c r="I620"/>
+    </row>
+    <row r="621" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H621"/>
+      <c r="I621"/>
+    </row>
+    <row r="622" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H622"/>
+      <c r="I622"/>
+    </row>
+    <row r="623" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H623"/>
+      <c r="I623"/>
+    </row>
+    <row r="624" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H624"/>
+      <c r="I624"/>
+    </row>
+    <row r="625" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H625"/>
+      <c r="I625"/>
+    </row>
+    <row r="626" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H626"/>
+      <c r="I626"/>
+    </row>
+    <row r="627" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H627"/>
+      <c r="I627"/>
+    </row>
+    <row r="628" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H628"/>
+      <c r="I628"/>
+    </row>
+    <row r="629" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H629"/>
+      <c r="I629"/>
+    </row>
+    <row r="630" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H630"/>
+      <c r="I630"/>
+    </row>
+    <row r="631" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H631"/>
+      <c r="I631"/>
+    </row>
+    <row r="632" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H632"/>
+      <c r="I632"/>
+    </row>
+    <row r="633" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H633"/>
+      <c r="I633"/>
+    </row>
+    <row r="634" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H634"/>
+      <c r="I634"/>
+    </row>
+    <row r="635" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H635"/>
+      <c r="I635"/>
+    </row>
+    <row r="636" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H636"/>
+      <c r="I636"/>
+    </row>
+    <row r="637" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H637"/>
+      <c r="I637"/>
+    </row>
+    <row r="638" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H638"/>
+      <c r="I638"/>
+    </row>
+    <row r="639" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H639"/>
+      <c r="I639"/>
+    </row>
+    <row r="640" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H640"/>
+      <c r="I640"/>
+    </row>
+    <row r="641" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H641"/>
+      <c r="I641"/>
+    </row>
+    <row r="642" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H642"/>
+      <c r="I642"/>
+    </row>
+    <row r="643" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H643"/>
+      <c r="I643"/>
+    </row>
+    <row r="644" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H644"/>
+      <c r="I644"/>
+    </row>
+    <row r="645" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H645"/>
+      <c r="I645"/>
+    </row>
+    <row r="646" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H646"/>
+      <c r="I646"/>
+    </row>
+    <row r="647" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H647"/>
+      <c r="I647"/>
+    </row>
+    <row r="648" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H648"/>
+      <c r="I648"/>
+    </row>
+    <row r="649" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H649"/>
+      <c r="I649"/>
+    </row>
+    <row r="650" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H650"/>
+      <c r="I650"/>
+    </row>
+    <row r="651" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H651"/>
+      <c r="I651"/>
+    </row>
+    <row r="652" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H652"/>
+      <c r="I652"/>
+    </row>
+    <row r="653" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H653"/>
+      <c r="I653"/>
+    </row>
+    <row r="654" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H654"/>
+      <c r="I654"/>
+    </row>
+    <row r="655" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H655"/>
+      <c r="I655"/>
+    </row>
+    <row r="656" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H656"/>
+      <c r="I656"/>
+    </row>
+    <row r="657" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H657"/>
+      <c r="I657"/>
+    </row>
+    <row r="658" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H658"/>
+      <c r="I658"/>
+    </row>
+    <row r="659" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H659"/>
+      <c r="I659"/>
+    </row>
+    <row r="660" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H660"/>
+      <c r="I660"/>
+    </row>
+    <row r="661" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H661"/>
+      <c r="I661"/>
+    </row>
+    <row r="662" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H662"/>
+      <c r="I662"/>
+    </row>
+    <row r="663" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H663"/>
+      <c r="I663"/>
+    </row>
+    <row r="664" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H664"/>
+      <c r="I664"/>
+    </row>
+    <row r="665" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H665"/>
+      <c r="I665"/>
+    </row>
+    <row r="666" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H666"/>
+      <c r="I666"/>
+    </row>
+    <row r="667" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H667"/>
+      <c r="I667"/>
+    </row>
+    <row r="668" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H668"/>
+      <c r="I668"/>
+    </row>
+    <row r="669" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H669"/>
+      <c r="I669"/>
+    </row>
+    <row r="670" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H670"/>
+      <c r="I670"/>
+    </row>
+    <row r="671" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H671"/>
+      <c r="I671"/>
+    </row>
+    <row r="672" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H672"/>
+      <c r="I672"/>
+    </row>
+    <row r="673" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H673"/>
+      <c r="I673"/>
+    </row>
+    <row r="674" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H674"/>
+      <c r="I674"/>
+    </row>
+    <row r="675" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H675"/>
+      <c r="I675"/>
+    </row>
+    <row r="676" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H676"/>
+      <c r="I676"/>
+    </row>
+    <row r="677" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H677"/>
+      <c r="I677"/>
+    </row>
+    <row r="678" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H678"/>
+      <c r="I678"/>
+    </row>
+    <row r="679" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H679"/>
+      <c r="I679"/>
+    </row>
+    <row r="680" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H680"/>
+      <c r="I680"/>
+    </row>
+    <row r="681" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H681"/>
+      <c r="I681"/>
+    </row>
+    <row r="682" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H682"/>
+      <c r="I682"/>
+    </row>
+    <row r="683" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H683"/>
+      <c r="I683"/>
+    </row>
+    <row r="684" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H684"/>
+      <c r="I684"/>
+    </row>
+    <row r="685" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H685"/>
+      <c r="I685"/>
+    </row>
+    <row r="686" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H686"/>
+      <c r="I686"/>
+    </row>
+    <row r="687" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H687"/>
+      <c r="I687"/>
+    </row>
+    <row r="688" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H688"/>
+      <c r="I688"/>
+    </row>
+    <row r="689" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H689"/>
+      <c r="I689"/>
+    </row>
+    <row r="690" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H690"/>
+      <c r="I690"/>
+    </row>
+    <row r="691" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H691"/>
+      <c r="I691"/>
+    </row>
+    <row r="692" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H692"/>
+      <c r="I692"/>
+    </row>
+    <row r="693" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H693"/>
+      <c r="I693"/>
+    </row>
+    <row r="694" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H694"/>
+      <c r="I694"/>
+    </row>
+    <row r="695" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H695"/>
+      <c r="I695"/>
+    </row>
+    <row r="696" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H696"/>
+      <c r="I696"/>
+    </row>
+    <row r="697" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H697"/>
+      <c r="I697"/>
+    </row>
+    <row r="698" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H698"/>
+      <c r="I698"/>
+    </row>
+    <row r="699" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H699"/>
+      <c r="I699"/>
+    </row>
+    <row r="700" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H700"/>
+      <c r="I700"/>
+    </row>
+    <row r="701" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H701"/>
+      <c r="I701"/>
+    </row>
+    <row r="702" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H702"/>
+      <c r="I702"/>
+    </row>
+    <row r="703" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H703"/>
+      <c r="I703"/>
+    </row>
+    <row r="704" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H704"/>
+      <c r="I704"/>
+    </row>
+    <row r="705" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H705"/>
+      <c r="I705"/>
+    </row>
+    <row r="706" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H706"/>
+      <c r="I706"/>
+    </row>
+    <row r="707" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H707"/>
+      <c r="I707"/>
+    </row>
+    <row r="708" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H708"/>
+      <c r="I708"/>
+    </row>
+    <row r="709" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H709"/>
+      <c r="I709"/>
+    </row>
+    <row r="710" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H710"/>
+      <c r="I710"/>
+    </row>
+    <row r="711" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H711"/>
+      <c r="I711"/>
+    </row>
+    <row r="712" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H712"/>
+      <c r="I712"/>
+    </row>
+    <row r="713" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H713"/>
+      <c r="I713"/>
+    </row>
+    <row r="714" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H714"/>
+      <c r="I714"/>
+    </row>
+    <row r="715" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H715"/>
+      <c r="I715"/>
+    </row>
+    <row r="716" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H716"/>
+      <c r="I716"/>
+    </row>
+    <row r="717" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H717"/>
+      <c r="I717"/>
+    </row>
+    <row r="718" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H718"/>
+      <c r="I718"/>
+    </row>
+    <row r="719" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H719"/>
+      <c r="I719"/>
+    </row>
+    <row r="720" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H720"/>
+      <c r="I720"/>
+    </row>
+    <row r="721" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H721"/>
+      <c r="I721"/>
+    </row>
+    <row r="722" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H722"/>
+      <c r="I722"/>
+    </row>
+    <row r="723" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H723"/>
+      <c r="I723"/>
+    </row>
+    <row r="724" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H724"/>
+      <c r="I724"/>
+    </row>
+    <row r="725" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H725"/>
+      <c r="I725"/>
+    </row>
+    <row r="726" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H726"/>
+      <c r="I726"/>
+    </row>
+    <row r="727" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H727"/>
+      <c r="I727"/>
+    </row>
+    <row r="728" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H728"/>
+      <c r="I728"/>
+    </row>
+    <row r="729" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H729"/>
+      <c r="I729"/>
+    </row>
+    <row r="730" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H730"/>
+      <c r="I730"/>
+    </row>
+    <row r="731" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H731"/>
+      <c r="I731"/>
+    </row>
+    <row r="732" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H732"/>
+      <c r="I732"/>
+    </row>
+    <row r="733" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H733"/>
+      <c r="I733"/>
+    </row>
+    <row r="734" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H734"/>
+      <c r="I734"/>
+    </row>
+    <row r="735" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H735"/>
+      <c r="I735"/>
+    </row>
+    <row r="736" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H736"/>
+      <c r="I736"/>
+    </row>
+    <row r="737" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H737"/>
+      <c r="I737"/>
+    </row>
+    <row r="738" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H738"/>
+      <c r="I738"/>
+    </row>
+    <row r="739" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H739"/>
+      <c r="I739"/>
+    </row>
+    <row r="740" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H740"/>
+      <c r="I740"/>
+    </row>
+    <row r="741" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H741"/>
+      <c r="I741"/>
+    </row>
+    <row r="742" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H742"/>
+      <c r="I742"/>
+    </row>
+    <row r="743" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H743"/>
+      <c r="I743"/>
+    </row>
+    <row r="744" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H744"/>
+      <c r="I744"/>
+    </row>
+    <row r="745" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H745"/>
+      <c r="I745"/>
+    </row>
+    <row r="746" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H746"/>
+      <c r="I746"/>
+    </row>
+    <row r="747" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H747"/>
+      <c r="I747"/>
+    </row>
+    <row r="748" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H748"/>
+      <c r="I748"/>
+    </row>
+    <row r="749" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H749"/>
+      <c r="I749"/>
+    </row>
+    <row r="750" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H750"/>
+      <c r="I750"/>
+    </row>
+    <row r="751" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H751"/>
+      <c r="I751"/>
+    </row>
+    <row r="752" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H752"/>
+      <c r="I752"/>
+    </row>
+    <row r="753" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H753"/>
+      <c r="I753"/>
+    </row>
+    <row r="754" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H754"/>
+      <c r="I754"/>
+    </row>
+    <row r="755" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H755"/>
+      <c r="I755"/>
+    </row>
+    <row r="756" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H756"/>
+      <c r="I756"/>
+    </row>
+    <row r="757" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H757"/>
+      <c r="I757"/>
+    </row>
+    <row r="758" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H758"/>
+      <c r="I758"/>
+    </row>
+    <row r="759" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H759"/>
+      <c r="I759"/>
+    </row>
+    <row r="760" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H760"/>
+      <c r="I760"/>
+    </row>
+    <row r="761" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H761"/>
+      <c r="I761"/>
+    </row>
+    <row r="762" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H762"/>
+      <c r="I762"/>
+    </row>
+    <row r="763" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H763"/>
+      <c r="I763"/>
+    </row>
+    <row r="764" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H764"/>
+      <c r="I764"/>
+    </row>
+    <row r="765" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H765"/>
+      <c r="I765"/>
+    </row>
+    <row r="766" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H766"/>
+      <c r="I766"/>
+    </row>
+    <row r="767" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H767"/>
+      <c r="I767"/>
+    </row>
+    <row r="768" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H768"/>
+      <c r="I768"/>
+    </row>
+    <row r="769" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H769"/>
+      <c r="I769"/>
+    </row>
+    <row r="770" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H770"/>
+      <c r="I770"/>
+    </row>
+    <row r="771" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H771"/>
+      <c r="I771"/>
+    </row>
+    <row r="772" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H772"/>
+      <c r="I772"/>
+    </row>
+    <row r="773" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H773"/>
+      <c r="I773"/>
+    </row>
+    <row r="774" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H774"/>
+      <c r="I774"/>
+    </row>
+    <row r="775" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H775"/>
+      <c r="I775"/>
+    </row>
+    <row r="776" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H776"/>
+      <c r="I776"/>
+    </row>
+    <row r="777" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H777"/>
+      <c r="I777"/>
+    </row>
+    <row r="778" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H778"/>
+      <c r="I778"/>
+    </row>
+    <row r="779" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H779"/>
+      <c r="I779"/>
+    </row>
+    <row r="780" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H780"/>
+      <c r="I780"/>
+    </row>
+    <row r="781" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H781"/>
+      <c r="I781"/>
+    </row>
+    <row r="782" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H782"/>
+      <c r="I782"/>
+    </row>
+    <row r="783" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H783"/>
+      <c r="I783"/>
+    </row>
+    <row r="784" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H784"/>
+      <c r="I784"/>
+    </row>
+    <row r="785" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H785"/>
+      <c r="I785"/>
+    </row>
+    <row r="786" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H786"/>
+      <c r="I786"/>
+    </row>
+    <row r="787" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H787"/>
+      <c r="I787"/>
+    </row>
+    <row r="788" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H788"/>
+      <c r="I788"/>
+    </row>
+    <row r="789" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H789"/>
+      <c r="I789"/>
+    </row>
+    <row r="790" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H790"/>
+      <c r="I790"/>
+    </row>
+    <row r="791" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H791"/>
+      <c r="I791"/>
+    </row>
+    <row r="792" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H792"/>
+      <c r="I792"/>
+    </row>
+    <row r="793" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H793"/>
+      <c r="I793"/>
+    </row>
+    <row r="794" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H794"/>
+      <c r="I794"/>
+    </row>
+    <row r="795" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H795"/>
+      <c r="I795"/>
+    </row>
+    <row r="796" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H796"/>
+      <c r="I796"/>
+    </row>
+    <row r="797" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H797"/>
+      <c r="I797"/>
+    </row>
+    <row r="798" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H798"/>
+      <c r="I798"/>
+    </row>
+    <row r="799" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H799"/>
+      <c r="I799"/>
+    </row>
+    <row r="800" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H800"/>
+      <c r="I800"/>
+    </row>
+    <row r="801" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H801"/>
+      <c r="I801"/>
+    </row>
+    <row r="802" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H802"/>
+      <c r="I802"/>
+    </row>
+    <row r="803" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H803"/>
+      <c r="I803"/>
+    </row>
+    <row r="804" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H804"/>
+      <c r="I804"/>
+    </row>
+    <row r="805" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H805"/>
+      <c r="I805"/>
+    </row>
+    <row r="806" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H806"/>
+      <c r="I806"/>
+    </row>
+    <row r="807" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H807"/>
+      <c r="I807"/>
+    </row>
+    <row r="808" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H808"/>
+      <c r="I808"/>
+    </row>
+    <row r="809" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H809"/>
+      <c r="I809"/>
+    </row>
+    <row r="810" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H810"/>
+      <c r="I810"/>
+    </row>
+    <row r="811" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H811"/>
+      <c r="I811"/>
+    </row>
+    <row r="812" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H812"/>
+      <c r="I812"/>
+    </row>
+    <row r="813" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H813"/>
+      <c r="I813"/>
+    </row>
+    <row r="814" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H814"/>
+      <c r="I814"/>
+    </row>
+    <row r="815" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H815"/>
+      <c r="I815"/>
+    </row>
+    <row r="816" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H816"/>
+      <c r="I816"/>
+    </row>
+    <row r="817" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H817"/>
+      <c r="I817"/>
+    </row>
+    <row r="818" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H818"/>
+      <c r="I818"/>
+    </row>
+    <row r="819" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H819"/>
+      <c r="I819"/>
+    </row>
+    <row r="820" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H820"/>
+      <c r="I820"/>
+    </row>
+    <row r="821" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H821"/>
+      <c r="I821"/>
+    </row>
+    <row r="822" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H822"/>
+      <c r="I822"/>
+    </row>
+    <row r="823" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H823"/>
+      <c r="I823"/>
+    </row>
+    <row r="824" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H824"/>
+      <c r="I824"/>
+    </row>
+    <row r="825" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H825"/>
+      <c r="I825"/>
+    </row>
+    <row r="826" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H826"/>
+      <c r="I826"/>
+    </row>
+    <row r="827" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H827"/>
+      <c r="I827"/>
+    </row>
+    <row r="828" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H828"/>
+      <c r="I828"/>
+    </row>
+    <row r="829" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H829"/>
+      <c r="I829"/>
+    </row>
+    <row r="830" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H830"/>
+      <c r="I830"/>
+    </row>
+    <row r="831" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H831"/>
+      <c r="I831"/>
+    </row>
+    <row r="832" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H832"/>
+      <c r="I832"/>
+    </row>
+    <row r="833" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H833"/>
+      <c r="I833"/>
+    </row>
+    <row r="834" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H834"/>
+      <c r="I834"/>
+    </row>
+    <row r="835" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H835"/>
+      <c r="I835"/>
+    </row>
+    <row r="836" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H836"/>
+      <c r="I836"/>
+    </row>
+    <row r="837" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H837"/>
+      <c r="I837"/>
+    </row>
+    <row r="838" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H838"/>
+      <c r="I838"/>
+    </row>
+    <row r="839" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H839"/>
+      <c r="I839"/>
+    </row>
+    <row r="840" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H840"/>
+      <c r="I840"/>
+    </row>
+    <row r="841" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H841"/>
+      <c r="I841"/>
+    </row>
+    <row r="842" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H842"/>
+      <c r="I842"/>
+    </row>
+    <row r="843" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H843"/>
+      <c r="I843"/>
+    </row>
+    <row r="844" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H844"/>
+      <c r="I844"/>
+    </row>
+    <row r="845" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H845"/>
+      <c r="I845"/>
+    </row>
+    <row r="846" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H846"/>
+      <c r="I846"/>
+    </row>
+    <row r="847" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H847"/>
+      <c r="I847"/>
+    </row>
+    <row r="848" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H848"/>
+      <c r="I848"/>
+    </row>
+    <row r="849" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H849"/>
+      <c r="I849"/>
+    </row>
+    <row r="850" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H850"/>
+      <c r="I850"/>
+    </row>
+    <row r="851" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H851"/>
+      <c r="I851"/>
+    </row>
+    <row r="852" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H852"/>
+      <c r="I852"/>
+    </row>
+    <row r="853" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H853"/>
+      <c r="I853"/>
+    </row>
+    <row r="854" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H854"/>
+      <c r="I854"/>
+    </row>
+    <row r="855" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H855"/>
+      <c r="I855"/>
+    </row>
+    <row r="856" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H856"/>
+      <c r="I856"/>
+    </row>
+    <row r="857" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H857"/>
+      <c r="I857"/>
+    </row>
+    <row r="858" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H858"/>
+      <c r="I858"/>
+    </row>
+    <row r="859" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H859"/>
+      <c r="I859"/>
+    </row>
+    <row r="860" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H860"/>
+      <c r="I860"/>
+    </row>
+    <row r="861" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H861"/>
+      <c r="I861"/>
+    </row>
+    <row r="862" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H862"/>
+      <c r="I862"/>
+    </row>
+    <row r="863" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H863"/>
+      <c r="I863"/>
+    </row>
+    <row r="864" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H864"/>
+      <c r="I864"/>
+    </row>
+    <row r="865" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H865"/>
+      <c r="I865"/>
+    </row>
+    <row r="866" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H866"/>
+      <c r="I866"/>
+    </row>
+    <row r="867" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H867"/>
+      <c r="I867"/>
+    </row>
+    <row r="868" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H868"/>
+      <c r="I868"/>
+    </row>
+    <row r="869" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H869"/>
+      <c r="I869"/>
+    </row>
+    <row r="870" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H870"/>
+      <c r="I870"/>
+    </row>
+    <row r="871" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H871"/>
+      <c r="I871"/>
+    </row>
+    <row r="872" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H872"/>
+      <c r="I872"/>
+    </row>
+    <row r="873" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H873"/>
+      <c r="I873"/>
+    </row>
+    <row r="874" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H874"/>
+      <c r="I874"/>
+    </row>
+    <row r="875" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H875"/>
+      <c r="I875"/>
+    </row>
+    <row r="876" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H876"/>
+      <c r="I876"/>
+    </row>
+    <row r="877" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H877"/>
+      <c r="I877"/>
+    </row>
+    <row r="878" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H878"/>
+      <c r="I878"/>
+    </row>
+    <row r="879" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H879"/>
+      <c r="I879"/>
+    </row>
+    <row r="880" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H880"/>
+      <c r="I880"/>
+    </row>
+    <row r="881" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H881"/>
+      <c r="I881"/>
+    </row>
+    <row r="882" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H882"/>
+      <c r="I882"/>
+    </row>
+    <row r="883" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H883"/>
+      <c r="I883"/>
+    </row>
+    <row r="884" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H884"/>
+      <c r="I884"/>
+    </row>
+    <row r="885" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H885"/>
+      <c r="I885"/>
+    </row>
+    <row r="886" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H886"/>
+      <c r="I886"/>
+    </row>
+    <row r="887" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H887"/>
+      <c r="I887"/>
+    </row>
+    <row r="888" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H888"/>
+      <c r="I888"/>
+    </row>
+    <row r="889" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H889"/>
+      <c r="I889"/>
+    </row>
+    <row r="890" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H890"/>
+      <c r="I890"/>
+    </row>
+    <row r="891" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H891"/>
+      <c r="I891"/>
+    </row>
+    <row r="892" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H892"/>
+      <c r="I892"/>
+    </row>
+    <row r="893" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H893"/>
+      <c r="I893"/>
+    </row>
+    <row r="894" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H894"/>
+      <c r="I894"/>
+    </row>
+    <row r="895" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H895"/>
+      <c r="I895"/>
+    </row>
+    <row r="896" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H896"/>
+      <c r="I896"/>
+    </row>
+    <row r="897" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H897"/>
+      <c r="I897"/>
+    </row>
+    <row r="898" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H898"/>
+      <c r="I898"/>
+    </row>
+    <row r="899" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H899"/>
+      <c r="I899"/>
+    </row>
+    <row r="900" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H900"/>
+      <c r="I900"/>
+    </row>
+    <row r="901" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H901"/>
+      <c r="I901"/>
+    </row>
+    <row r="902" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H902"/>
+      <c r="I902"/>
+    </row>
+    <row r="903" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H903"/>
+      <c r="I903"/>
+    </row>
+    <row r="904" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H904"/>
+      <c r="I904"/>
+    </row>
+    <row r="905" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H905"/>
+      <c r="I905"/>
+    </row>
+    <row r="906" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H906"/>
+      <c r="I906"/>
+    </row>
+    <row r="907" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H907"/>
+      <c r="I907"/>
+    </row>
+    <row r="908" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H908"/>
+      <c r="I908"/>
+    </row>
+    <row r="909" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H909"/>
+      <c r="I909"/>
+    </row>
+    <row r="910" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H910"/>
+      <c r="I910"/>
+    </row>
+    <row r="911" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H911"/>
+      <c r="I911"/>
+    </row>
+    <row r="912" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H912"/>
+      <c r="I912"/>
+    </row>
+    <row r="913" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H913"/>
+      <c r="I913"/>
+    </row>
+    <row r="914" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H914"/>
+      <c r="I914"/>
+    </row>
+    <row r="915" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H915"/>
+      <c r="I915"/>
+    </row>
+    <row r="916" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H916"/>
+      <c r="I916"/>
+    </row>
+    <row r="917" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H917"/>
+      <c r="I917"/>
+    </row>
+    <row r="918" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H918"/>
+      <c r="I918"/>
+    </row>
+    <row r="919" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H919"/>
+      <c r="I919"/>
+    </row>
+    <row r="920" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H920"/>
+      <c r="I920"/>
+    </row>
+    <row r="921" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H921"/>
+      <c r="I921"/>
+    </row>
+    <row r="922" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H922"/>
+      <c r="I922"/>
+    </row>
+    <row r="923" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H923"/>
+      <c r="I923"/>
+    </row>
+    <row r="924" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H924"/>
+      <c r="I924"/>
+    </row>
+    <row r="925" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H925"/>
+      <c r="I925"/>
+    </row>
+    <row r="926" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H926"/>
+      <c r="I926"/>
+    </row>
+    <row r="927" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H927"/>
+      <c r="I927"/>
+    </row>
+    <row r="928" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H928"/>
+      <c r="I928"/>
+    </row>
+    <row r="929" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H929"/>
+      <c r="I929"/>
+    </row>
+    <row r="930" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H930"/>
+      <c r="I930"/>
+    </row>
+    <row r="931" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H931"/>
+      <c r="I931"/>
+    </row>
+    <row r="932" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H932"/>
+      <c r="I932"/>
+    </row>
+    <row r="933" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H933"/>
+      <c r="I933"/>
+    </row>
+    <row r="934" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H934"/>
+      <c r="I934"/>
+    </row>
+    <row r="935" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H935"/>
+      <c r="I935"/>
+    </row>
+    <row r="936" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H936"/>
+      <c r="I936"/>
+    </row>
+    <row r="937" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H937"/>
+      <c r="I937"/>
+    </row>
+    <row r="938" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H938"/>
+      <c r="I938"/>
+    </row>
+    <row r="939" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H939"/>
+      <c r="I939"/>
+    </row>
+    <row r="940" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H940"/>
+      <c r="I940"/>
+    </row>
+    <row r="941" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H941"/>
+      <c r="I941"/>
+    </row>
+    <row r="942" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H942"/>
+      <c r="I942"/>
+    </row>
+    <row r="943" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H943"/>
+      <c r="I943"/>
+    </row>
+    <row r="944" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H944"/>
+      <c r="I944"/>
+    </row>
+    <row r="945" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H945"/>
+      <c r="I945"/>
+    </row>
+    <row r="946" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H946"/>
+      <c r="I946"/>
+    </row>
+    <row r="947" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H947"/>
+      <c r="I947"/>
+    </row>
+    <row r="948" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H948"/>
+      <c r="I948"/>
+    </row>
+    <row r="949" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H949"/>
+      <c r="I949"/>
+    </row>
+    <row r="950" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H950"/>
+      <c r="I950"/>
+    </row>
+    <row r="951" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H951"/>
+      <c r="I951"/>
+    </row>
+    <row r="952" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H952"/>
+      <c r="I952"/>
+    </row>
+    <row r="953" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H953"/>
+      <c r="I953"/>
+    </row>
+    <row r="954" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H954"/>
+      <c r="I954"/>
+    </row>
+    <row r="955" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H955"/>
+      <c r="I955"/>
+    </row>
+    <row r="956" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H956"/>
+      <c r="I956"/>
+    </row>
+    <row r="957" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H957"/>
+      <c r="I957"/>
+    </row>
+    <row r="958" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H958"/>
+      <c r="I958"/>
+    </row>
+    <row r="959" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H959"/>
+      <c r="I959"/>
+    </row>
+    <row r="960" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H960"/>
+      <c r="I960"/>
+    </row>
+    <row r="961" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H961"/>
+      <c r="I961"/>
+    </row>
+    <row r="962" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H962"/>
+      <c r="I962"/>
+    </row>
+    <row r="963" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H963"/>
+      <c r="I963"/>
+    </row>
+    <row r="964" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H964"/>
+      <c r="I964"/>
+    </row>
+    <row r="965" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H965"/>
+      <c r="I965"/>
+    </row>
+    <row r="966" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H966"/>
+      <c r="I966"/>
+    </row>
+    <row r="967" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H967"/>
+      <c r="I967"/>
+    </row>
+    <row r="968" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H968"/>
+      <c r="I968"/>
+    </row>
+    <row r="969" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H969"/>
+      <c r="I969"/>
+    </row>
+    <row r="970" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H970"/>
+      <c r="I970"/>
+    </row>
+    <row r="971" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H971"/>
+      <c r="I971"/>
+    </row>
+    <row r="972" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H972"/>
+      <c r="I972"/>
+    </row>
+    <row r="973" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H973"/>
+      <c r="I973"/>
+    </row>
+    <row r="974" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H974"/>
+      <c r="I974"/>
+    </row>
+    <row r="975" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H975"/>
+      <c r="I975"/>
+    </row>
+    <row r="976" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H976"/>
+      <c r="I976"/>
+    </row>
+    <row r="977" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H977"/>
+      <c r="I977"/>
+    </row>
+    <row r="978" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H978"/>
+      <c r="I978"/>
+    </row>
+    <row r="979" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H979"/>
+      <c r="I979"/>
+    </row>
+    <row r="980" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H980"/>
+      <c r="I980"/>
+    </row>
+    <row r="981" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H981"/>
+      <c r="I981"/>
+    </row>
+    <row r="982" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H982"/>
+      <c r="I982"/>
+    </row>
+    <row r="983" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H983"/>
+      <c r="I983"/>
+    </row>
+    <row r="984" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H984"/>
+      <c r="I984"/>
+    </row>
+    <row r="985" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H985"/>
+      <c r="I985"/>
+    </row>
+    <row r="986" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H986"/>
+      <c r="I986"/>
+    </row>
+    <row r="987" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H987"/>
+      <c r="I987"/>
+    </row>
+    <row r="988" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H988"/>
+      <c r="I988"/>
+    </row>
+    <row r="989" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H989"/>
+      <c r="I989"/>
+    </row>
+    <row r="990" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H990"/>
+      <c r="I990"/>
+    </row>
+    <row r="991" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H991"/>
+      <c r="I991"/>
+    </row>
+    <row r="992" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H992"/>
+      <c r="I992"/>
+    </row>
+    <row r="993" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H993"/>
+      <c r="I993"/>
+    </row>
+    <row r="994" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H994"/>
+      <c r="I994"/>
+    </row>
+    <row r="995" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H995"/>
+      <c r="I995"/>
+    </row>
+    <row r="996" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H996"/>
+      <c r="I996"/>
+    </row>
+    <row r="997" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H997"/>
+      <c r="I997"/>
+    </row>
+    <row r="998" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H998"/>
+      <c r="I998"/>
+    </row>
+    <row r="999" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H999"/>
+      <c r="I999"/>
+    </row>
+    <row r="1000" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H1000"/>
+      <c r="I1000"/>
     </row>
   </sheetData>
   <mergeCells count="34">
